--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Damasco.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Damasco.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44187</v>
+        <v>44160</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -515,7 +515,7 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -524,20 +524,20 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="N2" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="O2" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="P2" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -546,10 +546,10 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T2" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44187</v>
+        <v>44160</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -595,7 +595,7 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -604,20 +604,20 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>95</v>
+        <v>40</v>
       </c>
       <c r="N3" t="n">
-        <v>13500</v>
+        <v>7000</v>
       </c>
       <c r="O3" t="n">
-        <v>13500</v>
+        <v>7000</v>
       </c>
       <c r="P3" t="n">
-        <v>13500</v>
+        <v>7000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -626,10 +626,10 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="T3" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44187</v>
+        <v>44166</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -675,41 +675,41 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M4" t="n">
         <v>120</v>
       </c>
       <c r="N4" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O4" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P4" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S4" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T4" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44189</v>
+        <v>44166</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -755,41 +755,41 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="N5" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O5" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P5" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S5" t="n">
-        <v>667</v>
+        <v>800</v>
       </c>
       <c r="T5" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44167</v>
+        <v>44162</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -840,20 +840,20 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="N6" t="n">
-        <v>10000</v>
+        <v>8500</v>
       </c>
       <c r="O6" t="n">
-        <v>10000</v>
+        <v>8500</v>
       </c>
       <c r="P6" t="n">
-        <v>10000</v>
+        <v>8500</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1000</v>
+        <v>850</v>
       </c>
       <c r="T6" t="n">
         <v>10</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44167</v>
+        <v>44162</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -924,20 +924,20 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>120</v>
+        <v>75</v>
       </c>
       <c r="N7" t="n">
-        <v>9500</v>
+        <v>14000</v>
       </c>
       <c r="O7" t="n">
-        <v>9500</v>
+        <v>15000</v>
       </c>
       <c r="P7" t="n">
-        <v>9500</v>
+        <v>14400</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -946,10 +946,10 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>950</v>
+        <v>800</v>
       </c>
       <c r="T7" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8">
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44167</v>
+        <v>44169</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -995,7 +995,7 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Dina</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -1004,32 +1004,32 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N8" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O8" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P8" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S8" t="n">
-        <v>833</v>
+        <v>1000</v>
       </c>
       <c r="T8" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44166</v>
+        <v>44189</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1075,7 +1075,7 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
@@ -1084,32 +1084,32 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="N9" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O9" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P9" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1000</v>
+        <v>667</v>
       </c>
       <c r="T9" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10">
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44166</v>
+        <v>44174</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1155,25 +1155,25 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Modesto</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M10" t="n">
         <v>120</v>
       </c>
       <c r="N10" t="n">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="O10" t="n">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="P10" t="n">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>800</v>
+        <v>850</v>
       </c>
       <c r="T10" t="n">
         <v>10</v>
@@ -1244,20 +1244,20 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="N11" t="n">
-        <v>8500</v>
+        <v>15000</v>
       </c>
       <c r="O11" t="n">
-        <v>8500</v>
+        <v>15000</v>
       </c>
       <c r="P11" t="n">
-        <v>8500</v>
+        <v>15000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
@@ -1266,10 +1266,10 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>850</v>
+        <v>833</v>
       </c>
       <c r="T11" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12">
@@ -1320,20 +1320,20 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="N12" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O12" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P12" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>833</v>
+        <v>667</v>
       </c>
       <c r="T12" t="n">
         <v>18</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44174</v>
+        <v>44159</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1395,41 +1395,41 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Modesto</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="N13" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O13" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P13" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S13" t="n">
-        <v>667</v>
+        <v>800</v>
       </c>
       <c r="T13" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14">
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44162</v>
+        <v>44159</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1480,20 +1480,20 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="N14" t="n">
-        <v>8500</v>
+        <v>7000</v>
       </c>
       <c r="O14" t="n">
-        <v>8500</v>
+        <v>7000</v>
       </c>
       <c r="P14" t="n">
-        <v>8500</v>
+        <v>7000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>850</v>
+        <v>700</v>
       </c>
       <c r="T14" t="n">
         <v>10</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44162</v>
+        <v>44187</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1555,7 +1555,7 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
@@ -1564,20 +1564,20 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="N15" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O15" t="n">
         <v>15000</v>
       </c>
       <c r="P15" t="n">
-        <v>14400</v>
+        <v>15000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
@@ -1586,10 +1586,10 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T15" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16">
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44175</v>
+        <v>44187</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1635,29 +1635,29 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Modesto</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>140</v>
+        <v>95</v>
       </c>
       <c r="N16" t="n">
-        <v>11000</v>
+        <v>13500</v>
       </c>
       <c r="O16" t="n">
-        <v>12000</v>
+        <v>13500</v>
       </c>
       <c r="P16" t="n">
-        <v>11571</v>
+        <v>13500</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
@@ -1666,10 +1666,10 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>964</v>
+        <v>900</v>
       </c>
       <c r="T16" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17">
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44176</v>
+        <v>44187</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1715,29 +1715,29 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Modesto</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="N17" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O17" t="n">
         <v>12000</v>
       </c>
       <c r="P17" t="n">
-        <v>11609</v>
+        <v>12000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
@@ -1746,10 +1746,10 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>967</v>
+        <v>800</v>
       </c>
       <c r="T17" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18">
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44194</v>
+        <v>44195</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1804,7 +1804,7 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="N18" t="n">
         <v>13000</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44169</v>
+        <v>44194</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
@@ -1875,7 +1875,7 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Dina</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
@@ -1884,32 +1884,32 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="N19" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O19" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P19" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S19" t="n">
-        <v>1000</v>
+        <v>867</v>
       </c>
       <c r="T19" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20">
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44195</v>
+        <v>44176</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1955,7 +1955,7 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Modesto</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
@@ -1964,20 +1964,20 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="N20" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O20" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P20" t="n">
-        <v>13000</v>
+        <v>11609</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
@@ -1986,10 +1986,10 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>867</v>
+        <v>967</v>
       </c>
       <c r="T20" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21">
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44159</v>
+        <v>44175</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -2035,7 +2035,7 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Modesto</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
@@ -2044,20 +2044,20 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="N21" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="O21" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P21" t="n">
-        <v>8000</v>
+        <v>11571</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
@@ -2066,10 +2066,10 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>800</v>
+        <v>964</v>
       </c>
       <c r="T21" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22">
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44159</v>
+        <v>44167</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
@@ -2120,20 +2120,20 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="N22" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O22" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P22" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="T22" t="n">
         <v>10</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44160</v>
+        <v>44167</v>
       </c>
       <c r="E23" t="n">
         <v>13</v>
@@ -2204,16 +2204,16 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>25</v>
+        <v>120</v>
       </c>
       <c r="N23" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="O23" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="P23" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>800</v>
+        <v>950</v>
       </c>
       <c r="T23" t="n">
         <v>10</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44160</v>
+        <v>44167</v>
       </c>
       <c r="E24" t="n">
         <v>13</v>
@@ -2280,24 +2280,24 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M24" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="N24" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="O24" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="P24" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
@@ -2306,10 +2306,10 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>700</v>
+        <v>833</v>
       </c>
       <c r="T24" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Damasco.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Damasco.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44160</v>
+        <v>44194</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -515,7 +515,7 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -524,20 +524,20 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>25</v>
+        <v>120</v>
       </c>
       <c r="N2" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="O2" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="P2" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -546,10 +546,10 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>800</v>
+        <v>867</v>
       </c>
       <c r="T2" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44160</v>
+        <v>44174</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -595,25 +595,25 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Modesto</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="N3" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="O3" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="P3" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -622,11 +622,11 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S3" t="n">
-        <v>700</v>
+        <v>850</v>
       </c>
       <c r="T3" t="n">
         <v>10</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44166</v>
+        <v>44174</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -675,7 +675,7 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Modesto</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -684,20 +684,20 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="N4" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O4" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P4" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -706,10 +706,10 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1000</v>
+        <v>833</v>
       </c>
       <c r="T4" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5">
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44166</v>
+        <v>44174</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -755,7 +755,7 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Modesto</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -767,17 +767,17 @@
         <v>120</v>
       </c>
       <c r="N5" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O5" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P5" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -786,10 +786,10 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>800</v>
+        <v>667</v>
       </c>
       <c r="T5" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44162</v>
+        <v>44189</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -835,7 +835,7 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -844,20 +844,20 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>70</v>
+        <v>130</v>
       </c>
       <c r="N6" t="n">
-        <v>8500</v>
+        <v>12000</v>
       </c>
       <c r="O6" t="n">
-        <v>8500</v>
+        <v>12000</v>
       </c>
       <c r="P6" t="n">
-        <v>8500</v>
+        <v>12000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -866,10 +866,10 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>850</v>
+        <v>667</v>
       </c>
       <c r="T6" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7">
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44162</v>
+        <v>44159</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -924,20 +924,20 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="N7" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="O7" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="P7" t="n">
-        <v>14400</v>
+        <v>8000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -949,7 +949,7 @@
         <v>800</v>
       </c>
       <c r="T7" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44169</v>
+        <v>44159</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -995,25 +995,25 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Dina</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="N8" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O8" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P8" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1022,11 +1022,11 @@
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="T8" t="n">
         <v>10</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44189</v>
+        <v>44195</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1084,20 +1084,20 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="N9" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O9" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P9" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
@@ -1106,10 +1106,10 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>667</v>
+        <v>867</v>
       </c>
       <c r="T9" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10">
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44174</v>
+        <v>44169</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1155,7 +1155,7 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Modesto</t>
+          <t>Dina</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="N10" t="n">
-        <v>8500</v>
+        <v>10000</v>
       </c>
       <c r="O10" t="n">
-        <v>8500</v>
+        <v>10000</v>
       </c>
       <c r="P10" t="n">
-        <v>8500</v>
+        <v>10000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1182,11 +1182,11 @@
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S10" t="n">
-        <v>850</v>
+        <v>1000</v>
       </c>
       <c r="T10" t="n">
         <v>10</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44174</v>
+        <v>44167</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1235,41 +1235,41 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Modesto</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>180</v>
+        <v>85</v>
       </c>
       <c r="N11" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O11" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P11" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S11" t="n">
-        <v>833</v>
+        <v>1000</v>
       </c>
       <c r="T11" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12">
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44174</v>
+        <v>44167</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1315,41 +1315,41 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Modesto</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M12" t="n">
         <v>120</v>
       </c>
       <c r="N12" t="n">
-        <v>12000</v>
+        <v>9500</v>
       </c>
       <c r="O12" t="n">
-        <v>12000</v>
+        <v>9500</v>
       </c>
       <c r="P12" t="n">
-        <v>12000</v>
+        <v>9500</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S12" t="n">
-        <v>667</v>
+        <v>950</v>
       </c>
       <c r="T12" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44159</v>
+        <v>44167</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1404,20 +1404,20 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="N13" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="O13" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="P13" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
@@ -1426,10 +1426,10 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>800</v>
+        <v>833</v>
       </c>
       <c r="T13" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14">
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44159</v>
+        <v>44187</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1475,29 +1475,29 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="N14" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="O14" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="P14" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
@@ -1506,10 +1506,10 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="T14" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15">
@@ -1560,20 +1560,20 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="N15" t="n">
-        <v>15000</v>
+        <v>13500</v>
       </c>
       <c r="O15" t="n">
-        <v>15000</v>
+        <v>13500</v>
       </c>
       <c r="P15" t="n">
-        <v>15000</v>
+        <v>13500</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="T15" t="n">
         <v>15</v>
@@ -1640,20 +1640,20 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>95</v>
+        <v>120</v>
       </c>
       <c r="N16" t="n">
-        <v>13500</v>
+        <v>12000</v>
       </c>
       <c r="O16" t="n">
-        <v>13500</v>
+        <v>12000</v>
       </c>
       <c r="P16" t="n">
-        <v>13500</v>
+        <v>12000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="T16" t="n">
         <v>15</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44187</v>
+        <v>44166</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1715,41 +1715,41 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M17" t="n">
         <v>120</v>
       </c>
       <c r="N17" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O17" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P17" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S17" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T17" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18">
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44195</v>
+        <v>44166</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1795,41 +1795,41 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="N18" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="O18" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="P18" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S18" t="n">
-        <v>867</v>
+        <v>800</v>
       </c>
       <c r="T18" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19">
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44194</v>
+        <v>44160</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
@@ -1875,7 +1875,7 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
@@ -1884,20 +1884,20 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>120</v>
+        <v>25</v>
       </c>
       <c r="N19" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="O19" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="P19" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
@@ -1906,10 +1906,10 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>867</v>
+        <v>800</v>
       </c>
       <c r="T19" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20">
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44176</v>
+        <v>44160</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1955,29 +1955,29 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Modesto</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>115</v>
+        <v>40</v>
       </c>
       <c r="N20" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="O20" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="P20" t="n">
-        <v>11609</v>
+        <v>7000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
@@ -1986,10 +1986,10 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>967</v>
+        <v>700</v>
       </c>
       <c r="T20" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21">
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44167</v>
+        <v>44162</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
@@ -2120,20 +2120,20 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="N22" t="n">
-        <v>10000</v>
+        <v>8500</v>
       </c>
       <c r="O22" t="n">
-        <v>10000</v>
+        <v>8500</v>
       </c>
       <c r="P22" t="n">
-        <v>10000</v>
+        <v>8500</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>1000</v>
+        <v>850</v>
       </c>
       <c r="T22" t="n">
         <v>10</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44167</v>
+        <v>44162</v>
       </c>
       <c r="E23" t="n">
         <v>13</v>
@@ -2204,20 +2204,20 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>120</v>
+        <v>75</v>
       </c>
       <c r="N23" t="n">
-        <v>9500</v>
+        <v>14000</v>
       </c>
       <c r="O23" t="n">
-        <v>9500</v>
+        <v>15000</v>
       </c>
       <c r="P23" t="n">
-        <v>9500</v>
+        <v>14400</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
@@ -2226,10 +2226,10 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>950</v>
+        <v>800</v>
       </c>
       <c r="T23" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24">
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44167</v>
+        <v>44176</v>
       </c>
       <c r="E24" t="n">
         <v>13</v>
@@ -2275,7 +2275,7 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Modesto</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
@@ -2284,20 +2284,20 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>60</v>
+        <v>115</v>
       </c>
       <c r="N24" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="O24" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P24" t="n">
-        <v>15000</v>
+        <v>11609</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
@@ -2306,10 +2306,10 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>833</v>
+        <v>967</v>
       </c>
       <c r="T24" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Damasco.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Damasco.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44194</v>
+        <v>44162</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -515,7 +515,7 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -524,20 +524,20 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="N2" t="n">
-        <v>13000</v>
+        <v>8500</v>
       </c>
       <c r="O2" t="n">
-        <v>13000</v>
+        <v>8500</v>
       </c>
       <c r="P2" t="n">
-        <v>13000</v>
+        <v>8500</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -546,10 +546,10 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>867</v>
+        <v>850</v>
       </c>
       <c r="T2" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44174</v>
+        <v>44162</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -595,7 +595,7 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Modesto</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -604,32 +604,32 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>120</v>
+        <v>75</v>
       </c>
       <c r="N3" t="n">
-        <v>8500</v>
+        <v>14000</v>
       </c>
       <c r="O3" t="n">
-        <v>8500</v>
+        <v>15000</v>
       </c>
       <c r="P3" t="n">
-        <v>8500</v>
+        <v>14400</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S3" t="n">
-        <v>850</v>
+        <v>800</v>
       </c>
       <c r="T3" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44174</v>
+        <v>44189</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -675,7 +675,7 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Modesto</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>180</v>
+        <v>130</v>
       </c>
       <c r="N4" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O4" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P4" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -702,11 +702,11 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S4" t="n">
-        <v>833</v>
+        <v>667</v>
       </c>
       <c r="T4" t="n">
         <v>18</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44174</v>
+        <v>44176</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -760,36 +760,36 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="N5" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="O5" t="n">
         <v>12000</v>
       </c>
       <c r="P5" t="n">
-        <v>12000</v>
+        <v>11609</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S5" t="n">
-        <v>667</v>
+        <v>967</v>
       </c>
       <c r="T5" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44189</v>
+        <v>44194</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -844,20 +844,20 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="N6" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O6" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P6" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -866,10 +866,10 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>667</v>
+        <v>867</v>
       </c>
       <c r="T6" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7">
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44159</v>
+        <v>44160</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -924,7 +924,7 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="N7" t="n">
         <v>8000</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44159</v>
+        <v>44160</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -1004,7 +1004,7 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="N8" t="n">
         <v>7000</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44195</v>
+        <v>44167</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1075,29 +1075,29 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>124</v>
+        <v>85</v>
       </c>
       <c r="N9" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O9" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P9" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
@@ -1106,10 +1106,10 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>867</v>
+        <v>1000</v>
       </c>
       <c r="T9" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44169</v>
+        <v>44167</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1155,7 +1155,7 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Dina</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="N10" t="n">
-        <v>10000</v>
+        <v>9500</v>
       </c>
       <c r="O10" t="n">
-        <v>10000</v>
+        <v>9500</v>
       </c>
       <c r="P10" t="n">
-        <v>10000</v>
+        <v>9500</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1182,11 +1182,11 @@
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1000</v>
+        <v>950</v>
       </c>
       <c r="T10" t="n">
         <v>10</v>
@@ -1240,24 +1240,24 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="N11" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O11" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P11" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
@@ -1266,10 +1266,10 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1000</v>
+        <v>833</v>
       </c>
       <c r="T11" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12">
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44167</v>
+        <v>44175</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1315,7 +1315,7 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Modesto</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -1324,20 +1324,20 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="N12" t="n">
-        <v>9500</v>
+        <v>11000</v>
       </c>
       <c r="O12" t="n">
-        <v>9500</v>
+        <v>12000</v>
       </c>
       <c r="P12" t="n">
-        <v>9500</v>
+        <v>11571</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
@@ -1346,10 +1346,10 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>950</v>
+        <v>964</v>
       </c>
       <c r="T12" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44167</v>
+        <v>44174</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1395,7 +1395,7 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Modesto</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -1404,32 +1404,32 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="N13" t="n">
-        <v>15000</v>
+        <v>8500</v>
       </c>
       <c r="O13" t="n">
-        <v>15000</v>
+        <v>8500</v>
       </c>
       <c r="P13" t="n">
-        <v>15000</v>
+        <v>8500</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S13" t="n">
-        <v>833</v>
+        <v>850</v>
       </c>
       <c r="T13" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14">
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44187</v>
+        <v>44174</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1475,7 +1475,7 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Modesto</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
@@ -1484,7 +1484,7 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>80</v>
+        <v>180</v>
       </c>
       <c r="N14" t="n">
         <v>15000</v>
@@ -1497,19 +1497,19 @@
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1000</v>
+        <v>833</v>
       </c>
       <c r="T14" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15">
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44187</v>
+        <v>44174</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1555,7 +1555,7 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Modesto</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
@@ -1564,32 +1564,32 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>95</v>
+        <v>120</v>
       </c>
       <c r="N15" t="n">
-        <v>13500</v>
+        <v>12000</v>
       </c>
       <c r="O15" t="n">
-        <v>13500</v>
+        <v>12000</v>
       </c>
       <c r="P15" t="n">
-        <v>13500</v>
+        <v>12000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S15" t="n">
-        <v>900</v>
+        <v>667</v>
       </c>
       <c r="T15" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16">
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44187</v>
+        <v>44195</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1640,24 +1640,24 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="N16" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O16" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P16" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>800</v>
+        <v>867</v>
       </c>
       <c r="T16" t="n">
         <v>15</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44166</v>
+        <v>44169</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1715,7 +1715,7 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Dina</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
@@ -1724,7 +1724,7 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="N17" t="n">
         <v>10000</v>
@@ -1742,7 +1742,7 @@
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S17" t="n">
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44166</v>
+        <v>44159</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1800,11 +1800,11 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="N18" t="n">
         <v>8000</v>
@@ -1822,7 +1822,7 @@
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S18" t="n">
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44160</v>
+        <v>44159</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
@@ -1880,20 +1880,20 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="N19" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O19" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P19" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="T19" t="n">
         <v>10</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44160</v>
+        <v>44166</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1960,20 +1960,20 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="N20" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O20" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P20" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1982,11 +1982,11 @@
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S20" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="T20" t="n">
         <v>10</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44175</v>
+        <v>44166</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -2035,41 +2035,41 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Modesto</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="N21" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="O21" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P21" t="n">
-        <v>11571</v>
+        <v>8000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S21" t="n">
-        <v>964</v>
+        <v>800</v>
       </c>
       <c r="T21" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22">
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44162</v>
+        <v>44187</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
@@ -2115,7 +2115,7 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
@@ -2124,20 +2124,20 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="N22" t="n">
-        <v>8500</v>
+        <v>15000</v>
       </c>
       <c r="O22" t="n">
-        <v>8500</v>
+        <v>15000</v>
       </c>
       <c r="P22" t="n">
-        <v>8500</v>
+        <v>15000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
@@ -2146,10 +2146,10 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>850</v>
+        <v>1000</v>
       </c>
       <c r="T22" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23">
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44162</v>
+        <v>44187</v>
       </c>
       <c r="E23" t="n">
         <v>13</v>
@@ -2195,29 +2195,29 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="N23" t="n">
-        <v>14000</v>
+        <v>13500</v>
       </c>
       <c r="O23" t="n">
-        <v>15000</v>
+        <v>13500</v>
       </c>
       <c r="P23" t="n">
-        <v>14400</v>
+        <v>13500</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
@@ -2226,10 +2226,10 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="T23" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24">
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44176</v>
+        <v>44187</v>
       </c>
       <c r="E24" t="n">
         <v>13</v>
@@ -2275,29 +2275,29 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Modesto</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M24" t="n">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="N24" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O24" t="n">
         <v>12000</v>
       </c>
       <c r="P24" t="n">
-        <v>11609</v>
+        <v>12000</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
@@ -2306,10 +2306,10 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>967</v>
+        <v>800</v>
       </c>
       <c r="T24" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Damasco.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Damasco.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44162</v>
+        <v>44195</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -515,7 +515,7 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -524,20 +524,20 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>70</v>
+        <v>124</v>
       </c>
       <c r="N2" t="n">
-        <v>8500</v>
+        <v>13000</v>
       </c>
       <c r="O2" t="n">
-        <v>8500</v>
+        <v>13000</v>
       </c>
       <c r="P2" t="n">
-        <v>8500</v>
+        <v>13000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -546,10 +546,10 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>850</v>
+        <v>867</v>
       </c>
       <c r="T2" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44162</v>
+        <v>44187</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -595,7 +595,7 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -604,20 +604,20 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="N3" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O3" t="n">
         <v>15000</v>
       </c>
       <c r="P3" t="n">
-        <v>14400</v>
+        <v>15000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -626,10 +626,10 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T3" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44189</v>
+        <v>44187</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -680,24 +680,24 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>130</v>
+        <v>95</v>
       </c>
       <c r="N4" t="n">
-        <v>12000</v>
+        <v>13500</v>
       </c>
       <c r="O4" t="n">
-        <v>12000</v>
+        <v>13500</v>
       </c>
       <c r="P4" t="n">
-        <v>12000</v>
+        <v>13500</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -706,10 +706,10 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>667</v>
+        <v>900</v>
       </c>
       <c r="T4" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5">
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44176</v>
+        <v>44187</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -755,29 +755,29 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Modesto</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="N5" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O5" t="n">
         <v>12000</v>
       </c>
       <c r="P5" t="n">
-        <v>11609</v>
+        <v>12000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -786,10 +786,10 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>967</v>
+        <v>800</v>
       </c>
       <c r="T5" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44194</v>
+        <v>44174</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -835,7 +835,7 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Modesto</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -847,29 +847,29 @@
         <v>120</v>
       </c>
       <c r="N6" t="n">
-        <v>13000</v>
+        <v>8500</v>
       </c>
       <c r="O6" t="n">
-        <v>13000</v>
+        <v>8500</v>
       </c>
       <c r="P6" t="n">
-        <v>13000</v>
+        <v>8500</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S6" t="n">
-        <v>867</v>
+        <v>850</v>
       </c>
       <c r="T6" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44160</v>
+        <v>44174</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -915,7 +915,7 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Modesto</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -924,32 +924,32 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>25</v>
+        <v>180</v>
       </c>
       <c r="N7" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="O7" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="P7" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S7" t="n">
-        <v>800</v>
+        <v>833</v>
       </c>
       <c r="T7" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8">
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44160</v>
+        <v>44174</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -995,7 +995,7 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Modesto</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -1004,32 +1004,32 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="N8" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="O8" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="P8" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S8" t="n">
-        <v>700</v>
+        <v>667</v>
       </c>
       <c r="T8" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9">
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44175</v>
+        <v>44176</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1324,7 +1324,7 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="N12" t="n">
         <v>11000</v>
@@ -1333,7 +1333,7 @@
         <v>12000</v>
       </c>
       <c r="P12" t="n">
-        <v>11571</v>
+        <v>11609</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>964</v>
+        <v>967</v>
       </c>
       <c r="T12" t="n">
         <v>12</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44174</v>
+        <v>44162</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1395,7 +1395,7 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Modesto</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -1404,7 +1404,7 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="N13" t="n">
         <v>8500</v>
@@ -1422,7 +1422,7 @@
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S13" t="n">
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44174</v>
+        <v>44162</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1475,7 +1475,7 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Modesto</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>180</v>
+        <v>75</v>
       </c>
       <c r="N14" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="O14" t="n">
         <v>15000</v>
       </c>
       <c r="P14" t="n">
-        <v>15000</v>
+        <v>14400</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1502,11 +1502,11 @@
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S14" t="n">
-        <v>833</v>
+        <v>800</v>
       </c>
       <c r="T14" t="n">
         <v>18</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44174</v>
+        <v>44194</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1555,41 +1555,41 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Modesto</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M15" t="n">
         <v>120</v>
       </c>
       <c r="N15" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O15" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P15" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S15" t="n">
-        <v>667</v>
+        <v>867</v>
       </c>
       <c r="T15" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16">
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44195</v>
+        <v>44159</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1635,7 +1635,7 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
@@ -1644,20 +1644,20 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>124</v>
+        <v>80</v>
       </c>
       <c r="N16" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="O16" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="P16" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
@@ -1666,10 +1666,10 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>867</v>
+        <v>800</v>
       </c>
       <c r="T16" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17">
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44169</v>
+        <v>44159</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1715,25 +1715,25 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Dina</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="N17" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O17" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P17" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1742,11 +1742,11 @@
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S17" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="T17" t="n">
         <v>10</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44159</v>
+        <v>44169</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1795,7 +1795,7 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Dina</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
@@ -1807,13 +1807,13 @@
         <v>80</v>
       </c>
       <c r="N18" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O18" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P18" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1822,11 +1822,11 @@
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S18" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T18" t="n">
         <v>10</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44159</v>
+        <v>44160</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
@@ -1880,20 +1880,20 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="N19" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O19" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P19" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="T19" t="n">
         <v>10</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44166</v>
+        <v>44160</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1960,20 +1960,20 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="N20" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O20" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P20" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1982,11 +1982,11 @@
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S20" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="T20" t="n">
         <v>10</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44166</v>
+        <v>44189</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -2035,41 +2035,41 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="N21" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O21" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P21" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S21" t="n">
-        <v>800</v>
+        <v>667</v>
       </c>
       <c r="T21" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22">
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44187</v>
+        <v>44166</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
@@ -2115,7 +2115,7 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
@@ -2124,32 +2124,32 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="N22" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O22" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P22" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S22" t="n">
         <v>1000</v>
       </c>
       <c r="T22" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23">
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44187</v>
+        <v>44166</v>
       </c>
       <c r="E23" t="n">
         <v>13</v>
@@ -2195,7 +2195,7 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
@@ -2204,32 +2204,32 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>95</v>
+        <v>120</v>
       </c>
       <c r="N23" t="n">
-        <v>13500</v>
+        <v>8000</v>
       </c>
       <c r="O23" t="n">
-        <v>13500</v>
+        <v>8000</v>
       </c>
       <c r="P23" t="n">
-        <v>13500</v>
+        <v>8000</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S23" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="T23" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24">
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44187</v>
+        <v>44175</v>
       </c>
       <c r="E24" t="n">
         <v>13</v>
@@ -2275,29 +2275,29 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Modesto</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M24" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="N24" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="O24" t="n">
         <v>12000</v>
       </c>
       <c r="P24" t="n">
-        <v>12000</v>
+        <v>11571</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
@@ -2306,10 +2306,10 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>800</v>
+        <v>964</v>
       </c>
       <c r="T24" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Damasco.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Damasco.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44195</v>
+        <v>44187</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -524,20 +524,20 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>124</v>
+        <v>80</v>
       </c>
       <c r="N2" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O2" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P2" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>867</v>
+        <v>1000</v>
       </c>
       <c r="T2" t="n">
         <v>15</v>
@@ -600,20 +600,20 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="N3" t="n">
-        <v>15000</v>
+        <v>13500</v>
       </c>
       <c r="O3" t="n">
-        <v>15000</v>
+        <v>13500</v>
       </c>
       <c r="P3" t="n">
-        <v>15000</v>
+        <v>13500</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="T3" t="n">
         <v>15</v>
@@ -680,20 +680,20 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>95</v>
+        <v>120</v>
       </c>
       <c r="N4" t="n">
-        <v>13500</v>
+        <v>12000</v>
       </c>
       <c r="O4" t="n">
-        <v>13500</v>
+        <v>12000</v>
       </c>
       <c r="P4" t="n">
-        <v>13500</v>
+        <v>12000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="T4" t="n">
         <v>15</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44187</v>
+        <v>44160</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -755,29 +755,29 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>120</v>
+        <v>25</v>
       </c>
       <c r="N5" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O5" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P5" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -789,7 +789,7 @@
         <v>800</v>
       </c>
       <c r="T5" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44174</v>
+        <v>44160</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -835,25 +835,25 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Modesto</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="N6" t="n">
-        <v>8500</v>
+        <v>7000</v>
       </c>
       <c r="O6" t="n">
-        <v>8500</v>
+        <v>7000</v>
       </c>
       <c r="P6" t="n">
-        <v>8500</v>
+        <v>7000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -862,11 +862,11 @@
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S6" t="n">
-        <v>850</v>
+        <v>700</v>
       </c>
       <c r="T6" t="n">
         <v>10</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44174</v>
+        <v>44159</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -915,7 +915,7 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Modesto</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -924,32 +924,32 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>180</v>
+        <v>80</v>
       </c>
       <c r="N7" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="O7" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="P7" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S7" t="n">
-        <v>833</v>
+        <v>800</v>
       </c>
       <c r="T7" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44174</v>
+        <v>44159</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -995,7 +995,7 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Modesto</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -1004,32 +1004,32 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>120</v>
+        <v>65</v>
       </c>
       <c r="N8" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="O8" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="P8" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S8" t="n">
-        <v>667</v>
+        <v>700</v>
       </c>
       <c r="T8" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44167</v>
+        <v>44175</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1075,29 +1075,29 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Modesto</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>85</v>
+        <v>140</v>
       </c>
       <c r="N9" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O9" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P9" t="n">
-        <v>10000</v>
+        <v>11571</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
@@ -1106,10 +1106,10 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1000</v>
+        <v>964</v>
       </c>
       <c r="T9" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10">
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44167</v>
+        <v>44162</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="N10" t="n">
-        <v>9500</v>
+        <v>8500</v>
       </c>
       <c r="O10" t="n">
-        <v>9500</v>
+        <v>8500</v>
       </c>
       <c r="P10" t="n">
-        <v>9500</v>
+        <v>8500</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>950</v>
+        <v>850</v>
       </c>
       <c r="T10" t="n">
         <v>10</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44167</v>
+        <v>44162</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="N11" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="O11" t="n">
         <v>15000</v>
       </c>
       <c r="P11" t="n">
-        <v>15000</v>
+        <v>14400</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>833</v>
+        <v>800</v>
       </c>
       <c r="T11" t="n">
         <v>18</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44176</v>
+        <v>44167</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1315,29 +1315,29 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Modesto</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>115</v>
+        <v>85</v>
       </c>
       <c r="N12" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O12" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P12" t="n">
-        <v>11609</v>
+        <v>10000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
@@ -1346,10 +1346,10 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>967</v>
+        <v>1000</v>
       </c>
       <c r="T12" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44162</v>
+        <v>44167</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1404,16 +1404,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="N13" t="n">
-        <v>8500</v>
+        <v>9500</v>
       </c>
       <c r="O13" t="n">
-        <v>8500</v>
+        <v>9500</v>
       </c>
       <c r="P13" t="n">
-        <v>8500</v>
+        <v>9500</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>850</v>
+        <v>950</v>
       </c>
       <c r="T13" t="n">
         <v>10</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44162</v>
+        <v>44167</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="N14" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O14" t="n">
         <v>15000</v>
       </c>
       <c r="P14" t="n">
-        <v>14400</v>
+        <v>15000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>800</v>
+        <v>833</v>
       </c>
       <c r="T14" t="n">
         <v>18</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44194</v>
+        <v>44174</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1555,7 +1555,7 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Modesto</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
@@ -1567,29 +1567,29 @@
         <v>120</v>
       </c>
       <c r="N15" t="n">
-        <v>13000</v>
+        <v>8500</v>
       </c>
       <c r="O15" t="n">
-        <v>13000</v>
+        <v>8500</v>
       </c>
       <c r="P15" t="n">
-        <v>13000</v>
+        <v>8500</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S15" t="n">
-        <v>867</v>
+        <v>850</v>
       </c>
       <c r="T15" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16">
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44159</v>
+        <v>44174</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1635,7 +1635,7 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Modesto</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
@@ -1644,32 +1644,32 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>80</v>
+        <v>180</v>
       </c>
       <c r="N16" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="O16" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="P16" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S16" t="n">
-        <v>800</v>
+        <v>833</v>
       </c>
       <c r="T16" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17">
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44159</v>
+        <v>44174</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1715,7 +1715,7 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Modesto</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
@@ -1724,32 +1724,32 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>65</v>
+        <v>120</v>
       </c>
       <c r="N17" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="O17" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="P17" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S17" t="n">
-        <v>700</v>
+        <v>667</v>
       </c>
       <c r="T17" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18">
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44169</v>
+        <v>44189</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1795,7 +1795,7 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Dina</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
@@ -1804,32 +1804,32 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="N18" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O18" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P18" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S18" t="n">
-        <v>1000</v>
+        <v>667</v>
       </c>
       <c r="T18" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19">
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44160</v>
+        <v>44169</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
@@ -1875,7 +1875,7 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Dina</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
@@ -1884,16 +1884,16 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="N19" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O19" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P19" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1902,11 +1902,11 @@
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S19" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T19" t="n">
         <v>10</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44160</v>
+        <v>44195</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1955,29 +1955,29 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>40</v>
+        <v>124</v>
       </c>
       <c r="N20" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="O20" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="P20" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
@@ -1986,10 +1986,10 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>700</v>
+        <v>867</v>
       </c>
       <c r="T20" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21">
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44189</v>
+        <v>44176</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -2035,7 +2035,7 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Modesto</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
@@ -2044,20 +2044,20 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="N21" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="O21" t="n">
         <v>12000</v>
       </c>
       <c r="P21" t="n">
-        <v>12000</v>
+        <v>11609</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
@@ -2066,10 +2066,10 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>667</v>
+        <v>967</v>
       </c>
       <c r="T21" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22">
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44175</v>
+        <v>44194</v>
       </c>
       <c r="E24" t="n">
         <v>13</v>
@@ -2275,7 +2275,7 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Modesto</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
@@ -2284,20 +2284,20 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="N24" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O24" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P24" t="n">
-        <v>11571</v>
+        <v>13000</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
@@ -2306,10 +2306,10 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>964</v>
+        <v>867</v>
       </c>
       <c r="T24" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Damasco.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Damasco.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T24"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44162</v>
+        <v>44168</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1155,25 +1155,25 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Dina</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="N10" t="n">
-        <v>8500</v>
+        <v>14000</v>
       </c>
       <c r="O10" t="n">
-        <v>8500</v>
+        <v>14000</v>
       </c>
       <c r="P10" t="n">
-        <v>8500</v>
+        <v>14000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1182,11 +1182,11 @@
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S10" t="n">
-        <v>850</v>
+        <v>1400</v>
       </c>
       <c r="T10" t="n">
         <v>10</v>
@@ -1244,20 +1244,20 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="N11" t="n">
-        <v>14000</v>
+        <v>8500</v>
       </c>
       <c r="O11" t="n">
-        <v>15000</v>
+        <v>8500</v>
       </c>
       <c r="P11" t="n">
-        <v>14400</v>
+        <v>8500</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
@@ -1266,10 +1266,10 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>800</v>
+        <v>850</v>
       </c>
       <c r="T11" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12">
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44167</v>
+        <v>44162</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1320,24 +1320,24 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="N12" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O12" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P12" t="n">
-        <v>10000</v>
+        <v>14400</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
@@ -1346,10 +1346,10 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T12" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13">
@@ -1400,20 +1400,20 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>120</v>
+        <v>85</v>
       </c>
       <c r="N13" t="n">
-        <v>9500</v>
+        <v>10000</v>
       </c>
       <c r="O13" t="n">
-        <v>9500</v>
+        <v>10000</v>
       </c>
       <c r="P13" t="n">
-        <v>9500</v>
+        <v>10000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>950</v>
+        <v>1000</v>
       </c>
       <c r="T13" t="n">
         <v>10</v>
@@ -1484,20 +1484,20 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="N14" t="n">
-        <v>15000</v>
+        <v>9500</v>
       </c>
       <c r="O14" t="n">
-        <v>15000</v>
+        <v>9500</v>
       </c>
       <c r="P14" t="n">
-        <v>15000</v>
+        <v>9500</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
@@ -1506,10 +1506,10 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>833</v>
+        <v>950</v>
       </c>
       <c r="T14" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15">
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44174</v>
+        <v>44167</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1555,7 +1555,7 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Modesto</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
@@ -1564,32 +1564,32 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="N15" t="n">
-        <v>8500</v>
+        <v>15000</v>
       </c>
       <c r="O15" t="n">
-        <v>8500</v>
+        <v>15000</v>
       </c>
       <c r="P15" t="n">
-        <v>8500</v>
+        <v>15000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S15" t="n">
-        <v>850</v>
+        <v>833</v>
       </c>
       <c r="T15" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16">
@@ -1644,20 +1644,20 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="N16" t="n">
-        <v>15000</v>
+        <v>8500</v>
       </c>
       <c r="O16" t="n">
-        <v>15000</v>
+        <v>8500</v>
       </c>
       <c r="P16" t="n">
-        <v>15000</v>
+        <v>8500</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
@@ -1666,10 +1666,10 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>833</v>
+        <v>850</v>
       </c>
       <c r="T16" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17">
@@ -1720,20 +1720,20 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="N17" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O17" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P17" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>667</v>
+        <v>833</v>
       </c>
       <c r="T17" t="n">
         <v>18</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44189</v>
+        <v>44174</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1795,16 +1795,16 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Modesto</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="N18" t="n">
         <v>12000</v>
@@ -1822,7 +1822,7 @@
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S18" t="n">
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44169</v>
+        <v>44189</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
@@ -1875,7 +1875,7 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Dina</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
@@ -1884,32 +1884,32 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="N19" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O19" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P19" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S19" t="n">
-        <v>1000</v>
+        <v>667</v>
       </c>
       <c r="T19" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20">
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44195</v>
+        <v>44169</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1955,7 +1955,7 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Dina</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
@@ -1964,32 +1964,32 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>124</v>
+        <v>80</v>
       </c>
       <c r="N20" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O20" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P20" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S20" t="n">
-        <v>867</v>
+        <v>1000</v>
       </c>
       <c r="T20" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21">
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44176</v>
+        <v>44195</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -2035,7 +2035,7 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Modesto</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
@@ -2044,20 +2044,20 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="N21" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O21" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P21" t="n">
-        <v>11609</v>
+        <v>13000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
@@ -2066,10 +2066,10 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>967</v>
+        <v>867</v>
       </c>
       <c r="T21" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22">
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44166</v>
+        <v>44176</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
@@ -2115,7 +2115,7 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Modesto</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
@@ -2124,32 +2124,32 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="N22" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O22" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P22" t="n">
-        <v>10000</v>
+        <v>11609</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S22" t="n">
-        <v>1000</v>
+        <v>967</v>
       </c>
       <c r="T22" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23">
@@ -2200,20 +2200,20 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M23" t="n">
         <v>120</v>
       </c>
       <c r="N23" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O23" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P23" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T23" t="n">
         <v>10</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44194</v>
+        <v>44166</v>
       </c>
       <c r="E24" t="n">
         <v>13</v>
@@ -2275,40 +2275,120 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M24" t="n">
         <v>120</v>
       </c>
       <c r="N24" t="n">
+        <v>8000</v>
+      </c>
+      <c r="O24" t="n">
+        <v>8000</v>
+      </c>
+      <c r="P24" t="n">
+        <v>8000</v>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="S24" t="n">
+        <v>800</v>
+      </c>
+      <c r="T24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>9</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="n">
+        <v>44194</v>
+      </c>
+      <c r="E25" t="n">
+        <v>13</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I25" t="n">
+        <v>100103003</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>Damasco</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>Patterson</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M25" t="n">
+        <v>120</v>
+      </c>
+      <c r="N25" t="n">
         <v>13000</v>
       </c>
-      <c r="O24" t="n">
+      <c r="O25" t="n">
         <v>13000</v>
       </c>
-      <c r="P24" t="n">
+      <c r="P25" t="n">
         <v>13000</v>
       </c>
-      <c r="Q24" t="inlineStr">
+      <c r="Q25" t="inlineStr">
         <is>
           <t>$/caja 15 kilos</t>
         </is>
       </c>
-      <c r="R24" t="inlineStr">
+      <c r="R25" t="inlineStr">
         <is>
           <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
-      <c r="S24" t="n">
+      <c r="S25" t="n">
         <v>867</v>
       </c>
-      <c r="T24" t="n">
+      <c r="T25" t="n">
         <v>15</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Damasco.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Damasco.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44169</v>
+        <v>44523</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1955,7 +1955,7 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Dina</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
@@ -1964,7 +1964,7 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>80</v>
+        <v>320</v>
       </c>
       <c r="N20" t="n">
         <v>10000</v>
@@ -1982,7 +1982,7 @@
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S20" t="n">
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44195</v>
+        <v>44169</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -2035,7 +2035,7 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Dina</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
@@ -2044,32 +2044,32 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>124</v>
+        <v>80</v>
       </c>
       <c r="N21" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O21" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P21" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S21" t="n">
-        <v>867</v>
+        <v>1000</v>
       </c>
       <c r="T21" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22">
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44176</v>
+        <v>44195</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
@@ -2115,7 +2115,7 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Modesto</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
@@ -2124,20 +2124,20 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="N22" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O22" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P22" t="n">
-        <v>11609</v>
+        <v>13000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
@@ -2146,10 +2146,10 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>967</v>
+        <v>867</v>
       </c>
       <c r="T22" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23">
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44166</v>
+        <v>44176</v>
       </c>
       <c r="E23" t="n">
         <v>13</v>
@@ -2195,7 +2195,7 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Modesto</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
@@ -2204,32 +2204,32 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="N23" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O23" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P23" t="n">
-        <v>10000</v>
+        <v>11609</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S23" t="n">
-        <v>1000</v>
+        <v>967</v>
       </c>
       <c r="T23" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24">
@@ -2280,20 +2280,20 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M24" t="n">
         <v>120</v>
       </c>
       <c r="N24" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O24" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P24" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T24" t="n">
         <v>10</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44194</v>
+        <v>44166</v>
       </c>
       <c r="E25" t="n">
         <v>13</v>
@@ -2355,40 +2355,120 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M25" t="n">
         <v>120</v>
       </c>
       <c r="N25" t="n">
+        <v>8000</v>
+      </c>
+      <c r="O25" t="n">
+        <v>8000</v>
+      </c>
+      <c r="P25" t="n">
+        <v>8000</v>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="S25" t="n">
+        <v>800</v>
+      </c>
+      <c r="T25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>9</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="n">
+        <v>44194</v>
+      </c>
+      <c r="E26" t="n">
+        <v>13</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I26" t="n">
+        <v>100103003</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>Damasco</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>Patterson</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M26" t="n">
+        <v>120</v>
+      </c>
+      <c r="N26" t="n">
         <v>13000</v>
       </c>
-      <c r="O25" t="n">
+      <c r="O26" t="n">
         <v>13000</v>
       </c>
-      <c r="P25" t="n">
+      <c r="P26" t="n">
         <v>13000</v>
       </c>
-      <c r="Q25" t="inlineStr">
+      <c r="Q26" t="inlineStr">
         <is>
           <t>$/caja 15 kilos</t>
         </is>
       </c>
-      <c r="R25" t="inlineStr">
+      <c r="R26" t="inlineStr">
         <is>
           <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
-      <c r="S25" t="n">
+      <c r="S26" t="n">
         <v>867</v>
       </c>
-      <c r="T25" t="n">
+      <c r="T26" t="n">
         <v>15</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Damasco.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Damasco.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:T29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44159</v>
+        <v>44525</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -920,24 +920,24 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="N7" t="n">
-        <v>8000</v>
+        <v>25200</v>
       </c>
       <c r="O7" t="n">
-        <v>8000</v>
+        <v>25200</v>
       </c>
       <c r="P7" t="n">
-        <v>8000</v>
+        <v>25200</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -946,10 +946,10 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>800</v>
+        <v>1400</v>
       </c>
       <c r="T7" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8">
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44159</v>
+        <v>44525</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -1000,24 +1000,24 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>65</v>
+        <v>250</v>
       </c>
       <c r="N8" t="n">
-        <v>7000</v>
+        <v>21600</v>
       </c>
       <c r="O8" t="n">
-        <v>7000</v>
+        <v>21600</v>
       </c>
       <c r="P8" t="n">
-        <v>7000</v>
+        <v>21600</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -1026,10 +1026,10 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>700</v>
+        <v>1200</v>
       </c>
       <c r="T8" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9">
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44175</v>
+        <v>44159</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1075,7 +1075,7 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Modesto</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
@@ -1084,20 +1084,20 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="N9" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="O9" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P9" t="n">
-        <v>11571</v>
+        <v>8000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
@@ -1106,10 +1106,10 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>964</v>
+        <v>800</v>
       </c>
       <c r="T9" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44168</v>
+        <v>44159</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1155,25 +1155,25 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Dina</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="N10" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="O10" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="P10" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1182,11 +1182,11 @@
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1400</v>
+        <v>700</v>
       </c>
       <c r="T10" t="n">
         <v>10</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44162</v>
+        <v>44519</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1244,32 +1244,32 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>70</v>
+        <v>300</v>
       </c>
       <c r="N11" t="n">
-        <v>8500</v>
+        <v>22500</v>
       </c>
       <c r="O11" t="n">
-        <v>8500</v>
+        <v>22500</v>
       </c>
       <c r="P11" t="n">
-        <v>8500</v>
+        <v>22500</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S11" t="n">
-        <v>850</v>
+        <v>1500</v>
       </c>
       <c r="T11" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12">
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44162</v>
+        <v>44175</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1315,7 +1315,7 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Modesto</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -1324,20 +1324,20 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>75</v>
+        <v>140</v>
       </c>
       <c r="N12" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="O12" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P12" t="n">
-        <v>14400</v>
+        <v>11571</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
@@ -1346,10 +1346,10 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>800</v>
+        <v>964</v>
       </c>
       <c r="T12" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44167</v>
+        <v>44168</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1395,7 +1395,7 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Dina</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -1404,16 +1404,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="N13" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O13" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P13" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1422,11 +1422,11 @@
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1000</v>
+        <v>1400</v>
       </c>
       <c r="T13" t="n">
         <v>10</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44167</v>
+        <v>44162</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="N14" t="n">
-        <v>9500</v>
+        <v>8500</v>
       </c>
       <c r="O14" t="n">
-        <v>9500</v>
+        <v>8500</v>
       </c>
       <c r="P14" t="n">
-        <v>9500</v>
+        <v>8500</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>950</v>
+        <v>850</v>
       </c>
       <c r="T14" t="n">
         <v>10</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44167</v>
+        <v>44162</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="N15" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="O15" t="n">
         <v>15000</v>
       </c>
       <c r="P15" t="n">
-        <v>15000</v>
+        <v>14400</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>833</v>
+        <v>800</v>
       </c>
       <c r="T15" t="n">
         <v>18</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44174</v>
+        <v>44167</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1635,25 +1635,25 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Modesto</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>120</v>
+        <v>85</v>
       </c>
       <c r="N16" t="n">
-        <v>8500</v>
+        <v>10000</v>
       </c>
       <c r="O16" t="n">
-        <v>8500</v>
+        <v>10000</v>
       </c>
       <c r="P16" t="n">
-        <v>8500</v>
+        <v>10000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1662,11 +1662,11 @@
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S16" t="n">
-        <v>850</v>
+        <v>1000</v>
       </c>
       <c r="T16" t="n">
         <v>10</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44174</v>
+        <v>44167</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1715,7 +1715,7 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Modesto</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
@@ -1724,32 +1724,32 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="N17" t="n">
-        <v>15000</v>
+        <v>9500</v>
       </c>
       <c r="O17" t="n">
-        <v>15000</v>
+        <v>9500</v>
       </c>
       <c r="P17" t="n">
-        <v>15000</v>
+        <v>9500</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S17" t="n">
-        <v>833</v>
+        <v>950</v>
       </c>
       <c r="T17" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18">
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44174</v>
+        <v>44167</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1795,25 +1795,25 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Modesto</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="N18" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O18" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P18" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1822,11 +1822,11 @@
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S18" t="n">
-        <v>667</v>
+        <v>833</v>
       </c>
       <c r="T18" t="n">
         <v>18</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44189</v>
+        <v>44174</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
@@ -1875,7 +1875,7 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Modesto</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
@@ -1884,32 +1884,32 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="N19" t="n">
-        <v>12000</v>
+        <v>8500</v>
       </c>
       <c r="O19" t="n">
-        <v>12000</v>
+        <v>8500</v>
       </c>
       <c r="P19" t="n">
-        <v>12000</v>
+        <v>8500</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S19" t="n">
-        <v>667</v>
+        <v>850</v>
       </c>
       <c r="T19" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20">
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44523</v>
+        <v>44174</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1955,7 +1955,7 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Modesto</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
@@ -1964,32 +1964,32 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>320</v>
+        <v>180</v>
       </c>
       <c r="N20" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O20" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P20" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S20" t="n">
-        <v>1000</v>
+        <v>833</v>
       </c>
       <c r="T20" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21">
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44169</v>
+        <v>44174</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -2035,41 +2035,41 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Dina</t>
+          <t>Modesto</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="N21" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O21" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P21" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S21" t="n">
-        <v>1000</v>
+        <v>667</v>
       </c>
       <c r="T21" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22">
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44195</v>
+        <v>44189</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
@@ -2124,20 +2124,20 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="N22" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O22" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P22" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
@@ -2146,10 +2146,10 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>867</v>
+        <v>667</v>
       </c>
       <c r="T22" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23">
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44176</v>
+        <v>44523</v>
       </c>
       <c r="E23" t="n">
         <v>13</v>
@@ -2195,7 +2195,7 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Modesto</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
@@ -2204,20 +2204,20 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>115</v>
+        <v>320</v>
       </c>
       <c r="N23" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O23" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P23" t="n">
-        <v>11609</v>
+        <v>10000</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
@@ -2226,10 +2226,10 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>967</v>
+        <v>1000</v>
       </c>
       <c r="T23" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24">
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44166</v>
+        <v>44169</v>
       </c>
       <c r="E24" t="n">
         <v>13</v>
@@ -2275,7 +2275,7 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Dina</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
@@ -2284,7 +2284,7 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="N24" t="n">
         <v>10000</v>
@@ -2302,7 +2302,7 @@
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S24" t="n">
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44166</v>
+        <v>44195</v>
       </c>
       <c r="E25" t="n">
         <v>13</v>
@@ -2355,41 +2355,41 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="N25" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="O25" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="P25" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S25" t="n">
-        <v>800</v>
+        <v>867</v>
       </c>
       <c r="T25" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26">
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44194</v>
+        <v>44176</v>
       </c>
       <c r="E26" t="n">
         <v>13</v>
@@ -2435,40 +2435,280 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
+          <t>Modesto</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M26" t="n">
+        <v>115</v>
+      </c>
+      <c r="N26" t="n">
+        <v>11000</v>
+      </c>
+      <c r="O26" t="n">
+        <v>12000</v>
+      </c>
+      <c r="P26" t="n">
+        <v>11609</v>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>$/caja 12 kilos</t>
+        </is>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>Provincia de San Felipe de Aconcagua</t>
+        </is>
+      </c>
+      <c r="S26" t="n">
+        <v>967</v>
+      </c>
+      <c r="T26" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>9</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="n">
+        <v>44166</v>
+      </c>
+      <c r="E27" t="n">
+        <v>13</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I27" t="n">
+        <v>100103003</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>Damasco</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>Castle Brite</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M27" t="n">
+        <v>120</v>
+      </c>
+      <c r="N27" t="n">
+        <v>10000</v>
+      </c>
+      <c r="O27" t="n">
+        <v>10000</v>
+      </c>
+      <c r="P27" t="n">
+        <v>10000</v>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="S27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="T27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>9</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="n">
+        <v>44166</v>
+      </c>
+      <c r="E28" t="n">
+        <v>13</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I28" t="n">
+        <v>100103003</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>Damasco</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>Castle Brite</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M28" t="n">
+        <v>120</v>
+      </c>
+      <c r="N28" t="n">
+        <v>8000</v>
+      </c>
+      <c r="O28" t="n">
+        <v>8000</v>
+      </c>
+      <c r="P28" t="n">
+        <v>8000</v>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="S28" t="n">
+        <v>800</v>
+      </c>
+      <c r="T28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>9</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="n">
+        <v>44194</v>
+      </c>
+      <c r="E29" t="n">
+        <v>13</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I29" t="n">
+        <v>100103003</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>Damasco</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
           <t>Patterson</t>
         </is>
       </c>
-      <c r="L26" t="inlineStr">
+      <c r="L29" t="inlineStr">
         <is>
           <t>Primera</t>
         </is>
       </c>
-      <c r="M26" t="n">
+      <c r="M29" t="n">
         <v>120</v>
       </c>
-      <c r="N26" t="n">
+      <c r="N29" t="n">
         <v>13000</v>
       </c>
-      <c r="O26" t="n">
+      <c r="O29" t="n">
         <v>13000</v>
       </c>
-      <c r="P26" t="n">
+      <c r="P29" t="n">
         <v>13000</v>
       </c>
-      <c r="Q26" t="inlineStr">
+      <c r="Q29" t="inlineStr">
         <is>
           <t>$/caja 15 kilos</t>
         </is>
       </c>
-      <c r="R26" t="inlineStr">
+      <c r="R29" t="inlineStr">
         <is>
           <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
-      <c r="S26" t="n">
+      <c r="S29" t="n">
         <v>867</v>
       </c>
-      <c r="T26" t="n">
+      <c r="T29" t="n">
         <v>15</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Damasco.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Damasco.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44187</v>
+        <v>44162</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -515,7 +515,7 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -524,20 +524,20 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="N2" t="n">
-        <v>15000</v>
+        <v>8500</v>
       </c>
       <c r="O2" t="n">
-        <v>15000</v>
+        <v>8500</v>
       </c>
       <c r="P2" t="n">
-        <v>15000</v>
+        <v>8500</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -546,10 +546,10 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1000</v>
+        <v>850</v>
       </c>
       <c r="T2" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44187</v>
+        <v>44162</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -595,29 +595,29 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="N3" t="n">
-        <v>13500</v>
+        <v>14000</v>
       </c>
       <c r="O3" t="n">
-        <v>13500</v>
+        <v>15000</v>
       </c>
       <c r="P3" t="n">
-        <v>13500</v>
+        <v>14400</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -626,10 +626,10 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="T3" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4">
@@ -680,20 +680,20 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="N4" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O4" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P4" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T4" t="n">
         <v>15</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44160</v>
+        <v>44187</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -755,29 +755,29 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>25</v>
+        <v>95</v>
       </c>
       <c r="N5" t="n">
-        <v>8000</v>
+        <v>13500</v>
       </c>
       <c r="O5" t="n">
-        <v>8000</v>
+        <v>13500</v>
       </c>
       <c r="P5" t="n">
-        <v>8000</v>
+        <v>13500</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -786,10 +786,10 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="T5" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44160</v>
+        <v>44187</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -835,29 +835,29 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="N6" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="O6" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="P6" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -866,10 +866,10 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="T6" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7">
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44525</v>
+        <v>44523</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -920,24 +920,24 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>300</v>
+        <v>320</v>
       </c>
       <c r="N7" t="n">
-        <v>25200</v>
+        <v>10000</v>
       </c>
       <c r="O7" t="n">
-        <v>25200</v>
+        <v>10000</v>
       </c>
       <c r="P7" t="n">
-        <v>25200</v>
+        <v>10000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -946,10 +946,10 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1400</v>
+        <v>1000</v>
       </c>
       <c r="T7" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44525</v>
+        <v>44175</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -995,7 +995,7 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Modesto</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -1004,20 +1004,20 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>250</v>
+        <v>140</v>
       </c>
       <c r="N8" t="n">
-        <v>21600</v>
+        <v>11000</v>
       </c>
       <c r="O8" t="n">
-        <v>21600</v>
+        <v>12000</v>
       </c>
       <c r="P8" t="n">
-        <v>21600</v>
+        <v>11571</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -1026,10 +1026,10 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1200</v>
+        <v>964</v>
       </c>
       <c r="T8" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9">
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44159</v>
+        <v>44169</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1075,7 +1075,7 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Dina</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
@@ -1087,13 +1087,13 @@
         <v>80</v>
       </c>
       <c r="N9" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O9" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P9" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1102,11 +1102,11 @@
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S9" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T9" t="n">
         <v>10</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44159</v>
+        <v>44194</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1155,29 +1155,29 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>65</v>
+        <v>120</v>
       </c>
       <c r="N10" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="O10" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="P10" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
@@ -1186,10 +1186,10 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>700</v>
+        <v>867</v>
       </c>
       <c r="T10" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11">
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44519</v>
+        <v>44174</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1235,7 +1235,7 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Modesto</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
@@ -1244,32 +1244,32 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="N11" t="n">
-        <v>22500</v>
+        <v>8500</v>
       </c>
       <c r="O11" t="n">
-        <v>22500</v>
+        <v>8500</v>
       </c>
       <c r="P11" t="n">
-        <v>22500</v>
+        <v>8500</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1500</v>
+        <v>850</v>
       </c>
       <c r="T11" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12">
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44175</v>
+        <v>44174</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1324,32 +1324,32 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="N12" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="O12" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P12" t="n">
-        <v>11571</v>
+        <v>15000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S12" t="n">
-        <v>964</v>
+        <v>833</v>
       </c>
       <c r="T12" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44168</v>
+        <v>44174</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1395,41 +1395,41 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Dina</t>
+          <t>Modesto</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="N13" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O13" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P13" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1400</v>
+        <v>667</v>
       </c>
       <c r="T13" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14">
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44162</v>
+        <v>44195</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1475,7 +1475,7 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
@@ -1484,20 +1484,20 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>70</v>
+        <v>124</v>
       </c>
       <c r="N14" t="n">
-        <v>8500</v>
+        <v>13000</v>
       </c>
       <c r="O14" t="n">
-        <v>8500</v>
+        <v>13000</v>
       </c>
       <c r="P14" t="n">
-        <v>8500</v>
+        <v>13000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
@@ -1506,10 +1506,10 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>850</v>
+        <v>867</v>
       </c>
       <c r="T14" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15">
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44162</v>
+        <v>44176</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1555,7 +1555,7 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Modesto</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
@@ -1564,20 +1564,20 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>75</v>
+        <v>115</v>
       </c>
       <c r="N15" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="O15" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P15" t="n">
-        <v>14400</v>
+        <v>11609</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
@@ -1586,10 +1586,10 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>800</v>
+        <v>967</v>
       </c>
       <c r="T15" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16">
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44167</v>
+        <v>44159</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1640,20 +1640,20 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="N16" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O16" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P16" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T16" t="n">
         <v>10</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44167</v>
+        <v>44159</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1720,20 +1720,20 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>120</v>
+        <v>65</v>
       </c>
       <c r="N17" t="n">
-        <v>9500</v>
+        <v>7000</v>
       </c>
       <c r="O17" t="n">
-        <v>9500</v>
+        <v>7000</v>
       </c>
       <c r="P17" t="n">
-        <v>9500</v>
+        <v>7000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>950</v>
+        <v>700</v>
       </c>
       <c r="T17" t="n">
         <v>10</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44167</v>
+        <v>44519</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1804,32 +1804,32 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>60</v>
+        <v>300</v>
       </c>
       <c r="N18" t="n">
-        <v>15000</v>
+        <v>22500</v>
       </c>
       <c r="O18" t="n">
-        <v>15000</v>
+        <v>22500</v>
       </c>
       <c r="P18" t="n">
-        <v>15000</v>
+        <v>22500</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S18" t="n">
-        <v>833</v>
+        <v>1500</v>
       </c>
       <c r="T18" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19">
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44174</v>
+        <v>44168</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
@@ -1875,25 +1875,25 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Modesto</t>
+          <t>Dina</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="N19" t="n">
-        <v>8500</v>
+        <v>14000</v>
       </c>
       <c r="O19" t="n">
-        <v>8500</v>
+        <v>14000</v>
       </c>
       <c r="P19" t="n">
-        <v>8500</v>
+        <v>14000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1902,11 +1902,11 @@
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S19" t="n">
-        <v>850</v>
+        <v>1400</v>
       </c>
       <c r="T19" t="n">
         <v>10</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44174</v>
+        <v>44166</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1955,7 +1955,7 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Modesto</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
@@ -1964,20 +1964,20 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="N20" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O20" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P20" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
@@ -1986,10 +1986,10 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>833</v>
+        <v>1000</v>
       </c>
       <c r="T20" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21">
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44174</v>
+        <v>44166</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -2035,7 +2035,7 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Modesto</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
@@ -2047,17 +2047,17 @@
         <v>120</v>
       </c>
       <c r="N21" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O21" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P21" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
@@ -2066,10 +2066,10 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>667</v>
+        <v>800</v>
       </c>
       <c r="T21" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22">
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44189</v>
+        <v>44525</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
@@ -2115,25 +2115,25 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>130</v>
+        <v>300</v>
       </c>
       <c r="N22" t="n">
-        <v>12000</v>
+        <v>25200</v>
       </c>
       <c r="O22" t="n">
-        <v>12000</v>
+        <v>25200</v>
       </c>
       <c r="P22" t="n">
-        <v>12000</v>
+        <v>25200</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>667</v>
+        <v>1400</v>
       </c>
       <c r="T22" t="n">
         <v>18</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44523</v>
+        <v>44525</v>
       </c>
       <c r="E23" t="n">
         <v>13</v>
@@ -2204,20 +2204,20 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>320</v>
+        <v>250</v>
       </c>
       <c r="N23" t="n">
-        <v>10000</v>
+        <v>21600</v>
       </c>
       <c r="O23" t="n">
-        <v>10000</v>
+        <v>21600</v>
       </c>
       <c r="P23" t="n">
-        <v>10000</v>
+        <v>21600</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
@@ -2226,10 +2226,10 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="T23" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24">
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44169</v>
+        <v>44160</v>
       </c>
       <c r="E24" t="n">
         <v>13</v>
@@ -2275,7 +2275,7 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Dina</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
@@ -2284,16 +2284,16 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="N24" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O24" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P24" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2302,11 +2302,11 @@
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S24" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T24" t="n">
         <v>10</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44195</v>
+        <v>44160</v>
       </c>
       <c r="E25" t="n">
         <v>13</v>
@@ -2355,29 +2355,29 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>124</v>
+        <v>40</v>
       </c>
       <c r="N25" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="O25" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="P25" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
@@ -2386,10 +2386,10 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>867</v>
+        <v>700</v>
       </c>
       <c r="T25" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26">
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44176</v>
+        <v>44167</v>
       </c>
       <c r="E26" t="n">
         <v>13</v>
@@ -2435,29 +2435,29 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Modesto</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M26" t="n">
-        <v>115</v>
+        <v>85</v>
       </c>
       <c r="N26" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O26" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P26" t="n">
-        <v>11609</v>
+        <v>10000</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
@@ -2466,10 +2466,10 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>967</v>
+        <v>1000</v>
       </c>
       <c r="T26" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27">
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44166</v>
+        <v>44167</v>
       </c>
       <c r="E27" t="n">
         <v>13</v>
@@ -2527,13 +2527,13 @@
         <v>120</v>
       </c>
       <c r="N27" t="n">
-        <v>10000</v>
+        <v>9500</v>
       </c>
       <c r="O27" t="n">
-        <v>10000</v>
+        <v>9500</v>
       </c>
       <c r="P27" t="n">
-        <v>10000</v>
+        <v>9500</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2542,11 +2542,11 @@
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S27" t="n">
-        <v>1000</v>
+        <v>950</v>
       </c>
       <c r="T27" t="n">
         <v>10</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44166</v>
+        <v>44167</v>
       </c>
       <c r="E28" t="n">
         <v>13</v>
@@ -2600,36 +2600,36 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="N28" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="O28" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="P28" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S28" t="n">
-        <v>800</v>
+        <v>833</v>
       </c>
       <c r="T28" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29">
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44194</v>
+        <v>44189</v>
       </c>
       <c r="E29" t="n">
         <v>13</v>
@@ -2684,20 +2684,20 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="N29" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O29" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P29" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
@@ -2706,10 +2706,10 @@
         </is>
       </c>
       <c r="S29" t="n">
-        <v>867</v>
+        <v>667</v>
       </c>
       <c r="T29" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Damasco.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Damasco.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T29"/>
+  <dimension ref="A1:T32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44195</v>
+        <v>44533</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1475,7 +1475,7 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>124</v>
+        <v>410</v>
       </c>
       <c r="N14" t="n">
-        <v>13000</v>
+        <v>16500</v>
       </c>
       <c r="O14" t="n">
-        <v>13000</v>
+        <v>16500</v>
       </c>
       <c r="P14" t="n">
-        <v>13000</v>
+        <v>16500</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>867</v>
+        <v>1100</v>
       </c>
       <c r="T14" t="n">
         <v>15</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44176</v>
+        <v>44533</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1555,29 +1555,29 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Modesto</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>115</v>
+        <v>300</v>
       </c>
       <c r="N15" t="n">
-        <v>11000</v>
+        <v>10500</v>
       </c>
       <c r="O15" t="n">
-        <v>12000</v>
+        <v>10500</v>
       </c>
       <c r="P15" t="n">
-        <v>11609</v>
+        <v>10500</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
@@ -1586,10 +1586,10 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>967</v>
+        <v>700</v>
       </c>
       <c r="T15" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16">
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44159</v>
+        <v>44533</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1640,24 +1640,24 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>80</v>
+        <v>250</v>
       </c>
       <c r="N16" t="n">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="O16" t="n">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="P16" t="n">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
@@ -1666,10 +1666,10 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="T16" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17">
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44159</v>
+        <v>44195</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1715,29 +1715,29 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>65</v>
+        <v>124</v>
       </c>
       <c r="N17" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="O17" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="P17" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
@@ -1746,10 +1746,10 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>700</v>
+        <v>867</v>
       </c>
       <c r="T17" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18">
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44519</v>
+        <v>44176</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1795,7 +1795,7 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Modesto</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
@@ -1804,32 +1804,32 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>300</v>
+        <v>115</v>
       </c>
       <c r="N18" t="n">
-        <v>22500</v>
+        <v>11000</v>
       </c>
       <c r="O18" t="n">
-        <v>22500</v>
+        <v>12000</v>
       </c>
       <c r="P18" t="n">
-        <v>22500</v>
+        <v>11609</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S18" t="n">
-        <v>1500</v>
+        <v>967</v>
       </c>
       <c r="T18" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19">
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44168</v>
+        <v>44159</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
@@ -1875,25 +1875,25 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Dina</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="N19" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="O19" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="P19" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1902,11 +1902,11 @@
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S19" t="n">
-        <v>1400</v>
+        <v>800</v>
       </c>
       <c r="T19" t="n">
         <v>10</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44166</v>
+        <v>44159</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1960,20 +1960,20 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>120</v>
+        <v>65</v>
       </c>
       <c r="N20" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O20" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P20" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1982,11 +1982,11 @@
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S20" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="T20" t="n">
         <v>10</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44166</v>
+        <v>44519</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -2040,36 +2040,36 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="N21" t="n">
-        <v>8000</v>
+        <v>22500</v>
       </c>
       <c r="O21" t="n">
-        <v>8000</v>
+        <v>22500</v>
       </c>
       <c r="P21" t="n">
-        <v>8000</v>
+        <v>22500</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S21" t="n">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="T21" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22">
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44525</v>
+        <v>44168</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
@@ -2115,7 +2115,7 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Dina</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
@@ -2124,32 +2124,32 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>300</v>
+        <v>40</v>
       </c>
       <c r="N22" t="n">
-        <v>25200</v>
+        <v>14000</v>
       </c>
       <c r="O22" t="n">
-        <v>25200</v>
+        <v>14000</v>
       </c>
       <c r="P22" t="n">
-        <v>25200</v>
+        <v>14000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S22" t="n">
         <v>1400</v>
       </c>
       <c r="T22" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23">
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44525</v>
+        <v>44166</v>
       </c>
       <c r="E23" t="n">
         <v>13</v>
@@ -2204,32 +2204,32 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>250</v>
+        <v>120</v>
       </c>
       <c r="N23" t="n">
-        <v>21600</v>
+        <v>10000</v>
       </c>
       <c r="O23" t="n">
-        <v>21600</v>
+        <v>10000</v>
       </c>
       <c r="P23" t="n">
-        <v>21600</v>
+        <v>10000</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S23" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="T23" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24">
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44160</v>
+        <v>44166</v>
       </c>
       <c r="E24" t="n">
         <v>13</v>
@@ -2280,11 +2280,11 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M24" t="n">
-        <v>25</v>
+        <v>120</v>
       </c>
       <c r="N24" t="n">
         <v>8000</v>
@@ -2302,7 +2302,7 @@
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S24" t="n">
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44160</v>
+        <v>44525</v>
       </c>
       <c r="E25" t="n">
         <v>13</v>
@@ -2360,24 +2360,24 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>40</v>
+        <v>300</v>
       </c>
       <c r="N25" t="n">
-        <v>7000</v>
+        <v>25200</v>
       </c>
       <c r="O25" t="n">
-        <v>7000</v>
+        <v>25200</v>
       </c>
       <c r="P25" t="n">
-        <v>7000</v>
+        <v>25200</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
@@ -2386,10 +2386,10 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>700</v>
+        <v>1400</v>
       </c>
       <c r="T25" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26">
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44167</v>
+        <v>44525</v>
       </c>
       <c r="E26" t="n">
         <v>13</v>
@@ -2440,24 +2440,24 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M26" t="n">
-        <v>85</v>
+        <v>250</v>
       </c>
       <c r="N26" t="n">
-        <v>10000</v>
+        <v>21600</v>
       </c>
       <c r="O26" t="n">
-        <v>10000</v>
+        <v>21600</v>
       </c>
       <c r="P26" t="n">
-        <v>10000</v>
+        <v>21600</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
@@ -2466,10 +2466,10 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="T26" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27">
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44167</v>
+        <v>44160</v>
       </c>
       <c r="E27" t="n">
         <v>13</v>
@@ -2524,16 +2524,16 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>120</v>
+        <v>25</v>
       </c>
       <c r="N27" t="n">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="O27" t="n">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="P27" t="n">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="S27" t="n">
-        <v>950</v>
+        <v>800</v>
       </c>
       <c r="T27" t="n">
         <v>10</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44167</v>
+        <v>44160</v>
       </c>
       <c r="E28" t="n">
         <v>13</v>
@@ -2600,24 +2600,24 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="N28" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="O28" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="P28" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
@@ -2626,10 +2626,10 @@
         </is>
       </c>
       <c r="S28" t="n">
-        <v>833</v>
+        <v>700</v>
       </c>
       <c r="T28" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29">
@@ -2647,68 +2647,308 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
+        <v>44167</v>
+      </c>
+      <c r="E29" t="n">
+        <v>13</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I29" t="n">
+        <v>100103003</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>Damasco</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>Castle Brite</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M29" t="n">
+        <v>85</v>
+      </c>
+      <c r="N29" t="n">
+        <v>10000</v>
+      </c>
+      <c r="O29" t="n">
+        <v>10000</v>
+      </c>
+      <c r="P29" t="n">
+        <v>10000</v>
+      </c>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>Provincia de San Felipe de Aconcagua</t>
+        </is>
+      </c>
+      <c r="S29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="T29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>9</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="n">
+        <v>44167</v>
+      </c>
+      <c r="E30" t="n">
+        <v>13</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I30" t="n">
+        <v>100103003</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>Damasco</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>Castle Brite</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M30" t="n">
+        <v>120</v>
+      </c>
+      <c r="N30" t="n">
+        <v>9500</v>
+      </c>
+      <c r="O30" t="n">
+        <v>9500</v>
+      </c>
+      <c r="P30" t="n">
+        <v>9500</v>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>Provincia de San Felipe de Aconcagua</t>
+        </is>
+      </c>
+      <c r="S30" t="n">
+        <v>950</v>
+      </c>
+      <c r="T30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>9</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="n">
+        <v>44167</v>
+      </c>
+      <c r="E31" t="n">
+        <v>13</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I31" t="n">
+        <v>100103003</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>Damasco</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>Castle Brite</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M31" t="n">
+        <v>60</v>
+      </c>
+      <c r="N31" t="n">
+        <v>15000</v>
+      </c>
+      <c r="O31" t="n">
+        <v>15000</v>
+      </c>
+      <c r="P31" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>Provincia de San Felipe de Aconcagua</t>
+        </is>
+      </c>
+      <c r="S31" t="n">
+        <v>833</v>
+      </c>
+      <c r="T31" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>9</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="n">
         <v>44189</v>
       </c>
-      <c r="E29" t="n">
-        <v>13</v>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G29" t="n">
-        <v>100103</v>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>Frutos de hueso (carozo)</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
-        <v>100103003</v>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>Damasco</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr">
+      <c r="E32" t="n">
+        <v>13</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I32" t="n">
+        <v>100103003</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>Damasco</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
         <is>
           <t>Patterson</t>
         </is>
       </c>
-      <c r="L29" t="inlineStr">
+      <c r="L32" t="inlineStr">
         <is>
           <t>Primera</t>
         </is>
       </c>
-      <c r="M29" t="n">
+      <c r="M32" t="n">
         <v>130</v>
       </c>
-      <c r="N29" t="n">
+      <c r="N32" t="n">
         <v>12000</v>
       </c>
-      <c r="O29" t="n">
+      <c r="O32" t="n">
         <v>12000</v>
       </c>
-      <c r="P29" t="n">
+      <c r="P32" t="n">
         <v>12000</v>
       </c>
-      <c r="Q29" t="inlineStr">
+      <c r="Q32" t="inlineStr">
         <is>
           <t>$/caja 18 kilos</t>
         </is>
       </c>
-      <c r="R29" t="inlineStr">
+      <c r="R32" t="inlineStr">
         <is>
           <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
-      <c r="S29" t="n">
+      <c r="S32" t="n">
         <v>667</v>
       </c>
-      <c r="T29" t="n">
+      <c r="T32" t="n">
         <v>18</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Damasco.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Damasco.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T32"/>
+  <dimension ref="A1:T34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44174</v>
+        <v>44536</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1235,7 +1235,7 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Modesto</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>120</v>
+        <v>220</v>
       </c>
       <c r="N11" t="n">
-        <v>8500</v>
+        <v>11000</v>
       </c>
       <c r="O11" t="n">
-        <v>8500</v>
+        <v>11000</v>
       </c>
       <c r="P11" t="n">
-        <v>8500</v>
+        <v>11000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1262,11 +1262,11 @@
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S11" t="n">
-        <v>850</v>
+        <v>1100</v>
       </c>
       <c r="T11" t="n">
         <v>10</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44174</v>
+        <v>44536</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1315,41 +1315,41 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Modesto</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>180</v>
+        <v>250</v>
       </c>
       <c r="N12" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="O12" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="P12" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S12" t="n">
-        <v>833</v>
+        <v>700</v>
       </c>
       <c r="T12" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13">
@@ -1400,24 +1400,24 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M13" t="n">
         <v>120</v>
       </c>
       <c r="N13" t="n">
-        <v>12000</v>
+        <v>8500</v>
       </c>
       <c r="O13" t="n">
-        <v>12000</v>
+        <v>8500</v>
       </c>
       <c r="P13" t="n">
-        <v>12000</v>
+        <v>8500</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
@@ -1426,10 +1426,10 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>667</v>
+        <v>850</v>
       </c>
       <c r="T13" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14">
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44533</v>
+        <v>44174</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1475,7 +1475,7 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Modesto</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
@@ -1484,32 +1484,32 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>410</v>
+        <v>180</v>
       </c>
       <c r="N14" t="n">
-        <v>16500</v>
+        <v>15000</v>
       </c>
       <c r="O14" t="n">
-        <v>16500</v>
+        <v>15000</v>
       </c>
       <c r="P14" t="n">
-        <v>16500</v>
+        <v>15000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1100</v>
+        <v>833</v>
       </c>
       <c r="T14" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15">
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44533</v>
+        <v>44174</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1555,7 +1555,7 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Modesto</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
@@ -1564,32 +1564,32 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="N15" t="n">
-        <v>10500</v>
+        <v>12000</v>
       </c>
       <c r="O15" t="n">
-        <v>10500</v>
+        <v>12000</v>
       </c>
       <c r="P15" t="n">
-        <v>10500</v>
+        <v>12000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S15" t="n">
-        <v>700</v>
+        <v>667</v>
       </c>
       <c r="T15" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16">
@@ -1640,20 +1640,20 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>250</v>
+        <v>410</v>
       </c>
       <c r="N16" t="n">
-        <v>7500</v>
+        <v>16500</v>
       </c>
       <c r="O16" t="n">
-        <v>7500</v>
+        <v>16500</v>
       </c>
       <c r="P16" t="n">
-        <v>7500</v>
+        <v>16500</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>500</v>
+        <v>1100</v>
       </c>
       <c r="T16" t="n">
         <v>15</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44195</v>
+        <v>44533</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1715,25 +1715,25 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>124</v>
+        <v>300</v>
       </c>
       <c r="N17" t="n">
-        <v>13000</v>
+        <v>10500</v>
       </c>
       <c r="O17" t="n">
-        <v>13000</v>
+        <v>10500</v>
       </c>
       <c r="P17" t="n">
-        <v>13000</v>
+        <v>10500</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>867</v>
+        <v>700</v>
       </c>
       <c r="T17" t="n">
         <v>15</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44176</v>
+        <v>44533</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1795,29 +1795,29 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Modesto</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>115</v>
+        <v>250</v>
       </c>
       <c r="N18" t="n">
-        <v>11000</v>
+        <v>7500</v>
       </c>
       <c r="O18" t="n">
-        <v>12000</v>
+        <v>7500</v>
       </c>
       <c r="P18" t="n">
-        <v>11609</v>
+        <v>7500</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
@@ -1826,10 +1826,10 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>967</v>
+        <v>500</v>
       </c>
       <c r="T18" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19">
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44159</v>
+        <v>44195</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
@@ -1875,7 +1875,7 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
@@ -1884,20 +1884,20 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>80</v>
+        <v>124</v>
       </c>
       <c r="N19" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="O19" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="P19" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
@@ -1906,10 +1906,10 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>800</v>
+        <v>867</v>
       </c>
       <c r="T19" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20">
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44159</v>
+        <v>44176</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1955,29 +1955,29 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Modesto</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>65</v>
+        <v>115</v>
       </c>
       <c r="N20" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="O20" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="P20" t="n">
-        <v>7000</v>
+        <v>11609</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
@@ -1986,10 +1986,10 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>700</v>
+        <v>967</v>
       </c>
       <c r="T20" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21">
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44519</v>
+        <v>44159</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -2044,32 +2044,32 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>300</v>
+        <v>80</v>
       </c>
       <c r="N21" t="n">
-        <v>22500</v>
+        <v>8000</v>
       </c>
       <c r="O21" t="n">
-        <v>22500</v>
+        <v>8000</v>
       </c>
       <c r="P21" t="n">
-        <v>22500</v>
+        <v>8000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S21" t="n">
-        <v>1500</v>
+        <v>800</v>
       </c>
       <c r="T21" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22">
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44168</v>
+        <v>44159</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
@@ -2115,25 +2115,25 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Dina</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="N22" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="O22" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="P22" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2142,11 +2142,11 @@
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S22" t="n">
-        <v>1400</v>
+        <v>700</v>
       </c>
       <c r="T22" t="n">
         <v>10</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44166</v>
+        <v>44519</v>
       </c>
       <c r="E23" t="n">
         <v>13</v>
@@ -2204,32 +2204,32 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="N23" t="n">
-        <v>10000</v>
+        <v>22500</v>
       </c>
       <c r="O23" t="n">
-        <v>10000</v>
+        <v>22500</v>
       </c>
       <c r="P23" t="n">
-        <v>10000</v>
+        <v>22500</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S23" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="T23" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24">
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44166</v>
+        <v>44168</v>
       </c>
       <c r="E24" t="n">
         <v>13</v>
@@ -2275,25 +2275,25 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Dina</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M24" t="n">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="N24" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="O24" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="P24" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2302,11 +2302,11 @@
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S24" t="n">
-        <v>800</v>
+        <v>1400</v>
       </c>
       <c r="T24" t="n">
         <v>10</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44525</v>
+        <v>44166</v>
       </c>
       <c r="E25" t="n">
         <v>13</v>
@@ -2360,36 +2360,36 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="N25" t="n">
-        <v>25200</v>
+        <v>10000</v>
       </c>
       <c r="O25" t="n">
-        <v>25200</v>
+        <v>10000</v>
       </c>
       <c r="P25" t="n">
-        <v>25200</v>
+        <v>10000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S25" t="n">
-        <v>1400</v>
+        <v>1000</v>
       </c>
       <c r="T25" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26">
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44525</v>
+        <v>44166</v>
       </c>
       <c r="E26" t="n">
         <v>13</v>
@@ -2440,36 +2440,36 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M26" t="n">
-        <v>250</v>
+        <v>120</v>
       </c>
       <c r="N26" t="n">
-        <v>21600</v>
+        <v>8000</v>
       </c>
       <c r="O26" t="n">
-        <v>21600</v>
+        <v>8000</v>
       </c>
       <c r="P26" t="n">
-        <v>21600</v>
+        <v>8000</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S26" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="T26" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27">
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44160</v>
+        <v>44525</v>
       </c>
       <c r="E27" t="n">
         <v>13</v>
@@ -2520,24 +2520,24 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M27" t="n">
-        <v>25</v>
+        <v>300</v>
       </c>
       <c r="N27" t="n">
-        <v>8000</v>
+        <v>25200</v>
       </c>
       <c r="O27" t="n">
-        <v>8000</v>
+        <v>25200</v>
       </c>
       <c r="P27" t="n">
-        <v>8000</v>
+        <v>25200</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
@@ -2546,10 +2546,10 @@
         </is>
       </c>
       <c r="S27" t="n">
-        <v>800</v>
+        <v>1400</v>
       </c>
       <c r="T27" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28">
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44160</v>
+        <v>44525</v>
       </c>
       <c r="E28" t="n">
         <v>13</v>
@@ -2600,24 +2600,24 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>40</v>
+        <v>250</v>
       </c>
       <c r="N28" t="n">
-        <v>7000</v>
+        <v>21600</v>
       </c>
       <c r="O28" t="n">
-        <v>7000</v>
+        <v>21600</v>
       </c>
       <c r="P28" t="n">
-        <v>7000</v>
+        <v>21600</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
@@ -2626,10 +2626,10 @@
         </is>
       </c>
       <c r="S28" t="n">
-        <v>700</v>
+        <v>1200</v>
       </c>
       <c r="T28" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29">
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44167</v>
+        <v>44160</v>
       </c>
       <c r="E29" t="n">
         <v>13</v>
@@ -2680,20 +2680,20 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="N29" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O29" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P29" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         </is>
       </c>
       <c r="S29" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T29" t="n">
         <v>10</v>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44167</v>
+        <v>44160</v>
       </c>
       <c r="E30" t="n">
         <v>13</v>
@@ -2760,20 +2760,20 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="N30" t="n">
-        <v>9500</v>
+        <v>7000</v>
       </c>
       <c r="O30" t="n">
-        <v>9500</v>
+        <v>7000</v>
       </c>
       <c r="P30" t="n">
-        <v>9500</v>
+        <v>7000</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         </is>
       </c>
       <c r="S30" t="n">
-        <v>950</v>
+        <v>700</v>
       </c>
       <c r="T30" t="n">
         <v>10</v>
@@ -2840,24 +2840,24 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M31" t="n">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="N31" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O31" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P31" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
@@ -2866,10 +2866,10 @@
         </is>
       </c>
       <c r="S31" t="n">
-        <v>833</v>
+        <v>1000</v>
       </c>
       <c r="T31" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32">
@@ -2887,68 +2887,228 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
+        <v>44167</v>
+      </c>
+      <c r="E32" t="n">
+        <v>13</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I32" t="n">
+        <v>100103003</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>Damasco</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>Castle Brite</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M32" t="n">
+        <v>120</v>
+      </c>
+      <c r="N32" t="n">
+        <v>9500</v>
+      </c>
+      <c r="O32" t="n">
+        <v>9500</v>
+      </c>
+      <c r="P32" t="n">
+        <v>9500</v>
+      </c>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>Provincia de San Felipe de Aconcagua</t>
+        </is>
+      </c>
+      <c r="S32" t="n">
+        <v>950</v>
+      </c>
+      <c r="T32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>9</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="n">
+        <v>44167</v>
+      </c>
+      <c r="E33" t="n">
+        <v>13</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I33" t="n">
+        <v>100103003</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>Damasco</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>Castle Brite</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M33" t="n">
+        <v>60</v>
+      </c>
+      <c r="N33" t="n">
+        <v>15000</v>
+      </c>
+      <c r="O33" t="n">
+        <v>15000</v>
+      </c>
+      <c r="P33" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>Provincia de San Felipe de Aconcagua</t>
+        </is>
+      </c>
+      <c r="S33" t="n">
+        <v>833</v>
+      </c>
+      <c r="T33" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>9</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="n">
         <v>44189</v>
       </c>
-      <c r="E32" t="n">
-        <v>13</v>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G32" t="n">
-        <v>100103</v>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>Frutos de hueso (carozo)</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
-        <v>100103003</v>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>Damasco</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr">
+      <c r="E34" t="n">
+        <v>13</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I34" t="n">
+        <v>100103003</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>Damasco</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
         <is>
           <t>Patterson</t>
         </is>
       </c>
-      <c r="L32" t="inlineStr">
+      <c r="L34" t="inlineStr">
         <is>
           <t>Primera</t>
         </is>
       </c>
-      <c r="M32" t="n">
+      <c r="M34" t="n">
         <v>130</v>
       </c>
-      <c r="N32" t="n">
+      <c r="N34" t="n">
         <v>12000</v>
       </c>
-      <c r="O32" t="n">
+      <c r="O34" t="n">
         <v>12000</v>
       </c>
-      <c r="P32" t="n">
+      <c r="P34" t="n">
         <v>12000</v>
       </c>
-      <c r="Q32" t="inlineStr">
+      <c r="Q34" t="inlineStr">
         <is>
           <t>$/caja 18 kilos</t>
         </is>
       </c>
-      <c r="R32" t="inlineStr">
+      <c r="R34" t="inlineStr">
         <is>
           <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
-      <c r="S32" t="n">
+      <c r="S34" t="n">
         <v>667</v>
       </c>
-      <c r="T32" t="n">
+      <c r="T34" t="n">
         <v>18</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Damasco.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Damasco.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T34"/>
+  <dimension ref="A1:T35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44187</v>
+        <v>44537</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -675,7 +675,7 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -684,20 +684,20 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>80</v>
+        <v>400</v>
       </c>
       <c r="N4" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="O4" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P4" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -706,10 +706,10 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1000</v>
+        <v>889</v>
       </c>
       <c r="T4" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5">
@@ -760,20 +760,20 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="N5" t="n">
-        <v>13500</v>
+        <v>15000</v>
       </c>
       <c r="O5" t="n">
-        <v>13500</v>
+        <v>15000</v>
       </c>
       <c r="P5" t="n">
-        <v>13500</v>
+        <v>15000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="T5" t="n">
         <v>15</v>
@@ -840,20 +840,20 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="N6" t="n">
-        <v>12000</v>
+        <v>13500</v>
       </c>
       <c r="O6" t="n">
-        <v>12000</v>
+        <v>13500</v>
       </c>
       <c r="P6" t="n">
-        <v>12000</v>
+        <v>13500</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="T6" t="n">
         <v>15</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44523</v>
+        <v>44187</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -915,29 +915,29 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>320</v>
+        <v>120</v>
       </c>
       <c r="N7" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O7" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P7" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -946,10 +946,10 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T7" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8">
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44175</v>
+        <v>44523</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -995,7 +995,7 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Modesto</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -1004,20 +1004,20 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>140</v>
+        <v>320</v>
       </c>
       <c r="N8" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O8" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P8" t="n">
-        <v>11571</v>
+        <v>10000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -1026,10 +1026,10 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>964</v>
+        <v>1000</v>
       </c>
       <c r="T8" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44169</v>
+        <v>44175</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1075,7 +1075,7 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Dina</t>
+          <t>Modesto</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
@@ -1084,32 +1084,32 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="N9" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O9" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P9" t="n">
-        <v>10000</v>
+        <v>11571</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1000</v>
+        <v>964</v>
       </c>
       <c r="T9" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10">
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44194</v>
+        <v>44169</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1155,7 +1155,7 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Dina</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
@@ -1164,32 +1164,32 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="N10" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O10" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P10" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S10" t="n">
-        <v>867</v>
+        <v>1000</v>
       </c>
       <c r="T10" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11">
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44536</v>
+        <v>44194</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1235,7 +1235,7 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
@@ -1244,32 +1244,32 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>220</v>
+        <v>120</v>
       </c>
       <c r="N11" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O11" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P11" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1100</v>
+        <v>867</v>
       </c>
       <c r="T11" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12">
@@ -1320,20 +1320,20 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="N12" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="O12" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="P12" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>700</v>
+        <v>1100</v>
       </c>
       <c r="T12" t="n">
         <v>10</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44174</v>
+        <v>44536</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1395,25 +1395,25 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Modesto</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>120</v>
+        <v>250</v>
       </c>
       <c r="N13" t="n">
-        <v>8500</v>
+        <v>7000</v>
       </c>
       <c r="O13" t="n">
-        <v>8500</v>
+        <v>7000</v>
       </c>
       <c r="P13" t="n">
-        <v>8500</v>
+        <v>7000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1422,11 +1422,11 @@
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S13" t="n">
-        <v>850</v>
+        <v>700</v>
       </c>
       <c r="T13" t="n">
         <v>10</v>
@@ -1484,20 +1484,20 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="N14" t="n">
-        <v>15000</v>
+        <v>8500</v>
       </c>
       <c r="O14" t="n">
-        <v>15000</v>
+        <v>8500</v>
       </c>
       <c r="P14" t="n">
-        <v>15000</v>
+        <v>8500</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
@@ -1506,10 +1506,10 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>833</v>
+        <v>850</v>
       </c>
       <c r="T14" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15">
@@ -1560,20 +1560,20 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="N15" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O15" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P15" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>667</v>
+        <v>833</v>
       </c>
       <c r="T15" t="n">
         <v>18</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44533</v>
+        <v>44174</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1635,41 +1635,41 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Modesto</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>410</v>
+        <v>120</v>
       </c>
       <c r="N16" t="n">
-        <v>16500</v>
+        <v>12000</v>
       </c>
       <c r="O16" t="n">
-        <v>16500</v>
+        <v>12000</v>
       </c>
       <c r="P16" t="n">
-        <v>16500</v>
+        <v>12000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1100</v>
+        <v>667</v>
       </c>
       <c r="T16" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17">
@@ -1720,20 +1720,20 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>300</v>
+        <v>410</v>
       </c>
       <c r="N17" t="n">
-        <v>10500</v>
+        <v>16500</v>
       </c>
       <c r="O17" t="n">
-        <v>10500</v>
+        <v>16500</v>
       </c>
       <c r="P17" t="n">
-        <v>10500</v>
+        <v>16500</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>700</v>
+        <v>1100</v>
       </c>
       <c r="T17" t="n">
         <v>15</v>
@@ -1800,20 +1800,20 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="N18" t="n">
-        <v>7500</v>
+        <v>10500</v>
       </c>
       <c r="O18" t="n">
-        <v>7500</v>
+        <v>10500</v>
       </c>
       <c r="P18" t="n">
-        <v>7500</v>
+        <v>10500</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="T18" t="n">
         <v>15</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44195</v>
+        <v>44533</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
@@ -1875,25 +1875,25 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>124</v>
+        <v>250</v>
       </c>
       <c r="N19" t="n">
-        <v>13000</v>
+        <v>7500</v>
       </c>
       <c r="O19" t="n">
-        <v>13000</v>
+        <v>7500</v>
       </c>
       <c r="P19" t="n">
-        <v>13000</v>
+        <v>7500</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>867</v>
+        <v>500</v>
       </c>
       <c r="T19" t="n">
         <v>15</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44176</v>
+        <v>44195</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1955,7 +1955,7 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Modesto</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
@@ -1964,20 +1964,20 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="N20" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O20" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P20" t="n">
-        <v>11609</v>
+        <v>13000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
@@ -1986,10 +1986,10 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>967</v>
+        <v>867</v>
       </c>
       <c r="T20" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21">
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44159</v>
+        <v>44176</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -2035,7 +2035,7 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Modesto</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
@@ -2044,20 +2044,20 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>80</v>
+        <v>115</v>
       </c>
       <c r="N21" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="O21" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P21" t="n">
-        <v>8000</v>
+        <v>11609</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
@@ -2066,10 +2066,10 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>800</v>
+        <v>967</v>
       </c>
       <c r="T21" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22">
@@ -2120,20 +2120,20 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="N22" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O22" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P22" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="T22" t="n">
         <v>10</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44519</v>
+        <v>44159</v>
       </c>
       <c r="E23" t="n">
         <v>13</v>
@@ -2200,36 +2200,36 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>300</v>
+        <v>65</v>
       </c>
       <c r="N23" t="n">
-        <v>22500</v>
+        <v>7000</v>
       </c>
       <c r="O23" t="n">
-        <v>22500</v>
+        <v>7000</v>
       </c>
       <c r="P23" t="n">
-        <v>22500</v>
+        <v>7000</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S23" t="n">
-        <v>1500</v>
+        <v>700</v>
       </c>
       <c r="T23" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24">
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44168</v>
+        <v>44519</v>
       </c>
       <c r="E24" t="n">
         <v>13</v>
@@ -2275,29 +2275,29 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Dina</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M24" t="n">
-        <v>40</v>
+        <v>300</v>
       </c>
       <c r="N24" t="n">
-        <v>14000</v>
+        <v>22500</v>
       </c>
       <c r="O24" t="n">
-        <v>14000</v>
+        <v>22500</v>
       </c>
       <c r="P24" t="n">
-        <v>14000</v>
+        <v>22500</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
@@ -2306,10 +2306,10 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="T24" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25">
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44166</v>
+        <v>44168</v>
       </c>
       <c r="E25" t="n">
         <v>13</v>
@@ -2355,25 +2355,25 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Dina</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="N25" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O25" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P25" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2382,11 +2382,11 @@
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S25" t="n">
-        <v>1000</v>
+        <v>1400</v>
       </c>
       <c r="T25" t="n">
         <v>10</v>
@@ -2440,20 +2440,20 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M26" t="n">
         <v>120</v>
       </c>
       <c r="N26" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O26" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P26" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T26" t="n">
         <v>10</v>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44525</v>
+        <v>44166</v>
       </c>
       <c r="E27" t="n">
         <v>13</v>
@@ -2520,36 +2520,36 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M27" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="N27" t="n">
-        <v>25200</v>
+        <v>8000</v>
       </c>
       <c r="O27" t="n">
-        <v>25200</v>
+        <v>8000</v>
       </c>
       <c r="P27" t="n">
-        <v>25200</v>
+        <v>8000</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S27" t="n">
-        <v>1400</v>
+        <v>800</v>
       </c>
       <c r="T27" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28">
@@ -2600,20 +2600,20 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="N28" t="n">
-        <v>21600</v>
+        <v>25200</v>
       </c>
       <c r="O28" t="n">
-        <v>21600</v>
+        <v>25200</v>
       </c>
       <c r="P28" t="n">
-        <v>21600</v>
+        <v>25200</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="S28" t="n">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="T28" t="n">
         <v>18</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44160</v>
+        <v>44525</v>
       </c>
       <c r="E29" t="n">
         <v>13</v>
@@ -2684,20 +2684,20 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>25</v>
+        <v>250</v>
       </c>
       <c r="N29" t="n">
-        <v>8000</v>
+        <v>21600</v>
       </c>
       <c r="O29" t="n">
-        <v>8000</v>
+        <v>21600</v>
       </c>
       <c r="P29" t="n">
-        <v>8000</v>
+        <v>21600</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
@@ -2706,10 +2706,10 @@
         </is>
       </c>
       <c r="S29" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="T29" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30">
@@ -2760,20 +2760,20 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="N30" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O30" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P30" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         </is>
       </c>
       <c r="S30" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="T30" t="n">
         <v>10</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44167</v>
+        <v>44160</v>
       </c>
       <c r="E31" t="n">
         <v>13</v>
@@ -2840,20 +2840,20 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M31" t="n">
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="N31" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O31" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P31" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         </is>
       </c>
       <c r="S31" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="T31" t="n">
         <v>10</v>
@@ -2920,20 +2920,20 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M32" t="n">
-        <v>120</v>
+        <v>85</v>
       </c>
       <c r="N32" t="n">
-        <v>9500</v>
+        <v>10000</v>
       </c>
       <c r="O32" t="n">
-        <v>9500</v>
+        <v>10000</v>
       </c>
       <c r="P32" t="n">
-        <v>9500</v>
+        <v>10000</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="S32" t="n">
-        <v>950</v>
+        <v>1000</v>
       </c>
       <c r="T32" t="n">
         <v>10</v>
@@ -3004,20 +3004,20 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="N33" t="n">
-        <v>15000</v>
+        <v>9500</v>
       </c>
       <c r="O33" t="n">
-        <v>15000</v>
+        <v>9500</v>
       </c>
       <c r="P33" t="n">
-        <v>15000</v>
+        <v>9500</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
@@ -3026,10 +3026,10 @@
         </is>
       </c>
       <c r="S33" t="n">
-        <v>833</v>
+        <v>950</v>
       </c>
       <c r="T33" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34">
@@ -3047,68 +3047,148 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
+        <v>44167</v>
+      </c>
+      <c r="E34" t="n">
+        <v>13</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I34" t="n">
+        <v>100103003</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>Damasco</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>Castle Brite</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M34" t="n">
+        <v>60</v>
+      </c>
+      <c r="N34" t="n">
+        <v>15000</v>
+      </c>
+      <c r="O34" t="n">
+        <v>15000</v>
+      </c>
+      <c r="P34" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>Provincia de San Felipe de Aconcagua</t>
+        </is>
+      </c>
+      <c r="S34" t="n">
+        <v>833</v>
+      </c>
+      <c r="T34" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>9</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="n">
         <v>44189</v>
       </c>
-      <c r="E34" t="n">
-        <v>13</v>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G34" t="n">
-        <v>100103</v>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>Frutos de hueso (carozo)</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
-        <v>100103003</v>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>Damasco</t>
-        </is>
-      </c>
-      <c r="K34" t="inlineStr">
+      <c r="E35" t="n">
+        <v>13</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I35" t="n">
+        <v>100103003</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>Damasco</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
         <is>
           <t>Patterson</t>
         </is>
       </c>
-      <c r="L34" t="inlineStr">
+      <c r="L35" t="inlineStr">
         <is>
           <t>Primera</t>
         </is>
       </c>
-      <c r="M34" t="n">
+      <c r="M35" t="n">
         <v>130</v>
       </c>
-      <c r="N34" t="n">
+      <c r="N35" t="n">
         <v>12000</v>
       </c>
-      <c r="O34" t="n">
+      <c r="O35" t="n">
         <v>12000</v>
       </c>
-      <c r="P34" t="n">
+      <c r="P35" t="n">
         <v>12000</v>
       </c>
-      <c r="Q34" t="inlineStr">
+      <c r="Q35" t="inlineStr">
         <is>
           <t>$/caja 18 kilos</t>
         </is>
       </c>
-      <c r="R34" t="inlineStr">
+      <c r="R35" t="inlineStr">
         <is>
           <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
-      <c r="S34" t="n">
+      <c r="S35" t="n">
         <v>667</v>
       </c>
-      <c r="T34" t="n">
+      <c r="T35" t="n">
         <v>18</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Damasco.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Damasco.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T35"/>
+  <dimension ref="A1:T38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44176</v>
+        <v>44539</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -2035,29 +2035,29 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Modesto</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>115</v>
+        <v>290</v>
       </c>
       <c r="N21" t="n">
-        <v>11000</v>
+        <v>18000</v>
       </c>
       <c r="O21" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="P21" t="n">
-        <v>11609</v>
+        <v>18000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
@@ -2066,10 +2066,10 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>967</v>
+        <v>1000</v>
       </c>
       <c r="T21" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22">
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44159</v>
+        <v>44539</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
@@ -2124,20 +2124,20 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="N22" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="O22" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="P22" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
@@ -2146,10 +2146,10 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>800</v>
+        <v>889</v>
       </c>
       <c r="T22" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23">
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44159</v>
+        <v>44539</v>
       </c>
       <c r="E23" t="n">
         <v>13</v>
@@ -2204,20 +2204,20 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>65</v>
+        <v>300</v>
       </c>
       <c r="N23" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="O23" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="P23" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
@@ -2226,10 +2226,10 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>700</v>
+        <v>778</v>
       </c>
       <c r="T23" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24">
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44519</v>
+        <v>44176</v>
       </c>
       <c r="E24" t="n">
         <v>13</v>
@@ -2275,7 +2275,7 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Modesto</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
@@ -2284,32 +2284,32 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>300</v>
+        <v>115</v>
       </c>
       <c r="N24" t="n">
-        <v>22500</v>
+        <v>11000</v>
       </c>
       <c r="O24" t="n">
-        <v>22500</v>
+        <v>12000</v>
       </c>
       <c r="P24" t="n">
-        <v>22500</v>
+        <v>11609</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S24" t="n">
-        <v>1500</v>
+        <v>967</v>
       </c>
       <c r="T24" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25">
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44168</v>
+        <v>44159</v>
       </c>
       <c r="E25" t="n">
         <v>13</v>
@@ -2355,25 +2355,25 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Dina</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="N25" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="O25" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="P25" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2382,11 +2382,11 @@
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S25" t="n">
-        <v>1400</v>
+        <v>800</v>
       </c>
       <c r="T25" t="n">
         <v>10</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44166</v>
+        <v>44159</v>
       </c>
       <c r="E26" t="n">
         <v>13</v>
@@ -2440,20 +2440,20 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M26" t="n">
-        <v>120</v>
+        <v>65</v>
       </c>
       <c r="N26" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O26" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P26" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2462,11 +2462,11 @@
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S26" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="T26" t="n">
         <v>10</v>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44166</v>
+        <v>44519</v>
       </c>
       <c r="E27" t="n">
         <v>13</v>
@@ -2520,36 +2520,36 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M27" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="N27" t="n">
-        <v>8000</v>
+        <v>22500</v>
       </c>
       <c r="O27" t="n">
-        <v>8000</v>
+        <v>22500</v>
       </c>
       <c r="P27" t="n">
-        <v>8000</v>
+        <v>22500</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S27" t="n">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="T27" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28">
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44525</v>
+        <v>44168</v>
       </c>
       <c r="E28" t="n">
         <v>13</v>
@@ -2595,7 +2595,7 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Dina</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
@@ -2604,32 +2604,32 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>300</v>
+        <v>40</v>
       </c>
       <c r="N28" t="n">
-        <v>25200</v>
+        <v>14000</v>
       </c>
       <c r="O28" t="n">
-        <v>25200</v>
+        <v>14000</v>
       </c>
       <c r="P28" t="n">
-        <v>25200</v>
+        <v>14000</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S28" t="n">
         <v>1400</v>
       </c>
       <c r="T28" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29">
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44525</v>
+        <v>44166</v>
       </c>
       <c r="E29" t="n">
         <v>13</v>
@@ -2684,32 +2684,32 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>250</v>
+        <v>120</v>
       </c>
       <c r="N29" t="n">
-        <v>21600</v>
+        <v>10000</v>
       </c>
       <c r="O29" t="n">
-        <v>21600</v>
+        <v>10000</v>
       </c>
       <c r="P29" t="n">
-        <v>21600</v>
+        <v>10000</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S29" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="T29" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30">
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44160</v>
+        <v>44166</v>
       </c>
       <c r="E30" t="n">
         <v>13</v>
@@ -2760,11 +2760,11 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>25</v>
+        <v>120</v>
       </c>
       <c r="N30" t="n">
         <v>8000</v>
@@ -2782,7 +2782,7 @@
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S30" t="n">
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44160</v>
+        <v>44525</v>
       </c>
       <c r="E31" t="n">
         <v>13</v>
@@ -2840,24 +2840,24 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M31" t="n">
-        <v>40</v>
+        <v>300</v>
       </c>
       <c r="N31" t="n">
-        <v>7000</v>
+        <v>25200</v>
       </c>
       <c r="O31" t="n">
-        <v>7000</v>
+        <v>25200</v>
       </c>
       <c r="P31" t="n">
-        <v>7000</v>
+        <v>25200</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
@@ -2866,10 +2866,10 @@
         </is>
       </c>
       <c r="S31" t="n">
-        <v>700</v>
+        <v>1400</v>
       </c>
       <c r="T31" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32">
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44167</v>
+        <v>44525</v>
       </c>
       <c r="E32" t="n">
         <v>13</v>
@@ -2920,24 +2920,24 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M32" t="n">
-        <v>85</v>
+        <v>250</v>
       </c>
       <c r="N32" t="n">
-        <v>10000</v>
+        <v>21600</v>
       </c>
       <c r="O32" t="n">
-        <v>10000</v>
+        <v>21600</v>
       </c>
       <c r="P32" t="n">
-        <v>10000</v>
+        <v>21600</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
@@ -2946,10 +2946,10 @@
         </is>
       </c>
       <c r="S32" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="T32" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33">
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44167</v>
+        <v>44160</v>
       </c>
       <c r="E33" t="n">
         <v>13</v>
@@ -3004,16 +3004,16 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>120</v>
+        <v>25</v>
       </c>
       <c r="N33" t="n">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="O33" t="n">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="P33" t="n">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="S33" t="n">
-        <v>950</v>
+        <v>800</v>
       </c>
       <c r="T33" t="n">
         <v>10</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44167</v>
+        <v>44160</v>
       </c>
       <c r="E34" t="n">
         <v>13</v>
@@ -3080,24 +3080,24 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M34" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="N34" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="O34" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="P34" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
@@ -3106,10 +3106,10 @@
         </is>
       </c>
       <c r="S34" t="n">
-        <v>833</v>
+        <v>700</v>
       </c>
       <c r="T34" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35">
@@ -3127,68 +3127,308 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
+        <v>44167</v>
+      </c>
+      <c r="E35" t="n">
+        <v>13</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I35" t="n">
+        <v>100103003</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>Damasco</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>Castle Brite</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M35" t="n">
+        <v>85</v>
+      </c>
+      <c r="N35" t="n">
+        <v>10000</v>
+      </c>
+      <c r="O35" t="n">
+        <v>10000</v>
+      </c>
+      <c r="P35" t="n">
+        <v>10000</v>
+      </c>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>Provincia de San Felipe de Aconcagua</t>
+        </is>
+      </c>
+      <c r="S35" t="n">
+        <v>1000</v>
+      </c>
+      <c r="T35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>9</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D36" s="2" t="n">
+        <v>44167</v>
+      </c>
+      <c r="E36" t="n">
+        <v>13</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G36" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I36" t="n">
+        <v>100103003</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>Damasco</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>Castle Brite</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M36" t="n">
+        <v>120</v>
+      </c>
+      <c r="N36" t="n">
+        <v>9500</v>
+      </c>
+      <c r="O36" t="n">
+        <v>9500</v>
+      </c>
+      <c r="P36" t="n">
+        <v>9500</v>
+      </c>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R36" t="inlineStr">
+        <is>
+          <t>Provincia de San Felipe de Aconcagua</t>
+        </is>
+      </c>
+      <c r="S36" t="n">
+        <v>950</v>
+      </c>
+      <c r="T36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>9</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D37" s="2" t="n">
+        <v>44167</v>
+      </c>
+      <c r="E37" t="n">
+        <v>13</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G37" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I37" t="n">
+        <v>100103003</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>Damasco</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>Castle Brite</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M37" t="n">
+        <v>60</v>
+      </c>
+      <c r="N37" t="n">
+        <v>15000</v>
+      </c>
+      <c r="O37" t="n">
+        <v>15000</v>
+      </c>
+      <c r="P37" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="R37" t="inlineStr">
+        <is>
+          <t>Provincia de San Felipe de Aconcagua</t>
+        </is>
+      </c>
+      <c r="S37" t="n">
+        <v>833</v>
+      </c>
+      <c r="T37" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>9</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D38" s="2" t="n">
         <v>44189</v>
       </c>
-      <c r="E35" t="n">
-        <v>13</v>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G35" t="n">
-        <v>100103</v>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>Frutos de hueso (carozo)</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
-        <v>100103003</v>
-      </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>Damasco</t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr">
+      <c r="E38" t="n">
+        <v>13</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G38" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I38" t="n">
+        <v>100103003</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>Damasco</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
         <is>
           <t>Patterson</t>
         </is>
       </c>
-      <c r="L35" t="inlineStr">
+      <c r="L38" t="inlineStr">
         <is>
           <t>Primera</t>
         </is>
       </c>
-      <c r="M35" t="n">
+      <c r="M38" t="n">
         <v>130</v>
       </c>
-      <c r="N35" t="n">
+      <c r="N38" t="n">
         <v>12000</v>
       </c>
-      <c r="O35" t="n">
+      <c r="O38" t="n">
         <v>12000</v>
       </c>
-      <c r="P35" t="n">
+      <c r="P38" t="n">
         <v>12000</v>
       </c>
-      <c r="Q35" t="inlineStr">
+      <c r="Q38" t="inlineStr">
         <is>
           <t>$/caja 18 kilos</t>
         </is>
       </c>
-      <c r="R35" t="inlineStr">
+      <c r="R38" t="inlineStr">
         <is>
           <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
-      <c r="S35" t="n">
+      <c r="S38" t="n">
         <v>667</v>
       </c>
-      <c r="T35" t="n">
+      <c r="T38" t="n">
         <v>18</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Damasco.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Damasco.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T38"/>
+  <dimension ref="A1:T40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44195</v>
+        <v>44540</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1955,7 +1955,7 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
@@ -1964,32 +1964,32 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>124</v>
+        <v>330</v>
       </c>
       <c r="N20" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="O20" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="P20" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S20" t="n">
-        <v>867</v>
+        <v>889</v>
       </c>
       <c r="T20" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21">
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44539</v>
+        <v>44540</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -2040,33 +2040,33 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="N21" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="O21" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="P21" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S21" t="n">
-        <v>1000</v>
+        <v>778</v>
       </c>
       <c r="T21" t="n">
         <v>18</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44539</v>
+        <v>44195</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
@@ -2115,7 +2115,7 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
@@ -2124,20 +2124,20 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>300</v>
+        <v>124</v>
       </c>
       <c r="N22" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="O22" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="P22" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
@@ -2146,10 +2146,10 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>889</v>
+        <v>867</v>
       </c>
       <c r="T22" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23">
@@ -2200,20 +2200,20 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="N23" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="O23" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="P23" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>778</v>
+        <v>1000</v>
       </c>
       <c r="T23" t="n">
         <v>18</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44176</v>
+        <v>44539</v>
       </c>
       <c r="E24" t="n">
         <v>13</v>
@@ -2275,7 +2275,7 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Modesto</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
@@ -2284,20 +2284,20 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>115</v>
+        <v>300</v>
       </c>
       <c r="N24" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="O24" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="P24" t="n">
-        <v>11609</v>
+        <v>16000</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
@@ -2306,10 +2306,10 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>967</v>
+        <v>889</v>
       </c>
       <c r="T24" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25">
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44159</v>
+        <v>44539</v>
       </c>
       <c r="E25" t="n">
         <v>13</v>
@@ -2360,24 +2360,24 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="N25" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="O25" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="P25" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
@@ -2386,10 +2386,10 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>800</v>
+        <v>778</v>
       </c>
       <c r="T25" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26">
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44159</v>
+        <v>44176</v>
       </c>
       <c r="E26" t="n">
         <v>13</v>
@@ -2435,29 +2435,29 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Modesto</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M26" t="n">
-        <v>65</v>
+        <v>115</v>
       </c>
       <c r="N26" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="O26" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="P26" t="n">
-        <v>7000</v>
+        <v>11609</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
@@ -2466,10 +2466,10 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>700</v>
+        <v>967</v>
       </c>
       <c r="T26" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27">
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44519</v>
+        <v>44159</v>
       </c>
       <c r="E27" t="n">
         <v>13</v>
@@ -2524,32 +2524,32 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>300</v>
+        <v>80</v>
       </c>
       <c r="N27" t="n">
-        <v>22500</v>
+        <v>8000</v>
       </c>
       <c r="O27" t="n">
-        <v>22500</v>
+        <v>8000</v>
       </c>
       <c r="P27" t="n">
-        <v>22500</v>
+        <v>8000</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S27" t="n">
-        <v>1500</v>
+        <v>800</v>
       </c>
       <c r="T27" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28">
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44168</v>
+        <v>44159</v>
       </c>
       <c r="E28" t="n">
         <v>13</v>
@@ -2595,25 +2595,25 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Dina</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="N28" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="O28" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="P28" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2622,11 +2622,11 @@
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S28" t="n">
-        <v>1400</v>
+        <v>700</v>
       </c>
       <c r="T28" t="n">
         <v>10</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44166</v>
+        <v>44519</v>
       </c>
       <c r="E29" t="n">
         <v>13</v>
@@ -2684,32 +2684,32 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="N29" t="n">
-        <v>10000</v>
+        <v>22500</v>
       </c>
       <c r="O29" t="n">
-        <v>10000</v>
+        <v>22500</v>
       </c>
       <c r="P29" t="n">
-        <v>10000</v>
+        <v>22500</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S29" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="T29" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30">
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44166</v>
+        <v>44168</v>
       </c>
       <c r="E30" t="n">
         <v>13</v>
@@ -2755,25 +2755,25 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Dina</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="N30" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="O30" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="P30" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2782,11 +2782,11 @@
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S30" t="n">
-        <v>800</v>
+        <v>1400</v>
       </c>
       <c r="T30" t="n">
         <v>10</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44525</v>
+        <v>44166</v>
       </c>
       <c r="E31" t="n">
         <v>13</v>
@@ -2840,36 +2840,36 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M31" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="N31" t="n">
-        <v>25200</v>
+        <v>10000</v>
       </c>
       <c r="O31" t="n">
-        <v>25200</v>
+        <v>10000</v>
       </c>
       <c r="P31" t="n">
-        <v>25200</v>
+        <v>10000</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S31" t="n">
-        <v>1400</v>
+        <v>1000</v>
       </c>
       <c r="T31" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32">
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44525</v>
+        <v>44166</v>
       </c>
       <c r="E32" t="n">
         <v>13</v>
@@ -2920,36 +2920,36 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M32" t="n">
-        <v>250</v>
+        <v>120</v>
       </c>
       <c r="N32" t="n">
-        <v>21600</v>
+        <v>8000</v>
       </c>
       <c r="O32" t="n">
-        <v>21600</v>
+        <v>8000</v>
       </c>
       <c r="P32" t="n">
-        <v>21600</v>
+        <v>8000</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S32" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="T32" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33">
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44160</v>
+        <v>44525</v>
       </c>
       <c r="E33" t="n">
         <v>13</v>
@@ -3000,24 +3000,24 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M33" t="n">
-        <v>25</v>
+        <v>300</v>
       </c>
       <c r="N33" t="n">
-        <v>8000</v>
+        <v>25200</v>
       </c>
       <c r="O33" t="n">
-        <v>8000</v>
+        <v>25200</v>
       </c>
       <c r="P33" t="n">
-        <v>8000</v>
+        <v>25200</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
@@ -3026,10 +3026,10 @@
         </is>
       </c>
       <c r="S33" t="n">
-        <v>800</v>
+        <v>1400</v>
       </c>
       <c r="T33" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34">
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44160</v>
+        <v>44525</v>
       </c>
       <c r="E34" t="n">
         <v>13</v>
@@ -3080,24 +3080,24 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M34" t="n">
-        <v>40</v>
+        <v>250</v>
       </c>
       <c r="N34" t="n">
-        <v>7000</v>
+        <v>21600</v>
       </c>
       <c r="O34" t="n">
-        <v>7000</v>
+        <v>21600</v>
       </c>
       <c r="P34" t="n">
-        <v>7000</v>
+        <v>21600</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
@@ -3106,10 +3106,10 @@
         </is>
       </c>
       <c r="S34" t="n">
-        <v>700</v>
+        <v>1200</v>
       </c>
       <c r="T34" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35">
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44167</v>
+        <v>44160</v>
       </c>
       <c r="E35" t="n">
         <v>13</v>
@@ -3160,20 +3160,20 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M35" t="n">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="N35" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O35" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P35" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="S35" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T35" t="n">
         <v>10</v>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44167</v>
+        <v>44160</v>
       </c>
       <c r="E36" t="n">
         <v>13</v>
@@ -3240,20 +3240,20 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M36" t="n">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="N36" t="n">
-        <v>9500</v>
+        <v>7000</v>
       </c>
       <c r="O36" t="n">
-        <v>9500</v>
+        <v>7000</v>
       </c>
       <c r="P36" t="n">
-        <v>9500</v>
+        <v>7000</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         </is>
       </c>
       <c r="S36" t="n">
-        <v>950</v>
+        <v>700</v>
       </c>
       <c r="T36" t="n">
         <v>10</v>
@@ -3320,24 +3320,24 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M37" t="n">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="N37" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O37" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P37" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
@@ -3346,10 +3346,10 @@
         </is>
       </c>
       <c r="S37" t="n">
-        <v>833</v>
+        <v>1000</v>
       </c>
       <c r="T37" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38">
@@ -3367,68 +3367,228 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
+        <v>44167</v>
+      </c>
+      <c r="E38" t="n">
+        <v>13</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G38" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I38" t="n">
+        <v>100103003</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>Damasco</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>Castle Brite</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M38" t="n">
+        <v>120</v>
+      </c>
+      <c r="N38" t="n">
+        <v>9500</v>
+      </c>
+      <c r="O38" t="n">
+        <v>9500</v>
+      </c>
+      <c r="P38" t="n">
+        <v>9500</v>
+      </c>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R38" t="inlineStr">
+        <is>
+          <t>Provincia de San Felipe de Aconcagua</t>
+        </is>
+      </c>
+      <c r="S38" t="n">
+        <v>950</v>
+      </c>
+      <c r="T38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>9</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D39" s="2" t="n">
+        <v>44167</v>
+      </c>
+      <c r="E39" t="n">
+        <v>13</v>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G39" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I39" t="n">
+        <v>100103003</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>Damasco</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>Castle Brite</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M39" t="n">
+        <v>60</v>
+      </c>
+      <c r="N39" t="n">
+        <v>15000</v>
+      </c>
+      <c r="O39" t="n">
+        <v>15000</v>
+      </c>
+      <c r="P39" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="R39" t="inlineStr">
+        <is>
+          <t>Provincia de San Felipe de Aconcagua</t>
+        </is>
+      </c>
+      <c r="S39" t="n">
+        <v>833</v>
+      </c>
+      <c r="T39" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>9</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D40" s="2" t="n">
         <v>44189</v>
       </c>
-      <c r="E38" t="n">
-        <v>13</v>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G38" t="n">
-        <v>100103</v>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>Frutos de hueso (carozo)</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
-        <v>100103003</v>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>Damasco</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr">
+      <c r="E40" t="n">
+        <v>13</v>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G40" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I40" t="n">
+        <v>100103003</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>Damasco</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
         <is>
           <t>Patterson</t>
         </is>
       </c>
-      <c r="L38" t="inlineStr">
+      <c r="L40" t="inlineStr">
         <is>
           <t>Primera</t>
         </is>
       </c>
-      <c r="M38" t="n">
+      <c r="M40" t="n">
         <v>130</v>
       </c>
-      <c r="N38" t="n">
+      <c r="N40" t="n">
         <v>12000</v>
       </c>
-      <c r="O38" t="n">
+      <c r="O40" t="n">
         <v>12000</v>
       </c>
-      <c r="P38" t="n">
+      <c r="P40" t="n">
         <v>12000</v>
       </c>
-      <c r="Q38" t="inlineStr">
+      <c r="Q40" t="inlineStr">
         <is>
           <t>$/caja 18 kilos</t>
         </is>
       </c>
-      <c r="R38" t="inlineStr">
+      <c r="R40" t="inlineStr">
         <is>
           <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
-      <c r="S38" t="n">
+      <c r="S40" t="n">
         <v>667</v>
       </c>
-      <c r="T38" t="n">
+      <c r="T40" t="n">
         <v>18</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Damasco.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Damasco.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44162</v>
+        <v>44159</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="N2" t="n">
-        <v>8500</v>
+        <v>8000</v>
       </c>
       <c r="O2" t="n">
-        <v>8500</v>
+        <v>8000</v>
       </c>
       <c r="P2" t="n">
-        <v>8500</v>
+        <v>8000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>850</v>
+        <v>800</v>
       </c>
       <c r="T2" t="n">
         <v>10</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44162</v>
+        <v>44159</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -600,24 +600,24 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="N3" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="O3" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="P3" t="n">
-        <v>14400</v>
+        <v>7000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -626,10 +626,10 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="T3" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44537</v>
+        <v>44523</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -684,20 +684,20 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>400</v>
+        <v>320</v>
       </c>
       <c r="N4" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="O4" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="P4" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -706,10 +706,10 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>889</v>
+        <v>1000</v>
       </c>
       <c r="T4" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44187</v>
+        <v>44189</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -764,20 +764,20 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="N5" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O5" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P5" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -786,10 +786,10 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1000</v>
+        <v>667</v>
       </c>
       <c r="T5" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44187</v>
+        <v>44169</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -835,41 +835,41 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Dina</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="N6" t="n">
-        <v>13500</v>
+        <v>10000</v>
       </c>
       <c r="O6" t="n">
-        <v>13500</v>
+        <v>10000</v>
       </c>
       <c r="P6" t="n">
-        <v>13500</v>
+        <v>10000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S6" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="T6" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44187</v>
+        <v>44537</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -915,29 +915,29 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>120</v>
+        <v>400</v>
       </c>
       <c r="N7" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="O7" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="P7" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -946,10 +946,10 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>800</v>
+        <v>889</v>
       </c>
       <c r="T7" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8">
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44523</v>
+        <v>44162</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>320</v>
+        <v>70</v>
       </c>
       <c r="N8" t="n">
-        <v>10000</v>
+        <v>8500</v>
       </c>
       <c r="O8" t="n">
-        <v>10000</v>
+        <v>8500</v>
       </c>
       <c r="P8" t="n">
-        <v>10000</v>
+        <v>8500</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1000</v>
+        <v>850</v>
       </c>
       <c r="T8" t="n">
         <v>10</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44175</v>
+        <v>44162</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1075,7 +1075,7 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Modesto</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
@@ -1084,20 +1084,20 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>140</v>
+        <v>75</v>
       </c>
       <c r="N9" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="O9" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P9" t="n">
-        <v>11571</v>
+        <v>14400</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
@@ -1106,10 +1106,10 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>964</v>
+        <v>800</v>
       </c>
       <c r="T9" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10">
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44169</v>
+        <v>44166</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1155,7 +1155,7 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Dina</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
@@ -1164,7 +1164,7 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="N10" t="n">
         <v>10000</v>
@@ -1182,7 +1182,7 @@
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S10" t="n">
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44194</v>
+        <v>44166</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1235,41 +1235,41 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M11" t="n">
         <v>120</v>
       </c>
       <c r="N11" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="O11" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="P11" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S11" t="n">
-        <v>867</v>
+        <v>800</v>
       </c>
       <c r="T11" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12">
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44536</v>
+        <v>44174</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1315,7 +1315,7 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Modesto</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>220</v>
+        <v>120</v>
       </c>
       <c r="N12" t="n">
-        <v>11000</v>
+        <v>8500</v>
       </c>
       <c r="O12" t="n">
-        <v>11000</v>
+        <v>8500</v>
       </c>
       <c r="P12" t="n">
-        <v>11000</v>
+        <v>8500</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1342,11 +1342,11 @@
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1100</v>
+        <v>850</v>
       </c>
       <c r="T12" t="n">
         <v>10</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44536</v>
+        <v>44174</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1395,41 +1395,41 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Modesto</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>250</v>
+        <v>180</v>
       </c>
       <c r="N13" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="O13" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="P13" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S13" t="n">
-        <v>700</v>
+        <v>833</v>
       </c>
       <c r="T13" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14">
@@ -1480,24 +1480,24 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M14" t="n">
         <v>120</v>
       </c>
       <c r="N14" t="n">
-        <v>8500</v>
+        <v>12000</v>
       </c>
       <c r="O14" t="n">
-        <v>8500</v>
+        <v>12000</v>
       </c>
       <c r="P14" t="n">
-        <v>8500</v>
+        <v>12000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
@@ -1506,10 +1506,10 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>850</v>
+        <v>667</v>
       </c>
       <c r="T14" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15">
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44174</v>
+        <v>44525</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1555,25 +1555,25 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Modesto</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="N15" t="n">
-        <v>15000</v>
+        <v>25200</v>
       </c>
       <c r="O15" t="n">
-        <v>15000</v>
+        <v>25200</v>
       </c>
       <c r="P15" t="n">
-        <v>15000</v>
+        <v>25200</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1582,11 +1582,11 @@
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S15" t="n">
-        <v>833</v>
+        <v>1400</v>
       </c>
       <c r="T15" t="n">
         <v>18</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44174</v>
+        <v>44525</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1635,25 +1635,25 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Modesto</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>120</v>
+        <v>250</v>
       </c>
       <c r="N16" t="n">
-        <v>12000</v>
+        <v>21600</v>
       </c>
       <c r="O16" t="n">
-        <v>12000</v>
+        <v>21600</v>
       </c>
       <c r="P16" t="n">
-        <v>12000</v>
+        <v>21600</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1662,11 +1662,11 @@
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S16" t="n">
-        <v>667</v>
+        <v>1200</v>
       </c>
       <c r="T16" t="n">
         <v>18</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44540</v>
+        <v>44176</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1955,7 +1955,7 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Modesto</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
@@ -1964,32 +1964,32 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>330</v>
+        <v>115</v>
       </c>
       <c r="N20" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="O20" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="P20" t="n">
-        <v>16000</v>
+        <v>11609</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S20" t="n">
-        <v>889</v>
+        <v>967</v>
       </c>
       <c r="T20" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21">
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44540</v>
+        <v>44539</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -2040,33 +2040,33 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="N21" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="O21" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="P21" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S21" t="n">
-        <v>778</v>
+        <v>1000</v>
       </c>
       <c r="T21" t="n">
         <v>18</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44195</v>
+        <v>44539</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
@@ -2115,7 +2115,7 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
@@ -2124,20 +2124,20 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>124</v>
+        <v>300</v>
       </c>
       <c r="N22" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="O22" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="P22" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
@@ -2146,10 +2146,10 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>867</v>
+        <v>889</v>
       </c>
       <c r="T22" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23">
@@ -2200,20 +2200,20 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="N23" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="O23" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="P23" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>1000</v>
+        <v>778</v>
       </c>
       <c r="T23" t="n">
         <v>18</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44539</v>
+        <v>44168</v>
       </c>
       <c r="E24" t="n">
         <v>13</v>
@@ -2275,41 +2275,41 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Dina</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M24" t="n">
-        <v>300</v>
+        <v>40</v>
       </c>
       <c r="N24" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O24" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="P24" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S24" t="n">
-        <v>889</v>
+        <v>1400</v>
       </c>
       <c r="T24" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25">
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44539</v>
+        <v>44167</v>
       </c>
       <c r="E25" t="n">
         <v>13</v>
@@ -2360,24 +2360,24 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>300</v>
+        <v>85</v>
       </c>
       <c r="N25" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O25" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P25" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
@@ -2386,10 +2386,10 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>778</v>
+        <v>1000</v>
       </c>
       <c r="T25" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26">
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44176</v>
+        <v>44167</v>
       </c>
       <c r="E26" t="n">
         <v>13</v>
@@ -2435,7 +2435,7 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Modesto</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
@@ -2444,20 +2444,20 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="N26" t="n">
-        <v>11000</v>
+        <v>9500</v>
       </c>
       <c r="O26" t="n">
-        <v>12000</v>
+        <v>9500</v>
       </c>
       <c r="P26" t="n">
-        <v>11609</v>
+        <v>9500</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
@@ -2466,10 +2466,10 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>967</v>
+        <v>950</v>
       </c>
       <c r="T26" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27">
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44159</v>
+        <v>44167</v>
       </c>
       <c r="E27" t="n">
         <v>13</v>
@@ -2524,20 +2524,20 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="N27" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="O27" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="P27" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
@@ -2546,10 +2546,10 @@
         </is>
       </c>
       <c r="S27" t="n">
-        <v>800</v>
+        <v>833</v>
       </c>
       <c r="T27" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28">
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44159</v>
+        <v>44160</v>
       </c>
       <c r="E28" t="n">
         <v>13</v>
@@ -2600,20 +2600,20 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="N28" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O28" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P28" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="S28" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="T28" t="n">
         <v>10</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44519</v>
+        <v>44160</v>
       </c>
       <c r="E29" t="n">
         <v>13</v>
@@ -2680,36 +2680,36 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>300</v>
+        <v>40</v>
       </c>
       <c r="N29" t="n">
-        <v>22500</v>
+        <v>7000</v>
       </c>
       <c r="O29" t="n">
-        <v>22500</v>
+        <v>7000</v>
       </c>
       <c r="P29" t="n">
-        <v>22500</v>
+        <v>7000</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S29" t="n">
-        <v>1500</v>
+        <v>700</v>
       </c>
       <c r="T29" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30">
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44168</v>
+        <v>44519</v>
       </c>
       <c r="E30" t="n">
         <v>13</v>
@@ -2755,29 +2755,29 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Dina</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>40</v>
+        <v>300</v>
       </c>
       <c r="N30" t="n">
-        <v>14000</v>
+        <v>22500</v>
       </c>
       <c r="O30" t="n">
-        <v>14000</v>
+        <v>22500</v>
       </c>
       <c r="P30" t="n">
-        <v>14000</v>
+        <v>22500</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
@@ -2786,10 +2786,10 @@
         </is>
       </c>
       <c r="S30" t="n">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="T30" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31">
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44166</v>
+        <v>44187</v>
       </c>
       <c r="E31" t="n">
         <v>13</v>
@@ -2835,7 +2835,7 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
@@ -2844,32 +2844,32 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="N31" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O31" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P31" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S31" t="n">
         <v>1000</v>
       </c>
       <c r="T31" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32">
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44166</v>
+        <v>44187</v>
       </c>
       <c r="E32" t="n">
         <v>13</v>
@@ -2915,7 +2915,7 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
@@ -2924,32 +2924,32 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="N32" t="n">
-        <v>8000</v>
+        <v>13500</v>
       </c>
       <c r="O32" t="n">
-        <v>8000</v>
+        <v>13500</v>
       </c>
       <c r="P32" t="n">
-        <v>8000</v>
+        <v>13500</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S32" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="T32" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="33">
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44525</v>
+        <v>44187</v>
       </c>
       <c r="E33" t="n">
         <v>13</v>
@@ -2995,29 +2995,29 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M33" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="N33" t="n">
-        <v>25200</v>
+        <v>12000</v>
       </c>
       <c r="O33" t="n">
-        <v>25200</v>
+        <v>12000</v>
       </c>
       <c r="P33" t="n">
-        <v>25200</v>
+        <v>12000</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
@@ -3026,10 +3026,10 @@
         </is>
       </c>
       <c r="S33" t="n">
-        <v>1400</v>
+        <v>800</v>
       </c>
       <c r="T33" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34">
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44525</v>
+        <v>44175</v>
       </c>
       <c r="E34" t="n">
         <v>13</v>
@@ -3075,7 +3075,7 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Modesto</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
@@ -3084,20 +3084,20 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>250</v>
+        <v>140</v>
       </c>
       <c r="N34" t="n">
-        <v>21600</v>
+        <v>11000</v>
       </c>
       <c r="O34" t="n">
-        <v>21600</v>
+        <v>12000</v>
       </c>
       <c r="P34" t="n">
-        <v>21600</v>
+        <v>11571</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
@@ -3106,10 +3106,10 @@
         </is>
       </c>
       <c r="S34" t="n">
-        <v>1200</v>
+        <v>964</v>
       </c>
       <c r="T34" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35">
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44160</v>
+        <v>44195</v>
       </c>
       <c r="E35" t="n">
         <v>13</v>
@@ -3155,7 +3155,7 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
@@ -3164,20 +3164,20 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>25</v>
+        <v>124</v>
       </c>
       <c r="N35" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="O35" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="P35" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
@@ -3186,10 +3186,10 @@
         </is>
       </c>
       <c r="S35" t="n">
-        <v>800</v>
+        <v>867</v>
       </c>
       <c r="T35" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="36">
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44160</v>
+        <v>44536</v>
       </c>
       <c r="E36" t="n">
         <v>13</v>
@@ -3240,20 +3240,20 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M36" t="n">
-        <v>40</v>
+        <v>220</v>
       </c>
       <c r="N36" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="O36" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="P36" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -3262,11 +3262,11 @@
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S36" t="n">
-        <v>700</v>
+        <v>1100</v>
       </c>
       <c r="T36" t="n">
         <v>10</v>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44167</v>
+        <v>44536</v>
       </c>
       <c r="E37" t="n">
         <v>13</v>
@@ -3320,20 +3320,20 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M37" t="n">
-        <v>85</v>
+        <v>250</v>
       </c>
       <c r="N37" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O37" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P37" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
@@ -3342,11 +3342,11 @@
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S37" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="T37" t="n">
         <v>10</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44167</v>
+        <v>44194</v>
       </c>
       <c r="E38" t="n">
         <v>13</v>
@@ -3395,7 +3395,7 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
@@ -3407,17 +3407,17 @@
         <v>120</v>
       </c>
       <c r="N38" t="n">
-        <v>9500</v>
+        <v>13000</v>
       </c>
       <c r="O38" t="n">
-        <v>9500</v>
+        <v>13000</v>
       </c>
       <c r="P38" t="n">
-        <v>9500</v>
+        <v>13000</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R38" t="inlineStr">
@@ -3426,10 +3426,10 @@
         </is>
       </c>
       <c r="S38" t="n">
-        <v>950</v>
+        <v>867</v>
       </c>
       <c r="T38" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="39">
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44167</v>
+        <v>44540</v>
       </c>
       <c r="E39" t="n">
         <v>13</v>
@@ -3484,16 +3484,16 @@
         </is>
       </c>
       <c r="M39" t="n">
-        <v>60</v>
+        <v>330</v>
       </c>
       <c r="N39" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="O39" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P39" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
@@ -3502,11 +3502,11 @@
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S39" t="n">
-        <v>833</v>
+        <v>889</v>
       </c>
       <c r="T39" t="n">
         <v>18</v>
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44189</v>
+        <v>44540</v>
       </c>
       <c r="E40" t="n">
         <v>13</v>
@@ -3555,25 +3555,25 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M40" t="n">
-        <v>130</v>
+        <v>280</v>
       </c>
       <c r="N40" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O40" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P40" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
@@ -3582,11 +3582,11 @@
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S40" t="n">
-        <v>667</v>
+        <v>778</v>
       </c>
       <c r="T40" t="n">
         <v>18</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Damasco.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Damasco.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T40"/>
+  <dimension ref="A1:T42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44537</v>
+        <v>44544</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -915,29 +915,29 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Dina</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>400</v>
+        <v>330</v>
       </c>
       <c r="N7" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="O7" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P7" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -946,10 +946,10 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>889</v>
+        <v>1000</v>
       </c>
       <c r="T7" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8">
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44162</v>
+        <v>44544</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -995,7 +995,7 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Dina</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -1004,20 +1004,20 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>70</v>
+        <v>350</v>
       </c>
       <c r="N8" t="n">
-        <v>8500</v>
+        <v>12000</v>
       </c>
       <c r="O8" t="n">
-        <v>8500</v>
+        <v>12000</v>
       </c>
       <c r="P8" t="n">
-        <v>8500</v>
+        <v>12000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -1026,10 +1026,10 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>850</v>
+        <v>800</v>
       </c>
       <c r="T8" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9">
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44162</v>
+        <v>44537</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>75</v>
+        <v>400</v>
       </c>
       <c r="N9" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O9" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P9" t="n">
-        <v>14400</v>
+        <v>16000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>800</v>
+        <v>889</v>
       </c>
       <c r="T9" t="n">
         <v>18</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44166</v>
+        <v>44162</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="N10" t="n">
-        <v>10000</v>
+        <v>8500</v>
       </c>
       <c r="O10" t="n">
-        <v>10000</v>
+        <v>8500</v>
       </c>
       <c r="P10" t="n">
-        <v>10000</v>
+        <v>8500</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1182,11 +1182,11 @@
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1000</v>
+        <v>850</v>
       </c>
       <c r="T10" t="n">
         <v>10</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44166</v>
+        <v>44162</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1240,36 +1240,36 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>120</v>
+        <v>75</v>
       </c>
       <c r="N11" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="O11" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="P11" t="n">
-        <v>8000</v>
+        <v>14400</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S11" t="n">
         <v>800</v>
       </c>
       <c r="T11" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12">
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44174</v>
+        <v>44166</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1315,7 +1315,7 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Modesto</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -1327,13 +1327,13 @@
         <v>120</v>
       </c>
       <c r="N12" t="n">
-        <v>8500</v>
+        <v>10000</v>
       </c>
       <c r="O12" t="n">
-        <v>8500</v>
+        <v>10000</v>
       </c>
       <c r="P12" t="n">
-        <v>8500</v>
+        <v>10000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>850</v>
+        <v>1000</v>
       </c>
       <c r="T12" t="n">
         <v>10</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44174</v>
+        <v>44166</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1395,29 +1395,29 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Modesto</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="N13" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="O13" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="P13" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
@@ -1426,10 +1426,10 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>833</v>
+        <v>800</v>
       </c>
       <c r="T13" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14">
@@ -1480,24 +1480,24 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M14" t="n">
         <v>120</v>
       </c>
       <c r="N14" t="n">
-        <v>12000</v>
+        <v>8500</v>
       </c>
       <c r="O14" t="n">
-        <v>12000</v>
+        <v>8500</v>
       </c>
       <c r="P14" t="n">
-        <v>12000</v>
+        <v>8500</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
@@ -1506,10 +1506,10 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>667</v>
+        <v>850</v>
       </c>
       <c r="T14" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15">
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44525</v>
+        <v>44174</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1555,25 +1555,25 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Modesto</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="N15" t="n">
-        <v>25200</v>
+        <v>15000</v>
       </c>
       <c r="O15" t="n">
-        <v>25200</v>
+        <v>15000</v>
       </c>
       <c r="P15" t="n">
-        <v>25200</v>
+        <v>15000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1582,11 +1582,11 @@
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1400</v>
+        <v>833</v>
       </c>
       <c r="T15" t="n">
         <v>18</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44525</v>
+        <v>44174</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1635,25 +1635,25 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Modesto</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>250</v>
+        <v>120</v>
       </c>
       <c r="N16" t="n">
-        <v>21600</v>
+        <v>12000</v>
       </c>
       <c r="O16" t="n">
-        <v>21600</v>
+        <v>12000</v>
       </c>
       <c r="P16" t="n">
-        <v>21600</v>
+        <v>12000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1662,11 +1662,11 @@
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1200</v>
+        <v>667</v>
       </c>
       <c r="T16" t="n">
         <v>18</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44533</v>
+        <v>44525</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1720,24 +1720,24 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>410</v>
+        <v>300</v>
       </c>
       <c r="N17" t="n">
-        <v>16500</v>
+        <v>25200</v>
       </c>
       <c r="O17" t="n">
-        <v>16500</v>
+        <v>25200</v>
       </c>
       <c r="P17" t="n">
-        <v>16500</v>
+        <v>25200</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
@@ -1746,10 +1746,10 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>1100</v>
+        <v>1400</v>
       </c>
       <c r="T17" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18">
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44533</v>
+        <v>44525</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1800,24 +1800,24 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="N18" t="n">
-        <v>10500</v>
+        <v>21600</v>
       </c>
       <c r="O18" t="n">
-        <v>10500</v>
+        <v>21600</v>
       </c>
       <c r="P18" t="n">
-        <v>10500</v>
+        <v>21600</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
@@ -1826,10 +1826,10 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>700</v>
+        <v>1200</v>
       </c>
       <c r="T18" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19">
@@ -1880,20 +1880,20 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>250</v>
+        <v>410</v>
       </c>
       <c r="N19" t="n">
-        <v>7500</v>
+        <v>16500</v>
       </c>
       <c r="O19" t="n">
-        <v>7500</v>
+        <v>16500</v>
       </c>
       <c r="P19" t="n">
-        <v>7500</v>
+        <v>16500</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>500</v>
+        <v>1100</v>
       </c>
       <c r="T19" t="n">
         <v>15</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44176</v>
+        <v>44533</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1955,29 +1955,29 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Modesto</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>115</v>
+        <v>300</v>
       </c>
       <c r="N20" t="n">
-        <v>11000</v>
+        <v>10500</v>
       </c>
       <c r="O20" t="n">
-        <v>12000</v>
+        <v>10500</v>
       </c>
       <c r="P20" t="n">
-        <v>11609</v>
+        <v>10500</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
@@ -1986,10 +1986,10 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>967</v>
+        <v>700</v>
       </c>
       <c r="T20" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21">
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44539</v>
+        <v>44533</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -2040,24 +2040,24 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>290</v>
+        <v>250</v>
       </c>
       <c r="N21" t="n">
-        <v>18000</v>
+        <v>7500</v>
       </c>
       <c r="O21" t="n">
-        <v>18000</v>
+        <v>7500</v>
       </c>
       <c r="P21" t="n">
-        <v>18000</v>
+        <v>7500</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
@@ -2066,10 +2066,10 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="T21" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22">
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44539</v>
+        <v>44176</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
@@ -2115,7 +2115,7 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Modesto</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
@@ -2124,20 +2124,20 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>300</v>
+        <v>115</v>
       </c>
       <c r="N22" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="O22" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="P22" t="n">
-        <v>16000</v>
+        <v>11609</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
@@ -2146,10 +2146,10 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>889</v>
+        <v>967</v>
       </c>
       <c r="T22" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23">
@@ -2200,20 +2200,20 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="N23" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="O23" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="P23" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>778</v>
+        <v>1000</v>
       </c>
       <c r="T23" t="n">
         <v>18</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44168</v>
+        <v>44539</v>
       </c>
       <c r="E24" t="n">
         <v>13</v>
@@ -2275,41 +2275,41 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Dina</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M24" t="n">
-        <v>40</v>
+        <v>300</v>
       </c>
       <c r="N24" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O24" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="P24" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S24" t="n">
-        <v>1400</v>
+        <v>889</v>
       </c>
       <c r="T24" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25">
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44167</v>
+        <v>44539</v>
       </c>
       <c r="E25" t="n">
         <v>13</v>
@@ -2360,24 +2360,24 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>85</v>
+        <v>300</v>
       </c>
       <c r="N25" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O25" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P25" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
@@ -2386,10 +2386,10 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>1000</v>
+        <v>778</v>
       </c>
       <c r="T25" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26">
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44167</v>
+        <v>44168</v>
       </c>
       <c r="E26" t="n">
         <v>13</v>
@@ -2435,25 +2435,25 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Dina</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M26" t="n">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="N26" t="n">
-        <v>9500</v>
+        <v>14000</v>
       </c>
       <c r="O26" t="n">
-        <v>9500</v>
+        <v>14000</v>
       </c>
       <c r="P26" t="n">
-        <v>9500</v>
+        <v>14000</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2462,11 +2462,11 @@
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S26" t="n">
-        <v>950</v>
+        <v>1400</v>
       </c>
       <c r="T26" t="n">
         <v>10</v>
@@ -2520,24 +2520,24 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M27" t="n">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="N27" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O27" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P27" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
@@ -2546,10 +2546,10 @@
         </is>
       </c>
       <c r="S27" t="n">
-        <v>833</v>
+        <v>1000</v>
       </c>
       <c r="T27" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28">
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44160</v>
+        <v>44167</v>
       </c>
       <c r="E28" t="n">
         <v>13</v>
@@ -2604,16 +2604,16 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>25</v>
+        <v>120</v>
       </c>
       <c r="N28" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="O28" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="P28" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="S28" t="n">
-        <v>800</v>
+        <v>950</v>
       </c>
       <c r="T28" t="n">
         <v>10</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44160</v>
+        <v>44167</v>
       </c>
       <c r="E29" t="n">
         <v>13</v>
@@ -2680,24 +2680,24 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="N29" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="O29" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="P29" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
@@ -2706,10 +2706,10 @@
         </is>
       </c>
       <c r="S29" t="n">
-        <v>700</v>
+        <v>833</v>
       </c>
       <c r="T29" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30">
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44519</v>
+        <v>44160</v>
       </c>
       <c r="E30" t="n">
         <v>13</v>
@@ -2764,32 +2764,32 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>300</v>
+        <v>25</v>
       </c>
       <c r="N30" t="n">
-        <v>22500</v>
+        <v>8000</v>
       </c>
       <c r="O30" t="n">
-        <v>22500</v>
+        <v>8000</v>
       </c>
       <c r="P30" t="n">
-        <v>22500</v>
+        <v>8000</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S30" t="n">
-        <v>1500</v>
+        <v>800</v>
       </c>
       <c r="T30" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31">
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44187</v>
+        <v>44160</v>
       </c>
       <c r="E31" t="n">
         <v>13</v>
@@ -2835,29 +2835,29 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M31" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="N31" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="O31" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="P31" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
@@ -2866,10 +2866,10 @@
         </is>
       </c>
       <c r="S31" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="T31" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32">
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44187</v>
+        <v>44519</v>
       </c>
       <c r="E32" t="n">
         <v>13</v>
@@ -2915,25 +2915,25 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M32" t="n">
-        <v>95</v>
+        <v>300</v>
       </c>
       <c r="N32" t="n">
-        <v>13500</v>
+        <v>22500</v>
       </c>
       <c r="O32" t="n">
-        <v>13500</v>
+        <v>22500</v>
       </c>
       <c r="P32" t="n">
-        <v>13500</v>
+        <v>22500</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -2942,11 +2942,11 @@
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S32" t="n">
-        <v>900</v>
+        <v>1500</v>
       </c>
       <c r="T32" t="n">
         <v>15</v>
@@ -3000,20 +3000,20 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M33" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="N33" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O33" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P33" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="S33" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T33" t="n">
         <v>15</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44175</v>
+        <v>44187</v>
       </c>
       <c r="E34" t="n">
         <v>13</v>
@@ -3075,29 +3075,29 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>Modesto</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M34" t="n">
-        <v>140</v>
+        <v>95</v>
       </c>
       <c r="N34" t="n">
-        <v>11000</v>
+        <v>13500</v>
       </c>
       <c r="O34" t="n">
-        <v>12000</v>
+        <v>13500</v>
       </c>
       <c r="P34" t="n">
-        <v>11571</v>
+        <v>13500</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
@@ -3106,10 +3106,10 @@
         </is>
       </c>
       <c r="S34" t="n">
-        <v>964</v>
+        <v>900</v>
       </c>
       <c r="T34" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35">
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44195</v>
+        <v>44187</v>
       </c>
       <c r="E35" t="n">
         <v>13</v>
@@ -3160,24 +3160,24 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M35" t="n">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="N35" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O35" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P35" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="S35" t="n">
-        <v>867</v>
+        <v>800</v>
       </c>
       <c r="T35" t="n">
         <v>15</v>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44536</v>
+        <v>44175</v>
       </c>
       <c r="E36" t="n">
         <v>13</v>
@@ -3235,7 +3235,7 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Modesto</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
@@ -3244,32 +3244,32 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>220</v>
+        <v>140</v>
       </c>
       <c r="N36" t="n">
         <v>11000</v>
       </c>
       <c r="O36" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P36" t="n">
-        <v>11000</v>
+        <v>11571</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S36" t="n">
-        <v>1100</v>
+        <v>964</v>
       </c>
       <c r="T36" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37">
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44536</v>
+        <v>44195</v>
       </c>
       <c r="E37" t="n">
         <v>13</v>
@@ -3315,41 +3315,41 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M37" t="n">
-        <v>250</v>
+        <v>124</v>
       </c>
       <c r="N37" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="O37" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="P37" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S37" t="n">
-        <v>700</v>
+        <v>867</v>
       </c>
       <c r="T37" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="38">
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44194</v>
+        <v>44536</v>
       </c>
       <c r="E38" t="n">
         <v>13</v>
@@ -3395,7 +3395,7 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
@@ -3404,32 +3404,32 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>120</v>
+        <v>220</v>
       </c>
       <c r="N38" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O38" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P38" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S38" t="n">
-        <v>867</v>
+        <v>1100</v>
       </c>
       <c r="T38" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39">
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44540</v>
+        <v>44536</v>
       </c>
       <c r="E39" t="n">
         <v>13</v>
@@ -3480,24 +3480,24 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M39" t="n">
-        <v>330</v>
+        <v>250</v>
       </c>
       <c r="N39" t="n">
-        <v>16000</v>
+        <v>7000</v>
       </c>
       <c r="O39" t="n">
-        <v>16000</v>
+        <v>7000</v>
       </c>
       <c r="P39" t="n">
-        <v>16000</v>
+        <v>7000</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
@@ -3506,10 +3506,10 @@
         </is>
       </c>
       <c r="S39" t="n">
-        <v>889</v>
+        <v>700</v>
       </c>
       <c r="T39" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40">
@@ -3527,68 +3527,228 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
+        <v>44194</v>
+      </c>
+      <c r="E40" t="n">
+        <v>13</v>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G40" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I40" t="n">
+        <v>100103003</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>Damasco</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>Patterson</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M40" t="n">
+        <v>120</v>
+      </c>
+      <c r="N40" t="n">
+        <v>13000</v>
+      </c>
+      <c r="O40" t="n">
+        <v>13000</v>
+      </c>
+      <c r="P40" t="n">
+        <v>13000</v>
+      </c>
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="R40" t="inlineStr">
+        <is>
+          <t>Provincia de San Felipe de Aconcagua</t>
+        </is>
+      </c>
+      <c r="S40" t="n">
+        <v>867</v>
+      </c>
+      <c r="T40" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>9</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D41" s="2" t="n">
         <v>44540</v>
       </c>
-      <c r="E40" t="n">
-        <v>13</v>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G40" t="n">
-        <v>100103</v>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>Frutos de hueso (carozo)</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
-        <v>100103003</v>
-      </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>Damasco</t>
-        </is>
-      </c>
-      <c r="K40" t="inlineStr">
+      <c r="E41" t="n">
+        <v>13</v>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G41" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I41" t="n">
+        <v>100103003</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>Damasco</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
         <is>
           <t>Castle Brite</t>
         </is>
       </c>
-      <c r="L40" t="inlineStr">
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M41" t="n">
+        <v>330</v>
+      </c>
+      <c r="N41" t="n">
+        <v>16000</v>
+      </c>
+      <c r="O41" t="n">
+        <v>16000</v>
+      </c>
+      <c r="P41" t="n">
+        <v>16000</v>
+      </c>
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="R41" t="inlineStr">
+        <is>
+          <t>Provincia de Los Andes</t>
+        </is>
+      </c>
+      <c r="S41" t="n">
+        <v>889</v>
+      </c>
+      <c r="T41" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>9</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D42" s="2" t="n">
+        <v>44540</v>
+      </c>
+      <c r="E42" t="n">
+        <v>13</v>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G42" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I42" t="n">
+        <v>100103003</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>Damasco</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>Castle Brite</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="M40" t="n">
+      <c r="M42" t="n">
         <v>280</v>
       </c>
-      <c r="N40" t="n">
+      <c r="N42" t="n">
         <v>14000</v>
       </c>
-      <c r="O40" t="n">
+      <c r="O42" t="n">
         <v>14000</v>
       </c>
-      <c r="P40" t="n">
+      <c r="P42" t="n">
         <v>14000</v>
       </c>
-      <c r="Q40" t="inlineStr">
+      <c r="Q42" t="inlineStr">
         <is>
           <t>$/caja 18 kilos</t>
         </is>
       </c>
-      <c r="R40" t="inlineStr">
+      <c r="R42" t="inlineStr">
         <is>
           <t>Provincia de Los Andes</t>
         </is>
       </c>
-      <c r="S40" t="n">
+      <c r="S42" t="n">
         <v>778</v>
       </c>
-      <c r="T40" t="n">
+      <c r="T42" t="n">
         <v>18</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Damasco.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Damasco.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T42"/>
+  <dimension ref="A1:T44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44159</v>
+        <v>44545</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -520,36 +520,36 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>80</v>
+        <v>310</v>
       </c>
       <c r="N2" t="n">
-        <v>8000</v>
+        <v>18000</v>
       </c>
       <c r="O2" t="n">
-        <v>8000</v>
+        <v>18000</v>
       </c>
       <c r="P2" t="n">
-        <v>8000</v>
+        <v>18000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S2" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T2" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44159</v>
+        <v>44545</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -600,36 +600,36 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>65</v>
+        <v>350</v>
       </c>
       <c r="N3" t="n">
-        <v>7000</v>
+        <v>14400</v>
       </c>
       <c r="O3" t="n">
-        <v>7000</v>
+        <v>14400</v>
       </c>
       <c r="P3" t="n">
-        <v>7000</v>
+        <v>14400</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S3" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="T3" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44523</v>
+        <v>44159</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>320</v>
+        <v>80</v>
       </c>
       <c r="N4" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O4" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P4" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T4" t="n">
         <v>10</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44189</v>
+        <v>44159</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -755,29 +755,29 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>130</v>
+        <v>65</v>
       </c>
       <c r="N5" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="O5" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="P5" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -786,10 +786,10 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>667</v>
+        <v>700</v>
       </c>
       <c r="T5" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44169</v>
+        <v>44523</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -835,7 +835,7 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Dina</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -844,7 +844,7 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>80</v>
+        <v>320</v>
       </c>
       <c r="N6" t="n">
         <v>10000</v>
@@ -862,7 +862,7 @@
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S6" t="n">
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44544</v>
+        <v>44189</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -915,29 +915,29 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Dina</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>330</v>
+        <v>130</v>
       </c>
       <c r="N7" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O7" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P7" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -946,10 +946,10 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1000</v>
+        <v>667</v>
       </c>
       <c r="T7" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8">
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44544</v>
+        <v>44169</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -1004,32 +1004,32 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>350</v>
+        <v>80</v>
       </c>
       <c r="N8" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O8" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P8" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S8" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T8" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44537</v>
+        <v>44544</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1075,29 +1075,29 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Dina</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>400</v>
+        <v>330</v>
       </c>
       <c r="N9" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="O9" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P9" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
@@ -1106,10 +1106,10 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>889</v>
+        <v>1000</v>
       </c>
       <c r="T9" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10">
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44162</v>
+        <v>44544</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1155,7 +1155,7 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Dina</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
@@ -1164,20 +1164,20 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>70</v>
+        <v>350</v>
       </c>
       <c r="N10" t="n">
-        <v>8500</v>
+        <v>12000</v>
       </c>
       <c r="O10" t="n">
-        <v>8500</v>
+        <v>12000</v>
       </c>
       <c r="P10" t="n">
-        <v>8500</v>
+        <v>12000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
@@ -1186,10 +1186,10 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>850</v>
+        <v>800</v>
       </c>
       <c r="T10" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11">
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44162</v>
+        <v>44537</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>75</v>
+        <v>400</v>
       </c>
       <c r="N11" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O11" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P11" t="n">
-        <v>14400</v>
+        <v>16000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>800</v>
+        <v>889</v>
       </c>
       <c r="T11" t="n">
         <v>18</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44166</v>
+        <v>44162</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="N12" t="n">
-        <v>10000</v>
+        <v>8500</v>
       </c>
       <c r="O12" t="n">
-        <v>10000</v>
+        <v>8500</v>
       </c>
       <c r="P12" t="n">
-        <v>10000</v>
+        <v>8500</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1342,11 +1342,11 @@
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1000</v>
+        <v>850</v>
       </c>
       <c r="T12" t="n">
         <v>10</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44166</v>
+        <v>44162</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1400,36 +1400,36 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>120</v>
+        <v>75</v>
       </c>
       <c r="N13" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="O13" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="P13" t="n">
-        <v>8000</v>
+        <v>14400</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S13" t="n">
         <v>800</v>
       </c>
       <c r="T13" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14">
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44174</v>
+        <v>44166</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1475,7 +1475,7 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Modesto</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
@@ -1487,13 +1487,13 @@
         <v>120</v>
       </c>
       <c r="N14" t="n">
-        <v>8500</v>
+        <v>10000</v>
       </c>
       <c r="O14" t="n">
-        <v>8500</v>
+        <v>10000</v>
       </c>
       <c r="P14" t="n">
-        <v>8500</v>
+        <v>10000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>850</v>
+        <v>1000</v>
       </c>
       <c r="T14" t="n">
         <v>10</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44174</v>
+        <v>44166</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1555,29 +1555,29 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Modesto</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="N15" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="O15" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="P15" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
@@ -1586,10 +1586,10 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>833</v>
+        <v>800</v>
       </c>
       <c r="T15" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16">
@@ -1640,24 +1640,24 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M16" t="n">
         <v>120</v>
       </c>
       <c r="N16" t="n">
-        <v>12000</v>
+        <v>8500</v>
       </c>
       <c r="O16" t="n">
-        <v>12000</v>
+        <v>8500</v>
       </c>
       <c r="P16" t="n">
-        <v>12000</v>
+        <v>8500</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
@@ -1666,10 +1666,10 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>667</v>
+        <v>850</v>
       </c>
       <c r="T16" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17">
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44525</v>
+        <v>44174</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1715,25 +1715,25 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Modesto</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="N17" t="n">
-        <v>25200</v>
+        <v>15000</v>
       </c>
       <c r="O17" t="n">
-        <v>25200</v>
+        <v>15000</v>
       </c>
       <c r="P17" t="n">
-        <v>25200</v>
+        <v>15000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1742,11 +1742,11 @@
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S17" t="n">
-        <v>1400</v>
+        <v>833</v>
       </c>
       <c r="T17" t="n">
         <v>18</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44525</v>
+        <v>44174</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1795,25 +1795,25 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Modesto</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>250</v>
+        <v>120</v>
       </c>
       <c r="N18" t="n">
-        <v>21600</v>
+        <v>12000</v>
       </c>
       <c r="O18" t="n">
-        <v>21600</v>
+        <v>12000</v>
       </c>
       <c r="P18" t="n">
-        <v>21600</v>
+        <v>12000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1822,11 +1822,11 @@
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S18" t="n">
-        <v>1200</v>
+        <v>667</v>
       </c>
       <c r="T18" t="n">
         <v>18</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44533</v>
+        <v>44525</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
@@ -1880,24 +1880,24 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>410</v>
+        <v>300</v>
       </c>
       <c r="N19" t="n">
-        <v>16500</v>
+        <v>25200</v>
       </c>
       <c r="O19" t="n">
-        <v>16500</v>
+        <v>25200</v>
       </c>
       <c r="P19" t="n">
-        <v>16500</v>
+        <v>25200</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
@@ -1906,10 +1906,10 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>1100</v>
+        <v>1400</v>
       </c>
       <c r="T19" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20">
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44533</v>
+        <v>44525</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1960,24 +1960,24 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="N20" t="n">
-        <v>10500</v>
+        <v>21600</v>
       </c>
       <c r="O20" t="n">
-        <v>10500</v>
+        <v>21600</v>
       </c>
       <c r="P20" t="n">
-        <v>10500</v>
+        <v>21600</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
@@ -1986,10 +1986,10 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>700</v>
+        <v>1200</v>
       </c>
       <c r="T20" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21">
@@ -2040,20 +2040,20 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>250</v>
+        <v>410</v>
       </c>
       <c r="N21" t="n">
-        <v>7500</v>
+        <v>16500</v>
       </c>
       <c r="O21" t="n">
-        <v>7500</v>
+        <v>16500</v>
       </c>
       <c r="P21" t="n">
-        <v>7500</v>
+        <v>16500</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>500</v>
+        <v>1100</v>
       </c>
       <c r="T21" t="n">
         <v>15</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44176</v>
+        <v>44533</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
@@ -2115,29 +2115,29 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Modesto</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>115</v>
+        <v>300</v>
       </c>
       <c r="N22" t="n">
-        <v>11000</v>
+        <v>10500</v>
       </c>
       <c r="O22" t="n">
-        <v>12000</v>
+        <v>10500</v>
       </c>
       <c r="P22" t="n">
-        <v>11609</v>
+        <v>10500</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
@@ -2146,10 +2146,10 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>967</v>
+        <v>700</v>
       </c>
       <c r="T22" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23">
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44539</v>
+        <v>44533</v>
       </c>
       <c r="E23" t="n">
         <v>13</v>
@@ -2200,24 +2200,24 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>290</v>
+        <v>250</v>
       </c>
       <c r="N23" t="n">
-        <v>18000</v>
+        <v>7500</v>
       </c>
       <c r="O23" t="n">
-        <v>18000</v>
+        <v>7500</v>
       </c>
       <c r="P23" t="n">
-        <v>18000</v>
+        <v>7500</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
@@ -2226,10 +2226,10 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="T23" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24">
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44539</v>
+        <v>44176</v>
       </c>
       <c r="E24" t="n">
         <v>13</v>
@@ -2275,7 +2275,7 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Modesto</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
@@ -2284,20 +2284,20 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>300</v>
+        <v>115</v>
       </c>
       <c r="N24" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="O24" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="P24" t="n">
-        <v>16000</v>
+        <v>11609</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
@@ -2306,10 +2306,10 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>889</v>
+        <v>967</v>
       </c>
       <c r="T24" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25">
@@ -2360,20 +2360,20 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="N25" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="O25" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="P25" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>778</v>
+        <v>1000</v>
       </c>
       <c r="T25" t="n">
         <v>18</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44168</v>
+        <v>44539</v>
       </c>
       <c r="E26" t="n">
         <v>13</v>
@@ -2435,41 +2435,41 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Dina</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M26" t="n">
-        <v>40</v>
+        <v>300</v>
       </c>
       <c r="N26" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O26" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="P26" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S26" t="n">
-        <v>1400</v>
+        <v>889</v>
       </c>
       <c r="T26" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27">
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44167</v>
+        <v>44539</v>
       </c>
       <c r="E27" t="n">
         <v>13</v>
@@ -2520,24 +2520,24 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M27" t="n">
-        <v>85</v>
+        <v>300</v>
       </c>
       <c r="N27" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O27" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P27" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
@@ -2546,10 +2546,10 @@
         </is>
       </c>
       <c r="S27" t="n">
-        <v>1000</v>
+        <v>778</v>
       </c>
       <c r="T27" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28">
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44167</v>
+        <v>44168</v>
       </c>
       <c r="E28" t="n">
         <v>13</v>
@@ -2595,25 +2595,25 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Dina</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="N28" t="n">
-        <v>9500</v>
+        <v>14000</v>
       </c>
       <c r="O28" t="n">
-        <v>9500</v>
+        <v>14000</v>
       </c>
       <c r="P28" t="n">
-        <v>9500</v>
+        <v>14000</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2622,11 +2622,11 @@
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S28" t="n">
-        <v>950</v>
+        <v>1400</v>
       </c>
       <c r="T28" t="n">
         <v>10</v>
@@ -2680,24 +2680,24 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="N29" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O29" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P29" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
@@ -2706,10 +2706,10 @@
         </is>
       </c>
       <c r="S29" t="n">
-        <v>833</v>
+        <v>1000</v>
       </c>
       <c r="T29" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30">
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44160</v>
+        <v>44167</v>
       </c>
       <c r="E30" t="n">
         <v>13</v>
@@ -2764,16 +2764,16 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>25</v>
+        <v>120</v>
       </c>
       <c r="N30" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="O30" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="P30" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         </is>
       </c>
       <c r="S30" t="n">
-        <v>800</v>
+        <v>950</v>
       </c>
       <c r="T30" t="n">
         <v>10</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44160</v>
+        <v>44167</v>
       </c>
       <c r="E31" t="n">
         <v>13</v>
@@ -2840,24 +2840,24 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M31" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="N31" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="O31" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="P31" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
@@ -2866,10 +2866,10 @@
         </is>
       </c>
       <c r="S31" t="n">
-        <v>700</v>
+        <v>833</v>
       </c>
       <c r="T31" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32">
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44519</v>
+        <v>44160</v>
       </c>
       <c r="E32" t="n">
         <v>13</v>
@@ -2924,32 +2924,32 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>300</v>
+        <v>25</v>
       </c>
       <c r="N32" t="n">
-        <v>22500</v>
+        <v>8000</v>
       </c>
       <c r="O32" t="n">
-        <v>22500</v>
+        <v>8000</v>
       </c>
       <c r="P32" t="n">
-        <v>22500</v>
+        <v>8000</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S32" t="n">
-        <v>1500</v>
+        <v>800</v>
       </c>
       <c r="T32" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33">
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44187</v>
+        <v>44160</v>
       </c>
       <c r="E33" t="n">
         <v>13</v>
@@ -2995,29 +2995,29 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M33" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="N33" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="O33" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="P33" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
@@ -3026,10 +3026,10 @@
         </is>
       </c>
       <c r="S33" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="T33" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34">
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44187</v>
+        <v>44519</v>
       </c>
       <c r="E34" t="n">
         <v>13</v>
@@ -3075,25 +3075,25 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M34" t="n">
-        <v>95</v>
+        <v>300</v>
       </c>
       <c r="N34" t="n">
-        <v>13500</v>
+        <v>22500</v>
       </c>
       <c r="O34" t="n">
-        <v>13500</v>
+        <v>22500</v>
       </c>
       <c r="P34" t="n">
-        <v>13500</v>
+        <v>22500</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3102,11 +3102,11 @@
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S34" t="n">
-        <v>900</v>
+        <v>1500</v>
       </c>
       <c r="T34" t="n">
         <v>15</v>
@@ -3160,20 +3160,20 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M35" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="N35" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O35" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P35" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="S35" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T35" t="n">
         <v>15</v>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44175</v>
+        <v>44187</v>
       </c>
       <c r="E36" t="n">
         <v>13</v>
@@ -3235,29 +3235,29 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>Modesto</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M36" t="n">
-        <v>140</v>
+        <v>95</v>
       </c>
       <c r="N36" t="n">
-        <v>11000</v>
+        <v>13500</v>
       </c>
       <c r="O36" t="n">
-        <v>12000</v>
+        <v>13500</v>
       </c>
       <c r="P36" t="n">
-        <v>11571</v>
+        <v>13500</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
@@ -3266,10 +3266,10 @@
         </is>
       </c>
       <c r="S36" t="n">
-        <v>964</v>
+        <v>900</v>
       </c>
       <c r="T36" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="37">
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44195</v>
+        <v>44187</v>
       </c>
       <c r="E37" t="n">
         <v>13</v>
@@ -3320,24 +3320,24 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M37" t="n">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="N37" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O37" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P37" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="S37" t="n">
-        <v>867</v>
+        <v>800</v>
       </c>
       <c r="T37" t="n">
         <v>15</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44536</v>
+        <v>44175</v>
       </c>
       <c r="E38" t="n">
         <v>13</v>
@@ -3395,7 +3395,7 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Modesto</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
@@ -3404,32 +3404,32 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>220</v>
+        <v>140</v>
       </c>
       <c r="N38" t="n">
         <v>11000</v>
       </c>
       <c r="O38" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P38" t="n">
-        <v>11000</v>
+        <v>11571</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S38" t="n">
-        <v>1100</v>
+        <v>964</v>
       </c>
       <c r="T38" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39">
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44536</v>
+        <v>44195</v>
       </c>
       <c r="E39" t="n">
         <v>13</v>
@@ -3475,41 +3475,41 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M39" t="n">
-        <v>250</v>
+        <v>124</v>
       </c>
       <c r="N39" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="O39" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="P39" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S39" t="n">
-        <v>700</v>
+        <v>867</v>
       </c>
       <c r="T39" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="40">
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44194</v>
+        <v>44536</v>
       </c>
       <c r="E40" t="n">
         <v>13</v>
@@ -3555,7 +3555,7 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
@@ -3564,32 +3564,32 @@
         </is>
       </c>
       <c r="M40" t="n">
-        <v>120</v>
+        <v>220</v>
       </c>
       <c r="N40" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O40" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P40" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S40" t="n">
-        <v>867</v>
+        <v>1100</v>
       </c>
       <c r="T40" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41">
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44540</v>
+        <v>44536</v>
       </c>
       <c r="E41" t="n">
         <v>13</v>
@@ -3640,24 +3640,24 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M41" t="n">
-        <v>330</v>
+        <v>250</v>
       </c>
       <c r="N41" t="n">
-        <v>16000</v>
+        <v>7000</v>
       </c>
       <c r="O41" t="n">
-        <v>16000</v>
+        <v>7000</v>
       </c>
       <c r="P41" t="n">
-        <v>16000</v>
+        <v>7000</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
@@ -3666,10 +3666,10 @@
         </is>
       </c>
       <c r="S41" t="n">
-        <v>889</v>
+        <v>700</v>
       </c>
       <c r="T41" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42">
@@ -3687,68 +3687,228 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
+        <v>44194</v>
+      </c>
+      <c r="E42" t="n">
+        <v>13</v>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G42" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I42" t="n">
+        <v>100103003</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>Damasco</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>Patterson</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M42" t="n">
+        <v>120</v>
+      </c>
+      <c r="N42" t="n">
+        <v>13000</v>
+      </c>
+      <c r="O42" t="n">
+        <v>13000</v>
+      </c>
+      <c r="P42" t="n">
+        <v>13000</v>
+      </c>
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="R42" t="inlineStr">
+        <is>
+          <t>Provincia de San Felipe de Aconcagua</t>
+        </is>
+      </c>
+      <c r="S42" t="n">
+        <v>867</v>
+      </c>
+      <c r="T42" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>9</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D43" s="2" t="n">
         <v>44540</v>
       </c>
-      <c r="E42" t="n">
-        <v>13</v>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G42" t="n">
-        <v>100103</v>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>Frutos de hueso (carozo)</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
-        <v>100103003</v>
-      </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>Damasco</t>
-        </is>
-      </c>
-      <c r="K42" t="inlineStr">
+      <c r="E43" t="n">
+        <v>13</v>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G43" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I43" t="n">
+        <v>100103003</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>Damasco</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
         <is>
           <t>Castle Brite</t>
         </is>
       </c>
-      <c r="L42" t="inlineStr">
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M43" t="n">
+        <v>330</v>
+      </c>
+      <c r="N43" t="n">
+        <v>16000</v>
+      </c>
+      <c r="O43" t="n">
+        <v>16000</v>
+      </c>
+      <c r="P43" t="n">
+        <v>16000</v>
+      </c>
+      <c r="Q43" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="R43" t="inlineStr">
+        <is>
+          <t>Provincia de Los Andes</t>
+        </is>
+      </c>
+      <c r="S43" t="n">
+        <v>889</v>
+      </c>
+      <c r="T43" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>9</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D44" s="2" t="n">
+        <v>44540</v>
+      </c>
+      <c r="E44" t="n">
+        <v>13</v>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G44" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I44" t="n">
+        <v>100103003</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>Damasco</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>Castle Brite</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="M42" t="n">
+      <c r="M44" t="n">
         <v>280</v>
       </c>
-      <c r="N42" t="n">
+      <c r="N44" t="n">
         <v>14000</v>
       </c>
-      <c r="O42" t="n">
+      <c r="O44" t="n">
         <v>14000</v>
       </c>
-      <c r="P42" t="n">
+      <c r="P44" t="n">
         <v>14000</v>
       </c>
-      <c r="Q42" t="inlineStr">
+      <c r="Q44" t="inlineStr">
         <is>
           <t>$/caja 18 kilos</t>
         </is>
       </c>
-      <c r="R42" t="inlineStr">
+      <c r="R44" t="inlineStr">
         <is>
           <t>Provincia de Los Andes</t>
         </is>
       </c>
-      <c r="S42" t="n">
+      <c r="S44" t="n">
         <v>778</v>
       </c>
-      <c r="T42" t="n">
+      <c r="T44" t="n">
         <v>18</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Damasco.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Damasco.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T44"/>
+  <dimension ref="A1:T47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44162</v>
+        <v>44546</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1315,25 +1315,25 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Dina</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>70</v>
+        <v>380</v>
       </c>
       <c r="N12" t="n">
-        <v>8500</v>
+        <v>12000</v>
       </c>
       <c r="O12" t="n">
-        <v>8500</v>
+        <v>12000</v>
       </c>
       <c r="P12" t="n">
-        <v>8500</v>
+        <v>12000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1342,11 +1342,11 @@
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S12" t="n">
-        <v>850</v>
+        <v>1200</v>
       </c>
       <c r="T12" t="n">
         <v>10</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44162</v>
+        <v>44546</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1395,7 +1395,7 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Dina</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -1404,32 +1404,32 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>75</v>
+        <v>330</v>
       </c>
       <c r="N13" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O13" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P13" t="n">
-        <v>14400</v>
+        <v>10000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S13" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T13" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14">
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44166</v>
+        <v>44546</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1475,25 +1475,25 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Dina</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="N14" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O14" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P14" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1502,11 +1502,11 @@
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T14" t="n">
         <v>10</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44166</v>
+        <v>44162</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1560,20 +1560,20 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="N15" t="n">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="O15" t="n">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="P15" t="n">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1582,11 +1582,11 @@
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S15" t="n">
-        <v>800</v>
+        <v>850</v>
       </c>
       <c r="T15" t="n">
         <v>10</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44174</v>
+        <v>44162</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1635,7 +1635,7 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Modesto</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
@@ -1644,32 +1644,32 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>120</v>
+        <v>75</v>
       </c>
       <c r="N16" t="n">
-        <v>8500</v>
+        <v>14000</v>
       </c>
       <c r="O16" t="n">
-        <v>8500</v>
+        <v>15000</v>
       </c>
       <c r="P16" t="n">
-        <v>8500</v>
+        <v>14400</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S16" t="n">
-        <v>850</v>
+        <v>800</v>
       </c>
       <c r="T16" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17">
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44174</v>
+        <v>44166</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1715,7 +1715,7 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Modesto</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
@@ -1724,20 +1724,20 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="N17" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O17" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P17" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
@@ -1746,10 +1746,10 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>833</v>
+        <v>1000</v>
       </c>
       <c r="T17" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18">
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44174</v>
+        <v>44166</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1795,7 +1795,7 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Modesto</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
@@ -1807,17 +1807,17 @@
         <v>120</v>
       </c>
       <c r="N18" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O18" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P18" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
@@ -1826,10 +1826,10 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>667</v>
+        <v>800</v>
       </c>
       <c r="T18" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19">
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44525</v>
+        <v>44174</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
@@ -1875,41 +1875,41 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Modesto</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="N19" t="n">
-        <v>25200</v>
+        <v>8500</v>
       </c>
       <c r="O19" t="n">
-        <v>25200</v>
+        <v>8500</v>
       </c>
       <c r="P19" t="n">
-        <v>25200</v>
+        <v>8500</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S19" t="n">
-        <v>1400</v>
+        <v>850</v>
       </c>
       <c r="T19" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20">
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44525</v>
+        <v>44174</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1955,7 +1955,7 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Modesto</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
@@ -1964,16 +1964,16 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>250</v>
+        <v>180</v>
       </c>
       <c r="N20" t="n">
-        <v>21600</v>
+        <v>15000</v>
       </c>
       <c r="O20" t="n">
-        <v>21600</v>
+        <v>15000</v>
       </c>
       <c r="P20" t="n">
-        <v>21600</v>
+        <v>15000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1982,11 +1982,11 @@
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S20" t="n">
-        <v>1200</v>
+        <v>833</v>
       </c>
       <c r="T20" t="n">
         <v>18</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44533</v>
+        <v>44174</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -2035,41 +2035,41 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Modesto</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>410</v>
+        <v>120</v>
       </c>
       <c r="N21" t="n">
-        <v>16500</v>
+        <v>12000</v>
       </c>
       <c r="O21" t="n">
-        <v>16500</v>
+        <v>12000</v>
       </c>
       <c r="P21" t="n">
-        <v>16500</v>
+        <v>12000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S21" t="n">
-        <v>1100</v>
+        <v>667</v>
       </c>
       <c r="T21" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22">
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44533</v>
+        <v>44525</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
@@ -2120,24 +2120,24 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M22" t="n">
         <v>300</v>
       </c>
       <c r="N22" t="n">
-        <v>10500</v>
+        <v>25200</v>
       </c>
       <c r="O22" t="n">
-        <v>10500</v>
+        <v>25200</v>
       </c>
       <c r="P22" t="n">
-        <v>10500</v>
+        <v>25200</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
@@ -2146,10 +2146,10 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>700</v>
+        <v>1400</v>
       </c>
       <c r="T22" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23">
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44533</v>
+        <v>44525</v>
       </c>
       <c r="E23" t="n">
         <v>13</v>
@@ -2200,24 +2200,24 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M23" t="n">
         <v>250</v>
       </c>
       <c r="N23" t="n">
-        <v>7500</v>
+        <v>21600</v>
       </c>
       <c r="O23" t="n">
-        <v>7500</v>
+        <v>21600</v>
       </c>
       <c r="P23" t="n">
-        <v>7500</v>
+        <v>21600</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
@@ -2226,10 +2226,10 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>500</v>
+        <v>1200</v>
       </c>
       <c r="T23" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24">
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44176</v>
+        <v>44533</v>
       </c>
       <c r="E24" t="n">
         <v>13</v>
@@ -2275,7 +2275,7 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Modesto</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
@@ -2284,20 +2284,20 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>115</v>
+        <v>410</v>
       </c>
       <c r="N24" t="n">
-        <v>11000</v>
+        <v>16500</v>
       </c>
       <c r="O24" t="n">
-        <v>12000</v>
+        <v>16500</v>
       </c>
       <c r="P24" t="n">
-        <v>11609</v>
+        <v>16500</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
@@ -2306,10 +2306,10 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>967</v>
+        <v>1100</v>
       </c>
       <c r="T24" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25">
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44539</v>
+        <v>44533</v>
       </c>
       <c r="E25" t="n">
         <v>13</v>
@@ -2360,24 +2360,24 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="N25" t="n">
-        <v>18000</v>
+        <v>10500</v>
       </c>
       <c r="O25" t="n">
-        <v>18000</v>
+        <v>10500</v>
       </c>
       <c r="P25" t="n">
-        <v>18000</v>
+        <v>10500</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
@@ -2386,10 +2386,10 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="T25" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26">
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44539</v>
+        <v>44533</v>
       </c>
       <c r="E26" t="n">
         <v>13</v>
@@ -2440,24 +2440,24 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M26" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="N26" t="n">
-        <v>16000</v>
+        <v>7500</v>
       </c>
       <c r="O26" t="n">
-        <v>16000</v>
+        <v>7500</v>
       </c>
       <c r="P26" t="n">
-        <v>16000</v>
+        <v>7500</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
@@ -2466,10 +2466,10 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>889</v>
+        <v>500</v>
       </c>
       <c r="T26" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27">
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44539</v>
+        <v>44176</v>
       </c>
       <c r="E27" t="n">
         <v>13</v>
@@ -2515,29 +2515,29 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Modesto</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M27" t="n">
-        <v>300</v>
+        <v>115</v>
       </c>
       <c r="N27" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="O27" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P27" t="n">
-        <v>14000</v>
+        <v>11609</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
@@ -2546,10 +2546,10 @@
         </is>
       </c>
       <c r="S27" t="n">
-        <v>778</v>
+        <v>967</v>
       </c>
       <c r="T27" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28">
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44168</v>
+        <v>44539</v>
       </c>
       <c r="E28" t="n">
         <v>13</v>
@@ -2595,7 +2595,7 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Dina</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
@@ -2604,32 +2604,32 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>40</v>
+        <v>290</v>
       </c>
       <c r="N28" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="O28" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="P28" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S28" t="n">
-        <v>1400</v>
+        <v>1000</v>
       </c>
       <c r="T28" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29">
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44167</v>
+        <v>44539</v>
       </c>
       <c r="E29" t="n">
         <v>13</v>
@@ -2680,24 +2680,24 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>85</v>
+        <v>300</v>
       </c>
       <c r="N29" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="O29" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="P29" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
@@ -2706,10 +2706,10 @@
         </is>
       </c>
       <c r="S29" t="n">
-        <v>1000</v>
+        <v>889</v>
       </c>
       <c r="T29" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30">
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44167</v>
+        <v>44539</v>
       </c>
       <c r="E30" t="n">
         <v>13</v>
@@ -2760,24 +2760,24 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="N30" t="n">
-        <v>9500</v>
+        <v>14000</v>
       </c>
       <c r="O30" t="n">
-        <v>9500</v>
+        <v>14000</v>
       </c>
       <c r="P30" t="n">
-        <v>9500</v>
+        <v>14000</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
@@ -2786,10 +2786,10 @@
         </is>
       </c>
       <c r="S30" t="n">
-        <v>950</v>
+        <v>778</v>
       </c>
       <c r="T30" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31">
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44167</v>
+        <v>44168</v>
       </c>
       <c r="E31" t="n">
         <v>13</v>
@@ -2835,41 +2835,41 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Dina</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M31" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="N31" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="O31" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P31" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S31" t="n">
-        <v>833</v>
+        <v>1400</v>
       </c>
       <c r="T31" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32">
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44160</v>
+        <v>44167</v>
       </c>
       <c r="E32" t="n">
         <v>13</v>
@@ -2920,20 +2920,20 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M32" t="n">
-        <v>25</v>
+        <v>85</v>
       </c>
       <c r="N32" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O32" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P32" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="S32" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T32" t="n">
         <v>10</v>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44160</v>
+        <v>44167</v>
       </c>
       <c r="E33" t="n">
         <v>13</v>
@@ -3000,20 +3000,20 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M33" t="n">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="N33" t="n">
-        <v>7000</v>
+        <v>9500</v>
       </c>
       <c r="O33" t="n">
-        <v>7000</v>
+        <v>9500</v>
       </c>
       <c r="P33" t="n">
-        <v>7000</v>
+        <v>9500</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="S33" t="n">
-        <v>700</v>
+        <v>950</v>
       </c>
       <c r="T33" t="n">
         <v>10</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44519</v>
+        <v>44167</v>
       </c>
       <c r="E34" t="n">
         <v>13</v>
@@ -3084,32 +3084,32 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>300</v>
+        <v>60</v>
       </c>
       <c r="N34" t="n">
-        <v>22500</v>
+        <v>15000</v>
       </c>
       <c r="O34" t="n">
-        <v>22500</v>
+        <v>15000</v>
       </c>
       <c r="P34" t="n">
-        <v>22500</v>
+        <v>15000</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S34" t="n">
-        <v>1500</v>
+        <v>833</v>
       </c>
       <c r="T34" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35">
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44187</v>
+        <v>44160</v>
       </c>
       <c r="E35" t="n">
         <v>13</v>
@@ -3155,7 +3155,7 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
@@ -3164,20 +3164,20 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="N35" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="O35" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="P35" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
@@ -3186,10 +3186,10 @@
         </is>
       </c>
       <c r="S35" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T35" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36">
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44187</v>
+        <v>44160</v>
       </c>
       <c r="E36" t="n">
         <v>13</v>
@@ -3235,7 +3235,7 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
@@ -3244,20 +3244,20 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>95</v>
+        <v>40</v>
       </c>
       <c r="N36" t="n">
-        <v>13500</v>
+        <v>7000</v>
       </c>
       <c r="O36" t="n">
-        <v>13500</v>
+        <v>7000</v>
       </c>
       <c r="P36" t="n">
-        <v>13500</v>
+        <v>7000</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
@@ -3266,10 +3266,10 @@
         </is>
       </c>
       <c r="S36" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="T36" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37">
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44187</v>
+        <v>44519</v>
       </c>
       <c r="E37" t="n">
         <v>13</v>
@@ -3315,25 +3315,25 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M37" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="N37" t="n">
-        <v>12000</v>
+        <v>22500</v>
       </c>
       <c r="O37" t="n">
-        <v>12000</v>
+        <v>22500</v>
       </c>
       <c r="P37" t="n">
-        <v>12000</v>
+        <v>22500</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
@@ -3342,11 +3342,11 @@
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S37" t="n">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="T37" t="n">
         <v>15</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44175</v>
+        <v>44187</v>
       </c>
       <c r="E38" t="n">
         <v>13</v>
@@ -3395,7 +3395,7 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Modesto</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
@@ -3404,20 +3404,20 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="N38" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="O38" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P38" t="n">
-        <v>11571</v>
+        <v>15000</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R38" t="inlineStr">
@@ -3426,10 +3426,10 @@
         </is>
       </c>
       <c r="S38" t="n">
-        <v>964</v>
+        <v>1000</v>
       </c>
       <c r="T38" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="39">
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44195</v>
+        <v>44187</v>
       </c>
       <c r="E39" t="n">
         <v>13</v>
@@ -3480,24 +3480,24 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M39" t="n">
-        <v>124</v>
+        <v>95</v>
       </c>
       <c r="N39" t="n">
-        <v>13000</v>
+        <v>13500</v>
       </c>
       <c r="O39" t="n">
-        <v>13000</v>
+        <v>13500</v>
       </c>
       <c r="P39" t="n">
-        <v>13000</v>
+        <v>13500</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
@@ -3506,7 +3506,7 @@
         </is>
       </c>
       <c r="S39" t="n">
-        <v>867</v>
+        <v>900</v>
       </c>
       <c r="T39" t="n">
         <v>15</v>
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44536</v>
+        <v>44187</v>
       </c>
       <c r="E40" t="n">
         <v>13</v>
@@ -3555,41 +3555,41 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M40" t="n">
-        <v>220</v>
+        <v>120</v>
       </c>
       <c r="N40" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O40" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P40" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S40" t="n">
-        <v>1100</v>
+        <v>800</v>
       </c>
       <c r="T40" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="41">
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44536</v>
+        <v>44175</v>
       </c>
       <c r="E41" t="n">
         <v>13</v>
@@ -3635,41 +3635,41 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Modesto</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M41" t="n">
-        <v>250</v>
+        <v>140</v>
       </c>
       <c r="N41" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="O41" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="P41" t="n">
-        <v>7000</v>
+        <v>11571</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S41" t="n">
-        <v>700</v>
+        <v>964</v>
       </c>
       <c r="T41" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42">
@@ -3687,7 +3687,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44194</v>
+        <v>44195</v>
       </c>
       <c r="E42" t="n">
         <v>13</v>
@@ -3724,7 +3724,7 @@
         </is>
       </c>
       <c r="M42" t="n">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="N42" t="n">
         <v>13000</v>
@@ -3767,7 +3767,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44540</v>
+        <v>44536</v>
       </c>
       <c r="E43" t="n">
         <v>13</v>
@@ -3804,20 +3804,20 @@
         </is>
       </c>
       <c r="M43" t="n">
-        <v>330</v>
+        <v>220</v>
       </c>
       <c r="N43" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="O43" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="P43" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
@@ -3826,10 +3826,10 @@
         </is>
       </c>
       <c r="S43" t="n">
-        <v>889</v>
+        <v>1100</v>
       </c>
       <c r="T43" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="44">
@@ -3847,68 +3847,308 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
+        <v>44536</v>
+      </c>
+      <c r="E44" t="n">
+        <v>13</v>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G44" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I44" t="n">
+        <v>100103003</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>Damasco</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>Castle Brite</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M44" t="n">
+        <v>250</v>
+      </c>
+      <c r="N44" t="n">
+        <v>7000</v>
+      </c>
+      <c r="O44" t="n">
+        <v>7000</v>
+      </c>
+      <c r="P44" t="n">
+        <v>7000</v>
+      </c>
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R44" t="inlineStr">
+        <is>
+          <t>Provincia de Los Andes</t>
+        </is>
+      </c>
+      <c r="S44" t="n">
+        <v>700</v>
+      </c>
+      <c r="T44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>9</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D45" s="2" t="n">
+        <v>44194</v>
+      </c>
+      <c r="E45" t="n">
+        <v>13</v>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G45" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I45" t="n">
+        <v>100103003</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>Damasco</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>Patterson</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M45" t="n">
+        <v>120</v>
+      </c>
+      <c r="N45" t="n">
+        <v>13000</v>
+      </c>
+      <c r="O45" t="n">
+        <v>13000</v>
+      </c>
+      <c r="P45" t="n">
+        <v>13000</v>
+      </c>
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="R45" t="inlineStr">
+        <is>
+          <t>Provincia de San Felipe de Aconcagua</t>
+        </is>
+      </c>
+      <c r="S45" t="n">
+        <v>867</v>
+      </c>
+      <c r="T45" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>9</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D46" s="2" t="n">
         <v>44540</v>
       </c>
-      <c r="E44" t="n">
-        <v>13</v>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G44" t="n">
-        <v>100103</v>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>Frutos de hueso (carozo)</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
-        <v>100103003</v>
-      </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>Damasco</t>
-        </is>
-      </c>
-      <c r="K44" t="inlineStr">
+      <c r="E46" t="n">
+        <v>13</v>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G46" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I46" t="n">
+        <v>100103003</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>Damasco</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
         <is>
           <t>Castle Brite</t>
         </is>
       </c>
-      <c r="L44" t="inlineStr">
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M46" t="n">
+        <v>330</v>
+      </c>
+      <c r="N46" t="n">
+        <v>16000</v>
+      </c>
+      <c r="O46" t="n">
+        <v>16000</v>
+      </c>
+      <c r="P46" t="n">
+        <v>16000</v>
+      </c>
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="R46" t="inlineStr">
+        <is>
+          <t>Provincia de Los Andes</t>
+        </is>
+      </c>
+      <c r="S46" t="n">
+        <v>889</v>
+      </c>
+      <c r="T46" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>9</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D47" s="2" t="n">
+        <v>44540</v>
+      </c>
+      <c r="E47" t="n">
+        <v>13</v>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G47" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I47" t="n">
+        <v>100103003</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>Damasco</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>Castle Brite</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="M44" t="n">
+      <c r="M47" t="n">
         <v>280</v>
       </c>
-      <c r="N44" t="n">
+      <c r="N47" t="n">
         <v>14000</v>
       </c>
-      <c r="O44" t="n">
+      <c r="O47" t="n">
         <v>14000</v>
       </c>
-      <c r="P44" t="n">
+      <c r="P47" t="n">
         <v>14000</v>
       </c>
-      <c r="Q44" t="inlineStr">
+      <c r="Q47" t="inlineStr">
         <is>
           <t>$/caja 18 kilos</t>
         </is>
       </c>
-      <c r="R44" t="inlineStr">
+      <c r="R47" t="inlineStr">
         <is>
           <t>Provincia de Los Andes</t>
         </is>
       </c>
-      <c r="S44" t="n">
+      <c r="S47" t="n">
         <v>778</v>
       </c>
-      <c r="T44" t="n">
+      <c r="T47" t="n">
         <v>18</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Damasco.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Damasco.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T47"/>
+  <dimension ref="A1:T50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44159</v>
+        <v>44547</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -675,25 +675,25 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Dina</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>80</v>
+        <v>450</v>
       </c>
       <c r="N4" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O4" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P4" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="T4" t="n">
         <v>10</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44159</v>
+        <v>44547</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -755,25 +755,25 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Dina</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>65</v>
+        <v>410</v>
       </c>
       <c r="N5" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O5" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P5" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="T5" t="n">
         <v>10</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44523</v>
+        <v>44547</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -835,25 +835,25 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Dina</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>320</v>
+        <v>350</v>
       </c>
       <c r="N6" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O6" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P6" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T6" t="n">
         <v>10</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44189</v>
+        <v>44159</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -915,7 +915,7 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -924,20 +924,20 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="N7" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O7" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P7" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -946,10 +946,10 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>667</v>
+        <v>800</v>
       </c>
       <c r="T7" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44169</v>
+        <v>44159</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -995,25 +995,25 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Dina</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="N8" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O8" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P8" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1022,11 +1022,11 @@
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="T8" t="n">
         <v>10</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44544</v>
+        <v>44523</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1075,29 +1075,29 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Dina</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="N9" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O9" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P9" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
@@ -1109,7 +1109,7 @@
         <v>1000</v>
       </c>
       <c r="T9" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44544</v>
+        <v>44189</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1155,7 +1155,7 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Dina</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
@@ -1164,7 +1164,7 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>350</v>
+        <v>130</v>
       </c>
       <c r="N10" t="n">
         <v>12000</v>
@@ -1177,7 +1177,7 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
@@ -1186,10 +1186,10 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>800</v>
+        <v>667</v>
       </c>
       <c r="T10" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11">
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44537</v>
+        <v>44169</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1235,7 +1235,7 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Dina</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
@@ -1244,32 +1244,32 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>400</v>
+        <v>80</v>
       </c>
       <c r="N11" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="O11" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="P11" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S11" t="n">
-        <v>889</v>
+        <v>1000</v>
       </c>
       <c r="T11" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12">
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44546</v>
+        <v>44544</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1324,32 +1324,32 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>380</v>
+        <v>330</v>
       </c>
       <c r="N12" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O12" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P12" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="T12" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44546</v>
+        <v>44544</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1404,32 +1404,32 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>330</v>
+        <v>350</v>
       </c>
       <c r="N13" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O13" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P13" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T13" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14">
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44546</v>
+        <v>44537</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1475,41 +1475,41 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Dina</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N14" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="O14" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="P14" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S14" t="n">
-        <v>800</v>
+        <v>889</v>
       </c>
       <c r="T14" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15">
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44162</v>
+        <v>44546</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1555,25 +1555,25 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Dina</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>70</v>
+        <v>380</v>
       </c>
       <c r="N15" t="n">
-        <v>8500</v>
+        <v>12000</v>
       </c>
       <c r="O15" t="n">
-        <v>8500</v>
+        <v>12000</v>
       </c>
       <c r="P15" t="n">
-        <v>8500</v>
+        <v>12000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1582,11 +1582,11 @@
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S15" t="n">
-        <v>850</v>
+        <v>1200</v>
       </c>
       <c r="T15" t="n">
         <v>10</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44162</v>
+        <v>44546</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1635,7 +1635,7 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Dina</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
@@ -1644,32 +1644,32 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>75</v>
+        <v>330</v>
       </c>
       <c r="N16" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O16" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P16" t="n">
-        <v>14400</v>
+        <v>10000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S16" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T16" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17">
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44166</v>
+        <v>44546</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1715,25 +1715,25 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Dina</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="N17" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O17" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P17" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1742,11 +1742,11 @@
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S17" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T17" t="n">
         <v>10</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44166</v>
+        <v>44162</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1800,20 +1800,20 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="N18" t="n">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="O18" t="n">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="P18" t="n">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1822,11 +1822,11 @@
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S18" t="n">
-        <v>800</v>
+        <v>850</v>
       </c>
       <c r="T18" t="n">
         <v>10</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44174</v>
+        <v>44162</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
@@ -1875,7 +1875,7 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Modesto</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
@@ -1884,32 +1884,32 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>120</v>
+        <v>75</v>
       </c>
       <c r="N19" t="n">
-        <v>8500</v>
+        <v>14000</v>
       </c>
       <c r="O19" t="n">
-        <v>8500</v>
+        <v>15000</v>
       </c>
       <c r="P19" t="n">
-        <v>8500</v>
+        <v>14400</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S19" t="n">
-        <v>850</v>
+        <v>800</v>
       </c>
       <c r="T19" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20">
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44174</v>
+        <v>44166</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1955,7 +1955,7 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Modesto</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
@@ -1964,20 +1964,20 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="N20" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O20" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P20" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
@@ -1986,10 +1986,10 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>833</v>
+        <v>1000</v>
       </c>
       <c r="T20" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21">
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44174</v>
+        <v>44166</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -2035,7 +2035,7 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Modesto</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
@@ -2047,17 +2047,17 @@
         <v>120</v>
       </c>
       <c r="N21" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O21" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P21" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
@@ -2066,10 +2066,10 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>667</v>
+        <v>800</v>
       </c>
       <c r="T21" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22">
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44525</v>
+        <v>44174</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
@@ -2115,41 +2115,41 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Modesto</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="N22" t="n">
-        <v>25200</v>
+        <v>8500</v>
       </c>
       <c r="O22" t="n">
-        <v>25200</v>
+        <v>8500</v>
       </c>
       <c r="P22" t="n">
-        <v>25200</v>
+        <v>8500</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S22" t="n">
-        <v>1400</v>
+        <v>850</v>
       </c>
       <c r="T22" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23">
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44525</v>
+        <v>44174</v>
       </c>
       <c r="E23" t="n">
         <v>13</v>
@@ -2195,7 +2195,7 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Modesto</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
@@ -2204,16 +2204,16 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>250</v>
+        <v>180</v>
       </c>
       <c r="N23" t="n">
-        <v>21600</v>
+        <v>15000</v>
       </c>
       <c r="O23" t="n">
-        <v>21600</v>
+        <v>15000</v>
       </c>
       <c r="P23" t="n">
-        <v>21600</v>
+        <v>15000</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2222,11 +2222,11 @@
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S23" t="n">
-        <v>1200</v>
+        <v>833</v>
       </c>
       <c r="T23" t="n">
         <v>18</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44533</v>
+        <v>44174</v>
       </c>
       <c r="E24" t="n">
         <v>13</v>
@@ -2275,41 +2275,41 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Modesto</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M24" t="n">
-        <v>410</v>
+        <v>120</v>
       </c>
       <c r="N24" t="n">
-        <v>16500</v>
+        <v>12000</v>
       </c>
       <c r="O24" t="n">
-        <v>16500</v>
+        <v>12000</v>
       </c>
       <c r="P24" t="n">
-        <v>16500</v>
+        <v>12000</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S24" t="n">
-        <v>1100</v>
+        <v>667</v>
       </c>
       <c r="T24" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25">
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44533</v>
+        <v>44525</v>
       </c>
       <c r="E25" t="n">
         <v>13</v>
@@ -2360,24 +2360,24 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M25" t="n">
         <v>300</v>
       </c>
       <c r="N25" t="n">
-        <v>10500</v>
+        <v>25200</v>
       </c>
       <c r="O25" t="n">
-        <v>10500</v>
+        <v>25200</v>
       </c>
       <c r="P25" t="n">
-        <v>10500</v>
+        <v>25200</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
@@ -2386,10 +2386,10 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>700</v>
+        <v>1400</v>
       </c>
       <c r="T25" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26">
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44533</v>
+        <v>44525</v>
       </c>
       <c r="E26" t="n">
         <v>13</v>
@@ -2440,24 +2440,24 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M26" t="n">
         <v>250</v>
       </c>
       <c r="N26" t="n">
-        <v>7500</v>
+        <v>21600</v>
       </c>
       <c r="O26" t="n">
-        <v>7500</v>
+        <v>21600</v>
       </c>
       <c r="P26" t="n">
-        <v>7500</v>
+        <v>21600</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
@@ -2466,10 +2466,10 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>500</v>
+        <v>1200</v>
       </c>
       <c r="T26" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27">
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44176</v>
+        <v>44533</v>
       </c>
       <c r="E27" t="n">
         <v>13</v>
@@ -2515,7 +2515,7 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Modesto</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
@@ -2524,20 +2524,20 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>115</v>
+        <v>410</v>
       </c>
       <c r="N27" t="n">
-        <v>11000</v>
+        <v>16500</v>
       </c>
       <c r="O27" t="n">
-        <v>12000</v>
+        <v>16500</v>
       </c>
       <c r="P27" t="n">
-        <v>11609</v>
+        <v>16500</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
@@ -2546,10 +2546,10 @@
         </is>
       </c>
       <c r="S27" t="n">
-        <v>967</v>
+        <v>1100</v>
       </c>
       <c r="T27" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28">
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44539</v>
+        <v>44533</v>
       </c>
       <c r="E28" t="n">
         <v>13</v>
@@ -2600,24 +2600,24 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="N28" t="n">
-        <v>18000</v>
+        <v>10500</v>
       </c>
       <c r="O28" t="n">
-        <v>18000</v>
+        <v>10500</v>
       </c>
       <c r="P28" t="n">
-        <v>18000</v>
+        <v>10500</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
@@ -2626,10 +2626,10 @@
         </is>
       </c>
       <c r="S28" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="T28" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29">
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44539</v>
+        <v>44533</v>
       </c>
       <c r="E29" t="n">
         <v>13</v>
@@ -2680,24 +2680,24 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="N29" t="n">
-        <v>16000</v>
+        <v>7500</v>
       </c>
       <c r="O29" t="n">
-        <v>16000</v>
+        <v>7500</v>
       </c>
       <c r="P29" t="n">
-        <v>16000</v>
+        <v>7500</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
@@ -2706,10 +2706,10 @@
         </is>
       </c>
       <c r="S29" t="n">
-        <v>889</v>
+        <v>500</v>
       </c>
       <c r="T29" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30">
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44539</v>
+        <v>44176</v>
       </c>
       <c r="E30" t="n">
         <v>13</v>
@@ -2755,29 +2755,29 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Modesto</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>300</v>
+        <v>115</v>
       </c>
       <c r="N30" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="O30" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P30" t="n">
-        <v>14000</v>
+        <v>11609</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
@@ -2786,10 +2786,10 @@
         </is>
       </c>
       <c r="S30" t="n">
-        <v>778</v>
+        <v>967</v>
       </c>
       <c r="T30" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31">
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44168</v>
+        <v>44539</v>
       </c>
       <c r="E31" t="n">
         <v>13</v>
@@ -2835,7 +2835,7 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Dina</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
@@ -2844,32 +2844,32 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>40</v>
+        <v>290</v>
       </c>
       <c r="N31" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="O31" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="P31" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S31" t="n">
-        <v>1400</v>
+        <v>1000</v>
       </c>
       <c r="T31" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32">
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44167</v>
+        <v>44539</v>
       </c>
       <c r="E32" t="n">
         <v>13</v>
@@ -2920,24 +2920,24 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M32" t="n">
-        <v>85</v>
+        <v>300</v>
       </c>
       <c r="N32" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="O32" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="P32" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
@@ -2946,10 +2946,10 @@
         </is>
       </c>
       <c r="S32" t="n">
-        <v>1000</v>
+        <v>889</v>
       </c>
       <c r="T32" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33">
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44167</v>
+        <v>44539</v>
       </c>
       <c r="E33" t="n">
         <v>13</v>
@@ -3000,24 +3000,24 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M33" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="N33" t="n">
-        <v>9500</v>
+        <v>14000</v>
       </c>
       <c r="O33" t="n">
-        <v>9500</v>
+        <v>14000</v>
       </c>
       <c r="P33" t="n">
-        <v>9500</v>
+        <v>14000</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
@@ -3026,10 +3026,10 @@
         </is>
       </c>
       <c r="S33" t="n">
-        <v>950</v>
+        <v>778</v>
       </c>
       <c r="T33" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34">
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44167</v>
+        <v>44168</v>
       </c>
       <c r="E34" t="n">
         <v>13</v>
@@ -3075,41 +3075,41 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Dina</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M34" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="N34" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="O34" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P34" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S34" t="n">
-        <v>833</v>
+        <v>1400</v>
       </c>
       <c r="T34" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35">
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44160</v>
+        <v>44167</v>
       </c>
       <c r="E35" t="n">
         <v>13</v>
@@ -3160,20 +3160,20 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M35" t="n">
-        <v>25</v>
+        <v>85</v>
       </c>
       <c r="N35" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O35" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P35" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="S35" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T35" t="n">
         <v>10</v>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44160</v>
+        <v>44167</v>
       </c>
       <c r="E36" t="n">
         <v>13</v>
@@ -3240,20 +3240,20 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M36" t="n">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="N36" t="n">
-        <v>7000</v>
+        <v>9500</v>
       </c>
       <c r="O36" t="n">
-        <v>7000</v>
+        <v>9500</v>
       </c>
       <c r="P36" t="n">
-        <v>7000</v>
+        <v>9500</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         </is>
       </c>
       <c r="S36" t="n">
-        <v>700</v>
+        <v>950</v>
       </c>
       <c r="T36" t="n">
         <v>10</v>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44519</v>
+        <v>44167</v>
       </c>
       <c r="E37" t="n">
         <v>13</v>
@@ -3324,32 +3324,32 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>300</v>
+        <v>60</v>
       </c>
       <c r="N37" t="n">
-        <v>22500</v>
+        <v>15000</v>
       </c>
       <c r="O37" t="n">
-        <v>22500</v>
+        <v>15000</v>
       </c>
       <c r="P37" t="n">
-        <v>22500</v>
+        <v>15000</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S37" t="n">
-        <v>1500</v>
+        <v>833</v>
       </c>
       <c r="T37" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38">
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44187</v>
+        <v>44160</v>
       </c>
       <c r="E38" t="n">
         <v>13</v>
@@ -3395,7 +3395,7 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
@@ -3404,20 +3404,20 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="N38" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="O38" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="P38" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R38" t="inlineStr">
@@ -3426,10 +3426,10 @@
         </is>
       </c>
       <c r="S38" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T38" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39">
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44187</v>
+        <v>44160</v>
       </c>
       <c r="E39" t="n">
         <v>13</v>
@@ -3475,7 +3475,7 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
@@ -3484,20 +3484,20 @@
         </is>
       </c>
       <c r="M39" t="n">
-        <v>95</v>
+        <v>40</v>
       </c>
       <c r="N39" t="n">
-        <v>13500</v>
+        <v>7000</v>
       </c>
       <c r="O39" t="n">
-        <v>13500</v>
+        <v>7000</v>
       </c>
       <c r="P39" t="n">
-        <v>13500</v>
+        <v>7000</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
@@ -3506,10 +3506,10 @@
         </is>
       </c>
       <c r="S39" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="T39" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40">
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44187</v>
+        <v>44519</v>
       </c>
       <c r="E40" t="n">
         <v>13</v>
@@ -3555,25 +3555,25 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M40" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="N40" t="n">
-        <v>12000</v>
+        <v>22500</v>
       </c>
       <c r="O40" t="n">
-        <v>12000</v>
+        <v>22500</v>
       </c>
       <c r="P40" t="n">
-        <v>12000</v>
+        <v>22500</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
@@ -3582,11 +3582,11 @@
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S40" t="n">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="T40" t="n">
         <v>15</v>
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44175</v>
+        <v>44187</v>
       </c>
       <c r="E41" t="n">
         <v>13</v>
@@ -3635,7 +3635,7 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Modesto</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
@@ -3644,20 +3644,20 @@
         </is>
       </c>
       <c r="M41" t="n">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="N41" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="O41" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P41" t="n">
-        <v>11571</v>
+        <v>15000</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
@@ -3666,10 +3666,10 @@
         </is>
       </c>
       <c r="S41" t="n">
-        <v>964</v>
+        <v>1000</v>
       </c>
       <c r="T41" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="42">
@@ -3687,7 +3687,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44195</v>
+        <v>44187</v>
       </c>
       <c r="E42" t="n">
         <v>13</v>
@@ -3720,24 +3720,24 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M42" t="n">
-        <v>124</v>
+        <v>95</v>
       </c>
       <c r="N42" t="n">
-        <v>13000</v>
+        <v>13500</v>
       </c>
       <c r="O42" t="n">
-        <v>13000</v>
+        <v>13500</v>
       </c>
       <c r="P42" t="n">
-        <v>13000</v>
+        <v>13500</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R42" t="inlineStr">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="S42" t="n">
-        <v>867</v>
+        <v>900</v>
       </c>
       <c r="T42" t="n">
         <v>15</v>
@@ -3767,7 +3767,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44536</v>
+        <v>44187</v>
       </c>
       <c r="E43" t="n">
         <v>13</v>
@@ -3795,41 +3795,41 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M43" t="n">
-        <v>220</v>
+        <v>120</v>
       </c>
       <c r="N43" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O43" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P43" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S43" t="n">
-        <v>1100</v>
+        <v>800</v>
       </c>
       <c r="T43" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="44">
@@ -3847,7 +3847,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44536</v>
+        <v>44175</v>
       </c>
       <c r="E44" t="n">
         <v>13</v>
@@ -3875,41 +3875,41 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Modesto</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M44" t="n">
-        <v>250</v>
+        <v>140</v>
       </c>
       <c r="N44" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="O44" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="P44" t="n">
-        <v>7000</v>
+        <v>11571</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S44" t="n">
-        <v>700</v>
+        <v>964</v>
       </c>
       <c r="T44" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45">
@@ -3927,7 +3927,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44194</v>
+        <v>44195</v>
       </c>
       <c r="E45" t="n">
         <v>13</v>
@@ -3964,7 +3964,7 @@
         </is>
       </c>
       <c r="M45" t="n">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="N45" t="n">
         <v>13000</v>
@@ -4007,7 +4007,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44540</v>
+        <v>44536</v>
       </c>
       <c r="E46" t="n">
         <v>13</v>
@@ -4044,20 +4044,20 @@
         </is>
       </c>
       <c r="M46" t="n">
-        <v>330</v>
+        <v>220</v>
       </c>
       <c r="N46" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="O46" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="P46" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
@@ -4066,10 +4066,10 @@
         </is>
       </c>
       <c r="S46" t="n">
-        <v>889</v>
+        <v>1100</v>
       </c>
       <c r="T46" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="47">
@@ -4087,68 +4087,308 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
+        <v>44536</v>
+      </c>
+      <c r="E47" t="n">
+        <v>13</v>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G47" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I47" t="n">
+        <v>100103003</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>Damasco</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>Castle Brite</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M47" t="n">
+        <v>250</v>
+      </c>
+      <c r="N47" t="n">
+        <v>7000</v>
+      </c>
+      <c r="O47" t="n">
+        <v>7000</v>
+      </c>
+      <c r="P47" t="n">
+        <v>7000</v>
+      </c>
+      <c r="Q47" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R47" t="inlineStr">
+        <is>
+          <t>Provincia de Los Andes</t>
+        </is>
+      </c>
+      <c r="S47" t="n">
+        <v>700</v>
+      </c>
+      <c r="T47" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>9</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D48" s="2" t="n">
+        <v>44194</v>
+      </c>
+      <c r="E48" t="n">
+        <v>13</v>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G48" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I48" t="n">
+        <v>100103003</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>Damasco</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>Patterson</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M48" t="n">
+        <v>120</v>
+      </c>
+      <c r="N48" t="n">
+        <v>13000</v>
+      </c>
+      <c r="O48" t="n">
+        <v>13000</v>
+      </c>
+      <c r="P48" t="n">
+        <v>13000</v>
+      </c>
+      <c r="Q48" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="R48" t="inlineStr">
+        <is>
+          <t>Provincia de San Felipe de Aconcagua</t>
+        </is>
+      </c>
+      <c r="S48" t="n">
+        <v>867</v>
+      </c>
+      <c r="T48" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>9</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D49" s="2" t="n">
         <v>44540</v>
       </c>
-      <c r="E47" t="n">
-        <v>13</v>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G47" t="n">
-        <v>100103</v>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>Frutos de hueso (carozo)</t>
-        </is>
-      </c>
-      <c r="I47" t="n">
-        <v>100103003</v>
-      </c>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t>Damasco</t>
-        </is>
-      </c>
-      <c r="K47" t="inlineStr">
+      <c r="E49" t="n">
+        <v>13</v>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G49" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I49" t="n">
+        <v>100103003</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>Damasco</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
         <is>
           <t>Castle Brite</t>
         </is>
       </c>
-      <c r="L47" t="inlineStr">
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M49" t="n">
+        <v>330</v>
+      </c>
+      <c r="N49" t="n">
+        <v>16000</v>
+      </c>
+      <c r="O49" t="n">
+        <v>16000</v>
+      </c>
+      <c r="P49" t="n">
+        <v>16000</v>
+      </c>
+      <c r="Q49" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="R49" t="inlineStr">
+        <is>
+          <t>Provincia de Los Andes</t>
+        </is>
+      </c>
+      <c r="S49" t="n">
+        <v>889</v>
+      </c>
+      <c r="T49" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>9</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D50" s="2" t="n">
+        <v>44540</v>
+      </c>
+      <c r="E50" t="n">
+        <v>13</v>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G50" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I50" t="n">
+        <v>100103003</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>Damasco</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>Castle Brite</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="M47" t="n">
+      <c r="M50" t="n">
         <v>280</v>
       </c>
-      <c r="N47" t="n">
+      <c r="N50" t="n">
         <v>14000</v>
       </c>
-      <c r="O47" t="n">
+      <c r="O50" t="n">
         <v>14000</v>
       </c>
-      <c r="P47" t="n">
+      <c r="P50" t="n">
         <v>14000</v>
       </c>
-      <c r="Q47" t="inlineStr">
+      <c r="Q50" t="inlineStr">
         <is>
           <t>$/caja 18 kilos</t>
         </is>
       </c>
-      <c r="R47" t="inlineStr">
+      <c r="R50" t="inlineStr">
         <is>
           <t>Provincia de Los Andes</t>
         </is>
       </c>
-      <c r="S47" t="n">
+      <c r="S50" t="n">
         <v>778</v>
       </c>
-      <c r="T47" t="n">
+      <c r="T50" t="n">
         <v>18</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Damasco.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Damasco.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T50"/>
+  <dimension ref="A1:T52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44547</v>
+        <v>44550</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -675,25 +675,25 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Dina</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>450</v>
+        <v>150</v>
       </c>
       <c r="N4" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O4" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P4" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -702,11 +702,11 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="T4" t="n">
         <v>10</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44547</v>
+        <v>44550</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -755,25 +755,25 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Dina</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>410</v>
+        <v>120</v>
       </c>
       <c r="N5" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="O5" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="P5" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -782,11 +782,11 @@
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="T5" t="n">
         <v>10</v>
@@ -840,20 +840,20 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="N6" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O6" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P6" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="T6" t="n">
         <v>10</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44159</v>
+        <v>44547</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -915,7 +915,7 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Dina</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>80</v>
+        <v>410</v>
       </c>
       <c r="N7" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O7" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P7" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T7" t="n">
         <v>10</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44159</v>
+        <v>44547</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -995,7 +995,7 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Dina</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>65</v>
+        <v>350</v>
       </c>
       <c r="N8" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O8" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P8" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="T8" t="n">
         <v>10</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44523</v>
+        <v>44159</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>320</v>
+        <v>80</v>
       </c>
       <c r="N9" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O9" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P9" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T9" t="n">
         <v>10</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44189</v>
+        <v>44159</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1155,29 +1155,29 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>130</v>
+        <v>65</v>
       </c>
       <c r="N10" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="O10" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="P10" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
@@ -1186,10 +1186,10 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>667</v>
+        <v>700</v>
       </c>
       <c r="T10" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11">
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44169</v>
+        <v>44523</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1235,7 +1235,7 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Dina</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
@@ -1244,7 +1244,7 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>80</v>
+        <v>320</v>
       </c>
       <c r="N11" t="n">
         <v>10000</v>
@@ -1262,7 +1262,7 @@
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S11" t="n">
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44544</v>
+        <v>44189</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1315,29 +1315,29 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Dina</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>330</v>
+        <v>130</v>
       </c>
       <c r="N12" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O12" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P12" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
@@ -1346,10 +1346,10 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1000</v>
+        <v>667</v>
       </c>
       <c r="T12" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44544</v>
+        <v>44169</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1404,32 +1404,32 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>350</v>
+        <v>80</v>
       </c>
       <c r="N13" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O13" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P13" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S13" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T13" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14">
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44537</v>
+        <v>44544</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1475,29 +1475,29 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Dina</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>400</v>
+        <v>330</v>
       </c>
       <c r="N14" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="O14" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P14" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
@@ -1506,10 +1506,10 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>889</v>
+        <v>1000</v>
       </c>
       <c r="T14" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15">
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44546</v>
+        <v>44544</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1560,11 +1560,11 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>380</v>
+        <v>350</v>
       </c>
       <c r="N15" t="n">
         <v>12000</v>
@@ -1577,19 +1577,19 @@
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="T15" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16">
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44546</v>
+        <v>44537</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1635,7 +1635,7 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Dina</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
@@ -1644,32 +1644,32 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>330</v>
+        <v>400</v>
       </c>
       <c r="N16" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="O16" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="P16" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1000</v>
+        <v>889</v>
       </c>
       <c r="T16" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17">
@@ -1720,20 +1720,20 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>300</v>
+        <v>380</v>
       </c>
       <c r="N17" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O17" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P17" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="T17" t="n">
         <v>10</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44162</v>
+        <v>44546</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1795,7 +1795,7 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Dina</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
@@ -1804,16 +1804,16 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>70</v>
+        <v>330</v>
       </c>
       <c r="N18" t="n">
-        <v>8500</v>
+        <v>10000</v>
       </c>
       <c r="O18" t="n">
-        <v>8500</v>
+        <v>10000</v>
       </c>
       <c r="P18" t="n">
-        <v>8500</v>
+        <v>10000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1822,11 +1822,11 @@
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S18" t="n">
-        <v>850</v>
+        <v>1000</v>
       </c>
       <c r="T18" t="n">
         <v>10</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44162</v>
+        <v>44546</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
@@ -1875,41 +1875,41 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Dina</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>75</v>
+        <v>300</v>
       </c>
       <c r="N19" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="O19" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="P19" t="n">
-        <v>14400</v>
+        <v>8000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S19" t="n">
         <v>800</v>
       </c>
       <c r="T19" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20">
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44166</v>
+        <v>44162</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1964,16 +1964,16 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="N20" t="n">
-        <v>10000</v>
+        <v>8500</v>
       </c>
       <c r="O20" t="n">
-        <v>10000</v>
+        <v>8500</v>
       </c>
       <c r="P20" t="n">
-        <v>10000</v>
+        <v>8500</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1982,11 +1982,11 @@
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S20" t="n">
-        <v>1000</v>
+        <v>850</v>
       </c>
       <c r="T20" t="n">
         <v>10</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44166</v>
+        <v>44162</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -2040,36 +2040,36 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>120</v>
+        <v>75</v>
       </c>
       <c r="N21" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="O21" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="P21" t="n">
-        <v>8000</v>
+        <v>14400</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S21" t="n">
         <v>800</v>
       </c>
       <c r="T21" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22">
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44174</v>
+        <v>44166</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
@@ -2115,7 +2115,7 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Modesto</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
@@ -2127,13 +2127,13 @@
         <v>120</v>
       </c>
       <c r="N22" t="n">
-        <v>8500</v>
+        <v>10000</v>
       </c>
       <c r="O22" t="n">
-        <v>8500</v>
+        <v>10000</v>
       </c>
       <c r="P22" t="n">
-        <v>8500</v>
+        <v>10000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>850</v>
+        <v>1000</v>
       </c>
       <c r="T22" t="n">
         <v>10</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44174</v>
+        <v>44166</v>
       </c>
       <c r="E23" t="n">
         <v>13</v>
@@ -2195,29 +2195,29 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Modesto</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="N23" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="O23" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="P23" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
@@ -2226,10 +2226,10 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>833</v>
+        <v>800</v>
       </c>
       <c r="T23" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24">
@@ -2280,24 +2280,24 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M24" t="n">
         <v>120</v>
       </c>
       <c r="N24" t="n">
-        <v>12000</v>
+        <v>8500</v>
       </c>
       <c r="O24" t="n">
-        <v>12000</v>
+        <v>8500</v>
       </c>
       <c r="P24" t="n">
-        <v>12000</v>
+        <v>8500</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
@@ -2306,10 +2306,10 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>667</v>
+        <v>850</v>
       </c>
       <c r="T24" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25">
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44525</v>
+        <v>44174</v>
       </c>
       <c r="E25" t="n">
         <v>13</v>
@@ -2355,25 +2355,25 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Modesto</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="N25" t="n">
-        <v>25200</v>
+        <v>15000</v>
       </c>
       <c r="O25" t="n">
-        <v>25200</v>
+        <v>15000</v>
       </c>
       <c r="P25" t="n">
-        <v>25200</v>
+        <v>15000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2382,11 +2382,11 @@
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S25" t="n">
-        <v>1400</v>
+        <v>833</v>
       </c>
       <c r="T25" t="n">
         <v>18</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44525</v>
+        <v>44174</v>
       </c>
       <c r="E26" t="n">
         <v>13</v>
@@ -2435,25 +2435,25 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Modesto</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M26" t="n">
-        <v>250</v>
+        <v>120</v>
       </c>
       <c r="N26" t="n">
-        <v>21600</v>
+        <v>12000</v>
       </c>
       <c r="O26" t="n">
-        <v>21600</v>
+        <v>12000</v>
       </c>
       <c r="P26" t="n">
-        <v>21600</v>
+        <v>12000</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2462,11 +2462,11 @@
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S26" t="n">
-        <v>1200</v>
+        <v>667</v>
       </c>
       <c r="T26" t="n">
         <v>18</v>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44533</v>
+        <v>44525</v>
       </c>
       <c r="E27" t="n">
         <v>13</v>
@@ -2520,24 +2520,24 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M27" t="n">
-        <v>410</v>
+        <v>300</v>
       </c>
       <c r="N27" t="n">
-        <v>16500</v>
+        <v>25200</v>
       </c>
       <c r="O27" t="n">
-        <v>16500</v>
+        <v>25200</v>
       </c>
       <c r="P27" t="n">
-        <v>16500</v>
+        <v>25200</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
@@ -2546,10 +2546,10 @@
         </is>
       </c>
       <c r="S27" t="n">
-        <v>1100</v>
+        <v>1400</v>
       </c>
       <c r="T27" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28">
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44533</v>
+        <v>44525</v>
       </c>
       <c r="E28" t="n">
         <v>13</v>
@@ -2600,24 +2600,24 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="N28" t="n">
-        <v>10500</v>
+        <v>21600</v>
       </c>
       <c r="O28" t="n">
-        <v>10500</v>
+        <v>21600</v>
       </c>
       <c r="P28" t="n">
-        <v>10500</v>
+        <v>21600</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
@@ -2626,10 +2626,10 @@
         </is>
       </c>
       <c r="S28" t="n">
-        <v>700</v>
+        <v>1200</v>
       </c>
       <c r="T28" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29">
@@ -2680,20 +2680,20 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>250</v>
+        <v>410</v>
       </c>
       <c r="N29" t="n">
-        <v>7500</v>
+        <v>16500</v>
       </c>
       <c r="O29" t="n">
-        <v>7500</v>
+        <v>16500</v>
       </c>
       <c r="P29" t="n">
-        <v>7500</v>
+        <v>16500</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         </is>
       </c>
       <c r="S29" t="n">
-        <v>500</v>
+        <v>1100</v>
       </c>
       <c r="T29" t="n">
         <v>15</v>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44176</v>
+        <v>44533</v>
       </c>
       <c r="E30" t="n">
         <v>13</v>
@@ -2755,29 +2755,29 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Modesto</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>115</v>
+        <v>300</v>
       </c>
       <c r="N30" t="n">
-        <v>11000</v>
+        <v>10500</v>
       </c>
       <c r="O30" t="n">
-        <v>12000</v>
+        <v>10500</v>
       </c>
       <c r="P30" t="n">
-        <v>11609</v>
+        <v>10500</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
@@ -2786,10 +2786,10 @@
         </is>
       </c>
       <c r="S30" t="n">
-        <v>967</v>
+        <v>700</v>
       </c>
       <c r="T30" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31">
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44539</v>
+        <v>44533</v>
       </c>
       <c r="E31" t="n">
         <v>13</v>
@@ -2840,24 +2840,24 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M31" t="n">
-        <v>290</v>
+        <v>250</v>
       </c>
       <c r="N31" t="n">
-        <v>18000</v>
+        <v>7500</v>
       </c>
       <c r="O31" t="n">
-        <v>18000</v>
+        <v>7500</v>
       </c>
       <c r="P31" t="n">
-        <v>18000</v>
+        <v>7500</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
@@ -2866,10 +2866,10 @@
         </is>
       </c>
       <c r="S31" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="T31" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32">
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44539</v>
+        <v>44176</v>
       </c>
       <c r="E32" t="n">
         <v>13</v>
@@ -2915,7 +2915,7 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Modesto</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
@@ -2924,20 +2924,20 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>300</v>
+        <v>115</v>
       </c>
       <c r="N32" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="O32" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="P32" t="n">
-        <v>16000</v>
+        <v>11609</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
@@ -2946,10 +2946,10 @@
         </is>
       </c>
       <c r="S32" t="n">
-        <v>889</v>
+        <v>967</v>
       </c>
       <c r="T32" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33">
@@ -3000,20 +3000,20 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M33" t="n">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="N33" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="O33" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="P33" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="S33" t="n">
-        <v>778</v>
+        <v>1000</v>
       </c>
       <c r="T33" t="n">
         <v>18</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44168</v>
+        <v>44539</v>
       </c>
       <c r="E34" t="n">
         <v>13</v>
@@ -3075,41 +3075,41 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>Dina</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M34" t="n">
-        <v>40</v>
+        <v>300</v>
       </c>
       <c r="N34" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O34" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="P34" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S34" t="n">
-        <v>1400</v>
+        <v>889</v>
       </c>
       <c r="T34" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35">
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44167</v>
+        <v>44539</v>
       </c>
       <c r="E35" t="n">
         <v>13</v>
@@ -3160,24 +3160,24 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M35" t="n">
-        <v>85</v>
+        <v>300</v>
       </c>
       <c r="N35" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O35" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P35" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
@@ -3186,10 +3186,10 @@
         </is>
       </c>
       <c r="S35" t="n">
-        <v>1000</v>
+        <v>778</v>
       </c>
       <c r="T35" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36">
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44167</v>
+        <v>44168</v>
       </c>
       <c r="E36" t="n">
         <v>13</v>
@@ -3235,25 +3235,25 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Dina</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M36" t="n">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="N36" t="n">
-        <v>9500</v>
+        <v>14000</v>
       </c>
       <c r="O36" t="n">
-        <v>9500</v>
+        <v>14000</v>
       </c>
       <c r="P36" t="n">
-        <v>9500</v>
+        <v>14000</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -3262,11 +3262,11 @@
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S36" t="n">
-        <v>950</v>
+        <v>1400</v>
       </c>
       <c r="T36" t="n">
         <v>10</v>
@@ -3320,24 +3320,24 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M37" t="n">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="N37" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O37" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P37" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
@@ -3346,10 +3346,10 @@
         </is>
       </c>
       <c r="S37" t="n">
-        <v>833</v>
+        <v>1000</v>
       </c>
       <c r="T37" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38">
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44160</v>
+        <v>44167</v>
       </c>
       <c r="E38" t="n">
         <v>13</v>
@@ -3404,16 +3404,16 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>25</v>
+        <v>120</v>
       </c>
       <c r="N38" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="O38" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="P38" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="S38" t="n">
-        <v>800</v>
+        <v>950</v>
       </c>
       <c r="T38" t="n">
         <v>10</v>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44160</v>
+        <v>44167</v>
       </c>
       <c r="E39" t="n">
         <v>13</v>
@@ -3480,24 +3480,24 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M39" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="N39" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="O39" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="P39" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
@@ -3506,10 +3506,10 @@
         </is>
       </c>
       <c r="S39" t="n">
-        <v>700</v>
+        <v>833</v>
       </c>
       <c r="T39" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40">
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44519</v>
+        <v>44160</v>
       </c>
       <c r="E40" t="n">
         <v>13</v>
@@ -3564,32 +3564,32 @@
         </is>
       </c>
       <c r="M40" t="n">
-        <v>300</v>
+        <v>25</v>
       </c>
       <c r="N40" t="n">
-        <v>22500</v>
+        <v>8000</v>
       </c>
       <c r="O40" t="n">
-        <v>22500</v>
+        <v>8000</v>
       </c>
       <c r="P40" t="n">
-        <v>22500</v>
+        <v>8000</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S40" t="n">
-        <v>1500</v>
+        <v>800</v>
       </c>
       <c r="T40" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41">
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44187</v>
+        <v>44160</v>
       </c>
       <c r="E41" t="n">
         <v>13</v>
@@ -3635,29 +3635,29 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M41" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="N41" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="O41" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="P41" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
@@ -3666,10 +3666,10 @@
         </is>
       </c>
       <c r="S41" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="T41" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42">
@@ -3687,7 +3687,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44187</v>
+        <v>44519</v>
       </c>
       <c r="E42" t="n">
         <v>13</v>
@@ -3715,25 +3715,25 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M42" t="n">
-        <v>95</v>
+        <v>300</v>
       </c>
       <c r="N42" t="n">
-        <v>13500</v>
+        <v>22500</v>
       </c>
       <c r="O42" t="n">
-        <v>13500</v>
+        <v>22500</v>
       </c>
       <c r="P42" t="n">
-        <v>13500</v>
+        <v>22500</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
@@ -3742,11 +3742,11 @@
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S42" t="n">
-        <v>900</v>
+        <v>1500</v>
       </c>
       <c r="T42" t="n">
         <v>15</v>
@@ -3800,20 +3800,20 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M43" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="N43" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O43" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P43" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
@@ -3826,7 +3826,7 @@
         </is>
       </c>
       <c r="S43" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T43" t="n">
         <v>15</v>
@@ -3847,7 +3847,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44175</v>
+        <v>44187</v>
       </c>
       <c r="E44" t="n">
         <v>13</v>
@@ -3875,29 +3875,29 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>Modesto</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M44" t="n">
-        <v>140</v>
+        <v>95</v>
       </c>
       <c r="N44" t="n">
-        <v>11000</v>
+        <v>13500</v>
       </c>
       <c r="O44" t="n">
-        <v>12000</v>
+        <v>13500</v>
       </c>
       <c r="P44" t="n">
-        <v>11571</v>
+        <v>13500</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
@@ -3906,10 +3906,10 @@
         </is>
       </c>
       <c r="S44" t="n">
-        <v>964</v>
+        <v>900</v>
       </c>
       <c r="T44" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="45">
@@ -3927,7 +3927,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44195</v>
+        <v>44187</v>
       </c>
       <c r="E45" t="n">
         <v>13</v>
@@ -3960,24 +3960,24 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M45" t="n">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="N45" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O45" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P45" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
@@ -3986,7 +3986,7 @@
         </is>
       </c>
       <c r="S45" t="n">
-        <v>867</v>
+        <v>800</v>
       </c>
       <c r="T45" t="n">
         <v>15</v>
@@ -4007,7 +4007,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44536</v>
+        <v>44175</v>
       </c>
       <c r="E46" t="n">
         <v>13</v>
@@ -4035,7 +4035,7 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Modesto</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
@@ -4044,32 +4044,32 @@
         </is>
       </c>
       <c r="M46" t="n">
-        <v>220</v>
+        <v>140</v>
       </c>
       <c r="N46" t="n">
         <v>11000</v>
       </c>
       <c r="O46" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P46" t="n">
-        <v>11000</v>
+        <v>11571</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S46" t="n">
-        <v>1100</v>
+        <v>964</v>
       </c>
       <c r="T46" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47">
@@ -4087,7 +4087,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44536</v>
+        <v>44195</v>
       </c>
       <c r="E47" t="n">
         <v>13</v>
@@ -4115,41 +4115,41 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M47" t="n">
-        <v>250</v>
+        <v>124</v>
       </c>
       <c r="N47" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="O47" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="P47" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S47" t="n">
-        <v>700</v>
+        <v>867</v>
       </c>
       <c r="T47" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="48">
@@ -4167,7 +4167,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44194</v>
+        <v>44536</v>
       </c>
       <c r="E48" t="n">
         <v>13</v>
@@ -4195,7 +4195,7 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
@@ -4204,32 +4204,32 @@
         </is>
       </c>
       <c r="M48" t="n">
-        <v>120</v>
+        <v>220</v>
       </c>
       <c r="N48" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O48" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P48" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S48" t="n">
-        <v>867</v>
+        <v>1100</v>
       </c>
       <c r="T48" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="49">
@@ -4247,7 +4247,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44540</v>
+        <v>44536</v>
       </c>
       <c r="E49" t="n">
         <v>13</v>
@@ -4280,24 +4280,24 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M49" t="n">
-        <v>330</v>
+        <v>250</v>
       </c>
       <c r="N49" t="n">
-        <v>16000</v>
+        <v>7000</v>
       </c>
       <c r="O49" t="n">
-        <v>16000</v>
+        <v>7000</v>
       </c>
       <c r="P49" t="n">
-        <v>16000</v>
+        <v>7000</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R49" t="inlineStr">
@@ -4306,10 +4306,10 @@
         </is>
       </c>
       <c r="S49" t="n">
-        <v>889</v>
+        <v>700</v>
       </c>
       <c r="T49" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="50">
@@ -4327,68 +4327,228 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
+        <v>44194</v>
+      </c>
+      <c r="E50" t="n">
+        <v>13</v>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G50" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I50" t="n">
+        <v>100103003</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>Damasco</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>Patterson</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M50" t="n">
+        <v>120</v>
+      </c>
+      <c r="N50" t="n">
+        <v>13000</v>
+      </c>
+      <c r="O50" t="n">
+        <v>13000</v>
+      </c>
+      <c r="P50" t="n">
+        <v>13000</v>
+      </c>
+      <c r="Q50" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="R50" t="inlineStr">
+        <is>
+          <t>Provincia de San Felipe de Aconcagua</t>
+        </is>
+      </c>
+      <c r="S50" t="n">
+        <v>867</v>
+      </c>
+      <c r="T50" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>9</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D51" s="2" t="n">
         <v>44540</v>
       </c>
-      <c r="E50" t="n">
-        <v>13</v>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G50" t="n">
-        <v>100103</v>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>Frutos de hueso (carozo)</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
-        <v>100103003</v>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>Damasco</t>
-        </is>
-      </c>
-      <c r="K50" t="inlineStr">
+      <c r="E51" t="n">
+        <v>13</v>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G51" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I51" t="n">
+        <v>100103003</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>Damasco</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
         <is>
           <t>Castle Brite</t>
         </is>
       </c>
-      <c r="L50" t="inlineStr">
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M51" t="n">
+        <v>330</v>
+      </c>
+      <c r="N51" t="n">
+        <v>16000</v>
+      </c>
+      <c r="O51" t="n">
+        <v>16000</v>
+      </c>
+      <c r="P51" t="n">
+        <v>16000</v>
+      </c>
+      <c r="Q51" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="R51" t="inlineStr">
+        <is>
+          <t>Provincia de Los Andes</t>
+        </is>
+      </c>
+      <c r="S51" t="n">
+        <v>889</v>
+      </c>
+      <c r="T51" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>9</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D52" s="2" t="n">
+        <v>44540</v>
+      </c>
+      <c r="E52" t="n">
+        <v>13</v>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G52" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I52" t="n">
+        <v>100103003</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>Damasco</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>Castle Brite</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="M50" t="n">
+      <c r="M52" t="n">
         <v>280</v>
       </c>
-      <c r="N50" t="n">
+      <c r="N52" t="n">
         <v>14000</v>
       </c>
-      <c r="O50" t="n">
+      <c r="O52" t="n">
         <v>14000</v>
       </c>
-      <c r="P50" t="n">
+      <c r="P52" t="n">
         <v>14000</v>
       </c>
-      <c r="Q50" t="inlineStr">
+      <c r="Q52" t="inlineStr">
         <is>
           <t>$/caja 18 kilos</t>
         </is>
       </c>
-      <c r="R50" t="inlineStr">
+      <c r="R52" t="inlineStr">
         <is>
           <t>Provincia de Los Andes</t>
         </is>
       </c>
-      <c r="S50" t="n">
+      <c r="S52" t="n">
         <v>778</v>
       </c>
-      <c r="T50" t="n">
+      <c r="T52" t="n">
         <v>18</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Damasco.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Damasco.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T52"/>
+  <dimension ref="A1:T54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3687,7 +3687,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44519</v>
+        <v>44551</v>
       </c>
       <c r="E42" t="n">
         <v>13</v>
@@ -3715,41 +3715,41 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Dina</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M42" t="n">
-        <v>300</v>
+        <v>220</v>
       </c>
       <c r="N42" t="n">
-        <v>22500</v>
+        <v>18000</v>
       </c>
       <c r="O42" t="n">
-        <v>22500</v>
+        <v>18000</v>
       </c>
       <c r="P42" t="n">
-        <v>22500</v>
+        <v>18000</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S42" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="T42" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43">
@@ -3767,7 +3767,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44187</v>
+        <v>44551</v>
       </c>
       <c r="E43" t="n">
         <v>13</v>
@@ -3795,7 +3795,7 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Dina</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
@@ -3804,32 +3804,32 @@
         </is>
       </c>
       <c r="M43" t="n">
-        <v>80</v>
+        <v>350</v>
       </c>
       <c r="N43" t="n">
-        <v>15000</v>
+        <v>14400</v>
       </c>
       <c r="O43" t="n">
-        <v>15000</v>
+        <v>14400</v>
       </c>
       <c r="P43" t="n">
-        <v>15000</v>
+        <v>14400</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S43" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T43" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44">
@@ -3847,7 +3847,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44187</v>
+        <v>44519</v>
       </c>
       <c r="E44" t="n">
         <v>13</v>
@@ -3875,25 +3875,25 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M44" t="n">
-        <v>95</v>
+        <v>300</v>
       </c>
       <c r="N44" t="n">
-        <v>13500</v>
+        <v>22500</v>
       </c>
       <c r="O44" t="n">
-        <v>13500</v>
+        <v>22500</v>
       </c>
       <c r="P44" t="n">
-        <v>13500</v>
+        <v>22500</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
@@ -3902,11 +3902,11 @@
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S44" t="n">
-        <v>900</v>
+        <v>1500</v>
       </c>
       <c r="T44" t="n">
         <v>15</v>
@@ -3960,20 +3960,20 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M45" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="N45" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O45" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P45" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
@@ -3986,7 +3986,7 @@
         </is>
       </c>
       <c r="S45" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T45" t="n">
         <v>15</v>
@@ -4007,7 +4007,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44175</v>
+        <v>44187</v>
       </c>
       <c r="E46" t="n">
         <v>13</v>
@@ -4035,29 +4035,29 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Modesto</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M46" t="n">
-        <v>140</v>
+        <v>95</v>
       </c>
       <c r="N46" t="n">
-        <v>11000</v>
+        <v>13500</v>
       </c>
       <c r="O46" t="n">
-        <v>12000</v>
+        <v>13500</v>
       </c>
       <c r="P46" t="n">
-        <v>11571</v>
+        <v>13500</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
@@ -4066,10 +4066,10 @@
         </is>
       </c>
       <c r="S46" t="n">
-        <v>964</v>
+        <v>900</v>
       </c>
       <c r="T46" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="47">
@@ -4087,7 +4087,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44195</v>
+        <v>44187</v>
       </c>
       <c r="E47" t="n">
         <v>13</v>
@@ -4120,24 +4120,24 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M47" t="n">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="N47" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O47" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P47" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="S47" t="n">
-        <v>867</v>
+        <v>800</v>
       </c>
       <c r="T47" t="n">
         <v>15</v>
@@ -4167,7 +4167,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44536</v>
+        <v>44175</v>
       </c>
       <c r="E48" t="n">
         <v>13</v>
@@ -4195,7 +4195,7 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Modesto</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
@@ -4204,32 +4204,32 @@
         </is>
       </c>
       <c r="M48" t="n">
-        <v>220</v>
+        <v>140</v>
       </c>
       <c r="N48" t="n">
         <v>11000</v>
       </c>
       <c r="O48" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P48" t="n">
-        <v>11000</v>
+        <v>11571</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S48" t="n">
-        <v>1100</v>
+        <v>964</v>
       </c>
       <c r="T48" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49">
@@ -4247,7 +4247,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44536</v>
+        <v>44195</v>
       </c>
       <c r="E49" t="n">
         <v>13</v>
@@ -4275,41 +4275,41 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M49" t="n">
-        <v>250</v>
+        <v>124</v>
       </c>
       <c r="N49" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="O49" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="P49" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S49" t="n">
-        <v>700</v>
+        <v>867</v>
       </c>
       <c r="T49" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="50">
@@ -4327,7 +4327,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44194</v>
+        <v>44536</v>
       </c>
       <c r="E50" t="n">
         <v>13</v>
@@ -4355,7 +4355,7 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
@@ -4364,32 +4364,32 @@
         </is>
       </c>
       <c r="M50" t="n">
-        <v>120</v>
+        <v>220</v>
       </c>
       <c r="N50" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O50" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P50" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R50" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S50" t="n">
-        <v>867</v>
+        <v>1100</v>
       </c>
       <c r="T50" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="51">
@@ -4407,7 +4407,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44540</v>
+        <v>44536</v>
       </c>
       <c r="E51" t="n">
         <v>13</v>
@@ -4440,24 +4440,24 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M51" t="n">
-        <v>330</v>
+        <v>250</v>
       </c>
       <c r="N51" t="n">
-        <v>16000</v>
+        <v>7000</v>
       </c>
       <c r="O51" t="n">
-        <v>16000</v>
+        <v>7000</v>
       </c>
       <c r="P51" t="n">
-        <v>16000</v>
+        <v>7000</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R51" t="inlineStr">
@@ -4466,10 +4466,10 @@
         </is>
       </c>
       <c r="S51" t="n">
-        <v>889</v>
+        <v>700</v>
       </c>
       <c r="T51" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="52">
@@ -4487,68 +4487,228 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
+        <v>44194</v>
+      </c>
+      <c r="E52" t="n">
+        <v>13</v>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G52" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I52" t="n">
+        <v>100103003</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>Damasco</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>Patterson</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M52" t="n">
+        <v>120</v>
+      </c>
+      <c r="N52" t="n">
+        <v>13000</v>
+      </c>
+      <c r="O52" t="n">
+        <v>13000</v>
+      </c>
+      <c r="P52" t="n">
+        <v>13000</v>
+      </c>
+      <c r="Q52" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="R52" t="inlineStr">
+        <is>
+          <t>Provincia de San Felipe de Aconcagua</t>
+        </is>
+      </c>
+      <c r="S52" t="n">
+        <v>867</v>
+      </c>
+      <c r="T52" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>9</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D53" s="2" t="n">
         <v>44540</v>
       </c>
-      <c r="E52" t="n">
-        <v>13</v>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G52" t="n">
-        <v>100103</v>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>Frutos de hueso (carozo)</t>
-        </is>
-      </c>
-      <c r="I52" t="n">
-        <v>100103003</v>
-      </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>Damasco</t>
-        </is>
-      </c>
-      <c r="K52" t="inlineStr">
+      <c r="E53" t="n">
+        <v>13</v>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G53" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I53" t="n">
+        <v>100103003</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>Damasco</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
         <is>
           <t>Castle Brite</t>
         </is>
       </c>
-      <c r="L52" t="inlineStr">
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M53" t="n">
+        <v>330</v>
+      </c>
+      <c r="N53" t="n">
+        <v>16000</v>
+      </c>
+      <c r="O53" t="n">
+        <v>16000</v>
+      </c>
+      <c r="P53" t="n">
+        <v>16000</v>
+      </c>
+      <c r="Q53" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="R53" t="inlineStr">
+        <is>
+          <t>Provincia de Los Andes</t>
+        </is>
+      </c>
+      <c r="S53" t="n">
+        <v>889</v>
+      </c>
+      <c r="T53" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>9</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D54" s="2" t="n">
+        <v>44540</v>
+      </c>
+      <c r="E54" t="n">
+        <v>13</v>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G54" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I54" t="n">
+        <v>100103003</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>Damasco</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>Castle Brite</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="M52" t="n">
+      <c r="M54" t="n">
         <v>280</v>
       </c>
-      <c r="N52" t="n">
+      <c r="N54" t="n">
         <v>14000</v>
       </c>
-      <c r="O52" t="n">
+      <c r="O54" t="n">
         <v>14000</v>
       </c>
-      <c r="P52" t="n">
+      <c r="P54" t="n">
         <v>14000</v>
       </c>
-      <c r="Q52" t="inlineStr">
+      <c r="Q54" t="inlineStr">
         <is>
           <t>$/caja 18 kilos</t>
         </is>
       </c>
-      <c r="R52" t="inlineStr">
+      <c r="R54" t="inlineStr">
         <is>
           <t>Provincia de Los Andes</t>
         </is>
       </c>
-      <c r="S52" t="n">
+      <c r="S54" t="n">
         <v>778</v>
       </c>
-      <c r="T52" t="n">
+      <c r="T54" t="n">
         <v>18</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Damasco.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Damasco.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T54"/>
+  <dimension ref="A1:T60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44545</v>
+        <v>44552</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -515,7 +515,7 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Dina</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -524,32 +524,32 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>310</v>
+        <v>200</v>
       </c>
       <c r="N2" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="O2" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="P2" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S2" t="n">
         <v>1000</v>
       </c>
       <c r="T2" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44545</v>
+        <v>44552</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -595,7 +595,7 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Dina</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -604,32 +604,32 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>350</v>
+        <v>220</v>
       </c>
       <c r="N3" t="n">
-        <v>14400</v>
+        <v>8000</v>
       </c>
       <c r="O3" t="n">
-        <v>14400</v>
+        <v>8000</v>
       </c>
       <c r="P3" t="n">
-        <v>14400</v>
+        <v>8000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S3" t="n">
         <v>800</v>
       </c>
       <c r="T3" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44550</v>
+        <v>44552</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -675,25 +675,25 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Dina</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>150</v>
+        <v>350</v>
       </c>
       <c r="N4" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="O4" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="P4" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -702,11 +702,11 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S4" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="T4" t="n">
         <v>10</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44550</v>
+        <v>44552</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -755,41 +755,41 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Modesto</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>120</v>
+        <v>280</v>
       </c>
       <c r="N5" t="n">
-        <v>6000</v>
+        <v>21600</v>
       </c>
       <c r="O5" t="n">
-        <v>6000</v>
+        <v>21600</v>
       </c>
       <c r="P5" t="n">
-        <v>6000</v>
+        <v>21600</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S5" t="n">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="T5" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44547</v>
+        <v>44552</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -835,29 +835,29 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Dina</t>
+          <t>Modesto</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>450</v>
+        <v>310</v>
       </c>
       <c r="N6" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="O6" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="P6" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -866,10 +866,10 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="T6" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7">
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44547</v>
+        <v>44552</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -915,29 +915,29 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Dina</t>
+          <t>Modesto</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>410</v>
+        <v>350</v>
       </c>
       <c r="N7" t="n">
-        <v>10000</v>
+        <v>14400</v>
       </c>
       <c r="O7" t="n">
-        <v>10000</v>
+        <v>14400</v>
       </c>
       <c r="P7" t="n">
-        <v>10000</v>
+        <v>14400</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -946,10 +946,10 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T7" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8">
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44547</v>
+        <v>44545</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -995,41 +995,41 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Dina</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>350</v>
+        <v>310</v>
       </c>
       <c r="N8" t="n">
-        <v>8000</v>
+        <v>18000</v>
       </c>
       <c r="O8" t="n">
-        <v>8000</v>
+        <v>18000</v>
       </c>
       <c r="P8" t="n">
-        <v>8000</v>
+        <v>18000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S8" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T8" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9">
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44159</v>
+        <v>44545</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1084,32 +1084,32 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>80</v>
+        <v>350</v>
       </c>
       <c r="N9" t="n">
-        <v>8000</v>
+        <v>14400</v>
       </c>
       <c r="O9" t="n">
-        <v>8000</v>
+        <v>14400</v>
       </c>
       <c r="P9" t="n">
-        <v>8000</v>
+        <v>14400</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S9" t="n">
         <v>800</v>
       </c>
       <c r="T9" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10">
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44159</v>
+        <v>44550</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1160,20 +1160,20 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>65</v>
+        <v>150</v>
       </c>
       <c r="N10" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O10" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P10" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1182,11 +1182,11 @@
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S10" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="T10" t="n">
         <v>10</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44523</v>
+        <v>44550</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1240,20 +1240,20 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>320</v>
+        <v>120</v>
       </c>
       <c r="N11" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="O11" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="P11" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1262,11 +1262,11 @@
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="T11" t="n">
         <v>10</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44189</v>
+        <v>44547</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1315,16 +1315,16 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Dina</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>130</v>
+        <v>450</v>
       </c>
       <c r="N12" t="n">
         <v>12000</v>
@@ -1337,7 +1337,7 @@
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
@@ -1346,10 +1346,10 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>667</v>
+        <v>1200</v>
       </c>
       <c r="T12" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44169</v>
+        <v>44547</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1404,7 +1404,7 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>80</v>
+        <v>410</v>
       </c>
       <c r="N13" t="n">
         <v>10000</v>
@@ -1422,7 +1422,7 @@
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S13" t="n">
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44544</v>
+        <v>44547</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1480,24 +1480,24 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>330</v>
+        <v>350</v>
       </c>
       <c r="N14" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="O14" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="P14" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
@@ -1506,10 +1506,10 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T14" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15">
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44544</v>
+        <v>44159</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1555,7 +1555,7 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Dina</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
@@ -1564,20 +1564,20 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>350</v>
+        <v>80</v>
       </c>
       <c r="N15" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O15" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P15" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
@@ -1589,7 +1589,7 @@
         <v>800</v>
       </c>
       <c r="T15" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16">
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44537</v>
+        <v>44159</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1640,24 +1640,24 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>400</v>
+        <v>65</v>
       </c>
       <c r="N16" t="n">
-        <v>16000</v>
+        <v>7000</v>
       </c>
       <c r="O16" t="n">
-        <v>16000</v>
+        <v>7000</v>
       </c>
       <c r="P16" t="n">
-        <v>16000</v>
+        <v>7000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
@@ -1666,10 +1666,10 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>889</v>
+        <v>700</v>
       </c>
       <c r="T16" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17">
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44546</v>
+        <v>44523</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1715,25 +1715,25 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Dina</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>380</v>
+        <v>320</v>
       </c>
       <c r="N17" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O17" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P17" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1742,11 +1742,11 @@
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S17" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="T17" t="n">
         <v>10</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44546</v>
+        <v>44189</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1795,7 +1795,7 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Dina</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
@@ -1804,32 +1804,32 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>330</v>
+        <v>130</v>
       </c>
       <c r="N18" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O18" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P18" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S18" t="n">
-        <v>1000</v>
+        <v>667</v>
       </c>
       <c r="T18" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19">
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44546</v>
+        <v>44169</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
@@ -1880,20 +1880,20 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>300</v>
+        <v>80</v>
       </c>
       <c r="N19" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O19" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P19" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1902,11 +1902,11 @@
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S19" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T19" t="n">
         <v>10</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44162</v>
+        <v>44544</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1955,29 +1955,29 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Dina</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>70</v>
+        <v>330</v>
       </c>
       <c r="N20" t="n">
-        <v>8500</v>
+        <v>15000</v>
       </c>
       <c r="O20" t="n">
-        <v>8500</v>
+        <v>15000</v>
       </c>
       <c r="P20" t="n">
-        <v>8500</v>
+        <v>15000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
@@ -1986,10 +1986,10 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>850</v>
+        <v>1000</v>
       </c>
       <c r="T20" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21">
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44162</v>
+        <v>44544</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -2035,7 +2035,7 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Dina</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
@@ -2044,20 +2044,20 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>75</v>
+        <v>350</v>
       </c>
       <c r="N21" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O21" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P21" t="n">
-        <v>14400</v>
+        <v>12000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
@@ -2069,7 +2069,7 @@
         <v>800</v>
       </c>
       <c r="T21" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22">
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44166</v>
+        <v>44537</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
@@ -2124,32 +2124,32 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>120</v>
+        <v>400</v>
       </c>
       <c r="N22" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="O22" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="P22" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S22" t="n">
-        <v>1000</v>
+        <v>889</v>
       </c>
       <c r="T22" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23">
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44166</v>
+        <v>44546</v>
       </c>
       <c r="E23" t="n">
         <v>13</v>
@@ -2195,25 +2195,25 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Dina</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>120</v>
+        <v>380</v>
       </c>
       <c r="N23" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O23" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P23" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2222,11 +2222,11 @@
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S23" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="T23" t="n">
         <v>10</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44174</v>
+        <v>44546</v>
       </c>
       <c r="E24" t="n">
         <v>13</v>
@@ -2275,7 +2275,7 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Modesto</t>
+          <t>Dina</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
@@ -2284,16 +2284,16 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>120</v>
+        <v>330</v>
       </c>
       <c r="N24" t="n">
-        <v>8500</v>
+        <v>10000</v>
       </c>
       <c r="O24" t="n">
-        <v>8500</v>
+        <v>10000</v>
       </c>
       <c r="P24" t="n">
-        <v>8500</v>
+        <v>10000</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2302,11 +2302,11 @@
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S24" t="n">
-        <v>850</v>
+        <v>1000</v>
       </c>
       <c r="T24" t="n">
         <v>10</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44174</v>
+        <v>44546</v>
       </c>
       <c r="E25" t="n">
         <v>13</v>
@@ -2355,41 +2355,41 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Modesto</t>
+          <t>Dina</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="N25" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="O25" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="P25" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S25" t="n">
-        <v>833</v>
+        <v>800</v>
       </c>
       <c r="T25" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26">
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44174</v>
+        <v>44162</v>
       </c>
       <c r="E26" t="n">
         <v>13</v>
@@ -2435,41 +2435,41 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Modesto</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M26" t="n">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="N26" t="n">
-        <v>12000</v>
+        <v>8500</v>
       </c>
       <c r="O26" t="n">
-        <v>12000</v>
+        <v>8500</v>
       </c>
       <c r="P26" t="n">
-        <v>12000</v>
+        <v>8500</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S26" t="n">
-        <v>667</v>
+        <v>850</v>
       </c>
       <c r="T26" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27">
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44525</v>
+        <v>44162</v>
       </c>
       <c r="E27" t="n">
         <v>13</v>
@@ -2520,20 +2520,20 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M27" t="n">
-        <v>300</v>
+        <v>75</v>
       </c>
       <c r="N27" t="n">
-        <v>25200</v>
+        <v>14000</v>
       </c>
       <c r="O27" t="n">
-        <v>25200</v>
+        <v>15000</v>
       </c>
       <c r="P27" t="n">
-        <v>25200</v>
+        <v>14400</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="S27" t="n">
-        <v>1400</v>
+        <v>800</v>
       </c>
       <c r="T27" t="n">
         <v>18</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44525</v>
+        <v>44166</v>
       </c>
       <c r="E28" t="n">
         <v>13</v>
@@ -2604,32 +2604,32 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>250</v>
+        <v>120</v>
       </c>
       <c r="N28" t="n">
-        <v>21600</v>
+        <v>10000</v>
       </c>
       <c r="O28" t="n">
-        <v>21600</v>
+        <v>10000</v>
       </c>
       <c r="P28" t="n">
-        <v>21600</v>
+        <v>10000</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S28" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="T28" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29">
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44533</v>
+        <v>44166</v>
       </c>
       <c r="E29" t="n">
         <v>13</v>
@@ -2680,36 +2680,36 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>410</v>
+        <v>120</v>
       </c>
       <c r="N29" t="n">
-        <v>16500</v>
+        <v>8000</v>
       </c>
       <c r="O29" t="n">
-        <v>16500</v>
+        <v>8000</v>
       </c>
       <c r="P29" t="n">
-        <v>16500</v>
+        <v>8000</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S29" t="n">
-        <v>1100</v>
+        <v>800</v>
       </c>
       <c r="T29" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30">
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44533</v>
+        <v>44174</v>
       </c>
       <c r="E30" t="n">
         <v>13</v>
@@ -2755,41 +2755,41 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Modesto</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="N30" t="n">
-        <v>10500</v>
+        <v>8500</v>
       </c>
       <c r="O30" t="n">
-        <v>10500</v>
+        <v>8500</v>
       </c>
       <c r="P30" t="n">
-        <v>10500</v>
+        <v>8500</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S30" t="n">
-        <v>700</v>
+        <v>850</v>
       </c>
       <c r="T30" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31">
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44533</v>
+        <v>44174</v>
       </c>
       <c r="E31" t="n">
         <v>13</v>
@@ -2835,41 +2835,41 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Modesto</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M31" t="n">
-        <v>250</v>
+        <v>180</v>
       </c>
       <c r="N31" t="n">
-        <v>7500</v>
+        <v>15000</v>
       </c>
       <c r="O31" t="n">
-        <v>7500</v>
+        <v>15000</v>
       </c>
       <c r="P31" t="n">
-        <v>7500</v>
+        <v>15000</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S31" t="n">
-        <v>500</v>
+        <v>833</v>
       </c>
       <c r="T31" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32">
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44176</v>
+        <v>44174</v>
       </c>
       <c r="E32" t="n">
         <v>13</v>
@@ -2920,36 +2920,36 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M32" t="n">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="N32" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O32" t="n">
         <v>12000</v>
       </c>
       <c r="P32" t="n">
-        <v>11609</v>
+        <v>12000</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S32" t="n">
-        <v>967</v>
+        <v>667</v>
       </c>
       <c r="T32" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33">
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44539</v>
+        <v>44525</v>
       </c>
       <c r="E33" t="n">
         <v>13</v>
@@ -3004,20 +3004,20 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="N33" t="n">
-        <v>18000</v>
+        <v>25200</v>
       </c>
       <c r="O33" t="n">
-        <v>18000</v>
+        <v>25200</v>
       </c>
       <c r="P33" t="n">
-        <v>18000</v>
+        <v>25200</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="S33" t="n">
-        <v>1000</v>
+        <v>1400</v>
       </c>
       <c r="T33" t="n">
         <v>18</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44539</v>
+        <v>44525</v>
       </c>
       <c r="E34" t="n">
         <v>13</v>
@@ -3084,20 +3084,20 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="N34" t="n">
-        <v>16000</v>
+        <v>21600</v>
       </c>
       <c r="O34" t="n">
-        <v>16000</v>
+        <v>21600</v>
       </c>
       <c r="P34" t="n">
-        <v>16000</v>
+        <v>21600</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
@@ -3106,7 +3106,7 @@
         </is>
       </c>
       <c r="S34" t="n">
-        <v>889</v>
+        <v>1200</v>
       </c>
       <c r="T34" t="n">
         <v>18</v>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44539</v>
+        <v>44533</v>
       </c>
       <c r="E35" t="n">
         <v>13</v>
@@ -3160,24 +3160,24 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M35" t="n">
-        <v>300</v>
+        <v>410</v>
       </c>
       <c r="N35" t="n">
-        <v>14000</v>
+        <v>16500</v>
       </c>
       <c r="O35" t="n">
-        <v>14000</v>
+        <v>16500</v>
       </c>
       <c r="P35" t="n">
-        <v>14000</v>
+        <v>16500</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
@@ -3186,10 +3186,10 @@
         </is>
       </c>
       <c r="S35" t="n">
-        <v>778</v>
+        <v>1100</v>
       </c>
       <c r="T35" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="36">
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44168</v>
+        <v>44533</v>
       </c>
       <c r="E36" t="n">
         <v>13</v>
@@ -3235,41 +3235,41 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>Dina</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M36" t="n">
-        <v>40</v>
+        <v>300</v>
       </c>
       <c r="N36" t="n">
-        <v>14000</v>
+        <v>10500</v>
       </c>
       <c r="O36" t="n">
-        <v>14000</v>
+        <v>10500</v>
       </c>
       <c r="P36" t="n">
-        <v>14000</v>
+        <v>10500</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S36" t="n">
-        <v>1400</v>
+        <v>700</v>
       </c>
       <c r="T36" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="37">
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44167</v>
+        <v>44533</v>
       </c>
       <c r="E37" t="n">
         <v>13</v>
@@ -3320,24 +3320,24 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M37" t="n">
-        <v>85</v>
+        <v>250</v>
       </c>
       <c r="N37" t="n">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="O37" t="n">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="P37" t="n">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
@@ -3346,10 +3346,10 @@
         </is>
       </c>
       <c r="S37" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="T37" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="38">
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44167</v>
+        <v>44176</v>
       </c>
       <c r="E38" t="n">
         <v>13</v>
@@ -3395,7 +3395,7 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Modesto</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
@@ -3404,20 +3404,20 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="N38" t="n">
-        <v>9500</v>
+        <v>11000</v>
       </c>
       <c r="O38" t="n">
-        <v>9500</v>
+        <v>12000</v>
       </c>
       <c r="P38" t="n">
-        <v>9500</v>
+        <v>11609</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="R38" t="inlineStr">
@@ -3426,10 +3426,10 @@
         </is>
       </c>
       <c r="S38" t="n">
-        <v>950</v>
+        <v>967</v>
       </c>
       <c r="T38" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39">
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44167</v>
+        <v>44539</v>
       </c>
       <c r="E39" t="n">
         <v>13</v>
@@ -3480,24 +3480,24 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M39" t="n">
-        <v>60</v>
+        <v>290</v>
       </c>
       <c r="N39" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O39" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P39" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
@@ -3506,7 +3506,7 @@
         </is>
       </c>
       <c r="S39" t="n">
-        <v>833</v>
+        <v>1000</v>
       </c>
       <c r="T39" t="n">
         <v>18</v>
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44160</v>
+        <v>44539</v>
       </c>
       <c r="E40" t="n">
         <v>13</v>
@@ -3564,20 +3564,20 @@
         </is>
       </c>
       <c r="M40" t="n">
-        <v>25</v>
+        <v>300</v>
       </c>
       <c r="N40" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="O40" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="P40" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
@@ -3586,10 +3586,10 @@
         </is>
       </c>
       <c r="S40" t="n">
-        <v>800</v>
+        <v>889</v>
       </c>
       <c r="T40" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41">
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44160</v>
+        <v>44539</v>
       </c>
       <c r="E41" t="n">
         <v>13</v>
@@ -3644,20 +3644,20 @@
         </is>
       </c>
       <c r="M41" t="n">
-        <v>40</v>
+        <v>300</v>
       </c>
       <c r="N41" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="O41" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="P41" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
@@ -3666,10 +3666,10 @@
         </is>
       </c>
       <c r="S41" t="n">
-        <v>700</v>
+        <v>778</v>
       </c>
       <c r="T41" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42">
@@ -3687,7 +3687,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44551</v>
+        <v>44168</v>
       </c>
       <c r="E42" t="n">
         <v>13</v>
@@ -3724,32 +3724,32 @@
         </is>
       </c>
       <c r="M42" t="n">
-        <v>220</v>
+        <v>40</v>
       </c>
       <c r="N42" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="O42" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="P42" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S42" t="n">
-        <v>1000</v>
+        <v>1400</v>
       </c>
       <c r="T42" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="43">
@@ -3767,7 +3767,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44551</v>
+        <v>44167</v>
       </c>
       <c r="E43" t="n">
         <v>13</v>
@@ -3795,41 +3795,41 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>Dina</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M43" t="n">
-        <v>350</v>
+        <v>85</v>
       </c>
       <c r="N43" t="n">
-        <v>14400</v>
+        <v>10000</v>
       </c>
       <c r="O43" t="n">
-        <v>14400</v>
+        <v>10000</v>
       </c>
       <c r="P43" t="n">
-        <v>14400</v>
+        <v>10000</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S43" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T43" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="44">
@@ -3847,7 +3847,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44519</v>
+        <v>44167</v>
       </c>
       <c r="E44" t="n">
         <v>13</v>
@@ -3884,32 +3884,32 @@
         </is>
       </c>
       <c r="M44" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="N44" t="n">
-        <v>22500</v>
+        <v>9500</v>
       </c>
       <c r="O44" t="n">
-        <v>22500</v>
+        <v>9500</v>
       </c>
       <c r="P44" t="n">
-        <v>22500</v>
+        <v>9500</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S44" t="n">
-        <v>1500</v>
+        <v>950</v>
       </c>
       <c r="T44" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="45">
@@ -3927,7 +3927,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44187</v>
+        <v>44167</v>
       </c>
       <c r="E45" t="n">
         <v>13</v>
@@ -3955,7 +3955,7 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
@@ -3964,7 +3964,7 @@
         </is>
       </c>
       <c r="M45" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="N45" t="n">
         <v>15000</v>
@@ -3977,7 +3977,7 @@
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
@@ -3986,10 +3986,10 @@
         </is>
       </c>
       <c r="S45" t="n">
-        <v>1000</v>
+        <v>833</v>
       </c>
       <c r="T45" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46">
@@ -4007,7 +4007,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44187</v>
+        <v>44160</v>
       </c>
       <c r="E46" t="n">
         <v>13</v>
@@ -4035,29 +4035,29 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M46" t="n">
-        <v>95</v>
+        <v>25</v>
       </c>
       <c r="N46" t="n">
-        <v>13500</v>
+        <v>8000</v>
       </c>
       <c r="O46" t="n">
-        <v>13500</v>
+        <v>8000</v>
       </c>
       <c r="P46" t="n">
-        <v>13500</v>
+        <v>8000</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
@@ -4066,10 +4066,10 @@
         </is>
       </c>
       <c r="S46" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="T46" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="47">
@@ -4087,7 +4087,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44187</v>
+        <v>44160</v>
       </c>
       <c r="E47" t="n">
         <v>13</v>
@@ -4115,29 +4115,29 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M47" t="n">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="N47" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="O47" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="P47" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
@@ -4146,10 +4146,10 @@
         </is>
       </c>
       <c r="S47" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="T47" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="48">
@@ -4167,7 +4167,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44175</v>
+        <v>44551</v>
       </c>
       <c r="E48" t="n">
         <v>13</v>
@@ -4195,41 +4195,41 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>Modesto</t>
+          <t>Dina</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M48" t="n">
-        <v>140</v>
+        <v>220</v>
       </c>
       <c r="N48" t="n">
-        <v>11000</v>
+        <v>18000</v>
       </c>
       <c r="O48" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="P48" t="n">
-        <v>11571</v>
+        <v>18000</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S48" t="n">
-        <v>964</v>
+        <v>1000</v>
       </c>
       <c r="T48" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="49">
@@ -4247,7 +4247,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44195</v>
+        <v>44551</v>
       </c>
       <c r="E49" t="n">
         <v>13</v>
@@ -4275,7 +4275,7 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Dina</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
@@ -4284,32 +4284,32 @@
         </is>
       </c>
       <c r="M49" t="n">
-        <v>124</v>
+        <v>350</v>
       </c>
       <c r="N49" t="n">
-        <v>13000</v>
+        <v>14400</v>
       </c>
       <c r="O49" t="n">
-        <v>13000</v>
+        <v>14400</v>
       </c>
       <c r="P49" t="n">
-        <v>13000</v>
+        <v>14400</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S49" t="n">
-        <v>867</v>
+        <v>800</v>
       </c>
       <c r="T49" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="50">
@@ -4327,7 +4327,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44536</v>
+        <v>44519</v>
       </c>
       <c r="E50" t="n">
         <v>13</v>
@@ -4364,32 +4364,32 @@
         </is>
       </c>
       <c r="M50" t="n">
-        <v>220</v>
+        <v>300</v>
       </c>
       <c r="N50" t="n">
-        <v>11000</v>
+        <v>22500</v>
       </c>
       <c r="O50" t="n">
-        <v>11000</v>
+        <v>22500</v>
       </c>
       <c r="P50" t="n">
-        <v>11000</v>
+        <v>22500</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R50" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S50" t="n">
-        <v>1100</v>
+        <v>1500</v>
       </c>
       <c r="T50" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="51">
@@ -4407,7 +4407,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44536</v>
+        <v>44187</v>
       </c>
       <c r="E51" t="n">
         <v>13</v>
@@ -4435,41 +4435,41 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M51" t="n">
-        <v>250</v>
+        <v>80</v>
       </c>
       <c r="N51" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="O51" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="P51" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R51" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S51" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="T51" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="52">
@@ -4487,7 +4487,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44194</v>
+        <v>44187</v>
       </c>
       <c r="E52" t="n">
         <v>13</v>
@@ -4520,24 +4520,24 @@
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M52" t="n">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="N52" t="n">
-        <v>13000</v>
+        <v>13500</v>
       </c>
       <c r="O52" t="n">
-        <v>13000</v>
+        <v>13500</v>
       </c>
       <c r="P52" t="n">
-        <v>13000</v>
+        <v>13500</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R52" t="inlineStr">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="S52" t="n">
-        <v>867</v>
+        <v>900</v>
       </c>
       <c r="T52" t="n">
         <v>15</v>
@@ -4567,7 +4567,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44540</v>
+        <v>44187</v>
       </c>
       <c r="E53" t="n">
         <v>13</v>
@@ -4595,41 +4595,41 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M53" t="n">
-        <v>330</v>
+        <v>120</v>
       </c>
       <c r="N53" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="O53" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="P53" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S53" t="n">
-        <v>889</v>
+        <v>800</v>
       </c>
       <c r="T53" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="54">
@@ -4647,68 +4647,548 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
+        <v>44175</v>
+      </c>
+      <c r="E54" t="n">
+        <v>13</v>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G54" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I54" t="n">
+        <v>100103003</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>Damasco</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>Modesto</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M54" t="n">
+        <v>140</v>
+      </c>
+      <c r="N54" t="n">
+        <v>11000</v>
+      </c>
+      <c r="O54" t="n">
+        <v>12000</v>
+      </c>
+      <c r="P54" t="n">
+        <v>11571</v>
+      </c>
+      <c r="Q54" t="inlineStr">
+        <is>
+          <t>$/caja 12 kilos</t>
+        </is>
+      </c>
+      <c r="R54" t="inlineStr">
+        <is>
+          <t>Provincia de San Felipe de Aconcagua</t>
+        </is>
+      </c>
+      <c r="S54" t="n">
+        <v>964</v>
+      </c>
+      <c r="T54" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>9</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D55" s="2" t="n">
+        <v>44195</v>
+      </c>
+      <c r="E55" t="n">
+        <v>13</v>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G55" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I55" t="n">
+        <v>100103003</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>Damasco</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>Patterson</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M55" t="n">
+        <v>124</v>
+      </c>
+      <c r="N55" t="n">
+        <v>13000</v>
+      </c>
+      <c r="O55" t="n">
+        <v>13000</v>
+      </c>
+      <c r="P55" t="n">
+        <v>13000</v>
+      </c>
+      <c r="Q55" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="R55" t="inlineStr">
+        <is>
+          <t>Provincia de San Felipe de Aconcagua</t>
+        </is>
+      </c>
+      <c r="S55" t="n">
+        <v>867</v>
+      </c>
+      <c r="T55" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>9</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D56" s="2" t="n">
+        <v>44536</v>
+      </c>
+      <c r="E56" t="n">
+        <v>13</v>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G56" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I56" t="n">
+        <v>100103003</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>Damasco</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>Castle Brite</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M56" t="n">
+        <v>220</v>
+      </c>
+      <c r="N56" t="n">
+        <v>11000</v>
+      </c>
+      <c r="O56" t="n">
+        <v>11000</v>
+      </c>
+      <c r="P56" t="n">
+        <v>11000</v>
+      </c>
+      <c r="Q56" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R56" t="inlineStr">
+        <is>
+          <t>Provincia de Los Andes</t>
+        </is>
+      </c>
+      <c r="S56" t="n">
+        <v>1100</v>
+      </c>
+      <c r="T56" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>9</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D57" s="2" t="n">
+        <v>44536</v>
+      </c>
+      <c r="E57" t="n">
+        <v>13</v>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G57" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I57" t="n">
+        <v>100103003</v>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>Damasco</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>Castle Brite</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M57" t="n">
+        <v>250</v>
+      </c>
+      <c r="N57" t="n">
+        <v>7000</v>
+      </c>
+      <c r="O57" t="n">
+        <v>7000</v>
+      </c>
+      <c r="P57" t="n">
+        <v>7000</v>
+      </c>
+      <c r="Q57" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R57" t="inlineStr">
+        <is>
+          <t>Provincia de Los Andes</t>
+        </is>
+      </c>
+      <c r="S57" t="n">
+        <v>700</v>
+      </c>
+      <c r="T57" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>9</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D58" s="2" t="n">
+        <v>44194</v>
+      </c>
+      <c r="E58" t="n">
+        <v>13</v>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G58" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I58" t="n">
+        <v>100103003</v>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>Damasco</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>Patterson</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M58" t="n">
+        <v>120</v>
+      </c>
+      <c r="N58" t="n">
+        <v>13000</v>
+      </c>
+      <c r="O58" t="n">
+        <v>13000</v>
+      </c>
+      <c r="P58" t="n">
+        <v>13000</v>
+      </c>
+      <c r="Q58" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="R58" t="inlineStr">
+        <is>
+          <t>Provincia de San Felipe de Aconcagua</t>
+        </is>
+      </c>
+      <c r="S58" t="n">
+        <v>867</v>
+      </c>
+      <c r="T58" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>9</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D59" s="2" t="n">
         <v>44540</v>
       </c>
-      <c r="E54" t="n">
-        <v>13</v>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G54" t="n">
-        <v>100103</v>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>Frutos de hueso (carozo)</t>
-        </is>
-      </c>
-      <c r="I54" t="n">
-        <v>100103003</v>
-      </c>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>Damasco</t>
-        </is>
-      </c>
-      <c r="K54" t="inlineStr">
+      <c r="E59" t="n">
+        <v>13</v>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G59" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I59" t="n">
+        <v>100103003</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>Damasco</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
         <is>
           <t>Castle Brite</t>
         </is>
       </c>
-      <c r="L54" t="inlineStr">
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M59" t="n">
+        <v>330</v>
+      </c>
+      <c r="N59" t="n">
+        <v>16000</v>
+      </c>
+      <c r="O59" t="n">
+        <v>16000</v>
+      </c>
+      <c r="P59" t="n">
+        <v>16000</v>
+      </c>
+      <c r="Q59" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="R59" t="inlineStr">
+        <is>
+          <t>Provincia de Los Andes</t>
+        </is>
+      </c>
+      <c r="S59" t="n">
+        <v>889</v>
+      </c>
+      <c r="T59" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>9</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D60" s="2" t="n">
+        <v>44540</v>
+      </c>
+      <c r="E60" t="n">
+        <v>13</v>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G60" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I60" t="n">
+        <v>100103003</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>Damasco</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>Castle Brite</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="M54" t="n">
+      <c r="M60" t="n">
         <v>280</v>
       </c>
-      <c r="N54" t="n">
+      <c r="N60" t="n">
         <v>14000</v>
       </c>
-      <c r="O54" t="n">
+      <c r="O60" t="n">
         <v>14000</v>
       </c>
-      <c r="P54" t="n">
+      <c r="P60" t="n">
         <v>14000</v>
       </c>
-      <c r="Q54" t="inlineStr">
+      <c r="Q60" t="inlineStr">
         <is>
           <t>$/caja 18 kilos</t>
         </is>
       </c>
-      <c r="R54" t="inlineStr">
+      <c r="R60" t="inlineStr">
         <is>
           <t>Provincia de Los Andes</t>
         </is>
       </c>
-      <c r="S54" t="n">
+      <c r="S60" t="n">
         <v>778</v>
       </c>
-      <c r="T54" t="n">
+      <c r="T60" t="n">
         <v>18</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Damasco.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Damasco.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T60"/>
+  <dimension ref="A1:T66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44166</v>
+        <v>44554</v>
       </c>
       <c r="E28" t="n">
         <v>13</v>
@@ -2595,7 +2595,7 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
@@ -2604,32 +2604,32 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>120</v>
+        <v>410</v>
       </c>
       <c r="N28" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O28" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P28" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S28" t="n">
-        <v>1000</v>
+        <v>778</v>
       </c>
       <c r="T28" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29">
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44166</v>
+        <v>44554</v>
       </c>
       <c r="E29" t="n">
         <v>13</v>
@@ -2675,7 +2675,7 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
@@ -2684,32 +2684,32 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>120</v>
+        <v>380</v>
       </c>
       <c r="N29" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O29" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P29" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S29" t="n">
-        <v>800</v>
+        <v>667</v>
       </c>
       <c r="T29" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30">
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44174</v>
+        <v>44166</v>
       </c>
       <c r="E30" t="n">
         <v>13</v>
@@ -2755,7 +2755,7 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Modesto</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
@@ -2767,13 +2767,13 @@
         <v>120</v>
       </c>
       <c r="N30" t="n">
-        <v>8500</v>
+        <v>10000</v>
       </c>
       <c r="O30" t="n">
-        <v>8500</v>
+        <v>10000</v>
       </c>
       <c r="P30" t="n">
-        <v>8500</v>
+        <v>10000</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         </is>
       </c>
       <c r="S30" t="n">
-        <v>850</v>
+        <v>1000</v>
       </c>
       <c r="T30" t="n">
         <v>10</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44174</v>
+        <v>44166</v>
       </c>
       <c r="E31" t="n">
         <v>13</v>
@@ -2835,29 +2835,29 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Modesto</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M31" t="n">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="N31" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="O31" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="P31" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
@@ -2866,10 +2866,10 @@
         </is>
       </c>
       <c r="S31" t="n">
-        <v>833</v>
+        <v>800</v>
       </c>
       <c r="T31" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32">
@@ -2920,24 +2920,24 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M32" t="n">
         <v>120</v>
       </c>
       <c r="N32" t="n">
-        <v>12000</v>
+        <v>8500</v>
       </c>
       <c r="O32" t="n">
-        <v>12000</v>
+        <v>8500</v>
       </c>
       <c r="P32" t="n">
-        <v>12000</v>
+        <v>8500</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
@@ -2946,10 +2946,10 @@
         </is>
       </c>
       <c r="S32" t="n">
-        <v>667</v>
+        <v>850</v>
       </c>
       <c r="T32" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33">
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44525</v>
+        <v>44174</v>
       </c>
       <c r="E33" t="n">
         <v>13</v>
@@ -2995,25 +2995,25 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Modesto</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M33" t="n">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="N33" t="n">
-        <v>25200</v>
+        <v>15000</v>
       </c>
       <c r="O33" t="n">
-        <v>25200</v>
+        <v>15000</v>
       </c>
       <c r="P33" t="n">
-        <v>25200</v>
+        <v>15000</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3022,11 +3022,11 @@
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S33" t="n">
-        <v>1400</v>
+        <v>833</v>
       </c>
       <c r="T33" t="n">
         <v>18</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44525</v>
+        <v>44174</v>
       </c>
       <c r="E34" t="n">
         <v>13</v>
@@ -3075,25 +3075,25 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Modesto</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M34" t="n">
-        <v>250</v>
+        <v>120</v>
       </c>
       <c r="N34" t="n">
-        <v>21600</v>
+        <v>12000</v>
       </c>
       <c r="O34" t="n">
-        <v>21600</v>
+        <v>12000</v>
       </c>
       <c r="P34" t="n">
-        <v>21600</v>
+        <v>12000</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3102,11 +3102,11 @@
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S34" t="n">
-        <v>1200</v>
+        <v>667</v>
       </c>
       <c r="T34" t="n">
         <v>18</v>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44533</v>
+        <v>44525</v>
       </c>
       <c r="E35" t="n">
         <v>13</v>
@@ -3160,24 +3160,24 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M35" t="n">
-        <v>410</v>
+        <v>300</v>
       </c>
       <c r="N35" t="n">
-        <v>16500</v>
+        <v>25200</v>
       </c>
       <c r="O35" t="n">
-        <v>16500</v>
+        <v>25200</v>
       </c>
       <c r="P35" t="n">
-        <v>16500</v>
+        <v>25200</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
@@ -3186,10 +3186,10 @@
         </is>
       </c>
       <c r="S35" t="n">
-        <v>1100</v>
+        <v>1400</v>
       </c>
       <c r="T35" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36">
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44533</v>
+        <v>44525</v>
       </c>
       <c r="E36" t="n">
         <v>13</v>
@@ -3240,24 +3240,24 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M36" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="N36" t="n">
-        <v>10500</v>
+        <v>21600</v>
       </c>
       <c r="O36" t="n">
-        <v>10500</v>
+        <v>21600</v>
       </c>
       <c r="P36" t="n">
-        <v>10500</v>
+        <v>21600</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
@@ -3266,10 +3266,10 @@
         </is>
       </c>
       <c r="S36" t="n">
-        <v>700</v>
+        <v>1200</v>
       </c>
       <c r="T36" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37">
@@ -3320,20 +3320,20 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M37" t="n">
-        <v>250</v>
+        <v>410</v>
       </c>
       <c r="N37" t="n">
-        <v>7500</v>
+        <v>16500</v>
       </c>
       <c r="O37" t="n">
-        <v>7500</v>
+        <v>16500</v>
       </c>
       <c r="P37" t="n">
-        <v>7500</v>
+        <v>16500</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="S37" t="n">
-        <v>500</v>
+        <v>1100</v>
       </c>
       <c r="T37" t="n">
         <v>15</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44176</v>
+        <v>44533</v>
       </c>
       <c r="E38" t="n">
         <v>13</v>
@@ -3395,29 +3395,29 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Modesto</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M38" t="n">
-        <v>115</v>
+        <v>300</v>
       </c>
       <c r="N38" t="n">
-        <v>11000</v>
+        <v>10500</v>
       </c>
       <c r="O38" t="n">
-        <v>12000</v>
+        <v>10500</v>
       </c>
       <c r="P38" t="n">
-        <v>11609</v>
+        <v>10500</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R38" t="inlineStr">
@@ -3426,10 +3426,10 @@
         </is>
       </c>
       <c r="S38" t="n">
-        <v>967</v>
+        <v>700</v>
       </c>
       <c r="T38" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="39">
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44539</v>
+        <v>44533</v>
       </c>
       <c r="E39" t="n">
         <v>13</v>
@@ -3480,24 +3480,24 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M39" t="n">
-        <v>290</v>
+        <v>250</v>
       </c>
       <c r="N39" t="n">
-        <v>18000</v>
+        <v>7500</v>
       </c>
       <c r="O39" t="n">
-        <v>18000</v>
+        <v>7500</v>
       </c>
       <c r="P39" t="n">
-        <v>18000</v>
+        <v>7500</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
@@ -3506,10 +3506,10 @@
         </is>
       </c>
       <c r="S39" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="T39" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="40">
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44539</v>
+        <v>44176</v>
       </c>
       <c r="E40" t="n">
         <v>13</v>
@@ -3555,7 +3555,7 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Modesto</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
@@ -3564,20 +3564,20 @@
         </is>
       </c>
       <c r="M40" t="n">
-        <v>300</v>
+        <v>115</v>
       </c>
       <c r="N40" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="O40" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="P40" t="n">
-        <v>16000</v>
+        <v>11609</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
@@ -3586,10 +3586,10 @@
         </is>
       </c>
       <c r="S40" t="n">
-        <v>889</v>
+        <v>967</v>
       </c>
       <c r="T40" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41">
@@ -3640,20 +3640,20 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M41" t="n">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="N41" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="O41" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="P41" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         </is>
       </c>
       <c r="S41" t="n">
-        <v>778</v>
+        <v>1000</v>
       </c>
       <c r="T41" t="n">
         <v>18</v>
@@ -3687,7 +3687,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44168</v>
+        <v>44539</v>
       </c>
       <c r="E42" t="n">
         <v>13</v>
@@ -3715,41 +3715,41 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Dina</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M42" t="n">
-        <v>40</v>
+        <v>300</v>
       </c>
       <c r="N42" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O42" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="P42" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S42" t="n">
-        <v>1400</v>
+        <v>889</v>
       </c>
       <c r="T42" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43">
@@ -3767,7 +3767,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44167</v>
+        <v>44539</v>
       </c>
       <c r="E43" t="n">
         <v>13</v>
@@ -3800,24 +3800,24 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M43" t="n">
-        <v>85</v>
+        <v>300</v>
       </c>
       <c r="N43" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O43" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P43" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
@@ -3826,10 +3826,10 @@
         </is>
       </c>
       <c r="S43" t="n">
-        <v>1000</v>
+        <v>778</v>
       </c>
       <c r="T43" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44">
@@ -3847,7 +3847,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44167</v>
+        <v>44168</v>
       </c>
       <c r="E44" t="n">
         <v>13</v>
@@ -3875,25 +3875,25 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Dina</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M44" t="n">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="N44" t="n">
-        <v>9500</v>
+        <v>14000</v>
       </c>
       <c r="O44" t="n">
-        <v>9500</v>
+        <v>14000</v>
       </c>
       <c r="P44" t="n">
-        <v>9500</v>
+        <v>14000</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
@@ -3902,11 +3902,11 @@
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S44" t="n">
-        <v>950</v>
+        <v>1400</v>
       </c>
       <c r="T44" t="n">
         <v>10</v>
@@ -3927,7 +3927,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44167</v>
+        <v>44553</v>
       </c>
       <c r="E45" t="n">
         <v>13</v>
@@ -3955,29 +3955,29 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Dina</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M45" t="n">
-        <v>60</v>
+        <v>280</v>
       </c>
       <c r="N45" t="n">
-        <v>15000</v>
+        <v>7500</v>
       </c>
       <c r="O45" t="n">
-        <v>15000</v>
+        <v>7500</v>
       </c>
       <c r="P45" t="n">
-        <v>15000</v>
+        <v>7500</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 6 kilos</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
@@ -3986,10 +3986,10 @@
         </is>
       </c>
       <c r="S45" t="n">
-        <v>833</v>
+        <v>1250</v>
       </c>
       <c r="T45" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="46">
@@ -4007,7 +4007,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44160</v>
+        <v>44553</v>
       </c>
       <c r="E46" t="n">
         <v>13</v>
@@ -4035,7 +4035,7 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Dina</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
@@ -4044,20 +4044,20 @@
         </is>
       </c>
       <c r="M46" t="n">
-        <v>25</v>
+        <v>350</v>
       </c>
       <c r="N46" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="O46" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="P46" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 6 kilos</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
@@ -4066,10 +4066,10 @@
         </is>
       </c>
       <c r="S46" t="n">
-        <v>800</v>
+        <v>1083</v>
       </c>
       <c r="T46" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="47">
@@ -4087,7 +4087,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44160</v>
+        <v>44553</v>
       </c>
       <c r="E47" t="n">
         <v>13</v>
@@ -4115,29 +4115,29 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M47" t="n">
-        <v>40</v>
+        <v>380</v>
       </c>
       <c r="N47" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="O47" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="P47" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
@@ -4146,10 +4146,10 @@
         </is>
       </c>
       <c r="S47" t="n">
-        <v>700</v>
+        <v>778</v>
       </c>
       <c r="T47" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="48">
@@ -4167,7 +4167,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44551</v>
+        <v>44553</v>
       </c>
       <c r="E48" t="n">
         <v>13</v>
@@ -4195,38 +4195,38 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>Dina</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M48" t="n">
-        <v>220</v>
+        <v>410</v>
       </c>
       <c r="N48" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="O48" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="P48" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S48" t="n">
-        <v>1000</v>
+        <v>667</v>
       </c>
       <c r="T48" t="n">
         <v>18</v>
@@ -4247,7 +4247,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44551</v>
+        <v>44167</v>
       </c>
       <c r="E49" t="n">
         <v>13</v>
@@ -4275,41 +4275,41 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>Dina</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M49" t="n">
-        <v>350</v>
+        <v>85</v>
       </c>
       <c r="N49" t="n">
-        <v>14400</v>
+        <v>10000</v>
       </c>
       <c r="O49" t="n">
-        <v>14400</v>
+        <v>10000</v>
       </c>
       <c r="P49" t="n">
-        <v>14400</v>
+        <v>10000</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S49" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T49" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="50">
@@ -4327,7 +4327,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44519</v>
+        <v>44167</v>
       </c>
       <c r="E50" t="n">
         <v>13</v>
@@ -4364,32 +4364,32 @@
         </is>
       </c>
       <c r="M50" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="N50" t="n">
-        <v>22500</v>
+        <v>9500</v>
       </c>
       <c r="O50" t="n">
-        <v>22500</v>
+        <v>9500</v>
       </c>
       <c r="P50" t="n">
-        <v>22500</v>
+        <v>9500</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R50" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S50" t="n">
-        <v>1500</v>
+        <v>950</v>
       </c>
       <c r="T50" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="51">
@@ -4407,7 +4407,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44187</v>
+        <v>44167</v>
       </c>
       <c r="E51" t="n">
         <v>13</v>
@@ -4435,7 +4435,7 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
@@ -4444,7 +4444,7 @@
         </is>
       </c>
       <c r="M51" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="N51" t="n">
         <v>15000</v>
@@ -4457,7 +4457,7 @@
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R51" t="inlineStr">
@@ -4466,10 +4466,10 @@
         </is>
       </c>
       <c r="S51" t="n">
-        <v>1000</v>
+        <v>833</v>
       </c>
       <c r="T51" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="52">
@@ -4487,7 +4487,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44187</v>
+        <v>44160</v>
       </c>
       <c r="E52" t="n">
         <v>13</v>
@@ -4515,29 +4515,29 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M52" t="n">
-        <v>95</v>
+        <v>25</v>
       </c>
       <c r="N52" t="n">
-        <v>13500</v>
+        <v>8000</v>
       </c>
       <c r="O52" t="n">
-        <v>13500</v>
+        <v>8000</v>
       </c>
       <c r="P52" t="n">
-        <v>13500</v>
+        <v>8000</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R52" t="inlineStr">
@@ -4546,10 +4546,10 @@
         </is>
       </c>
       <c r="S52" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="T52" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="53">
@@ -4567,7 +4567,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44187</v>
+        <v>44160</v>
       </c>
       <c r="E53" t="n">
         <v>13</v>
@@ -4595,29 +4595,29 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M53" t="n">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="N53" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="O53" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="P53" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R53" t="inlineStr">
@@ -4626,10 +4626,10 @@
         </is>
       </c>
       <c r="S53" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="T53" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="54">
@@ -4647,7 +4647,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44175</v>
+        <v>44551</v>
       </c>
       <c r="E54" t="n">
         <v>13</v>
@@ -4675,41 +4675,41 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>Modesto</t>
+          <t>Dina</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M54" t="n">
-        <v>140</v>
+        <v>220</v>
       </c>
       <c r="N54" t="n">
-        <v>11000</v>
+        <v>18000</v>
       </c>
       <c r="O54" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="P54" t="n">
-        <v>11571</v>
+        <v>18000</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R54" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S54" t="n">
-        <v>964</v>
+        <v>1000</v>
       </c>
       <c r="T54" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55">
@@ -4727,7 +4727,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44195</v>
+        <v>44551</v>
       </c>
       <c r="E55" t="n">
         <v>13</v>
@@ -4755,7 +4755,7 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Dina</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
@@ -4764,32 +4764,32 @@
         </is>
       </c>
       <c r="M55" t="n">
-        <v>124</v>
+        <v>350</v>
       </c>
       <c r="N55" t="n">
-        <v>13000</v>
+        <v>14400</v>
       </c>
       <c r="O55" t="n">
-        <v>13000</v>
+        <v>14400</v>
       </c>
       <c r="P55" t="n">
-        <v>13000</v>
+        <v>14400</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R55" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S55" t="n">
-        <v>867</v>
+        <v>800</v>
       </c>
       <c r="T55" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="56">
@@ -4807,7 +4807,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44536</v>
+        <v>44519</v>
       </c>
       <c r="E56" t="n">
         <v>13</v>
@@ -4844,32 +4844,32 @@
         </is>
       </c>
       <c r="M56" t="n">
-        <v>220</v>
+        <v>300</v>
       </c>
       <c r="N56" t="n">
-        <v>11000</v>
+        <v>22500</v>
       </c>
       <c r="O56" t="n">
-        <v>11000</v>
+        <v>22500</v>
       </c>
       <c r="P56" t="n">
-        <v>11000</v>
+        <v>22500</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R56" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S56" t="n">
-        <v>1100</v>
+        <v>1500</v>
       </c>
       <c r="T56" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="57">
@@ -4887,7 +4887,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44536</v>
+        <v>44187</v>
       </c>
       <c r="E57" t="n">
         <v>13</v>
@@ -4915,41 +4915,41 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M57" t="n">
-        <v>250</v>
+        <v>80</v>
       </c>
       <c r="N57" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="O57" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="P57" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R57" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S57" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="T57" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="58">
@@ -4967,7 +4967,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44194</v>
+        <v>44187</v>
       </c>
       <c r="E58" t="n">
         <v>13</v>
@@ -5000,24 +5000,24 @@
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M58" t="n">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="N58" t="n">
-        <v>13000</v>
+        <v>13500</v>
       </c>
       <c r="O58" t="n">
-        <v>13000</v>
+        <v>13500</v>
       </c>
       <c r="P58" t="n">
-        <v>13000</v>
+        <v>13500</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R58" t="inlineStr">
@@ -5026,7 +5026,7 @@
         </is>
       </c>
       <c r="S58" t="n">
-        <v>867</v>
+        <v>900</v>
       </c>
       <c r="T58" t="n">
         <v>15</v>
@@ -5047,7 +5047,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44540</v>
+        <v>44187</v>
       </c>
       <c r="E59" t="n">
         <v>13</v>
@@ -5075,41 +5075,41 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M59" t="n">
-        <v>330</v>
+        <v>120</v>
       </c>
       <c r="N59" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="O59" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="P59" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R59" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S59" t="n">
-        <v>889</v>
+        <v>800</v>
       </c>
       <c r="T59" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="60">
@@ -5127,68 +5127,548 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
+        <v>44175</v>
+      </c>
+      <c r="E60" t="n">
+        <v>13</v>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G60" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I60" t="n">
+        <v>100103003</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>Damasco</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>Modesto</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M60" t="n">
+        <v>140</v>
+      </c>
+      <c r="N60" t="n">
+        <v>11000</v>
+      </c>
+      <c r="O60" t="n">
+        <v>12000</v>
+      </c>
+      <c r="P60" t="n">
+        <v>11571</v>
+      </c>
+      <c r="Q60" t="inlineStr">
+        <is>
+          <t>$/caja 12 kilos</t>
+        </is>
+      </c>
+      <c r="R60" t="inlineStr">
+        <is>
+          <t>Provincia de San Felipe de Aconcagua</t>
+        </is>
+      </c>
+      <c r="S60" t="n">
+        <v>964</v>
+      </c>
+      <c r="T60" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>9</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D61" s="2" t="n">
+        <v>44195</v>
+      </c>
+      <c r="E61" t="n">
+        <v>13</v>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G61" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I61" t="n">
+        <v>100103003</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>Damasco</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>Patterson</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M61" t="n">
+        <v>124</v>
+      </c>
+      <c r="N61" t="n">
+        <v>13000</v>
+      </c>
+      <c r="O61" t="n">
+        <v>13000</v>
+      </c>
+      <c r="P61" t="n">
+        <v>13000</v>
+      </c>
+      <c r="Q61" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="R61" t="inlineStr">
+        <is>
+          <t>Provincia de San Felipe de Aconcagua</t>
+        </is>
+      </c>
+      <c r="S61" t="n">
+        <v>867</v>
+      </c>
+      <c r="T61" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>9</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D62" s="2" t="n">
+        <v>44536</v>
+      </c>
+      <c r="E62" t="n">
+        <v>13</v>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G62" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I62" t="n">
+        <v>100103003</v>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>Damasco</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>Castle Brite</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M62" t="n">
+        <v>220</v>
+      </c>
+      <c r="N62" t="n">
+        <v>11000</v>
+      </c>
+      <c r="O62" t="n">
+        <v>11000</v>
+      </c>
+      <c r="P62" t="n">
+        <v>11000</v>
+      </c>
+      <c r="Q62" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R62" t="inlineStr">
+        <is>
+          <t>Provincia de Los Andes</t>
+        </is>
+      </c>
+      <c r="S62" t="n">
+        <v>1100</v>
+      </c>
+      <c r="T62" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>9</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D63" s="2" t="n">
+        <v>44536</v>
+      </c>
+      <c r="E63" t="n">
+        <v>13</v>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G63" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I63" t="n">
+        <v>100103003</v>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>Damasco</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>Castle Brite</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M63" t="n">
+        <v>250</v>
+      </c>
+      <c r="N63" t="n">
+        <v>7000</v>
+      </c>
+      <c r="O63" t="n">
+        <v>7000</v>
+      </c>
+      <c r="P63" t="n">
+        <v>7000</v>
+      </c>
+      <c r="Q63" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R63" t="inlineStr">
+        <is>
+          <t>Provincia de Los Andes</t>
+        </is>
+      </c>
+      <c r="S63" t="n">
+        <v>700</v>
+      </c>
+      <c r="T63" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>9</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D64" s="2" t="n">
+        <v>44194</v>
+      </c>
+      <c r="E64" t="n">
+        <v>13</v>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G64" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I64" t="n">
+        <v>100103003</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>Damasco</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>Patterson</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M64" t="n">
+        <v>120</v>
+      </c>
+      <c r="N64" t="n">
+        <v>13000</v>
+      </c>
+      <c r="O64" t="n">
+        <v>13000</v>
+      </c>
+      <c r="P64" t="n">
+        <v>13000</v>
+      </c>
+      <c r="Q64" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="R64" t="inlineStr">
+        <is>
+          <t>Provincia de San Felipe de Aconcagua</t>
+        </is>
+      </c>
+      <c r="S64" t="n">
+        <v>867</v>
+      </c>
+      <c r="T64" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>9</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D65" s="2" t="n">
         <v>44540</v>
       </c>
-      <c r="E60" t="n">
-        <v>13</v>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G60" t="n">
-        <v>100103</v>
-      </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>Frutos de hueso (carozo)</t>
-        </is>
-      </c>
-      <c r="I60" t="n">
-        <v>100103003</v>
-      </c>
-      <c r="J60" t="inlineStr">
-        <is>
-          <t>Damasco</t>
-        </is>
-      </c>
-      <c r="K60" t="inlineStr">
+      <c r="E65" t="n">
+        <v>13</v>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G65" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I65" t="n">
+        <v>100103003</v>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>Damasco</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
         <is>
           <t>Castle Brite</t>
         </is>
       </c>
-      <c r="L60" t="inlineStr">
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M65" t="n">
+        <v>330</v>
+      </c>
+      <c r="N65" t="n">
+        <v>16000</v>
+      </c>
+      <c r="O65" t="n">
+        <v>16000</v>
+      </c>
+      <c r="P65" t="n">
+        <v>16000</v>
+      </c>
+      <c r="Q65" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="R65" t="inlineStr">
+        <is>
+          <t>Provincia de Los Andes</t>
+        </is>
+      </c>
+      <c r="S65" t="n">
+        <v>889</v>
+      </c>
+      <c r="T65" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>9</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D66" s="2" t="n">
+        <v>44540</v>
+      </c>
+      <c r="E66" t="n">
+        <v>13</v>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G66" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I66" t="n">
+        <v>100103003</v>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>Damasco</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>Castle Brite</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="M60" t="n">
+      <c r="M66" t="n">
         <v>280</v>
       </c>
-      <c r="N60" t="n">
+      <c r="N66" t="n">
         <v>14000</v>
       </c>
-      <c r="O60" t="n">
+      <c r="O66" t="n">
         <v>14000</v>
       </c>
-      <c r="P60" t="n">
+      <c r="P66" t="n">
         <v>14000</v>
       </c>
-      <c r="Q60" t="inlineStr">
+      <c r="Q66" t="inlineStr">
         <is>
           <t>$/caja 18 kilos</t>
         </is>
       </c>
-      <c r="R60" t="inlineStr">
+      <c r="R66" t="inlineStr">
         <is>
           <t>Provincia de Los Andes</t>
         </is>
       </c>
-      <c r="S60" t="n">
+      <c r="S66" t="n">
         <v>778</v>
       </c>
-      <c r="T60" t="n">
+      <c r="T66" t="n">
         <v>18</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Damasco.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Damasco.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T66"/>
+  <dimension ref="A1:T68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44537</v>
+        <v>44557</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
@@ -2115,41 +2115,41 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>400</v>
+        <v>380</v>
       </c>
       <c r="N22" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="O22" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P22" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S22" t="n">
-        <v>889</v>
+        <v>1000</v>
       </c>
       <c r="T22" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23">
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44546</v>
+        <v>44557</v>
       </c>
       <c r="E23" t="n">
         <v>13</v>
@@ -2195,16 +2195,16 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Dina</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>380</v>
+        <v>330</v>
       </c>
       <c r="N23" t="n">
         <v>12000</v>
@@ -2217,7 +2217,7 @@
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
@@ -2226,10 +2226,10 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="T23" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24">
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44546</v>
+        <v>44537</v>
       </c>
       <c r="E24" t="n">
         <v>13</v>
@@ -2275,7 +2275,7 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Dina</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
@@ -2284,32 +2284,32 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>330</v>
+        <v>400</v>
       </c>
       <c r="N24" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="O24" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="P24" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S24" t="n">
-        <v>1000</v>
+        <v>889</v>
       </c>
       <c r="T24" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25">
@@ -2360,20 +2360,20 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>300</v>
+        <v>380</v>
       </c>
       <c r="N25" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O25" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P25" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="T25" t="n">
         <v>10</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44162</v>
+        <v>44546</v>
       </c>
       <c r="E26" t="n">
         <v>13</v>
@@ -2435,7 +2435,7 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Dina</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
@@ -2444,16 +2444,16 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>70</v>
+        <v>330</v>
       </c>
       <c r="N26" t="n">
-        <v>8500</v>
+        <v>10000</v>
       </c>
       <c r="O26" t="n">
-        <v>8500</v>
+        <v>10000</v>
       </c>
       <c r="P26" t="n">
-        <v>8500</v>
+        <v>10000</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2462,11 +2462,11 @@
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S26" t="n">
-        <v>850</v>
+        <v>1000</v>
       </c>
       <c r="T26" t="n">
         <v>10</v>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44162</v>
+        <v>44546</v>
       </c>
       <c r="E27" t="n">
         <v>13</v>
@@ -2515,41 +2515,41 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Dina</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M27" t="n">
-        <v>75</v>
+        <v>300</v>
       </c>
       <c r="N27" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="O27" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="P27" t="n">
-        <v>14400</v>
+        <v>8000</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S27" t="n">
         <v>800</v>
       </c>
       <c r="T27" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28">
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44554</v>
+        <v>44162</v>
       </c>
       <c r="E28" t="n">
         <v>13</v>
@@ -2595,7 +2595,7 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
@@ -2604,20 +2604,20 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>410</v>
+        <v>70</v>
       </c>
       <c r="N28" t="n">
-        <v>14000</v>
+        <v>8500</v>
       </c>
       <c r="O28" t="n">
-        <v>14000</v>
+        <v>8500</v>
       </c>
       <c r="P28" t="n">
-        <v>14000</v>
+        <v>8500</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
@@ -2626,10 +2626,10 @@
         </is>
       </c>
       <c r="S28" t="n">
-        <v>778</v>
+        <v>850</v>
       </c>
       <c r="T28" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29">
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44554</v>
+        <v>44162</v>
       </c>
       <c r="E29" t="n">
         <v>13</v>
@@ -2675,25 +2675,25 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>380</v>
+        <v>75</v>
       </c>
       <c r="N29" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O29" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P29" t="n">
-        <v>12000</v>
+        <v>14400</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         </is>
       </c>
       <c r="S29" t="n">
-        <v>667</v>
+        <v>800</v>
       </c>
       <c r="T29" t="n">
         <v>18</v>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44166</v>
+        <v>44554</v>
       </c>
       <c r="E30" t="n">
         <v>13</v>
@@ -2755,7 +2755,7 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
@@ -2764,32 +2764,32 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>120</v>
+        <v>410</v>
       </c>
       <c r="N30" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O30" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P30" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S30" t="n">
-        <v>1000</v>
+        <v>778</v>
       </c>
       <c r="T30" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31">
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44166</v>
+        <v>44554</v>
       </c>
       <c r="E31" t="n">
         <v>13</v>
@@ -2835,7 +2835,7 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
@@ -2844,32 +2844,32 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>120</v>
+        <v>380</v>
       </c>
       <c r="N31" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O31" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P31" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S31" t="n">
-        <v>800</v>
+        <v>667</v>
       </c>
       <c r="T31" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32">
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44174</v>
+        <v>44166</v>
       </c>
       <c r="E32" t="n">
         <v>13</v>
@@ -2915,7 +2915,7 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>Modesto</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
@@ -2927,13 +2927,13 @@
         <v>120</v>
       </c>
       <c r="N32" t="n">
-        <v>8500</v>
+        <v>10000</v>
       </c>
       <c r="O32" t="n">
-        <v>8500</v>
+        <v>10000</v>
       </c>
       <c r="P32" t="n">
-        <v>8500</v>
+        <v>10000</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="S32" t="n">
-        <v>850</v>
+        <v>1000</v>
       </c>
       <c r="T32" t="n">
         <v>10</v>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44174</v>
+        <v>44166</v>
       </c>
       <c r="E33" t="n">
         <v>13</v>
@@ -2995,29 +2995,29 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>Modesto</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M33" t="n">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="N33" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="O33" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="P33" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
@@ -3026,10 +3026,10 @@
         </is>
       </c>
       <c r="S33" t="n">
-        <v>833</v>
+        <v>800</v>
       </c>
       <c r="T33" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34">
@@ -3080,24 +3080,24 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M34" t="n">
         <v>120</v>
       </c>
       <c r="N34" t="n">
-        <v>12000</v>
+        <v>8500</v>
       </c>
       <c r="O34" t="n">
-        <v>12000</v>
+        <v>8500</v>
       </c>
       <c r="P34" t="n">
-        <v>12000</v>
+        <v>8500</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
@@ -3106,10 +3106,10 @@
         </is>
       </c>
       <c r="S34" t="n">
-        <v>667</v>
+        <v>850</v>
       </c>
       <c r="T34" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35">
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44525</v>
+        <v>44174</v>
       </c>
       <c r="E35" t="n">
         <v>13</v>
@@ -3155,25 +3155,25 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Modesto</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M35" t="n">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="N35" t="n">
-        <v>25200</v>
+        <v>15000</v>
       </c>
       <c r="O35" t="n">
-        <v>25200</v>
+        <v>15000</v>
       </c>
       <c r="P35" t="n">
-        <v>25200</v>
+        <v>15000</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3182,11 +3182,11 @@
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S35" t="n">
-        <v>1400</v>
+        <v>833</v>
       </c>
       <c r="T35" t="n">
         <v>18</v>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44525</v>
+        <v>44174</v>
       </c>
       <c r="E36" t="n">
         <v>13</v>
@@ -3235,25 +3235,25 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Modesto</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M36" t="n">
-        <v>250</v>
+        <v>120</v>
       </c>
       <c r="N36" t="n">
-        <v>21600</v>
+        <v>12000</v>
       </c>
       <c r="O36" t="n">
-        <v>21600</v>
+        <v>12000</v>
       </c>
       <c r="P36" t="n">
-        <v>21600</v>
+        <v>12000</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -3262,11 +3262,11 @@
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S36" t="n">
-        <v>1200</v>
+        <v>667</v>
       </c>
       <c r="T36" t="n">
         <v>18</v>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44533</v>
+        <v>44525</v>
       </c>
       <c r="E37" t="n">
         <v>13</v>
@@ -3320,24 +3320,24 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M37" t="n">
-        <v>410</v>
+        <v>300</v>
       </c>
       <c r="N37" t="n">
-        <v>16500</v>
+        <v>25200</v>
       </c>
       <c r="O37" t="n">
-        <v>16500</v>
+        <v>25200</v>
       </c>
       <c r="P37" t="n">
-        <v>16500</v>
+        <v>25200</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
@@ -3346,10 +3346,10 @@
         </is>
       </c>
       <c r="S37" t="n">
-        <v>1100</v>
+        <v>1400</v>
       </c>
       <c r="T37" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38">
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44533</v>
+        <v>44525</v>
       </c>
       <c r="E38" t="n">
         <v>13</v>
@@ -3400,24 +3400,24 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M38" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="N38" t="n">
-        <v>10500</v>
+        <v>21600</v>
       </c>
       <c r="O38" t="n">
-        <v>10500</v>
+        <v>21600</v>
       </c>
       <c r="P38" t="n">
-        <v>10500</v>
+        <v>21600</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R38" t="inlineStr">
@@ -3426,10 +3426,10 @@
         </is>
       </c>
       <c r="S38" t="n">
-        <v>700</v>
+        <v>1200</v>
       </c>
       <c r="T38" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39">
@@ -3480,20 +3480,20 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M39" t="n">
-        <v>250</v>
+        <v>410</v>
       </c>
       <c r="N39" t="n">
-        <v>7500</v>
+        <v>16500</v>
       </c>
       <c r="O39" t="n">
-        <v>7500</v>
+        <v>16500</v>
       </c>
       <c r="P39" t="n">
-        <v>7500</v>
+        <v>16500</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
         </is>
       </c>
       <c r="S39" t="n">
-        <v>500</v>
+        <v>1100</v>
       </c>
       <c r="T39" t="n">
         <v>15</v>
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44176</v>
+        <v>44533</v>
       </c>
       <c r="E40" t="n">
         <v>13</v>
@@ -3555,29 +3555,29 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Modesto</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M40" t="n">
-        <v>115</v>
+        <v>300</v>
       </c>
       <c r="N40" t="n">
-        <v>11000</v>
+        <v>10500</v>
       </c>
       <c r="O40" t="n">
-        <v>12000</v>
+        <v>10500</v>
       </c>
       <c r="P40" t="n">
-        <v>11609</v>
+        <v>10500</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
@@ -3586,10 +3586,10 @@
         </is>
       </c>
       <c r="S40" t="n">
-        <v>967</v>
+        <v>700</v>
       </c>
       <c r="T40" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="41">
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44539</v>
+        <v>44533</v>
       </c>
       <c r="E41" t="n">
         <v>13</v>
@@ -3640,24 +3640,24 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M41" t="n">
-        <v>290</v>
+        <v>250</v>
       </c>
       <c r="N41" t="n">
-        <v>18000</v>
+        <v>7500</v>
       </c>
       <c r="O41" t="n">
-        <v>18000</v>
+        <v>7500</v>
       </c>
       <c r="P41" t="n">
-        <v>18000</v>
+        <v>7500</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
@@ -3666,10 +3666,10 @@
         </is>
       </c>
       <c r="S41" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="T41" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="42">
@@ -3687,7 +3687,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44539</v>
+        <v>44176</v>
       </c>
       <c r="E42" t="n">
         <v>13</v>
@@ -3715,7 +3715,7 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Modesto</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
@@ -3724,20 +3724,20 @@
         </is>
       </c>
       <c r="M42" t="n">
-        <v>300</v>
+        <v>115</v>
       </c>
       <c r="N42" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="O42" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="P42" t="n">
-        <v>16000</v>
+        <v>11609</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="R42" t="inlineStr">
@@ -3746,10 +3746,10 @@
         </is>
       </c>
       <c r="S42" t="n">
-        <v>889</v>
+        <v>967</v>
       </c>
       <c r="T42" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43">
@@ -3800,20 +3800,20 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M43" t="n">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="N43" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="O43" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="P43" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
@@ -3826,7 +3826,7 @@
         </is>
       </c>
       <c r="S43" t="n">
-        <v>778</v>
+        <v>1000</v>
       </c>
       <c r="T43" t="n">
         <v>18</v>
@@ -3847,7 +3847,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44168</v>
+        <v>44539</v>
       </c>
       <c r="E44" t="n">
         <v>13</v>
@@ -3875,41 +3875,41 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>Dina</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M44" t="n">
-        <v>40</v>
+        <v>300</v>
       </c>
       <c r="N44" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O44" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="P44" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S44" t="n">
-        <v>1400</v>
+        <v>889</v>
       </c>
       <c r="T44" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45">
@@ -3927,7 +3927,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44553</v>
+        <v>44539</v>
       </c>
       <c r="E45" t="n">
         <v>13</v>
@@ -3955,29 +3955,29 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>Dina</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M45" t="n">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="N45" t="n">
-        <v>7500</v>
+        <v>14000</v>
       </c>
       <c r="O45" t="n">
-        <v>7500</v>
+        <v>14000</v>
       </c>
       <c r="P45" t="n">
-        <v>7500</v>
+        <v>14000</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>$/bandeja 6 kilos</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
@@ -3986,10 +3986,10 @@
         </is>
       </c>
       <c r="S45" t="n">
-        <v>1250</v>
+        <v>778</v>
       </c>
       <c r="T45" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46">
@@ -4007,7 +4007,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44553</v>
+        <v>44168</v>
       </c>
       <c r="E46" t="n">
         <v>13</v>
@@ -4040,36 +4040,36 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M46" t="n">
-        <v>350</v>
+        <v>40</v>
       </c>
       <c r="N46" t="n">
-        <v>6500</v>
+        <v>14000</v>
       </c>
       <c r="O46" t="n">
-        <v>6500</v>
+        <v>14000</v>
       </c>
       <c r="P46" t="n">
-        <v>6500</v>
+        <v>14000</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>$/bandeja 6 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S46" t="n">
-        <v>1083</v>
+        <v>1400</v>
       </c>
       <c r="T46" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="47">
@@ -4115,29 +4115,29 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Dina</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M47" t="n">
-        <v>380</v>
+        <v>280</v>
       </c>
       <c r="N47" t="n">
-        <v>14000</v>
+        <v>7500</v>
       </c>
       <c r="O47" t="n">
-        <v>14000</v>
+        <v>7500</v>
       </c>
       <c r="P47" t="n">
-        <v>14000</v>
+        <v>7500</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 6 kilos</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
@@ -4146,10 +4146,10 @@
         </is>
       </c>
       <c r="S47" t="n">
-        <v>778</v>
+        <v>1250</v>
       </c>
       <c r="T47" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="48">
@@ -4195,29 +4195,29 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Dina</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M48" t="n">
-        <v>410</v>
+        <v>350</v>
       </c>
       <c r="N48" t="n">
-        <v>12000</v>
+        <v>6500</v>
       </c>
       <c r="O48" t="n">
-        <v>12000</v>
+        <v>6500</v>
       </c>
       <c r="P48" t="n">
-        <v>12000</v>
+        <v>6500</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 6 kilos</t>
         </is>
       </c>
       <c r="R48" t="inlineStr">
@@ -4226,10 +4226,10 @@
         </is>
       </c>
       <c r="S48" t="n">
-        <v>667</v>
+        <v>1083</v>
       </c>
       <c r="T48" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="49">
@@ -4247,7 +4247,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44167</v>
+        <v>44553</v>
       </c>
       <c r="E49" t="n">
         <v>13</v>
@@ -4275,29 +4275,29 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M49" t="n">
-        <v>85</v>
+        <v>380</v>
       </c>
       <c r="N49" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O49" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P49" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R49" t="inlineStr">
@@ -4306,10 +4306,10 @@
         </is>
       </c>
       <c r="S49" t="n">
-        <v>1000</v>
+        <v>778</v>
       </c>
       <c r="T49" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="50">
@@ -4327,7 +4327,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44167</v>
+        <v>44553</v>
       </c>
       <c r="E50" t="n">
         <v>13</v>
@@ -4355,29 +4355,29 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M50" t="n">
-        <v>120</v>
+        <v>410</v>
       </c>
       <c r="N50" t="n">
-        <v>9500</v>
+        <v>12000</v>
       </c>
       <c r="O50" t="n">
-        <v>9500</v>
+        <v>12000</v>
       </c>
       <c r="P50" t="n">
-        <v>9500</v>
+        <v>12000</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R50" t="inlineStr">
@@ -4386,10 +4386,10 @@
         </is>
       </c>
       <c r="S50" t="n">
-        <v>950</v>
+        <v>667</v>
       </c>
       <c r="T50" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51">
@@ -4440,24 +4440,24 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M51" t="n">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="N51" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O51" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P51" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R51" t="inlineStr">
@@ -4466,10 +4466,10 @@
         </is>
       </c>
       <c r="S51" t="n">
-        <v>833</v>
+        <v>1000</v>
       </c>
       <c r="T51" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="52">
@@ -4487,7 +4487,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44160</v>
+        <v>44167</v>
       </c>
       <c r="E52" t="n">
         <v>13</v>
@@ -4524,16 +4524,16 @@
         </is>
       </c>
       <c r="M52" t="n">
-        <v>25</v>
+        <v>120</v>
       </c>
       <c r="N52" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="O52" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="P52" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="S52" t="n">
-        <v>800</v>
+        <v>950</v>
       </c>
       <c r="T52" t="n">
         <v>10</v>
@@ -4567,7 +4567,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44160</v>
+        <v>44167</v>
       </c>
       <c r="E53" t="n">
         <v>13</v>
@@ -4600,24 +4600,24 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M53" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="N53" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="O53" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="P53" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R53" t="inlineStr">
@@ -4626,10 +4626,10 @@
         </is>
       </c>
       <c r="S53" t="n">
-        <v>700</v>
+        <v>833</v>
       </c>
       <c r="T53" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="54">
@@ -4647,7 +4647,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44551</v>
+        <v>44160</v>
       </c>
       <c r="E54" t="n">
         <v>13</v>
@@ -4675,41 +4675,41 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>Dina</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M54" t="n">
-        <v>220</v>
+        <v>25</v>
       </c>
       <c r="N54" t="n">
-        <v>18000</v>
+        <v>8000</v>
       </c>
       <c r="O54" t="n">
-        <v>18000</v>
+        <v>8000</v>
       </c>
       <c r="P54" t="n">
-        <v>18000</v>
+        <v>8000</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R54" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S54" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T54" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="55">
@@ -4727,7 +4727,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44551</v>
+        <v>44160</v>
       </c>
       <c r="E55" t="n">
         <v>13</v>
@@ -4755,41 +4755,41 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>Dina</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M55" t="n">
-        <v>350</v>
+        <v>40</v>
       </c>
       <c r="N55" t="n">
-        <v>14400</v>
+        <v>7000</v>
       </c>
       <c r="O55" t="n">
-        <v>14400</v>
+        <v>7000</v>
       </c>
       <c r="P55" t="n">
-        <v>14400</v>
+        <v>7000</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R55" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S55" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="T55" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="56">
@@ -4807,7 +4807,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44519</v>
+        <v>44551</v>
       </c>
       <c r="E56" t="n">
         <v>13</v>
@@ -4835,41 +4835,41 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Dina</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M56" t="n">
-        <v>300</v>
+        <v>220</v>
       </c>
       <c r="N56" t="n">
-        <v>22500</v>
+        <v>18000</v>
       </c>
       <c r="O56" t="n">
-        <v>22500</v>
+        <v>18000</v>
       </c>
       <c r="P56" t="n">
-        <v>22500</v>
+        <v>18000</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R56" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S56" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="T56" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="57">
@@ -4887,7 +4887,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44187</v>
+        <v>44551</v>
       </c>
       <c r="E57" t="n">
         <v>13</v>
@@ -4915,7 +4915,7 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Dina</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
@@ -4924,32 +4924,32 @@
         </is>
       </c>
       <c r="M57" t="n">
-        <v>80</v>
+        <v>350</v>
       </c>
       <c r="N57" t="n">
-        <v>15000</v>
+        <v>14400</v>
       </c>
       <c r="O57" t="n">
-        <v>15000</v>
+        <v>14400</v>
       </c>
       <c r="P57" t="n">
-        <v>15000</v>
+        <v>14400</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R57" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S57" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T57" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="58">
@@ -4967,7 +4967,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44187</v>
+        <v>44519</v>
       </c>
       <c r="E58" t="n">
         <v>13</v>
@@ -4995,25 +4995,25 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M58" t="n">
-        <v>95</v>
+        <v>300</v>
       </c>
       <c r="N58" t="n">
-        <v>13500</v>
+        <v>22500</v>
       </c>
       <c r="O58" t="n">
-        <v>13500</v>
+        <v>22500</v>
       </c>
       <c r="P58" t="n">
-        <v>13500</v>
+        <v>22500</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
@@ -5022,11 +5022,11 @@
       </c>
       <c r="R58" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S58" t="n">
-        <v>900</v>
+        <v>1500</v>
       </c>
       <c r="T58" t="n">
         <v>15</v>
@@ -5080,20 +5080,20 @@
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M59" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="N59" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O59" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P59" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
@@ -5106,7 +5106,7 @@
         </is>
       </c>
       <c r="S59" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T59" t="n">
         <v>15</v>
@@ -5127,7 +5127,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44175</v>
+        <v>44187</v>
       </c>
       <c r="E60" t="n">
         <v>13</v>
@@ -5155,29 +5155,29 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>Modesto</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M60" t="n">
-        <v>140</v>
+        <v>95</v>
       </c>
       <c r="N60" t="n">
-        <v>11000</v>
+        <v>13500</v>
       </c>
       <c r="O60" t="n">
-        <v>12000</v>
+        <v>13500</v>
       </c>
       <c r="P60" t="n">
-        <v>11571</v>
+        <v>13500</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R60" t="inlineStr">
@@ -5186,10 +5186,10 @@
         </is>
       </c>
       <c r="S60" t="n">
-        <v>964</v>
+        <v>900</v>
       </c>
       <c r="T60" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="61">
@@ -5207,7 +5207,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44195</v>
+        <v>44187</v>
       </c>
       <c r="E61" t="n">
         <v>13</v>
@@ -5240,24 +5240,24 @@
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M61" t="n">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="N61" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O61" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P61" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R61" t="inlineStr">
@@ -5266,7 +5266,7 @@
         </is>
       </c>
       <c r="S61" t="n">
-        <v>867</v>
+        <v>800</v>
       </c>
       <c r="T61" t="n">
         <v>15</v>
@@ -5287,7 +5287,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44536</v>
+        <v>44175</v>
       </c>
       <c r="E62" t="n">
         <v>13</v>
@@ -5315,7 +5315,7 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Modesto</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
@@ -5324,32 +5324,32 @@
         </is>
       </c>
       <c r="M62" t="n">
-        <v>220</v>
+        <v>140</v>
       </c>
       <c r="N62" t="n">
         <v>11000</v>
       </c>
       <c r="O62" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P62" t="n">
-        <v>11000</v>
+        <v>11571</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="R62" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S62" t="n">
-        <v>1100</v>
+        <v>964</v>
       </c>
       <c r="T62" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63">
@@ -5367,7 +5367,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44536</v>
+        <v>44195</v>
       </c>
       <c r="E63" t="n">
         <v>13</v>
@@ -5395,41 +5395,41 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M63" t="n">
-        <v>250</v>
+        <v>124</v>
       </c>
       <c r="N63" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="O63" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="P63" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R63" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S63" t="n">
-        <v>700</v>
+        <v>867</v>
       </c>
       <c r="T63" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="64">
@@ -5447,7 +5447,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44194</v>
+        <v>44536</v>
       </c>
       <c r="E64" t="n">
         <v>13</v>
@@ -5475,7 +5475,7 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
@@ -5484,32 +5484,32 @@
         </is>
       </c>
       <c r="M64" t="n">
-        <v>120</v>
+        <v>220</v>
       </c>
       <c r="N64" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O64" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P64" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R64" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S64" t="n">
-        <v>867</v>
+        <v>1100</v>
       </c>
       <c r="T64" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="65">
@@ -5527,7 +5527,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44540</v>
+        <v>44536</v>
       </c>
       <c r="E65" t="n">
         <v>13</v>
@@ -5560,24 +5560,24 @@
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M65" t="n">
-        <v>330</v>
+        <v>250</v>
       </c>
       <c r="N65" t="n">
-        <v>16000</v>
+        <v>7000</v>
       </c>
       <c r="O65" t="n">
-        <v>16000</v>
+        <v>7000</v>
       </c>
       <c r="P65" t="n">
-        <v>16000</v>
+        <v>7000</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R65" t="inlineStr">
@@ -5586,10 +5586,10 @@
         </is>
       </c>
       <c r="S65" t="n">
-        <v>889</v>
+        <v>700</v>
       </c>
       <c r="T65" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="66">
@@ -5607,68 +5607,228 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
+        <v>44194</v>
+      </c>
+      <c r="E66" t="n">
+        <v>13</v>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G66" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I66" t="n">
+        <v>100103003</v>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>Damasco</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>Patterson</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M66" t="n">
+        <v>120</v>
+      </c>
+      <c r="N66" t="n">
+        <v>13000</v>
+      </c>
+      <c r="O66" t="n">
+        <v>13000</v>
+      </c>
+      <c r="P66" t="n">
+        <v>13000</v>
+      </c>
+      <c r="Q66" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="R66" t="inlineStr">
+        <is>
+          <t>Provincia de San Felipe de Aconcagua</t>
+        </is>
+      </c>
+      <c r="S66" t="n">
+        <v>867</v>
+      </c>
+      <c r="T66" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>9</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D67" s="2" t="n">
         <v>44540</v>
       </c>
-      <c r="E66" t="n">
-        <v>13</v>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G66" t="n">
-        <v>100103</v>
-      </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>Frutos de hueso (carozo)</t>
-        </is>
-      </c>
-      <c r="I66" t="n">
-        <v>100103003</v>
-      </c>
-      <c r="J66" t="inlineStr">
-        <is>
-          <t>Damasco</t>
-        </is>
-      </c>
-      <c r="K66" t="inlineStr">
+      <c r="E67" t="n">
+        <v>13</v>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G67" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I67" t="n">
+        <v>100103003</v>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>Damasco</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
         <is>
           <t>Castle Brite</t>
         </is>
       </c>
-      <c r="L66" t="inlineStr">
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M67" t="n">
+        <v>330</v>
+      </c>
+      <c r="N67" t="n">
+        <v>16000</v>
+      </c>
+      <c r="O67" t="n">
+        <v>16000</v>
+      </c>
+      <c r="P67" t="n">
+        <v>16000</v>
+      </c>
+      <c r="Q67" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="R67" t="inlineStr">
+        <is>
+          <t>Provincia de Los Andes</t>
+        </is>
+      </c>
+      <c r="S67" t="n">
+        <v>889</v>
+      </c>
+      <c r="T67" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>9</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D68" s="2" t="n">
+        <v>44540</v>
+      </c>
+      <c r="E68" t="n">
+        <v>13</v>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G68" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I68" t="n">
+        <v>100103003</v>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>Damasco</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>Castle Brite</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="M66" t="n">
+      <c r="M68" t="n">
         <v>280</v>
       </c>
-      <c r="N66" t="n">
+      <c r="N68" t="n">
         <v>14000</v>
       </c>
-      <c r="O66" t="n">
+      <c r="O68" t="n">
         <v>14000</v>
       </c>
-      <c r="P66" t="n">
+      <c r="P68" t="n">
         <v>14000</v>
       </c>
-      <c r="Q66" t="inlineStr">
+      <c r="Q68" t="inlineStr">
         <is>
           <t>$/caja 18 kilos</t>
         </is>
       </c>
-      <c r="R66" t="inlineStr">
+      <c r="R68" t="inlineStr">
         <is>
           <t>Provincia de Los Andes</t>
         </is>
       </c>
-      <c r="S66" t="n">
+      <c r="S68" t="n">
         <v>778</v>
       </c>
-      <c r="T66" t="n">
+      <c r="T68" t="n">
         <v>18</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Damasco.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Damasco.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T68"/>
+  <dimension ref="A1:T72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44159</v>
+        <v>44558</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1555,41 +1555,41 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Helena</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>80</v>
+        <v>330</v>
       </c>
       <c r="N15" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="O15" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="P15" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S15" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T15" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16">
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44159</v>
+        <v>44558</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1635,41 +1635,41 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Helena</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>65</v>
+        <v>350</v>
       </c>
       <c r="N16" t="n">
-        <v>7000</v>
+        <v>12800</v>
       </c>
       <c r="O16" t="n">
-        <v>7000</v>
+        <v>12800</v>
       </c>
       <c r="P16" t="n">
-        <v>7000</v>
+        <v>12800</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S16" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="T16" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17">
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44523</v>
+        <v>44558</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1715,7 +1715,7 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
@@ -1724,20 +1724,20 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>320</v>
+        <v>410</v>
       </c>
       <c r="N17" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O17" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P17" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
@@ -1746,10 +1746,10 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>1000</v>
+        <v>778</v>
       </c>
       <c r="T17" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18">
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44189</v>
+        <v>44558</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1800,11 +1800,11 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>130</v>
+        <v>380</v>
       </c>
       <c r="N18" t="n">
         <v>12000</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44169</v>
+        <v>44159</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
@@ -1875,7 +1875,7 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Dina</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
@@ -1887,13 +1887,13 @@
         <v>80</v>
       </c>
       <c r="N19" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O19" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P19" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1902,11 +1902,11 @@
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S19" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T19" t="n">
         <v>10</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44544</v>
+        <v>44159</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1955,29 +1955,29 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Dina</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>330</v>
+        <v>65</v>
       </c>
       <c r="N20" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="O20" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="P20" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
@@ -1986,10 +1986,10 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="T20" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21">
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44544</v>
+        <v>44523</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -2035,7 +2035,7 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Dina</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
@@ -2044,20 +2044,20 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>350</v>
+        <v>320</v>
       </c>
       <c r="N21" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O21" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P21" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
@@ -2066,10 +2066,10 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T21" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22">
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44557</v>
+        <v>44189</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
@@ -2120,36 +2120,36 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>380</v>
+        <v>130</v>
       </c>
       <c r="N22" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O22" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P22" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S22" t="n">
-        <v>1000</v>
+        <v>667</v>
       </c>
       <c r="T22" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23">
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44557</v>
+        <v>44169</v>
       </c>
       <c r="E23" t="n">
         <v>13</v>
@@ -2195,7 +2195,7 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Dina</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
@@ -2204,32 +2204,32 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>330</v>
+        <v>80</v>
       </c>
       <c r="N23" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O23" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P23" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S23" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T23" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24">
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44537</v>
+        <v>44544</v>
       </c>
       <c r="E24" t="n">
         <v>13</v>
@@ -2275,29 +2275,29 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Dina</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M24" t="n">
-        <v>400</v>
+        <v>330</v>
       </c>
       <c r="N24" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="O24" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P24" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
@@ -2306,10 +2306,10 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>889</v>
+        <v>1000</v>
       </c>
       <c r="T24" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25">
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44546</v>
+        <v>44544</v>
       </c>
       <c r="E25" t="n">
         <v>13</v>
@@ -2360,11 +2360,11 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>380</v>
+        <v>350</v>
       </c>
       <c r="N25" t="n">
         <v>12000</v>
@@ -2377,19 +2377,19 @@
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S25" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="T25" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26">
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44546</v>
+        <v>44557</v>
       </c>
       <c r="E26" t="n">
         <v>13</v>
@@ -2435,29 +2435,29 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Dina</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M26" t="n">
-        <v>330</v>
+        <v>380</v>
       </c>
       <c r="N26" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O26" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P26" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
@@ -2469,7 +2469,7 @@
         <v>1000</v>
       </c>
       <c r="T26" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27">
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44546</v>
+        <v>44557</v>
       </c>
       <c r="E27" t="n">
         <v>13</v>
@@ -2515,29 +2515,29 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Dina</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M27" t="n">
-        <v>300</v>
+        <v>330</v>
       </c>
       <c r="N27" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O27" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P27" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
@@ -2549,7 +2549,7 @@
         <v>800</v>
       </c>
       <c r="T27" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28">
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44162</v>
+        <v>44537</v>
       </c>
       <c r="E28" t="n">
         <v>13</v>
@@ -2604,20 +2604,20 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>70</v>
+        <v>400</v>
       </c>
       <c r="N28" t="n">
-        <v>8500</v>
+        <v>16000</v>
       </c>
       <c r="O28" t="n">
-        <v>8500</v>
+        <v>16000</v>
       </c>
       <c r="P28" t="n">
-        <v>8500</v>
+        <v>16000</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
@@ -2626,10 +2626,10 @@
         </is>
       </c>
       <c r="S28" t="n">
-        <v>850</v>
+        <v>889</v>
       </c>
       <c r="T28" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29">
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44162</v>
+        <v>44546</v>
       </c>
       <c r="E29" t="n">
         <v>13</v>
@@ -2675,41 +2675,41 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Dina</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>75</v>
+        <v>380</v>
       </c>
       <c r="N29" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O29" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P29" t="n">
-        <v>14400</v>
+        <v>12000</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S29" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="T29" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30">
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44554</v>
+        <v>44546</v>
       </c>
       <c r="E30" t="n">
         <v>13</v>
@@ -2755,7 +2755,7 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Dina</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
@@ -2764,32 +2764,32 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>410</v>
+        <v>330</v>
       </c>
       <c r="N30" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O30" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P30" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S30" t="n">
-        <v>778</v>
+        <v>1000</v>
       </c>
       <c r="T30" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31">
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44554</v>
+        <v>44546</v>
       </c>
       <c r="E31" t="n">
         <v>13</v>
@@ -2835,7 +2835,7 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Dina</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
@@ -2844,32 +2844,32 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>380</v>
+        <v>300</v>
       </c>
       <c r="N31" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O31" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P31" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S31" t="n">
-        <v>667</v>
+        <v>800</v>
       </c>
       <c r="T31" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32">
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44166</v>
+        <v>44162</v>
       </c>
       <c r="E32" t="n">
         <v>13</v>
@@ -2924,16 +2924,16 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="N32" t="n">
-        <v>10000</v>
+        <v>8500</v>
       </c>
       <c r="O32" t="n">
-        <v>10000</v>
+        <v>8500</v>
       </c>
       <c r="P32" t="n">
-        <v>10000</v>
+        <v>8500</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -2942,11 +2942,11 @@
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S32" t="n">
-        <v>1000</v>
+        <v>850</v>
       </c>
       <c r="T32" t="n">
         <v>10</v>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44166</v>
+        <v>44162</v>
       </c>
       <c r="E33" t="n">
         <v>13</v>
@@ -3000,36 +3000,36 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M33" t="n">
-        <v>120</v>
+        <v>75</v>
       </c>
       <c r="N33" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="O33" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="P33" t="n">
-        <v>8000</v>
+        <v>14400</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S33" t="n">
         <v>800</v>
       </c>
       <c r="T33" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34">
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44174</v>
+        <v>44554</v>
       </c>
       <c r="E34" t="n">
         <v>13</v>
@@ -3075,7 +3075,7 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>Modesto</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
@@ -3084,32 +3084,32 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>120</v>
+        <v>410</v>
       </c>
       <c r="N34" t="n">
-        <v>8500</v>
+        <v>14000</v>
       </c>
       <c r="O34" t="n">
-        <v>8500</v>
+        <v>14000</v>
       </c>
       <c r="P34" t="n">
-        <v>8500</v>
+        <v>14000</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S34" t="n">
-        <v>850</v>
+        <v>778</v>
       </c>
       <c r="T34" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35">
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44174</v>
+        <v>44554</v>
       </c>
       <c r="E35" t="n">
         <v>13</v>
@@ -3155,25 +3155,25 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>Modesto</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M35" t="n">
-        <v>180</v>
+        <v>380</v>
       </c>
       <c r="N35" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O35" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P35" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3182,11 +3182,11 @@
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S35" t="n">
-        <v>833</v>
+        <v>667</v>
       </c>
       <c r="T35" t="n">
         <v>18</v>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44174</v>
+        <v>44166</v>
       </c>
       <c r="E36" t="n">
         <v>13</v>
@@ -3235,29 +3235,29 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>Modesto</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M36" t="n">
         <v>120</v>
       </c>
       <c r="N36" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O36" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P36" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
@@ -3266,10 +3266,10 @@
         </is>
       </c>
       <c r="S36" t="n">
-        <v>667</v>
+        <v>1000</v>
       </c>
       <c r="T36" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37">
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44525</v>
+        <v>44166</v>
       </c>
       <c r="E37" t="n">
         <v>13</v>
@@ -3320,36 +3320,36 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M37" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="N37" t="n">
-        <v>25200</v>
+        <v>8000</v>
       </c>
       <c r="O37" t="n">
-        <v>25200</v>
+        <v>8000</v>
       </c>
       <c r="P37" t="n">
-        <v>25200</v>
+        <v>8000</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S37" t="n">
-        <v>1400</v>
+        <v>800</v>
       </c>
       <c r="T37" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38">
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44525</v>
+        <v>44174</v>
       </c>
       <c r="E38" t="n">
         <v>13</v>
@@ -3395,7 +3395,7 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Modesto</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
@@ -3404,32 +3404,32 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>250</v>
+        <v>120</v>
       </c>
       <c r="N38" t="n">
-        <v>21600</v>
+        <v>8500</v>
       </c>
       <c r="O38" t="n">
-        <v>21600</v>
+        <v>8500</v>
       </c>
       <c r="P38" t="n">
-        <v>21600</v>
+        <v>8500</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S38" t="n">
-        <v>1200</v>
+        <v>850</v>
       </c>
       <c r="T38" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39">
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44533</v>
+        <v>44174</v>
       </c>
       <c r="E39" t="n">
         <v>13</v>
@@ -3475,7 +3475,7 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Modesto</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
@@ -3484,32 +3484,32 @@
         </is>
       </c>
       <c r="M39" t="n">
-        <v>410</v>
+        <v>180</v>
       </c>
       <c r="N39" t="n">
-        <v>16500</v>
+        <v>15000</v>
       </c>
       <c r="O39" t="n">
-        <v>16500</v>
+        <v>15000</v>
       </c>
       <c r="P39" t="n">
-        <v>16500</v>
+        <v>15000</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S39" t="n">
-        <v>1100</v>
+        <v>833</v>
       </c>
       <c r="T39" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40">
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44533</v>
+        <v>44174</v>
       </c>
       <c r="E40" t="n">
         <v>13</v>
@@ -3555,7 +3555,7 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Modesto</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
@@ -3564,32 +3564,32 @@
         </is>
       </c>
       <c r="M40" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="N40" t="n">
-        <v>10500</v>
+        <v>12000</v>
       </c>
       <c r="O40" t="n">
-        <v>10500</v>
+        <v>12000</v>
       </c>
       <c r="P40" t="n">
-        <v>10500</v>
+        <v>12000</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S40" t="n">
-        <v>700</v>
+        <v>667</v>
       </c>
       <c r="T40" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41">
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44533</v>
+        <v>44525</v>
       </c>
       <c r="E41" t="n">
         <v>13</v>
@@ -3640,24 +3640,24 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M41" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="N41" t="n">
-        <v>7500</v>
+        <v>25200</v>
       </c>
       <c r="O41" t="n">
-        <v>7500</v>
+        <v>25200</v>
       </c>
       <c r="P41" t="n">
-        <v>7500</v>
+        <v>25200</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
@@ -3666,10 +3666,10 @@
         </is>
       </c>
       <c r="S41" t="n">
-        <v>500</v>
+        <v>1400</v>
       </c>
       <c r="T41" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42">
@@ -3687,7 +3687,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44176</v>
+        <v>44525</v>
       </c>
       <c r="E42" t="n">
         <v>13</v>
@@ -3715,7 +3715,7 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Modesto</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
@@ -3724,20 +3724,20 @@
         </is>
       </c>
       <c r="M42" t="n">
-        <v>115</v>
+        <v>250</v>
       </c>
       <c r="N42" t="n">
-        <v>11000</v>
+        <v>21600</v>
       </c>
       <c r="O42" t="n">
-        <v>12000</v>
+        <v>21600</v>
       </c>
       <c r="P42" t="n">
-        <v>11609</v>
+        <v>21600</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R42" t="inlineStr">
@@ -3746,10 +3746,10 @@
         </is>
       </c>
       <c r="S42" t="n">
-        <v>967</v>
+        <v>1200</v>
       </c>
       <c r="T42" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43">
@@ -3767,7 +3767,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44539</v>
+        <v>44533</v>
       </c>
       <c r="E43" t="n">
         <v>13</v>
@@ -3800,24 +3800,24 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M43" t="n">
-        <v>290</v>
+        <v>410</v>
       </c>
       <c r="N43" t="n">
-        <v>18000</v>
+        <v>16500</v>
       </c>
       <c r="O43" t="n">
-        <v>18000</v>
+        <v>16500</v>
       </c>
       <c r="P43" t="n">
-        <v>18000</v>
+        <v>16500</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
@@ -3826,10 +3826,10 @@
         </is>
       </c>
       <c r="S43" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="T43" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="44">
@@ -3847,7 +3847,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44539</v>
+        <v>44533</v>
       </c>
       <c r="E44" t="n">
         <v>13</v>
@@ -3880,24 +3880,24 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M44" t="n">
         <v>300</v>
       </c>
       <c r="N44" t="n">
-        <v>16000</v>
+        <v>10500</v>
       </c>
       <c r="O44" t="n">
-        <v>16000</v>
+        <v>10500</v>
       </c>
       <c r="P44" t="n">
-        <v>16000</v>
+        <v>10500</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
@@ -3906,10 +3906,10 @@
         </is>
       </c>
       <c r="S44" t="n">
-        <v>889</v>
+        <v>700</v>
       </c>
       <c r="T44" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="45">
@@ -3927,7 +3927,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44539</v>
+        <v>44533</v>
       </c>
       <c r="E45" t="n">
         <v>13</v>
@@ -3960,24 +3960,24 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M45" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="N45" t="n">
-        <v>14000</v>
+        <v>7500</v>
       </c>
       <c r="O45" t="n">
-        <v>14000</v>
+        <v>7500</v>
       </c>
       <c r="P45" t="n">
-        <v>14000</v>
+        <v>7500</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
@@ -3986,10 +3986,10 @@
         </is>
       </c>
       <c r="S45" t="n">
-        <v>778</v>
+        <v>500</v>
       </c>
       <c r="T45" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="46">
@@ -4007,7 +4007,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44168</v>
+        <v>44176</v>
       </c>
       <c r="E46" t="n">
         <v>13</v>
@@ -4035,41 +4035,41 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Dina</t>
+          <t>Modesto</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M46" t="n">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="N46" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="O46" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P46" t="n">
-        <v>14000</v>
+        <v>11609</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S46" t="n">
-        <v>1400</v>
+        <v>967</v>
       </c>
       <c r="T46" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47">
@@ -4087,7 +4087,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44553</v>
+        <v>44539</v>
       </c>
       <c r="E47" t="n">
         <v>13</v>
@@ -4115,7 +4115,7 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>Dina</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
@@ -4124,20 +4124,20 @@
         </is>
       </c>
       <c r="M47" t="n">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="N47" t="n">
-        <v>7500</v>
+        <v>18000</v>
       </c>
       <c r="O47" t="n">
-        <v>7500</v>
+        <v>18000</v>
       </c>
       <c r="P47" t="n">
-        <v>7500</v>
+        <v>18000</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>$/bandeja 6 kilos</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
@@ -4146,10 +4146,10 @@
         </is>
       </c>
       <c r="S47" t="n">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="T47" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="48">
@@ -4167,7 +4167,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44553</v>
+        <v>44539</v>
       </c>
       <c r="E48" t="n">
         <v>13</v>
@@ -4195,7 +4195,7 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>Dina</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
@@ -4204,20 +4204,20 @@
         </is>
       </c>
       <c r="M48" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="N48" t="n">
-        <v>6500</v>
+        <v>16000</v>
       </c>
       <c r="O48" t="n">
-        <v>6500</v>
+        <v>16000</v>
       </c>
       <c r="P48" t="n">
-        <v>6500</v>
+        <v>16000</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>$/bandeja 6 kilos</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R48" t="inlineStr">
@@ -4226,10 +4226,10 @@
         </is>
       </c>
       <c r="S48" t="n">
-        <v>1083</v>
+        <v>889</v>
       </c>
       <c r="T48" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="49">
@@ -4247,7 +4247,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44553</v>
+        <v>44539</v>
       </c>
       <c r="E49" t="n">
         <v>13</v>
@@ -4275,16 +4275,16 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M49" t="n">
-        <v>380</v>
+        <v>300</v>
       </c>
       <c r="N49" t="n">
         <v>14000</v>
@@ -4297,7 +4297,7 @@
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R49" t="inlineStr">
@@ -4327,7 +4327,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44553</v>
+        <v>44168</v>
       </c>
       <c r="E50" t="n">
         <v>13</v>
@@ -4355,41 +4355,41 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Dina</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M50" t="n">
-        <v>410</v>
+        <v>40</v>
       </c>
       <c r="N50" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O50" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P50" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R50" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S50" t="n">
-        <v>667</v>
+        <v>1400</v>
       </c>
       <c r="T50" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="51">
@@ -4407,7 +4407,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44167</v>
+        <v>44553</v>
       </c>
       <c r="E51" t="n">
         <v>13</v>
@@ -4435,7 +4435,7 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Dina</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
@@ -4444,20 +4444,20 @@
         </is>
       </c>
       <c r="M51" t="n">
-        <v>85</v>
+        <v>280</v>
       </c>
       <c r="N51" t="n">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="O51" t="n">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="P51" t="n">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 6 kilos</t>
         </is>
       </c>
       <c r="R51" t="inlineStr">
@@ -4466,10 +4466,10 @@
         </is>
       </c>
       <c r="S51" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="T51" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="52">
@@ -4487,7 +4487,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44167</v>
+        <v>44553</v>
       </c>
       <c r="E52" t="n">
         <v>13</v>
@@ -4515,7 +4515,7 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Dina</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
@@ -4524,20 +4524,20 @@
         </is>
       </c>
       <c r="M52" t="n">
-        <v>120</v>
+        <v>350</v>
       </c>
       <c r="N52" t="n">
-        <v>9500</v>
+        <v>6500</v>
       </c>
       <c r="O52" t="n">
-        <v>9500</v>
+        <v>6500</v>
       </c>
       <c r="P52" t="n">
-        <v>9500</v>
+        <v>6500</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 6 kilos</t>
         </is>
       </c>
       <c r="R52" t="inlineStr">
@@ -4546,10 +4546,10 @@
         </is>
       </c>
       <c r="S52" t="n">
-        <v>950</v>
+        <v>1083</v>
       </c>
       <c r="T52" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="53">
@@ -4567,7 +4567,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44167</v>
+        <v>44553</v>
       </c>
       <c r="E53" t="n">
         <v>13</v>
@@ -4595,7 +4595,7 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
@@ -4604,16 +4604,16 @@
         </is>
       </c>
       <c r="M53" t="n">
-        <v>60</v>
+        <v>380</v>
       </c>
       <c r="N53" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="O53" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P53" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
@@ -4626,7 +4626,7 @@
         </is>
       </c>
       <c r="S53" t="n">
-        <v>833</v>
+        <v>778</v>
       </c>
       <c r="T53" t="n">
         <v>18</v>
@@ -4647,7 +4647,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44160</v>
+        <v>44553</v>
       </c>
       <c r="E54" t="n">
         <v>13</v>
@@ -4675,29 +4675,29 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M54" t="n">
-        <v>25</v>
+        <v>410</v>
       </c>
       <c r="N54" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O54" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P54" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R54" t="inlineStr">
@@ -4706,10 +4706,10 @@
         </is>
       </c>
       <c r="S54" t="n">
-        <v>800</v>
+        <v>667</v>
       </c>
       <c r="T54" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55">
@@ -4727,7 +4727,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44160</v>
+        <v>44167</v>
       </c>
       <c r="E55" t="n">
         <v>13</v>
@@ -4760,20 +4760,20 @@
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M55" t="n">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="N55" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O55" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P55" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
@@ -4786,7 +4786,7 @@
         </is>
       </c>
       <c r="S55" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="T55" t="n">
         <v>10</v>
@@ -4807,7 +4807,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44551</v>
+        <v>44167</v>
       </c>
       <c r="E56" t="n">
         <v>13</v>
@@ -4835,41 +4835,41 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>Dina</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M56" t="n">
-        <v>220</v>
+        <v>120</v>
       </c>
       <c r="N56" t="n">
-        <v>18000</v>
+        <v>9500</v>
       </c>
       <c r="O56" t="n">
-        <v>18000</v>
+        <v>9500</v>
       </c>
       <c r="P56" t="n">
-        <v>18000</v>
+        <v>9500</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R56" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S56" t="n">
-        <v>1000</v>
+        <v>950</v>
       </c>
       <c r="T56" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="57">
@@ -4887,7 +4887,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44551</v>
+        <v>44167</v>
       </c>
       <c r="E57" t="n">
         <v>13</v>
@@ -4915,7 +4915,7 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>Dina</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
@@ -4924,29 +4924,29 @@
         </is>
       </c>
       <c r="M57" t="n">
-        <v>350</v>
+        <v>60</v>
       </c>
       <c r="N57" t="n">
-        <v>14400</v>
+        <v>15000</v>
       </c>
       <c r="O57" t="n">
-        <v>14400</v>
+        <v>15000</v>
       </c>
       <c r="P57" t="n">
-        <v>14400</v>
+        <v>15000</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R57" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S57" t="n">
-        <v>800</v>
+        <v>833</v>
       </c>
       <c r="T57" t="n">
         <v>18</v>
@@ -4967,7 +4967,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44519</v>
+        <v>44160</v>
       </c>
       <c r="E58" t="n">
         <v>13</v>
@@ -5004,32 +5004,32 @@
         </is>
       </c>
       <c r="M58" t="n">
-        <v>300</v>
+        <v>25</v>
       </c>
       <c r="N58" t="n">
-        <v>22500</v>
+        <v>8000</v>
       </c>
       <c r="O58" t="n">
-        <v>22500</v>
+        <v>8000</v>
       </c>
       <c r="P58" t="n">
-        <v>22500</v>
+        <v>8000</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R58" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S58" t="n">
-        <v>1500</v>
+        <v>800</v>
       </c>
       <c r="T58" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="59">
@@ -5047,7 +5047,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44187</v>
+        <v>44160</v>
       </c>
       <c r="E59" t="n">
         <v>13</v>
@@ -5075,29 +5075,29 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M59" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="N59" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="O59" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="P59" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R59" t="inlineStr">
@@ -5106,10 +5106,10 @@
         </is>
       </c>
       <c r="S59" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="T59" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="60">
@@ -5127,7 +5127,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44187</v>
+        <v>44551</v>
       </c>
       <c r="E60" t="n">
         <v>13</v>
@@ -5155,41 +5155,41 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Dina</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M60" t="n">
-        <v>95</v>
+        <v>220</v>
       </c>
       <c r="N60" t="n">
-        <v>13500</v>
+        <v>18000</v>
       </c>
       <c r="O60" t="n">
-        <v>13500</v>
+        <v>18000</v>
       </c>
       <c r="P60" t="n">
-        <v>13500</v>
+        <v>18000</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R60" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S60" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="T60" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="61">
@@ -5207,7 +5207,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44187</v>
+        <v>44551</v>
       </c>
       <c r="E61" t="n">
         <v>13</v>
@@ -5235,41 +5235,41 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Dina</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M61" t="n">
-        <v>120</v>
+        <v>350</v>
       </c>
       <c r="N61" t="n">
-        <v>12000</v>
+        <v>14400</v>
       </c>
       <c r="O61" t="n">
-        <v>12000</v>
+        <v>14400</v>
       </c>
       <c r="P61" t="n">
-        <v>12000</v>
+        <v>14400</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R61" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S61" t="n">
         <v>800</v>
       </c>
       <c r="T61" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="62">
@@ -5287,7 +5287,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44175</v>
+        <v>44519</v>
       </c>
       <c r="E62" t="n">
         <v>13</v>
@@ -5315,7 +5315,7 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>Modesto</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
@@ -5324,32 +5324,32 @@
         </is>
       </c>
       <c r="M62" t="n">
-        <v>140</v>
+        <v>300</v>
       </c>
       <c r="N62" t="n">
-        <v>11000</v>
+        <v>22500</v>
       </c>
       <c r="O62" t="n">
-        <v>12000</v>
+        <v>22500</v>
       </c>
       <c r="P62" t="n">
-        <v>11571</v>
+        <v>22500</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R62" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S62" t="n">
-        <v>964</v>
+        <v>1500</v>
       </c>
       <c r="T62" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="63">
@@ -5367,7 +5367,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44195</v>
+        <v>44187</v>
       </c>
       <c r="E63" t="n">
         <v>13</v>
@@ -5404,20 +5404,20 @@
         </is>
       </c>
       <c r="M63" t="n">
-        <v>124</v>
+        <v>80</v>
       </c>
       <c r="N63" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O63" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P63" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R63" t="inlineStr">
@@ -5426,7 +5426,7 @@
         </is>
       </c>
       <c r="S63" t="n">
-        <v>867</v>
+        <v>1000</v>
       </c>
       <c r="T63" t="n">
         <v>15</v>
@@ -5447,7 +5447,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44536</v>
+        <v>44187</v>
       </c>
       <c r="E64" t="n">
         <v>13</v>
@@ -5475,41 +5475,41 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M64" t="n">
-        <v>220</v>
+        <v>95</v>
       </c>
       <c r="N64" t="n">
-        <v>11000</v>
+        <v>13500</v>
       </c>
       <c r="O64" t="n">
-        <v>11000</v>
+        <v>13500</v>
       </c>
       <c r="P64" t="n">
-        <v>11000</v>
+        <v>13500</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R64" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S64" t="n">
-        <v>1100</v>
+        <v>900</v>
       </c>
       <c r="T64" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="65">
@@ -5527,7 +5527,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44536</v>
+        <v>44187</v>
       </c>
       <c r="E65" t="n">
         <v>13</v>
@@ -5555,41 +5555,41 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M65" t="n">
-        <v>250</v>
+        <v>120</v>
       </c>
       <c r="N65" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="O65" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="P65" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R65" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S65" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="T65" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="66">
@@ -5607,7 +5607,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44194</v>
+        <v>44175</v>
       </c>
       <c r="E66" t="n">
         <v>13</v>
@@ -5635,7 +5635,7 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Modesto</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
@@ -5644,20 +5644,20 @@
         </is>
       </c>
       <c r="M66" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="N66" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O66" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P66" t="n">
-        <v>13000</v>
+        <v>11571</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="R66" t="inlineStr">
@@ -5666,10 +5666,10 @@
         </is>
       </c>
       <c r="S66" t="n">
-        <v>867</v>
+        <v>964</v>
       </c>
       <c r="T66" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67">
@@ -5687,7 +5687,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44540</v>
+        <v>44195</v>
       </c>
       <c r="E67" t="n">
         <v>13</v>
@@ -5715,7 +5715,7 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
@@ -5724,32 +5724,32 @@
         </is>
       </c>
       <c r="M67" t="n">
-        <v>330</v>
+        <v>124</v>
       </c>
       <c r="N67" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="O67" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="P67" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R67" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S67" t="n">
-        <v>889</v>
+        <v>867</v>
       </c>
       <c r="T67" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="68">
@@ -5767,68 +5767,388 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
+        <v>44536</v>
+      </c>
+      <c r="E68" t="n">
+        <v>13</v>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G68" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I68" t="n">
+        <v>100103003</v>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>Damasco</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>Castle Brite</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M68" t="n">
+        <v>220</v>
+      </c>
+      <c r="N68" t="n">
+        <v>11000</v>
+      </c>
+      <c r="O68" t="n">
+        <v>11000</v>
+      </c>
+      <c r="P68" t="n">
+        <v>11000</v>
+      </c>
+      <c r="Q68" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R68" t="inlineStr">
+        <is>
+          <t>Provincia de Los Andes</t>
+        </is>
+      </c>
+      <c r="S68" t="n">
+        <v>1100</v>
+      </c>
+      <c r="T68" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>9</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D69" s="2" t="n">
+        <v>44536</v>
+      </c>
+      <c r="E69" t="n">
+        <v>13</v>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G69" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I69" t="n">
+        <v>100103003</v>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>Damasco</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>Castle Brite</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M69" t="n">
+        <v>250</v>
+      </c>
+      <c r="N69" t="n">
+        <v>7000</v>
+      </c>
+      <c r="O69" t="n">
+        <v>7000</v>
+      </c>
+      <c r="P69" t="n">
+        <v>7000</v>
+      </c>
+      <c r="Q69" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R69" t="inlineStr">
+        <is>
+          <t>Provincia de Los Andes</t>
+        </is>
+      </c>
+      <c r="S69" t="n">
+        <v>700</v>
+      </c>
+      <c r="T69" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>9</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D70" s="2" t="n">
+        <v>44194</v>
+      </c>
+      <c r="E70" t="n">
+        <v>13</v>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G70" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I70" t="n">
+        <v>100103003</v>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>Damasco</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>Patterson</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M70" t="n">
+        <v>120</v>
+      </c>
+      <c r="N70" t="n">
+        <v>13000</v>
+      </c>
+      <c r="O70" t="n">
+        <v>13000</v>
+      </c>
+      <c r="P70" t="n">
+        <v>13000</v>
+      </c>
+      <c r="Q70" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="R70" t="inlineStr">
+        <is>
+          <t>Provincia de San Felipe de Aconcagua</t>
+        </is>
+      </c>
+      <c r="S70" t="n">
+        <v>867</v>
+      </c>
+      <c r="T70" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>9</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D71" s="2" t="n">
         <v>44540</v>
       </c>
-      <c r="E68" t="n">
-        <v>13</v>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G68" t="n">
-        <v>100103</v>
-      </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>Frutos de hueso (carozo)</t>
-        </is>
-      </c>
-      <c r="I68" t="n">
-        <v>100103003</v>
-      </c>
-      <c r="J68" t="inlineStr">
-        <is>
-          <t>Damasco</t>
-        </is>
-      </c>
-      <c r="K68" t="inlineStr">
+      <c r="E71" t="n">
+        <v>13</v>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G71" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I71" t="n">
+        <v>100103003</v>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>Damasco</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
         <is>
           <t>Castle Brite</t>
         </is>
       </c>
-      <c r="L68" t="inlineStr">
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M71" t="n">
+        <v>330</v>
+      </c>
+      <c r="N71" t="n">
+        <v>16000</v>
+      </c>
+      <c r="O71" t="n">
+        <v>16000</v>
+      </c>
+      <c r="P71" t="n">
+        <v>16000</v>
+      </c>
+      <c r="Q71" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="R71" t="inlineStr">
+        <is>
+          <t>Provincia de Los Andes</t>
+        </is>
+      </c>
+      <c r="S71" t="n">
+        <v>889</v>
+      </c>
+      <c r="T71" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>9</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D72" s="2" t="n">
+        <v>44540</v>
+      </c>
+      <c r="E72" t="n">
+        <v>13</v>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G72" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I72" t="n">
+        <v>100103003</v>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>Damasco</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>Castle Brite</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="M68" t="n">
+      <c r="M72" t="n">
         <v>280</v>
       </c>
-      <c r="N68" t="n">
+      <c r="N72" t="n">
         <v>14000</v>
       </c>
-      <c r="O68" t="n">
+      <c r="O72" t="n">
         <v>14000</v>
       </c>
-      <c r="P68" t="n">
+      <c r="P72" t="n">
         <v>14000</v>
       </c>
-      <c r="Q68" t="inlineStr">
+      <c r="Q72" t="inlineStr">
         <is>
           <t>$/caja 18 kilos</t>
         </is>
       </c>
-      <c r="R68" t="inlineStr">
+      <c r="R72" t="inlineStr">
         <is>
           <t>Provincia de Los Andes</t>
         </is>
       </c>
-      <c r="S68" t="n">
+      <c r="S72" t="n">
         <v>778</v>
       </c>
-      <c r="T68" t="n">
+      <c r="T72" t="n">
         <v>18</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Damasco.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Damasco.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T72"/>
+  <dimension ref="A1:T76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5127,7 +5127,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44551</v>
+        <v>44559</v>
       </c>
       <c r="E60" t="n">
         <v>13</v>
@@ -5155,7 +5155,7 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>Dina</t>
+          <t>Helena</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
@@ -5164,32 +5164,32 @@
         </is>
       </c>
       <c r="M60" t="n">
-        <v>220</v>
+        <v>310</v>
       </c>
       <c r="N60" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="O60" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="P60" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R60" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S60" t="n">
         <v>1000</v>
       </c>
       <c r="T60" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="61">
@@ -5207,7 +5207,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44551</v>
+        <v>44559</v>
       </c>
       <c r="E61" t="n">
         <v>13</v>
@@ -5235,7 +5235,7 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>Dina</t>
+          <t>Helena</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
@@ -5247,29 +5247,29 @@
         <v>350</v>
       </c>
       <c r="N61" t="n">
-        <v>14400</v>
+        <v>12000</v>
       </c>
       <c r="O61" t="n">
-        <v>14400</v>
+        <v>12000</v>
       </c>
       <c r="P61" t="n">
-        <v>14400</v>
+        <v>12000</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R61" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S61" t="n">
         <v>800</v>
       </c>
       <c r="T61" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="62">
@@ -5287,7 +5287,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44519</v>
+        <v>44559</v>
       </c>
       <c r="E62" t="n">
         <v>13</v>
@@ -5315,41 +5315,41 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M62" t="n">
         <v>300</v>
       </c>
       <c r="N62" t="n">
-        <v>22500</v>
+        <v>18000</v>
       </c>
       <c r="O62" t="n">
-        <v>22500</v>
+        <v>18000</v>
       </c>
       <c r="P62" t="n">
-        <v>22500</v>
+        <v>18000</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R62" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S62" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="T62" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="63">
@@ -5367,7 +5367,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44187</v>
+        <v>44559</v>
       </c>
       <c r="E63" t="n">
         <v>13</v>
@@ -5404,20 +5404,20 @@
         </is>
       </c>
       <c r="M63" t="n">
-        <v>80</v>
+        <v>380</v>
       </c>
       <c r="N63" t="n">
-        <v>15000</v>
+        <v>14400</v>
       </c>
       <c r="O63" t="n">
-        <v>15000</v>
+        <v>14400</v>
       </c>
       <c r="P63" t="n">
-        <v>15000</v>
+        <v>14400</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R63" t="inlineStr">
@@ -5426,10 +5426,10 @@
         </is>
       </c>
       <c r="S63" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T63" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="64">
@@ -5447,7 +5447,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44187</v>
+        <v>44551</v>
       </c>
       <c r="E64" t="n">
         <v>13</v>
@@ -5475,41 +5475,41 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Dina</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M64" t="n">
-        <v>95</v>
+        <v>220</v>
       </c>
       <c r="N64" t="n">
-        <v>13500</v>
+        <v>18000</v>
       </c>
       <c r="O64" t="n">
-        <v>13500</v>
+        <v>18000</v>
       </c>
       <c r="P64" t="n">
-        <v>13500</v>
+        <v>18000</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R64" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S64" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="T64" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="65">
@@ -5527,7 +5527,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44187</v>
+        <v>44551</v>
       </c>
       <c r="E65" t="n">
         <v>13</v>
@@ -5555,41 +5555,41 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Dina</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M65" t="n">
-        <v>120</v>
+        <v>350</v>
       </c>
       <c r="N65" t="n">
-        <v>12000</v>
+        <v>14400</v>
       </c>
       <c r="O65" t="n">
-        <v>12000</v>
+        <v>14400</v>
       </c>
       <c r="P65" t="n">
-        <v>12000</v>
+        <v>14400</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R65" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S65" t="n">
         <v>800</v>
       </c>
       <c r="T65" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="66">
@@ -5607,7 +5607,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44175</v>
+        <v>44519</v>
       </c>
       <c r="E66" t="n">
         <v>13</v>
@@ -5635,7 +5635,7 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>Modesto</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
@@ -5644,32 +5644,32 @@
         </is>
       </c>
       <c r="M66" t="n">
-        <v>140</v>
+        <v>300</v>
       </c>
       <c r="N66" t="n">
-        <v>11000</v>
+        <v>22500</v>
       </c>
       <c r="O66" t="n">
-        <v>12000</v>
+        <v>22500</v>
       </c>
       <c r="P66" t="n">
-        <v>11571</v>
+        <v>22500</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R66" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S66" t="n">
-        <v>964</v>
+        <v>1500</v>
       </c>
       <c r="T66" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="67">
@@ -5687,7 +5687,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44195</v>
+        <v>44187</v>
       </c>
       <c r="E67" t="n">
         <v>13</v>
@@ -5724,20 +5724,20 @@
         </is>
       </c>
       <c r="M67" t="n">
-        <v>124</v>
+        <v>80</v>
       </c>
       <c r="N67" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O67" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P67" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R67" t="inlineStr">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="S67" t="n">
-        <v>867</v>
+        <v>1000</v>
       </c>
       <c r="T67" t="n">
         <v>15</v>
@@ -5767,7 +5767,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44536</v>
+        <v>44187</v>
       </c>
       <c r="E68" t="n">
         <v>13</v>
@@ -5795,41 +5795,41 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M68" t="n">
-        <v>220</v>
+        <v>95</v>
       </c>
       <c r="N68" t="n">
-        <v>11000</v>
+        <v>13500</v>
       </c>
       <c r="O68" t="n">
-        <v>11000</v>
+        <v>13500</v>
       </c>
       <c r="P68" t="n">
-        <v>11000</v>
+        <v>13500</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R68" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S68" t="n">
-        <v>1100</v>
+        <v>900</v>
       </c>
       <c r="T68" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="69">
@@ -5847,7 +5847,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44536</v>
+        <v>44187</v>
       </c>
       <c r="E69" t="n">
         <v>13</v>
@@ -5875,41 +5875,41 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M69" t="n">
-        <v>250</v>
+        <v>120</v>
       </c>
       <c r="N69" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="O69" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="P69" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R69" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S69" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="T69" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="70">
@@ -5927,7 +5927,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44194</v>
+        <v>44175</v>
       </c>
       <c r="E70" t="n">
         <v>13</v>
@@ -5955,7 +5955,7 @@
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Modesto</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
@@ -5964,20 +5964,20 @@
         </is>
       </c>
       <c r="M70" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="N70" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O70" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P70" t="n">
-        <v>13000</v>
+        <v>11571</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="R70" t="inlineStr">
@@ -5986,10 +5986,10 @@
         </is>
       </c>
       <c r="S70" t="n">
-        <v>867</v>
+        <v>964</v>
       </c>
       <c r="T70" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71">
@@ -6007,7 +6007,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44540</v>
+        <v>44195</v>
       </c>
       <c r="E71" t="n">
         <v>13</v>
@@ -6035,7 +6035,7 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
@@ -6044,32 +6044,32 @@
         </is>
       </c>
       <c r="M71" t="n">
-        <v>330</v>
+        <v>124</v>
       </c>
       <c r="N71" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="O71" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="P71" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R71" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S71" t="n">
-        <v>889</v>
+        <v>867</v>
       </c>
       <c r="T71" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="72">
@@ -6087,68 +6087,388 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
+        <v>44536</v>
+      </c>
+      <c r="E72" t="n">
+        <v>13</v>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G72" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I72" t="n">
+        <v>100103003</v>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>Damasco</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>Castle Brite</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M72" t="n">
+        <v>220</v>
+      </c>
+      <c r="N72" t="n">
+        <v>11000</v>
+      </c>
+      <c r="O72" t="n">
+        <v>11000</v>
+      </c>
+      <c r="P72" t="n">
+        <v>11000</v>
+      </c>
+      <c r="Q72" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R72" t="inlineStr">
+        <is>
+          <t>Provincia de Los Andes</t>
+        </is>
+      </c>
+      <c r="S72" t="n">
+        <v>1100</v>
+      </c>
+      <c r="T72" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>9</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D73" s="2" t="n">
+        <v>44536</v>
+      </c>
+      <c r="E73" t="n">
+        <v>13</v>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G73" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I73" t="n">
+        <v>100103003</v>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>Damasco</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>Castle Brite</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M73" t="n">
+        <v>250</v>
+      </c>
+      <c r="N73" t="n">
+        <v>7000</v>
+      </c>
+      <c r="O73" t="n">
+        <v>7000</v>
+      </c>
+      <c r="P73" t="n">
+        <v>7000</v>
+      </c>
+      <c r="Q73" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R73" t="inlineStr">
+        <is>
+          <t>Provincia de Los Andes</t>
+        </is>
+      </c>
+      <c r="S73" t="n">
+        <v>700</v>
+      </c>
+      <c r="T73" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>9</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D74" s="2" t="n">
+        <v>44194</v>
+      </c>
+      <c r="E74" t="n">
+        <v>13</v>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G74" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I74" t="n">
+        <v>100103003</v>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>Damasco</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>Patterson</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M74" t="n">
+        <v>120</v>
+      </c>
+      <c r="N74" t="n">
+        <v>13000</v>
+      </c>
+      <c r="O74" t="n">
+        <v>13000</v>
+      </c>
+      <c r="P74" t="n">
+        <v>13000</v>
+      </c>
+      <c r="Q74" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="R74" t="inlineStr">
+        <is>
+          <t>Provincia de San Felipe de Aconcagua</t>
+        </is>
+      </c>
+      <c r="S74" t="n">
+        <v>867</v>
+      </c>
+      <c r="T74" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>9</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D75" s="2" t="n">
         <v>44540</v>
       </c>
-      <c r="E72" t="n">
-        <v>13</v>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G72" t="n">
-        <v>100103</v>
-      </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>Frutos de hueso (carozo)</t>
-        </is>
-      </c>
-      <c r="I72" t="n">
-        <v>100103003</v>
-      </c>
-      <c r="J72" t="inlineStr">
-        <is>
-          <t>Damasco</t>
-        </is>
-      </c>
-      <c r="K72" t="inlineStr">
+      <c r="E75" t="n">
+        <v>13</v>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G75" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I75" t="n">
+        <v>100103003</v>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>Damasco</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
         <is>
           <t>Castle Brite</t>
         </is>
       </c>
-      <c r="L72" t="inlineStr">
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M75" t="n">
+        <v>330</v>
+      </c>
+      <c r="N75" t="n">
+        <v>16000</v>
+      </c>
+      <c r="O75" t="n">
+        <v>16000</v>
+      </c>
+      <c r="P75" t="n">
+        <v>16000</v>
+      </c>
+      <c r="Q75" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="R75" t="inlineStr">
+        <is>
+          <t>Provincia de Los Andes</t>
+        </is>
+      </c>
+      <c r="S75" t="n">
+        <v>889</v>
+      </c>
+      <c r="T75" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>9</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D76" s="2" t="n">
+        <v>44540</v>
+      </c>
+      <c r="E76" t="n">
+        <v>13</v>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G76" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I76" t="n">
+        <v>100103003</v>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>Damasco</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>Castle Brite</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="M72" t="n">
+      <c r="M76" t="n">
         <v>280</v>
       </c>
-      <c r="N72" t="n">
+      <c r="N76" t="n">
         <v>14000</v>
       </c>
-      <c r="O72" t="n">
+      <c r="O76" t="n">
         <v>14000</v>
       </c>
-      <c r="P72" t="n">
+      <c r="P76" t="n">
         <v>14000</v>
       </c>
-      <c r="Q72" t="inlineStr">
+      <c r="Q76" t="inlineStr">
         <is>
           <t>$/caja 18 kilos</t>
         </is>
       </c>
-      <c r="R72" t="inlineStr">
+      <c r="R76" t="inlineStr">
         <is>
           <t>Provincia de Los Andes</t>
         </is>
       </c>
-      <c r="S72" t="n">
+      <c r="S76" t="n">
         <v>778</v>
       </c>
-      <c r="T72" t="n">
+      <c r="T76" t="n">
         <v>18</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Damasco.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Damasco.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T76"/>
+  <dimension ref="A1:T79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44159</v>
+        <v>44560</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
@@ -1875,29 +1875,29 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Helena</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>80</v>
+        <v>410</v>
       </c>
       <c r="N19" t="n">
-        <v>8000</v>
+        <v>18000</v>
       </c>
       <c r="O19" t="n">
-        <v>8000</v>
+        <v>18000</v>
       </c>
       <c r="P19" t="n">
-        <v>8000</v>
+        <v>18000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
@@ -1906,10 +1906,10 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T19" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20">
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44159</v>
+        <v>44560</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1955,29 +1955,29 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Helena</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>65</v>
+        <v>330</v>
       </c>
       <c r="N20" t="n">
-        <v>7000</v>
+        <v>14400</v>
       </c>
       <c r="O20" t="n">
-        <v>7000</v>
+        <v>14400</v>
       </c>
       <c r="P20" t="n">
-        <v>7000</v>
+        <v>14400</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
@@ -1986,10 +1986,10 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="T20" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21">
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44523</v>
+        <v>44560</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -2035,29 +2035,29 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Helena</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>320</v>
+        <v>380</v>
       </c>
       <c r="N21" t="n">
-        <v>10000</v>
+        <v>12600</v>
       </c>
       <c r="O21" t="n">
-        <v>10000</v>
+        <v>12600</v>
       </c>
       <c r="P21" t="n">
-        <v>10000</v>
+        <v>12600</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
@@ -2066,10 +2066,10 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="T21" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22">
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44189</v>
+        <v>44159</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
@@ -2115,7 +2115,7 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
@@ -2124,20 +2124,20 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="N22" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O22" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P22" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
@@ -2146,10 +2146,10 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>667</v>
+        <v>800</v>
       </c>
       <c r="T22" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23">
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44169</v>
+        <v>44159</v>
       </c>
       <c r="E23" t="n">
         <v>13</v>
@@ -2195,25 +2195,25 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Dina</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="N23" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O23" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P23" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2222,11 +2222,11 @@
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S23" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="T23" t="n">
         <v>10</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44544</v>
+        <v>44523</v>
       </c>
       <c r="E24" t="n">
         <v>13</v>
@@ -2275,29 +2275,29 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Dina</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M24" t="n">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="N24" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O24" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P24" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
@@ -2309,7 +2309,7 @@
         <v>1000</v>
       </c>
       <c r="T24" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25">
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44544</v>
+        <v>44189</v>
       </c>
       <c r="E25" t="n">
         <v>13</v>
@@ -2355,7 +2355,7 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Dina</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
@@ -2364,7 +2364,7 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>350</v>
+        <v>130</v>
       </c>
       <c r="N25" t="n">
         <v>12000</v>
@@ -2377,7 +2377,7 @@
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
@@ -2386,10 +2386,10 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>800</v>
+        <v>667</v>
       </c>
       <c r="T25" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26">
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44557</v>
+        <v>44169</v>
       </c>
       <c r="E26" t="n">
         <v>13</v>
@@ -2435,41 +2435,41 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Dina</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M26" t="n">
-        <v>380</v>
+        <v>80</v>
       </c>
       <c r="N26" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O26" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P26" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S26" t="n">
         <v>1000</v>
       </c>
       <c r="T26" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27">
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44557</v>
+        <v>44544</v>
       </c>
       <c r="E27" t="n">
         <v>13</v>
@@ -2515,38 +2515,38 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Dina</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M27" t="n">
         <v>330</v>
       </c>
       <c r="N27" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O27" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P27" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S27" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T27" t="n">
         <v>15</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44537</v>
+        <v>44544</v>
       </c>
       <c r="E28" t="n">
         <v>13</v>
@@ -2595,7 +2595,7 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Dina</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
@@ -2604,20 +2604,20 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="N28" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="O28" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="P28" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
@@ -2626,10 +2626,10 @@
         </is>
       </c>
       <c r="S28" t="n">
-        <v>889</v>
+        <v>800</v>
       </c>
       <c r="T28" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29">
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44546</v>
+        <v>44557</v>
       </c>
       <c r="E29" t="n">
         <v>13</v>
@@ -2675,7 +2675,7 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Dina</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
@@ -2687,17 +2687,17 @@
         <v>380</v>
       </c>
       <c r="N29" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O29" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P29" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
@@ -2706,10 +2706,10 @@
         </is>
       </c>
       <c r="S29" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="T29" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30">
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44546</v>
+        <v>44557</v>
       </c>
       <c r="E30" t="n">
         <v>13</v>
@@ -2755,7 +2755,7 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Dina</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
@@ -2767,17 +2767,17 @@
         <v>330</v>
       </c>
       <c r="N30" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O30" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P30" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
@@ -2786,10 +2786,10 @@
         </is>
       </c>
       <c r="S30" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T30" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31">
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44546</v>
+        <v>44537</v>
       </c>
       <c r="E31" t="n">
         <v>13</v>
@@ -2835,41 +2835,41 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Dina</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M31" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N31" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="O31" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="P31" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S31" t="n">
-        <v>800</v>
+        <v>889</v>
       </c>
       <c r="T31" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32">
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44162</v>
+        <v>44546</v>
       </c>
       <c r="E32" t="n">
         <v>13</v>
@@ -2915,25 +2915,25 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Dina</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M32" t="n">
-        <v>70</v>
+        <v>380</v>
       </c>
       <c r="N32" t="n">
-        <v>8500</v>
+        <v>12000</v>
       </c>
       <c r="O32" t="n">
-        <v>8500</v>
+        <v>12000</v>
       </c>
       <c r="P32" t="n">
-        <v>8500</v>
+        <v>12000</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -2942,11 +2942,11 @@
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S32" t="n">
-        <v>850</v>
+        <v>1200</v>
       </c>
       <c r="T32" t="n">
         <v>10</v>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44162</v>
+        <v>44546</v>
       </c>
       <c r="E33" t="n">
         <v>13</v>
@@ -2995,7 +2995,7 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Dina</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
@@ -3004,32 +3004,32 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>75</v>
+        <v>330</v>
       </c>
       <c r="N33" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O33" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P33" t="n">
-        <v>14400</v>
+        <v>10000</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S33" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T33" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34">
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44554</v>
+        <v>44546</v>
       </c>
       <c r="E34" t="n">
         <v>13</v>
@@ -3075,41 +3075,41 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Dina</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M34" t="n">
-        <v>410</v>
+        <v>300</v>
       </c>
       <c r="N34" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="O34" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="P34" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S34" t="n">
-        <v>778</v>
+        <v>800</v>
       </c>
       <c r="T34" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35">
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44554</v>
+        <v>44162</v>
       </c>
       <c r="E35" t="n">
         <v>13</v>
@@ -3155,29 +3155,29 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M35" t="n">
-        <v>380</v>
+        <v>70</v>
       </c>
       <c r="N35" t="n">
-        <v>12000</v>
+        <v>8500</v>
       </c>
       <c r="O35" t="n">
-        <v>12000</v>
+        <v>8500</v>
       </c>
       <c r="P35" t="n">
-        <v>12000</v>
+        <v>8500</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
@@ -3186,10 +3186,10 @@
         </is>
       </c>
       <c r="S35" t="n">
-        <v>667</v>
+        <v>850</v>
       </c>
       <c r="T35" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36">
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44166</v>
+        <v>44162</v>
       </c>
       <c r="E36" t="n">
         <v>13</v>
@@ -3244,32 +3244,32 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>120</v>
+        <v>75</v>
       </c>
       <c r="N36" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O36" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P36" t="n">
-        <v>10000</v>
+        <v>14400</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S36" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T36" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37">
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44166</v>
+        <v>44554</v>
       </c>
       <c r="E37" t="n">
         <v>13</v>
@@ -3315,41 +3315,41 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M37" t="n">
-        <v>120</v>
+        <v>410</v>
       </c>
       <c r="N37" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="O37" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="P37" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S37" t="n">
-        <v>800</v>
+        <v>778</v>
       </c>
       <c r="T37" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38">
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44174</v>
+        <v>44554</v>
       </c>
       <c r="E38" t="n">
         <v>13</v>
@@ -3395,41 +3395,41 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Modesto</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M38" t="n">
-        <v>120</v>
+        <v>380</v>
       </c>
       <c r="N38" t="n">
-        <v>8500</v>
+        <v>12000</v>
       </c>
       <c r="O38" t="n">
-        <v>8500</v>
+        <v>12000</v>
       </c>
       <c r="P38" t="n">
-        <v>8500</v>
+        <v>12000</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S38" t="n">
-        <v>850</v>
+        <v>667</v>
       </c>
       <c r="T38" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39">
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44174</v>
+        <v>44166</v>
       </c>
       <c r="E39" t="n">
         <v>13</v>
@@ -3475,7 +3475,7 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>Modesto</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
@@ -3484,20 +3484,20 @@
         </is>
       </c>
       <c r="M39" t="n">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="N39" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O39" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P39" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
@@ -3506,10 +3506,10 @@
         </is>
       </c>
       <c r="S39" t="n">
-        <v>833</v>
+        <v>1000</v>
       </c>
       <c r="T39" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40">
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44174</v>
+        <v>44166</v>
       </c>
       <c r="E40" t="n">
         <v>13</v>
@@ -3555,7 +3555,7 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Modesto</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
@@ -3567,17 +3567,17 @@
         <v>120</v>
       </c>
       <c r="N40" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O40" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P40" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
@@ -3586,10 +3586,10 @@
         </is>
       </c>
       <c r="S40" t="n">
-        <v>667</v>
+        <v>800</v>
       </c>
       <c r="T40" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41">
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44525</v>
+        <v>44174</v>
       </c>
       <c r="E41" t="n">
         <v>13</v>
@@ -3635,41 +3635,41 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Modesto</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M41" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="N41" t="n">
-        <v>25200</v>
+        <v>8500</v>
       </c>
       <c r="O41" t="n">
-        <v>25200</v>
+        <v>8500</v>
       </c>
       <c r="P41" t="n">
-        <v>25200</v>
+        <v>8500</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S41" t="n">
-        <v>1400</v>
+        <v>850</v>
       </c>
       <c r="T41" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42">
@@ -3687,7 +3687,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44525</v>
+        <v>44174</v>
       </c>
       <c r="E42" t="n">
         <v>13</v>
@@ -3715,7 +3715,7 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Modesto</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
@@ -3724,16 +3724,16 @@
         </is>
       </c>
       <c r="M42" t="n">
-        <v>250</v>
+        <v>180</v>
       </c>
       <c r="N42" t="n">
-        <v>21600</v>
+        <v>15000</v>
       </c>
       <c r="O42" t="n">
-        <v>21600</v>
+        <v>15000</v>
       </c>
       <c r="P42" t="n">
-        <v>21600</v>
+        <v>15000</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
@@ -3742,11 +3742,11 @@
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S42" t="n">
-        <v>1200</v>
+        <v>833</v>
       </c>
       <c r="T42" t="n">
         <v>18</v>
@@ -3767,7 +3767,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44533</v>
+        <v>44174</v>
       </c>
       <c r="E43" t="n">
         <v>13</v>
@@ -3795,41 +3795,41 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Modesto</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M43" t="n">
-        <v>410</v>
+        <v>120</v>
       </c>
       <c r="N43" t="n">
-        <v>16500</v>
+        <v>12000</v>
       </c>
       <c r="O43" t="n">
-        <v>16500</v>
+        <v>12000</v>
       </c>
       <c r="P43" t="n">
-        <v>16500</v>
+        <v>12000</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S43" t="n">
-        <v>1100</v>
+        <v>667</v>
       </c>
       <c r="T43" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44">
@@ -3847,7 +3847,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44533</v>
+        <v>44525</v>
       </c>
       <c r="E44" t="n">
         <v>13</v>
@@ -3880,24 +3880,24 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M44" t="n">
         <v>300</v>
       </c>
       <c r="N44" t="n">
-        <v>10500</v>
+        <v>25200</v>
       </c>
       <c r="O44" t="n">
-        <v>10500</v>
+        <v>25200</v>
       </c>
       <c r="P44" t="n">
-        <v>10500</v>
+        <v>25200</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
@@ -3906,10 +3906,10 @@
         </is>
       </c>
       <c r="S44" t="n">
-        <v>700</v>
+        <v>1400</v>
       </c>
       <c r="T44" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45">
@@ -3927,7 +3927,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44533</v>
+        <v>44525</v>
       </c>
       <c r="E45" t="n">
         <v>13</v>
@@ -3960,24 +3960,24 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M45" t="n">
         <v>250</v>
       </c>
       <c r="N45" t="n">
-        <v>7500</v>
+        <v>21600</v>
       </c>
       <c r="O45" t="n">
-        <v>7500</v>
+        <v>21600</v>
       </c>
       <c r="P45" t="n">
-        <v>7500</v>
+        <v>21600</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
@@ -3986,10 +3986,10 @@
         </is>
       </c>
       <c r="S45" t="n">
-        <v>500</v>
+        <v>1200</v>
       </c>
       <c r="T45" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46">
@@ -4007,7 +4007,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44176</v>
+        <v>44533</v>
       </c>
       <c r="E46" t="n">
         <v>13</v>
@@ -4035,7 +4035,7 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Modesto</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
@@ -4044,20 +4044,20 @@
         </is>
       </c>
       <c r="M46" t="n">
-        <v>115</v>
+        <v>410</v>
       </c>
       <c r="N46" t="n">
-        <v>11000</v>
+        <v>16500</v>
       </c>
       <c r="O46" t="n">
-        <v>12000</v>
+        <v>16500</v>
       </c>
       <c r="P46" t="n">
-        <v>11609</v>
+        <v>16500</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
@@ -4066,10 +4066,10 @@
         </is>
       </c>
       <c r="S46" t="n">
-        <v>967</v>
+        <v>1100</v>
       </c>
       <c r="T46" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="47">
@@ -4087,7 +4087,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44539</v>
+        <v>44533</v>
       </c>
       <c r="E47" t="n">
         <v>13</v>
@@ -4120,24 +4120,24 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M47" t="n">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="N47" t="n">
-        <v>18000</v>
+        <v>10500</v>
       </c>
       <c r="O47" t="n">
-        <v>18000</v>
+        <v>10500</v>
       </c>
       <c r="P47" t="n">
-        <v>18000</v>
+        <v>10500</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
@@ -4146,10 +4146,10 @@
         </is>
       </c>
       <c r="S47" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="T47" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="48">
@@ -4167,7 +4167,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44539</v>
+        <v>44533</v>
       </c>
       <c r="E48" t="n">
         <v>13</v>
@@ -4200,24 +4200,24 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M48" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="N48" t="n">
-        <v>16000</v>
+        <v>7500</v>
       </c>
       <c r="O48" t="n">
-        <v>16000</v>
+        <v>7500</v>
       </c>
       <c r="P48" t="n">
-        <v>16000</v>
+        <v>7500</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R48" t="inlineStr">
@@ -4226,10 +4226,10 @@
         </is>
       </c>
       <c r="S48" t="n">
-        <v>889</v>
+        <v>500</v>
       </c>
       <c r="T48" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="49">
@@ -4247,7 +4247,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44539</v>
+        <v>44176</v>
       </c>
       <c r="E49" t="n">
         <v>13</v>
@@ -4275,29 +4275,29 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Modesto</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M49" t="n">
-        <v>300</v>
+        <v>115</v>
       </c>
       <c r="N49" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="O49" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P49" t="n">
-        <v>14000</v>
+        <v>11609</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="R49" t="inlineStr">
@@ -4306,10 +4306,10 @@
         </is>
       </c>
       <c r="S49" t="n">
-        <v>778</v>
+        <v>967</v>
       </c>
       <c r="T49" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50">
@@ -4327,7 +4327,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44168</v>
+        <v>44539</v>
       </c>
       <c r="E50" t="n">
         <v>13</v>
@@ -4355,7 +4355,7 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Dina</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
@@ -4364,32 +4364,32 @@
         </is>
       </c>
       <c r="M50" t="n">
-        <v>40</v>
+        <v>290</v>
       </c>
       <c r="N50" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="O50" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="P50" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R50" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S50" t="n">
-        <v>1400</v>
+        <v>1000</v>
       </c>
       <c r="T50" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51">
@@ -4407,7 +4407,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44553</v>
+        <v>44539</v>
       </c>
       <c r="E51" t="n">
         <v>13</v>
@@ -4435,29 +4435,29 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>Dina</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M51" t="n">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="N51" t="n">
-        <v>7500</v>
+        <v>16000</v>
       </c>
       <c r="O51" t="n">
-        <v>7500</v>
+        <v>16000</v>
       </c>
       <c r="P51" t="n">
-        <v>7500</v>
+        <v>16000</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>$/bandeja 6 kilos</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R51" t="inlineStr">
@@ -4466,10 +4466,10 @@
         </is>
       </c>
       <c r="S51" t="n">
-        <v>1250</v>
+        <v>889</v>
       </c>
       <c r="T51" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="52">
@@ -4487,7 +4487,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44553</v>
+        <v>44539</v>
       </c>
       <c r="E52" t="n">
         <v>13</v>
@@ -4515,29 +4515,29 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Dina</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M52" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="N52" t="n">
-        <v>6500</v>
+        <v>14000</v>
       </c>
       <c r="O52" t="n">
-        <v>6500</v>
+        <v>14000</v>
       </c>
       <c r="P52" t="n">
-        <v>6500</v>
+        <v>14000</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>$/bandeja 6 kilos</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R52" t="inlineStr">
@@ -4546,10 +4546,10 @@
         </is>
       </c>
       <c r="S52" t="n">
-        <v>1083</v>
+        <v>778</v>
       </c>
       <c r="T52" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="53">
@@ -4567,7 +4567,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44553</v>
+        <v>44168</v>
       </c>
       <c r="E53" t="n">
         <v>13</v>
@@ -4595,16 +4595,16 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Dina</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M53" t="n">
-        <v>380</v>
+        <v>40</v>
       </c>
       <c r="N53" t="n">
         <v>14000</v>
@@ -4617,19 +4617,19 @@
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S53" t="n">
-        <v>778</v>
+        <v>1400</v>
       </c>
       <c r="T53" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="54">
@@ -4675,29 +4675,29 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Dina</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M54" t="n">
-        <v>410</v>
+        <v>280</v>
       </c>
       <c r="N54" t="n">
-        <v>12000</v>
+        <v>7500</v>
       </c>
       <c r="O54" t="n">
-        <v>12000</v>
+        <v>7500</v>
       </c>
       <c r="P54" t="n">
-        <v>12000</v>
+        <v>7500</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 6 kilos</t>
         </is>
       </c>
       <c r="R54" t="inlineStr">
@@ -4706,10 +4706,10 @@
         </is>
       </c>
       <c r="S54" t="n">
-        <v>667</v>
+        <v>1250</v>
       </c>
       <c r="T54" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="55">
@@ -4727,7 +4727,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44167</v>
+        <v>44553</v>
       </c>
       <c r="E55" t="n">
         <v>13</v>
@@ -4755,29 +4755,29 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Dina</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M55" t="n">
-        <v>85</v>
+        <v>350</v>
       </c>
       <c r="N55" t="n">
-        <v>10000</v>
+        <v>6500</v>
       </c>
       <c r="O55" t="n">
-        <v>10000</v>
+        <v>6500</v>
       </c>
       <c r="P55" t="n">
-        <v>10000</v>
+        <v>6500</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 6 kilos</t>
         </is>
       </c>
       <c r="R55" t="inlineStr">
@@ -4786,10 +4786,10 @@
         </is>
       </c>
       <c r="S55" t="n">
-        <v>1000</v>
+        <v>1083</v>
       </c>
       <c r="T55" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="56">
@@ -4807,7 +4807,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44167</v>
+        <v>44553</v>
       </c>
       <c r="E56" t="n">
         <v>13</v>
@@ -4835,7 +4835,7 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
@@ -4844,20 +4844,20 @@
         </is>
       </c>
       <c r="M56" t="n">
-        <v>120</v>
+        <v>380</v>
       </c>
       <c r="N56" t="n">
-        <v>9500</v>
+        <v>14000</v>
       </c>
       <c r="O56" t="n">
-        <v>9500</v>
+        <v>14000</v>
       </c>
       <c r="P56" t="n">
-        <v>9500</v>
+        <v>14000</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R56" t="inlineStr">
@@ -4866,10 +4866,10 @@
         </is>
       </c>
       <c r="S56" t="n">
-        <v>950</v>
+        <v>778</v>
       </c>
       <c r="T56" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="57">
@@ -4887,7 +4887,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44167</v>
+        <v>44553</v>
       </c>
       <c r="E57" t="n">
         <v>13</v>
@@ -4915,25 +4915,25 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M57" t="n">
-        <v>60</v>
+        <v>410</v>
       </c>
       <c r="N57" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O57" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P57" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="S57" t="n">
-        <v>833</v>
+        <v>667</v>
       </c>
       <c r="T57" t="n">
         <v>18</v>
@@ -4967,7 +4967,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44160</v>
+        <v>44167</v>
       </c>
       <c r="E58" t="n">
         <v>13</v>
@@ -5000,20 +5000,20 @@
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M58" t="n">
-        <v>25</v>
+        <v>85</v>
       </c>
       <c r="N58" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O58" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P58" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
@@ -5026,7 +5026,7 @@
         </is>
       </c>
       <c r="S58" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T58" t="n">
         <v>10</v>
@@ -5047,7 +5047,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44160</v>
+        <v>44167</v>
       </c>
       <c r="E59" t="n">
         <v>13</v>
@@ -5080,20 +5080,20 @@
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M59" t="n">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="N59" t="n">
-        <v>7000</v>
+        <v>9500</v>
       </c>
       <c r="O59" t="n">
-        <v>7000</v>
+        <v>9500</v>
       </c>
       <c r="P59" t="n">
-        <v>7000</v>
+        <v>9500</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
@@ -5106,7 +5106,7 @@
         </is>
       </c>
       <c r="S59" t="n">
-        <v>700</v>
+        <v>950</v>
       </c>
       <c r="T59" t="n">
         <v>10</v>
@@ -5127,7 +5127,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44559</v>
+        <v>44167</v>
       </c>
       <c r="E60" t="n">
         <v>13</v>
@@ -5155,16 +5155,16 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>Helena</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M60" t="n">
-        <v>310</v>
+        <v>60</v>
       </c>
       <c r="N60" t="n">
         <v>15000</v>
@@ -5177,19 +5177,19 @@
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R60" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S60" t="n">
-        <v>1000</v>
+        <v>833</v>
       </c>
       <c r="T60" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="61">
@@ -5207,7 +5207,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44559</v>
+        <v>44160</v>
       </c>
       <c r="E61" t="n">
         <v>13</v>
@@ -5235,7 +5235,7 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>Helena</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
@@ -5244,32 +5244,32 @@
         </is>
       </c>
       <c r="M61" t="n">
-        <v>350</v>
+        <v>25</v>
       </c>
       <c r="N61" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O61" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P61" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R61" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S61" t="n">
         <v>800</v>
       </c>
       <c r="T61" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="62">
@@ -5287,7 +5287,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44559</v>
+        <v>44160</v>
       </c>
       <c r="E62" t="n">
         <v>13</v>
@@ -5315,29 +5315,29 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M62" t="n">
-        <v>300</v>
+        <v>40</v>
       </c>
       <c r="N62" t="n">
-        <v>18000</v>
+        <v>7000</v>
       </c>
       <c r="O62" t="n">
-        <v>18000</v>
+        <v>7000</v>
       </c>
       <c r="P62" t="n">
-        <v>18000</v>
+        <v>7000</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R62" t="inlineStr">
@@ -5346,10 +5346,10 @@
         </is>
       </c>
       <c r="S62" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="T62" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="63">
@@ -5395,41 +5395,41 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Helena</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M63" t="n">
-        <v>380</v>
+        <v>310</v>
       </c>
       <c r="N63" t="n">
-        <v>14400</v>
+        <v>15000</v>
       </c>
       <c r="O63" t="n">
-        <v>14400</v>
+        <v>15000</v>
       </c>
       <c r="P63" t="n">
-        <v>14400</v>
+        <v>15000</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R63" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S63" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T63" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="64">
@@ -5447,7 +5447,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44551</v>
+        <v>44559</v>
       </c>
       <c r="E64" t="n">
         <v>13</v>
@@ -5475,41 +5475,41 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>Dina</t>
+          <t>Helena</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M64" t="n">
-        <v>220</v>
+        <v>350</v>
       </c>
       <c r="N64" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="O64" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="P64" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R64" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S64" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T64" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="65">
@@ -5527,7 +5527,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44551</v>
+        <v>44559</v>
       </c>
       <c r="E65" t="n">
         <v>13</v>
@@ -5555,38 +5555,38 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>Dina</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M65" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="N65" t="n">
-        <v>14400</v>
+        <v>18000</v>
       </c>
       <c r="O65" t="n">
-        <v>14400</v>
+        <v>18000</v>
       </c>
       <c r="P65" t="n">
-        <v>14400</v>
+        <v>18000</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R65" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S65" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T65" t="n">
         <v>18</v>
@@ -5607,7 +5607,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44519</v>
+        <v>44559</v>
       </c>
       <c r="E66" t="n">
         <v>13</v>
@@ -5635,7 +5635,7 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
@@ -5644,32 +5644,32 @@
         </is>
       </c>
       <c r="M66" t="n">
-        <v>300</v>
+        <v>380</v>
       </c>
       <c r="N66" t="n">
-        <v>22500</v>
+        <v>14400</v>
       </c>
       <c r="O66" t="n">
-        <v>22500</v>
+        <v>14400</v>
       </c>
       <c r="P66" t="n">
-        <v>22500</v>
+        <v>14400</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R66" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S66" t="n">
-        <v>1500</v>
+        <v>800</v>
       </c>
       <c r="T66" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="67">
@@ -5687,7 +5687,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44187</v>
+        <v>44551</v>
       </c>
       <c r="E67" t="n">
         <v>13</v>
@@ -5715,41 +5715,41 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Dina</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M67" t="n">
-        <v>80</v>
+        <v>220</v>
       </c>
       <c r="N67" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O67" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P67" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R67" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S67" t="n">
         <v>1000</v>
       </c>
       <c r="T67" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="68">
@@ -5767,7 +5767,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44187</v>
+        <v>44551</v>
       </c>
       <c r="E68" t="n">
         <v>13</v>
@@ -5795,41 +5795,41 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Dina</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M68" t="n">
-        <v>95</v>
+        <v>350</v>
       </c>
       <c r="N68" t="n">
-        <v>13500</v>
+        <v>14400</v>
       </c>
       <c r="O68" t="n">
-        <v>13500</v>
+        <v>14400</v>
       </c>
       <c r="P68" t="n">
-        <v>13500</v>
+        <v>14400</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R68" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S68" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="T68" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="69">
@@ -5847,7 +5847,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44187</v>
+        <v>44519</v>
       </c>
       <c r="E69" t="n">
         <v>13</v>
@@ -5875,25 +5875,25 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M69" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="N69" t="n">
-        <v>12000</v>
+        <v>22500</v>
       </c>
       <c r="O69" t="n">
-        <v>12000</v>
+        <v>22500</v>
       </c>
       <c r="P69" t="n">
-        <v>12000</v>
+        <v>22500</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
@@ -5902,11 +5902,11 @@
       </c>
       <c r="R69" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S69" t="n">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="T69" t="n">
         <v>15</v>
@@ -5927,7 +5927,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44175</v>
+        <v>44187</v>
       </c>
       <c r="E70" t="n">
         <v>13</v>
@@ -5955,7 +5955,7 @@
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>Modesto</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
@@ -5964,20 +5964,20 @@
         </is>
       </c>
       <c r="M70" t="n">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="N70" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="O70" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P70" t="n">
-        <v>11571</v>
+        <v>15000</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R70" t="inlineStr">
@@ -5986,10 +5986,10 @@
         </is>
       </c>
       <c r="S70" t="n">
-        <v>964</v>
+        <v>1000</v>
       </c>
       <c r="T70" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="71">
@@ -6007,7 +6007,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44195</v>
+        <v>44187</v>
       </c>
       <c r="E71" t="n">
         <v>13</v>
@@ -6040,24 +6040,24 @@
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M71" t="n">
-        <v>124</v>
+        <v>95</v>
       </c>
       <c r="N71" t="n">
-        <v>13000</v>
+        <v>13500</v>
       </c>
       <c r="O71" t="n">
-        <v>13000</v>
+        <v>13500</v>
       </c>
       <c r="P71" t="n">
-        <v>13000</v>
+        <v>13500</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R71" t="inlineStr">
@@ -6066,7 +6066,7 @@
         </is>
       </c>
       <c r="S71" t="n">
-        <v>867</v>
+        <v>900</v>
       </c>
       <c r="T71" t="n">
         <v>15</v>
@@ -6087,7 +6087,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44536</v>
+        <v>44187</v>
       </c>
       <c r="E72" t="n">
         <v>13</v>
@@ -6115,41 +6115,41 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M72" t="n">
-        <v>220</v>
+        <v>120</v>
       </c>
       <c r="N72" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O72" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P72" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R72" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S72" t="n">
-        <v>1100</v>
+        <v>800</v>
       </c>
       <c r="T72" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="73">
@@ -6167,7 +6167,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44536</v>
+        <v>44175</v>
       </c>
       <c r="E73" t="n">
         <v>13</v>
@@ -6195,41 +6195,41 @@
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Modesto</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M73" t="n">
-        <v>250</v>
+        <v>140</v>
       </c>
       <c r="N73" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="O73" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="P73" t="n">
-        <v>7000</v>
+        <v>11571</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="R73" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S73" t="n">
-        <v>700</v>
+        <v>964</v>
       </c>
       <c r="T73" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74">
@@ -6247,7 +6247,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44194</v>
+        <v>44195</v>
       </c>
       <c r="E74" t="n">
         <v>13</v>
@@ -6284,7 +6284,7 @@
         </is>
       </c>
       <c r="M74" t="n">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="N74" t="n">
         <v>13000</v>
@@ -6327,7 +6327,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44540</v>
+        <v>44536</v>
       </c>
       <c r="E75" t="n">
         <v>13</v>
@@ -6364,20 +6364,20 @@
         </is>
       </c>
       <c r="M75" t="n">
-        <v>330</v>
+        <v>220</v>
       </c>
       <c r="N75" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="O75" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="P75" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R75" t="inlineStr">
@@ -6386,10 +6386,10 @@
         </is>
       </c>
       <c r="S75" t="n">
-        <v>889</v>
+        <v>1100</v>
       </c>
       <c r="T75" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="76">
@@ -6407,68 +6407,308 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
+        <v>44536</v>
+      </c>
+      <c r="E76" t="n">
+        <v>13</v>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G76" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I76" t="n">
+        <v>100103003</v>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>Damasco</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>Castle Brite</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M76" t="n">
+        <v>250</v>
+      </c>
+      <c r="N76" t="n">
+        <v>7000</v>
+      </c>
+      <c r="O76" t="n">
+        <v>7000</v>
+      </c>
+      <c r="P76" t="n">
+        <v>7000</v>
+      </c>
+      <c r="Q76" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R76" t="inlineStr">
+        <is>
+          <t>Provincia de Los Andes</t>
+        </is>
+      </c>
+      <c r="S76" t="n">
+        <v>700</v>
+      </c>
+      <c r="T76" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>9</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D77" s="2" t="n">
+        <v>44194</v>
+      </c>
+      <c r="E77" t="n">
+        <v>13</v>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G77" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I77" t="n">
+        <v>100103003</v>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>Damasco</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>Patterson</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M77" t="n">
+        <v>120</v>
+      </c>
+      <c r="N77" t="n">
+        <v>13000</v>
+      </c>
+      <c r="O77" t="n">
+        <v>13000</v>
+      </c>
+      <c r="P77" t="n">
+        <v>13000</v>
+      </c>
+      <c r="Q77" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="R77" t="inlineStr">
+        <is>
+          <t>Provincia de San Felipe de Aconcagua</t>
+        </is>
+      </c>
+      <c r="S77" t="n">
+        <v>867</v>
+      </c>
+      <c r="T77" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>9</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D78" s="2" t="n">
         <v>44540</v>
       </c>
-      <c r="E76" t="n">
-        <v>13</v>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G76" t="n">
-        <v>100103</v>
-      </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>Frutos de hueso (carozo)</t>
-        </is>
-      </c>
-      <c r="I76" t="n">
-        <v>100103003</v>
-      </c>
-      <c r="J76" t="inlineStr">
-        <is>
-          <t>Damasco</t>
-        </is>
-      </c>
-      <c r="K76" t="inlineStr">
+      <c r="E78" t="n">
+        <v>13</v>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G78" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I78" t="n">
+        <v>100103003</v>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>Damasco</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
         <is>
           <t>Castle Brite</t>
         </is>
       </c>
-      <c r="L76" t="inlineStr">
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M78" t="n">
+        <v>330</v>
+      </c>
+      <c r="N78" t="n">
+        <v>16000</v>
+      </c>
+      <c r="O78" t="n">
+        <v>16000</v>
+      </c>
+      <c r="P78" t="n">
+        <v>16000</v>
+      </c>
+      <c r="Q78" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="R78" t="inlineStr">
+        <is>
+          <t>Provincia de Los Andes</t>
+        </is>
+      </c>
+      <c r="S78" t="n">
+        <v>889</v>
+      </c>
+      <c r="T78" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>9</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D79" s="2" t="n">
+        <v>44540</v>
+      </c>
+      <c r="E79" t="n">
+        <v>13</v>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G79" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I79" t="n">
+        <v>100103003</v>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>Damasco</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>Castle Brite</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="M76" t="n">
+      <c r="M79" t="n">
         <v>280</v>
       </c>
-      <c r="N76" t="n">
+      <c r="N79" t="n">
         <v>14000</v>
       </c>
-      <c r="O76" t="n">
+      <c r="O79" t="n">
         <v>14000</v>
       </c>
-      <c r="P76" t="n">
+      <c r="P79" t="n">
         <v>14000</v>
       </c>
-      <c r="Q76" t="inlineStr">
+      <c r="Q79" t="inlineStr">
         <is>
           <t>$/caja 18 kilos</t>
         </is>
       </c>
-      <c r="R76" t="inlineStr">
+      <c r="R79" t="inlineStr">
         <is>
           <t>Provincia de Los Andes</t>
         </is>
       </c>
-      <c r="S76" t="n">
+      <c r="S79" t="n">
         <v>778</v>
       </c>
-      <c r="T76" t="n">
+      <c r="T79" t="n">
         <v>18</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Damasco.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Damasco.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T79"/>
+  <dimension ref="A1:T82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44547</v>
+        <v>44561</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1315,7 +1315,7 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Dina</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -1324,32 +1324,32 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>450</v>
+        <v>330</v>
       </c>
       <c r="N12" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="O12" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="P12" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="T12" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44547</v>
+        <v>44561</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1395,7 +1395,7 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Dina</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -1404,32 +1404,32 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>410</v>
+        <v>350</v>
       </c>
       <c r="N13" t="n">
-        <v>10000</v>
+        <v>14400</v>
       </c>
       <c r="O13" t="n">
-        <v>10000</v>
+        <v>14400</v>
       </c>
       <c r="P13" t="n">
-        <v>10000</v>
+        <v>14400</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T13" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14">
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44547</v>
+        <v>44561</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1475,7 +1475,7 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Dina</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
@@ -1484,32 +1484,32 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="N14" t="n">
-        <v>8000</v>
+        <v>10800</v>
       </c>
       <c r="O14" t="n">
-        <v>8000</v>
+        <v>10800</v>
       </c>
       <c r="P14" t="n">
-        <v>8000</v>
+        <v>10800</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S14" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="T14" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15">
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44558</v>
+        <v>44547</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1555,7 +1555,7 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Helena</t>
+          <t>Dina</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
@@ -1564,32 +1564,32 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>330</v>
+        <v>450</v>
       </c>
       <c r="N15" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="O15" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="P15" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="T15" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16">
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44558</v>
+        <v>44547</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1635,7 +1635,7 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Helena</t>
+          <t>Dina</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
@@ -1644,32 +1644,32 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>350</v>
+        <v>410</v>
       </c>
       <c r="N16" t="n">
-        <v>12800</v>
+        <v>10000</v>
       </c>
       <c r="O16" t="n">
-        <v>12800</v>
+        <v>10000</v>
       </c>
       <c r="P16" t="n">
-        <v>12800</v>
+        <v>10000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S16" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T16" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17">
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44558</v>
+        <v>44547</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1715,29 +1715,29 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Dina</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>410</v>
+        <v>350</v>
       </c>
       <c r="N17" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="O17" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="P17" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
@@ -1746,10 +1746,10 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>778</v>
+        <v>800</v>
       </c>
       <c r="T17" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18">
@@ -1795,41 +1795,41 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Helena</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>380</v>
+        <v>330</v>
       </c>
       <c r="N18" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="O18" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="P18" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S18" t="n">
-        <v>667</v>
+        <v>1000</v>
       </c>
       <c r="T18" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19">
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44560</v>
+        <v>44558</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
@@ -1880,36 +1880,36 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>410</v>
+        <v>350</v>
       </c>
       <c r="N19" t="n">
-        <v>18000</v>
+        <v>12800</v>
       </c>
       <c r="O19" t="n">
-        <v>18000</v>
+        <v>12800</v>
       </c>
       <c r="P19" t="n">
-        <v>18000</v>
+        <v>12800</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S19" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T19" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20">
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44560</v>
+        <v>44558</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1955,7 +1955,7 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Helena</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
@@ -1964,20 +1964,20 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>330</v>
+        <v>410</v>
       </c>
       <c r="N20" t="n">
-        <v>14400</v>
+        <v>14000</v>
       </c>
       <c r="O20" t="n">
-        <v>14400</v>
+        <v>14000</v>
       </c>
       <c r="P20" t="n">
-        <v>14400</v>
+        <v>14000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>800</v>
+        <v>778</v>
       </c>
       <c r="T20" t="n">
         <v>18</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44560</v>
+        <v>44558</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -2035,7 +2035,7 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Helena</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
@@ -2047,17 +2047,17 @@
         <v>380</v>
       </c>
       <c r="N21" t="n">
-        <v>12600</v>
+        <v>12000</v>
       </c>
       <c r="O21" t="n">
-        <v>12600</v>
+        <v>12000</v>
       </c>
       <c r="P21" t="n">
-        <v>12600</v>
+        <v>12000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>700</v>
+        <v>667</v>
       </c>
       <c r="T21" t="n">
         <v>18</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44159</v>
+        <v>44560</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
@@ -2115,29 +2115,29 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Helena</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>80</v>
+        <v>410</v>
       </c>
       <c r="N22" t="n">
-        <v>8000</v>
+        <v>18000</v>
       </c>
       <c r="O22" t="n">
-        <v>8000</v>
+        <v>18000</v>
       </c>
       <c r="P22" t="n">
-        <v>8000</v>
+        <v>18000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
@@ -2146,10 +2146,10 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T22" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23">
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44159</v>
+        <v>44560</v>
       </c>
       <c r="E23" t="n">
         <v>13</v>
@@ -2195,29 +2195,29 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Helena</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>65</v>
+        <v>330</v>
       </c>
       <c r="N23" t="n">
-        <v>7000</v>
+        <v>14400</v>
       </c>
       <c r="O23" t="n">
-        <v>7000</v>
+        <v>14400</v>
       </c>
       <c r="P23" t="n">
-        <v>7000</v>
+        <v>14400</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
@@ -2226,10 +2226,10 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="T23" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24">
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44523</v>
+        <v>44560</v>
       </c>
       <c r="E24" t="n">
         <v>13</v>
@@ -2275,29 +2275,29 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Helena</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M24" t="n">
-        <v>320</v>
+        <v>380</v>
       </c>
       <c r="N24" t="n">
-        <v>10000</v>
+        <v>12600</v>
       </c>
       <c r="O24" t="n">
-        <v>10000</v>
+        <v>12600</v>
       </c>
       <c r="P24" t="n">
-        <v>10000</v>
+        <v>12600</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
@@ -2306,10 +2306,10 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="T24" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25">
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44189</v>
+        <v>44159</v>
       </c>
       <c r="E25" t="n">
         <v>13</v>
@@ -2355,7 +2355,7 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
@@ -2364,20 +2364,20 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="N25" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O25" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P25" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
@@ -2386,10 +2386,10 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>667</v>
+        <v>800</v>
       </c>
       <c r="T25" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26">
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44169</v>
+        <v>44159</v>
       </c>
       <c r="E26" t="n">
         <v>13</v>
@@ -2435,25 +2435,25 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Dina</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M26" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="N26" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O26" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P26" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2462,11 +2462,11 @@
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S26" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="T26" t="n">
         <v>10</v>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44544</v>
+        <v>44523</v>
       </c>
       <c r="E27" t="n">
         <v>13</v>
@@ -2515,29 +2515,29 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Dina</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M27" t="n">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="N27" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O27" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P27" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
@@ -2549,7 +2549,7 @@
         <v>1000</v>
       </c>
       <c r="T27" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28">
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44544</v>
+        <v>44189</v>
       </c>
       <c r="E28" t="n">
         <v>13</v>
@@ -2595,7 +2595,7 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Dina</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
@@ -2604,7 +2604,7 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>350</v>
+        <v>130</v>
       </c>
       <c r="N28" t="n">
         <v>12000</v>
@@ -2617,7 +2617,7 @@
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
@@ -2626,10 +2626,10 @@
         </is>
       </c>
       <c r="S28" t="n">
-        <v>800</v>
+        <v>667</v>
       </c>
       <c r="T28" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29">
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44557</v>
+        <v>44169</v>
       </c>
       <c r="E29" t="n">
         <v>13</v>
@@ -2675,41 +2675,41 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Dina</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>380</v>
+        <v>80</v>
       </c>
       <c r="N29" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O29" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P29" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S29" t="n">
         <v>1000</v>
       </c>
       <c r="T29" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30">
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44557</v>
+        <v>44544</v>
       </c>
       <c r="E30" t="n">
         <v>13</v>
@@ -2755,38 +2755,38 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Dina</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M30" t="n">
         <v>330</v>
       </c>
       <c r="N30" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O30" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P30" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S30" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T30" t="n">
         <v>15</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44537</v>
+        <v>44544</v>
       </c>
       <c r="E31" t="n">
         <v>13</v>
@@ -2835,7 +2835,7 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Dina</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
@@ -2844,20 +2844,20 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="N31" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="O31" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="P31" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
@@ -2866,10 +2866,10 @@
         </is>
       </c>
       <c r="S31" t="n">
-        <v>889</v>
+        <v>800</v>
       </c>
       <c r="T31" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32">
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44546</v>
+        <v>44557</v>
       </c>
       <c r="E32" t="n">
         <v>13</v>
@@ -2915,7 +2915,7 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>Dina</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
@@ -2927,17 +2927,17 @@
         <v>380</v>
       </c>
       <c r="N32" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O32" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P32" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
@@ -2946,10 +2946,10 @@
         </is>
       </c>
       <c r="S32" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="T32" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="33">
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44546</v>
+        <v>44557</v>
       </c>
       <c r="E33" t="n">
         <v>13</v>
@@ -2995,7 +2995,7 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>Dina</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
@@ -3007,17 +3007,17 @@
         <v>330</v>
       </c>
       <c r="N33" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O33" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P33" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
@@ -3026,10 +3026,10 @@
         </is>
       </c>
       <c r="S33" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T33" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34">
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44546</v>
+        <v>44537</v>
       </c>
       <c r="E34" t="n">
         <v>13</v>
@@ -3075,41 +3075,41 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>Dina</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M34" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N34" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="O34" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="P34" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S34" t="n">
-        <v>800</v>
+        <v>889</v>
       </c>
       <c r="T34" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35">
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44162</v>
+        <v>44546</v>
       </c>
       <c r="E35" t="n">
         <v>13</v>
@@ -3155,25 +3155,25 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Dina</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M35" t="n">
-        <v>70</v>
+        <v>380</v>
       </c>
       <c r="N35" t="n">
-        <v>8500</v>
+        <v>12000</v>
       </c>
       <c r="O35" t="n">
-        <v>8500</v>
+        <v>12000</v>
       </c>
       <c r="P35" t="n">
-        <v>8500</v>
+        <v>12000</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3182,11 +3182,11 @@
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S35" t="n">
-        <v>850</v>
+        <v>1200</v>
       </c>
       <c r="T35" t="n">
         <v>10</v>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44162</v>
+        <v>44546</v>
       </c>
       <c r="E36" t="n">
         <v>13</v>
@@ -3235,7 +3235,7 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Dina</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
@@ -3244,32 +3244,32 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>75</v>
+        <v>330</v>
       </c>
       <c r="N36" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O36" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P36" t="n">
-        <v>14400</v>
+        <v>10000</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S36" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T36" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37">
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44554</v>
+        <v>44546</v>
       </c>
       <c r="E37" t="n">
         <v>13</v>
@@ -3315,41 +3315,41 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Dina</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M37" t="n">
-        <v>410</v>
+        <v>300</v>
       </c>
       <c r="N37" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="O37" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="P37" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S37" t="n">
-        <v>778</v>
+        <v>800</v>
       </c>
       <c r="T37" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38">
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44554</v>
+        <v>44162</v>
       </c>
       <c r="E38" t="n">
         <v>13</v>
@@ -3395,29 +3395,29 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M38" t="n">
-        <v>380</v>
+        <v>70</v>
       </c>
       <c r="N38" t="n">
-        <v>12000</v>
+        <v>8500</v>
       </c>
       <c r="O38" t="n">
-        <v>12000</v>
+        <v>8500</v>
       </c>
       <c r="P38" t="n">
-        <v>12000</v>
+        <v>8500</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R38" t="inlineStr">
@@ -3426,10 +3426,10 @@
         </is>
       </c>
       <c r="S38" t="n">
-        <v>667</v>
+        <v>850</v>
       </c>
       <c r="T38" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39">
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44166</v>
+        <v>44162</v>
       </c>
       <c r="E39" t="n">
         <v>13</v>
@@ -3484,32 +3484,32 @@
         </is>
       </c>
       <c r="M39" t="n">
-        <v>120</v>
+        <v>75</v>
       </c>
       <c r="N39" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O39" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P39" t="n">
-        <v>10000</v>
+        <v>14400</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S39" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T39" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40">
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44166</v>
+        <v>44554</v>
       </c>
       <c r="E40" t="n">
         <v>13</v>
@@ -3555,41 +3555,41 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M40" t="n">
-        <v>120</v>
+        <v>410</v>
       </c>
       <c r="N40" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="O40" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="P40" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S40" t="n">
-        <v>800</v>
+        <v>778</v>
       </c>
       <c r="T40" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41">
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44174</v>
+        <v>44554</v>
       </c>
       <c r="E41" t="n">
         <v>13</v>
@@ -3635,41 +3635,41 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Modesto</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M41" t="n">
-        <v>120</v>
+        <v>380</v>
       </c>
       <c r="N41" t="n">
-        <v>8500</v>
+        <v>12000</v>
       </c>
       <c r="O41" t="n">
-        <v>8500</v>
+        <v>12000</v>
       </c>
       <c r="P41" t="n">
-        <v>8500</v>
+        <v>12000</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S41" t="n">
-        <v>850</v>
+        <v>667</v>
       </c>
       <c r="T41" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42">
@@ -3687,7 +3687,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44174</v>
+        <v>44166</v>
       </c>
       <c r="E42" t="n">
         <v>13</v>
@@ -3715,7 +3715,7 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Modesto</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
@@ -3724,20 +3724,20 @@
         </is>
       </c>
       <c r="M42" t="n">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="N42" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O42" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P42" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R42" t="inlineStr">
@@ -3746,10 +3746,10 @@
         </is>
       </c>
       <c r="S42" t="n">
-        <v>833</v>
+        <v>1000</v>
       </c>
       <c r="T42" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="43">
@@ -3767,7 +3767,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44174</v>
+        <v>44166</v>
       </c>
       <c r="E43" t="n">
         <v>13</v>
@@ -3795,7 +3795,7 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>Modesto</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
@@ -3807,17 +3807,17 @@
         <v>120</v>
       </c>
       <c r="N43" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O43" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P43" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
@@ -3826,10 +3826,10 @@
         </is>
       </c>
       <c r="S43" t="n">
-        <v>667</v>
+        <v>800</v>
       </c>
       <c r="T43" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="44">
@@ -3847,7 +3847,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44525</v>
+        <v>44174</v>
       </c>
       <c r="E44" t="n">
         <v>13</v>
@@ -3875,41 +3875,41 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Modesto</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M44" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="N44" t="n">
-        <v>25200</v>
+        <v>8500</v>
       </c>
       <c r="O44" t="n">
-        <v>25200</v>
+        <v>8500</v>
       </c>
       <c r="P44" t="n">
-        <v>25200</v>
+        <v>8500</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S44" t="n">
-        <v>1400</v>
+        <v>850</v>
       </c>
       <c r="T44" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="45">
@@ -3927,7 +3927,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44525</v>
+        <v>44174</v>
       </c>
       <c r="E45" t="n">
         <v>13</v>
@@ -3955,7 +3955,7 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Modesto</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
@@ -3964,16 +3964,16 @@
         </is>
       </c>
       <c r="M45" t="n">
-        <v>250</v>
+        <v>180</v>
       </c>
       <c r="N45" t="n">
-        <v>21600</v>
+        <v>15000</v>
       </c>
       <c r="O45" t="n">
-        <v>21600</v>
+        <v>15000</v>
       </c>
       <c r="P45" t="n">
-        <v>21600</v>
+        <v>15000</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
@@ -3982,11 +3982,11 @@
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S45" t="n">
-        <v>1200</v>
+        <v>833</v>
       </c>
       <c r="T45" t="n">
         <v>18</v>
@@ -4007,7 +4007,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44533</v>
+        <v>44174</v>
       </c>
       <c r="E46" t="n">
         <v>13</v>
@@ -4035,41 +4035,41 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Modesto</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M46" t="n">
-        <v>410</v>
+        <v>120</v>
       </c>
       <c r="N46" t="n">
-        <v>16500</v>
+        <v>12000</v>
       </c>
       <c r="O46" t="n">
-        <v>16500</v>
+        <v>12000</v>
       </c>
       <c r="P46" t="n">
-        <v>16500</v>
+        <v>12000</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S46" t="n">
-        <v>1100</v>
+        <v>667</v>
       </c>
       <c r="T46" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47">
@@ -4087,7 +4087,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44533</v>
+        <v>44525</v>
       </c>
       <c r="E47" t="n">
         <v>13</v>
@@ -4120,24 +4120,24 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M47" t="n">
         <v>300</v>
       </c>
       <c r="N47" t="n">
-        <v>10500</v>
+        <v>25200</v>
       </c>
       <c r="O47" t="n">
-        <v>10500</v>
+        <v>25200</v>
       </c>
       <c r="P47" t="n">
-        <v>10500</v>
+        <v>25200</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
@@ -4146,10 +4146,10 @@
         </is>
       </c>
       <c r="S47" t="n">
-        <v>700</v>
+        <v>1400</v>
       </c>
       <c r="T47" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="48">
@@ -4167,7 +4167,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44533</v>
+        <v>44525</v>
       </c>
       <c r="E48" t="n">
         <v>13</v>
@@ -4200,24 +4200,24 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M48" t="n">
         <v>250</v>
       </c>
       <c r="N48" t="n">
-        <v>7500</v>
+        <v>21600</v>
       </c>
       <c r="O48" t="n">
-        <v>7500</v>
+        <v>21600</v>
       </c>
       <c r="P48" t="n">
-        <v>7500</v>
+        <v>21600</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R48" t="inlineStr">
@@ -4226,10 +4226,10 @@
         </is>
       </c>
       <c r="S48" t="n">
-        <v>500</v>
+        <v>1200</v>
       </c>
       <c r="T48" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="49">
@@ -4247,7 +4247,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44176</v>
+        <v>44533</v>
       </c>
       <c r="E49" t="n">
         <v>13</v>
@@ -4275,7 +4275,7 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>Modesto</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
@@ -4284,20 +4284,20 @@
         </is>
       </c>
       <c r="M49" t="n">
-        <v>115</v>
+        <v>410</v>
       </c>
       <c r="N49" t="n">
-        <v>11000</v>
+        <v>16500</v>
       </c>
       <c r="O49" t="n">
-        <v>12000</v>
+        <v>16500</v>
       </c>
       <c r="P49" t="n">
-        <v>11609</v>
+        <v>16500</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R49" t="inlineStr">
@@ -4306,10 +4306,10 @@
         </is>
       </c>
       <c r="S49" t="n">
-        <v>967</v>
+        <v>1100</v>
       </c>
       <c r="T49" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="50">
@@ -4327,7 +4327,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44539</v>
+        <v>44533</v>
       </c>
       <c r="E50" t="n">
         <v>13</v>
@@ -4360,24 +4360,24 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M50" t="n">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="N50" t="n">
-        <v>18000</v>
+        <v>10500</v>
       </c>
       <c r="O50" t="n">
-        <v>18000</v>
+        <v>10500</v>
       </c>
       <c r="P50" t="n">
-        <v>18000</v>
+        <v>10500</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R50" t="inlineStr">
@@ -4386,10 +4386,10 @@
         </is>
       </c>
       <c r="S50" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="T50" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="51">
@@ -4407,7 +4407,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44539</v>
+        <v>44533</v>
       </c>
       <c r="E51" t="n">
         <v>13</v>
@@ -4440,24 +4440,24 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M51" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="N51" t="n">
-        <v>16000</v>
+        <v>7500</v>
       </c>
       <c r="O51" t="n">
-        <v>16000</v>
+        <v>7500</v>
       </c>
       <c r="P51" t="n">
-        <v>16000</v>
+        <v>7500</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R51" t="inlineStr">
@@ -4466,10 +4466,10 @@
         </is>
       </c>
       <c r="S51" t="n">
-        <v>889</v>
+        <v>500</v>
       </c>
       <c r="T51" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="52">
@@ -4487,7 +4487,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44539</v>
+        <v>44176</v>
       </c>
       <c r="E52" t="n">
         <v>13</v>
@@ -4515,29 +4515,29 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Modesto</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M52" t="n">
-        <v>300</v>
+        <v>115</v>
       </c>
       <c r="N52" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="O52" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P52" t="n">
-        <v>14000</v>
+        <v>11609</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="R52" t="inlineStr">
@@ -4546,10 +4546,10 @@
         </is>
       </c>
       <c r="S52" t="n">
-        <v>778</v>
+        <v>967</v>
       </c>
       <c r="T52" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53">
@@ -4567,7 +4567,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44168</v>
+        <v>44539</v>
       </c>
       <c r="E53" t="n">
         <v>13</v>
@@ -4595,7 +4595,7 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>Dina</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
@@ -4604,32 +4604,32 @@
         </is>
       </c>
       <c r="M53" t="n">
-        <v>40</v>
+        <v>290</v>
       </c>
       <c r="N53" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="O53" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="P53" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S53" t="n">
-        <v>1400</v>
+        <v>1000</v>
       </c>
       <c r="T53" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="54">
@@ -4647,7 +4647,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44553</v>
+        <v>44539</v>
       </c>
       <c r="E54" t="n">
         <v>13</v>
@@ -4675,29 +4675,29 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>Dina</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M54" t="n">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="N54" t="n">
-        <v>7500</v>
+        <v>16000</v>
       </c>
       <c r="O54" t="n">
-        <v>7500</v>
+        <v>16000</v>
       </c>
       <c r="P54" t="n">
-        <v>7500</v>
+        <v>16000</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>$/bandeja 6 kilos</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R54" t="inlineStr">
@@ -4706,10 +4706,10 @@
         </is>
       </c>
       <c r="S54" t="n">
-        <v>1250</v>
+        <v>889</v>
       </c>
       <c r="T54" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55">
@@ -4727,7 +4727,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44553</v>
+        <v>44539</v>
       </c>
       <c r="E55" t="n">
         <v>13</v>
@@ -4755,29 +4755,29 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>Dina</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M55" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="N55" t="n">
-        <v>6500</v>
+        <v>14000</v>
       </c>
       <c r="O55" t="n">
-        <v>6500</v>
+        <v>14000</v>
       </c>
       <c r="P55" t="n">
-        <v>6500</v>
+        <v>14000</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>$/bandeja 6 kilos</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R55" t="inlineStr">
@@ -4786,10 +4786,10 @@
         </is>
       </c>
       <c r="S55" t="n">
-        <v>1083</v>
+        <v>778</v>
       </c>
       <c r="T55" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="56">
@@ -4807,7 +4807,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44553</v>
+        <v>44168</v>
       </c>
       <c r="E56" t="n">
         <v>13</v>
@@ -4835,16 +4835,16 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Dina</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M56" t="n">
-        <v>380</v>
+        <v>40</v>
       </c>
       <c r="N56" t="n">
         <v>14000</v>
@@ -4857,19 +4857,19 @@
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R56" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S56" t="n">
-        <v>778</v>
+        <v>1400</v>
       </c>
       <c r="T56" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="57">
@@ -4915,29 +4915,29 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Dina</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M57" t="n">
-        <v>410</v>
+        <v>280</v>
       </c>
       <c r="N57" t="n">
-        <v>12000</v>
+        <v>7500</v>
       </c>
       <c r="O57" t="n">
-        <v>12000</v>
+        <v>7500</v>
       </c>
       <c r="P57" t="n">
-        <v>12000</v>
+        <v>7500</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 6 kilos</t>
         </is>
       </c>
       <c r="R57" t="inlineStr">
@@ -4946,10 +4946,10 @@
         </is>
       </c>
       <c r="S57" t="n">
-        <v>667</v>
+        <v>1250</v>
       </c>
       <c r="T57" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="58">
@@ -4967,7 +4967,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44167</v>
+        <v>44553</v>
       </c>
       <c r="E58" t="n">
         <v>13</v>
@@ -4995,29 +4995,29 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Dina</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M58" t="n">
-        <v>85</v>
+        <v>350</v>
       </c>
       <c r="N58" t="n">
-        <v>10000</v>
+        <v>6500</v>
       </c>
       <c r="O58" t="n">
-        <v>10000</v>
+        <v>6500</v>
       </c>
       <c r="P58" t="n">
-        <v>10000</v>
+        <v>6500</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 6 kilos</t>
         </is>
       </c>
       <c r="R58" t="inlineStr">
@@ -5026,10 +5026,10 @@
         </is>
       </c>
       <c r="S58" t="n">
-        <v>1000</v>
+        <v>1083</v>
       </c>
       <c r="T58" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="59">
@@ -5047,7 +5047,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44167</v>
+        <v>44553</v>
       </c>
       <c r="E59" t="n">
         <v>13</v>
@@ -5075,7 +5075,7 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
@@ -5084,20 +5084,20 @@
         </is>
       </c>
       <c r="M59" t="n">
-        <v>120</v>
+        <v>380</v>
       </c>
       <c r="N59" t="n">
-        <v>9500</v>
+        <v>14000</v>
       </c>
       <c r="O59" t="n">
-        <v>9500</v>
+        <v>14000</v>
       </c>
       <c r="P59" t="n">
-        <v>9500</v>
+        <v>14000</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R59" t="inlineStr">
@@ -5106,10 +5106,10 @@
         </is>
       </c>
       <c r="S59" t="n">
-        <v>950</v>
+        <v>778</v>
       </c>
       <c r="T59" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="60">
@@ -5127,7 +5127,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44167</v>
+        <v>44553</v>
       </c>
       <c r="E60" t="n">
         <v>13</v>
@@ -5155,25 +5155,25 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M60" t="n">
-        <v>60</v>
+        <v>410</v>
       </c>
       <c r="N60" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O60" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P60" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
@@ -5186,7 +5186,7 @@
         </is>
       </c>
       <c r="S60" t="n">
-        <v>833</v>
+        <v>667</v>
       </c>
       <c r="T60" t="n">
         <v>18</v>
@@ -5207,7 +5207,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44160</v>
+        <v>44167</v>
       </c>
       <c r="E61" t="n">
         <v>13</v>
@@ -5240,20 +5240,20 @@
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M61" t="n">
-        <v>25</v>
+        <v>85</v>
       </c>
       <c r="N61" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O61" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P61" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         </is>
       </c>
       <c r="S61" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T61" t="n">
         <v>10</v>
@@ -5287,7 +5287,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44160</v>
+        <v>44167</v>
       </c>
       <c r="E62" t="n">
         <v>13</v>
@@ -5320,20 +5320,20 @@
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M62" t="n">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="N62" t="n">
-        <v>7000</v>
+        <v>9500</v>
       </c>
       <c r="O62" t="n">
-        <v>7000</v>
+        <v>9500</v>
       </c>
       <c r="P62" t="n">
-        <v>7000</v>
+        <v>9500</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="S62" t="n">
-        <v>700</v>
+        <v>950</v>
       </c>
       <c r="T62" t="n">
         <v>10</v>
@@ -5367,7 +5367,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44559</v>
+        <v>44167</v>
       </c>
       <c r="E63" t="n">
         <v>13</v>
@@ -5395,16 +5395,16 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>Helena</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M63" t="n">
-        <v>310</v>
+        <v>60</v>
       </c>
       <c r="N63" t="n">
         <v>15000</v>
@@ -5417,19 +5417,19 @@
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R63" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S63" t="n">
-        <v>1000</v>
+        <v>833</v>
       </c>
       <c r="T63" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="64">
@@ -5447,7 +5447,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44559</v>
+        <v>44160</v>
       </c>
       <c r="E64" t="n">
         <v>13</v>
@@ -5475,7 +5475,7 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>Helena</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
@@ -5484,32 +5484,32 @@
         </is>
       </c>
       <c r="M64" t="n">
-        <v>350</v>
+        <v>25</v>
       </c>
       <c r="N64" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O64" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P64" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R64" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S64" t="n">
         <v>800</v>
       </c>
       <c r="T64" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="65">
@@ -5527,7 +5527,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44559</v>
+        <v>44160</v>
       </c>
       <c r="E65" t="n">
         <v>13</v>
@@ -5555,29 +5555,29 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M65" t="n">
-        <v>300</v>
+        <v>40</v>
       </c>
       <c r="N65" t="n">
-        <v>18000</v>
+        <v>7000</v>
       </c>
       <c r="O65" t="n">
-        <v>18000</v>
+        <v>7000</v>
       </c>
       <c r="P65" t="n">
-        <v>18000</v>
+        <v>7000</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R65" t="inlineStr">
@@ -5586,10 +5586,10 @@
         </is>
       </c>
       <c r="S65" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="T65" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="66">
@@ -5635,41 +5635,41 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Helena</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M66" t="n">
-        <v>380</v>
+        <v>310</v>
       </c>
       <c r="N66" t="n">
-        <v>14400</v>
+        <v>15000</v>
       </c>
       <c r="O66" t="n">
-        <v>14400</v>
+        <v>15000</v>
       </c>
       <c r="P66" t="n">
-        <v>14400</v>
+        <v>15000</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R66" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S66" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T66" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="67">
@@ -5687,7 +5687,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44551</v>
+        <v>44559</v>
       </c>
       <c r="E67" t="n">
         <v>13</v>
@@ -5715,41 +5715,41 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>Dina</t>
+          <t>Helena</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M67" t="n">
-        <v>220</v>
+        <v>350</v>
       </c>
       <c r="N67" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="O67" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="P67" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R67" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S67" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T67" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="68">
@@ -5767,7 +5767,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44551</v>
+        <v>44559</v>
       </c>
       <c r="E68" t="n">
         <v>13</v>
@@ -5795,38 +5795,38 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>Dina</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M68" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="N68" t="n">
-        <v>14400</v>
+        <v>18000</v>
       </c>
       <c r="O68" t="n">
-        <v>14400</v>
+        <v>18000</v>
       </c>
       <c r="P68" t="n">
-        <v>14400</v>
+        <v>18000</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R68" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S68" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T68" t="n">
         <v>18</v>
@@ -5847,7 +5847,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44519</v>
+        <v>44559</v>
       </c>
       <c r="E69" t="n">
         <v>13</v>
@@ -5875,7 +5875,7 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
@@ -5884,32 +5884,32 @@
         </is>
       </c>
       <c r="M69" t="n">
-        <v>300</v>
+        <v>380</v>
       </c>
       <c r="N69" t="n">
-        <v>22500</v>
+        <v>14400</v>
       </c>
       <c r="O69" t="n">
-        <v>22500</v>
+        <v>14400</v>
       </c>
       <c r="P69" t="n">
-        <v>22500</v>
+        <v>14400</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R69" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S69" t="n">
-        <v>1500</v>
+        <v>800</v>
       </c>
       <c r="T69" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="70">
@@ -5927,7 +5927,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44187</v>
+        <v>44551</v>
       </c>
       <c r="E70" t="n">
         <v>13</v>
@@ -5955,41 +5955,41 @@
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Dina</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M70" t="n">
-        <v>80</v>
+        <v>220</v>
       </c>
       <c r="N70" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O70" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P70" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R70" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S70" t="n">
         <v>1000</v>
       </c>
       <c r="T70" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="71">
@@ -6007,7 +6007,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44187</v>
+        <v>44551</v>
       </c>
       <c r="E71" t="n">
         <v>13</v>
@@ -6035,41 +6035,41 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Dina</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M71" t="n">
-        <v>95</v>
+        <v>350</v>
       </c>
       <c r="N71" t="n">
-        <v>13500</v>
+        <v>14400</v>
       </c>
       <c r="O71" t="n">
-        <v>13500</v>
+        <v>14400</v>
       </c>
       <c r="P71" t="n">
-        <v>13500</v>
+        <v>14400</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R71" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S71" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="T71" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="72">
@@ -6087,7 +6087,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44187</v>
+        <v>44519</v>
       </c>
       <c r="E72" t="n">
         <v>13</v>
@@ -6115,25 +6115,25 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M72" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="N72" t="n">
-        <v>12000</v>
+        <v>22500</v>
       </c>
       <c r="O72" t="n">
-        <v>12000</v>
+        <v>22500</v>
       </c>
       <c r="P72" t="n">
-        <v>12000</v>
+        <v>22500</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
@@ -6142,11 +6142,11 @@
       </c>
       <c r="R72" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S72" t="n">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="T72" t="n">
         <v>15</v>
@@ -6167,7 +6167,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44175</v>
+        <v>44187</v>
       </c>
       <c r="E73" t="n">
         <v>13</v>
@@ -6195,7 +6195,7 @@
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>Modesto</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
@@ -6204,20 +6204,20 @@
         </is>
       </c>
       <c r="M73" t="n">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="N73" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="O73" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P73" t="n">
-        <v>11571</v>
+        <v>15000</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R73" t="inlineStr">
@@ -6226,10 +6226,10 @@
         </is>
       </c>
       <c r="S73" t="n">
-        <v>964</v>
+        <v>1000</v>
       </c>
       <c r="T73" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="74">
@@ -6247,7 +6247,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44195</v>
+        <v>44187</v>
       </c>
       <c r="E74" t="n">
         <v>13</v>
@@ -6280,24 +6280,24 @@
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M74" t="n">
-        <v>124</v>
+        <v>95</v>
       </c>
       <c r="N74" t="n">
-        <v>13000</v>
+        <v>13500</v>
       </c>
       <c r="O74" t="n">
-        <v>13000</v>
+        <v>13500</v>
       </c>
       <c r="P74" t="n">
-        <v>13000</v>
+        <v>13500</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R74" t="inlineStr">
@@ -6306,7 +6306,7 @@
         </is>
       </c>
       <c r="S74" t="n">
-        <v>867</v>
+        <v>900</v>
       </c>
       <c r="T74" t="n">
         <v>15</v>
@@ -6327,7 +6327,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44536</v>
+        <v>44187</v>
       </c>
       <c r="E75" t="n">
         <v>13</v>
@@ -6355,41 +6355,41 @@
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M75" t="n">
-        <v>220</v>
+        <v>120</v>
       </c>
       <c r="N75" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O75" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P75" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R75" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S75" t="n">
-        <v>1100</v>
+        <v>800</v>
       </c>
       <c r="T75" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="76">
@@ -6407,7 +6407,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44536</v>
+        <v>44175</v>
       </c>
       <c r="E76" t="n">
         <v>13</v>
@@ -6435,41 +6435,41 @@
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Modesto</t>
         </is>
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M76" t="n">
-        <v>250</v>
+        <v>140</v>
       </c>
       <c r="N76" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="O76" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="P76" t="n">
-        <v>7000</v>
+        <v>11571</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="R76" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S76" t="n">
-        <v>700</v>
+        <v>964</v>
       </c>
       <c r="T76" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77">
@@ -6487,7 +6487,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44194</v>
+        <v>44195</v>
       </c>
       <c r="E77" t="n">
         <v>13</v>
@@ -6524,7 +6524,7 @@
         </is>
       </c>
       <c r="M77" t="n">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="N77" t="n">
         <v>13000</v>
@@ -6567,7 +6567,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44540</v>
+        <v>44536</v>
       </c>
       <c r="E78" t="n">
         <v>13</v>
@@ -6604,20 +6604,20 @@
         </is>
       </c>
       <c r="M78" t="n">
-        <v>330</v>
+        <v>220</v>
       </c>
       <c r="N78" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="O78" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="P78" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R78" t="inlineStr">
@@ -6626,10 +6626,10 @@
         </is>
       </c>
       <c r="S78" t="n">
-        <v>889</v>
+        <v>1100</v>
       </c>
       <c r="T78" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="79">
@@ -6647,68 +6647,308 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
+        <v>44536</v>
+      </c>
+      <c r="E79" t="n">
+        <v>13</v>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G79" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I79" t="n">
+        <v>100103003</v>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>Damasco</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>Castle Brite</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M79" t="n">
+        <v>250</v>
+      </c>
+      <c r="N79" t="n">
+        <v>7000</v>
+      </c>
+      <c r="O79" t="n">
+        <v>7000</v>
+      </c>
+      <c r="P79" t="n">
+        <v>7000</v>
+      </c>
+      <c r="Q79" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R79" t="inlineStr">
+        <is>
+          <t>Provincia de Los Andes</t>
+        </is>
+      </c>
+      <c r="S79" t="n">
+        <v>700</v>
+      </c>
+      <c r="T79" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>9</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D80" s="2" t="n">
+        <v>44194</v>
+      </c>
+      <c r="E80" t="n">
+        <v>13</v>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G80" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I80" t="n">
+        <v>100103003</v>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>Damasco</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>Patterson</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M80" t="n">
+        <v>120</v>
+      </c>
+      <c r="N80" t="n">
+        <v>13000</v>
+      </c>
+      <c r="O80" t="n">
+        <v>13000</v>
+      </c>
+      <c r="P80" t="n">
+        <v>13000</v>
+      </c>
+      <c r="Q80" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="R80" t="inlineStr">
+        <is>
+          <t>Provincia de San Felipe de Aconcagua</t>
+        </is>
+      </c>
+      <c r="S80" t="n">
+        <v>867</v>
+      </c>
+      <c r="T80" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>9</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D81" s="2" t="n">
         <v>44540</v>
       </c>
-      <c r="E79" t="n">
-        <v>13</v>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G79" t="n">
-        <v>100103</v>
-      </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>Frutos de hueso (carozo)</t>
-        </is>
-      </c>
-      <c r="I79" t="n">
-        <v>100103003</v>
-      </c>
-      <c r="J79" t="inlineStr">
-        <is>
-          <t>Damasco</t>
-        </is>
-      </c>
-      <c r="K79" t="inlineStr">
+      <c r="E81" t="n">
+        <v>13</v>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G81" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I81" t="n">
+        <v>100103003</v>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>Damasco</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
         <is>
           <t>Castle Brite</t>
         </is>
       </c>
-      <c r="L79" t="inlineStr">
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M81" t="n">
+        <v>330</v>
+      </c>
+      <c r="N81" t="n">
+        <v>16000</v>
+      </c>
+      <c r="O81" t="n">
+        <v>16000</v>
+      </c>
+      <c r="P81" t="n">
+        <v>16000</v>
+      </c>
+      <c r="Q81" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="R81" t="inlineStr">
+        <is>
+          <t>Provincia de Los Andes</t>
+        </is>
+      </c>
+      <c r="S81" t="n">
+        <v>889</v>
+      </c>
+      <c r="T81" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>9</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D82" s="2" t="n">
+        <v>44540</v>
+      </c>
+      <c r="E82" t="n">
+        <v>13</v>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G82" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I82" t="n">
+        <v>100103003</v>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>Damasco</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>Castle Brite</t>
+        </is>
+      </c>
+      <c r="L82" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="M79" t="n">
+      <c r="M82" t="n">
         <v>280</v>
       </c>
-      <c r="N79" t="n">
+      <c r="N82" t="n">
         <v>14000</v>
       </c>
-      <c r="O79" t="n">
+      <c r="O82" t="n">
         <v>14000</v>
       </c>
-      <c r="P79" t="n">
+      <c r="P82" t="n">
         <v>14000</v>
       </c>
-      <c r="Q79" t="inlineStr">
+      <c r="Q82" t="inlineStr">
         <is>
           <t>$/caja 18 kilos</t>
         </is>
       </c>
-      <c r="R79" t="inlineStr">
+      <c r="R82" t="inlineStr">
         <is>
           <t>Provincia de Los Andes</t>
         </is>
       </c>
-      <c r="S79" t="n">
+      <c r="S82" t="n">
         <v>778</v>
       </c>
-      <c r="T79" t="n">
+      <c r="T82" t="n">
         <v>18</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Damasco.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Damasco.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T82"/>
+  <dimension ref="A1:T84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4087,7 +4087,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44525</v>
+        <v>44566</v>
       </c>
       <c r="E47" t="n">
         <v>13</v>
@@ -4115,7 +4115,7 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
@@ -4124,16 +4124,16 @@
         </is>
       </c>
       <c r="M47" t="n">
-        <v>300</v>
+        <v>410</v>
       </c>
       <c r="N47" t="n">
-        <v>25200</v>
+        <v>18000</v>
       </c>
       <c r="O47" t="n">
-        <v>25200</v>
+        <v>18000</v>
       </c>
       <c r="P47" t="n">
-        <v>25200</v>
+        <v>18000</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
@@ -4142,11 +4142,11 @@
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S47" t="n">
-        <v>1400</v>
+        <v>1000</v>
       </c>
       <c r="T47" t="n">
         <v>18</v>
@@ -4167,7 +4167,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44525</v>
+        <v>44566</v>
       </c>
       <c r="E48" t="n">
         <v>13</v>
@@ -4195,7 +4195,7 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
@@ -4204,16 +4204,16 @@
         </is>
       </c>
       <c r="M48" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="N48" t="n">
-        <v>21600</v>
+        <v>14400</v>
       </c>
       <c r="O48" t="n">
-        <v>21600</v>
+        <v>14400</v>
       </c>
       <c r="P48" t="n">
-        <v>21600</v>
+        <v>14400</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
@@ -4222,11 +4222,11 @@
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S48" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="T48" t="n">
         <v>18</v>
@@ -4247,7 +4247,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44533</v>
+        <v>44525</v>
       </c>
       <c r="E49" t="n">
         <v>13</v>
@@ -4280,24 +4280,24 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M49" t="n">
-        <v>410</v>
+        <v>300</v>
       </c>
       <c r="N49" t="n">
-        <v>16500</v>
+        <v>25200</v>
       </c>
       <c r="O49" t="n">
-        <v>16500</v>
+        <v>25200</v>
       </c>
       <c r="P49" t="n">
-        <v>16500</v>
+        <v>25200</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R49" t="inlineStr">
@@ -4306,10 +4306,10 @@
         </is>
       </c>
       <c r="S49" t="n">
-        <v>1100</v>
+        <v>1400</v>
       </c>
       <c r="T49" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="50">
@@ -4327,7 +4327,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44533</v>
+        <v>44525</v>
       </c>
       <c r="E50" t="n">
         <v>13</v>
@@ -4360,24 +4360,24 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M50" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="N50" t="n">
-        <v>10500</v>
+        <v>21600</v>
       </c>
       <c r="O50" t="n">
-        <v>10500</v>
+        <v>21600</v>
       </c>
       <c r="P50" t="n">
-        <v>10500</v>
+        <v>21600</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R50" t="inlineStr">
@@ -4386,10 +4386,10 @@
         </is>
       </c>
       <c r="S50" t="n">
-        <v>700</v>
+        <v>1200</v>
       </c>
       <c r="T50" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51">
@@ -4440,20 +4440,20 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M51" t="n">
-        <v>250</v>
+        <v>410</v>
       </c>
       <c r="N51" t="n">
-        <v>7500</v>
+        <v>16500</v>
       </c>
       <c r="O51" t="n">
-        <v>7500</v>
+        <v>16500</v>
       </c>
       <c r="P51" t="n">
-        <v>7500</v>
+        <v>16500</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
@@ -4466,7 +4466,7 @@
         </is>
       </c>
       <c r="S51" t="n">
-        <v>500</v>
+        <v>1100</v>
       </c>
       <c r="T51" t="n">
         <v>15</v>
@@ -4487,7 +4487,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44176</v>
+        <v>44533</v>
       </c>
       <c r="E52" t="n">
         <v>13</v>
@@ -4515,29 +4515,29 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Modesto</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M52" t="n">
-        <v>115</v>
+        <v>300</v>
       </c>
       <c r="N52" t="n">
-        <v>11000</v>
+        <v>10500</v>
       </c>
       <c r="O52" t="n">
-        <v>12000</v>
+        <v>10500</v>
       </c>
       <c r="P52" t="n">
-        <v>11609</v>
+        <v>10500</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R52" t="inlineStr">
@@ -4546,10 +4546,10 @@
         </is>
       </c>
       <c r="S52" t="n">
-        <v>967</v>
+        <v>700</v>
       </c>
       <c r="T52" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="53">
@@ -4567,7 +4567,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44539</v>
+        <v>44533</v>
       </c>
       <c r="E53" t="n">
         <v>13</v>
@@ -4600,24 +4600,24 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M53" t="n">
-        <v>290</v>
+        <v>250</v>
       </c>
       <c r="N53" t="n">
-        <v>18000</v>
+        <v>7500</v>
       </c>
       <c r="O53" t="n">
-        <v>18000</v>
+        <v>7500</v>
       </c>
       <c r="P53" t="n">
-        <v>18000</v>
+        <v>7500</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R53" t="inlineStr">
@@ -4626,10 +4626,10 @@
         </is>
       </c>
       <c r="S53" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="T53" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="54">
@@ -4647,7 +4647,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44539</v>
+        <v>44176</v>
       </c>
       <c r="E54" t="n">
         <v>13</v>
@@ -4675,7 +4675,7 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Modesto</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
@@ -4684,20 +4684,20 @@
         </is>
       </c>
       <c r="M54" t="n">
-        <v>300</v>
+        <v>115</v>
       </c>
       <c r="N54" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="O54" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="P54" t="n">
-        <v>16000</v>
+        <v>11609</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="R54" t="inlineStr">
@@ -4706,10 +4706,10 @@
         </is>
       </c>
       <c r="S54" t="n">
-        <v>889</v>
+        <v>967</v>
       </c>
       <c r="T54" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55">
@@ -4760,20 +4760,20 @@
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M55" t="n">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="N55" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="O55" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="P55" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
@@ -4786,7 +4786,7 @@
         </is>
       </c>
       <c r="S55" t="n">
-        <v>778</v>
+        <v>1000</v>
       </c>
       <c r="T55" t="n">
         <v>18</v>
@@ -4807,7 +4807,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44168</v>
+        <v>44539</v>
       </c>
       <c r="E56" t="n">
         <v>13</v>
@@ -4835,41 +4835,41 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>Dina</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M56" t="n">
-        <v>40</v>
+        <v>300</v>
       </c>
       <c r="N56" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O56" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="P56" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R56" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S56" t="n">
-        <v>1400</v>
+        <v>889</v>
       </c>
       <c r="T56" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="57">
@@ -4887,7 +4887,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44553</v>
+        <v>44539</v>
       </c>
       <c r="E57" t="n">
         <v>13</v>
@@ -4915,29 +4915,29 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>Dina</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M57" t="n">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="N57" t="n">
-        <v>7500</v>
+        <v>14000</v>
       </c>
       <c r="O57" t="n">
-        <v>7500</v>
+        <v>14000</v>
       </c>
       <c r="P57" t="n">
-        <v>7500</v>
+        <v>14000</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>$/bandeja 6 kilos</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R57" t="inlineStr">
@@ -4946,10 +4946,10 @@
         </is>
       </c>
       <c r="S57" t="n">
-        <v>1250</v>
+        <v>778</v>
       </c>
       <c r="T57" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="58">
@@ -4967,7 +4967,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44553</v>
+        <v>44168</v>
       </c>
       <c r="E58" t="n">
         <v>13</v>
@@ -5000,36 +5000,36 @@
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M58" t="n">
-        <v>350</v>
+        <v>40</v>
       </c>
       <c r="N58" t="n">
-        <v>6500</v>
+        <v>14000</v>
       </c>
       <c r="O58" t="n">
-        <v>6500</v>
+        <v>14000</v>
       </c>
       <c r="P58" t="n">
-        <v>6500</v>
+        <v>14000</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>$/bandeja 6 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R58" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S58" t="n">
-        <v>1083</v>
+        <v>1400</v>
       </c>
       <c r="T58" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="59">
@@ -5075,29 +5075,29 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Dina</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M59" t="n">
-        <v>380</v>
+        <v>280</v>
       </c>
       <c r="N59" t="n">
-        <v>14000</v>
+        <v>7500</v>
       </c>
       <c r="O59" t="n">
-        <v>14000</v>
+        <v>7500</v>
       </c>
       <c r="P59" t="n">
-        <v>14000</v>
+        <v>7500</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 6 kilos</t>
         </is>
       </c>
       <c r="R59" t="inlineStr">
@@ -5106,10 +5106,10 @@
         </is>
       </c>
       <c r="S59" t="n">
-        <v>778</v>
+        <v>1250</v>
       </c>
       <c r="T59" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="60">
@@ -5155,29 +5155,29 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Dina</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M60" t="n">
-        <v>410</v>
+        <v>350</v>
       </c>
       <c r="N60" t="n">
-        <v>12000</v>
+        <v>6500</v>
       </c>
       <c r="O60" t="n">
-        <v>12000</v>
+        <v>6500</v>
       </c>
       <c r="P60" t="n">
-        <v>12000</v>
+        <v>6500</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 6 kilos</t>
         </is>
       </c>
       <c r="R60" t="inlineStr">
@@ -5186,10 +5186,10 @@
         </is>
       </c>
       <c r="S60" t="n">
-        <v>667</v>
+        <v>1083</v>
       </c>
       <c r="T60" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="61">
@@ -5207,7 +5207,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44167</v>
+        <v>44553</v>
       </c>
       <c r="E61" t="n">
         <v>13</v>
@@ -5235,29 +5235,29 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M61" t="n">
-        <v>85</v>
+        <v>380</v>
       </c>
       <c r="N61" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O61" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P61" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R61" t="inlineStr">
@@ -5266,10 +5266,10 @@
         </is>
       </c>
       <c r="S61" t="n">
-        <v>1000</v>
+        <v>778</v>
       </c>
       <c r="T61" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="62">
@@ -5287,7 +5287,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44167</v>
+        <v>44553</v>
       </c>
       <c r="E62" t="n">
         <v>13</v>
@@ -5315,29 +5315,29 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M62" t="n">
-        <v>120</v>
+        <v>410</v>
       </c>
       <c r="N62" t="n">
-        <v>9500</v>
+        <v>12000</v>
       </c>
       <c r="O62" t="n">
-        <v>9500</v>
+        <v>12000</v>
       </c>
       <c r="P62" t="n">
-        <v>9500</v>
+        <v>12000</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R62" t="inlineStr">
@@ -5346,10 +5346,10 @@
         </is>
       </c>
       <c r="S62" t="n">
-        <v>950</v>
+        <v>667</v>
       </c>
       <c r="T62" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="63">
@@ -5400,24 +5400,24 @@
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M63" t="n">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="N63" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O63" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P63" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R63" t="inlineStr">
@@ -5426,10 +5426,10 @@
         </is>
       </c>
       <c r="S63" t="n">
-        <v>833</v>
+        <v>1000</v>
       </c>
       <c r="T63" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="64">
@@ -5447,7 +5447,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44160</v>
+        <v>44167</v>
       </c>
       <c r="E64" t="n">
         <v>13</v>
@@ -5484,16 +5484,16 @@
         </is>
       </c>
       <c r="M64" t="n">
-        <v>25</v>
+        <v>120</v>
       </c>
       <c r="N64" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="O64" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="P64" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
@@ -5506,7 +5506,7 @@
         </is>
       </c>
       <c r="S64" t="n">
-        <v>800</v>
+        <v>950</v>
       </c>
       <c r="T64" t="n">
         <v>10</v>
@@ -5527,7 +5527,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44160</v>
+        <v>44167</v>
       </c>
       <c r="E65" t="n">
         <v>13</v>
@@ -5560,24 +5560,24 @@
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M65" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="N65" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="O65" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="P65" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R65" t="inlineStr">
@@ -5586,10 +5586,10 @@
         </is>
       </c>
       <c r="S65" t="n">
-        <v>700</v>
+        <v>833</v>
       </c>
       <c r="T65" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="66">
@@ -5607,7 +5607,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44559</v>
+        <v>44160</v>
       </c>
       <c r="E66" t="n">
         <v>13</v>
@@ -5635,41 +5635,41 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>Helena</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M66" t="n">
-        <v>310</v>
+        <v>25</v>
       </c>
       <c r="N66" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="O66" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="P66" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R66" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S66" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T66" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="67">
@@ -5687,7 +5687,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44559</v>
+        <v>44160</v>
       </c>
       <c r="E67" t="n">
         <v>13</v>
@@ -5715,41 +5715,41 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>Helena</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M67" t="n">
-        <v>350</v>
+        <v>40</v>
       </c>
       <c r="N67" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="O67" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="P67" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R67" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S67" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="T67" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="68">
@@ -5795,7 +5795,7 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Helena</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
@@ -5804,32 +5804,32 @@
         </is>
       </c>
       <c r="M68" t="n">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="N68" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="O68" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="P68" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R68" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S68" t="n">
         <v>1000</v>
       </c>
       <c r="T68" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="69">
@@ -5875,7 +5875,7 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Helena</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
@@ -5884,32 +5884,32 @@
         </is>
       </c>
       <c r="M69" t="n">
-        <v>380</v>
+        <v>350</v>
       </c>
       <c r="N69" t="n">
-        <v>14400</v>
+        <v>12000</v>
       </c>
       <c r="O69" t="n">
-        <v>14400</v>
+        <v>12000</v>
       </c>
       <c r="P69" t="n">
-        <v>14400</v>
+        <v>12000</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R69" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S69" t="n">
         <v>800</v>
       </c>
       <c r="T69" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="70">
@@ -5927,7 +5927,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44551</v>
+        <v>44559</v>
       </c>
       <c r="E70" t="n">
         <v>13</v>
@@ -5955,7 +5955,7 @@
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>Dina</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
@@ -5964,7 +5964,7 @@
         </is>
       </c>
       <c r="M70" t="n">
-        <v>220</v>
+        <v>300</v>
       </c>
       <c r="N70" t="n">
         <v>18000</v>
@@ -5977,12 +5977,12 @@
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R70" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S70" t="n">
@@ -6007,7 +6007,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44551</v>
+        <v>44559</v>
       </c>
       <c r="E71" t="n">
         <v>13</v>
@@ -6035,7 +6035,7 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>Dina</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
@@ -6044,7 +6044,7 @@
         </is>
       </c>
       <c r="M71" t="n">
-        <v>350</v>
+        <v>380</v>
       </c>
       <c r="N71" t="n">
         <v>14400</v>
@@ -6057,12 +6057,12 @@
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R71" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S71" t="n">
@@ -6087,7 +6087,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44519</v>
+        <v>44551</v>
       </c>
       <c r="E72" t="n">
         <v>13</v>
@@ -6115,41 +6115,41 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Dina</t>
         </is>
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M72" t="n">
-        <v>300</v>
+        <v>220</v>
       </c>
       <c r="N72" t="n">
-        <v>22500</v>
+        <v>18000</v>
       </c>
       <c r="O72" t="n">
-        <v>22500</v>
+        <v>18000</v>
       </c>
       <c r="P72" t="n">
-        <v>22500</v>
+        <v>18000</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R72" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S72" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="T72" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="73">
@@ -6167,7 +6167,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44187</v>
+        <v>44551</v>
       </c>
       <c r="E73" t="n">
         <v>13</v>
@@ -6195,7 +6195,7 @@
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Dina</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
@@ -6204,32 +6204,32 @@
         </is>
       </c>
       <c r="M73" t="n">
-        <v>80</v>
+        <v>350</v>
       </c>
       <c r="N73" t="n">
-        <v>15000</v>
+        <v>14400</v>
       </c>
       <c r="O73" t="n">
-        <v>15000</v>
+        <v>14400</v>
       </c>
       <c r="P73" t="n">
-        <v>15000</v>
+        <v>14400</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R73" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S73" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T73" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="74">
@@ -6247,7 +6247,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44187</v>
+        <v>44519</v>
       </c>
       <c r="E74" t="n">
         <v>13</v>
@@ -6275,25 +6275,25 @@
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M74" t="n">
-        <v>95</v>
+        <v>300</v>
       </c>
       <c r="N74" t="n">
-        <v>13500</v>
+        <v>22500</v>
       </c>
       <c r="O74" t="n">
-        <v>13500</v>
+        <v>22500</v>
       </c>
       <c r="P74" t="n">
-        <v>13500</v>
+        <v>22500</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
@@ -6302,11 +6302,11 @@
       </c>
       <c r="R74" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S74" t="n">
-        <v>900</v>
+        <v>1500</v>
       </c>
       <c r="T74" t="n">
         <v>15</v>
@@ -6360,20 +6360,20 @@
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M75" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="N75" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O75" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P75" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
@@ -6386,7 +6386,7 @@
         </is>
       </c>
       <c r="S75" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T75" t="n">
         <v>15</v>
@@ -6407,7 +6407,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44175</v>
+        <v>44187</v>
       </c>
       <c r="E76" t="n">
         <v>13</v>
@@ -6435,29 +6435,29 @@
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>Modesto</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M76" t="n">
-        <v>140</v>
+        <v>95</v>
       </c>
       <c r="N76" t="n">
-        <v>11000</v>
+        <v>13500</v>
       </c>
       <c r="O76" t="n">
-        <v>12000</v>
+        <v>13500</v>
       </c>
       <c r="P76" t="n">
-        <v>11571</v>
+        <v>13500</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R76" t="inlineStr">
@@ -6466,10 +6466,10 @@
         </is>
       </c>
       <c r="S76" t="n">
-        <v>964</v>
+        <v>900</v>
       </c>
       <c r="T76" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="77">
@@ -6487,7 +6487,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44195</v>
+        <v>44187</v>
       </c>
       <c r="E77" t="n">
         <v>13</v>
@@ -6520,24 +6520,24 @@
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M77" t="n">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="N77" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O77" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P77" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R77" t="inlineStr">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="S77" t="n">
-        <v>867</v>
+        <v>800</v>
       </c>
       <c r="T77" t="n">
         <v>15</v>
@@ -6567,7 +6567,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44536</v>
+        <v>44175</v>
       </c>
       <c r="E78" t="n">
         <v>13</v>
@@ -6595,7 +6595,7 @@
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Modesto</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
@@ -6604,32 +6604,32 @@
         </is>
       </c>
       <c r="M78" t="n">
-        <v>220</v>
+        <v>140</v>
       </c>
       <c r="N78" t="n">
         <v>11000</v>
       </c>
       <c r="O78" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P78" t="n">
-        <v>11000</v>
+        <v>11571</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="R78" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S78" t="n">
-        <v>1100</v>
+        <v>964</v>
       </c>
       <c r="T78" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="79">
@@ -6647,7 +6647,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44536</v>
+        <v>44195</v>
       </c>
       <c r="E79" t="n">
         <v>13</v>
@@ -6675,41 +6675,41 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M79" t="n">
-        <v>250</v>
+        <v>124</v>
       </c>
       <c r="N79" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="O79" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="P79" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R79" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S79" t="n">
-        <v>700</v>
+        <v>867</v>
       </c>
       <c r="T79" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="80">
@@ -6727,7 +6727,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44194</v>
+        <v>44536</v>
       </c>
       <c r="E80" t="n">
         <v>13</v>
@@ -6755,7 +6755,7 @@
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
@@ -6764,32 +6764,32 @@
         </is>
       </c>
       <c r="M80" t="n">
-        <v>120</v>
+        <v>220</v>
       </c>
       <c r="N80" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O80" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P80" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R80" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S80" t="n">
-        <v>867</v>
+        <v>1100</v>
       </c>
       <c r="T80" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="81">
@@ -6807,7 +6807,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44540</v>
+        <v>44536</v>
       </c>
       <c r="E81" t="n">
         <v>13</v>
@@ -6840,24 +6840,24 @@
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M81" t="n">
-        <v>330</v>
+        <v>250</v>
       </c>
       <c r="N81" t="n">
-        <v>16000</v>
+        <v>7000</v>
       </c>
       <c r="O81" t="n">
-        <v>16000</v>
+        <v>7000</v>
       </c>
       <c r="P81" t="n">
-        <v>16000</v>
+        <v>7000</v>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R81" t="inlineStr">
@@ -6866,10 +6866,10 @@
         </is>
       </c>
       <c r="S81" t="n">
-        <v>889</v>
+        <v>700</v>
       </c>
       <c r="T81" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="82">
@@ -6887,68 +6887,228 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
+        <v>44194</v>
+      </c>
+      <c r="E82" t="n">
+        <v>13</v>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G82" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I82" t="n">
+        <v>100103003</v>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>Damasco</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>Patterson</t>
+        </is>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M82" t="n">
+        <v>120</v>
+      </c>
+      <c r="N82" t="n">
+        <v>13000</v>
+      </c>
+      <c r="O82" t="n">
+        <v>13000</v>
+      </c>
+      <c r="P82" t="n">
+        <v>13000</v>
+      </c>
+      <c r="Q82" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="R82" t="inlineStr">
+        <is>
+          <t>Provincia de San Felipe de Aconcagua</t>
+        </is>
+      </c>
+      <c r="S82" t="n">
+        <v>867</v>
+      </c>
+      <c r="T82" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>9</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D83" s="2" t="n">
         <v>44540</v>
       </c>
-      <c r="E82" t="n">
-        <v>13</v>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G82" t="n">
-        <v>100103</v>
-      </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>Frutos de hueso (carozo)</t>
-        </is>
-      </c>
-      <c r="I82" t="n">
-        <v>100103003</v>
-      </c>
-      <c r="J82" t="inlineStr">
-        <is>
-          <t>Damasco</t>
-        </is>
-      </c>
-      <c r="K82" t="inlineStr">
+      <c r="E83" t="n">
+        <v>13</v>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G83" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I83" t="n">
+        <v>100103003</v>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>Damasco</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
         <is>
           <t>Castle Brite</t>
         </is>
       </c>
-      <c r="L82" t="inlineStr">
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M83" t="n">
+        <v>330</v>
+      </c>
+      <c r="N83" t="n">
+        <v>16000</v>
+      </c>
+      <c r="O83" t="n">
+        <v>16000</v>
+      </c>
+      <c r="P83" t="n">
+        <v>16000</v>
+      </c>
+      <c r="Q83" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="R83" t="inlineStr">
+        <is>
+          <t>Provincia de Los Andes</t>
+        </is>
+      </c>
+      <c r="S83" t="n">
+        <v>889</v>
+      </c>
+      <c r="T83" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>9</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D84" s="2" t="n">
+        <v>44540</v>
+      </c>
+      <c r="E84" t="n">
+        <v>13</v>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G84" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I84" t="n">
+        <v>100103003</v>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>Damasco</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>Castle Brite</t>
+        </is>
+      </c>
+      <c r="L84" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="M82" t="n">
+      <c r="M84" t="n">
         <v>280</v>
       </c>
-      <c r="N82" t="n">
+      <c r="N84" t="n">
         <v>14000</v>
       </c>
-      <c r="O82" t="n">
+      <c r="O84" t="n">
         <v>14000</v>
       </c>
-      <c r="P82" t="n">
+      <c r="P84" t="n">
         <v>14000</v>
       </c>
-      <c r="Q82" t="inlineStr">
+      <c r="Q84" t="inlineStr">
         <is>
           <t>$/caja 18 kilos</t>
         </is>
       </c>
-      <c r="R82" t="inlineStr">
+      <c r="R84" t="inlineStr">
         <is>
           <t>Provincia de Los Andes</t>
         </is>
       </c>
-      <c r="S82" t="n">
+      <c r="S84" t="n">
         <v>778</v>
       </c>
-      <c r="T82" t="n">
+      <c r="T84" t="n">
         <v>18</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Damasco.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Damasco.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T84"/>
+  <dimension ref="A1:T85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4967,7 +4967,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44168</v>
+        <v>44572</v>
       </c>
       <c r="E58" t="n">
         <v>13</v>
@@ -4995,41 +4995,41 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>Dina</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M58" t="n">
-        <v>40</v>
+        <v>580</v>
       </c>
       <c r="N58" t="n">
         <v>14000</v>
       </c>
       <c r="O58" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P58" t="n">
-        <v>14000</v>
+        <v>14517</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R58" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S58" t="n">
-        <v>1400</v>
+        <v>806</v>
       </c>
       <c r="T58" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="59">
@@ -5047,7 +5047,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44553</v>
+        <v>44168</v>
       </c>
       <c r="E59" t="n">
         <v>13</v>
@@ -5084,32 +5084,32 @@
         </is>
       </c>
       <c r="M59" t="n">
-        <v>280</v>
+        <v>40</v>
       </c>
       <c r="N59" t="n">
-        <v>7500</v>
+        <v>14000</v>
       </c>
       <c r="O59" t="n">
-        <v>7500</v>
+        <v>14000</v>
       </c>
       <c r="P59" t="n">
-        <v>7500</v>
+        <v>14000</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>$/bandeja 6 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R59" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S59" t="n">
-        <v>1250</v>
+        <v>1400</v>
       </c>
       <c r="T59" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="60">
@@ -5160,20 +5160,20 @@
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M60" t="n">
-        <v>350</v>
+        <v>280</v>
       </c>
       <c r="N60" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="O60" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="P60" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
@@ -5186,7 +5186,7 @@
         </is>
       </c>
       <c r="S60" t="n">
-        <v>1083</v>
+        <v>1250</v>
       </c>
       <c r="T60" t="n">
         <v>6</v>
@@ -5235,7 +5235,7 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Dina</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
@@ -5244,20 +5244,20 @@
         </is>
       </c>
       <c r="M61" t="n">
-        <v>380</v>
+        <v>350</v>
       </c>
       <c r="N61" t="n">
-        <v>14000</v>
+        <v>6500</v>
       </c>
       <c r="O61" t="n">
-        <v>14000</v>
+        <v>6500</v>
       </c>
       <c r="P61" t="n">
-        <v>14000</v>
+        <v>6500</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 6 kilos</t>
         </is>
       </c>
       <c r="R61" t="inlineStr">
@@ -5266,10 +5266,10 @@
         </is>
       </c>
       <c r="S61" t="n">
-        <v>778</v>
+        <v>1083</v>
       </c>
       <c r="T61" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="62">
@@ -5320,20 +5320,20 @@
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M62" t="n">
-        <v>410</v>
+        <v>380</v>
       </c>
       <c r="N62" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O62" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P62" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="S62" t="n">
-        <v>667</v>
+        <v>778</v>
       </c>
       <c r="T62" t="n">
         <v>18</v>
@@ -5367,7 +5367,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44167</v>
+        <v>44553</v>
       </c>
       <c r="E63" t="n">
         <v>13</v>
@@ -5395,29 +5395,29 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M63" t="n">
-        <v>85</v>
+        <v>410</v>
       </c>
       <c r="N63" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O63" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P63" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R63" t="inlineStr">
@@ -5426,10 +5426,10 @@
         </is>
       </c>
       <c r="S63" t="n">
-        <v>1000</v>
+        <v>667</v>
       </c>
       <c r="T63" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="64">
@@ -5480,20 +5480,20 @@
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M64" t="n">
-        <v>120</v>
+        <v>85</v>
       </c>
       <c r="N64" t="n">
-        <v>9500</v>
+        <v>10000</v>
       </c>
       <c r="O64" t="n">
-        <v>9500</v>
+        <v>10000</v>
       </c>
       <c r="P64" t="n">
-        <v>9500</v>
+        <v>10000</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
@@ -5506,7 +5506,7 @@
         </is>
       </c>
       <c r="S64" t="n">
-        <v>950</v>
+        <v>1000</v>
       </c>
       <c r="T64" t="n">
         <v>10</v>
@@ -5564,20 +5564,20 @@
         </is>
       </c>
       <c r="M65" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="N65" t="n">
-        <v>15000</v>
+        <v>9500</v>
       </c>
       <c r="O65" t="n">
-        <v>15000</v>
+        <v>9500</v>
       </c>
       <c r="P65" t="n">
-        <v>15000</v>
+        <v>9500</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R65" t="inlineStr">
@@ -5586,10 +5586,10 @@
         </is>
       </c>
       <c r="S65" t="n">
-        <v>833</v>
+        <v>950</v>
       </c>
       <c r="T65" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="66">
@@ -5607,7 +5607,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44160</v>
+        <v>44167</v>
       </c>
       <c r="E66" t="n">
         <v>13</v>
@@ -5644,20 +5644,20 @@
         </is>
       </c>
       <c r="M66" t="n">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="N66" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="O66" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="P66" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R66" t="inlineStr">
@@ -5666,10 +5666,10 @@
         </is>
       </c>
       <c r="S66" t="n">
-        <v>800</v>
+        <v>833</v>
       </c>
       <c r="T66" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="67">
@@ -5720,20 +5720,20 @@
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M67" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="N67" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O67" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P67" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="S67" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="T67" t="n">
         <v>10</v>
@@ -5767,7 +5767,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44559</v>
+        <v>44160</v>
       </c>
       <c r="E68" t="n">
         <v>13</v>
@@ -5795,41 +5795,41 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>Helena</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M68" t="n">
-        <v>310</v>
+        <v>40</v>
       </c>
       <c r="N68" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="O68" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="P68" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R68" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S68" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="T68" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="69">
@@ -5880,20 +5880,20 @@
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M69" t="n">
-        <v>350</v>
+        <v>310</v>
       </c>
       <c r="N69" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O69" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P69" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
@@ -5906,7 +5906,7 @@
         </is>
       </c>
       <c r="S69" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T69" t="n">
         <v>15</v>
@@ -5955,41 +5955,41 @@
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Helena</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M70" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="N70" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="O70" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="P70" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R70" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S70" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T70" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="71">
@@ -6040,20 +6040,20 @@
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M71" t="n">
-        <v>380</v>
+        <v>300</v>
       </c>
       <c r="N71" t="n">
-        <v>14400</v>
+        <v>18000</v>
       </c>
       <c r="O71" t="n">
-        <v>14400</v>
+        <v>18000</v>
       </c>
       <c r="P71" t="n">
-        <v>14400</v>
+        <v>18000</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
@@ -6066,7 +6066,7 @@
         </is>
       </c>
       <c r="S71" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T71" t="n">
         <v>18</v>
@@ -6087,7 +6087,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44551</v>
+        <v>44559</v>
       </c>
       <c r="E72" t="n">
         <v>13</v>
@@ -6115,38 +6115,38 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>Dina</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M72" t="n">
-        <v>220</v>
+        <v>380</v>
       </c>
       <c r="N72" t="n">
-        <v>18000</v>
+        <v>14400</v>
       </c>
       <c r="O72" t="n">
-        <v>18000</v>
+        <v>14400</v>
       </c>
       <c r="P72" t="n">
-        <v>18000</v>
+        <v>14400</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R72" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S72" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T72" t="n">
         <v>18</v>
@@ -6200,20 +6200,20 @@
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M73" t="n">
-        <v>350</v>
+        <v>220</v>
       </c>
       <c r="N73" t="n">
-        <v>14400</v>
+        <v>18000</v>
       </c>
       <c r="O73" t="n">
-        <v>14400</v>
+        <v>18000</v>
       </c>
       <c r="P73" t="n">
-        <v>14400</v>
+        <v>18000</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
@@ -6226,7 +6226,7 @@
         </is>
       </c>
       <c r="S73" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T73" t="n">
         <v>18</v>
@@ -6247,7 +6247,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44519</v>
+        <v>44551</v>
       </c>
       <c r="E74" t="n">
         <v>13</v>
@@ -6275,7 +6275,7 @@
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Dina</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
@@ -6284,32 +6284,32 @@
         </is>
       </c>
       <c r="M74" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="N74" t="n">
-        <v>22500</v>
+        <v>14400</v>
       </c>
       <c r="O74" t="n">
-        <v>22500</v>
+        <v>14400</v>
       </c>
       <c r="P74" t="n">
-        <v>22500</v>
+        <v>14400</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R74" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S74" t="n">
-        <v>1500</v>
+        <v>800</v>
       </c>
       <c r="T74" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="75">
@@ -6327,7 +6327,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44187</v>
+        <v>44519</v>
       </c>
       <c r="E75" t="n">
         <v>13</v>
@@ -6355,7 +6355,7 @@
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
@@ -6364,16 +6364,16 @@
         </is>
       </c>
       <c r="M75" t="n">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="N75" t="n">
-        <v>15000</v>
+        <v>22500</v>
       </c>
       <c r="O75" t="n">
-        <v>15000</v>
+        <v>22500</v>
       </c>
       <c r="P75" t="n">
-        <v>15000</v>
+        <v>22500</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
@@ -6382,11 +6382,11 @@
       </c>
       <c r="R75" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S75" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="T75" t="n">
         <v>15</v>
@@ -6440,20 +6440,20 @@
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M76" t="n">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="N76" t="n">
-        <v>13500</v>
+        <v>15000</v>
       </c>
       <c r="O76" t="n">
-        <v>13500</v>
+        <v>15000</v>
       </c>
       <c r="P76" t="n">
-        <v>13500</v>
+        <v>15000</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
@@ -6466,7 +6466,7 @@
         </is>
       </c>
       <c r="S76" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="T76" t="n">
         <v>15</v>
@@ -6520,20 +6520,20 @@
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M77" t="n">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="N77" t="n">
-        <v>12000</v>
+        <v>13500</v>
       </c>
       <c r="O77" t="n">
-        <v>12000</v>
+        <v>13500</v>
       </c>
       <c r="P77" t="n">
-        <v>12000</v>
+        <v>13500</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="S77" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="T77" t="n">
         <v>15</v>
@@ -6567,7 +6567,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44175</v>
+        <v>44187</v>
       </c>
       <c r="E78" t="n">
         <v>13</v>
@@ -6595,29 +6595,29 @@
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>Modesto</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M78" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="N78" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O78" t="n">
         <v>12000</v>
       </c>
       <c r="P78" t="n">
-        <v>11571</v>
+        <v>12000</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R78" t="inlineStr">
@@ -6626,10 +6626,10 @@
         </is>
       </c>
       <c r="S78" t="n">
-        <v>964</v>
+        <v>800</v>
       </c>
       <c r="T78" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="79">
@@ -6647,7 +6647,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44195</v>
+        <v>44175</v>
       </c>
       <c r="E79" t="n">
         <v>13</v>
@@ -6675,7 +6675,7 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Modesto</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
@@ -6684,20 +6684,20 @@
         </is>
       </c>
       <c r="M79" t="n">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="N79" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O79" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P79" t="n">
-        <v>13000</v>
+        <v>11571</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="R79" t="inlineStr">
@@ -6706,10 +6706,10 @@
         </is>
       </c>
       <c r="S79" t="n">
-        <v>867</v>
+        <v>964</v>
       </c>
       <c r="T79" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="80">
@@ -6727,7 +6727,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44536</v>
+        <v>44195</v>
       </c>
       <c r="E80" t="n">
         <v>13</v>
@@ -6755,7 +6755,7 @@
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
@@ -6764,32 +6764,32 @@
         </is>
       </c>
       <c r="M80" t="n">
-        <v>220</v>
+        <v>124</v>
       </c>
       <c r="N80" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O80" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P80" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R80" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S80" t="n">
-        <v>1100</v>
+        <v>867</v>
       </c>
       <c r="T80" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="81">
@@ -6840,20 +6840,20 @@
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M81" t="n">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="N81" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="O81" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="P81" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
@@ -6866,7 +6866,7 @@
         </is>
       </c>
       <c r="S81" t="n">
-        <v>700</v>
+        <v>1100</v>
       </c>
       <c r="T81" t="n">
         <v>10</v>
@@ -6887,7 +6887,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44194</v>
+        <v>44536</v>
       </c>
       <c r="E82" t="n">
         <v>13</v>
@@ -6915,41 +6915,41 @@
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M82" t="n">
-        <v>120</v>
+        <v>250</v>
       </c>
       <c r="N82" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="O82" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="P82" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R82" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S82" t="n">
-        <v>867</v>
+        <v>700</v>
       </c>
       <c r="T82" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="83">
@@ -6967,7 +6967,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44540</v>
+        <v>44194</v>
       </c>
       <c r="E83" t="n">
         <v>13</v>
@@ -6995,7 +6995,7 @@
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L83" t="inlineStr">
@@ -7004,32 +7004,32 @@
         </is>
       </c>
       <c r="M83" t="n">
-        <v>330</v>
+        <v>120</v>
       </c>
       <c r="N83" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="O83" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="P83" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R83" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S83" t="n">
-        <v>889</v>
+        <v>867</v>
       </c>
       <c r="T83" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="84">
@@ -7080,35 +7080,115 @@
       </c>
       <c r="L84" t="inlineStr">
         <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M84" t="n">
+        <v>330</v>
+      </c>
+      <c r="N84" t="n">
+        <v>16000</v>
+      </c>
+      <c r="O84" t="n">
+        <v>16000</v>
+      </c>
+      <c r="P84" t="n">
+        <v>16000</v>
+      </c>
+      <c r="Q84" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="R84" t="inlineStr">
+        <is>
+          <t>Provincia de Los Andes</t>
+        </is>
+      </c>
+      <c r="S84" t="n">
+        <v>889</v>
+      </c>
+      <c r="T84" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>9</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D85" s="2" t="n">
+        <v>44540</v>
+      </c>
+      <c r="E85" t="n">
+        <v>13</v>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G85" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I85" t="n">
+        <v>100103003</v>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>Damasco</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>Castle Brite</t>
+        </is>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="M84" t="n">
+      <c r="M85" t="n">
         <v>280</v>
       </c>
-      <c r="N84" t="n">
+      <c r="N85" t="n">
         <v>14000</v>
       </c>
-      <c r="O84" t="n">
+      <c r="O85" t="n">
         <v>14000</v>
       </c>
-      <c r="P84" t="n">
+      <c r="P85" t="n">
         <v>14000</v>
       </c>
-      <c r="Q84" t="inlineStr">
+      <c r="Q85" t="inlineStr">
         <is>
           <t>$/caja 18 kilos</t>
         </is>
       </c>
-      <c r="R84" t="inlineStr">
+      <c r="R85" t="inlineStr">
         <is>
           <t>Provincia de Los Andes</t>
         </is>
       </c>
-      <c r="S84" t="n">
+      <c r="S85" t="n">
         <v>778</v>
       </c>
-      <c r="T84" t="n">
+      <c r="T85" t="n">
         <v>18</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Damasco.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Damasco.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T85"/>
+  <dimension ref="A1:T88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44552</v>
+        <v>44176</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -515,29 +515,29 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Dina</t>
+          <t>Modesto</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>200</v>
+        <v>115</v>
       </c>
       <c r="N2" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O2" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P2" t="n">
-        <v>10000</v>
+        <v>11609</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -546,10 +546,10 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1000</v>
+        <v>967</v>
       </c>
       <c r="T2" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44552</v>
+        <v>44536</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -595,7 +595,7 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Dina</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -607,13 +607,13 @@
         <v>220</v>
       </c>
       <c r="N3" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="O3" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="P3" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -622,11 +622,11 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S3" t="n">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="T3" t="n">
         <v>10</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44552</v>
+        <v>44536</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -675,7 +675,7 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Dina</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="N4" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O4" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="P4" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -702,11 +702,11 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S4" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="T4" t="n">
         <v>10</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44552</v>
+        <v>44174</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -760,36 +760,36 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>280</v>
+        <v>120</v>
       </c>
       <c r="N5" t="n">
-        <v>21600</v>
+        <v>8500</v>
       </c>
       <c r="O5" t="n">
-        <v>21600</v>
+        <v>8500</v>
       </c>
       <c r="P5" t="n">
-        <v>21600</v>
+        <v>8500</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1200</v>
+        <v>850</v>
       </c>
       <c r="T5" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44552</v>
+        <v>44174</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -844,29 +844,29 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>310</v>
+        <v>180</v>
       </c>
       <c r="N6" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="O6" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="P6" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1000</v>
+        <v>833</v>
       </c>
       <c r="T6" t="n">
         <v>18</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44552</v>
+        <v>44174</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -924,29 +924,29 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>350</v>
+        <v>120</v>
       </c>
       <c r="N7" t="n">
-        <v>14400</v>
+        <v>12000</v>
       </c>
       <c r="O7" t="n">
-        <v>14400</v>
+        <v>12000</v>
       </c>
       <c r="P7" t="n">
-        <v>14400</v>
+        <v>12000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S7" t="n">
-        <v>800</v>
+        <v>667</v>
       </c>
       <c r="T7" t="n">
         <v>18</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44545</v>
+        <v>44553</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -995,7 +995,7 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Dina</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -1004,32 +1004,32 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>310</v>
+        <v>280</v>
       </c>
       <c r="N8" t="n">
-        <v>18000</v>
+        <v>7500</v>
       </c>
       <c r="O8" t="n">
-        <v>18000</v>
+        <v>7500</v>
       </c>
       <c r="P8" t="n">
-        <v>18000</v>
+        <v>7500</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 6 kilos</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="T8" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9">
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44545</v>
+        <v>44553</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1075,7 +1075,7 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Dina</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
@@ -1087,29 +1087,29 @@
         <v>350</v>
       </c>
       <c r="N9" t="n">
-        <v>14400</v>
+        <v>6500</v>
       </c>
       <c r="O9" t="n">
-        <v>14400</v>
+        <v>6500</v>
       </c>
       <c r="P9" t="n">
-        <v>14400</v>
+        <v>6500</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 6 kilos</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S9" t="n">
-        <v>800</v>
+        <v>1083</v>
       </c>
       <c r="T9" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10">
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44550</v>
+        <v>44553</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1155,7 +1155,7 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
@@ -1164,32 +1164,32 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>150</v>
+        <v>380</v>
       </c>
       <c r="N10" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="O10" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="P10" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S10" t="n">
-        <v>800</v>
+        <v>778</v>
       </c>
       <c r="T10" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11">
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44550</v>
+        <v>44553</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1235,7 +1235,7 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
@@ -1244,32 +1244,32 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>120</v>
+        <v>410</v>
       </c>
       <c r="N11" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="O11" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="P11" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S11" t="n">
-        <v>600</v>
+        <v>667</v>
       </c>
       <c r="T11" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12">
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44561</v>
+        <v>44566</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1324,7 +1324,7 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>330</v>
+        <v>410</v>
       </c>
       <c r="N12" t="n">
         <v>18000</v>
@@ -1337,12 +1337,12 @@
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S12" t="n">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44561</v>
+        <v>44566</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1417,12 +1417,12 @@
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S13" t="n">
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44561</v>
+        <v>44547</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1475,41 +1475,41 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Dina</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="N14" t="n">
-        <v>10800</v>
+        <v>12000</v>
       </c>
       <c r="O14" t="n">
-        <v>10800</v>
+        <v>12000</v>
       </c>
       <c r="P14" t="n">
-        <v>10800</v>
+        <v>12000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S14" t="n">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="T14" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15">
@@ -1560,20 +1560,20 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>450</v>
+        <v>410</v>
       </c>
       <c r="N15" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O15" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P15" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="T15" t="n">
         <v>10</v>
@@ -1640,20 +1640,20 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>410</v>
+        <v>350</v>
       </c>
       <c r="N16" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O16" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P16" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T16" t="n">
         <v>10</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44547</v>
+        <v>44559</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1715,41 +1715,41 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Dina</t>
+          <t>Helena</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>350</v>
+        <v>310</v>
       </c>
       <c r="N17" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="O17" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="P17" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S17" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T17" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18">
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44558</v>
+        <v>44559</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1800,36 +1800,36 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>330</v>
+        <v>350</v>
       </c>
       <c r="N18" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="O18" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="P18" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S18" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T18" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19">
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44558</v>
+        <v>44559</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
@@ -1875,41 +1875,41 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Helena</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="N19" t="n">
-        <v>12800</v>
+        <v>18000</v>
       </c>
       <c r="O19" t="n">
-        <v>12800</v>
+        <v>18000</v>
       </c>
       <c r="P19" t="n">
-        <v>12800</v>
+        <v>18000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S19" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T19" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20">
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44558</v>
+        <v>44559</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1964,16 +1964,16 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>410</v>
+        <v>380</v>
       </c>
       <c r="N20" t="n">
-        <v>14000</v>
+        <v>14400</v>
       </c>
       <c r="O20" t="n">
-        <v>14000</v>
+        <v>14400</v>
       </c>
       <c r="P20" t="n">
-        <v>14000</v>
+        <v>14400</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>778</v>
+        <v>800</v>
       </c>
       <c r="T20" t="n">
         <v>18</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44558</v>
+        <v>44551</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -2035,38 +2035,38 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Dina</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>380</v>
+        <v>220</v>
       </c>
       <c r="N21" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="O21" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="P21" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S21" t="n">
-        <v>667</v>
+        <v>1000</v>
       </c>
       <c r="T21" t="n">
         <v>18</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44560</v>
+        <v>44551</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
@@ -2115,25 +2115,25 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Helena</t>
+          <t>Dina</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>410</v>
+        <v>350</v>
       </c>
       <c r="N22" t="n">
-        <v>18000</v>
+        <v>14400</v>
       </c>
       <c r="O22" t="n">
-        <v>18000</v>
+        <v>14400</v>
       </c>
       <c r="P22" t="n">
-        <v>18000</v>
+        <v>14400</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2142,11 +2142,11 @@
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S22" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T22" t="n">
         <v>18</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44560</v>
+        <v>44195</v>
       </c>
       <c r="E23" t="n">
         <v>13</v>
@@ -2195,7 +2195,7 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Helena</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
@@ -2204,20 +2204,20 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>330</v>
+        <v>124</v>
       </c>
       <c r="N23" t="n">
-        <v>14400</v>
+        <v>13000</v>
       </c>
       <c r="O23" t="n">
-        <v>14400</v>
+        <v>13000</v>
       </c>
       <c r="P23" t="n">
-        <v>14400</v>
+        <v>13000</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
@@ -2226,10 +2226,10 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>800</v>
+        <v>867</v>
       </c>
       <c r="T23" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24">
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44560</v>
+        <v>44561</v>
       </c>
       <c r="E24" t="n">
         <v>13</v>
@@ -2275,25 +2275,25 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Helena</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M24" t="n">
-        <v>380</v>
+        <v>330</v>
       </c>
       <c r="N24" t="n">
-        <v>12600</v>
+        <v>18000</v>
       </c>
       <c r="O24" t="n">
-        <v>12600</v>
+        <v>18000</v>
       </c>
       <c r="P24" t="n">
-        <v>12600</v>
+        <v>18000</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2302,11 +2302,11 @@
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S24" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="T24" t="n">
         <v>18</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44159</v>
+        <v>44561</v>
       </c>
       <c r="E25" t="n">
         <v>13</v>
@@ -2355,7 +2355,7 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
@@ -2364,32 +2364,32 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>80</v>
+        <v>350</v>
       </c>
       <c r="N25" t="n">
-        <v>8000</v>
+        <v>14400</v>
       </c>
       <c r="O25" t="n">
-        <v>8000</v>
+        <v>14400</v>
       </c>
       <c r="P25" t="n">
-        <v>8000</v>
+        <v>14400</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S25" t="n">
         <v>800</v>
       </c>
       <c r="T25" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26">
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44159</v>
+        <v>44561</v>
       </c>
       <c r="E26" t="n">
         <v>13</v>
@@ -2435,7 +2435,7 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
@@ -2444,32 +2444,32 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>65</v>
+        <v>300</v>
       </c>
       <c r="N26" t="n">
-        <v>7000</v>
+        <v>10800</v>
       </c>
       <c r="O26" t="n">
-        <v>7000</v>
+        <v>10800</v>
       </c>
       <c r="P26" t="n">
-        <v>7000</v>
+        <v>10800</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S26" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="T26" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27">
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44523</v>
+        <v>44557</v>
       </c>
       <c r="E27" t="n">
         <v>13</v>
@@ -2515,41 +2515,41 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M27" t="n">
-        <v>320</v>
+        <v>380</v>
       </c>
       <c r="N27" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O27" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P27" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S27" t="n">
         <v>1000</v>
       </c>
       <c r="T27" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28">
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44189</v>
+        <v>44557</v>
       </c>
       <c r="E28" t="n">
         <v>13</v>
@@ -2604,7 +2604,7 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>130</v>
+        <v>330</v>
       </c>
       <c r="N28" t="n">
         <v>12000</v>
@@ -2617,19 +2617,19 @@
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S28" t="n">
-        <v>667</v>
+        <v>800</v>
       </c>
       <c r="T28" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29">
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44169</v>
+        <v>44537</v>
       </c>
       <c r="E29" t="n">
         <v>13</v>
@@ -2675,7 +2675,7 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Dina</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
@@ -2684,32 +2684,32 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>80</v>
+        <v>400</v>
       </c>
       <c r="N29" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="O29" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="P29" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S29" t="n">
-        <v>1000</v>
+        <v>889</v>
       </c>
       <c r="T29" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30">
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44544</v>
+        <v>44159</v>
       </c>
       <c r="E30" t="n">
         <v>13</v>
@@ -2755,29 +2755,29 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Dina</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>330</v>
+        <v>80</v>
       </c>
       <c r="N30" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="O30" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="P30" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
@@ -2786,10 +2786,10 @@
         </is>
       </c>
       <c r="S30" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T30" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31">
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44544</v>
+        <v>44159</v>
       </c>
       <c r="E31" t="n">
         <v>13</v>
@@ -2835,29 +2835,29 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Dina</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M31" t="n">
-        <v>350</v>
+        <v>65</v>
       </c>
       <c r="N31" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="O31" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="P31" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
@@ -2866,10 +2866,10 @@
         </is>
       </c>
       <c r="S31" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="T31" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32">
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44557</v>
+        <v>44550</v>
       </c>
       <c r="E32" t="n">
         <v>13</v>
@@ -2915,41 +2915,41 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M32" t="n">
-        <v>380</v>
+        <v>150</v>
       </c>
       <c r="N32" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="O32" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="P32" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S32" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T32" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33">
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44557</v>
+        <v>44550</v>
       </c>
       <c r="E33" t="n">
         <v>13</v>
@@ -2995,41 +2995,41 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M33" t="n">
-        <v>330</v>
+        <v>120</v>
       </c>
       <c r="N33" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="O33" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="P33" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S33" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="T33" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34">
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44537</v>
+        <v>44572</v>
       </c>
       <c r="E34" t="n">
         <v>13</v>
@@ -3075,7 +3075,7 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
@@ -3084,16 +3084,16 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>400</v>
+        <v>580</v>
       </c>
       <c r="N34" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O34" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P34" t="n">
-        <v>16000</v>
+        <v>14517</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         </is>
       </c>
       <c r="S34" t="n">
-        <v>889</v>
+        <v>806</v>
       </c>
       <c r="T34" t="n">
         <v>18</v>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44546</v>
+        <v>44519</v>
       </c>
       <c r="E35" t="n">
         <v>13</v>
@@ -3155,41 +3155,41 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>Dina</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M35" t="n">
-        <v>380</v>
+        <v>300</v>
       </c>
       <c r="N35" t="n">
-        <v>12000</v>
+        <v>22500</v>
       </c>
       <c r="O35" t="n">
-        <v>12000</v>
+        <v>22500</v>
       </c>
       <c r="P35" t="n">
-        <v>12000</v>
+        <v>22500</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S35" t="n">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="T35" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="36">
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44546</v>
+        <v>44189</v>
       </c>
       <c r="E36" t="n">
         <v>13</v>
@@ -3235,7 +3235,7 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>Dina</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
@@ -3244,32 +3244,32 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>330</v>
+        <v>130</v>
       </c>
       <c r="N36" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O36" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P36" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S36" t="n">
-        <v>1000</v>
+        <v>667</v>
       </c>
       <c r="T36" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37">
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44546</v>
+        <v>44166</v>
       </c>
       <c r="E37" t="n">
         <v>13</v>
@@ -3315,25 +3315,25 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Dina</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M37" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="N37" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O37" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P37" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
@@ -3342,11 +3342,11 @@
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S37" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T37" t="n">
         <v>10</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44162</v>
+        <v>44166</v>
       </c>
       <c r="E38" t="n">
         <v>13</v>
@@ -3400,20 +3400,20 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M38" t="n">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="N38" t="n">
-        <v>8500</v>
+        <v>8000</v>
       </c>
       <c r="O38" t="n">
-        <v>8500</v>
+        <v>8000</v>
       </c>
       <c r="P38" t="n">
-        <v>8500</v>
+        <v>8000</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
@@ -3422,11 +3422,11 @@
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S38" t="n">
-        <v>850</v>
+        <v>800</v>
       </c>
       <c r="T38" t="n">
         <v>10</v>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44162</v>
+        <v>44175</v>
       </c>
       <c r="E39" t="n">
         <v>13</v>
@@ -3475,7 +3475,7 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Modesto</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
@@ -3484,20 +3484,20 @@
         </is>
       </c>
       <c r="M39" t="n">
-        <v>75</v>
+        <v>140</v>
       </c>
       <c r="N39" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="O39" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P39" t="n">
-        <v>14400</v>
+        <v>11571</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
@@ -3506,10 +3506,10 @@
         </is>
       </c>
       <c r="S39" t="n">
-        <v>800</v>
+        <v>964</v>
       </c>
       <c r="T39" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40">
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44554</v>
+        <v>44187</v>
       </c>
       <c r="E40" t="n">
         <v>13</v>
@@ -3564,20 +3564,20 @@
         </is>
       </c>
       <c r="M40" t="n">
-        <v>410</v>
+        <v>80</v>
       </c>
       <c r="N40" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O40" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P40" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
@@ -3586,10 +3586,10 @@
         </is>
       </c>
       <c r="S40" t="n">
-        <v>778</v>
+        <v>1000</v>
       </c>
       <c r="T40" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="41">
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44554</v>
+        <v>44187</v>
       </c>
       <c r="E41" t="n">
         <v>13</v>
@@ -3644,20 +3644,20 @@
         </is>
       </c>
       <c r="M41" t="n">
-        <v>380</v>
+        <v>95</v>
       </c>
       <c r="N41" t="n">
-        <v>12000</v>
+        <v>13500</v>
       </c>
       <c r="O41" t="n">
-        <v>12000</v>
+        <v>13500</v>
       </c>
       <c r="P41" t="n">
-        <v>12000</v>
+        <v>13500</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
@@ -3666,10 +3666,10 @@
         </is>
       </c>
       <c r="S41" t="n">
-        <v>667</v>
+        <v>900</v>
       </c>
       <c r="T41" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="42">
@@ -3687,7 +3687,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44166</v>
+        <v>44187</v>
       </c>
       <c r="E42" t="n">
         <v>13</v>
@@ -3715,41 +3715,41 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M42" t="n">
         <v>120</v>
       </c>
       <c r="N42" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O42" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P42" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S42" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T42" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="43">
@@ -3767,7 +3767,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44166</v>
+        <v>44540</v>
       </c>
       <c r="E43" t="n">
         <v>13</v>
@@ -3800,36 +3800,36 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M43" t="n">
-        <v>120</v>
+        <v>330</v>
       </c>
       <c r="N43" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="O43" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="P43" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S43" t="n">
-        <v>800</v>
+        <v>889</v>
       </c>
       <c r="T43" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44">
@@ -3847,7 +3847,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44174</v>
+        <v>44540</v>
       </c>
       <c r="E44" t="n">
         <v>13</v>
@@ -3875,41 +3875,41 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>Modesto</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M44" t="n">
-        <v>120</v>
+        <v>280</v>
       </c>
       <c r="N44" t="n">
-        <v>8500</v>
+        <v>14000</v>
       </c>
       <c r="O44" t="n">
-        <v>8500</v>
+        <v>14000</v>
       </c>
       <c r="P44" t="n">
-        <v>8500</v>
+        <v>14000</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S44" t="n">
-        <v>850</v>
+        <v>778</v>
       </c>
       <c r="T44" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45">
@@ -3927,7 +3927,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44174</v>
+        <v>44546</v>
       </c>
       <c r="E45" t="n">
         <v>13</v>
@@ -3955,41 +3955,41 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>Modesto</t>
+          <t>Dina</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M45" t="n">
-        <v>180</v>
+        <v>380</v>
       </c>
       <c r="N45" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O45" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P45" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S45" t="n">
-        <v>833</v>
+        <v>1200</v>
       </c>
       <c r="T45" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="46">
@@ -4007,7 +4007,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44174</v>
+        <v>44546</v>
       </c>
       <c r="E46" t="n">
         <v>13</v>
@@ -4035,41 +4035,41 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Modesto</t>
+          <t>Dina</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M46" t="n">
-        <v>120</v>
+        <v>330</v>
       </c>
       <c r="N46" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O46" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P46" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S46" t="n">
-        <v>667</v>
+        <v>1000</v>
       </c>
       <c r="T46" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="47">
@@ -4087,7 +4087,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44566</v>
+        <v>44546</v>
       </c>
       <c r="E47" t="n">
         <v>13</v>
@@ -4115,41 +4115,41 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Dina</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M47" t="n">
-        <v>410</v>
+        <v>300</v>
       </c>
       <c r="N47" t="n">
-        <v>18000</v>
+        <v>8000</v>
       </c>
       <c r="O47" t="n">
-        <v>18000</v>
+        <v>8000</v>
       </c>
       <c r="P47" t="n">
-        <v>18000</v>
+        <v>8000</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S47" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T47" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="48">
@@ -4167,7 +4167,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44566</v>
+        <v>44539</v>
       </c>
       <c r="E48" t="n">
         <v>13</v>
@@ -4195,38 +4195,38 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M48" t="n">
-        <v>350</v>
+        <v>290</v>
       </c>
       <c r="N48" t="n">
-        <v>14400</v>
+        <v>18000</v>
       </c>
       <c r="O48" t="n">
-        <v>14400</v>
+        <v>18000</v>
       </c>
       <c r="P48" t="n">
-        <v>14400</v>
+        <v>18000</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S48" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T48" t="n">
         <v>18</v>
@@ -4247,7 +4247,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44525</v>
+        <v>44539</v>
       </c>
       <c r="E49" t="n">
         <v>13</v>
@@ -4280,24 +4280,24 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M49" t="n">
         <v>300</v>
       </c>
       <c r="N49" t="n">
-        <v>25200</v>
+        <v>16000</v>
       </c>
       <c r="O49" t="n">
-        <v>25200</v>
+        <v>16000</v>
       </c>
       <c r="P49" t="n">
-        <v>25200</v>
+        <v>16000</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R49" t="inlineStr">
@@ -4306,7 +4306,7 @@
         </is>
       </c>
       <c r="S49" t="n">
-        <v>1400</v>
+        <v>889</v>
       </c>
       <c r="T49" t="n">
         <v>18</v>
@@ -4327,7 +4327,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44525</v>
+        <v>44539</v>
       </c>
       <c r="E50" t="n">
         <v>13</v>
@@ -4360,24 +4360,24 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M50" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="N50" t="n">
-        <v>21600</v>
+        <v>14000</v>
       </c>
       <c r="O50" t="n">
-        <v>21600</v>
+        <v>14000</v>
       </c>
       <c r="P50" t="n">
-        <v>21600</v>
+        <v>14000</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R50" t="inlineStr">
@@ -4386,7 +4386,7 @@
         </is>
       </c>
       <c r="S50" t="n">
-        <v>1200</v>
+        <v>778</v>
       </c>
       <c r="T50" t="n">
         <v>18</v>
@@ -4407,7 +4407,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44533</v>
+        <v>44523</v>
       </c>
       <c r="E51" t="n">
         <v>13</v>
@@ -4444,20 +4444,20 @@
         </is>
       </c>
       <c r="M51" t="n">
-        <v>410</v>
+        <v>320</v>
       </c>
       <c r="N51" t="n">
-        <v>16500</v>
+        <v>10000</v>
       </c>
       <c r="O51" t="n">
-        <v>16500</v>
+        <v>10000</v>
       </c>
       <c r="P51" t="n">
-        <v>16500</v>
+        <v>10000</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R51" t="inlineStr">
@@ -4466,10 +4466,10 @@
         </is>
       </c>
       <c r="S51" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="T51" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="52">
@@ -4487,7 +4487,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44533</v>
+        <v>44573</v>
       </c>
       <c r="E52" t="n">
         <v>13</v>
@@ -4515,29 +4515,29 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M52" t="n">
-        <v>300</v>
+        <v>380</v>
       </c>
       <c r="N52" t="n">
-        <v>10500</v>
+        <v>17000</v>
       </c>
       <c r="O52" t="n">
-        <v>10500</v>
+        <v>17000</v>
       </c>
       <c r="P52" t="n">
-        <v>10500</v>
+        <v>17000</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R52" t="inlineStr">
@@ -4546,10 +4546,10 @@
         </is>
       </c>
       <c r="S52" t="n">
-        <v>700</v>
+        <v>944</v>
       </c>
       <c r="T52" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="53">
@@ -4567,7 +4567,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44533</v>
+        <v>44573</v>
       </c>
       <c r="E53" t="n">
         <v>13</v>
@@ -4595,29 +4595,29 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M53" t="n">
-        <v>250</v>
+        <v>410</v>
       </c>
       <c r="N53" t="n">
-        <v>7500</v>
+        <v>15000</v>
       </c>
       <c r="O53" t="n">
-        <v>7500</v>
+        <v>15000</v>
       </c>
       <c r="P53" t="n">
-        <v>7500</v>
+        <v>15000</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R53" t="inlineStr">
@@ -4626,10 +4626,10 @@
         </is>
       </c>
       <c r="S53" t="n">
-        <v>500</v>
+        <v>833</v>
       </c>
       <c r="T53" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="54">
@@ -4647,7 +4647,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44176</v>
+        <v>44573</v>
       </c>
       <c r="E54" t="n">
         <v>13</v>
@@ -4675,29 +4675,29 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>Modesto</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M54" t="n">
-        <v>115</v>
+        <v>330</v>
       </c>
       <c r="N54" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O54" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P54" t="n">
-        <v>11609</v>
+        <v>13000</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R54" t="inlineStr">
@@ -4706,10 +4706,10 @@
         </is>
       </c>
       <c r="S54" t="n">
-        <v>967</v>
+        <v>722</v>
       </c>
       <c r="T54" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55">
@@ -4727,7 +4727,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44539</v>
+        <v>44168</v>
       </c>
       <c r="E55" t="n">
         <v>13</v>
@@ -4755,7 +4755,7 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Dina</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
@@ -4764,32 +4764,32 @@
         </is>
       </c>
       <c r="M55" t="n">
-        <v>290</v>
+        <v>40</v>
       </c>
       <c r="N55" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="O55" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="P55" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R55" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S55" t="n">
-        <v>1000</v>
+        <v>1400</v>
       </c>
       <c r="T55" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="56">
@@ -4807,7 +4807,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44539</v>
+        <v>44544</v>
       </c>
       <c r="E56" t="n">
         <v>13</v>
@@ -4835,29 +4835,29 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Dina</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M56" t="n">
-        <v>300</v>
+        <v>330</v>
       </c>
       <c r="N56" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="O56" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P56" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R56" t="inlineStr">
@@ -4866,10 +4866,10 @@
         </is>
       </c>
       <c r="S56" t="n">
-        <v>889</v>
+        <v>1000</v>
       </c>
       <c r="T56" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="57">
@@ -4887,7 +4887,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44539</v>
+        <v>44544</v>
       </c>
       <c r="E57" t="n">
         <v>13</v>
@@ -4915,29 +4915,29 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Dina</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M57" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="N57" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O57" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P57" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R57" t="inlineStr">
@@ -4946,10 +4946,10 @@
         </is>
       </c>
       <c r="S57" t="n">
-        <v>778</v>
+        <v>800</v>
       </c>
       <c r="T57" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="58">
@@ -4967,7 +4967,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44572</v>
+        <v>44160</v>
       </c>
       <c r="E58" t="n">
         <v>13</v>
@@ -4995,7 +4995,7 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
@@ -5004,20 +5004,20 @@
         </is>
       </c>
       <c r="M58" t="n">
-        <v>580</v>
+        <v>25</v>
       </c>
       <c r="N58" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="O58" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="P58" t="n">
-        <v>14517</v>
+        <v>8000</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R58" t="inlineStr">
@@ -5026,10 +5026,10 @@
         </is>
       </c>
       <c r="S58" t="n">
-        <v>806</v>
+        <v>800</v>
       </c>
       <c r="T58" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="59">
@@ -5047,7 +5047,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44168</v>
+        <v>44160</v>
       </c>
       <c r="E59" t="n">
         <v>13</v>
@@ -5075,25 +5075,25 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>Dina</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M59" t="n">
         <v>40</v>
       </c>
       <c r="N59" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="O59" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="P59" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
@@ -5102,11 +5102,11 @@
       </c>
       <c r="R59" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S59" t="n">
-        <v>1400</v>
+        <v>700</v>
       </c>
       <c r="T59" t="n">
         <v>10</v>
@@ -5127,7 +5127,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44553</v>
+        <v>44167</v>
       </c>
       <c r="E60" t="n">
         <v>13</v>
@@ -5155,7 +5155,7 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>Dina</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
@@ -5164,20 +5164,20 @@
         </is>
       </c>
       <c r="M60" t="n">
-        <v>280</v>
+        <v>85</v>
       </c>
       <c r="N60" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="O60" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="P60" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>$/bandeja 6 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R60" t="inlineStr">
@@ -5186,10 +5186,10 @@
         </is>
       </c>
       <c r="S60" t="n">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="T60" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="61">
@@ -5207,7 +5207,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44553</v>
+        <v>44167</v>
       </c>
       <c r="E61" t="n">
         <v>13</v>
@@ -5235,7 +5235,7 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>Dina</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
@@ -5244,20 +5244,20 @@
         </is>
       </c>
       <c r="M61" t="n">
-        <v>350</v>
+        <v>120</v>
       </c>
       <c r="N61" t="n">
-        <v>6500</v>
+        <v>9500</v>
       </c>
       <c r="O61" t="n">
-        <v>6500</v>
+        <v>9500</v>
       </c>
       <c r="P61" t="n">
-        <v>6500</v>
+        <v>9500</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>$/bandeja 6 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R61" t="inlineStr">
@@ -5266,10 +5266,10 @@
         </is>
       </c>
       <c r="S61" t="n">
-        <v>1083</v>
+        <v>950</v>
       </c>
       <c r="T61" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="62">
@@ -5287,7 +5287,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44553</v>
+        <v>44167</v>
       </c>
       <c r="E62" t="n">
         <v>13</v>
@@ -5315,7 +5315,7 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
@@ -5324,16 +5324,16 @@
         </is>
       </c>
       <c r="M62" t="n">
-        <v>380</v>
+        <v>60</v>
       </c>
       <c r="N62" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O62" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P62" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="S62" t="n">
-        <v>778</v>
+        <v>833</v>
       </c>
       <c r="T62" t="n">
         <v>18</v>
@@ -5367,7 +5367,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44553</v>
+        <v>44169</v>
       </c>
       <c r="E63" t="n">
         <v>13</v>
@@ -5395,41 +5395,41 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Dina</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M63" t="n">
-        <v>410</v>
+        <v>80</v>
       </c>
       <c r="N63" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O63" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P63" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R63" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S63" t="n">
-        <v>667</v>
+        <v>1000</v>
       </c>
       <c r="T63" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="64">
@@ -5447,7 +5447,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44167</v>
+        <v>44560</v>
       </c>
       <c r="E64" t="n">
         <v>13</v>
@@ -5475,7 +5475,7 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Helena</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
@@ -5484,20 +5484,20 @@
         </is>
       </c>
       <c r="M64" t="n">
-        <v>85</v>
+        <v>410</v>
       </c>
       <c r="N64" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="O64" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="P64" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R64" t="inlineStr">
@@ -5509,7 +5509,7 @@
         <v>1000</v>
       </c>
       <c r="T64" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="65">
@@ -5527,7 +5527,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44167</v>
+        <v>44560</v>
       </c>
       <c r="E65" t="n">
         <v>13</v>
@@ -5555,7 +5555,7 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Helena</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
@@ -5564,20 +5564,20 @@
         </is>
       </c>
       <c r="M65" t="n">
-        <v>120</v>
+        <v>330</v>
       </c>
       <c r="N65" t="n">
-        <v>9500</v>
+        <v>14400</v>
       </c>
       <c r="O65" t="n">
-        <v>9500</v>
+        <v>14400</v>
       </c>
       <c r="P65" t="n">
-        <v>9500</v>
+        <v>14400</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R65" t="inlineStr">
@@ -5586,10 +5586,10 @@
         </is>
       </c>
       <c r="S65" t="n">
-        <v>950</v>
+        <v>800</v>
       </c>
       <c r="T65" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="66">
@@ -5607,7 +5607,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44167</v>
+        <v>44560</v>
       </c>
       <c r="E66" t="n">
         <v>13</v>
@@ -5635,29 +5635,29 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Helena</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M66" t="n">
-        <v>60</v>
+        <v>380</v>
       </c>
       <c r="N66" t="n">
-        <v>15000</v>
+        <v>12600</v>
       </c>
       <c r="O66" t="n">
-        <v>15000</v>
+        <v>12600</v>
       </c>
       <c r="P66" t="n">
-        <v>15000</v>
+        <v>12600</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R66" t="inlineStr">
@@ -5666,7 +5666,7 @@
         </is>
       </c>
       <c r="S66" t="n">
-        <v>833</v>
+        <v>700</v>
       </c>
       <c r="T66" t="n">
         <v>18</v>
@@ -5687,7 +5687,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44160</v>
+        <v>44552</v>
       </c>
       <c r="E67" t="n">
         <v>13</v>
@@ -5715,25 +5715,25 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Dina</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M67" t="n">
-        <v>25</v>
+        <v>200</v>
       </c>
       <c r="N67" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O67" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P67" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="S67" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T67" t="n">
         <v>10</v>
@@ -5767,7 +5767,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44160</v>
+        <v>44552</v>
       </c>
       <c r="E68" t="n">
         <v>13</v>
@@ -5795,25 +5795,25 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Dina</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M68" t="n">
-        <v>40</v>
+        <v>220</v>
       </c>
       <c r="N68" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O68" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P68" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
@@ -5826,7 +5826,7 @@
         </is>
       </c>
       <c r="S68" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="T68" t="n">
         <v>10</v>
@@ -5847,7 +5847,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44559</v>
+        <v>44552</v>
       </c>
       <c r="E69" t="n">
         <v>13</v>
@@ -5875,41 +5875,41 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>Helena</t>
+          <t>Dina</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M69" t="n">
-        <v>310</v>
+        <v>350</v>
       </c>
       <c r="N69" t="n">
-        <v>15000</v>
+        <v>6000</v>
       </c>
       <c r="O69" t="n">
-        <v>15000</v>
+        <v>6000</v>
       </c>
       <c r="P69" t="n">
-        <v>15000</v>
+        <v>6000</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R69" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S69" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="T69" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="70">
@@ -5927,7 +5927,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44559</v>
+        <v>44552</v>
       </c>
       <c r="E70" t="n">
         <v>13</v>
@@ -5955,41 +5955,41 @@
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>Helena</t>
+          <t>Modesto</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M70" t="n">
-        <v>350</v>
+        <v>280</v>
       </c>
       <c r="N70" t="n">
-        <v>12000</v>
+        <v>21600</v>
       </c>
       <c r="O70" t="n">
-        <v>12000</v>
+        <v>21600</v>
       </c>
       <c r="P70" t="n">
-        <v>12000</v>
+        <v>21600</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R70" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S70" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="T70" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="71">
@@ -6007,7 +6007,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44559</v>
+        <v>44552</v>
       </c>
       <c r="E71" t="n">
         <v>13</v>
@@ -6035,16 +6035,16 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Modesto</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M71" t="n">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="N71" t="n">
         <v>18000</v>
@@ -6057,7 +6057,7 @@
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R71" t="inlineStr">
@@ -6087,7 +6087,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44559</v>
+        <v>44552</v>
       </c>
       <c r="E72" t="n">
         <v>13</v>
@@ -6115,16 +6115,16 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Modesto</t>
         </is>
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M72" t="n">
-        <v>380</v>
+        <v>350</v>
       </c>
       <c r="N72" t="n">
         <v>14400</v>
@@ -6137,7 +6137,7 @@
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R72" t="inlineStr">
@@ -6167,7 +6167,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44551</v>
+        <v>44558</v>
       </c>
       <c r="E73" t="n">
         <v>13</v>
@@ -6195,7 +6195,7 @@
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>Dina</t>
+          <t>Helena</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
@@ -6204,20 +6204,20 @@
         </is>
       </c>
       <c r="M73" t="n">
-        <v>220</v>
+        <v>330</v>
       </c>
       <c r="N73" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="O73" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="P73" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R73" t="inlineStr">
@@ -6229,7 +6229,7 @@
         <v>1000</v>
       </c>
       <c r="T73" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74">
@@ -6247,7 +6247,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44551</v>
+        <v>44558</v>
       </c>
       <c r="E74" t="n">
         <v>13</v>
@@ -6275,7 +6275,7 @@
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>Dina</t>
+          <t>Helena</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
@@ -6287,17 +6287,17 @@
         <v>350</v>
       </c>
       <c r="N74" t="n">
-        <v>14400</v>
+        <v>12800</v>
       </c>
       <c r="O74" t="n">
-        <v>14400</v>
+        <v>12800</v>
       </c>
       <c r="P74" t="n">
-        <v>14400</v>
+        <v>12800</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R74" t="inlineStr">
@@ -6309,7 +6309,7 @@
         <v>800</v>
       </c>
       <c r="T74" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75">
@@ -6327,7 +6327,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44519</v>
+        <v>44558</v>
       </c>
       <c r="E75" t="n">
         <v>13</v>
@@ -6355,7 +6355,7 @@
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
@@ -6364,32 +6364,32 @@
         </is>
       </c>
       <c r="M75" t="n">
-        <v>300</v>
+        <v>410</v>
       </c>
       <c r="N75" t="n">
-        <v>22500</v>
+        <v>14000</v>
       </c>
       <c r="O75" t="n">
-        <v>22500</v>
+        <v>14000</v>
       </c>
       <c r="P75" t="n">
-        <v>22500</v>
+        <v>14000</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R75" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S75" t="n">
-        <v>1500</v>
+        <v>778</v>
       </c>
       <c r="T75" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="76">
@@ -6407,7 +6407,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44187</v>
+        <v>44558</v>
       </c>
       <c r="E76" t="n">
         <v>13</v>
@@ -6440,24 +6440,24 @@
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M76" t="n">
-        <v>80</v>
+        <v>380</v>
       </c>
       <c r="N76" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O76" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P76" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R76" t="inlineStr">
@@ -6466,10 +6466,10 @@
         </is>
       </c>
       <c r="S76" t="n">
-        <v>1000</v>
+        <v>667</v>
       </c>
       <c r="T76" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="77">
@@ -6487,7 +6487,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44187</v>
+        <v>44554</v>
       </c>
       <c r="E77" t="n">
         <v>13</v>
@@ -6520,24 +6520,24 @@
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M77" t="n">
-        <v>95</v>
+        <v>410</v>
       </c>
       <c r="N77" t="n">
-        <v>13500</v>
+        <v>14000</v>
       </c>
       <c r="O77" t="n">
-        <v>13500</v>
+        <v>14000</v>
       </c>
       <c r="P77" t="n">
-        <v>13500</v>
+        <v>14000</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R77" t="inlineStr">
@@ -6546,10 +6546,10 @@
         </is>
       </c>
       <c r="S77" t="n">
-        <v>900</v>
+        <v>778</v>
       </c>
       <c r="T77" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="78">
@@ -6567,7 +6567,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44187</v>
+        <v>44554</v>
       </c>
       <c r="E78" t="n">
         <v>13</v>
@@ -6600,11 +6600,11 @@
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M78" t="n">
-        <v>120</v>
+        <v>380</v>
       </c>
       <c r="N78" t="n">
         <v>12000</v>
@@ -6617,7 +6617,7 @@
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R78" t="inlineStr">
@@ -6626,10 +6626,10 @@
         </is>
       </c>
       <c r="S78" t="n">
-        <v>800</v>
+        <v>667</v>
       </c>
       <c r="T78" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="79">
@@ -6647,7 +6647,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44175</v>
+        <v>44545</v>
       </c>
       <c r="E79" t="n">
         <v>13</v>
@@ -6675,41 +6675,41 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>Modesto</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M79" t="n">
-        <v>140</v>
+        <v>310</v>
       </c>
       <c r="N79" t="n">
-        <v>11000</v>
+        <v>18000</v>
       </c>
       <c r="O79" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="P79" t="n">
-        <v>11571</v>
+        <v>18000</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R79" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S79" t="n">
-        <v>964</v>
+        <v>1000</v>
       </c>
       <c r="T79" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="80">
@@ -6727,7 +6727,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44195</v>
+        <v>44545</v>
       </c>
       <c r="E80" t="n">
         <v>13</v>
@@ -6755,7 +6755,7 @@
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
@@ -6764,32 +6764,32 @@
         </is>
       </c>
       <c r="M80" t="n">
-        <v>124</v>
+        <v>350</v>
       </c>
       <c r="N80" t="n">
-        <v>13000</v>
+        <v>14400</v>
       </c>
       <c r="O80" t="n">
-        <v>13000</v>
+        <v>14400</v>
       </c>
       <c r="P80" t="n">
-        <v>13000</v>
+        <v>14400</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R80" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S80" t="n">
-        <v>867</v>
+        <v>800</v>
       </c>
       <c r="T80" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="81">
@@ -6807,7 +6807,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44536</v>
+        <v>44194</v>
       </c>
       <c r="E81" t="n">
         <v>13</v>
@@ -6835,7 +6835,7 @@
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
@@ -6844,32 +6844,32 @@
         </is>
       </c>
       <c r="M81" t="n">
-        <v>220</v>
+        <v>120</v>
       </c>
       <c r="N81" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O81" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P81" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R81" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S81" t="n">
-        <v>1100</v>
+        <v>867</v>
       </c>
       <c r="T81" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="82">
@@ -6887,7 +6887,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44536</v>
+        <v>44162</v>
       </c>
       <c r="E82" t="n">
         <v>13</v>
@@ -6920,20 +6920,20 @@
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M82" t="n">
-        <v>250</v>
+        <v>70</v>
       </c>
       <c r="N82" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="O82" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="P82" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
@@ -6942,11 +6942,11 @@
       </c>
       <c r="R82" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S82" t="n">
-        <v>700</v>
+        <v>850</v>
       </c>
       <c r="T82" t="n">
         <v>10</v>
@@ -6967,7 +6967,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44194</v>
+        <v>44162</v>
       </c>
       <c r="E83" t="n">
         <v>13</v>
@@ -6995,7 +6995,7 @@
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L83" t="inlineStr">
@@ -7004,20 +7004,20 @@
         </is>
       </c>
       <c r="M83" t="n">
-        <v>120</v>
+        <v>75</v>
       </c>
       <c r="N83" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O83" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P83" t="n">
-        <v>13000</v>
+        <v>14400</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R83" t="inlineStr">
@@ -7026,10 +7026,10 @@
         </is>
       </c>
       <c r="S83" t="n">
-        <v>867</v>
+        <v>800</v>
       </c>
       <c r="T83" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="84">
@@ -7047,7 +7047,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44540</v>
+        <v>44533</v>
       </c>
       <c r="E84" t="n">
         <v>13</v>
@@ -7084,32 +7084,32 @@
         </is>
       </c>
       <c r="M84" t="n">
-        <v>330</v>
+        <v>410</v>
       </c>
       <c r="N84" t="n">
-        <v>16000</v>
+        <v>16500</v>
       </c>
       <c r="O84" t="n">
-        <v>16000</v>
+        <v>16500</v>
       </c>
       <c r="P84" t="n">
-        <v>16000</v>
+        <v>16500</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R84" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S84" t="n">
-        <v>889</v>
+        <v>1100</v>
       </c>
       <c r="T84" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="85">
@@ -7127,7 +7127,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44540</v>
+        <v>44533</v>
       </c>
       <c r="E85" t="n">
         <v>13</v>
@@ -7164,31 +7164,271 @@
         </is>
       </c>
       <c r="M85" t="n">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="N85" t="n">
-        <v>14000</v>
+        <v>10500</v>
       </c>
       <c r="O85" t="n">
-        <v>14000</v>
+        <v>10500</v>
       </c>
       <c r="P85" t="n">
-        <v>14000</v>
+        <v>10500</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="R85" t="inlineStr">
+        <is>
+          <t>Provincia de San Felipe de Aconcagua</t>
+        </is>
+      </c>
+      <c r="S85" t="n">
+        <v>700</v>
+      </c>
+      <c r="T85" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>9</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D86" s="2" t="n">
+        <v>44533</v>
+      </c>
+      <c r="E86" t="n">
+        <v>13</v>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G86" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I86" t="n">
+        <v>100103003</v>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>Damasco</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>Castle Brite</t>
+        </is>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>Tercera</t>
+        </is>
+      </c>
+      <c r="M86" t="n">
+        <v>250</v>
+      </c>
+      <c r="N86" t="n">
+        <v>7500</v>
+      </c>
+      <c r="O86" t="n">
+        <v>7500</v>
+      </c>
+      <c r="P86" t="n">
+        <v>7500</v>
+      </c>
+      <c r="Q86" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="R86" t="inlineStr">
+        <is>
+          <t>Provincia de San Felipe de Aconcagua</t>
+        </is>
+      </c>
+      <c r="S86" t="n">
+        <v>500</v>
+      </c>
+      <c r="T86" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>9</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D87" s="2" t="n">
+        <v>44525</v>
+      </c>
+      <c r="E87" t="n">
+        <v>13</v>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G87" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I87" t="n">
+        <v>100103003</v>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>Damasco</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>Castle Brite</t>
+        </is>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M87" t="n">
+        <v>300</v>
+      </c>
+      <c r="N87" t="n">
+        <v>25200</v>
+      </c>
+      <c r="O87" t="n">
+        <v>25200</v>
+      </c>
+      <c r="P87" t="n">
+        <v>25200</v>
+      </c>
+      <c r="Q87" t="inlineStr">
+        <is>
           <t>$/caja 18 kilos</t>
         </is>
       </c>
-      <c r="R85" t="inlineStr">
-        <is>
-          <t>Provincia de Los Andes</t>
-        </is>
-      </c>
-      <c r="S85" t="n">
-        <v>778</v>
-      </c>
-      <c r="T85" t="n">
+      <c r="R87" t="inlineStr">
+        <is>
+          <t>Provincia de San Felipe de Aconcagua</t>
+        </is>
+      </c>
+      <c r="S87" t="n">
+        <v>1400</v>
+      </c>
+      <c r="T87" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>9</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D88" s="2" t="n">
+        <v>44525</v>
+      </c>
+      <c r="E88" t="n">
+        <v>13</v>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G88" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I88" t="n">
+        <v>100103003</v>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>Damasco</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>Castle Brite</t>
+        </is>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M88" t="n">
+        <v>250</v>
+      </c>
+      <c r="N88" t="n">
+        <v>21600</v>
+      </c>
+      <c r="O88" t="n">
+        <v>21600</v>
+      </c>
+      <c r="P88" t="n">
+        <v>21600</v>
+      </c>
+      <c r="Q88" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="R88" t="inlineStr">
+        <is>
+          <t>Provincia de San Felipe de Aconcagua</t>
+        </is>
+      </c>
+      <c r="S88" t="n">
+        <v>1200</v>
+      </c>
+      <c r="T88" t="n">
         <v>18</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Damasco.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Damasco.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T88"/>
+  <dimension ref="A1:T90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4727,7 +4727,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44168</v>
+        <v>44574</v>
       </c>
       <c r="E55" t="n">
         <v>13</v>
@@ -4755,7 +4755,7 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>Dina</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
@@ -4764,32 +4764,32 @@
         </is>
       </c>
       <c r="M55" t="n">
-        <v>40</v>
+        <v>350</v>
       </c>
       <c r="N55" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="O55" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="P55" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R55" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S55" t="n">
-        <v>1400</v>
+        <v>1000</v>
       </c>
       <c r="T55" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="56">
@@ -4807,7 +4807,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44544</v>
+        <v>44574</v>
       </c>
       <c r="E56" t="n">
         <v>13</v>
@@ -4835,16 +4835,16 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>Dina</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M56" t="n">
-        <v>330</v>
+        <v>480</v>
       </c>
       <c r="N56" t="n">
         <v>15000</v>
@@ -4857,7 +4857,7 @@
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R56" t="inlineStr">
@@ -4866,10 +4866,10 @@
         </is>
       </c>
       <c r="S56" t="n">
-        <v>1000</v>
+        <v>833</v>
       </c>
       <c r="T56" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="57">
@@ -4887,7 +4887,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44544</v>
+        <v>44168</v>
       </c>
       <c r="E57" t="n">
         <v>13</v>
@@ -4920,36 +4920,36 @@
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M57" t="n">
-        <v>350</v>
+        <v>40</v>
       </c>
       <c r="N57" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O57" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P57" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R57" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S57" t="n">
-        <v>800</v>
+        <v>1400</v>
       </c>
       <c r="T57" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="58">
@@ -4967,7 +4967,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44160</v>
+        <v>44544</v>
       </c>
       <c r="E58" t="n">
         <v>13</v>
@@ -4995,29 +4995,29 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Dina</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M58" t="n">
-        <v>25</v>
+        <v>330</v>
       </c>
       <c r="N58" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="O58" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="P58" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R58" t="inlineStr">
@@ -5026,10 +5026,10 @@
         </is>
       </c>
       <c r="S58" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T58" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="59">
@@ -5047,7 +5047,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44160</v>
+        <v>44544</v>
       </c>
       <c r="E59" t="n">
         <v>13</v>
@@ -5075,29 +5075,29 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Dina</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M59" t="n">
-        <v>40</v>
+        <v>350</v>
       </c>
       <c r="N59" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="O59" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="P59" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R59" t="inlineStr">
@@ -5106,10 +5106,10 @@
         </is>
       </c>
       <c r="S59" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="T59" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="60">
@@ -5127,7 +5127,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44167</v>
+        <v>44160</v>
       </c>
       <c r="E60" t="n">
         <v>13</v>
@@ -5160,20 +5160,20 @@
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M60" t="n">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="N60" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O60" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P60" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
@@ -5186,7 +5186,7 @@
         </is>
       </c>
       <c r="S60" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T60" t="n">
         <v>10</v>
@@ -5207,7 +5207,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44167</v>
+        <v>44160</v>
       </c>
       <c r="E61" t="n">
         <v>13</v>
@@ -5240,20 +5240,20 @@
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M61" t="n">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="N61" t="n">
-        <v>9500</v>
+        <v>7000</v>
       </c>
       <c r="O61" t="n">
-        <v>9500</v>
+        <v>7000</v>
       </c>
       <c r="P61" t="n">
-        <v>9500</v>
+        <v>7000</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         </is>
       </c>
       <c r="S61" t="n">
-        <v>950</v>
+        <v>700</v>
       </c>
       <c r="T61" t="n">
         <v>10</v>
@@ -5320,24 +5320,24 @@
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M62" t="n">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="N62" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O62" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P62" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R62" t="inlineStr">
@@ -5346,10 +5346,10 @@
         </is>
       </c>
       <c r="S62" t="n">
-        <v>833</v>
+        <v>1000</v>
       </c>
       <c r="T62" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="63">
@@ -5367,7 +5367,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44169</v>
+        <v>44167</v>
       </c>
       <c r="E63" t="n">
         <v>13</v>
@@ -5395,7 +5395,7 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>Dina</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
@@ -5404,16 +5404,16 @@
         </is>
       </c>
       <c r="M63" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="N63" t="n">
-        <v>10000</v>
+        <v>9500</v>
       </c>
       <c r="O63" t="n">
-        <v>10000</v>
+        <v>9500</v>
       </c>
       <c r="P63" t="n">
-        <v>10000</v>
+        <v>9500</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
@@ -5422,11 +5422,11 @@
       </c>
       <c r="R63" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S63" t="n">
-        <v>1000</v>
+        <v>950</v>
       </c>
       <c r="T63" t="n">
         <v>10</v>
@@ -5447,7 +5447,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44560</v>
+        <v>44167</v>
       </c>
       <c r="E64" t="n">
         <v>13</v>
@@ -5475,29 +5475,29 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>Helena</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M64" t="n">
-        <v>410</v>
+        <v>60</v>
       </c>
       <c r="N64" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="O64" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="P64" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R64" t="inlineStr">
@@ -5506,7 +5506,7 @@
         </is>
       </c>
       <c r="S64" t="n">
-        <v>1000</v>
+        <v>833</v>
       </c>
       <c r="T64" t="n">
         <v>18</v>
@@ -5527,7 +5527,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44560</v>
+        <v>44169</v>
       </c>
       <c r="E65" t="n">
         <v>13</v>
@@ -5555,7 +5555,7 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>Helena</t>
+          <t>Dina</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
@@ -5564,32 +5564,32 @@
         </is>
       </c>
       <c r="M65" t="n">
-        <v>330</v>
+        <v>80</v>
       </c>
       <c r="N65" t="n">
-        <v>14400</v>
+        <v>10000</v>
       </c>
       <c r="O65" t="n">
-        <v>14400</v>
+        <v>10000</v>
       </c>
       <c r="P65" t="n">
-        <v>14400</v>
+        <v>10000</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R65" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S65" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T65" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="66">
@@ -5640,20 +5640,20 @@
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M66" t="n">
-        <v>380</v>
+        <v>410</v>
       </c>
       <c r="N66" t="n">
-        <v>12600</v>
+        <v>18000</v>
       </c>
       <c r="O66" t="n">
-        <v>12600</v>
+        <v>18000</v>
       </c>
       <c r="P66" t="n">
-        <v>12600</v>
+        <v>18000</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
@@ -5666,7 +5666,7 @@
         </is>
       </c>
       <c r="S66" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="T66" t="n">
         <v>18</v>
@@ -5687,7 +5687,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44552</v>
+        <v>44560</v>
       </c>
       <c r="E67" t="n">
         <v>13</v>
@@ -5715,29 +5715,29 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>Dina</t>
+          <t>Helena</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M67" t="n">
-        <v>200</v>
+        <v>330</v>
       </c>
       <c r="N67" t="n">
-        <v>10000</v>
+        <v>14400</v>
       </c>
       <c r="O67" t="n">
-        <v>10000</v>
+        <v>14400</v>
       </c>
       <c r="P67" t="n">
-        <v>10000</v>
+        <v>14400</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R67" t="inlineStr">
@@ -5746,10 +5746,10 @@
         </is>
       </c>
       <c r="S67" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T67" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="68">
@@ -5767,7 +5767,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44552</v>
+        <v>44560</v>
       </c>
       <c r="E68" t="n">
         <v>13</v>
@@ -5795,29 +5795,29 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>Dina</t>
+          <t>Helena</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M68" t="n">
-        <v>220</v>
+        <v>380</v>
       </c>
       <c r="N68" t="n">
-        <v>8000</v>
+        <v>12600</v>
       </c>
       <c r="O68" t="n">
-        <v>8000</v>
+        <v>12600</v>
       </c>
       <c r="P68" t="n">
-        <v>8000</v>
+        <v>12600</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R68" t="inlineStr">
@@ -5826,10 +5826,10 @@
         </is>
       </c>
       <c r="S68" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="T68" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="69">
@@ -5880,20 +5880,20 @@
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M69" t="n">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="N69" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="O69" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="P69" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
@@ -5906,7 +5906,7 @@
         </is>
       </c>
       <c r="S69" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="T69" t="n">
         <v>10</v>
@@ -5955,29 +5955,29 @@
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>Modesto</t>
+          <t>Dina</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M70" t="n">
-        <v>280</v>
+        <v>220</v>
       </c>
       <c r="N70" t="n">
-        <v>21600</v>
+        <v>8000</v>
       </c>
       <c r="O70" t="n">
-        <v>21600</v>
+        <v>8000</v>
       </c>
       <c r="P70" t="n">
-        <v>21600</v>
+        <v>8000</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R70" t="inlineStr">
@@ -5986,10 +5986,10 @@
         </is>
       </c>
       <c r="S70" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="T70" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="71">
@@ -6035,29 +6035,29 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>Modesto</t>
+          <t>Dina</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M71" t="n">
-        <v>310</v>
+        <v>350</v>
       </c>
       <c r="N71" t="n">
-        <v>18000</v>
+        <v>6000</v>
       </c>
       <c r="O71" t="n">
-        <v>18000</v>
+        <v>6000</v>
       </c>
       <c r="P71" t="n">
-        <v>18000</v>
+        <v>6000</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R71" t="inlineStr">
@@ -6066,10 +6066,10 @@
         </is>
       </c>
       <c r="S71" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="T71" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="72">
@@ -6120,20 +6120,20 @@
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M72" t="n">
-        <v>350</v>
+        <v>280</v>
       </c>
       <c r="N72" t="n">
-        <v>14400</v>
+        <v>21600</v>
       </c>
       <c r="O72" t="n">
-        <v>14400</v>
+        <v>21600</v>
       </c>
       <c r="P72" t="n">
-        <v>14400</v>
+        <v>21600</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="S72" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="T72" t="n">
         <v>18</v>
@@ -6167,7 +6167,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44558</v>
+        <v>44552</v>
       </c>
       <c r="E73" t="n">
         <v>13</v>
@@ -6195,41 +6195,41 @@
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>Helena</t>
+          <t>Modesto</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M73" t="n">
-        <v>330</v>
+        <v>310</v>
       </c>
       <c r="N73" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="O73" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="P73" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R73" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S73" t="n">
         <v>1000</v>
       </c>
       <c r="T73" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="74">
@@ -6247,7 +6247,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44558</v>
+        <v>44552</v>
       </c>
       <c r="E74" t="n">
         <v>13</v>
@@ -6275,41 +6275,41 @@
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>Helena</t>
+          <t>Modesto</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M74" t="n">
         <v>350</v>
       </c>
       <c r="N74" t="n">
-        <v>12800</v>
+        <v>14400</v>
       </c>
       <c r="O74" t="n">
-        <v>12800</v>
+        <v>14400</v>
       </c>
       <c r="P74" t="n">
-        <v>12800</v>
+        <v>14400</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R74" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S74" t="n">
         <v>800</v>
       </c>
       <c r="T74" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="75">
@@ -6355,41 +6355,41 @@
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Helena</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M75" t="n">
-        <v>410</v>
+        <v>330</v>
       </c>
       <c r="N75" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O75" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="P75" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R75" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S75" t="n">
-        <v>778</v>
+        <v>1000</v>
       </c>
       <c r="T75" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76">
@@ -6435,41 +6435,41 @@
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Helena</t>
         </is>
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M76" t="n">
-        <v>380</v>
+        <v>350</v>
       </c>
       <c r="N76" t="n">
-        <v>12000</v>
+        <v>12800</v>
       </c>
       <c r="O76" t="n">
-        <v>12000</v>
+        <v>12800</v>
       </c>
       <c r="P76" t="n">
-        <v>12000</v>
+        <v>12800</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R76" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S76" t="n">
-        <v>667</v>
+        <v>800</v>
       </c>
       <c r="T76" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77">
@@ -6487,7 +6487,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44554</v>
+        <v>44558</v>
       </c>
       <c r="E77" t="n">
         <v>13</v>
@@ -6567,7 +6567,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44554</v>
+        <v>44558</v>
       </c>
       <c r="E78" t="n">
         <v>13</v>
@@ -6647,7 +6647,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44545</v>
+        <v>44554</v>
       </c>
       <c r="E79" t="n">
         <v>13</v>
@@ -6675,25 +6675,25 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M79" t="n">
-        <v>310</v>
+        <v>410</v>
       </c>
       <c r="N79" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="O79" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="P79" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
@@ -6702,11 +6702,11 @@
       </c>
       <c r="R79" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S79" t="n">
-        <v>1000</v>
+        <v>778</v>
       </c>
       <c r="T79" t="n">
         <v>18</v>
@@ -6727,7 +6727,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44545</v>
+        <v>44554</v>
       </c>
       <c r="E80" t="n">
         <v>13</v>
@@ -6755,25 +6755,25 @@
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M80" t="n">
-        <v>350</v>
+        <v>380</v>
       </c>
       <c r="N80" t="n">
-        <v>14400</v>
+        <v>12000</v>
       </c>
       <c r="O80" t="n">
-        <v>14400</v>
+        <v>12000</v>
       </c>
       <c r="P80" t="n">
-        <v>14400</v>
+        <v>12000</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
@@ -6782,11 +6782,11 @@
       </c>
       <c r="R80" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S80" t="n">
-        <v>800</v>
+        <v>667</v>
       </c>
       <c r="T80" t="n">
         <v>18</v>
@@ -6807,7 +6807,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44194</v>
+        <v>44545</v>
       </c>
       <c r="E81" t="n">
         <v>13</v>
@@ -6835,41 +6835,41 @@
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M81" t="n">
-        <v>120</v>
+        <v>310</v>
       </c>
       <c r="N81" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="O81" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="P81" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R81" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S81" t="n">
-        <v>867</v>
+        <v>1000</v>
       </c>
       <c r="T81" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="82">
@@ -6887,7 +6887,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44162</v>
+        <v>44545</v>
       </c>
       <c r="E82" t="n">
         <v>13</v>
@@ -6924,32 +6924,32 @@
         </is>
       </c>
       <c r="M82" t="n">
-        <v>70</v>
+        <v>350</v>
       </c>
       <c r="N82" t="n">
-        <v>8500</v>
+        <v>14400</v>
       </c>
       <c r="O82" t="n">
-        <v>8500</v>
+        <v>14400</v>
       </c>
       <c r="P82" t="n">
-        <v>8500</v>
+        <v>14400</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R82" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S82" t="n">
-        <v>850</v>
+        <v>800</v>
       </c>
       <c r="T82" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="83">
@@ -6967,7 +6967,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44162</v>
+        <v>44194</v>
       </c>
       <c r="E83" t="n">
         <v>13</v>
@@ -6995,7 +6995,7 @@
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L83" t="inlineStr">
@@ -7004,20 +7004,20 @@
         </is>
       </c>
       <c r="M83" t="n">
-        <v>75</v>
+        <v>120</v>
       </c>
       <c r="N83" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O83" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P83" t="n">
-        <v>14400</v>
+        <v>13000</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R83" t="inlineStr">
@@ -7026,10 +7026,10 @@
         </is>
       </c>
       <c r="S83" t="n">
-        <v>800</v>
+        <v>867</v>
       </c>
       <c r="T83" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="84">
@@ -7047,7 +7047,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44533</v>
+        <v>44162</v>
       </c>
       <c r="E84" t="n">
         <v>13</v>
@@ -7084,20 +7084,20 @@
         </is>
       </c>
       <c r="M84" t="n">
-        <v>410</v>
+        <v>70</v>
       </c>
       <c r="N84" t="n">
-        <v>16500</v>
+        <v>8500</v>
       </c>
       <c r="O84" t="n">
-        <v>16500</v>
+        <v>8500</v>
       </c>
       <c r="P84" t="n">
-        <v>16500</v>
+        <v>8500</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R84" t="inlineStr">
@@ -7106,10 +7106,10 @@
         </is>
       </c>
       <c r="S84" t="n">
-        <v>1100</v>
+        <v>850</v>
       </c>
       <c r="T84" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="85">
@@ -7127,7 +7127,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44533</v>
+        <v>44162</v>
       </c>
       <c r="E85" t="n">
         <v>13</v>
@@ -7160,24 +7160,24 @@
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M85" t="n">
-        <v>300</v>
+        <v>75</v>
       </c>
       <c r="N85" t="n">
-        <v>10500</v>
+        <v>14000</v>
       </c>
       <c r="O85" t="n">
-        <v>10500</v>
+        <v>15000</v>
       </c>
       <c r="P85" t="n">
-        <v>10500</v>
+        <v>14400</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R85" t="inlineStr">
@@ -7186,10 +7186,10 @@
         </is>
       </c>
       <c r="S85" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="T85" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="86">
@@ -7240,20 +7240,20 @@
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M86" t="n">
-        <v>250</v>
+        <v>410</v>
       </c>
       <c r="N86" t="n">
-        <v>7500</v>
+        <v>16500</v>
       </c>
       <c r="O86" t="n">
-        <v>7500</v>
+        <v>16500</v>
       </c>
       <c r="P86" t="n">
-        <v>7500</v>
+        <v>16500</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
@@ -7266,7 +7266,7 @@
         </is>
       </c>
       <c r="S86" t="n">
-        <v>500</v>
+        <v>1100</v>
       </c>
       <c r="T86" t="n">
         <v>15</v>
@@ -7287,7 +7287,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44525</v>
+        <v>44533</v>
       </c>
       <c r="E87" t="n">
         <v>13</v>
@@ -7320,24 +7320,24 @@
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M87" t="n">
         <v>300</v>
       </c>
       <c r="N87" t="n">
-        <v>25200</v>
+        <v>10500</v>
       </c>
       <c r="O87" t="n">
-        <v>25200</v>
+        <v>10500</v>
       </c>
       <c r="P87" t="n">
-        <v>25200</v>
+        <v>10500</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R87" t="inlineStr">
@@ -7346,10 +7346,10 @@
         </is>
       </c>
       <c r="S87" t="n">
-        <v>1400</v>
+        <v>700</v>
       </c>
       <c r="T87" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="88">
@@ -7367,7 +7367,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44525</v>
+        <v>44533</v>
       </c>
       <c r="E88" t="n">
         <v>13</v>
@@ -7400,35 +7400,195 @@
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M88" t="n">
         <v>250</v>
       </c>
       <c r="N88" t="n">
+        <v>7500</v>
+      </c>
+      <c r="O88" t="n">
+        <v>7500</v>
+      </c>
+      <c r="P88" t="n">
+        <v>7500</v>
+      </c>
+      <c r="Q88" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="R88" t="inlineStr">
+        <is>
+          <t>Provincia de San Felipe de Aconcagua</t>
+        </is>
+      </c>
+      <c r="S88" t="n">
+        <v>500</v>
+      </c>
+      <c r="T88" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>9</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D89" s="2" t="n">
+        <v>44525</v>
+      </c>
+      <c r="E89" t="n">
+        <v>13</v>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G89" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I89" t="n">
+        <v>100103003</v>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>Damasco</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>Castle Brite</t>
+        </is>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M89" t="n">
+        <v>300</v>
+      </c>
+      <c r="N89" t="n">
+        <v>25200</v>
+      </c>
+      <c r="O89" t="n">
+        <v>25200</v>
+      </c>
+      <c r="P89" t="n">
+        <v>25200</v>
+      </c>
+      <c r="Q89" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="R89" t="inlineStr">
+        <is>
+          <t>Provincia de San Felipe de Aconcagua</t>
+        </is>
+      </c>
+      <c r="S89" t="n">
+        <v>1400</v>
+      </c>
+      <c r="T89" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>9</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D90" s="2" t="n">
+        <v>44525</v>
+      </c>
+      <c r="E90" t="n">
+        <v>13</v>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G90" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I90" t="n">
+        <v>100103003</v>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>Damasco</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>Castle Brite</t>
+        </is>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M90" t="n">
+        <v>250</v>
+      </c>
+      <c r="N90" t="n">
         <v>21600</v>
       </c>
-      <c r="O88" t="n">
+      <c r="O90" t="n">
         <v>21600</v>
       </c>
-      <c r="P88" t="n">
+      <c r="P90" t="n">
         <v>21600</v>
       </c>
-      <c r="Q88" t="inlineStr">
+      <c r="Q90" t="inlineStr">
         <is>
           <t>$/caja 18 kilos</t>
         </is>
       </c>
-      <c r="R88" t="inlineStr">
+      <c r="R90" t="inlineStr">
         <is>
           <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
-      <c r="S88" t="n">
+      <c r="S90" t="n">
         <v>1200</v>
       </c>
-      <c r="T88" t="n">
+      <c r="T90" t="n">
         <v>18</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Damasco.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Damasco.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T90"/>
+  <dimension ref="A1:T92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44551</v>
+        <v>44575</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -2035,7 +2035,7 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Dina</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
@@ -2044,29 +2044,29 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>220</v>
+        <v>480</v>
       </c>
       <c r="N21" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="O21" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="P21" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S21" t="n">
-        <v>1000</v>
+        <v>944</v>
       </c>
       <c r="T21" t="n">
         <v>18</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44551</v>
+        <v>44575</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
@@ -2115,7 +2115,7 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Dina</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
@@ -2124,29 +2124,29 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="N22" t="n">
-        <v>14400</v>
+        <v>15000</v>
       </c>
       <c r="O22" t="n">
-        <v>14400</v>
+        <v>15000</v>
       </c>
       <c r="P22" t="n">
-        <v>14400</v>
+        <v>15000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S22" t="n">
-        <v>800</v>
+        <v>833</v>
       </c>
       <c r="T22" t="n">
         <v>18</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44195</v>
+        <v>44551</v>
       </c>
       <c r="E23" t="n">
         <v>13</v>
@@ -2195,41 +2195,41 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Dina</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>124</v>
+        <v>220</v>
       </c>
       <c r="N23" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="O23" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="P23" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S23" t="n">
-        <v>867</v>
+        <v>1000</v>
       </c>
       <c r="T23" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24">
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44561</v>
+        <v>44551</v>
       </c>
       <c r="E24" t="n">
         <v>13</v>
@@ -2275,25 +2275,25 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Dina</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M24" t="n">
-        <v>330</v>
+        <v>350</v>
       </c>
       <c r="N24" t="n">
-        <v>18000</v>
+        <v>14400</v>
       </c>
       <c r="O24" t="n">
-        <v>18000</v>
+        <v>14400</v>
       </c>
       <c r="P24" t="n">
-        <v>18000</v>
+        <v>14400</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2302,11 +2302,11 @@
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S24" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T24" t="n">
         <v>18</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44561</v>
+        <v>44195</v>
       </c>
       <c r="E25" t="n">
         <v>13</v>
@@ -2364,32 +2364,32 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>350</v>
+        <v>124</v>
       </c>
       <c r="N25" t="n">
-        <v>14400</v>
+        <v>13000</v>
       </c>
       <c r="O25" t="n">
-        <v>14400</v>
+        <v>13000</v>
       </c>
       <c r="P25" t="n">
-        <v>14400</v>
+        <v>13000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S25" t="n">
-        <v>800</v>
+        <v>867</v>
       </c>
       <c r="T25" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26">
@@ -2440,20 +2440,20 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M26" t="n">
-        <v>300</v>
+        <v>330</v>
       </c>
       <c r="N26" t="n">
-        <v>10800</v>
+        <v>18000</v>
       </c>
       <c r="O26" t="n">
-        <v>10800</v>
+        <v>18000</v>
       </c>
       <c r="P26" t="n">
-        <v>10800</v>
+        <v>18000</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="T26" t="n">
         <v>18</v>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44557</v>
+        <v>44561</v>
       </c>
       <c r="E27" t="n">
         <v>13</v>
@@ -2520,36 +2520,36 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M27" t="n">
-        <v>380</v>
+        <v>350</v>
       </c>
       <c r="N27" t="n">
-        <v>15000</v>
+        <v>14400</v>
       </c>
       <c r="O27" t="n">
-        <v>15000</v>
+        <v>14400</v>
       </c>
       <c r="P27" t="n">
-        <v>15000</v>
+        <v>14400</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S27" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T27" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28">
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44557</v>
+        <v>44561</v>
       </c>
       <c r="E28" t="n">
         <v>13</v>
@@ -2600,36 +2600,36 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>330</v>
+        <v>300</v>
       </c>
       <c r="N28" t="n">
-        <v>12000</v>
+        <v>10800</v>
       </c>
       <c r="O28" t="n">
-        <v>12000</v>
+        <v>10800</v>
       </c>
       <c r="P28" t="n">
-        <v>12000</v>
+        <v>10800</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S28" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="T28" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29">
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44537</v>
+        <v>44557</v>
       </c>
       <c r="E29" t="n">
         <v>13</v>
@@ -2675,41 +2675,41 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>400</v>
+        <v>380</v>
       </c>
       <c r="N29" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="O29" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P29" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S29" t="n">
-        <v>889</v>
+        <v>1000</v>
       </c>
       <c r="T29" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30">
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44159</v>
+        <v>44557</v>
       </c>
       <c r="E30" t="n">
         <v>13</v>
@@ -2755,7 +2755,7 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
@@ -2764,32 +2764,32 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>80</v>
+        <v>330</v>
       </c>
       <c r="N30" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O30" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P30" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S30" t="n">
         <v>800</v>
       </c>
       <c r="T30" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31">
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44159</v>
+        <v>44537</v>
       </c>
       <c r="E31" t="n">
         <v>13</v>
@@ -2840,24 +2840,24 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M31" t="n">
-        <v>65</v>
+        <v>400</v>
       </c>
       <c r="N31" t="n">
-        <v>7000</v>
+        <v>16000</v>
       </c>
       <c r="O31" t="n">
-        <v>7000</v>
+        <v>16000</v>
       </c>
       <c r="P31" t="n">
-        <v>7000</v>
+        <v>16000</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
@@ -2866,10 +2866,10 @@
         </is>
       </c>
       <c r="S31" t="n">
-        <v>700</v>
+        <v>889</v>
       </c>
       <c r="T31" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32">
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44550</v>
+        <v>44159</v>
       </c>
       <c r="E32" t="n">
         <v>13</v>
@@ -2924,7 +2924,7 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="N32" t="n">
         <v>8000</v>
@@ -2942,7 +2942,7 @@
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S32" t="n">
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44550</v>
+        <v>44159</v>
       </c>
       <c r="E33" t="n">
         <v>13</v>
@@ -3004,16 +3004,16 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>120</v>
+        <v>65</v>
       </c>
       <c r="N33" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O33" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="P33" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3022,11 +3022,11 @@
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S33" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="T33" t="n">
         <v>10</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44572</v>
+        <v>44550</v>
       </c>
       <c r="E34" t="n">
         <v>13</v>
@@ -3075,7 +3075,7 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
@@ -3084,32 +3084,32 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>580</v>
+        <v>150</v>
       </c>
       <c r="N34" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="O34" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="P34" t="n">
-        <v>14517</v>
+        <v>8000</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S34" t="n">
-        <v>806</v>
+        <v>800</v>
       </c>
       <c r="T34" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35">
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44519</v>
+        <v>44550</v>
       </c>
       <c r="E35" t="n">
         <v>13</v>
@@ -3160,24 +3160,24 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M35" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="N35" t="n">
-        <v>22500</v>
+        <v>6000</v>
       </c>
       <c r="O35" t="n">
-        <v>22500</v>
+        <v>6000</v>
       </c>
       <c r="P35" t="n">
-        <v>22500</v>
+        <v>6000</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
@@ -3186,10 +3186,10 @@
         </is>
       </c>
       <c r="S35" t="n">
-        <v>1500</v>
+        <v>600</v>
       </c>
       <c r="T35" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36">
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44189</v>
+        <v>44572</v>
       </c>
       <c r="E36" t="n">
         <v>13</v>
@@ -3244,16 +3244,16 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>130</v>
+        <v>580</v>
       </c>
       <c r="N36" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O36" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P36" t="n">
-        <v>12000</v>
+        <v>14517</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         </is>
       </c>
       <c r="S36" t="n">
-        <v>667</v>
+        <v>806</v>
       </c>
       <c r="T36" t="n">
         <v>18</v>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44166</v>
+        <v>44519</v>
       </c>
       <c r="E37" t="n">
         <v>13</v>
@@ -3324,32 +3324,32 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="N37" t="n">
-        <v>10000</v>
+        <v>22500</v>
       </c>
       <c r="O37" t="n">
-        <v>10000</v>
+        <v>22500</v>
       </c>
       <c r="P37" t="n">
-        <v>10000</v>
+        <v>22500</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S37" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="T37" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="38">
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44166</v>
+        <v>44189</v>
       </c>
       <c r="E38" t="n">
         <v>13</v>
@@ -3395,41 +3395,41 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M38" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="N38" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O38" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P38" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S38" t="n">
-        <v>800</v>
+        <v>667</v>
       </c>
       <c r="T38" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39">
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44175</v>
+        <v>44166</v>
       </c>
       <c r="E39" t="n">
         <v>13</v>
@@ -3475,7 +3475,7 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>Modesto</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
@@ -3484,32 +3484,32 @@
         </is>
       </c>
       <c r="M39" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="N39" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O39" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P39" t="n">
-        <v>11571</v>
+        <v>10000</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S39" t="n">
-        <v>964</v>
+        <v>1000</v>
       </c>
       <c r="T39" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40">
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44187</v>
+        <v>44166</v>
       </c>
       <c r="E40" t="n">
         <v>13</v>
@@ -3555,41 +3555,41 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M40" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="N40" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="O40" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="P40" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S40" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T40" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41">
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44187</v>
+        <v>44175</v>
       </c>
       <c r="E41" t="n">
         <v>13</v>
@@ -3635,29 +3635,29 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Modesto</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M41" t="n">
-        <v>95</v>
+        <v>140</v>
       </c>
       <c r="N41" t="n">
-        <v>13500</v>
+        <v>11000</v>
       </c>
       <c r="O41" t="n">
-        <v>13500</v>
+        <v>12000</v>
       </c>
       <c r="P41" t="n">
-        <v>13500</v>
+        <v>11571</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
@@ -3666,10 +3666,10 @@
         </is>
       </c>
       <c r="S41" t="n">
-        <v>900</v>
+        <v>964</v>
       </c>
       <c r="T41" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42">
@@ -3720,20 +3720,20 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M42" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="N42" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O42" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P42" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="S42" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T42" t="n">
         <v>15</v>
@@ -3767,7 +3767,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44540</v>
+        <v>44187</v>
       </c>
       <c r="E43" t="n">
         <v>13</v>
@@ -3795,41 +3795,41 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M43" t="n">
-        <v>330</v>
+        <v>95</v>
       </c>
       <c r="N43" t="n">
-        <v>16000</v>
+        <v>13500</v>
       </c>
       <c r="O43" t="n">
-        <v>16000</v>
+        <v>13500</v>
       </c>
       <c r="P43" t="n">
-        <v>16000</v>
+        <v>13500</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S43" t="n">
-        <v>889</v>
+        <v>900</v>
       </c>
       <c r="T43" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="44">
@@ -3847,7 +3847,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44540</v>
+        <v>44187</v>
       </c>
       <c r="E44" t="n">
         <v>13</v>
@@ -3875,41 +3875,41 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M44" t="n">
-        <v>280</v>
+        <v>120</v>
       </c>
       <c r="N44" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O44" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P44" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S44" t="n">
-        <v>778</v>
+        <v>800</v>
       </c>
       <c r="T44" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="45">
@@ -3927,7 +3927,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44546</v>
+        <v>44540</v>
       </c>
       <c r="E45" t="n">
         <v>13</v>
@@ -3955,29 +3955,29 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>Dina</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M45" t="n">
-        <v>380</v>
+        <v>330</v>
       </c>
       <c r="N45" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="O45" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="P45" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
@@ -3986,10 +3986,10 @@
         </is>
       </c>
       <c r="S45" t="n">
-        <v>1200</v>
+        <v>889</v>
       </c>
       <c r="T45" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46">
@@ -4007,7 +4007,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44546</v>
+        <v>44540</v>
       </c>
       <c r="E46" t="n">
         <v>13</v>
@@ -4035,29 +4035,29 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Dina</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M46" t="n">
-        <v>330</v>
+        <v>280</v>
       </c>
       <c r="N46" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O46" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P46" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
@@ -4066,10 +4066,10 @@
         </is>
       </c>
       <c r="S46" t="n">
-        <v>1000</v>
+        <v>778</v>
       </c>
       <c r="T46" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47">
@@ -4120,20 +4120,20 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M47" t="n">
-        <v>300</v>
+        <v>380</v>
       </c>
       <c r="N47" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O47" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P47" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="S47" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="T47" t="n">
         <v>10</v>
@@ -4167,7 +4167,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44539</v>
+        <v>44546</v>
       </c>
       <c r="E48" t="n">
         <v>13</v>
@@ -4195,41 +4195,41 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Dina</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M48" t="n">
-        <v>290</v>
+        <v>330</v>
       </c>
       <c r="N48" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="O48" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="P48" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S48" t="n">
         <v>1000</v>
       </c>
       <c r="T48" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="49">
@@ -4247,7 +4247,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44539</v>
+        <v>44546</v>
       </c>
       <c r="E49" t="n">
         <v>13</v>
@@ -4275,41 +4275,41 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Dina</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M49" t="n">
         <v>300</v>
       </c>
       <c r="N49" t="n">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="O49" t="n">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="P49" t="n">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S49" t="n">
-        <v>889</v>
+        <v>800</v>
       </c>
       <c r="T49" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="50">
@@ -4360,20 +4360,20 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M50" t="n">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="N50" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="O50" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="P50" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
@@ -4386,7 +4386,7 @@
         </is>
       </c>
       <c r="S50" t="n">
-        <v>778</v>
+        <v>1000</v>
       </c>
       <c r="T50" t="n">
         <v>18</v>
@@ -4407,7 +4407,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44523</v>
+        <v>44539</v>
       </c>
       <c r="E51" t="n">
         <v>13</v>
@@ -4444,20 +4444,20 @@
         </is>
       </c>
       <c r="M51" t="n">
-        <v>320</v>
+        <v>300</v>
       </c>
       <c r="N51" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="O51" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="P51" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R51" t="inlineStr">
@@ -4466,10 +4466,10 @@
         </is>
       </c>
       <c r="S51" t="n">
-        <v>1000</v>
+        <v>889</v>
       </c>
       <c r="T51" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="52">
@@ -4487,7 +4487,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44573</v>
+        <v>44539</v>
       </c>
       <c r="E52" t="n">
         <v>13</v>
@@ -4515,29 +4515,29 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M52" t="n">
-        <v>380</v>
+        <v>300</v>
       </c>
       <c r="N52" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="O52" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="P52" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R52" t="inlineStr">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="S52" t="n">
-        <v>944</v>
+        <v>778</v>
       </c>
       <c r="T52" t="n">
         <v>18</v>
@@ -4567,7 +4567,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44573</v>
+        <v>44523</v>
       </c>
       <c r="E53" t="n">
         <v>13</v>
@@ -4595,7 +4595,7 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
@@ -4604,20 +4604,20 @@
         </is>
       </c>
       <c r="M53" t="n">
-        <v>410</v>
+        <v>320</v>
       </c>
       <c r="N53" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O53" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P53" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R53" t="inlineStr">
@@ -4626,10 +4626,10 @@
         </is>
       </c>
       <c r="S53" t="n">
-        <v>833</v>
+        <v>1000</v>
       </c>
       <c r="T53" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="54">
@@ -4680,20 +4680,20 @@
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M54" t="n">
-        <v>330</v>
+        <v>380</v>
       </c>
       <c r="N54" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="O54" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="P54" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
@@ -4706,7 +4706,7 @@
         </is>
       </c>
       <c r="S54" t="n">
-        <v>722</v>
+        <v>944</v>
       </c>
       <c r="T54" t="n">
         <v>18</v>
@@ -4727,7 +4727,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44574</v>
+        <v>44573</v>
       </c>
       <c r="E55" t="n">
         <v>13</v>
@@ -4760,20 +4760,20 @@
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M55" t="n">
-        <v>350</v>
+        <v>410</v>
       </c>
       <c r="N55" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="O55" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="P55" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
@@ -4786,7 +4786,7 @@
         </is>
       </c>
       <c r="S55" t="n">
-        <v>1000</v>
+        <v>833</v>
       </c>
       <c r="T55" t="n">
         <v>18</v>
@@ -4807,7 +4807,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44574</v>
+        <v>44573</v>
       </c>
       <c r="E56" t="n">
         <v>13</v>
@@ -4840,20 +4840,20 @@
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M56" t="n">
-        <v>480</v>
+        <v>330</v>
       </c>
       <c r="N56" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="O56" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P56" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
@@ -4866,7 +4866,7 @@
         </is>
       </c>
       <c r="S56" t="n">
-        <v>833</v>
+        <v>722</v>
       </c>
       <c r="T56" t="n">
         <v>18</v>
@@ -4887,7 +4887,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44168</v>
+        <v>44574</v>
       </c>
       <c r="E57" t="n">
         <v>13</v>
@@ -4915,7 +4915,7 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>Dina</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
@@ -4924,32 +4924,32 @@
         </is>
       </c>
       <c r="M57" t="n">
-        <v>40</v>
+        <v>350</v>
       </c>
       <c r="N57" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="O57" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="P57" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R57" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S57" t="n">
-        <v>1400</v>
+        <v>1000</v>
       </c>
       <c r="T57" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="58">
@@ -4967,7 +4967,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44544</v>
+        <v>44574</v>
       </c>
       <c r="E58" t="n">
         <v>13</v>
@@ -4995,16 +4995,16 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>Dina</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M58" t="n">
-        <v>330</v>
+        <v>480</v>
       </c>
       <c r="N58" t="n">
         <v>15000</v>
@@ -5017,7 +5017,7 @@
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R58" t="inlineStr">
@@ -5026,10 +5026,10 @@
         </is>
       </c>
       <c r="S58" t="n">
-        <v>1000</v>
+        <v>833</v>
       </c>
       <c r="T58" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="59">
@@ -5047,7 +5047,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44544</v>
+        <v>44168</v>
       </c>
       <c r="E59" t="n">
         <v>13</v>
@@ -5080,36 +5080,36 @@
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M59" t="n">
-        <v>350</v>
+        <v>40</v>
       </c>
       <c r="N59" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O59" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P59" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R59" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S59" t="n">
-        <v>800</v>
+        <v>1400</v>
       </c>
       <c r="T59" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="60">
@@ -5127,7 +5127,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44160</v>
+        <v>44544</v>
       </c>
       <c r="E60" t="n">
         <v>13</v>
@@ -5155,29 +5155,29 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Dina</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M60" t="n">
-        <v>25</v>
+        <v>330</v>
       </c>
       <c r="N60" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="O60" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="P60" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R60" t="inlineStr">
@@ -5186,10 +5186,10 @@
         </is>
       </c>
       <c r="S60" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T60" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="61">
@@ -5207,7 +5207,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44160</v>
+        <v>44544</v>
       </c>
       <c r="E61" t="n">
         <v>13</v>
@@ -5235,29 +5235,29 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Dina</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M61" t="n">
-        <v>40</v>
+        <v>350</v>
       </c>
       <c r="N61" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="O61" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="P61" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R61" t="inlineStr">
@@ -5266,10 +5266,10 @@
         </is>
       </c>
       <c r="S61" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="T61" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="62">
@@ -5287,7 +5287,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44167</v>
+        <v>44160</v>
       </c>
       <c r="E62" t="n">
         <v>13</v>
@@ -5320,20 +5320,20 @@
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M62" t="n">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="N62" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O62" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P62" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="S62" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T62" t="n">
         <v>10</v>
@@ -5367,7 +5367,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44167</v>
+        <v>44160</v>
       </c>
       <c r="E63" t="n">
         <v>13</v>
@@ -5400,20 +5400,20 @@
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M63" t="n">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="N63" t="n">
-        <v>9500</v>
+        <v>7000</v>
       </c>
       <c r="O63" t="n">
-        <v>9500</v>
+        <v>7000</v>
       </c>
       <c r="P63" t="n">
-        <v>9500</v>
+        <v>7000</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
@@ -5426,7 +5426,7 @@
         </is>
       </c>
       <c r="S63" t="n">
-        <v>950</v>
+        <v>700</v>
       </c>
       <c r="T63" t="n">
         <v>10</v>
@@ -5480,24 +5480,24 @@
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M64" t="n">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="N64" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O64" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P64" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R64" t="inlineStr">
@@ -5506,10 +5506,10 @@
         </is>
       </c>
       <c r="S64" t="n">
-        <v>833</v>
+        <v>1000</v>
       </c>
       <c r="T64" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="65">
@@ -5527,7 +5527,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44169</v>
+        <v>44167</v>
       </c>
       <c r="E65" t="n">
         <v>13</v>
@@ -5555,7 +5555,7 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>Dina</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
@@ -5564,16 +5564,16 @@
         </is>
       </c>
       <c r="M65" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="N65" t="n">
-        <v>10000</v>
+        <v>9500</v>
       </c>
       <c r="O65" t="n">
-        <v>10000</v>
+        <v>9500</v>
       </c>
       <c r="P65" t="n">
-        <v>10000</v>
+        <v>9500</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
@@ -5582,11 +5582,11 @@
       </c>
       <c r="R65" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S65" t="n">
-        <v>1000</v>
+        <v>950</v>
       </c>
       <c r="T65" t="n">
         <v>10</v>
@@ -5607,7 +5607,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44560</v>
+        <v>44167</v>
       </c>
       <c r="E66" t="n">
         <v>13</v>
@@ -5635,29 +5635,29 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>Helena</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M66" t="n">
-        <v>410</v>
+        <v>60</v>
       </c>
       <c r="N66" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="O66" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="P66" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R66" t="inlineStr">
@@ -5666,7 +5666,7 @@
         </is>
       </c>
       <c r="S66" t="n">
-        <v>1000</v>
+        <v>833</v>
       </c>
       <c r="T66" t="n">
         <v>18</v>
@@ -5687,7 +5687,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44560</v>
+        <v>44169</v>
       </c>
       <c r="E67" t="n">
         <v>13</v>
@@ -5715,7 +5715,7 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>Helena</t>
+          <t>Dina</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
@@ -5724,32 +5724,32 @@
         </is>
       </c>
       <c r="M67" t="n">
-        <v>330</v>
+        <v>80</v>
       </c>
       <c r="N67" t="n">
-        <v>14400</v>
+        <v>10000</v>
       </c>
       <c r="O67" t="n">
-        <v>14400</v>
+        <v>10000</v>
       </c>
       <c r="P67" t="n">
-        <v>14400</v>
+        <v>10000</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R67" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S67" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T67" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="68">
@@ -5800,20 +5800,20 @@
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M68" t="n">
-        <v>380</v>
+        <v>410</v>
       </c>
       <c r="N68" t="n">
-        <v>12600</v>
+        <v>18000</v>
       </c>
       <c r="O68" t="n">
-        <v>12600</v>
+        <v>18000</v>
       </c>
       <c r="P68" t="n">
-        <v>12600</v>
+        <v>18000</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
@@ -5826,7 +5826,7 @@
         </is>
       </c>
       <c r="S68" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="T68" t="n">
         <v>18</v>
@@ -5847,7 +5847,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44552</v>
+        <v>44560</v>
       </c>
       <c r="E69" t="n">
         <v>13</v>
@@ -5875,29 +5875,29 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>Dina</t>
+          <t>Helena</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M69" t="n">
-        <v>200</v>
+        <v>330</v>
       </c>
       <c r="N69" t="n">
-        <v>10000</v>
+        <v>14400</v>
       </c>
       <c r="O69" t="n">
-        <v>10000</v>
+        <v>14400</v>
       </c>
       <c r="P69" t="n">
-        <v>10000</v>
+        <v>14400</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R69" t="inlineStr">
@@ -5906,10 +5906,10 @@
         </is>
       </c>
       <c r="S69" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T69" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="70">
@@ -5927,7 +5927,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44552</v>
+        <v>44560</v>
       </c>
       <c r="E70" t="n">
         <v>13</v>
@@ -5955,29 +5955,29 @@
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>Dina</t>
+          <t>Helena</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M70" t="n">
-        <v>220</v>
+        <v>380</v>
       </c>
       <c r="N70" t="n">
-        <v>8000</v>
+        <v>12600</v>
       </c>
       <c r="O70" t="n">
-        <v>8000</v>
+        <v>12600</v>
       </c>
       <c r="P70" t="n">
-        <v>8000</v>
+        <v>12600</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R70" t="inlineStr">
@@ -5986,10 +5986,10 @@
         </is>
       </c>
       <c r="S70" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="T70" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="71">
@@ -6040,20 +6040,20 @@
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M71" t="n">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="N71" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="O71" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="P71" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
@@ -6066,7 +6066,7 @@
         </is>
       </c>
       <c r="S71" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="T71" t="n">
         <v>10</v>
@@ -6115,29 +6115,29 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>Modesto</t>
+          <t>Dina</t>
         </is>
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M72" t="n">
-        <v>280</v>
+        <v>220</v>
       </c>
       <c r="N72" t="n">
-        <v>21600</v>
+        <v>8000</v>
       </c>
       <c r="O72" t="n">
-        <v>21600</v>
+        <v>8000</v>
       </c>
       <c r="P72" t="n">
-        <v>21600</v>
+        <v>8000</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R72" t="inlineStr">
@@ -6146,10 +6146,10 @@
         </is>
       </c>
       <c r="S72" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="T72" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="73">
@@ -6195,29 +6195,29 @@
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>Modesto</t>
+          <t>Dina</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M73" t="n">
-        <v>310</v>
+        <v>350</v>
       </c>
       <c r="N73" t="n">
-        <v>18000</v>
+        <v>6000</v>
       </c>
       <c r="O73" t="n">
-        <v>18000</v>
+        <v>6000</v>
       </c>
       <c r="P73" t="n">
-        <v>18000</v>
+        <v>6000</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R73" t="inlineStr">
@@ -6226,10 +6226,10 @@
         </is>
       </c>
       <c r="S73" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="T73" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="74">
@@ -6280,20 +6280,20 @@
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M74" t="n">
-        <v>350</v>
+        <v>280</v>
       </c>
       <c r="N74" t="n">
-        <v>14400</v>
+        <v>21600</v>
       </c>
       <c r="O74" t="n">
-        <v>14400</v>
+        <v>21600</v>
       </c>
       <c r="P74" t="n">
-        <v>14400</v>
+        <v>21600</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
@@ -6306,7 +6306,7 @@
         </is>
       </c>
       <c r="S74" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="T74" t="n">
         <v>18</v>
@@ -6327,7 +6327,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44558</v>
+        <v>44552</v>
       </c>
       <c r="E75" t="n">
         <v>13</v>
@@ -6355,41 +6355,41 @@
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>Helena</t>
+          <t>Modesto</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M75" t="n">
-        <v>330</v>
+        <v>310</v>
       </c>
       <c r="N75" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="O75" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="P75" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R75" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S75" t="n">
         <v>1000</v>
       </c>
       <c r="T75" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="76">
@@ -6407,7 +6407,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44558</v>
+        <v>44552</v>
       </c>
       <c r="E76" t="n">
         <v>13</v>
@@ -6435,41 +6435,41 @@
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>Helena</t>
+          <t>Modesto</t>
         </is>
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M76" t="n">
         <v>350</v>
       </c>
       <c r="N76" t="n">
-        <v>12800</v>
+        <v>14400</v>
       </c>
       <c r="O76" t="n">
-        <v>12800</v>
+        <v>14400</v>
       </c>
       <c r="P76" t="n">
-        <v>12800</v>
+        <v>14400</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R76" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S76" t="n">
         <v>800</v>
       </c>
       <c r="T76" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="77">
@@ -6515,41 +6515,41 @@
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Helena</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M77" t="n">
-        <v>410</v>
+        <v>330</v>
       </c>
       <c r="N77" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O77" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="P77" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R77" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S77" t="n">
-        <v>778</v>
+        <v>1000</v>
       </c>
       <c r="T77" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78">
@@ -6595,41 +6595,41 @@
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Helena</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M78" t="n">
-        <v>380</v>
+        <v>350</v>
       </c>
       <c r="N78" t="n">
-        <v>12000</v>
+        <v>12800</v>
       </c>
       <c r="O78" t="n">
-        <v>12000</v>
+        <v>12800</v>
       </c>
       <c r="P78" t="n">
-        <v>12000</v>
+        <v>12800</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R78" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S78" t="n">
-        <v>667</v>
+        <v>800</v>
       </c>
       <c r="T78" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79">
@@ -6647,7 +6647,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44554</v>
+        <v>44558</v>
       </c>
       <c r="E79" t="n">
         <v>13</v>
@@ -6727,7 +6727,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44554</v>
+        <v>44558</v>
       </c>
       <c r="E80" t="n">
         <v>13</v>
@@ -6807,7 +6807,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44545</v>
+        <v>44554</v>
       </c>
       <c r="E81" t="n">
         <v>13</v>
@@ -6835,25 +6835,25 @@
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M81" t="n">
-        <v>310</v>
+        <v>410</v>
       </c>
       <c r="N81" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="O81" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="P81" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
@@ -6862,11 +6862,11 @@
       </c>
       <c r="R81" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S81" t="n">
-        <v>1000</v>
+        <v>778</v>
       </c>
       <c r="T81" t="n">
         <v>18</v>
@@ -6887,7 +6887,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44545</v>
+        <v>44554</v>
       </c>
       <c r="E82" t="n">
         <v>13</v>
@@ -6915,25 +6915,25 @@
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M82" t="n">
-        <v>350</v>
+        <v>380</v>
       </c>
       <c r="N82" t="n">
-        <v>14400</v>
+        <v>12000</v>
       </c>
       <c r="O82" t="n">
-        <v>14400</v>
+        <v>12000</v>
       </c>
       <c r="P82" t="n">
-        <v>14400</v>
+        <v>12000</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
@@ -6942,11 +6942,11 @@
       </c>
       <c r="R82" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S82" t="n">
-        <v>800</v>
+        <v>667</v>
       </c>
       <c r="T82" t="n">
         <v>18</v>
@@ -6967,7 +6967,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44194</v>
+        <v>44545</v>
       </c>
       <c r="E83" t="n">
         <v>13</v>
@@ -6995,41 +6995,41 @@
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M83" t="n">
-        <v>120</v>
+        <v>310</v>
       </c>
       <c r="N83" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="O83" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="P83" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R83" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S83" t="n">
-        <v>867</v>
+        <v>1000</v>
       </c>
       <c r="T83" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="84">
@@ -7047,7 +7047,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44162</v>
+        <v>44545</v>
       </c>
       <c r="E84" t="n">
         <v>13</v>
@@ -7084,32 +7084,32 @@
         </is>
       </c>
       <c r="M84" t="n">
-        <v>70</v>
+        <v>350</v>
       </c>
       <c r="N84" t="n">
-        <v>8500</v>
+        <v>14400</v>
       </c>
       <c r="O84" t="n">
-        <v>8500</v>
+        <v>14400</v>
       </c>
       <c r="P84" t="n">
-        <v>8500</v>
+        <v>14400</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R84" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S84" t="n">
-        <v>850</v>
+        <v>800</v>
       </c>
       <c r="T84" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="85">
@@ -7127,7 +7127,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44162</v>
+        <v>44194</v>
       </c>
       <c r="E85" t="n">
         <v>13</v>
@@ -7155,7 +7155,7 @@
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L85" t="inlineStr">
@@ -7164,20 +7164,20 @@
         </is>
       </c>
       <c r="M85" t="n">
-        <v>75</v>
+        <v>120</v>
       </c>
       <c r="N85" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O85" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P85" t="n">
-        <v>14400</v>
+        <v>13000</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R85" t="inlineStr">
@@ -7186,10 +7186,10 @@
         </is>
       </c>
       <c r="S85" t="n">
-        <v>800</v>
+        <v>867</v>
       </c>
       <c r="T85" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="86">
@@ -7207,7 +7207,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44533</v>
+        <v>44162</v>
       </c>
       <c r="E86" t="n">
         <v>13</v>
@@ -7244,20 +7244,20 @@
         </is>
       </c>
       <c r="M86" t="n">
-        <v>410</v>
+        <v>70</v>
       </c>
       <c r="N86" t="n">
-        <v>16500</v>
+        <v>8500</v>
       </c>
       <c r="O86" t="n">
-        <v>16500</v>
+        <v>8500</v>
       </c>
       <c r="P86" t="n">
-        <v>16500</v>
+        <v>8500</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R86" t="inlineStr">
@@ -7266,10 +7266,10 @@
         </is>
       </c>
       <c r="S86" t="n">
-        <v>1100</v>
+        <v>850</v>
       </c>
       <c r="T86" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="87">
@@ -7287,7 +7287,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44533</v>
+        <v>44162</v>
       </c>
       <c r="E87" t="n">
         <v>13</v>
@@ -7320,24 +7320,24 @@
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M87" t="n">
-        <v>300</v>
+        <v>75</v>
       </c>
       <c r="N87" t="n">
-        <v>10500</v>
+        <v>14000</v>
       </c>
       <c r="O87" t="n">
-        <v>10500</v>
+        <v>15000</v>
       </c>
       <c r="P87" t="n">
-        <v>10500</v>
+        <v>14400</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R87" t="inlineStr">
@@ -7346,10 +7346,10 @@
         </is>
       </c>
       <c r="S87" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="T87" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="88">
@@ -7400,20 +7400,20 @@
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M88" t="n">
-        <v>250</v>
+        <v>410</v>
       </c>
       <c r="N88" t="n">
-        <v>7500</v>
+        <v>16500</v>
       </c>
       <c r="O88" t="n">
-        <v>7500</v>
+        <v>16500</v>
       </c>
       <c r="P88" t="n">
-        <v>7500</v>
+        <v>16500</v>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
@@ -7426,7 +7426,7 @@
         </is>
       </c>
       <c r="S88" t="n">
-        <v>500</v>
+        <v>1100</v>
       </c>
       <c r="T88" t="n">
         <v>15</v>
@@ -7447,7 +7447,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44525</v>
+        <v>44533</v>
       </c>
       <c r="E89" t="n">
         <v>13</v>
@@ -7480,24 +7480,24 @@
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M89" t="n">
         <v>300</v>
       </c>
       <c r="N89" t="n">
-        <v>25200</v>
+        <v>10500</v>
       </c>
       <c r="O89" t="n">
-        <v>25200</v>
+        <v>10500</v>
       </c>
       <c r="P89" t="n">
-        <v>25200</v>
+        <v>10500</v>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R89" t="inlineStr">
@@ -7506,10 +7506,10 @@
         </is>
       </c>
       <c r="S89" t="n">
-        <v>1400</v>
+        <v>700</v>
       </c>
       <c r="T89" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="90">
@@ -7527,7 +7527,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44525</v>
+        <v>44533</v>
       </c>
       <c r="E90" t="n">
         <v>13</v>
@@ -7560,35 +7560,195 @@
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M90" t="n">
         <v>250</v>
       </c>
       <c r="N90" t="n">
+        <v>7500</v>
+      </c>
+      <c r="O90" t="n">
+        <v>7500</v>
+      </c>
+      <c r="P90" t="n">
+        <v>7500</v>
+      </c>
+      <c r="Q90" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="R90" t="inlineStr">
+        <is>
+          <t>Provincia de San Felipe de Aconcagua</t>
+        </is>
+      </c>
+      <c r="S90" t="n">
+        <v>500</v>
+      </c>
+      <c r="T90" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>9</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D91" s="2" t="n">
+        <v>44525</v>
+      </c>
+      <c r="E91" t="n">
+        <v>13</v>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G91" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I91" t="n">
+        <v>100103003</v>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>Damasco</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>Castle Brite</t>
+        </is>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M91" t="n">
+        <v>300</v>
+      </c>
+      <c r="N91" t="n">
+        <v>25200</v>
+      </c>
+      <c r="O91" t="n">
+        <v>25200</v>
+      </c>
+      <c r="P91" t="n">
+        <v>25200</v>
+      </c>
+      <c r="Q91" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="R91" t="inlineStr">
+        <is>
+          <t>Provincia de San Felipe de Aconcagua</t>
+        </is>
+      </c>
+      <c r="S91" t="n">
+        <v>1400</v>
+      </c>
+      <c r="T91" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>9</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D92" s="2" t="n">
+        <v>44525</v>
+      </c>
+      <c r="E92" t="n">
+        <v>13</v>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G92" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I92" t="n">
+        <v>100103003</v>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>Damasco</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>Castle Brite</t>
+        </is>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M92" t="n">
+        <v>250</v>
+      </c>
+      <c r="N92" t="n">
         <v>21600</v>
       </c>
-      <c r="O90" t="n">
+      <c r="O92" t="n">
         <v>21600</v>
       </c>
-      <c r="P90" t="n">
+      <c r="P92" t="n">
         <v>21600</v>
       </c>
-      <c r="Q90" t="inlineStr">
+      <c r="Q92" t="inlineStr">
         <is>
           <t>$/caja 18 kilos</t>
         </is>
       </c>
-      <c r="R90" t="inlineStr">
+      <c r="R92" t="inlineStr">
         <is>
           <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
-      <c r="S90" t="n">
+      <c r="S92" t="n">
         <v>1200</v>
       </c>
-      <c r="T90" t="n">
+      <c r="T92" t="n">
         <v>18</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Damasco.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Damasco.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44176</v>
+        <v>44544</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -515,29 +515,29 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Modesto</t>
+          <t>Dina</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>115</v>
+        <v>330</v>
       </c>
       <c r="N2" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="O2" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P2" t="n">
-        <v>11609</v>
+        <v>15000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -546,10 +546,10 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>967</v>
+        <v>1000</v>
       </c>
       <c r="T2" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44536</v>
+        <v>44544</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -595,7 +595,7 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Dina</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -604,32 +604,32 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>220</v>
+        <v>350</v>
       </c>
       <c r="N3" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O3" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P3" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1100</v>
+        <v>800</v>
       </c>
       <c r="T3" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44536</v>
+        <v>44575</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -675,41 +675,41 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>250</v>
+        <v>480</v>
       </c>
       <c r="N4" t="n">
-        <v>7000</v>
+        <v>17000</v>
       </c>
       <c r="O4" t="n">
-        <v>7000</v>
+        <v>17000</v>
       </c>
       <c r="P4" t="n">
-        <v>7000</v>
+        <v>17000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S4" t="n">
-        <v>700</v>
+        <v>944</v>
       </c>
       <c r="T4" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5">
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44174</v>
+        <v>44575</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -755,7 +755,7 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Modesto</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -764,32 +764,32 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>120</v>
+        <v>330</v>
       </c>
       <c r="N5" t="n">
-        <v>8500</v>
+        <v>15000</v>
       </c>
       <c r="O5" t="n">
-        <v>8500</v>
+        <v>15000</v>
       </c>
       <c r="P5" t="n">
-        <v>8500</v>
+        <v>15000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S5" t="n">
-        <v>850</v>
+        <v>833</v>
       </c>
       <c r="T5" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44174</v>
+        <v>44566</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -835,25 +835,25 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Modesto</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>180</v>
+        <v>410</v>
       </c>
       <c r="N6" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O6" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P6" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -862,11 +862,11 @@
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S6" t="n">
-        <v>833</v>
+        <v>1000</v>
       </c>
       <c r="T6" t="n">
         <v>18</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44174</v>
+        <v>44566</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -915,25 +915,25 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Modesto</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>120</v>
+        <v>350</v>
       </c>
       <c r="N7" t="n">
-        <v>12000</v>
+        <v>14400</v>
       </c>
       <c r="O7" t="n">
-        <v>12000</v>
+        <v>14400</v>
       </c>
       <c r="P7" t="n">
-        <v>12000</v>
+        <v>14400</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -942,11 +942,11 @@
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S7" t="n">
-        <v>667</v>
+        <v>800</v>
       </c>
       <c r="T7" t="n">
         <v>18</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44553</v>
+        <v>44525</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -995,7 +995,7 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Dina</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -1004,20 +1004,20 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="N8" t="n">
-        <v>7500</v>
+        <v>25200</v>
       </c>
       <c r="O8" t="n">
-        <v>7500</v>
+        <v>25200</v>
       </c>
       <c r="P8" t="n">
-        <v>7500</v>
+        <v>25200</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>$/bandeja 6 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -1026,10 +1026,10 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1250</v>
+        <v>1400</v>
       </c>
       <c r="T8" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9">
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44553</v>
+        <v>44525</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1075,7 +1075,7 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Dina</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
@@ -1084,20 +1084,20 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="N9" t="n">
-        <v>6500</v>
+        <v>21600</v>
       </c>
       <c r="O9" t="n">
-        <v>6500</v>
+        <v>21600</v>
       </c>
       <c r="P9" t="n">
-        <v>6500</v>
+        <v>21600</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>$/bandeja 6 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
@@ -1106,10 +1106,10 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1083</v>
+        <v>1200</v>
       </c>
       <c r="T9" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10">
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44553</v>
+        <v>44539</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1155,29 +1155,29 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>380</v>
+        <v>290</v>
       </c>
       <c r="N10" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="O10" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="P10" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>778</v>
+        <v>1000</v>
       </c>
       <c r="T10" t="n">
         <v>18</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44553</v>
+        <v>44539</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1235,29 +1235,29 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>410</v>
+        <v>300</v>
       </c>
       <c r="N11" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="O11" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="P11" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>667</v>
+        <v>889</v>
       </c>
       <c r="T11" t="n">
         <v>18</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44566</v>
+        <v>44539</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1315,38 +1315,38 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>410</v>
+        <v>300</v>
       </c>
       <c r="N12" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="O12" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="P12" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1000</v>
+        <v>778</v>
       </c>
       <c r="T12" t="n">
         <v>18</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44566</v>
+        <v>44194</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1404,32 +1404,32 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>350</v>
+        <v>120</v>
       </c>
       <c r="N13" t="n">
-        <v>14400</v>
+        <v>13000</v>
       </c>
       <c r="O13" t="n">
-        <v>14400</v>
+        <v>13000</v>
       </c>
       <c r="P13" t="n">
-        <v>14400</v>
+        <v>13000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S13" t="n">
-        <v>800</v>
+        <v>867</v>
       </c>
       <c r="T13" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14">
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44547</v>
+        <v>44537</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1475,29 +1475,29 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Dina</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="N14" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="O14" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="P14" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
@@ -1506,10 +1506,10 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1200</v>
+        <v>889</v>
       </c>
       <c r="T14" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15">
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44547</v>
+        <v>44546</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1560,20 +1560,20 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>410</v>
+        <v>380</v>
       </c>
       <c r="N15" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O15" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P15" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1582,11 +1582,11 @@
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="T15" t="n">
         <v>10</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44547</v>
+        <v>44546</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1640,20 +1640,20 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="N16" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O16" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P16" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1662,11 +1662,11 @@
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S16" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T16" t="n">
         <v>10</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44559</v>
+        <v>44546</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1715,41 +1715,41 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Helena</t>
+          <t>Dina</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="N17" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="O17" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="P17" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S17" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T17" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18">
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44559</v>
+        <v>44195</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1795,7 +1795,7 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Helena</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
@@ -1804,16 +1804,16 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>350</v>
+        <v>124</v>
       </c>
       <c r="N18" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O18" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P18" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1822,11 +1822,11 @@
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S18" t="n">
-        <v>800</v>
+        <v>867</v>
       </c>
       <c r="T18" t="n">
         <v>15</v>
@@ -1875,7 +1875,7 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Helena</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
@@ -1884,32 +1884,32 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="N19" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="O19" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="P19" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S19" t="n">
         <v>1000</v>
       </c>
       <c r="T19" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20">
@@ -1955,7 +1955,7 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Helena</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
@@ -1964,32 +1964,32 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>380</v>
+        <v>350</v>
       </c>
       <c r="N20" t="n">
-        <v>14400</v>
+        <v>12000</v>
       </c>
       <c r="O20" t="n">
-        <v>14400</v>
+        <v>12000</v>
       </c>
       <c r="P20" t="n">
-        <v>14400</v>
+        <v>12000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S20" t="n">
         <v>800</v>
       </c>
       <c r="T20" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21">
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44575</v>
+        <v>44559</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -2044,16 +2044,16 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>480</v>
+        <v>300</v>
       </c>
       <c r="N21" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="O21" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="P21" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>944</v>
+        <v>1000</v>
       </c>
       <c r="T21" t="n">
         <v>18</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44575</v>
+        <v>44559</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
@@ -2124,16 +2124,16 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>330</v>
+        <v>380</v>
       </c>
       <c r="N22" t="n">
-        <v>15000</v>
+        <v>14400</v>
       </c>
       <c r="O22" t="n">
-        <v>15000</v>
+        <v>14400</v>
       </c>
       <c r="P22" t="n">
-        <v>15000</v>
+        <v>14400</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>833</v>
+        <v>800</v>
       </c>
       <c r="T22" t="n">
         <v>18</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44551</v>
+        <v>44169</v>
       </c>
       <c r="E23" t="n">
         <v>13</v>
@@ -2200,36 +2200,36 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>220</v>
+        <v>80</v>
       </c>
       <c r="N23" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="O23" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="P23" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S23" t="n">
         <v>1000</v>
       </c>
       <c r="T23" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24">
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44551</v>
+        <v>44168</v>
       </c>
       <c r="E24" t="n">
         <v>13</v>
@@ -2280,36 +2280,36 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M24" t="n">
-        <v>350</v>
+        <v>40</v>
       </c>
       <c r="N24" t="n">
-        <v>14400</v>
+        <v>14000</v>
       </c>
       <c r="O24" t="n">
-        <v>14400</v>
+        <v>14000</v>
       </c>
       <c r="P24" t="n">
-        <v>14400</v>
+        <v>14000</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S24" t="n">
-        <v>800</v>
+        <v>1400</v>
       </c>
       <c r="T24" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25">
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44195</v>
+        <v>44574</v>
       </c>
       <c r="E25" t="n">
         <v>13</v>
@@ -2360,24 +2360,24 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>124</v>
+        <v>350</v>
       </c>
       <c r="N25" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="O25" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="P25" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
@@ -2386,10 +2386,10 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>867</v>
+        <v>1000</v>
       </c>
       <c r="T25" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26">
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44561</v>
+        <v>44574</v>
       </c>
       <c r="E26" t="n">
         <v>13</v>
@@ -2440,33 +2440,33 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M26" t="n">
-        <v>330</v>
+        <v>480</v>
       </c>
       <c r="N26" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="O26" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="P26" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S26" t="n">
-        <v>1000</v>
+        <v>833</v>
       </c>
       <c r="T26" t="n">
         <v>18</v>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44561</v>
+        <v>44174</v>
       </c>
       <c r="E27" t="n">
         <v>13</v>
@@ -2515,7 +2515,7 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Modesto</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
@@ -2524,20 +2524,20 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>350</v>
+        <v>120</v>
       </c>
       <c r="N27" t="n">
-        <v>14400</v>
+        <v>8500</v>
       </c>
       <c r="O27" t="n">
-        <v>14400</v>
+        <v>8500</v>
       </c>
       <c r="P27" t="n">
-        <v>14400</v>
+        <v>8500</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
@@ -2546,10 +2546,10 @@
         </is>
       </c>
       <c r="S27" t="n">
-        <v>800</v>
+        <v>850</v>
       </c>
       <c r="T27" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28">
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44561</v>
+        <v>44174</v>
       </c>
       <c r="E28" t="n">
         <v>13</v>
@@ -2595,29 +2595,29 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Modesto</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="N28" t="n">
-        <v>10800</v>
+        <v>15000</v>
       </c>
       <c r="O28" t="n">
-        <v>10800</v>
+        <v>15000</v>
       </c>
       <c r="P28" t="n">
-        <v>10800</v>
+        <v>15000</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="S28" t="n">
-        <v>600</v>
+        <v>833</v>
       </c>
       <c r="T28" t="n">
         <v>18</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44557</v>
+        <v>44174</v>
       </c>
       <c r="E29" t="n">
         <v>13</v>
@@ -2675,41 +2675,41 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Modesto</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>380</v>
+        <v>120</v>
       </c>
       <c r="N29" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O29" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P29" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S29" t="n">
-        <v>1000</v>
+        <v>667</v>
       </c>
       <c r="T29" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30">
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44557</v>
+        <v>44553</v>
       </c>
       <c r="E30" t="n">
         <v>13</v>
@@ -2755,41 +2755,41 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Dina</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>330</v>
+        <v>280</v>
       </c>
       <c r="N30" t="n">
-        <v>12000</v>
+        <v>7500</v>
       </c>
       <c r="O30" t="n">
-        <v>12000</v>
+        <v>7500</v>
       </c>
       <c r="P30" t="n">
-        <v>12000</v>
+        <v>7500</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/bandeja 6 kilos</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S30" t="n">
-        <v>800</v>
+        <v>1250</v>
       </c>
       <c r="T30" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31">
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44537</v>
+        <v>44553</v>
       </c>
       <c r="E31" t="n">
         <v>13</v>
@@ -2835,7 +2835,7 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Dina</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
@@ -2844,20 +2844,20 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="N31" t="n">
-        <v>16000</v>
+        <v>6500</v>
       </c>
       <c r="O31" t="n">
-        <v>16000</v>
+        <v>6500</v>
       </c>
       <c r="P31" t="n">
-        <v>16000</v>
+        <v>6500</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 6 kilos</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
@@ -2866,10 +2866,10 @@
         </is>
       </c>
       <c r="S31" t="n">
-        <v>889</v>
+        <v>1083</v>
       </c>
       <c r="T31" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32">
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44159</v>
+        <v>44553</v>
       </c>
       <c r="E32" t="n">
         <v>13</v>
@@ -2915,7 +2915,7 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
@@ -2924,20 +2924,20 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>80</v>
+        <v>380</v>
       </c>
       <c r="N32" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="O32" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="P32" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
@@ -2946,10 +2946,10 @@
         </is>
       </c>
       <c r="S32" t="n">
-        <v>800</v>
+        <v>778</v>
       </c>
       <c r="T32" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33">
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44159</v>
+        <v>44553</v>
       </c>
       <c r="E33" t="n">
         <v>13</v>
@@ -2995,7 +2995,7 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
@@ -3004,20 +3004,20 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>65</v>
+        <v>410</v>
       </c>
       <c r="N33" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="O33" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="P33" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
@@ -3026,10 +3026,10 @@
         </is>
       </c>
       <c r="S33" t="n">
-        <v>700</v>
+        <v>667</v>
       </c>
       <c r="T33" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34">
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44550</v>
+        <v>44551</v>
       </c>
       <c r="E34" t="n">
         <v>13</v>
@@ -3075,41 +3075,41 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Dina</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M34" t="n">
-        <v>150</v>
+        <v>220</v>
       </c>
       <c r="N34" t="n">
-        <v>8000</v>
+        <v>18000</v>
       </c>
       <c r="O34" t="n">
-        <v>8000</v>
+        <v>18000</v>
       </c>
       <c r="P34" t="n">
-        <v>8000</v>
+        <v>18000</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S34" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T34" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35">
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44550</v>
+        <v>44551</v>
       </c>
       <c r="E35" t="n">
         <v>13</v>
@@ -3155,41 +3155,41 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Dina</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M35" t="n">
-        <v>120</v>
+        <v>350</v>
       </c>
       <c r="N35" t="n">
-        <v>6000</v>
+        <v>14400</v>
       </c>
       <c r="O35" t="n">
-        <v>6000</v>
+        <v>14400</v>
       </c>
       <c r="P35" t="n">
-        <v>6000</v>
+        <v>14400</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S35" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="T35" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36">
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44572</v>
+        <v>44547</v>
       </c>
       <c r="E36" t="n">
         <v>13</v>
@@ -3235,29 +3235,29 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Dina</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M36" t="n">
-        <v>580</v>
+        <v>450</v>
       </c>
       <c r="N36" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O36" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P36" t="n">
-        <v>14517</v>
+        <v>12000</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
@@ -3266,10 +3266,10 @@
         </is>
       </c>
       <c r="S36" t="n">
-        <v>806</v>
+        <v>1200</v>
       </c>
       <c r="T36" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37">
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44519</v>
+        <v>44547</v>
       </c>
       <c r="E37" t="n">
         <v>13</v>
@@ -3315,7 +3315,7 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Dina</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
@@ -3324,32 +3324,32 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>300</v>
+        <v>410</v>
       </c>
       <c r="N37" t="n">
-        <v>22500</v>
+        <v>10000</v>
       </c>
       <c r="O37" t="n">
-        <v>22500</v>
+        <v>10000</v>
       </c>
       <c r="P37" t="n">
-        <v>22500</v>
+        <v>10000</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S37" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="T37" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38">
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44189</v>
+        <v>44547</v>
       </c>
       <c r="E38" t="n">
         <v>13</v>
@@ -3395,29 +3395,29 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Dina</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M38" t="n">
-        <v>130</v>
+        <v>350</v>
       </c>
       <c r="N38" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O38" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P38" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R38" t="inlineStr">
@@ -3426,10 +3426,10 @@
         </is>
       </c>
       <c r="S38" t="n">
-        <v>667</v>
+        <v>800</v>
       </c>
       <c r="T38" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39">
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44166</v>
+        <v>44558</v>
       </c>
       <c r="E39" t="n">
         <v>13</v>
@@ -3475,41 +3475,41 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Helena</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M39" t="n">
-        <v>120</v>
+        <v>330</v>
       </c>
       <c r="N39" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="O39" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="P39" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S39" t="n">
         <v>1000</v>
       </c>
       <c r="T39" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40">
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44166</v>
+        <v>44558</v>
       </c>
       <c r="E40" t="n">
         <v>13</v>
@@ -3555,41 +3555,41 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Helena</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M40" t="n">
-        <v>120</v>
+        <v>350</v>
       </c>
       <c r="N40" t="n">
-        <v>8000</v>
+        <v>12800</v>
       </c>
       <c r="O40" t="n">
-        <v>8000</v>
+        <v>12800</v>
       </c>
       <c r="P40" t="n">
-        <v>8000</v>
+        <v>12800</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S40" t="n">
         <v>800</v>
       </c>
       <c r="T40" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41">
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44175</v>
+        <v>44558</v>
       </c>
       <c r="E41" t="n">
         <v>13</v>
@@ -3635,7 +3635,7 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Modesto</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
@@ -3644,20 +3644,20 @@
         </is>
       </c>
       <c r="M41" t="n">
-        <v>140</v>
+        <v>410</v>
       </c>
       <c r="N41" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="O41" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P41" t="n">
-        <v>11571</v>
+        <v>14000</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
@@ -3666,10 +3666,10 @@
         </is>
       </c>
       <c r="S41" t="n">
-        <v>964</v>
+        <v>778</v>
       </c>
       <c r="T41" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42">
@@ -3687,7 +3687,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44187</v>
+        <v>44558</v>
       </c>
       <c r="E42" t="n">
         <v>13</v>
@@ -3720,24 +3720,24 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M42" t="n">
-        <v>80</v>
+        <v>380</v>
       </c>
       <c r="N42" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O42" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P42" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R42" t="inlineStr">
@@ -3746,10 +3746,10 @@
         </is>
       </c>
       <c r="S42" t="n">
-        <v>1000</v>
+        <v>667</v>
       </c>
       <c r="T42" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43">
@@ -3767,7 +3767,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44187</v>
+        <v>44550</v>
       </c>
       <c r="E43" t="n">
         <v>13</v>
@@ -3795,41 +3795,41 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M43" t="n">
-        <v>95</v>
+        <v>150</v>
       </c>
       <c r="N43" t="n">
-        <v>13500</v>
+        <v>8000</v>
       </c>
       <c r="O43" t="n">
-        <v>13500</v>
+        <v>8000</v>
       </c>
       <c r="P43" t="n">
-        <v>13500</v>
+        <v>8000</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S43" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="T43" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="44">
@@ -3847,7 +3847,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44187</v>
+        <v>44550</v>
       </c>
       <c r="E44" t="n">
         <v>13</v>
@@ -3875,41 +3875,41 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M44" t="n">
         <v>120</v>
       </c>
       <c r="N44" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="O44" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="P44" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S44" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="T44" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="45">
@@ -3927,7 +3927,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44540</v>
+        <v>44557</v>
       </c>
       <c r="E45" t="n">
         <v>13</v>
@@ -3955,29 +3955,29 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M45" t="n">
-        <v>330</v>
+        <v>380</v>
       </c>
       <c r="N45" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="O45" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P45" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
@@ -3986,10 +3986,10 @@
         </is>
       </c>
       <c r="S45" t="n">
-        <v>889</v>
+        <v>1000</v>
       </c>
       <c r="T45" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="46">
@@ -4007,7 +4007,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44540</v>
+        <v>44557</v>
       </c>
       <c r="E46" t="n">
         <v>13</v>
@@ -4035,29 +4035,29 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M46" t="n">
-        <v>280</v>
+        <v>330</v>
       </c>
       <c r="N46" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O46" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P46" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
@@ -4066,10 +4066,10 @@
         </is>
       </c>
       <c r="S46" t="n">
-        <v>778</v>
+        <v>800</v>
       </c>
       <c r="T46" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="47">
@@ -4087,7 +4087,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44546</v>
+        <v>44159</v>
       </c>
       <c r="E47" t="n">
         <v>13</v>
@@ -4115,25 +4115,25 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>Dina</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M47" t="n">
-        <v>380</v>
+        <v>80</v>
       </c>
       <c r="N47" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O47" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P47" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
@@ -4142,11 +4142,11 @@
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S47" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="T47" t="n">
         <v>10</v>
@@ -4167,7 +4167,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44546</v>
+        <v>44159</v>
       </c>
       <c r="E48" t="n">
         <v>13</v>
@@ -4195,25 +4195,25 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>Dina</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M48" t="n">
-        <v>330</v>
+        <v>65</v>
       </c>
       <c r="N48" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O48" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P48" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
@@ -4222,11 +4222,11 @@
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S48" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="T48" t="n">
         <v>10</v>
@@ -4247,7 +4247,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44546</v>
+        <v>44572</v>
       </c>
       <c r="E49" t="n">
         <v>13</v>
@@ -4275,41 +4275,41 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>Dina</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M49" t="n">
-        <v>300</v>
+        <v>580</v>
       </c>
       <c r="N49" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="O49" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="P49" t="n">
-        <v>8000</v>
+        <v>14517</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S49" t="n">
-        <v>800</v>
+        <v>806</v>
       </c>
       <c r="T49" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="50">
@@ -4327,7 +4327,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44539</v>
+        <v>44552</v>
       </c>
       <c r="E50" t="n">
         <v>13</v>
@@ -4355,7 +4355,7 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Dina</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
@@ -4364,20 +4364,20 @@
         </is>
       </c>
       <c r="M50" t="n">
-        <v>290</v>
+        <v>200</v>
       </c>
       <c r="N50" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="O50" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="P50" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R50" t="inlineStr">
@@ -4389,7 +4389,7 @@
         <v>1000</v>
       </c>
       <c r="T50" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="51">
@@ -4407,7 +4407,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44539</v>
+        <v>44552</v>
       </c>
       <c r="E51" t="n">
         <v>13</v>
@@ -4435,7 +4435,7 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Dina</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
@@ -4444,20 +4444,20 @@
         </is>
       </c>
       <c r="M51" t="n">
-        <v>300</v>
+        <v>220</v>
       </c>
       <c r="N51" t="n">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="O51" t="n">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="P51" t="n">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R51" t="inlineStr">
@@ -4466,10 +4466,10 @@
         </is>
       </c>
       <c r="S51" t="n">
-        <v>889</v>
+        <v>800</v>
       </c>
       <c r="T51" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="52">
@@ -4487,7 +4487,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44539</v>
+        <v>44552</v>
       </c>
       <c r="E52" t="n">
         <v>13</v>
@@ -4515,7 +4515,7 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Dina</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
@@ -4524,20 +4524,20 @@
         </is>
       </c>
       <c r="M52" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="N52" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="O52" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="P52" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R52" t="inlineStr">
@@ -4546,10 +4546,10 @@
         </is>
       </c>
       <c r="S52" t="n">
-        <v>778</v>
+        <v>600</v>
       </c>
       <c r="T52" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="53">
@@ -4567,7 +4567,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44523</v>
+        <v>44552</v>
       </c>
       <c r="E53" t="n">
         <v>13</v>
@@ -4595,29 +4595,29 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Modesto</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M53" t="n">
-        <v>320</v>
+        <v>280</v>
       </c>
       <c r="N53" t="n">
-        <v>10000</v>
+        <v>21600</v>
       </c>
       <c r="O53" t="n">
-        <v>10000</v>
+        <v>21600</v>
       </c>
       <c r="P53" t="n">
-        <v>10000</v>
+        <v>21600</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R53" t="inlineStr">
@@ -4626,10 +4626,10 @@
         </is>
       </c>
       <c r="S53" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="T53" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="54">
@@ -4647,7 +4647,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44573</v>
+        <v>44552</v>
       </c>
       <c r="E54" t="n">
         <v>13</v>
@@ -4675,29 +4675,29 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Modesto</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M54" t="n">
-        <v>380</v>
+        <v>310</v>
       </c>
       <c r="N54" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="O54" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="P54" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R54" t="inlineStr">
@@ -4706,7 +4706,7 @@
         </is>
       </c>
       <c r="S54" t="n">
-        <v>944</v>
+        <v>1000</v>
       </c>
       <c r="T54" t="n">
         <v>18</v>
@@ -4727,7 +4727,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44573</v>
+        <v>44552</v>
       </c>
       <c r="E55" t="n">
         <v>13</v>
@@ -4755,29 +4755,29 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Modesto</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M55" t="n">
-        <v>410</v>
+        <v>350</v>
       </c>
       <c r="N55" t="n">
-        <v>15000</v>
+        <v>14400</v>
       </c>
       <c r="O55" t="n">
-        <v>15000</v>
+        <v>14400</v>
       </c>
       <c r="P55" t="n">
-        <v>15000</v>
+        <v>14400</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R55" t="inlineStr">
@@ -4786,7 +4786,7 @@
         </is>
       </c>
       <c r="S55" t="n">
-        <v>833</v>
+        <v>800</v>
       </c>
       <c r="T55" t="n">
         <v>18</v>
@@ -4807,7 +4807,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44573</v>
+        <v>44540</v>
       </c>
       <c r="E56" t="n">
         <v>13</v>
@@ -4835,25 +4835,25 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M56" t="n">
         <v>330</v>
       </c>
       <c r="N56" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="O56" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="P56" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
@@ -4862,11 +4862,11 @@
       </c>
       <c r="R56" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S56" t="n">
-        <v>722</v>
+        <v>889</v>
       </c>
       <c r="T56" t="n">
         <v>18</v>
@@ -4887,7 +4887,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44574</v>
+        <v>44540</v>
       </c>
       <c r="E57" t="n">
         <v>13</v>
@@ -4915,25 +4915,25 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M57" t="n">
-        <v>350</v>
+        <v>280</v>
       </c>
       <c r="N57" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="O57" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="P57" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
@@ -4942,11 +4942,11 @@
       </c>
       <c r="R57" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S57" t="n">
-        <v>1000</v>
+        <v>778</v>
       </c>
       <c r="T57" t="n">
         <v>18</v>
@@ -4967,7 +4967,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44574</v>
+        <v>44166</v>
       </c>
       <c r="E58" t="n">
         <v>13</v>
@@ -4995,7 +4995,7 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
@@ -5004,32 +5004,32 @@
         </is>
       </c>
       <c r="M58" t="n">
-        <v>480</v>
+        <v>120</v>
       </c>
       <c r="N58" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O58" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P58" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R58" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S58" t="n">
-        <v>833</v>
+        <v>1000</v>
       </c>
       <c r="T58" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="59">
@@ -5047,7 +5047,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44168</v>
+        <v>44166</v>
       </c>
       <c r="E59" t="n">
         <v>13</v>
@@ -5075,25 +5075,25 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>Dina</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M59" t="n">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="N59" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="O59" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="P59" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
@@ -5102,11 +5102,11 @@
       </c>
       <c r="R59" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S59" t="n">
-        <v>1400</v>
+        <v>800</v>
       </c>
       <c r="T59" t="n">
         <v>10</v>
@@ -5127,7 +5127,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44544</v>
+        <v>44175</v>
       </c>
       <c r="E60" t="n">
         <v>13</v>
@@ -5155,29 +5155,29 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>Dina</t>
+          <t>Modesto</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M60" t="n">
-        <v>330</v>
+        <v>140</v>
       </c>
       <c r="N60" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="O60" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P60" t="n">
-        <v>15000</v>
+        <v>11571</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="R60" t="inlineStr">
@@ -5186,10 +5186,10 @@
         </is>
       </c>
       <c r="S60" t="n">
-        <v>1000</v>
+        <v>964</v>
       </c>
       <c r="T60" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61">
@@ -5207,7 +5207,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44544</v>
+        <v>44160</v>
       </c>
       <c r="E61" t="n">
         <v>13</v>
@@ -5235,7 +5235,7 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>Dina</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
@@ -5244,20 +5244,20 @@
         </is>
       </c>
       <c r="M61" t="n">
-        <v>350</v>
+        <v>25</v>
       </c>
       <c r="N61" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O61" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P61" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R61" t="inlineStr">
@@ -5269,7 +5269,7 @@
         <v>800</v>
       </c>
       <c r="T61" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="62">
@@ -5320,20 +5320,20 @@
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M62" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="N62" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O62" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P62" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="S62" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="T62" t="n">
         <v>10</v>
@@ -5367,7 +5367,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44160</v>
+        <v>44519</v>
       </c>
       <c r="E63" t="n">
         <v>13</v>
@@ -5400,36 +5400,36 @@
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M63" t="n">
-        <v>40</v>
+        <v>300</v>
       </c>
       <c r="N63" t="n">
-        <v>7000</v>
+        <v>22500</v>
       </c>
       <c r="O63" t="n">
-        <v>7000</v>
+        <v>22500</v>
       </c>
       <c r="P63" t="n">
-        <v>7000</v>
+        <v>22500</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R63" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S63" t="n">
-        <v>700</v>
+        <v>1500</v>
       </c>
       <c r="T63" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="64">
@@ -5447,7 +5447,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44167</v>
+        <v>44545</v>
       </c>
       <c r="E64" t="n">
         <v>13</v>
@@ -5484,32 +5484,32 @@
         </is>
       </c>
       <c r="M64" t="n">
-        <v>85</v>
+        <v>310</v>
       </c>
       <c r="N64" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="O64" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="P64" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R64" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S64" t="n">
         <v>1000</v>
       </c>
       <c r="T64" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="65">
@@ -5527,7 +5527,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44167</v>
+        <v>44545</v>
       </c>
       <c r="E65" t="n">
         <v>13</v>
@@ -5564,32 +5564,32 @@
         </is>
       </c>
       <c r="M65" t="n">
-        <v>120</v>
+        <v>350</v>
       </c>
       <c r="N65" t="n">
-        <v>9500</v>
+        <v>14400</v>
       </c>
       <c r="O65" t="n">
-        <v>9500</v>
+        <v>14400</v>
       </c>
       <c r="P65" t="n">
-        <v>9500</v>
+        <v>14400</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R65" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S65" t="n">
-        <v>950</v>
+        <v>800</v>
       </c>
       <c r="T65" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="66">
@@ -5607,7 +5607,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44167</v>
+        <v>44573</v>
       </c>
       <c r="E66" t="n">
         <v>13</v>
@@ -5635,25 +5635,25 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M66" t="n">
-        <v>60</v>
+        <v>380</v>
       </c>
       <c r="N66" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="O66" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="P66" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
@@ -5666,7 +5666,7 @@
         </is>
       </c>
       <c r="S66" t="n">
-        <v>833</v>
+        <v>944</v>
       </c>
       <c r="T66" t="n">
         <v>18</v>
@@ -5687,7 +5687,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44169</v>
+        <v>44573</v>
       </c>
       <c r="E67" t="n">
         <v>13</v>
@@ -5715,7 +5715,7 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>Dina</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
@@ -5724,32 +5724,32 @@
         </is>
       </c>
       <c r="M67" t="n">
-        <v>80</v>
+        <v>410</v>
       </c>
       <c r="N67" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O67" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P67" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R67" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S67" t="n">
-        <v>1000</v>
+        <v>833</v>
       </c>
       <c r="T67" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="68">
@@ -5767,7 +5767,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44560</v>
+        <v>44573</v>
       </c>
       <c r="E68" t="n">
         <v>13</v>
@@ -5795,29 +5795,29 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>Helena</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M68" t="n">
-        <v>410</v>
+        <v>330</v>
       </c>
       <c r="N68" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="O68" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="P68" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R68" t="inlineStr">
@@ -5826,7 +5826,7 @@
         </is>
       </c>
       <c r="S68" t="n">
-        <v>1000</v>
+        <v>722</v>
       </c>
       <c r="T68" t="n">
         <v>18</v>
@@ -5847,7 +5847,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44560</v>
+        <v>44536</v>
       </c>
       <c r="E69" t="n">
         <v>13</v>
@@ -5875,7 +5875,7 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>Helena</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
@@ -5884,32 +5884,32 @@
         </is>
       </c>
       <c r="M69" t="n">
-        <v>330</v>
+        <v>220</v>
       </c>
       <c r="N69" t="n">
-        <v>14400</v>
+        <v>11000</v>
       </c>
       <c r="O69" t="n">
-        <v>14400</v>
+        <v>11000</v>
       </c>
       <c r="P69" t="n">
-        <v>14400</v>
+        <v>11000</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R69" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S69" t="n">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="T69" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="70">
@@ -5927,7 +5927,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44560</v>
+        <v>44536</v>
       </c>
       <c r="E70" t="n">
         <v>13</v>
@@ -5955,7 +5955,7 @@
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>Helena</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
@@ -5964,32 +5964,32 @@
         </is>
       </c>
       <c r="M70" t="n">
-        <v>380</v>
+        <v>250</v>
       </c>
       <c r="N70" t="n">
-        <v>12600</v>
+        <v>7000</v>
       </c>
       <c r="O70" t="n">
-        <v>12600</v>
+        <v>7000</v>
       </c>
       <c r="P70" t="n">
-        <v>12600</v>
+        <v>7000</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R70" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S70" t="n">
         <v>700</v>
       </c>
       <c r="T70" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="71">
@@ -6007,7 +6007,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44552</v>
+        <v>44187</v>
       </c>
       <c r="E71" t="n">
         <v>13</v>
@@ -6035,29 +6035,29 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>Dina</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M71" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="N71" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O71" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P71" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R71" t="inlineStr">
@@ -6069,7 +6069,7 @@
         <v>1000</v>
       </c>
       <c r="T71" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="72">
@@ -6087,7 +6087,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44552</v>
+        <v>44187</v>
       </c>
       <c r="E72" t="n">
         <v>13</v>
@@ -6115,29 +6115,29 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>Dina</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M72" t="n">
-        <v>220</v>
+        <v>95</v>
       </c>
       <c r="N72" t="n">
-        <v>8000</v>
+        <v>13500</v>
       </c>
       <c r="O72" t="n">
-        <v>8000</v>
+        <v>13500</v>
       </c>
       <c r="P72" t="n">
-        <v>8000</v>
+        <v>13500</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R72" t="inlineStr">
@@ -6146,10 +6146,10 @@
         </is>
       </c>
       <c r="S72" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="T72" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="73">
@@ -6167,7 +6167,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44552</v>
+        <v>44187</v>
       </c>
       <c r="E73" t="n">
         <v>13</v>
@@ -6195,29 +6195,29 @@
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>Dina</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M73" t="n">
-        <v>350</v>
+        <v>120</v>
       </c>
       <c r="N73" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="O73" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="P73" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R73" t="inlineStr">
@@ -6226,10 +6226,10 @@
         </is>
       </c>
       <c r="S73" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="T73" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="74">
@@ -6247,7 +6247,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44552</v>
+        <v>44561</v>
       </c>
       <c r="E74" t="n">
         <v>13</v>
@@ -6275,7 +6275,7 @@
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>Modesto</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
@@ -6284,16 +6284,16 @@
         </is>
       </c>
       <c r="M74" t="n">
-        <v>280</v>
+        <v>330</v>
       </c>
       <c r="N74" t="n">
-        <v>21600</v>
+        <v>18000</v>
       </c>
       <c r="O74" t="n">
-        <v>21600</v>
+        <v>18000</v>
       </c>
       <c r="P74" t="n">
-        <v>21600</v>
+        <v>18000</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
@@ -6302,11 +6302,11 @@
       </c>
       <c r="R74" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S74" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="T74" t="n">
         <v>18</v>
@@ -6327,7 +6327,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44552</v>
+        <v>44561</v>
       </c>
       <c r="E75" t="n">
         <v>13</v>
@@ -6355,7 +6355,7 @@
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>Modesto</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
@@ -6364,16 +6364,16 @@
         </is>
       </c>
       <c r="M75" t="n">
-        <v>310</v>
+        <v>350</v>
       </c>
       <c r="N75" t="n">
-        <v>18000</v>
+        <v>14400</v>
       </c>
       <c r="O75" t="n">
-        <v>18000</v>
+        <v>14400</v>
       </c>
       <c r="P75" t="n">
-        <v>18000</v>
+        <v>14400</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
@@ -6382,11 +6382,11 @@
       </c>
       <c r="R75" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S75" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T75" t="n">
         <v>18</v>
@@ -6407,7 +6407,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44552</v>
+        <v>44561</v>
       </c>
       <c r="E76" t="n">
         <v>13</v>
@@ -6435,7 +6435,7 @@
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>Modesto</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L76" t="inlineStr">
@@ -6444,16 +6444,16 @@
         </is>
       </c>
       <c r="M76" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="N76" t="n">
-        <v>14400</v>
+        <v>10800</v>
       </c>
       <c r="O76" t="n">
-        <v>14400</v>
+        <v>10800</v>
       </c>
       <c r="P76" t="n">
-        <v>14400</v>
+        <v>10800</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
@@ -6462,11 +6462,11 @@
       </c>
       <c r="R76" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S76" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="T76" t="n">
         <v>18</v>
@@ -6487,7 +6487,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44558</v>
+        <v>44533</v>
       </c>
       <c r="E77" t="n">
         <v>13</v>
@@ -6515,41 +6515,41 @@
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>Helena</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M77" t="n">
-        <v>330</v>
+        <v>410</v>
       </c>
       <c r="N77" t="n">
-        <v>16000</v>
+        <v>16500</v>
       </c>
       <c r="O77" t="n">
-        <v>16000</v>
+        <v>16500</v>
       </c>
       <c r="P77" t="n">
-        <v>16000</v>
+        <v>16500</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R77" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S77" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="T77" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="78">
@@ -6567,7 +6567,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44558</v>
+        <v>44533</v>
       </c>
       <c r="E78" t="n">
         <v>13</v>
@@ -6595,41 +6595,41 @@
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>Helena</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M78" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="N78" t="n">
-        <v>12800</v>
+        <v>10500</v>
       </c>
       <c r="O78" t="n">
-        <v>12800</v>
+        <v>10500</v>
       </c>
       <c r="P78" t="n">
-        <v>12800</v>
+        <v>10500</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R78" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S78" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="T78" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="79">
@@ -6647,7 +6647,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44558</v>
+        <v>44533</v>
       </c>
       <c r="E79" t="n">
         <v>13</v>
@@ -6675,29 +6675,29 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M79" t="n">
-        <v>410</v>
+        <v>250</v>
       </c>
       <c r="N79" t="n">
-        <v>14000</v>
+        <v>7500</v>
       </c>
       <c r="O79" t="n">
-        <v>14000</v>
+        <v>7500</v>
       </c>
       <c r="P79" t="n">
-        <v>14000</v>
+        <v>7500</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R79" t="inlineStr">
@@ -6706,10 +6706,10 @@
         </is>
       </c>
       <c r="S79" t="n">
-        <v>778</v>
+        <v>500</v>
       </c>
       <c r="T79" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="80">
@@ -6727,7 +6727,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44558</v>
+        <v>44523</v>
       </c>
       <c r="E80" t="n">
         <v>13</v>
@@ -6755,29 +6755,29 @@
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M80" t="n">
-        <v>380</v>
+        <v>320</v>
       </c>
       <c r="N80" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O80" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P80" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R80" t="inlineStr">
@@ -6786,10 +6786,10 @@
         </is>
       </c>
       <c r="S80" t="n">
-        <v>667</v>
+        <v>1000</v>
       </c>
       <c r="T80" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="81">
@@ -6807,7 +6807,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44554</v>
+        <v>44167</v>
       </c>
       <c r="E81" t="n">
         <v>13</v>
@@ -6835,29 +6835,29 @@
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M81" t="n">
-        <v>410</v>
+        <v>85</v>
       </c>
       <c r="N81" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O81" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P81" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R81" t="inlineStr">
@@ -6866,10 +6866,10 @@
         </is>
       </c>
       <c r="S81" t="n">
-        <v>778</v>
+        <v>1000</v>
       </c>
       <c r="T81" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="82">
@@ -6887,7 +6887,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44554</v>
+        <v>44167</v>
       </c>
       <c r="E82" t="n">
         <v>13</v>
@@ -6915,29 +6915,29 @@
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M82" t="n">
-        <v>380</v>
+        <v>120</v>
       </c>
       <c r="N82" t="n">
-        <v>12000</v>
+        <v>9500</v>
       </c>
       <c r="O82" t="n">
-        <v>12000</v>
+        <v>9500</v>
       </c>
       <c r="P82" t="n">
-        <v>12000</v>
+        <v>9500</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R82" t="inlineStr">
@@ -6946,10 +6946,10 @@
         </is>
       </c>
       <c r="S82" t="n">
-        <v>667</v>
+        <v>950</v>
       </c>
       <c r="T82" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="83">
@@ -6967,7 +6967,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44545</v>
+        <v>44167</v>
       </c>
       <c r="E83" t="n">
         <v>13</v>
@@ -7000,20 +7000,20 @@
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M83" t="n">
-        <v>310</v>
+        <v>60</v>
       </c>
       <c r="N83" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="O83" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="P83" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
@@ -7022,11 +7022,11 @@
       </c>
       <c r="R83" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S83" t="n">
-        <v>1000</v>
+        <v>833</v>
       </c>
       <c r="T83" t="n">
         <v>18</v>
@@ -7047,7 +7047,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44545</v>
+        <v>44176</v>
       </c>
       <c r="E84" t="n">
         <v>13</v>
@@ -7075,7 +7075,7 @@
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Modesto</t>
         </is>
       </c>
       <c r="L84" t="inlineStr">
@@ -7084,32 +7084,32 @@
         </is>
       </c>
       <c r="M84" t="n">
-        <v>350</v>
+        <v>115</v>
       </c>
       <c r="N84" t="n">
-        <v>14400</v>
+        <v>11000</v>
       </c>
       <c r="O84" t="n">
-        <v>14400</v>
+        <v>12000</v>
       </c>
       <c r="P84" t="n">
-        <v>14400</v>
+        <v>11609</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="R84" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S84" t="n">
-        <v>800</v>
+        <v>967</v>
       </c>
       <c r="T84" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="85">
@@ -7127,7 +7127,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44194</v>
+        <v>44560</v>
       </c>
       <c r="E85" t="n">
         <v>13</v>
@@ -7155,29 +7155,29 @@
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Helena</t>
         </is>
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M85" t="n">
-        <v>120</v>
+        <v>410</v>
       </c>
       <c r="N85" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="O85" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="P85" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R85" t="inlineStr">
@@ -7186,10 +7186,10 @@
         </is>
       </c>
       <c r="S85" t="n">
-        <v>867</v>
+        <v>1000</v>
       </c>
       <c r="T85" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="86">
@@ -7207,7 +7207,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44162</v>
+        <v>44560</v>
       </c>
       <c r="E86" t="n">
         <v>13</v>
@@ -7235,7 +7235,7 @@
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Helena</t>
         </is>
       </c>
       <c r="L86" t="inlineStr">
@@ -7244,20 +7244,20 @@
         </is>
       </c>
       <c r="M86" t="n">
-        <v>70</v>
+        <v>330</v>
       </c>
       <c r="N86" t="n">
-        <v>8500</v>
+        <v>14400</v>
       </c>
       <c r="O86" t="n">
-        <v>8500</v>
+        <v>14400</v>
       </c>
       <c r="P86" t="n">
-        <v>8500</v>
+        <v>14400</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R86" t="inlineStr">
@@ -7266,10 +7266,10 @@
         </is>
       </c>
       <c r="S86" t="n">
-        <v>850</v>
+        <v>800</v>
       </c>
       <c r="T86" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="87">
@@ -7287,7 +7287,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44162</v>
+        <v>44560</v>
       </c>
       <c r="E87" t="n">
         <v>13</v>
@@ -7315,29 +7315,29 @@
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Helena</t>
         </is>
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M87" t="n">
-        <v>75</v>
+        <v>380</v>
       </c>
       <c r="N87" t="n">
-        <v>14000</v>
+        <v>12600</v>
       </c>
       <c r="O87" t="n">
-        <v>15000</v>
+        <v>12600</v>
       </c>
       <c r="P87" t="n">
-        <v>14400</v>
+        <v>12600</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R87" t="inlineStr">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="S87" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="T87" t="n">
         <v>18</v>
@@ -7367,7 +7367,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44533</v>
+        <v>44162</v>
       </c>
       <c r="E88" t="n">
         <v>13</v>
@@ -7404,20 +7404,20 @@
         </is>
       </c>
       <c r="M88" t="n">
-        <v>410</v>
+        <v>70</v>
       </c>
       <c r="N88" t="n">
-        <v>16500</v>
+        <v>8500</v>
       </c>
       <c r="O88" t="n">
-        <v>16500</v>
+        <v>8500</v>
       </c>
       <c r="P88" t="n">
-        <v>16500</v>
+        <v>8500</v>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R88" t="inlineStr">
@@ -7426,10 +7426,10 @@
         </is>
       </c>
       <c r="S88" t="n">
-        <v>1100</v>
+        <v>850</v>
       </c>
       <c r="T88" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="89">
@@ -7447,7 +7447,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44533</v>
+        <v>44162</v>
       </c>
       <c r="E89" t="n">
         <v>13</v>
@@ -7480,24 +7480,24 @@
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M89" t="n">
-        <v>300</v>
+        <v>75</v>
       </c>
       <c r="N89" t="n">
-        <v>10500</v>
+        <v>14000</v>
       </c>
       <c r="O89" t="n">
-        <v>10500</v>
+        <v>15000</v>
       </c>
       <c r="P89" t="n">
-        <v>10500</v>
+        <v>14400</v>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R89" t="inlineStr">
@@ -7506,10 +7506,10 @@
         </is>
       </c>
       <c r="S89" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="T89" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="90">
@@ -7527,7 +7527,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44533</v>
+        <v>44189</v>
       </c>
       <c r="E90" t="n">
         <v>13</v>
@@ -7555,29 +7555,29 @@
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M90" t="n">
-        <v>250</v>
+        <v>130</v>
       </c>
       <c r="N90" t="n">
-        <v>7500</v>
+        <v>12000</v>
       </c>
       <c r="O90" t="n">
-        <v>7500</v>
+        <v>12000</v>
       </c>
       <c r="P90" t="n">
-        <v>7500</v>
+        <v>12000</v>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R90" t="inlineStr">
@@ -7586,10 +7586,10 @@
         </is>
       </c>
       <c r="S90" t="n">
-        <v>500</v>
+        <v>667</v>
       </c>
       <c r="T90" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="91">
@@ -7607,7 +7607,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44525</v>
+        <v>44554</v>
       </c>
       <c r="E91" t="n">
         <v>13</v>
@@ -7635,25 +7635,25 @@
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M91" t="n">
-        <v>300</v>
+        <v>410</v>
       </c>
       <c r="N91" t="n">
-        <v>25200</v>
+        <v>14000</v>
       </c>
       <c r="O91" t="n">
-        <v>25200</v>
+        <v>14000</v>
       </c>
       <c r="P91" t="n">
-        <v>25200</v>
+        <v>14000</v>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
@@ -7666,7 +7666,7 @@
         </is>
       </c>
       <c r="S91" t="n">
-        <v>1400</v>
+        <v>778</v>
       </c>
       <c r="T91" t="n">
         <v>18</v>
@@ -7687,7 +7687,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44525</v>
+        <v>44554</v>
       </c>
       <c r="E92" t="n">
         <v>13</v>
@@ -7715,25 +7715,25 @@
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M92" t="n">
-        <v>250</v>
+        <v>380</v>
       </c>
       <c r="N92" t="n">
-        <v>21600</v>
+        <v>12000</v>
       </c>
       <c r="O92" t="n">
-        <v>21600</v>
+        <v>12000</v>
       </c>
       <c r="P92" t="n">
-        <v>21600</v>
+        <v>12000</v>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="S92" t="n">
-        <v>1200</v>
+        <v>667</v>
       </c>
       <c r="T92" t="n">
         <v>18</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Damasco.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Damasco.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44544</v>
+        <v>44551</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -524,32 +524,32 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>330</v>
+        <v>220</v>
       </c>
       <c r="N2" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O2" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P2" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S2" t="n">
         <v>1000</v>
       </c>
       <c r="T2" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44544</v>
+        <v>44551</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -607,29 +607,29 @@
         <v>350</v>
       </c>
       <c r="N3" t="n">
-        <v>12000</v>
+        <v>14400</v>
       </c>
       <c r="O3" t="n">
-        <v>12000</v>
+        <v>14400</v>
       </c>
       <c r="P3" t="n">
-        <v>12000</v>
+        <v>14400</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S3" t="n">
         <v>800</v>
       </c>
       <c r="T3" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44575</v>
+        <v>44168</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -675,7 +675,7 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Dina</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -684,32 +684,32 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>480</v>
+        <v>40</v>
       </c>
       <c r="N4" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="O4" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="P4" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S4" t="n">
-        <v>944</v>
+        <v>1400</v>
       </c>
       <c r="T4" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44575</v>
+        <v>44525</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -755,25 +755,25 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>330</v>
+        <v>300</v>
       </c>
       <c r="N5" t="n">
-        <v>15000</v>
+        <v>25200</v>
       </c>
       <c r="O5" t="n">
-        <v>15000</v>
+        <v>25200</v>
       </c>
       <c r="P5" t="n">
-        <v>15000</v>
+        <v>25200</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>833</v>
+        <v>1400</v>
       </c>
       <c r="T5" t="n">
         <v>18</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44566</v>
+        <v>44525</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -835,25 +835,25 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>410</v>
+        <v>250</v>
       </c>
       <c r="N6" t="n">
-        <v>18000</v>
+        <v>21600</v>
       </c>
       <c r="O6" t="n">
-        <v>18000</v>
+        <v>21600</v>
       </c>
       <c r="P6" t="n">
-        <v>18000</v>
+        <v>21600</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -862,11 +862,11 @@
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="T6" t="n">
         <v>18</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44566</v>
+        <v>44558</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -915,41 +915,41 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Helena</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="N7" t="n">
-        <v>14400</v>
+        <v>16000</v>
       </c>
       <c r="O7" t="n">
-        <v>14400</v>
+        <v>16000</v>
       </c>
       <c r="P7" t="n">
-        <v>14400</v>
+        <v>16000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S7" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T7" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8">
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44525</v>
+        <v>44558</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -995,41 +995,41 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Helena</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="N8" t="n">
-        <v>25200</v>
+        <v>12800</v>
       </c>
       <c r="O8" t="n">
-        <v>25200</v>
+        <v>12800</v>
       </c>
       <c r="P8" t="n">
-        <v>25200</v>
+        <v>12800</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1400</v>
+        <v>800</v>
       </c>
       <c r="T8" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9">
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44525</v>
+        <v>44558</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1075,7 +1075,7 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>250</v>
+        <v>410</v>
       </c>
       <c r="N9" t="n">
-        <v>21600</v>
+        <v>14000</v>
       </c>
       <c r="O9" t="n">
-        <v>21600</v>
+        <v>14000</v>
       </c>
       <c r="P9" t="n">
-        <v>21600</v>
+        <v>14000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1200</v>
+        <v>778</v>
       </c>
       <c r="T9" t="n">
         <v>18</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44539</v>
+        <v>44558</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1155,29 +1155,29 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>290</v>
+        <v>380</v>
       </c>
       <c r="N10" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="O10" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="P10" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1000</v>
+        <v>667</v>
       </c>
       <c r="T10" t="n">
         <v>18</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44539</v>
+        <v>44550</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1244,32 +1244,32 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="N11" t="n">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="O11" t="n">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="P11" t="n">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S11" t="n">
-        <v>889</v>
+        <v>800</v>
       </c>
       <c r="T11" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12">
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44539</v>
+        <v>44550</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1324,32 +1324,32 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="N12" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="O12" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="P12" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S12" t="n">
-        <v>778</v>
+        <v>600</v>
       </c>
       <c r="T12" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44194</v>
+        <v>44561</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1400,36 +1400,36 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>120</v>
+        <v>330</v>
       </c>
       <c r="N13" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="O13" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="P13" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S13" t="n">
-        <v>867</v>
+        <v>1000</v>
       </c>
       <c r="T13" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14">
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44537</v>
+        <v>44561</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1475,7 +1475,7 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
@@ -1484,29 +1484,29 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="N14" t="n">
-        <v>16000</v>
+        <v>14400</v>
       </c>
       <c r="O14" t="n">
-        <v>16000</v>
+        <v>14400</v>
       </c>
       <c r="P14" t="n">
-        <v>16000</v>
+        <v>14400</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S14" t="n">
-        <v>889</v>
+        <v>800</v>
       </c>
       <c r="T14" t="n">
         <v>18</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44546</v>
+        <v>44561</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1555,41 +1555,41 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Dina</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>380</v>
+        <v>300</v>
       </c>
       <c r="N15" t="n">
-        <v>12000</v>
+        <v>10800</v>
       </c>
       <c r="O15" t="n">
-        <v>12000</v>
+        <v>10800</v>
       </c>
       <c r="P15" t="n">
-        <v>12000</v>
+        <v>10800</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="T15" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16">
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44546</v>
+        <v>44575</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1635,41 +1635,41 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Dina</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>330</v>
+        <v>480</v>
       </c>
       <c r="N16" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="O16" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="P16" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1000</v>
+        <v>944</v>
       </c>
       <c r="T16" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17">
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44546</v>
+        <v>44575</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1715,41 +1715,41 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Dina</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>300</v>
+        <v>330</v>
       </c>
       <c r="N17" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="O17" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="P17" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S17" t="n">
-        <v>800</v>
+        <v>833</v>
       </c>
       <c r="T17" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18">
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44195</v>
+        <v>44169</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1795,7 +1795,7 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Dina</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
@@ -1804,32 +1804,32 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>124</v>
+        <v>80</v>
       </c>
       <c r="N18" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O18" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P18" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S18" t="n">
-        <v>867</v>
+        <v>1000</v>
       </c>
       <c r="T18" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19">
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44559</v>
+        <v>44523</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
@@ -1875,41 +1875,41 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Helena</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="N19" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O19" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P19" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S19" t="n">
         <v>1000</v>
       </c>
       <c r="T19" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20">
@@ -1960,20 +1960,20 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>350</v>
+        <v>310</v>
       </c>
       <c r="N20" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O20" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P20" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T20" t="n">
         <v>15</v>
@@ -2035,41 +2035,41 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Helena</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="N21" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="O21" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="P21" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S21" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T21" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22">
@@ -2120,20 +2120,20 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>380</v>
+        <v>300</v>
       </c>
       <c r="N22" t="n">
-        <v>14400</v>
+        <v>18000</v>
       </c>
       <c r="O22" t="n">
-        <v>14400</v>
+        <v>18000</v>
       </c>
       <c r="P22" t="n">
-        <v>14400</v>
+        <v>18000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T22" t="n">
         <v>18</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44169</v>
+        <v>44559</v>
       </c>
       <c r="E23" t="n">
         <v>13</v>
@@ -2195,7 +2195,7 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Dina</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
@@ -2204,32 +2204,32 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>80</v>
+        <v>380</v>
       </c>
       <c r="N23" t="n">
-        <v>10000</v>
+        <v>14400</v>
       </c>
       <c r="O23" t="n">
-        <v>10000</v>
+        <v>14400</v>
       </c>
       <c r="P23" t="n">
-        <v>10000</v>
+        <v>14400</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S23" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T23" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24">
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44168</v>
+        <v>44545</v>
       </c>
       <c r="E24" t="n">
         <v>13</v>
@@ -2275,7 +2275,7 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Dina</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
@@ -2284,32 +2284,32 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>40</v>
+        <v>310</v>
       </c>
       <c r="N24" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="O24" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="P24" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S24" t="n">
-        <v>1400</v>
+        <v>1000</v>
       </c>
       <c r="T24" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25">
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44574</v>
+        <v>44545</v>
       </c>
       <c r="E25" t="n">
         <v>13</v>
@@ -2355,25 +2355,25 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M25" t="n">
         <v>350</v>
       </c>
       <c r="N25" t="n">
-        <v>18000</v>
+        <v>14400</v>
       </c>
       <c r="O25" t="n">
-        <v>18000</v>
+        <v>14400</v>
       </c>
       <c r="P25" t="n">
-        <v>18000</v>
+        <v>14400</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2382,11 +2382,11 @@
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S25" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T25" t="n">
         <v>18</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44574</v>
+        <v>44189</v>
       </c>
       <c r="E26" t="n">
         <v>13</v>
@@ -2444,16 +2444,16 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>480</v>
+        <v>130</v>
       </c>
       <c r="N26" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O26" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P26" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>833</v>
+        <v>667</v>
       </c>
       <c r="T26" t="n">
         <v>18</v>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44174</v>
+        <v>44187</v>
       </c>
       <c r="E27" t="n">
         <v>13</v>
@@ -2515,7 +2515,7 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Modesto</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
@@ -2524,32 +2524,32 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="N27" t="n">
-        <v>8500</v>
+        <v>15000</v>
       </c>
       <c r="O27" t="n">
-        <v>8500</v>
+        <v>15000</v>
       </c>
       <c r="P27" t="n">
-        <v>8500</v>
+        <v>15000</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S27" t="n">
-        <v>850</v>
+        <v>1000</v>
       </c>
       <c r="T27" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28">
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44174</v>
+        <v>44187</v>
       </c>
       <c r="E28" t="n">
         <v>13</v>
@@ -2595,41 +2595,41 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Modesto</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>180</v>
+        <v>95</v>
       </c>
       <c r="N28" t="n">
-        <v>15000</v>
+        <v>13500</v>
       </c>
       <c r="O28" t="n">
-        <v>15000</v>
+        <v>13500</v>
       </c>
       <c r="P28" t="n">
-        <v>15000</v>
+        <v>13500</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S28" t="n">
-        <v>833</v>
+        <v>900</v>
       </c>
       <c r="T28" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29">
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44174</v>
+        <v>44187</v>
       </c>
       <c r="E29" t="n">
         <v>13</v>
@@ -2675,12 +2675,12 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Modesto</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M29" t="n">
@@ -2697,19 +2697,19 @@
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S29" t="n">
-        <v>667</v>
+        <v>800</v>
       </c>
       <c r="T29" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30">
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44553</v>
+        <v>44519</v>
       </c>
       <c r="E30" t="n">
         <v>13</v>
@@ -2755,41 +2755,41 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Dina</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="N30" t="n">
-        <v>7500</v>
+        <v>22500</v>
       </c>
       <c r="O30" t="n">
-        <v>7500</v>
+        <v>22500</v>
       </c>
       <c r="P30" t="n">
-        <v>7500</v>
+        <v>22500</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>$/bandeja 6 kilos</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S30" t="n">
-        <v>1250</v>
+        <v>1500</v>
       </c>
       <c r="T30" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31">
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44553</v>
+        <v>44533</v>
       </c>
       <c r="E31" t="n">
         <v>13</v>
@@ -2835,7 +2835,7 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Dina</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
@@ -2844,20 +2844,20 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>350</v>
+        <v>410</v>
       </c>
       <c r="N31" t="n">
-        <v>6500</v>
+        <v>16500</v>
       </c>
       <c r="O31" t="n">
-        <v>6500</v>
+        <v>16500</v>
       </c>
       <c r="P31" t="n">
-        <v>6500</v>
+        <v>16500</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>$/bandeja 6 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
@@ -2866,10 +2866,10 @@
         </is>
       </c>
       <c r="S31" t="n">
-        <v>1083</v>
+        <v>1100</v>
       </c>
       <c r="T31" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32">
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44553</v>
+        <v>44533</v>
       </c>
       <c r="E32" t="n">
         <v>13</v>
@@ -2915,29 +2915,29 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M32" t="n">
-        <v>380</v>
+        <v>300</v>
       </c>
       <c r="N32" t="n">
-        <v>14000</v>
+        <v>10500</v>
       </c>
       <c r="O32" t="n">
-        <v>14000</v>
+        <v>10500</v>
       </c>
       <c r="P32" t="n">
-        <v>14000</v>
+        <v>10500</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
@@ -2946,10 +2946,10 @@
         </is>
       </c>
       <c r="S32" t="n">
-        <v>778</v>
+        <v>700</v>
       </c>
       <c r="T32" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="33">
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44553</v>
+        <v>44533</v>
       </c>
       <c r="E33" t="n">
         <v>13</v>
@@ -2995,29 +2995,29 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M33" t="n">
-        <v>410</v>
+        <v>250</v>
       </c>
       <c r="N33" t="n">
-        <v>12000</v>
+        <v>7500</v>
       </c>
       <c r="O33" t="n">
-        <v>12000</v>
+        <v>7500</v>
       </c>
       <c r="P33" t="n">
-        <v>12000</v>
+        <v>7500</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
@@ -3026,10 +3026,10 @@
         </is>
       </c>
       <c r="S33" t="n">
-        <v>667</v>
+        <v>500</v>
       </c>
       <c r="T33" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34">
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44551</v>
+        <v>44176</v>
       </c>
       <c r="E34" t="n">
         <v>13</v>
@@ -3075,41 +3075,41 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>Dina</t>
+          <t>Modesto</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M34" t="n">
-        <v>220</v>
+        <v>115</v>
       </c>
       <c r="N34" t="n">
-        <v>18000</v>
+        <v>11000</v>
       </c>
       <c r="O34" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="P34" t="n">
-        <v>18000</v>
+        <v>11609</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S34" t="n">
-        <v>1000</v>
+        <v>967</v>
       </c>
       <c r="T34" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35">
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44551</v>
+        <v>44540</v>
       </c>
       <c r="E35" t="n">
         <v>13</v>
@@ -3155,7 +3155,7 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>Dina</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
@@ -3164,20 +3164,20 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="N35" t="n">
-        <v>14400</v>
+        <v>16000</v>
       </c>
       <c r="O35" t="n">
-        <v>14400</v>
+        <v>16000</v>
       </c>
       <c r="P35" t="n">
-        <v>14400</v>
+        <v>16000</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="S35" t="n">
-        <v>800</v>
+        <v>889</v>
       </c>
       <c r="T35" t="n">
         <v>18</v>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44547</v>
+        <v>44540</v>
       </c>
       <c r="E36" t="n">
         <v>13</v>
@@ -3235,41 +3235,41 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>Dina</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M36" t="n">
-        <v>450</v>
+        <v>280</v>
       </c>
       <c r="N36" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O36" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P36" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S36" t="n">
-        <v>1200</v>
+        <v>778</v>
       </c>
       <c r="T36" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37">
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44547</v>
+        <v>44574</v>
       </c>
       <c r="E37" t="n">
         <v>13</v>
@@ -3315,29 +3315,29 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Dina</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M37" t="n">
-        <v>410</v>
+        <v>350</v>
       </c>
       <c r="N37" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="O37" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="P37" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
@@ -3349,7 +3349,7 @@
         <v>1000</v>
       </c>
       <c r="T37" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38">
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44547</v>
+        <v>44574</v>
       </c>
       <c r="E38" t="n">
         <v>13</v>
@@ -3395,29 +3395,29 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Dina</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M38" t="n">
-        <v>350</v>
+        <v>480</v>
       </c>
       <c r="N38" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="O38" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="P38" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R38" t="inlineStr">
@@ -3426,10 +3426,10 @@
         </is>
       </c>
       <c r="S38" t="n">
-        <v>800</v>
+        <v>833</v>
       </c>
       <c r="T38" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39">
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44558</v>
+        <v>44546</v>
       </c>
       <c r="E39" t="n">
         <v>13</v>
@@ -3475,7 +3475,7 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>Helena</t>
+          <t>Dina</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
@@ -3484,20 +3484,20 @@
         </is>
       </c>
       <c r="M39" t="n">
-        <v>330</v>
+        <v>380</v>
       </c>
       <c r="N39" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="O39" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="P39" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
@@ -3506,10 +3506,10 @@
         </is>
       </c>
       <c r="S39" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="T39" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40">
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44558</v>
+        <v>44546</v>
       </c>
       <c r="E40" t="n">
         <v>13</v>
@@ -3555,7 +3555,7 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Helena</t>
+          <t>Dina</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
@@ -3564,20 +3564,20 @@
         </is>
       </c>
       <c r="M40" t="n">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="N40" t="n">
-        <v>12800</v>
+        <v>10000</v>
       </c>
       <c r="O40" t="n">
-        <v>12800</v>
+        <v>10000</v>
       </c>
       <c r="P40" t="n">
-        <v>12800</v>
+        <v>10000</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
@@ -3586,10 +3586,10 @@
         </is>
       </c>
       <c r="S40" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T40" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41">
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44558</v>
+        <v>44546</v>
       </c>
       <c r="E41" t="n">
         <v>13</v>
@@ -3635,41 +3635,41 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Dina</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M41" t="n">
-        <v>410</v>
+        <v>300</v>
       </c>
       <c r="N41" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="O41" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="P41" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S41" t="n">
-        <v>778</v>
+        <v>800</v>
       </c>
       <c r="T41" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42">
@@ -3687,7 +3687,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44558</v>
+        <v>44159</v>
       </c>
       <c r="E42" t="n">
         <v>13</v>
@@ -3715,29 +3715,29 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M42" t="n">
-        <v>380</v>
+        <v>80</v>
       </c>
       <c r="N42" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O42" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P42" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R42" t="inlineStr">
@@ -3746,10 +3746,10 @@
         </is>
       </c>
       <c r="S42" t="n">
-        <v>667</v>
+        <v>800</v>
       </c>
       <c r="T42" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="43">
@@ -3767,7 +3767,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44550</v>
+        <v>44159</v>
       </c>
       <c r="E43" t="n">
         <v>13</v>
@@ -3800,20 +3800,20 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M43" t="n">
-        <v>150</v>
+        <v>65</v>
       </c>
       <c r="N43" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O43" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P43" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
@@ -3822,11 +3822,11 @@
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S43" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="T43" t="n">
         <v>10</v>
@@ -3847,7 +3847,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44550</v>
+        <v>44560</v>
       </c>
       <c r="E44" t="n">
         <v>13</v>
@@ -3875,41 +3875,41 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Helena</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M44" t="n">
-        <v>120</v>
+        <v>410</v>
       </c>
       <c r="N44" t="n">
-        <v>6000</v>
+        <v>18000</v>
       </c>
       <c r="O44" t="n">
-        <v>6000</v>
+        <v>18000</v>
       </c>
       <c r="P44" t="n">
-        <v>6000</v>
+        <v>18000</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S44" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="T44" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45">
@@ -3927,7 +3927,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44557</v>
+        <v>44560</v>
       </c>
       <c r="E45" t="n">
         <v>13</v>
@@ -3955,41 +3955,41 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Helena</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M45" t="n">
-        <v>380</v>
+        <v>330</v>
       </c>
       <c r="N45" t="n">
-        <v>15000</v>
+        <v>14400</v>
       </c>
       <c r="O45" t="n">
-        <v>15000</v>
+        <v>14400</v>
       </c>
       <c r="P45" t="n">
-        <v>15000</v>
+        <v>14400</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S45" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T45" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46">
@@ -4007,7 +4007,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44557</v>
+        <v>44560</v>
       </c>
       <c r="E46" t="n">
         <v>13</v>
@@ -4035,41 +4035,41 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Helena</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M46" t="n">
-        <v>330</v>
+        <v>380</v>
       </c>
       <c r="N46" t="n">
-        <v>12000</v>
+        <v>12600</v>
       </c>
       <c r="O46" t="n">
-        <v>12000</v>
+        <v>12600</v>
       </c>
       <c r="P46" t="n">
-        <v>12000</v>
+        <v>12600</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S46" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="T46" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47">
@@ -4087,7 +4087,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44159</v>
+        <v>44194</v>
       </c>
       <c r="E47" t="n">
         <v>13</v>
@@ -4115,7 +4115,7 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
@@ -4124,20 +4124,20 @@
         </is>
       </c>
       <c r="M47" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="N47" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="O47" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="P47" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
@@ -4146,10 +4146,10 @@
         </is>
       </c>
       <c r="S47" t="n">
-        <v>800</v>
+        <v>867</v>
       </c>
       <c r="T47" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="48">
@@ -4167,7 +4167,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44159</v>
+        <v>44539</v>
       </c>
       <c r="E48" t="n">
         <v>13</v>
@@ -4200,24 +4200,24 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M48" t="n">
-        <v>65</v>
+        <v>290</v>
       </c>
       <c r="N48" t="n">
-        <v>7000</v>
+        <v>18000</v>
       </c>
       <c r="O48" t="n">
-        <v>7000</v>
+        <v>18000</v>
       </c>
       <c r="P48" t="n">
-        <v>7000</v>
+        <v>18000</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R48" t="inlineStr">
@@ -4226,10 +4226,10 @@
         </is>
       </c>
       <c r="S48" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="T48" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="49">
@@ -4247,7 +4247,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44572</v>
+        <v>44539</v>
       </c>
       <c r="E49" t="n">
         <v>13</v>
@@ -4275,7 +4275,7 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
@@ -4284,20 +4284,20 @@
         </is>
       </c>
       <c r="M49" t="n">
-        <v>580</v>
+        <v>300</v>
       </c>
       <c r="N49" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O49" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P49" t="n">
-        <v>14517</v>
+        <v>16000</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R49" t="inlineStr">
@@ -4306,7 +4306,7 @@
         </is>
       </c>
       <c r="S49" t="n">
-        <v>806</v>
+        <v>889</v>
       </c>
       <c r="T49" t="n">
         <v>18</v>
@@ -4327,7 +4327,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44552</v>
+        <v>44539</v>
       </c>
       <c r="E50" t="n">
         <v>13</v>
@@ -4355,29 +4355,29 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Dina</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M50" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N50" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O50" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P50" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R50" t="inlineStr">
@@ -4386,10 +4386,10 @@
         </is>
       </c>
       <c r="S50" t="n">
-        <v>1000</v>
+        <v>778</v>
       </c>
       <c r="T50" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51">
@@ -4407,7 +4407,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44552</v>
+        <v>44547</v>
       </c>
       <c r="E51" t="n">
         <v>13</v>
@@ -4440,20 +4440,20 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M51" t="n">
-        <v>220</v>
+        <v>450</v>
       </c>
       <c r="N51" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O51" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P51" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
@@ -4466,7 +4466,7 @@
         </is>
       </c>
       <c r="S51" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="T51" t="n">
         <v>10</v>
@@ -4487,7 +4487,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44552</v>
+        <v>44547</v>
       </c>
       <c r="E52" t="n">
         <v>13</v>
@@ -4520,20 +4520,20 @@
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M52" t="n">
-        <v>350</v>
+        <v>410</v>
       </c>
       <c r="N52" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="O52" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="P52" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="S52" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="T52" t="n">
         <v>10</v>
@@ -4567,7 +4567,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44552</v>
+        <v>44547</v>
       </c>
       <c r="E53" t="n">
         <v>13</v>
@@ -4595,29 +4595,29 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>Modesto</t>
+          <t>Dina</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M53" t="n">
-        <v>280</v>
+        <v>350</v>
       </c>
       <c r="N53" t="n">
-        <v>21600</v>
+        <v>8000</v>
       </c>
       <c r="O53" t="n">
-        <v>21600</v>
+        <v>8000</v>
       </c>
       <c r="P53" t="n">
-        <v>21600</v>
+        <v>8000</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R53" t="inlineStr">
@@ -4626,10 +4626,10 @@
         </is>
       </c>
       <c r="S53" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="T53" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="54">
@@ -4647,7 +4647,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44552</v>
+        <v>44166</v>
       </c>
       <c r="E54" t="n">
         <v>13</v>
@@ -4675,7 +4675,7 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>Modesto</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
@@ -4684,32 +4684,32 @@
         </is>
       </c>
       <c r="M54" t="n">
-        <v>310</v>
+        <v>120</v>
       </c>
       <c r="N54" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="O54" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="P54" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R54" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S54" t="n">
         <v>1000</v>
       </c>
       <c r="T54" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="55">
@@ -4727,7 +4727,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44552</v>
+        <v>44166</v>
       </c>
       <c r="E55" t="n">
         <v>13</v>
@@ -4755,7 +4755,7 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>Modesto</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
@@ -4764,32 +4764,32 @@
         </is>
       </c>
       <c r="M55" t="n">
-        <v>350</v>
+        <v>120</v>
       </c>
       <c r="N55" t="n">
-        <v>14400</v>
+        <v>8000</v>
       </c>
       <c r="O55" t="n">
-        <v>14400</v>
+        <v>8000</v>
       </c>
       <c r="P55" t="n">
-        <v>14400</v>
+        <v>8000</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R55" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S55" t="n">
         <v>800</v>
       </c>
       <c r="T55" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="56">
@@ -4807,7 +4807,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44540</v>
+        <v>44175</v>
       </c>
       <c r="E56" t="n">
         <v>13</v>
@@ -4835,7 +4835,7 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Modesto</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
@@ -4844,32 +4844,32 @@
         </is>
       </c>
       <c r="M56" t="n">
-        <v>330</v>
+        <v>140</v>
       </c>
       <c r="N56" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="O56" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="P56" t="n">
-        <v>16000</v>
+        <v>11571</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="R56" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S56" t="n">
-        <v>889</v>
+        <v>964</v>
       </c>
       <c r="T56" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57">
@@ -4887,7 +4887,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44540</v>
+        <v>44566</v>
       </c>
       <c r="E57" t="n">
         <v>13</v>
@@ -4915,25 +4915,25 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M57" t="n">
-        <v>280</v>
+        <v>410</v>
       </c>
       <c r="N57" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="O57" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="P57" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
@@ -4942,11 +4942,11 @@
       </c>
       <c r="R57" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S57" t="n">
-        <v>778</v>
+        <v>1000</v>
       </c>
       <c r="T57" t="n">
         <v>18</v>
@@ -4967,7 +4967,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44166</v>
+        <v>44566</v>
       </c>
       <c r="E58" t="n">
         <v>13</v>
@@ -4995,7 +4995,7 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
@@ -5004,32 +5004,32 @@
         </is>
       </c>
       <c r="M58" t="n">
-        <v>120</v>
+        <v>350</v>
       </c>
       <c r="N58" t="n">
-        <v>10000</v>
+        <v>14400</v>
       </c>
       <c r="O58" t="n">
-        <v>10000</v>
+        <v>14400</v>
       </c>
       <c r="P58" t="n">
-        <v>10000</v>
+        <v>14400</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R58" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S58" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T58" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="59">
@@ -5047,7 +5047,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44166</v>
+        <v>44195</v>
       </c>
       <c r="E59" t="n">
         <v>13</v>
@@ -5075,41 +5075,41 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M59" t="n">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="N59" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="O59" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="P59" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R59" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S59" t="n">
-        <v>800</v>
+        <v>867</v>
       </c>
       <c r="T59" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="60">
@@ -5127,7 +5127,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44175</v>
+        <v>44554</v>
       </c>
       <c r="E60" t="n">
         <v>13</v>
@@ -5155,7 +5155,7 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>Modesto</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
@@ -5164,20 +5164,20 @@
         </is>
       </c>
       <c r="M60" t="n">
-        <v>140</v>
+        <v>410</v>
       </c>
       <c r="N60" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="O60" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P60" t="n">
-        <v>11571</v>
+        <v>14000</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R60" t="inlineStr">
@@ -5186,10 +5186,10 @@
         </is>
       </c>
       <c r="S60" t="n">
-        <v>964</v>
+        <v>778</v>
       </c>
       <c r="T60" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="61">
@@ -5207,7 +5207,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44160</v>
+        <v>44554</v>
       </c>
       <c r="E61" t="n">
         <v>13</v>
@@ -5235,29 +5235,29 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M61" t="n">
-        <v>25</v>
+        <v>380</v>
       </c>
       <c r="N61" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O61" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P61" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R61" t="inlineStr">
@@ -5266,10 +5266,10 @@
         </is>
       </c>
       <c r="S61" t="n">
-        <v>800</v>
+        <v>667</v>
       </c>
       <c r="T61" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="62">
@@ -5287,7 +5287,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44160</v>
+        <v>44162</v>
       </c>
       <c r="E62" t="n">
         <v>13</v>
@@ -5320,20 +5320,20 @@
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M62" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="N62" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="O62" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="P62" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="S62" t="n">
-        <v>700</v>
+        <v>850</v>
       </c>
       <c r="T62" t="n">
         <v>10</v>
@@ -5367,7 +5367,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44519</v>
+        <v>44162</v>
       </c>
       <c r="E63" t="n">
         <v>13</v>
@@ -5404,32 +5404,32 @@
         </is>
       </c>
       <c r="M63" t="n">
-        <v>300</v>
+        <v>75</v>
       </c>
       <c r="N63" t="n">
-        <v>22500</v>
+        <v>14000</v>
       </c>
       <c r="O63" t="n">
-        <v>22500</v>
+        <v>15000</v>
       </c>
       <c r="P63" t="n">
-        <v>22500</v>
+        <v>14400</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R63" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S63" t="n">
-        <v>1500</v>
+        <v>800</v>
       </c>
       <c r="T63" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="64">
@@ -5447,7 +5447,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44545</v>
+        <v>44536</v>
       </c>
       <c r="E64" t="n">
         <v>13</v>
@@ -5480,24 +5480,24 @@
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M64" t="n">
-        <v>310</v>
+        <v>220</v>
       </c>
       <c r="N64" t="n">
-        <v>18000</v>
+        <v>11000</v>
       </c>
       <c r="O64" t="n">
-        <v>18000</v>
+        <v>11000</v>
       </c>
       <c r="P64" t="n">
-        <v>18000</v>
+        <v>11000</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R64" t="inlineStr">
@@ -5506,10 +5506,10 @@
         </is>
       </c>
       <c r="S64" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="T64" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="65">
@@ -5527,7 +5527,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44545</v>
+        <v>44536</v>
       </c>
       <c r="E65" t="n">
         <v>13</v>
@@ -5560,24 +5560,24 @@
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M65" t="n">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="N65" t="n">
-        <v>14400</v>
+        <v>7000</v>
       </c>
       <c r="O65" t="n">
-        <v>14400</v>
+        <v>7000</v>
       </c>
       <c r="P65" t="n">
-        <v>14400</v>
+        <v>7000</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R65" t="inlineStr">
@@ -5586,10 +5586,10 @@
         </is>
       </c>
       <c r="S65" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="T65" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="66">
@@ -5847,7 +5847,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44536</v>
+        <v>44537</v>
       </c>
       <c r="E69" t="n">
         <v>13</v>
@@ -5884,32 +5884,32 @@
         </is>
       </c>
       <c r="M69" t="n">
-        <v>220</v>
+        <v>400</v>
       </c>
       <c r="N69" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="O69" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="P69" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R69" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S69" t="n">
-        <v>1100</v>
+        <v>889</v>
       </c>
       <c r="T69" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="70">
@@ -5927,7 +5927,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44536</v>
+        <v>44553</v>
       </c>
       <c r="E70" t="n">
         <v>13</v>
@@ -5955,41 +5955,41 @@
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Dina</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M70" t="n">
-        <v>250</v>
+        <v>280</v>
       </c>
       <c r="N70" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="O70" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="P70" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 6 kilos</t>
         </is>
       </c>
       <c r="R70" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S70" t="n">
-        <v>700</v>
+        <v>1250</v>
       </c>
       <c r="T70" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="71">
@@ -6007,7 +6007,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44187</v>
+        <v>44553</v>
       </c>
       <c r="E71" t="n">
         <v>13</v>
@@ -6035,7 +6035,7 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Dina</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
@@ -6044,20 +6044,20 @@
         </is>
       </c>
       <c r="M71" t="n">
-        <v>80</v>
+        <v>350</v>
       </c>
       <c r="N71" t="n">
-        <v>15000</v>
+        <v>6500</v>
       </c>
       <c r="O71" t="n">
-        <v>15000</v>
+        <v>6500</v>
       </c>
       <c r="P71" t="n">
-        <v>15000</v>
+        <v>6500</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/bandeja 6 kilos</t>
         </is>
       </c>
       <c r="R71" t="inlineStr">
@@ -6066,10 +6066,10 @@
         </is>
       </c>
       <c r="S71" t="n">
-        <v>1000</v>
+        <v>1083</v>
       </c>
       <c r="T71" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="72">
@@ -6087,7 +6087,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44187</v>
+        <v>44553</v>
       </c>
       <c r="E72" t="n">
         <v>13</v>
@@ -6120,24 +6120,24 @@
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M72" t="n">
-        <v>95</v>
+        <v>380</v>
       </c>
       <c r="N72" t="n">
-        <v>13500</v>
+        <v>14000</v>
       </c>
       <c r="O72" t="n">
-        <v>13500</v>
+        <v>14000</v>
       </c>
       <c r="P72" t="n">
-        <v>13500</v>
+        <v>14000</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R72" t="inlineStr">
@@ -6146,10 +6146,10 @@
         </is>
       </c>
       <c r="S72" t="n">
-        <v>900</v>
+        <v>778</v>
       </c>
       <c r="T72" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="73">
@@ -6167,7 +6167,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44187</v>
+        <v>44553</v>
       </c>
       <c r="E73" t="n">
         <v>13</v>
@@ -6200,11 +6200,11 @@
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M73" t="n">
-        <v>120</v>
+        <v>410</v>
       </c>
       <c r="N73" t="n">
         <v>12000</v>
@@ -6217,7 +6217,7 @@
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R73" t="inlineStr">
@@ -6226,10 +6226,10 @@
         </is>
       </c>
       <c r="S73" t="n">
-        <v>800</v>
+        <v>667</v>
       </c>
       <c r="T73" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="74">
@@ -6247,7 +6247,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44561</v>
+        <v>44557</v>
       </c>
       <c r="E74" t="n">
         <v>13</v>
@@ -6284,32 +6284,32 @@
         </is>
       </c>
       <c r="M74" t="n">
-        <v>330</v>
+        <v>380</v>
       </c>
       <c r="N74" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="O74" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="P74" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R74" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S74" t="n">
         <v>1000</v>
       </c>
       <c r="T74" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="75">
@@ -6327,7 +6327,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44561</v>
+        <v>44557</v>
       </c>
       <c r="E75" t="n">
         <v>13</v>
@@ -6364,32 +6364,32 @@
         </is>
       </c>
       <c r="M75" t="n">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="N75" t="n">
-        <v>14400</v>
+        <v>12000</v>
       </c>
       <c r="O75" t="n">
-        <v>14400</v>
+        <v>12000</v>
       </c>
       <c r="P75" t="n">
-        <v>14400</v>
+        <v>12000</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R75" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S75" t="n">
         <v>800</v>
       </c>
       <c r="T75" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="76">
@@ -6407,7 +6407,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44561</v>
+        <v>44572</v>
       </c>
       <c r="E76" t="n">
         <v>13</v>
@@ -6440,33 +6440,33 @@
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M76" t="n">
-        <v>300</v>
+        <v>580</v>
       </c>
       <c r="N76" t="n">
-        <v>10800</v>
+        <v>14000</v>
       </c>
       <c r="O76" t="n">
-        <v>10800</v>
+        <v>15000</v>
       </c>
       <c r="P76" t="n">
-        <v>10800</v>
+        <v>14517</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R76" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S76" t="n">
-        <v>600</v>
+        <v>806</v>
       </c>
       <c r="T76" t="n">
         <v>18</v>
@@ -6487,7 +6487,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44533</v>
+        <v>44174</v>
       </c>
       <c r="E77" t="n">
         <v>13</v>
@@ -6515,7 +6515,7 @@
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Modesto</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
@@ -6524,32 +6524,32 @@
         </is>
       </c>
       <c r="M77" t="n">
-        <v>410</v>
+        <v>120</v>
       </c>
       <c r="N77" t="n">
-        <v>16500</v>
+        <v>8500</v>
       </c>
       <c r="O77" t="n">
-        <v>16500</v>
+        <v>8500</v>
       </c>
       <c r="P77" t="n">
-        <v>16500</v>
+        <v>8500</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R77" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S77" t="n">
-        <v>1100</v>
+        <v>850</v>
       </c>
       <c r="T77" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="78">
@@ -6567,7 +6567,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44533</v>
+        <v>44174</v>
       </c>
       <c r="E78" t="n">
         <v>13</v>
@@ -6595,41 +6595,41 @@
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Modesto</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M78" t="n">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="N78" t="n">
-        <v>10500</v>
+        <v>15000</v>
       </c>
       <c r="O78" t="n">
-        <v>10500</v>
+        <v>15000</v>
       </c>
       <c r="P78" t="n">
-        <v>10500</v>
+        <v>15000</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R78" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S78" t="n">
-        <v>700</v>
+        <v>833</v>
       </c>
       <c r="T78" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="79">
@@ -6647,7 +6647,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44533</v>
+        <v>44174</v>
       </c>
       <c r="E79" t="n">
         <v>13</v>
@@ -6675,41 +6675,41 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Modesto</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M79" t="n">
-        <v>250</v>
+        <v>120</v>
       </c>
       <c r="N79" t="n">
-        <v>7500</v>
+        <v>12000</v>
       </c>
       <c r="O79" t="n">
-        <v>7500</v>
+        <v>12000</v>
       </c>
       <c r="P79" t="n">
-        <v>7500</v>
+        <v>12000</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R79" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S79" t="n">
-        <v>500</v>
+        <v>667</v>
       </c>
       <c r="T79" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="80">
@@ -6727,7 +6727,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44523</v>
+        <v>44167</v>
       </c>
       <c r="E80" t="n">
         <v>13</v>
@@ -6760,11 +6760,11 @@
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M80" t="n">
-        <v>320</v>
+        <v>85</v>
       </c>
       <c r="N80" t="n">
         <v>10000</v>
@@ -6840,20 +6840,20 @@
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M81" t="n">
-        <v>85</v>
+        <v>120</v>
       </c>
       <c r="N81" t="n">
-        <v>10000</v>
+        <v>9500</v>
       </c>
       <c r="O81" t="n">
-        <v>10000</v>
+        <v>9500</v>
       </c>
       <c r="P81" t="n">
-        <v>10000</v>
+        <v>9500</v>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
@@ -6866,7 +6866,7 @@
         </is>
       </c>
       <c r="S81" t="n">
-        <v>1000</v>
+        <v>950</v>
       </c>
       <c r="T81" t="n">
         <v>10</v>
@@ -6924,20 +6924,20 @@
         </is>
       </c>
       <c r="M82" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="N82" t="n">
-        <v>9500</v>
+        <v>15000</v>
       </c>
       <c r="O82" t="n">
-        <v>9500</v>
+        <v>15000</v>
       </c>
       <c r="P82" t="n">
-        <v>9500</v>
+        <v>15000</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R82" t="inlineStr">
@@ -6946,10 +6946,10 @@
         </is>
       </c>
       <c r="S82" t="n">
-        <v>950</v>
+        <v>833</v>
       </c>
       <c r="T82" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="83">
@@ -6967,7 +6967,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44167</v>
+        <v>44552</v>
       </c>
       <c r="E83" t="n">
         <v>13</v>
@@ -6995,29 +6995,29 @@
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Dina</t>
         </is>
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M83" t="n">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="N83" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O83" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P83" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R83" t="inlineStr">
@@ -7026,10 +7026,10 @@
         </is>
       </c>
       <c r="S83" t="n">
-        <v>833</v>
+        <v>1000</v>
       </c>
       <c r="T83" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="84">
@@ -7047,7 +7047,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44176</v>
+        <v>44552</v>
       </c>
       <c r="E84" t="n">
         <v>13</v>
@@ -7075,7 +7075,7 @@
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>Modesto</t>
+          <t>Dina</t>
         </is>
       </c>
       <c r="L84" t="inlineStr">
@@ -7084,20 +7084,20 @@
         </is>
       </c>
       <c r="M84" t="n">
-        <v>115</v>
+        <v>220</v>
       </c>
       <c r="N84" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="O84" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P84" t="n">
-        <v>11609</v>
+        <v>8000</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R84" t="inlineStr">
@@ -7106,10 +7106,10 @@
         </is>
       </c>
       <c r="S84" t="n">
-        <v>967</v>
+        <v>800</v>
       </c>
       <c r="T84" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="85">
@@ -7127,7 +7127,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44560</v>
+        <v>44552</v>
       </c>
       <c r="E85" t="n">
         <v>13</v>
@@ -7155,29 +7155,29 @@
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>Helena</t>
+          <t>Dina</t>
         </is>
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M85" t="n">
-        <v>410</v>
+        <v>350</v>
       </c>
       <c r="N85" t="n">
-        <v>18000</v>
+        <v>6000</v>
       </c>
       <c r="O85" t="n">
-        <v>18000</v>
+        <v>6000</v>
       </c>
       <c r="P85" t="n">
-        <v>18000</v>
+        <v>6000</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R85" t="inlineStr">
@@ -7186,10 +7186,10 @@
         </is>
       </c>
       <c r="S85" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="T85" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="86">
@@ -7207,7 +7207,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44560</v>
+        <v>44552</v>
       </c>
       <c r="E86" t="n">
         <v>13</v>
@@ -7235,25 +7235,25 @@
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>Helena</t>
+          <t>Modesto</t>
         </is>
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M86" t="n">
-        <v>330</v>
+        <v>280</v>
       </c>
       <c r="N86" t="n">
-        <v>14400</v>
+        <v>21600</v>
       </c>
       <c r="O86" t="n">
-        <v>14400</v>
+        <v>21600</v>
       </c>
       <c r="P86" t="n">
-        <v>14400</v>
+        <v>21600</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
@@ -7266,7 +7266,7 @@
         </is>
       </c>
       <c r="S86" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="T86" t="n">
         <v>18</v>
@@ -7287,7 +7287,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44560</v>
+        <v>44552</v>
       </c>
       <c r="E87" t="n">
         <v>13</v>
@@ -7315,25 +7315,25 @@
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>Helena</t>
+          <t>Modesto</t>
         </is>
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M87" t="n">
-        <v>380</v>
+        <v>310</v>
       </c>
       <c r="N87" t="n">
-        <v>12600</v>
+        <v>18000</v>
       </c>
       <c r="O87" t="n">
-        <v>12600</v>
+        <v>18000</v>
       </c>
       <c r="P87" t="n">
-        <v>12600</v>
+        <v>18000</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="S87" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="T87" t="n">
         <v>18</v>
@@ -7367,7 +7367,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44162</v>
+        <v>44552</v>
       </c>
       <c r="E88" t="n">
         <v>13</v>
@@ -7395,29 +7395,29 @@
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Modesto</t>
         </is>
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M88" t="n">
-        <v>70</v>
+        <v>350</v>
       </c>
       <c r="N88" t="n">
-        <v>8500</v>
+        <v>14400</v>
       </c>
       <c r="O88" t="n">
-        <v>8500</v>
+        <v>14400</v>
       </c>
       <c r="P88" t="n">
-        <v>8500</v>
+        <v>14400</v>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R88" t="inlineStr">
@@ -7426,10 +7426,10 @@
         </is>
       </c>
       <c r="S88" t="n">
-        <v>850</v>
+        <v>800</v>
       </c>
       <c r="T88" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="89">
@@ -7447,7 +7447,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44162</v>
+        <v>44544</v>
       </c>
       <c r="E89" t="n">
         <v>13</v>
@@ -7475,29 +7475,29 @@
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Dina</t>
         </is>
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M89" t="n">
-        <v>75</v>
+        <v>330</v>
       </c>
       <c r="N89" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O89" t="n">
         <v>15000</v>
       </c>
       <c r="P89" t="n">
-        <v>14400</v>
+        <v>15000</v>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R89" t="inlineStr">
@@ -7506,10 +7506,10 @@
         </is>
       </c>
       <c r="S89" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T89" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="90">
@@ -7527,7 +7527,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44189</v>
+        <v>44544</v>
       </c>
       <c r="E90" t="n">
         <v>13</v>
@@ -7555,7 +7555,7 @@
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Dina</t>
         </is>
       </c>
       <c r="L90" t="inlineStr">
@@ -7564,7 +7564,7 @@
         </is>
       </c>
       <c r="M90" t="n">
-        <v>130</v>
+        <v>350</v>
       </c>
       <c r="N90" t="n">
         <v>12000</v>
@@ -7577,7 +7577,7 @@
       </c>
       <c r="Q90" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R90" t="inlineStr">
@@ -7586,10 +7586,10 @@
         </is>
       </c>
       <c r="S90" t="n">
-        <v>667</v>
+        <v>800</v>
       </c>
       <c r="T90" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="91">
@@ -7607,7 +7607,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44554</v>
+        <v>44160</v>
       </c>
       <c r="E91" t="n">
         <v>13</v>
@@ -7635,7 +7635,7 @@
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L91" t="inlineStr">
@@ -7644,20 +7644,20 @@
         </is>
       </c>
       <c r="M91" t="n">
-        <v>410</v>
+        <v>25</v>
       </c>
       <c r="N91" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="O91" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="P91" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R91" t="inlineStr">
@@ -7666,10 +7666,10 @@
         </is>
       </c>
       <c r="S91" t="n">
-        <v>778</v>
+        <v>800</v>
       </c>
       <c r="T91" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="92">
@@ -7687,7 +7687,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44554</v>
+        <v>44160</v>
       </c>
       <c r="E92" t="n">
         <v>13</v>
@@ -7715,7 +7715,7 @@
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L92" t="inlineStr">
@@ -7724,20 +7724,20 @@
         </is>
       </c>
       <c r="M92" t="n">
-        <v>380</v>
+        <v>40</v>
       </c>
       <c r="N92" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="O92" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="P92" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R92" t="inlineStr">
@@ -7746,10 +7746,10 @@
         </is>
       </c>
       <c r="S92" t="n">
-        <v>667</v>
+        <v>700</v>
       </c>
       <c r="T92" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Damasco.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Damasco.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44551</v>
+        <v>44195</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -515,41 +515,41 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Dina</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>220</v>
+        <v>124</v>
       </c>
       <c r="N2" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="O2" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="P2" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1000</v>
+        <v>867</v>
       </c>
       <c r="T2" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44551</v>
+        <v>44573</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -595,38 +595,38 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Dina</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>350</v>
+        <v>380</v>
       </c>
       <c r="N3" t="n">
-        <v>14400</v>
+        <v>17000</v>
       </c>
       <c r="O3" t="n">
-        <v>14400</v>
+        <v>17000</v>
       </c>
       <c r="P3" t="n">
-        <v>14400</v>
+        <v>17000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S3" t="n">
-        <v>800</v>
+        <v>944</v>
       </c>
       <c r="T3" t="n">
         <v>18</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44168</v>
+        <v>44573</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -675,41 +675,41 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Dina</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>40</v>
+        <v>410</v>
       </c>
       <c r="N4" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O4" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P4" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1400</v>
+        <v>833</v>
       </c>
       <c r="T4" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5">
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44525</v>
+        <v>44573</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -755,25 +755,25 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>300</v>
+        <v>330</v>
       </c>
       <c r="N5" t="n">
-        <v>25200</v>
+        <v>13000</v>
       </c>
       <c r="O5" t="n">
-        <v>25200</v>
+        <v>13000</v>
       </c>
       <c r="P5" t="n">
-        <v>25200</v>
+        <v>13000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1400</v>
+        <v>722</v>
       </c>
       <c r="T5" t="n">
         <v>18</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44525</v>
+        <v>44557</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -835,41 +835,41 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>250</v>
+        <v>380</v>
       </c>
       <c r="N6" t="n">
-        <v>21600</v>
+        <v>15000</v>
       </c>
       <c r="O6" t="n">
-        <v>21600</v>
+        <v>15000</v>
       </c>
       <c r="P6" t="n">
-        <v>21600</v>
+        <v>15000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="T6" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7">
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44558</v>
+        <v>44557</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -915,29 +915,29 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Helena</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M7" t="n">
         <v>330</v>
       </c>
       <c r="N7" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="O7" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="P7" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -946,10 +946,10 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T7" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8">
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44558</v>
+        <v>44566</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -995,41 +995,41 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Helena</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>350</v>
+        <v>410</v>
       </c>
       <c r="N8" t="n">
-        <v>12800</v>
+        <v>18000</v>
       </c>
       <c r="O8" t="n">
-        <v>12800</v>
+        <v>18000</v>
       </c>
       <c r="P8" t="n">
-        <v>12800</v>
+        <v>18000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S8" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T8" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9">
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44558</v>
+        <v>44566</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>410</v>
+        <v>350</v>
       </c>
       <c r="N9" t="n">
-        <v>14000</v>
+        <v>14400</v>
       </c>
       <c r="O9" t="n">
-        <v>14000</v>
+        <v>14400</v>
       </c>
       <c r="P9" t="n">
-        <v>14000</v>
+        <v>14400</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1102,11 +1102,11 @@
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S9" t="n">
-        <v>778</v>
+        <v>800</v>
       </c>
       <c r="T9" t="n">
         <v>18</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44558</v>
+        <v>44174</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1155,41 +1155,41 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Modesto</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>380</v>
+        <v>120</v>
       </c>
       <c r="N10" t="n">
-        <v>12000</v>
+        <v>8500</v>
       </c>
       <c r="O10" t="n">
-        <v>12000</v>
+        <v>8500</v>
       </c>
       <c r="P10" t="n">
-        <v>12000</v>
+        <v>8500</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S10" t="n">
-        <v>667</v>
+        <v>850</v>
       </c>
       <c r="T10" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11">
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44550</v>
+        <v>44174</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1235,7 +1235,7 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Modesto</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
@@ -1244,32 +1244,32 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="N11" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="O11" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="P11" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S11" t="n">
-        <v>800</v>
+        <v>833</v>
       </c>
       <c r="T11" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12">
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44550</v>
+        <v>44174</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1315,7 +1315,7 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Modesto</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -1327,29 +1327,29 @@
         <v>120</v>
       </c>
       <c r="N12" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="O12" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="P12" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S12" t="n">
-        <v>600</v>
+        <v>667</v>
       </c>
       <c r="T12" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44561</v>
+        <v>44545</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1395,7 +1395,7 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -1404,7 +1404,7 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>330</v>
+        <v>310</v>
       </c>
       <c r="N13" t="n">
         <v>18000</v>
@@ -1417,12 +1417,12 @@
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S13" t="n">
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44561</v>
+        <v>44545</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1475,7 +1475,7 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
@@ -1497,12 +1497,12 @@
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S14" t="n">
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44561</v>
+        <v>44539</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1555,25 +1555,25 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="N15" t="n">
-        <v>10800</v>
+        <v>18000</v>
       </c>
       <c r="O15" t="n">
-        <v>10800</v>
+        <v>18000</v>
       </c>
       <c r="P15" t="n">
-        <v>10800</v>
+        <v>18000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1582,11 +1582,11 @@
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S15" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="T15" t="n">
         <v>18</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44575</v>
+        <v>44539</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1635,29 +1635,29 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>480</v>
+        <v>300</v>
       </c>
       <c r="N16" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O16" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P16" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>944</v>
+        <v>889</v>
       </c>
       <c r="T16" t="n">
         <v>18</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44575</v>
+        <v>44539</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1715,29 +1715,29 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>330</v>
+        <v>300</v>
       </c>
       <c r="N17" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="O17" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P17" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>833</v>
+        <v>778</v>
       </c>
       <c r="T17" t="n">
         <v>18</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44169</v>
+        <v>44187</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1795,7 +1795,7 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Dina</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
@@ -1807,29 +1807,29 @@
         <v>80</v>
       </c>
       <c r="N18" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O18" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P18" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S18" t="n">
         <v>1000</v>
       </c>
       <c r="T18" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19">
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44523</v>
+        <v>44187</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
@@ -1875,29 +1875,29 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>320</v>
+        <v>95</v>
       </c>
       <c r="N19" t="n">
-        <v>10000</v>
+        <v>13500</v>
       </c>
       <c r="O19" t="n">
-        <v>10000</v>
+        <v>13500</v>
       </c>
       <c r="P19" t="n">
-        <v>10000</v>
+        <v>13500</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
@@ -1906,10 +1906,10 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="T19" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20">
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44559</v>
+        <v>44187</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1955,38 +1955,38 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Helena</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>310</v>
+        <v>120</v>
       </c>
       <c r="N20" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O20" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P20" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S20" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T20" t="n">
         <v>15</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44559</v>
+        <v>44160</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -2035,7 +2035,7 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Helena</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
@@ -2044,32 +2044,32 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>350</v>
+        <v>25</v>
       </c>
       <c r="N21" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O21" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P21" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S21" t="n">
         <v>800</v>
       </c>
       <c r="T21" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22">
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44559</v>
+        <v>44160</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
@@ -2115,29 +2115,29 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>300</v>
+        <v>40</v>
       </c>
       <c r="N22" t="n">
-        <v>18000</v>
+        <v>7000</v>
       </c>
       <c r="O22" t="n">
-        <v>18000</v>
+        <v>7000</v>
       </c>
       <c r="P22" t="n">
-        <v>18000</v>
+        <v>7000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
@@ -2146,10 +2146,10 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="T22" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23">
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44559</v>
+        <v>44194</v>
       </c>
       <c r="E23" t="n">
         <v>13</v>
@@ -2204,20 +2204,20 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>380</v>
+        <v>120</v>
       </c>
       <c r="N23" t="n">
-        <v>14400</v>
+        <v>13000</v>
       </c>
       <c r="O23" t="n">
-        <v>14400</v>
+        <v>13000</v>
       </c>
       <c r="P23" t="n">
-        <v>14400</v>
+        <v>13000</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
@@ -2226,10 +2226,10 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>800</v>
+        <v>867</v>
       </c>
       <c r="T23" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24">
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44545</v>
+        <v>44574</v>
       </c>
       <c r="E24" t="n">
         <v>13</v>
@@ -2275,7 +2275,7 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
@@ -2284,7 +2284,7 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>310</v>
+        <v>350</v>
       </c>
       <c r="N24" t="n">
         <v>18000</v>
@@ -2302,7 +2302,7 @@
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S24" t="n">
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44545</v>
+        <v>44574</v>
       </c>
       <c r="E25" t="n">
         <v>13</v>
@@ -2355,7 +2355,7 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
@@ -2364,16 +2364,16 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>350</v>
+        <v>480</v>
       </c>
       <c r="N25" t="n">
-        <v>14400</v>
+        <v>15000</v>
       </c>
       <c r="O25" t="n">
-        <v>14400</v>
+        <v>15000</v>
       </c>
       <c r="P25" t="n">
-        <v>14400</v>
+        <v>15000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2382,11 +2382,11 @@
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S25" t="n">
-        <v>800</v>
+        <v>833</v>
       </c>
       <c r="T25" t="n">
         <v>18</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44189</v>
+        <v>44159</v>
       </c>
       <c r="E26" t="n">
         <v>13</v>
@@ -2435,7 +2435,7 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
@@ -2444,20 +2444,20 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="N26" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O26" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P26" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
@@ -2466,10 +2466,10 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>667</v>
+        <v>800</v>
       </c>
       <c r="T26" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27">
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44187</v>
+        <v>44159</v>
       </c>
       <c r="E27" t="n">
         <v>13</v>
@@ -2515,29 +2515,29 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M27" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="N27" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="O27" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="P27" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
@@ -2546,10 +2546,10 @@
         </is>
       </c>
       <c r="S27" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="T27" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28">
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44187</v>
+        <v>44552</v>
       </c>
       <c r="E28" t="n">
         <v>13</v>
@@ -2595,29 +2595,29 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Dina</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>95</v>
+        <v>200</v>
       </c>
       <c r="N28" t="n">
-        <v>13500</v>
+        <v>10000</v>
       </c>
       <c r="O28" t="n">
-        <v>13500</v>
+        <v>10000</v>
       </c>
       <c r="P28" t="n">
-        <v>13500</v>
+        <v>10000</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
@@ -2626,10 +2626,10 @@
         </is>
       </c>
       <c r="S28" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="T28" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29">
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44187</v>
+        <v>44552</v>
       </c>
       <c r="E29" t="n">
         <v>13</v>
@@ -2675,29 +2675,29 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Dina</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>120</v>
+        <v>220</v>
       </c>
       <c r="N29" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O29" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P29" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
@@ -2709,7 +2709,7 @@
         <v>800</v>
       </c>
       <c r="T29" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30">
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44519</v>
+        <v>44552</v>
       </c>
       <c r="E30" t="n">
         <v>13</v>
@@ -2755,41 +2755,41 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Dina</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="N30" t="n">
-        <v>22500</v>
+        <v>6000</v>
       </c>
       <c r="O30" t="n">
-        <v>22500</v>
+        <v>6000</v>
       </c>
       <c r="P30" t="n">
-        <v>22500</v>
+        <v>6000</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S30" t="n">
-        <v>1500</v>
+        <v>600</v>
       </c>
       <c r="T30" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31">
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44533</v>
+        <v>44552</v>
       </c>
       <c r="E31" t="n">
         <v>13</v>
@@ -2835,29 +2835,29 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Modesto</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M31" t="n">
-        <v>410</v>
+        <v>280</v>
       </c>
       <c r="N31" t="n">
-        <v>16500</v>
+        <v>21600</v>
       </c>
       <c r="O31" t="n">
-        <v>16500</v>
+        <v>21600</v>
       </c>
       <c r="P31" t="n">
-        <v>16500</v>
+        <v>21600</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
@@ -2866,10 +2866,10 @@
         </is>
       </c>
       <c r="S31" t="n">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="T31" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32">
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44533</v>
+        <v>44552</v>
       </c>
       <c r="E32" t="n">
         <v>13</v>
@@ -2915,29 +2915,29 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Modesto</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M32" t="n">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="N32" t="n">
-        <v>10500</v>
+        <v>18000</v>
       </c>
       <c r="O32" t="n">
-        <v>10500</v>
+        <v>18000</v>
       </c>
       <c r="P32" t="n">
-        <v>10500</v>
+        <v>18000</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
@@ -2946,10 +2946,10 @@
         </is>
       </c>
       <c r="S32" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="T32" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33">
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44533</v>
+        <v>44552</v>
       </c>
       <c r="E33" t="n">
         <v>13</v>
@@ -2995,29 +2995,29 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Modesto</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M33" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="N33" t="n">
-        <v>7500</v>
+        <v>14400</v>
       </c>
       <c r="O33" t="n">
-        <v>7500</v>
+        <v>14400</v>
       </c>
       <c r="P33" t="n">
-        <v>7500</v>
+        <v>14400</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
@@ -3026,10 +3026,10 @@
         </is>
       </c>
       <c r="S33" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="T33" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34">
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44176</v>
+        <v>44554</v>
       </c>
       <c r="E34" t="n">
         <v>13</v>
@@ -3075,7 +3075,7 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>Modesto</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
@@ -3084,20 +3084,20 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>115</v>
+        <v>410</v>
       </c>
       <c r="N34" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="O34" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P34" t="n">
-        <v>11609</v>
+        <v>14000</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
@@ -3106,10 +3106,10 @@
         </is>
       </c>
       <c r="S34" t="n">
-        <v>967</v>
+        <v>778</v>
       </c>
       <c r="T34" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35">
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44540</v>
+        <v>44554</v>
       </c>
       <c r="E35" t="n">
         <v>13</v>
@@ -3155,25 +3155,25 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M35" t="n">
-        <v>330</v>
+        <v>380</v>
       </c>
       <c r="N35" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="O35" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="P35" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3182,11 +3182,11 @@
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S35" t="n">
-        <v>889</v>
+        <v>667</v>
       </c>
       <c r="T35" t="n">
         <v>18</v>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44540</v>
+        <v>44169</v>
       </c>
       <c r="E36" t="n">
         <v>13</v>
@@ -3235,41 +3235,41 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Dina</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M36" t="n">
-        <v>280</v>
+        <v>80</v>
       </c>
       <c r="N36" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O36" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P36" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S36" t="n">
-        <v>778</v>
+        <v>1000</v>
       </c>
       <c r="T36" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37">
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44574</v>
+        <v>44166</v>
       </c>
       <c r="E37" t="n">
         <v>13</v>
@@ -3315,41 +3315,41 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M37" t="n">
-        <v>350</v>
+        <v>120</v>
       </c>
       <c r="N37" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="O37" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="P37" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S37" t="n">
         <v>1000</v>
       </c>
       <c r="T37" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38">
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44574</v>
+        <v>44166</v>
       </c>
       <c r="E38" t="n">
         <v>13</v>
@@ -3395,41 +3395,41 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M38" t="n">
-        <v>480</v>
+        <v>120</v>
       </c>
       <c r="N38" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="O38" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="P38" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S38" t="n">
-        <v>833</v>
+        <v>800</v>
       </c>
       <c r="T38" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39">
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44546</v>
+        <v>44540</v>
       </c>
       <c r="E39" t="n">
         <v>13</v>
@@ -3475,29 +3475,29 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>Dina</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M39" t="n">
-        <v>380</v>
+        <v>330</v>
       </c>
       <c r="N39" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="O39" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="P39" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
@@ -3506,10 +3506,10 @@
         </is>
       </c>
       <c r="S39" t="n">
-        <v>1200</v>
+        <v>889</v>
       </c>
       <c r="T39" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40">
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44546</v>
+        <v>44540</v>
       </c>
       <c r="E40" t="n">
         <v>13</v>
@@ -3555,29 +3555,29 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Dina</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M40" t="n">
-        <v>330</v>
+        <v>280</v>
       </c>
       <c r="N40" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O40" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P40" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
@@ -3586,10 +3586,10 @@
         </is>
       </c>
       <c r="S40" t="n">
-        <v>1000</v>
+        <v>778</v>
       </c>
       <c r="T40" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41">
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44546</v>
+        <v>44525</v>
       </c>
       <c r="E41" t="n">
         <v>13</v>
@@ -3635,41 +3635,41 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Dina</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M41" t="n">
         <v>300</v>
       </c>
       <c r="N41" t="n">
-        <v>8000</v>
+        <v>25200</v>
       </c>
       <c r="O41" t="n">
-        <v>8000</v>
+        <v>25200</v>
       </c>
       <c r="P41" t="n">
-        <v>8000</v>
+        <v>25200</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S41" t="n">
-        <v>800</v>
+        <v>1400</v>
       </c>
       <c r="T41" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42">
@@ -3687,7 +3687,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44159</v>
+        <v>44525</v>
       </c>
       <c r="E42" t="n">
         <v>13</v>
@@ -3724,20 +3724,20 @@
         </is>
       </c>
       <c r="M42" t="n">
-        <v>80</v>
+        <v>250</v>
       </c>
       <c r="N42" t="n">
-        <v>8000</v>
+        <v>21600</v>
       </c>
       <c r="O42" t="n">
-        <v>8000</v>
+        <v>21600</v>
       </c>
       <c r="P42" t="n">
-        <v>8000</v>
+        <v>21600</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R42" t="inlineStr">
@@ -3746,10 +3746,10 @@
         </is>
       </c>
       <c r="S42" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="T42" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43">
@@ -3767,7 +3767,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44159</v>
+        <v>44536</v>
       </c>
       <c r="E43" t="n">
         <v>13</v>
@@ -3800,20 +3800,20 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M43" t="n">
-        <v>65</v>
+        <v>220</v>
       </c>
       <c r="N43" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="O43" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="P43" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
@@ -3822,11 +3822,11 @@
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S43" t="n">
-        <v>700</v>
+        <v>1100</v>
       </c>
       <c r="T43" t="n">
         <v>10</v>
@@ -3847,7 +3847,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44560</v>
+        <v>44536</v>
       </c>
       <c r="E44" t="n">
         <v>13</v>
@@ -3875,41 +3875,41 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>Helena</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M44" t="n">
-        <v>410</v>
+        <v>250</v>
       </c>
       <c r="N44" t="n">
-        <v>18000</v>
+        <v>7000</v>
       </c>
       <c r="O44" t="n">
-        <v>18000</v>
+        <v>7000</v>
       </c>
       <c r="P44" t="n">
-        <v>18000</v>
+        <v>7000</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S44" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="T44" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="45">
@@ -3927,7 +3927,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44560</v>
+        <v>44175</v>
       </c>
       <c r="E45" t="n">
         <v>13</v>
@@ -3955,7 +3955,7 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>Helena</t>
+          <t>Modesto</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
@@ -3964,20 +3964,20 @@
         </is>
       </c>
       <c r="M45" t="n">
-        <v>330</v>
+        <v>140</v>
       </c>
       <c r="N45" t="n">
-        <v>14400</v>
+        <v>11000</v>
       </c>
       <c r="O45" t="n">
-        <v>14400</v>
+        <v>12000</v>
       </c>
       <c r="P45" t="n">
-        <v>14400</v>
+        <v>11571</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
@@ -3986,10 +3986,10 @@
         </is>
       </c>
       <c r="S45" t="n">
-        <v>800</v>
+        <v>964</v>
       </c>
       <c r="T45" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46">
@@ -4007,7 +4007,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44560</v>
+        <v>44553</v>
       </c>
       <c r="E46" t="n">
         <v>13</v>
@@ -4035,29 +4035,29 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Helena</t>
+          <t>Dina</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M46" t="n">
-        <v>380</v>
+        <v>280</v>
       </c>
       <c r="N46" t="n">
-        <v>12600</v>
+        <v>7500</v>
       </c>
       <c r="O46" t="n">
-        <v>12600</v>
+        <v>7500</v>
       </c>
       <c r="P46" t="n">
-        <v>12600</v>
+        <v>7500</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bandeja 6 kilos</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
@@ -4066,10 +4066,10 @@
         </is>
       </c>
       <c r="S46" t="n">
-        <v>700</v>
+        <v>1250</v>
       </c>
       <c r="T46" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="47">
@@ -4087,7 +4087,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44194</v>
+        <v>44553</v>
       </c>
       <c r="E47" t="n">
         <v>13</v>
@@ -4115,7 +4115,7 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Dina</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
@@ -4124,20 +4124,20 @@
         </is>
       </c>
       <c r="M47" t="n">
-        <v>120</v>
+        <v>350</v>
       </c>
       <c r="N47" t="n">
-        <v>13000</v>
+        <v>6500</v>
       </c>
       <c r="O47" t="n">
-        <v>13000</v>
+        <v>6500</v>
       </c>
       <c r="P47" t="n">
-        <v>13000</v>
+        <v>6500</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 6 kilos</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
@@ -4146,10 +4146,10 @@
         </is>
       </c>
       <c r="S47" t="n">
-        <v>867</v>
+        <v>1083</v>
       </c>
       <c r="T47" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="48">
@@ -4167,7 +4167,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44539</v>
+        <v>44553</v>
       </c>
       <c r="E48" t="n">
         <v>13</v>
@@ -4195,29 +4195,29 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M48" t="n">
-        <v>290</v>
+        <v>380</v>
       </c>
       <c r="N48" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="O48" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="P48" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R48" t="inlineStr">
@@ -4226,7 +4226,7 @@
         </is>
       </c>
       <c r="S48" t="n">
-        <v>1000</v>
+        <v>778</v>
       </c>
       <c r="T48" t="n">
         <v>18</v>
@@ -4247,7 +4247,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44539</v>
+        <v>44553</v>
       </c>
       <c r="E49" t="n">
         <v>13</v>
@@ -4275,29 +4275,29 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M49" t="n">
-        <v>300</v>
+        <v>410</v>
       </c>
       <c r="N49" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="O49" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="P49" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R49" t="inlineStr">
@@ -4306,7 +4306,7 @@
         </is>
       </c>
       <c r="S49" t="n">
-        <v>889</v>
+        <v>667</v>
       </c>
       <c r="T49" t="n">
         <v>18</v>
@@ -4327,7 +4327,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44539</v>
+        <v>44550</v>
       </c>
       <c r="E50" t="n">
         <v>13</v>
@@ -4360,36 +4360,36 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M50" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="N50" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="O50" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="P50" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R50" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S50" t="n">
-        <v>778</v>
+        <v>800</v>
       </c>
       <c r="T50" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="51">
@@ -4407,7 +4407,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44547</v>
+        <v>44550</v>
       </c>
       <c r="E51" t="n">
         <v>13</v>
@@ -4435,25 +4435,25 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>Dina</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M51" t="n">
-        <v>450</v>
+        <v>120</v>
       </c>
       <c r="N51" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="O51" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="P51" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
@@ -4462,11 +4462,11 @@
       </c>
       <c r="R51" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S51" t="n">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="T51" t="n">
         <v>10</v>
@@ -4487,7 +4487,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44547</v>
+        <v>44560</v>
       </c>
       <c r="E52" t="n">
         <v>13</v>
@@ -4515,29 +4515,29 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Dina</t>
+          <t>Helena</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M52" t="n">
         <v>410</v>
       </c>
       <c r="N52" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="O52" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="P52" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R52" t="inlineStr">
@@ -4549,7 +4549,7 @@
         <v>1000</v>
       </c>
       <c r="T52" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="53">
@@ -4567,7 +4567,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44547</v>
+        <v>44560</v>
       </c>
       <c r="E53" t="n">
         <v>13</v>
@@ -4595,29 +4595,29 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>Dina</t>
+          <t>Helena</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M53" t="n">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="N53" t="n">
-        <v>8000</v>
+        <v>14400</v>
       </c>
       <c r="O53" t="n">
-        <v>8000</v>
+        <v>14400</v>
       </c>
       <c r="P53" t="n">
-        <v>8000</v>
+        <v>14400</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R53" t="inlineStr">
@@ -4629,7 +4629,7 @@
         <v>800</v>
       </c>
       <c r="T53" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="54">
@@ -4647,7 +4647,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44166</v>
+        <v>44560</v>
       </c>
       <c r="E54" t="n">
         <v>13</v>
@@ -4675,41 +4675,41 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Helena</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M54" t="n">
-        <v>120</v>
+        <v>380</v>
       </c>
       <c r="N54" t="n">
-        <v>10000</v>
+        <v>12600</v>
       </c>
       <c r="O54" t="n">
-        <v>10000</v>
+        <v>12600</v>
       </c>
       <c r="P54" t="n">
-        <v>10000</v>
+        <v>12600</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R54" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S54" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="T54" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55">
@@ -4727,7 +4727,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44166</v>
+        <v>44519</v>
       </c>
       <c r="E55" t="n">
         <v>13</v>
@@ -4760,36 +4760,36 @@
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M55" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="N55" t="n">
-        <v>8000</v>
+        <v>22500</v>
       </c>
       <c r="O55" t="n">
-        <v>8000</v>
+        <v>22500</v>
       </c>
       <c r="P55" t="n">
-        <v>8000</v>
+        <v>22500</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R55" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S55" t="n">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="T55" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="56">
@@ -4807,7 +4807,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44175</v>
+        <v>44167</v>
       </c>
       <c r="E56" t="n">
         <v>13</v>
@@ -4835,29 +4835,29 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>Modesto</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M56" t="n">
-        <v>140</v>
+        <v>85</v>
       </c>
       <c r="N56" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O56" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P56" t="n">
-        <v>11571</v>
+        <v>10000</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R56" t="inlineStr">
@@ -4866,10 +4866,10 @@
         </is>
       </c>
       <c r="S56" t="n">
-        <v>964</v>
+        <v>1000</v>
       </c>
       <c r="T56" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="57">
@@ -4887,7 +4887,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44566</v>
+        <v>44167</v>
       </c>
       <c r="E57" t="n">
         <v>13</v>
@@ -4915,41 +4915,41 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M57" t="n">
-        <v>410</v>
+        <v>120</v>
       </c>
       <c r="N57" t="n">
-        <v>18000</v>
+        <v>9500</v>
       </c>
       <c r="O57" t="n">
-        <v>18000</v>
+        <v>9500</v>
       </c>
       <c r="P57" t="n">
-        <v>18000</v>
+        <v>9500</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R57" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S57" t="n">
-        <v>1000</v>
+        <v>950</v>
       </c>
       <c r="T57" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="58">
@@ -4967,7 +4967,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44566</v>
+        <v>44167</v>
       </c>
       <c r="E58" t="n">
         <v>13</v>
@@ -4995,7 +4995,7 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
@@ -5004,16 +5004,16 @@
         </is>
       </c>
       <c r="M58" t="n">
-        <v>350</v>
+        <v>60</v>
       </c>
       <c r="N58" t="n">
-        <v>14400</v>
+        <v>15000</v>
       </c>
       <c r="O58" t="n">
-        <v>14400</v>
+        <v>15000</v>
       </c>
       <c r="P58" t="n">
-        <v>14400</v>
+        <v>15000</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
@@ -5022,11 +5022,11 @@
       </c>
       <c r="R58" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S58" t="n">
-        <v>800</v>
+        <v>833</v>
       </c>
       <c r="T58" t="n">
         <v>18</v>
@@ -5047,7 +5047,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44195</v>
+        <v>44551</v>
       </c>
       <c r="E59" t="n">
         <v>13</v>
@@ -5075,41 +5075,41 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Dina</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M59" t="n">
-        <v>124</v>
+        <v>220</v>
       </c>
       <c r="N59" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="O59" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="P59" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R59" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S59" t="n">
-        <v>867</v>
+        <v>1000</v>
       </c>
       <c r="T59" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="60">
@@ -5127,7 +5127,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44554</v>
+        <v>44551</v>
       </c>
       <c r="E60" t="n">
         <v>13</v>
@@ -5155,7 +5155,7 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Dina</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
@@ -5164,29 +5164,29 @@
         </is>
       </c>
       <c r="M60" t="n">
-        <v>410</v>
+        <v>350</v>
       </c>
       <c r="N60" t="n">
-        <v>14000</v>
+        <v>14400</v>
       </c>
       <c r="O60" t="n">
-        <v>14000</v>
+        <v>14400</v>
       </c>
       <c r="P60" t="n">
-        <v>14000</v>
+        <v>14400</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R60" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S60" t="n">
-        <v>778</v>
+        <v>800</v>
       </c>
       <c r="T60" t="n">
         <v>18</v>
@@ -5207,7 +5207,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44554</v>
+        <v>44572</v>
       </c>
       <c r="E61" t="n">
         <v>13</v>
@@ -5240,20 +5240,20 @@
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M61" t="n">
-        <v>380</v>
+        <v>580</v>
       </c>
       <c r="N61" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O61" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P61" t="n">
-        <v>12000</v>
+        <v>14517</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         </is>
       </c>
       <c r="S61" t="n">
-        <v>667</v>
+        <v>806</v>
       </c>
       <c r="T61" t="n">
         <v>18</v>
@@ -5287,7 +5287,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44162</v>
+        <v>44544</v>
       </c>
       <c r="E62" t="n">
         <v>13</v>
@@ -5315,29 +5315,29 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Dina</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M62" t="n">
-        <v>70</v>
+        <v>330</v>
       </c>
       <c r="N62" t="n">
-        <v>8500</v>
+        <v>15000</v>
       </c>
       <c r="O62" t="n">
-        <v>8500</v>
+        <v>15000</v>
       </c>
       <c r="P62" t="n">
-        <v>8500</v>
+        <v>15000</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R62" t="inlineStr">
@@ -5346,10 +5346,10 @@
         </is>
       </c>
       <c r="S62" t="n">
-        <v>850</v>
+        <v>1000</v>
       </c>
       <c r="T62" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="63">
@@ -5367,7 +5367,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44162</v>
+        <v>44544</v>
       </c>
       <c r="E63" t="n">
         <v>13</v>
@@ -5395,7 +5395,7 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Dina</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
@@ -5404,20 +5404,20 @@
         </is>
       </c>
       <c r="M63" t="n">
-        <v>75</v>
+        <v>350</v>
       </c>
       <c r="N63" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O63" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P63" t="n">
-        <v>14400</v>
+        <v>12000</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R63" t="inlineStr">
@@ -5429,7 +5429,7 @@
         <v>800</v>
       </c>
       <c r="T63" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="64">
@@ -5447,7 +5447,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44536</v>
+        <v>44176</v>
       </c>
       <c r="E64" t="n">
         <v>13</v>
@@ -5475,7 +5475,7 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Modesto</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
@@ -5484,32 +5484,32 @@
         </is>
       </c>
       <c r="M64" t="n">
-        <v>220</v>
+        <v>115</v>
       </c>
       <c r="N64" t="n">
         <v>11000</v>
       </c>
       <c r="O64" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P64" t="n">
-        <v>11000</v>
+        <v>11609</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="R64" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S64" t="n">
-        <v>1100</v>
+        <v>967</v>
       </c>
       <c r="T64" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65">
@@ -5527,7 +5527,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44536</v>
+        <v>44575</v>
       </c>
       <c r="E65" t="n">
         <v>13</v>
@@ -5555,41 +5555,41 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M65" t="n">
-        <v>250</v>
+        <v>480</v>
       </c>
       <c r="N65" t="n">
-        <v>7000</v>
+        <v>17000</v>
       </c>
       <c r="O65" t="n">
-        <v>7000</v>
+        <v>17000</v>
       </c>
       <c r="P65" t="n">
-        <v>7000</v>
+        <v>17000</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R65" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S65" t="n">
-        <v>700</v>
+        <v>944</v>
       </c>
       <c r="T65" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="66">
@@ -5607,7 +5607,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44573</v>
+        <v>44575</v>
       </c>
       <c r="E66" t="n">
         <v>13</v>
@@ -5640,20 +5640,20 @@
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M66" t="n">
-        <v>380</v>
+        <v>330</v>
       </c>
       <c r="N66" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="O66" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="P66" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
@@ -5666,7 +5666,7 @@
         </is>
       </c>
       <c r="S66" t="n">
-        <v>944</v>
+        <v>833</v>
       </c>
       <c r="T66" t="n">
         <v>18</v>
@@ -5687,7 +5687,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44573</v>
+        <v>44546</v>
       </c>
       <c r="E67" t="n">
         <v>13</v>
@@ -5715,41 +5715,41 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Dina</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M67" t="n">
-        <v>410</v>
+        <v>380</v>
       </c>
       <c r="N67" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O67" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P67" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R67" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S67" t="n">
-        <v>833</v>
+        <v>1200</v>
       </c>
       <c r="T67" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="68">
@@ -5767,7 +5767,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44573</v>
+        <v>44546</v>
       </c>
       <c r="E68" t="n">
         <v>13</v>
@@ -5795,41 +5795,41 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Dina</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M68" t="n">
         <v>330</v>
       </c>
       <c r="N68" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O68" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P68" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R68" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S68" t="n">
-        <v>722</v>
+        <v>1000</v>
       </c>
       <c r="T68" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="69">
@@ -5847,7 +5847,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44537</v>
+        <v>44546</v>
       </c>
       <c r="E69" t="n">
         <v>13</v>
@@ -5875,41 +5875,41 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Dina</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M69" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="N69" t="n">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="O69" t="n">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="P69" t="n">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R69" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S69" t="n">
-        <v>889</v>
+        <v>800</v>
       </c>
       <c r="T69" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="70">
@@ -5927,7 +5927,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44553</v>
+        <v>44523</v>
       </c>
       <c r="E70" t="n">
         <v>13</v>
@@ -5955,29 +5955,29 @@
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>Dina</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M70" t="n">
-        <v>280</v>
+        <v>320</v>
       </c>
       <c r="N70" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="O70" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="P70" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>$/bandeja 6 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R70" t="inlineStr">
@@ -5986,10 +5986,10 @@
         </is>
       </c>
       <c r="S70" t="n">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="T70" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="71">
@@ -6007,7 +6007,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44553</v>
+        <v>44547</v>
       </c>
       <c r="E71" t="n">
         <v>13</v>
@@ -6040,24 +6040,24 @@
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M71" t="n">
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="N71" t="n">
-        <v>6500</v>
+        <v>12000</v>
       </c>
       <c r="O71" t="n">
-        <v>6500</v>
+        <v>12000</v>
       </c>
       <c r="P71" t="n">
-        <v>6500</v>
+        <v>12000</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>$/bandeja 6 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R71" t="inlineStr">
@@ -6066,10 +6066,10 @@
         </is>
       </c>
       <c r="S71" t="n">
-        <v>1083</v>
+        <v>1200</v>
       </c>
       <c r="T71" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="72">
@@ -6087,7 +6087,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44553</v>
+        <v>44547</v>
       </c>
       <c r="E72" t="n">
         <v>13</v>
@@ -6115,7 +6115,7 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Dina</t>
         </is>
       </c>
       <c r="L72" t="inlineStr">
@@ -6124,20 +6124,20 @@
         </is>
       </c>
       <c r="M72" t="n">
-        <v>380</v>
+        <v>410</v>
       </c>
       <c r="N72" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O72" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P72" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R72" t="inlineStr">
@@ -6146,10 +6146,10 @@
         </is>
       </c>
       <c r="S72" t="n">
-        <v>778</v>
+        <v>1000</v>
       </c>
       <c r="T72" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="73">
@@ -6167,7 +6167,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44553</v>
+        <v>44547</v>
       </c>
       <c r="E73" t="n">
         <v>13</v>
@@ -6195,7 +6195,7 @@
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Dina</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
@@ -6204,20 +6204,20 @@
         </is>
       </c>
       <c r="M73" t="n">
-        <v>410</v>
+        <v>350</v>
       </c>
       <c r="N73" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O73" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P73" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R73" t="inlineStr">
@@ -6226,10 +6226,10 @@
         </is>
       </c>
       <c r="S73" t="n">
-        <v>667</v>
+        <v>800</v>
       </c>
       <c r="T73" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="74">
@@ -6247,7 +6247,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44557</v>
+        <v>44162</v>
       </c>
       <c r="E74" t="n">
         <v>13</v>
@@ -6275,41 +6275,41 @@
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M74" t="n">
-        <v>380</v>
+        <v>70</v>
       </c>
       <c r="N74" t="n">
-        <v>15000</v>
+        <v>8500</v>
       </c>
       <c r="O74" t="n">
-        <v>15000</v>
+        <v>8500</v>
       </c>
       <c r="P74" t="n">
-        <v>15000</v>
+        <v>8500</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R74" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S74" t="n">
-        <v>1000</v>
+        <v>850</v>
       </c>
       <c r="T74" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="75">
@@ -6327,7 +6327,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44557</v>
+        <v>44162</v>
       </c>
       <c r="E75" t="n">
         <v>13</v>
@@ -6355,7 +6355,7 @@
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
@@ -6364,32 +6364,32 @@
         </is>
       </c>
       <c r="M75" t="n">
-        <v>330</v>
+        <v>75</v>
       </c>
       <c r="N75" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O75" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P75" t="n">
-        <v>12000</v>
+        <v>14400</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R75" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S75" t="n">
         <v>800</v>
       </c>
       <c r="T75" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="76">
@@ -6407,7 +6407,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44572</v>
+        <v>44561</v>
       </c>
       <c r="E76" t="n">
         <v>13</v>
@@ -6440,33 +6440,33 @@
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M76" t="n">
-        <v>580</v>
+        <v>330</v>
       </c>
       <c r="N76" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="O76" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P76" t="n">
-        <v>14517</v>
+        <v>18000</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R76" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S76" t="n">
-        <v>806</v>
+        <v>1000</v>
       </c>
       <c r="T76" t="n">
         <v>18</v>
@@ -6487,7 +6487,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44174</v>
+        <v>44561</v>
       </c>
       <c r="E77" t="n">
         <v>13</v>
@@ -6515,7 +6515,7 @@
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>Modesto</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
@@ -6524,20 +6524,20 @@
         </is>
       </c>
       <c r="M77" t="n">
-        <v>120</v>
+        <v>350</v>
       </c>
       <c r="N77" t="n">
-        <v>8500</v>
+        <v>14400</v>
       </c>
       <c r="O77" t="n">
-        <v>8500</v>
+        <v>14400</v>
       </c>
       <c r="P77" t="n">
-        <v>8500</v>
+        <v>14400</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R77" t="inlineStr">
@@ -6546,10 +6546,10 @@
         </is>
       </c>
       <c r="S77" t="n">
-        <v>850</v>
+        <v>800</v>
       </c>
       <c r="T77" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="78">
@@ -6567,7 +6567,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44174</v>
+        <v>44561</v>
       </c>
       <c r="E78" t="n">
         <v>13</v>
@@ -6595,29 +6595,29 @@
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>Modesto</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M78" t="n">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="N78" t="n">
-        <v>15000</v>
+        <v>10800</v>
       </c>
       <c r="O78" t="n">
-        <v>15000</v>
+        <v>10800</v>
       </c>
       <c r="P78" t="n">
-        <v>15000</v>
+        <v>10800</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R78" t="inlineStr">
@@ -6626,7 +6626,7 @@
         </is>
       </c>
       <c r="S78" t="n">
-        <v>833</v>
+        <v>600</v>
       </c>
       <c r="T78" t="n">
         <v>18</v>
@@ -6647,7 +6647,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44174</v>
+        <v>44558</v>
       </c>
       <c r="E79" t="n">
         <v>13</v>
@@ -6675,41 +6675,41 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>Modesto</t>
+          <t>Helena</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M79" t="n">
-        <v>120</v>
+        <v>330</v>
       </c>
       <c r="N79" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="O79" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="P79" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R79" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S79" t="n">
-        <v>667</v>
+        <v>1000</v>
       </c>
       <c r="T79" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80">
@@ -6727,7 +6727,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44167</v>
+        <v>44558</v>
       </c>
       <c r="E80" t="n">
         <v>13</v>
@@ -6755,41 +6755,41 @@
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Helena</t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M80" t="n">
-        <v>85</v>
+        <v>350</v>
       </c>
       <c r="N80" t="n">
-        <v>10000</v>
+        <v>12800</v>
       </c>
       <c r="O80" t="n">
-        <v>10000</v>
+        <v>12800</v>
       </c>
       <c r="P80" t="n">
-        <v>10000</v>
+        <v>12800</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R80" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S80" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T80" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81">
@@ -6807,7 +6807,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44167</v>
+        <v>44558</v>
       </c>
       <c r="E81" t="n">
         <v>13</v>
@@ -6835,7 +6835,7 @@
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
@@ -6844,20 +6844,20 @@
         </is>
       </c>
       <c r="M81" t="n">
-        <v>120</v>
+        <v>410</v>
       </c>
       <c r="N81" t="n">
-        <v>9500</v>
+        <v>14000</v>
       </c>
       <c r="O81" t="n">
-        <v>9500</v>
+        <v>14000</v>
       </c>
       <c r="P81" t="n">
-        <v>9500</v>
+        <v>14000</v>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R81" t="inlineStr">
@@ -6866,10 +6866,10 @@
         </is>
       </c>
       <c r="S81" t="n">
-        <v>950</v>
+        <v>778</v>
       </c>
       <c r="T81" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="82">
@@ -6887,7 +6887,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44167</v>
+        <v>44558</v>
       </c>
       <c r="E82" t="n">
         <v>13</v>
@@ -6915,25 +6915,25 @@
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M82" t="n">
-        <v>60</v>
+        <v>380</v>
       </c>
       <c r="N82" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O82" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P82" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="S82" t="n">
-        <v>833</v>
+        <v>667</v>
       </c>
       <c r="T82" t="n">
         <v>18</v>
@@ -6967,7 +6967,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44552</v>
+        <v>44168</v>
       </c>
       <c r="E83" t="n">
         <v>13</v>
@@ -7004,16 +7004,16 @@
         </is>
       </c>
       <c r="M83" t="n">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="N83" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O83" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P83" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
@@ -7022,11 +7022,11 @@
       </c>
       <c r="R83" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S83" t="n">
-        <v>1000</v>
+        <v>1400</v>
       </c>
       <c r="T83" t="n">
         <v>10</v>
@@ -7047,7 +7047,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44552</v>
+        <v>44537</v>
       </c>
       <c r="E84" t="n">
         <v>13</v>
@@ -7075,7 +7075,7 @@
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>Dina</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L84" t="inlineStr">
@@ -7084,20 +7084,20 @@
         </is>
       </c>
       <c r="M84" t="n">
-        <v>220</v>
+        <v>400</v>
       </c>
       <c r="N84" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="O84" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="P84" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R84" t="inlineStr">
@@ -7106,10 +7106,10 @@
         </is>
       </c>
       <c r="S84" t="n">
-        <v>800</v>
+        <v>889</v>
       </c>
       <c r="T84" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="85">
@@ -7127,7 +7127,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44552</v>
+        <v>44189</v>
       </c>
       <c r="E85" t="n">
         <v>13</v>
@@ -7155,29 +7155,29 @@
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>Dina</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M85" t="n">
-        <v>350</v>
+        <v>130</v>
       </c>
       <c r="N85" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="O85" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="P85" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R85" t="inlineStr">
@@ -7186,10 +7186,10 @@
         </is>
       </c>
       <c r="S85" t="n">
-        <v>600</v>
+        <v>667</v>
       </c>
       <c r="T85" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="86">
@@ -7207,7 +7207,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44552</v>
+        <v>44559</v>
       </c>
       <c r="E86" t="n">
         <v>13</v>
@@ -7235,7 +7235,7 @@
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>Modesto</t>
+          <t>Helena</t>
         </is>
       </c>
       <c r="L86" t="inlineStr">
@@ -7244,32 +7244,32 @@
         </is>
       </c>
       <c r="M86" t="n">
-        <v>280</v>
+        <v>310</v>
       </c>
       <c r="N86" t="n">
-        <v>21600</v>
+        <v>15000</v>
       </c>
       <c r="O86" t="n">
-        <v>21600</v>
+        <v>15000</v>
       </c>
       <c r="P86" t="n">
-        <v>21600</v>
+        <v>15000</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R86" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S86" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="T86" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="87">
@@ -7287,7 +7287,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44552</v>
+        <v>44559</v>
       </c>
       <c r="E87" t="n">
         <v>13</v>
@@ -7315,7 +7315,7 @@
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>Modesto</t>
+          <t>Helena</t>
         </is>
       </c>
       <c r="L87" t="inlineStr">
@@ -7324,32 +7324,32 @@
         </is>
       </c>
       <c r="M87" t="n">
-        <v>310</v>
+        <v>350</v>
       </c>
       <c r="N87" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="O87" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="P87" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R87" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S87" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T87" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="88">
@@ -7367,7 +7367,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44552</v>
+        <v>44559</v>
       </c>
       <c r="E88" t="n">
         <v>13</v>
@@ -7395,29 +7395,29 @@
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>Modesto</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M88" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="N88" t="n">
-        <v>14400</v>
+        <v>18000</v>
       </c>
       <c r="O88" t="n">
-        <v>14400</v>
+        <v>18000</v>
       </c>
       <c r="P88" t="n">
-        <v>14400</v>
+        <v>18000</v>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R88" t="inlineStr">
@@ -7426,7 +7426,7 @@
         </is>
       </c>
       <c r="S88" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T88" t="n">
         <v>18</v>
@@ -7447,7 +7447,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44544</v>
+        <v>44559</v>
       </c>
       <c r="E89" t="n">
         <v>13</v>
@@ -7475,29 +7475,29 @@
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>Dina</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M89" t="n">
-        <v>330</v>
+        <v>380</v>
       </c>
       <c r="N89" t="n">
-        <v>15000</v>
+        <v>14400</v>
       </c>
       <c r="O89" t="n">
-        <v>15000</v>
+        <v>14400</v>
       </c>
       <c r="P89" t="n">
-        <v>15000</v>
+        <v>14400</v>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R89" t="inlineStr">
@@ -7506,10 +7506,10 @@
         </is>
       </c>
       <c r="S89" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T89" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="90">
@@ -7527,7 +7527,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44544</v>
+        <v>44533</v>
       </c>
       <c r="E90" t="n">
         <v>13</v>
@@ -7555,7 +7555,7 @@
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>Dina</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L90" t="inlineStr">
@@ -7564,16 +7564,16 @@
         </is>
       </c>
       <c r="M90" t="n">
-        <v>350</v>
+        <v>410</v>
       </c>
       <c r="N90" t="n">
-        <v>12000</v>
+        <v>16500</v>
       </c>
       <c r="O90" t="n">
-        <v>12000</v>
+        <v>16500</v>
       </c>
       <c r="P90" t="n">
-        <v>12000</v>
+        <v>16500</v>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
@@ -7586,7 +7586,7 @@
         </is>
       </c>
       <c r="S90" t="n">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="T90" t="n">
         <v>15</v>
@@ -7607,7 +7607,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44160</v>
+        <v>44533</v>
       </c>
       <c r="E91" t="n">
         <v>13</v>
@@ -7640,24 +7640,24 @@
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M91" t="n">
-        <v>25</v>
+        <v>300</v>
       </c>
       <c r="N91" t="n">
-        <v>8000</v>
+        <v>10500</v>
       </c>
       <c r="O91" t="n">
-        <v>8000</v>
+        <v>10500</v>
       </c>
       <c r="P91" t="n">
-        <v>8000</v>
+        <v>10500</v>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R91" t="inlineStr">
@@ -7666,10 +7666,10 @@
         </is>
       </c>
       <c r="S91" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="T91" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="92">
@@ -7687,7 +7687,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44160</v>
+        <v>44533</v>
       </c>
       <c r="E92" t="n">
         <v>13</v>
@@ -7720,24 +7720,24 @@
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M92" t="n">
-        <v>40</v>
+        <v>250</v>
       </c>
       <c r="N92" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="O92" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="P92" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R92" t="inlineStr">
@@ -7746,10 +7746,10 @@
         </is>
       </c>
       <c r="S92" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="T92" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Damasco.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Damasco.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44195</v>
+        <v>44194</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="N2" t="n">
         <v>13000</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44573</v>
+        <v>44537</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -595,25 +595,25 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>380</v>
+        <v>400</v>
       </c>
       <c r="N3" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O3" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P3" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>944</v>
+        <v>889</v>
       </c>
       <c r="T3" t="n">
         <v>18</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44573</v>
+        <v>44566</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -680,20 +680,20 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M4" t="n">
         <v>410</v>
       </c>
       <c r="N4" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O4" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P4" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -702,11 +702,11 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S4" t="n">
-        <v>833</v>
+        <v>1000</v>
       </c>
       <c r="T4" t="n">
         <v>18</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44573</v>
+        <v>44566</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -760,20 +760,20 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>330</v>
+        <v>350</v>
       </c>
       <c r="N5" t="n">
-        <v>13000</v>
+        <v>14400</v>
       </c>
       <c r="O5" t="n">
-        <v>13000</v>
+        <v>14400</v>
       </c>
       <c r="P5" t="n">
-        <v>13000</v>
+        <v>14400</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -782,11 +782,11 @@
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S5" t="n">
-        <v>722</v>
+        <v>800</v>
       </c>
       <c r="T5" t="n">
         <v>18</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44557</v>
+        <v>44167</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -835,7 +835,7 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -844,32 +844,32 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>380</v>
+        <v>85</v>
       </c>
       <c r="N6" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O6" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P6" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S6" t="n">
         <v>1000</v>
       </c>
       <c r="T6" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44557</v>
+        <v>44167</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -915,7 +915,7 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -924,32 +924,32 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>330</v>
+        <v>120</v>
       </c>
       <c r="N7" t="n">
-        <v>12000</v>
+        <v>9500</v>
       </c>
       <c r="O7" t="n">
-        <v>12000</v>
+        <v>9500</v>
       </c>
       <c r="P7" t="n">
-        <v>12000</v>
+        <v>9500</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S7" t="n">
-        <v>800</v>
+        <v>950</v>
       </c>
       <c r="T7" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44566</v>
+        <v>44167</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -995,25 +995,25 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>410</v>
+        <v>60</v>
       </c>
       <c r="N8" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="O8" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="P8" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1022,11 +1022,11 @@
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1000</v>
+        <v>833</v>
       </c>
       <c r="T8" t="n">
         <v>18</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44566</v>
+        <v>44550</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1075,7 +1075,7 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
@@ -1084,20 +1084,20 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>350</v>
+        <v>150</v>
       </c>
       <c r="N9" t="n">
-        <v>14400</v>
+        <v>8000</v>
       </c>
       <c r="O9" t="n">
-        <v>14400</v>
+        <v>8000</v>
       </c>
       <c r="P9" t="n">
-        <v>14400</v>
+        <v>8000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
@@ -1109,7 +1109,7 @@
         <v>800</v>
       </c>
       <c r="T9" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44174</v>
+        <v>44550</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1155,25 +1155,25 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Modesto</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M10" t="n">
         <v>120</v>
       </c>
       <c r="N10" t="n">
-        <v>8500</v>
+        <v>6000</v>
       </c>
       <c r="O10" t="n">
-        <v>8500</v>
+        <v>6000</v>
       </c>
       <c r="P10" t="n">
-        <v>8500</v>
+        <v>6000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1182,11 +1182,11 @@
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S10" t="n">
-        <v>850</v>
+        <v>600</v>
       </c>
       <c r="T10" t="n">
         <v>10</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44174</v>
+        <v>44574</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1235,25 +1235,25 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Modesto</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>180</v>
+        <v>350</v>
       </c>
       <c r="N11" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O11" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P11" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1262,11 +1262,11 @@
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S11" t="n">
-        <v>833</v>
+        <v>1000</v>
       </c>
       <c r="T11" t="n">
         <v>18</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44174</v>
+        <v>44574</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1315,25 +1315,25 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Modesto</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>120</v>
+        <v>480</v>
       </c>
       <c r="N12" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O12" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P12" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1342,11 +1342,11 @@
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S12" t="n">
-        <v>667</v>
+        <v>833</v>
       </c>
       <c r="T12" t="n">
         <v>18</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44545</v>
+        <v>44174</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1395,41 +1395,41 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Modesto</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>310</v>
+        <v>120</v>
       </c>
       <c r="N13" t="n">
-        <v>18000</v>
+        <v>8500</v>
       </c>
       <c r="O13" t="n">
-        <v>18000</v>
+        <v>8500</v>
       </c>
       <c r="P13" t="n">
-        <v>18000</v>
+        <v>8500</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1000</v>
+        <v>850</v>
       </c>
       <c r="T13" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14">
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44545</v>
+        <v>44174</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1475,7 +1475,7 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Modesto</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>350</v>
+        <v>180</v>
       </c>
       <c r="N14" t="n">
-        <v>14400</v>
+        <v>15000</v>
       </c>
       <c r="O14" t="n">
-        <v>14400</v>
+        <v>15000</v>
       </c>
       <c r="P14" t="n">
-        <v>14400</v>
+        <v>15000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1502,11 +1502,11 @@
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S14" t="n">
-        <v>800</v>
+        <v>833</v>
       </c>
       <c r="T14" t="n">
         <v>18</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44539</v>
+        <v>44174</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1555,38 +1555,38 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Modesto</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>290</v>
+        <v>120</v>
       </c>
       <c r="N15" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="O15" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="P15" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1000</v>
+        <v>667</v>
       </c>
       <c r="T15" t="n">
         <v>18</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44539</v>
+        <v>44168</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1635,41 +1635,41 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Dina</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>300</v>
+        <v>40</v>
       </c>
       <c r="N16" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O16" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="P16" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S16" t="n">
-        <v>889</v>
+        <v>1400</v>
       </c>
       <c r="T16" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17">
@@ -1720,20 +1720,20 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="N17" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="O17" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="P17" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>778</v>
+        <v>1000</v>
       </c>
       <c r="T17" t="n">
         <v>18</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44187</v>
+        <v>44539</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1795,7 +1795,7 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
@@ -1804,20 +1804,20 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="N18" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="O18" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P18" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
@@ -1826,10 +1826,10 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>1000</v>
+        <v>889</v>
       </c>
       <c r="T18" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19">
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44187</v>
+        <v>44539</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
@@ -1875,7 +1875,7 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
@@ -1884,20 +1884,20 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>95</v>
+        <v>300</v>
       </c>
       <c r="N19" t="n">
-        <v>13500</v>
+        <v>14000</v>
       </c>
       <c r="O19" t="n">
-        <v>13500</v>
+        <v>14000</v>
       </c>
       <c r="P19" t="n">
-        <v>13500</v>
+        <v>14000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
@@ -1906,10 +1906,10 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>900</v>
+        <v>778</v>
       </c>
       <c r="T19" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20">
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44187</v>
+        <v>44545</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1955,41 +1955,41 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>120</v>
+        <v>310</v>
       </c>
       <c r="N20" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="O20" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="P20" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S20" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T20" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21">
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44160</v>
+        <v>44545</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -2044,32 +2044,32 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>25</v>
+        <v>350</v>
       </c>
       <c r="N21" t="n">
-        <v>8000</v>
+        <v>14400</v>
       </c>
       <c r="O21" t="n">
-        <v>8000</v>
+        <v>14400</v>
       </c>
       <c r="P21" t="n">
-        <v>8000</v>
+        <v>14400</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S21" t="n">
         <v>800</v>
       </c>
       <c r="T21" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22">
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44160</v>
+        <v>44540</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
@@ -2120,36 +2120,36 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>40</v>
+        <v>330</v>
       </c>
       <c r="N22" t="n">
-        <v>7000</v>
+        <v>16000</v>
       </c>
       <c r="O22" t="n">
-        <v>7000</v>
+        <v>16000</v>
       </c>
       <c r="P22" t="n">
-        <v>7000</v>
+        <v>16000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S22" t="n">
-        <v>700</v>
+        <v>889</v>
       </c>
       <c r="T22" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23">
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44194</v>
+        <v>44540</v>
       </c>
       <c r="E23" t="n">
         <v>13</v>
@@ -2195,41 +2195,41 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>120</v>
+        <v>280</v>
       </c>
       <c r="N23" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O23" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P23" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S23" t="n">
-        <v>867</v>
+        <v>778</v>
       </c>
       <c r="T23" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24">
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44574</v>
+        <v>44189</v>
       </c>
       <c r="E24" t="n">
         <v>13</v>
@@ -2280,20 +2280,20 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M24" t="n">
-        <v>350</v>
+        <v>130</v>
       </c>
       <c r="N24" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="O24" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="P24" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>1000</v>
+        <v>667</v>
       </c>
       <c r="T24" t="n">
         <v>18</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44574</v>
+        <v>44561</v>
       </c>
       <c r="E25" t="n">
         <v>13</v>
@@ -2360,33 +2360,33 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>480</v>
+        <v>330</v>
       </c>
       <c r="N25" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O25" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P25" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S25" t="n">
-        <v>833</v>
+        <v>1000</v>
       </c>
       <c r="T25" t="n">
         <v>18</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44159</v>
+        <v>44561</v>
       </c>
       <c r="E26" t="n">
         <v>13</v>
@@ -2435,7 +2435,7 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
@@ -2444,32 +2444,32 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>80</v>
+        <v>350</v>
       </c>
       <c r="N26" t="n">
-        <v>8000</v>
+        <v>14400</v>
       </c>
       <c r="O26" t="n">
-        <v>8000</v>
+        <v>14400</v>
       </c>
       <c r="P26" t="n">
-        <v>8000</v>
+        <v>14400</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S26" t="n">
         <v>800</v>
       </c>
       <c r="T26" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27">
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44159</v>
+        <v>44561</v>
       </c>
       <c r="E27" t="n">
         <v>13</v>
@@ -2515,7 +2515,7 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
@@ -2524,32 +2524,32 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>65</v>
+        <v>300</v>
       </c>
       <c r="N27" t="n">
-        <v>7000</v>
+        <v>10800</v>
       </c>
       <c r="O27" t="n">
-        <v>7000</v>
+        <v>10800</v>
       </c>
       <c r="P27" t="n">
-        <v>7000</v>
+        <v>10800</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S27" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="T27" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28">
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44552</v>
+        <v>44558</v>
       </c>
       <c r="E28" t="n">
         <v>13</v>
@@ -2595,7 +2595,7 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Dina</t>
+          <t>Helena</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
@@ -2604,32 +2604,32 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>200</v>
+        <v>330</v>
       </c>
       <c r="N28" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="O28" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="P28" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S28" t="n">
         <v>1000</v>
       </c>
       <c r="T28" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29">
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44552</v>
+        <v>44558</v>
       </c>
       <c r="E29" t="n">
         <v>13</v>
@@ -2675,7 +2675,7 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Dina</t>
+          <t>Helena</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
@@ -2684,32 +2684,32 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>220</v>
+        <v>350</v>
       </c>
       <c r="N29" t="n">
-        <v>8000</v>
+        <v>12800</v>
       </c>
       <c r="O29" t="n">
-        <v>8000</v>
+        <v>12800</v>
       </c>
       <c r="P29" t="n">
-        <v>8000</v>
+        <v>12800</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S29" t="n">
         <v>800</v>
       </c>
       <c r="T29" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30">
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44552</v>
+        <v>44558</v>
       </c>
       <c r="E30" t="n">
         <v>13</v>
@@ -2755,29 +2755,29 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Dina</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>350</v>
+        <v>410</v>
       </c>
       <c r="N30" t="n">
-        <v>6000</v>
+        <v>14000</v>
       </c>
       <c r="O30" t="n">
-        <v>6000</v>
+        <v>14000</v>
       </c>
       <c r="P30" t="n">
-        <v>6000</v>
+        <v>14000</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
@@ -2786,10 +2786,10 @@
         </is>
       </c>
       <c r="S30" t="n">
-        <v>600</v>
+        <v>778</v>
       </c>
       <c r="T30" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31">
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44552</v>
+        <v>44558</v>
       </c>
       <c r="E31" t="n">
         <v>13</v>
@@ -2835,29 +2835,29 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Modesto</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M31" t="n">
-        <v>280</v>
+        <v>380</v>
       </c>
       <c r="N31" t="n">
-        <v>21600</v>
+        <v>12000</v>
       </c>
       <c r="O31" t="n">
-        <v>21600</v>
+        <v>12000</v>
       </c>
       <c r="P31" t="n">
-        <v>21600</v>
+        <v>12000</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
@@ -2866,7 +2866,7 @@
         </is>
       </c>
       <c r="S31" t="n">
-        <v>1200</v>
+        <v>667</v>
       </c>
       <c r="T31" t="n">
         <v>18</v>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44552</v>
+        <v>44525</v>
       </c>
       <c r="E32" t="n">
         <v>13</v>
@@ -2915,29 +2915,29 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>Modesto</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M32" t="n">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="N32" t="n">
-        <v>18000</v>
+        <v>25200</v>
       </c>
       <c r="O32" t="n">
-        <v>18000</v>
+        <v>25200</v>
       </c>
       <c r="P32" t="n">
-        <v>18000</v>
+        <v>25200</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="S32" t="n">
-        <v>1000</v>
+        <v>1400</v>
       </c>
       <c r="T32" t="n">
         <v>18</v>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44552</v>
+        <v>44525</v>
       </c>
       <c r="E33" t="n">
         <v>13</v>
@@ -2995,29 +2995,29 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>Modesto</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M33" t="n">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="N33" t="n">
-        <v>14400</v>
+        <v>21600</v>
       </c>
       <c r="O33" t="n">
-        <v>14400</v>
+        <v>21600</v>
       </c>
       <c r="P33" t="n">
-        <v>14400</v>
+        <v>21600</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="S33" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="T33" t="n">
         <v>18</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44554</v>
+        <v>44519</v>
       </c>
       <c r="E34" t="n">
         <v>13</v>
@@ -3075,7 +3075,7 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
@@ -3084,32 +3084,32 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>410</v>
+        <v>300</v>
       </c>
       <c r="N34" t="n">
-        <v>14000</v>
+        <v>22500</v>
       </c>
       <c r="O34" t="n">
-        <v>14000</v>
+        <v>22500</v>
       </c>
       <c r="P34" t="n">
-        <v>14000</v>
+        <v>22500</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S34" t="n">
-        <v>778</v>
+        <v>1500</v>
       </c>
       <c r="T34" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35">
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44554</v>
+        <v>44536</v>
       </c>
       <c r="E35" t="n">
         <v>13</v>
@@ -3155,41 +3155,41 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M35" t="n">
-        <v>380</v>
+        <v>220</v>
       </c>
       <c r="N35" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="O35" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="P35" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S35" t="n">
-        <v>667</v>
+        <v>1100</v>
       </c>
       <c r="T35" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36">
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44169</v>
+        <v>44536</v>
       </c>
       <c r="E36" t="n">
         <v>13</v>
@@ -3235,25 +3235,25 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>Dina</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M36" t="n">
-        <v>80</v>
+        <v>250</v>
       </c>
       <c r="N36" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O36" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P36" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -3262,11 +3262,11 @@
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S36" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="T36" t="n">
         <v>10</v>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44540</v>
+        <v>44557</v>
       </c>
       <c r="E39" t="n">
         <v>13</v>
@@ -3475,29 +3475,29 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M39" t="n">
-        <v>330</v>
+        <v>380</v>
       </c>
       <c r="N39" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="O39" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P39" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
@@ -3506,10 +3506,10 @@
         </is>
       </c>
       <c r="S39" t="n">
-        <v>889</v>
+        <v>1000</v>
       </c>
       <c r="T39" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="40">
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44540</v>
+        <v>44557</v>
       </c>
       <c r="E40" t="n">
         <v>13</v>
@@ -3555,29 +3555,29 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M40" t="n">
-        <v>280</v>
+        <v>330</v>
       </c>
       <c r="N40" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O40" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P40" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
@@ -3586,10 +3586,10 @@
         </is>
       </c>
       <c r="S40" t="n">
-        <v>778</v>
+        <v>800</v>
       </c>
       <c r="T40" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="41">
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44525</v>
+        <v>44176</v>
       </c>
       <c r="E41" t="n">
         <v>13</v>
@@ -3635,29 +3635,29 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Modesto</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M41" t="n">
-        <v>300</v>
+        <v>115</v>
       </c>
       <c r="N41" t="n">
-        <v>25200</v>
+        <v>11000</v>
       </c>
       <c r="O41" t="n">
-        <v>25200</v>
+        <v>12000</v>
       </c>
       <c r="P41" t="n">
-        <v>25200</v>
+        <v>11609</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
@@ -3666,10 +3666,10 @@
         </is>
       </c>
       <c r="S41" t="n">
-        <v>1400</v>
+        <v>967</v>
       </c>
       <c r="T41" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42">
@@ -3687,7 +3687,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44525</v>
+        <v>44175</v>
       </c>
       <c r="E42" t="n">
         <v>13</v>
@@ -3715,7 +3715,7 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Modesto</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
@@ -3724,20 +3724,20 @@
         </is>
       </c>
       <c r="M42" t="n">
-        <v>250</v>
+        <v>140</v>
       </c>
       <c r="N42" t="n">
-        <v>21600</v>
+        <v>11000</v>
       </c>
       <c r="O42" t="n">
-        <v>21600</v>
+        <v>12000</v>
       </c>
       <c r="P42" t="n">
-        <v>21600</v>
+        <v>11571</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="R42" t="inlineStr">
@@ -3746,10 +3746,10 @@
         </is>
       </c>
       <c r="S42" t="n">
-        <v>1200</v>
+        <v>964</v>
       </c>
       <c r="T42" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43">
@@ -3767,7 +3767,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44536</v>
+        <v>44169</v>
       </c>
       <c r="E43" t="n">
         <v>13</v>
@@ -3795,7 +3795,7 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Dina</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
@@ -3804,16 +3804,16 @@
         </is>
       </c>
       <c r="M43" t="n">
-        <v>220</v>
+        <v>80</v>
       </c>
       <c r="N43" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O43" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P43" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
@@ -3822,11 +3822,11 @@
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S43" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="T43" t="n">
         <v>10</v>
@@ -3847,7 +3847,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44536</v>
+        <v>44559</v>
       </c>
       <c r="E44" t="n">
         <v>13</v>
@@ -3875,41 +3875,41 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Helena</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M44" t="n">
-        <v>250</v>
+        <v>310</v>
       </c>
       <c r="N44" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="O44" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="P44" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S44" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="T44" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="45">
@@ -3927,7 +3927,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44175</v>
+        <v>44559</v>
       </c>
       <c r="E45" t="n">
         <v>13</v>
@@ -3955,7 +3955,7 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>Modesto</t>
+          <t>Helena</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
@@ -3964,32 +3964,32 @@
         </is>
       </c>
       <c r="M45" t="n">
-        <v>140</v>
+        <v>350</v>
       </c>
       <c r="N45" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O45" t="n">
         <v>12000</v>
       </c>
       <c r="P45" t="n">
-        <v>11571</v>
+        <v>12000</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S45" t="n">
-        <v>964</v>
+        <v>800</v>
       </c>
       <c r="T45" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="46">
@@ -4007,7 +4007,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44553</v>
+        <v>44559</v>
       </c>
       <c r="E46" t="n">
         <v>13</v>
@@ -4035,7 +4035,7 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Dina</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
@@ -4044,20 +4044,20 @@
         </is>
       </c>
       <c r="M46" t="n">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="N46" t="n">
-        <v>7500</v>
+        <v>18000</v>
       </c>
       <c r="O46" t="n">
-        <v>7500</v>
+        <v>18000</v>
       </c>
       <c r="P46" t="n">
-        <v>7500</v>
+        <v>18000</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>$/bandeja 6 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
@@ -4066,10 +4066,10 @@
         </is>
       </c>
       <c r="S46" t="n">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="T46" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47">
@@ -4087,7 +4087,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44553</v>
+        <v>44559</v>
       </c>
       <c r="E47" t="n">
         <v>13</v>
@@ -4115,7 +4115,7 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>Dina</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
@@ -4124,20 +4124,20 @@
         </is>
       </c>
       <c r="M47" t="n">
-        <v>350</v>
+        <v>380</v>
       </c>
       <c r="N47" t="n">
-        <v>6500</v>
+        <v>14400</v>
       </c>
       <c r="O47" t="n">
-        <v>6500</v>
+        <v>14400</v>
       </c>
       <c r="P47" t="n">
-        <v>6500</v>
+        <v>14400</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>$/bandeja 6 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
@@ -4146,10 +4146,10 @@
         </is>
       </c>
       <c r="S47" t="n">
-        <v>1083</v>
+        <v>800</v>
       </c>
       <c r="T47" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="48">
@@ -4167,7 +4167,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44553</v>
+        <v>44546</v>
       </c>
       <c r="E48" t="n">
         <v>13</v>
@@ -4195,41 +4195,41 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Dina</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M48" t="n">
         <v>380</v>
       </c>
       <c r="N48" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O48" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P48" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S48" t="n">
-        <v>778</v>
+        <v>1200</v>
       </c>
       <c r="T48" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="49">
@@ -4247,7 +4247,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44553</v>
+        <v>44546</v>
       </c>
       <c r="E49" t="n">
         <v>13</v>
@@ -4275,41 +4275,41 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Dina</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M49" t="n">
-        <v>410</v>
+        <v>330</v>
       </c>
       <c r="N49" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O49" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P49" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S49" t="n">
-        <v>667</v>
+        <v>1000</v>
       </c>
       <c r="T49" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="50">
@@ -4327,7 +4327,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44550</v>
+        <v>44546</v>
       </c>
       <c r="E50" t="n">
         <v>13</v>
@@ -4355,16 +4355,16 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Dina</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M50" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="N50" t="n">
         <v>8000</v>
@@ -4382,7 +4382,7 @@
       </c>
       <c r="R50" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S50" t="n">
@@ -4407,7 +4407,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44550</v>
+        <v>44547</v>
       </c>
       <c r="E51" t="n">
         <v>13</v>
@@ -4435,25 +4435,25 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Dina</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M51" t="n">
-        <v>120</v>
+        <v>450</v>
       </c>
       <c r="N51" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="O51" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="P51" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
@@ -4462,11 +4462,11 @@
       </c>
       <c r="R51" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S51" t="n">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="T51" t="n">
         <v>10</v>
@@ -4487,7 +4487,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44560</v>
+        <v>44547</v>
       </c>
       <c r="E52" t="n">
         <v>13</v>
@@ -4515,29 +4515,29 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Helena</t>
+          <t>Dina</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M52" t="n">
         <v>410</v>
       </c>
       <c r="N52" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="O52" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="P52" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R52" t="inlineStr">
@@ -4549,7 +4549,7 @@
         <v>1000</v>
       </c>
       <c r="T52" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="53">
@@ -4567,7 +4567,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44560</v>
+        <v>44547</v>
       </c>
       <c r="E53" t="n">
         <v>13</v>
@@ -4595,29 +4595,29 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>Helena</t>
+          <t>Dina</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M53" t="n">
-        <v>330</v>
+        <v>350</v>
       </c>
       <c r="N53" t="n">
-        <v>14400</v>
+        <v>8000</v>
       </c>
       <c r="O53" t="n">
-        <v>14400</v>
+        <v>8000</v>
       </c>
       <c r="P53" t="n">
-        <v>14400</v>
+        <v>8000</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R53" t="inlineStr">
@@ -4629,7 +4629,7 @@
         <v>800</v>
       </c>
       <c r="T53" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="54">
@@ -4647,7 +4647,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44560</v>
+        <v>44523</v>
       </c>
       <c r="E54" t="n">
         <v>13</v>
@@ -4675,29 +4675,29 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>Helena</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M54" t="n">
-        <v>380</v>
+        <v>320</v>
       </c>
       <c r="N54" t="n">
-        <v>12600</v>
+        <v>10000</v>
       </c>
       <c r="O54" t="n">
-        <v>12600</v>
+        <v>10000</v>
       </c>
       <c r="P54" t="n">
-        <v>12600</v>
+        <v>10000</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R54" t="inlineStr">
@@ -4706,10 +4706,10 @@
         </is>
       </c>
       <c r="S54" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="T54" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="55">
@@ -4727,7 +4727,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44519</v>
+        <v>44554</v>
       </c>
       <c r="E55" t="n">
         <v>13</v>
@@ -4755,7 +4755,7 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
@@ -4764,32 +4764,32 @@
         </is>
       </c>
       <c r="M55" t="n">
-        <v>300</v>
+        <v>410</v>
       </c>
       <c r="N55" t="n">
-        <v>22500</v>
+        <v>14000</v>
       </c>
       <c r="O55" t="n">
-        <v>22500</v>
+        <v>14000</v>
       </c>
       <c r="P55" t="n">
-        <v>22500</v>
+        <v>14000</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R55" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S55" t="n">
-        <v>1500</v>
+        <v>778</v>
       </c>
       <c r="T55" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="56">
@@ -4807,7 +4807,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44167</v>
+        <v>44554</v>
       </c>
       <c r="E56" t="n">
         <v>13</v>
@@ -4835,29 +4835,29 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M56" t="n">
-        <v>85</v>
+        <v>380</v>
       </c>
       <c r="N56" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O56" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P56" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R56" t="inlineStr">
@@ -4866,10 +4866,10 @@
         </is>
       </c>
       <c r="S56" t="n">
-        <v>1000</v>
+        <v>667</v>
       </c>
       <c r="T56" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="57">
@@ -4887,7 +4887,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44167</v>
+        <v>44533</v>
       </c>
       <c r="E57" t="n">
         <v>13</v>
@@ -4924,20 +4924,20 @@
         </is>
       </c>
       <c r="M57" t="n">
-        <v>120</v>
+        <v>410</v>
       </c>
       <c r="N57" t="n">
-        <v>9500</v>
+        <v>16500</v>
       </c>
       <c r="O57" t="n">
-        <v>9500</v>
+        <v>16500</v>
       </c>
       <c r="P57" t="n">
-        <v>9500</v>
+        <v>16500</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R57" t="inlineStr">
@@ -4946,10 +4946,10 @@
         </is>
       </c>
       <c r="S57" t="n">
-        <v>950</v>
+        <v>1100</v>
       </c>
       <c r="T57" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="58">
@@ -4967,7 +4967,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44167</v>
+        <v>44533</v>
       </c>
       <c r="E58" t="n">
         <v>13</v>
@@ -5000,24 +5000,24 @@
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M58" t="n">
-        <v>60</v>
+        <v>300</v>
       </c>
       <c r="N58" t="n">
-        <v>15000</v>
+        <v>10500</v>
       </c>
       <c r="O58" t="n">
-        <v>15000</v>
+        <v>10500</v>
       </c>
       <c r="P58" t="n">
-        <v>15000</v>
+        <v>10500</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R58" t="inlineStr">
@@ -5026,10 +5026,10 @@
         </is>
       </c>
       <c r="S58" t="n">
-        <v>833</v>
+        <v>700</v>
       </c>
       <c r="T58" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="59">
@@ -5047,7 +5047,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44551</v>
+        <v>44533</v>
       </c>
       <c r="E59" t="n">
         <v>13</v>
@@ -5075,41 +5075,41 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>Dina</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M59" t="n">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="N59" t="n">
-        <v>18000</v>
+        <v>7500</v>
       </c>
       <c r="O59" t="n">
-        <v>18000</v>
+        <v>7500</v>
       </c>
       <c r="P59" t="n">
-        <v>18000</v>
+        <v>7500</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R59" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S59" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="T59" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="60">
@@ -5127,7 +5127,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44551</v>
+        <v>44160</v>
       </c>
       <c r="E60" t="n">
         <v>13</v>
@@ -5155,7 +5155,7 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>Dina</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
@@ -5164,32 +5164,32 @@
         </is>
       </c>
       <c r="M60" t="n">
-        <v>350</v>
+        <v>25</v>
       </c>
       <c r="N60" t="n">
-        <v>14400</v>
+        <v>8000</v>
       </c>
       <c r="O60" t="n">
-        <v>14400</v>
+        <v>8000</v>
       </c>
       <c r="P60" t="n">
-        <v>14400</v>
+        <v>8000</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R60" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S60" t="n">
         <v>800</v>
       </c>
       <c r="T60" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="61">
@@ -5207,7 +5207,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44572</v>
+        <v>44160</v>
       </c>
       <c r="E61" t="n">
         <v>13</v>
@@ -5235,29 +5235,29 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M61" t="n">
-        <v>580</v>
+        <v>40</v>
       </c>
       <c r="N61" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="O61" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="P61" t="n">
-        <v>14517</v>
+        <v>7000</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R61" t="inlineStr">
@@ -5266,10 +5266,10 @@
         </is>
       </c>
       <c r="S61" t="n">
-        <v>806</v>
+        <v>700</v>
       </c>
       <c r="T61" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="62">
@@ -5287,7 +5287,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44544</v>
+        <v>44159</v>
       </c>
       <c r="E62" t="n">
         <v>13</v>
@@ -5315,29 +5315,29 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>Dina</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M62" t="n">
-        <v>330</v>
+        <v>80</v>
       </c>
       <c r="N62" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="O62" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="P62" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R62" t="inlineStr">
@@ -5346,10 +5346,10 @@
         </is>
       </c>
       <c r="S62" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T62" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="63">
@@ -5367,7 +5367,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44544</v>
+        <v>44159</v>
       </c>
       <c r="E63" t="n">
         <v>13</v>
@@ -5395,29 +5395,29 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>Dina</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M63" t="n">
-        <v>350</v>
+        <v>65</v>
       </c>
       <c r="N63" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="O63" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="P63" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R63" t="inlineStr">
@@ -5426,10 +5426,10 @@
         </is>
       </c>
       <c r="S63" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="T63" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="64">
@@ -5447,7 +5447,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44176</v>
+        <v>44187</v>
       </c>
       <c r="E64" t="n">
         <v>13</v>
@@ -5475,7 +5475,7 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>Modesto</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
@@ -5484,20 +5484,20 @@
         </is>
       </c>
       <c r="M64" t="n">
-        <v>115</v>
+        <v>80</v>
       </c>
       <c r="N64" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="O64" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P64" t="n">
-        <v>11609</v>
+        <v>15000</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R64" t="inlineStr">
@@ -5506,10 +5506,10 @@
         </is>
       </c>
       <c r="S64" t="n">
-        <v>967</v>
+        <v>1000</v>
       </c>
       <c r="T64" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="65">
@@ -5527,7 +5527,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44575</v>
+        <v>44187</v>
       </c>
       <c r="E65" t="n">
         <v>13</v>
@@ -5560,24 +5560,24 @@
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M65" t="n">
-        <v>480</v>
+        <v>95</v>
       </c>
       <c r="N65" t="n">
-        <v>17000</v>
+        <v>13500</v>
       </c>
       <c r="O65" t="n">
-        <v>17000</v>
+        <v>13500</v>
       </c>
       <c r="P65" t="n">
-        <v>17000</v>
+        <v>13500</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R65" t="inlineStr">
@@ -5586,10 +5586,10 @@
         </is>
       </c>
       <c r="S65" t="n">
-        <v>944</v>
+        <v>900</v>
       </c>
       <c r="T65" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="66">
@@ -5607,7 +5607,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44575</v>
+        <v>44187</v>
       </c>
       <c r="E66" t="n">
         <v>13</v>
@@ -5640,24 +5640,24 @@
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M66" t="n">
-        <v>330</v>
+        <v>120</v>
       </c>
       <c r="N66" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O66" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P66" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R66" t="inlineStr">
@@ -5666,10 +5666,10 @@
         </is>
       </c>
       <c r="S66" t="n">
-        <v>833</v>
+        <v>800</v>
       </c>
       <c r="T66" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="67">
@@ -5687,7 +5687,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44546</v>
+        <v>44544</v>
       </c>
       <c r="E67" t="n">
         <v>13</v>
@@ -5724,32 +5724,32 @@
         </is>
       </c>
       <c r="M67" t="n">
-        <v>380</v>
+        <v>330</v>
       </c>
       <c r="N67" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O67" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P67" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R67" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S67" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="T67" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="68">
@@ -5767,7 +5767,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44546</v>
+        <v>44544</v>
       </c>
       <c r="E68" t="n">
         <v>13</v>
@@ -5804,32 +5804,32 @@
         </is>
       </c>
       <c r="M68" t="n">
-        <v>330</v>
+        <v>350</v>
       </c>
       <c r="N68" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O68" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P68" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R68" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S68" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T68" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="69">
@@ -5847,7 +5847,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44546</v>
+        <v>44575</v>
       </c>
       <c r="E69" t="n">
         <v>13</v>
@@ -5875,41 +5875,41 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>Dina</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M69" t="n">
-        <v>300</v>
+        <v>480</v>
       </c>
       <c r="N69" t="n">
-        <v>8000</v>
+        <v>17000</v>
       </c>
       <c r="O69" t="n">
-        <v>8000</v>
+        <v>17000</v>
       </c>
       <c r="P69" t="n">
-        <v>8000</v>
+        <v>17000</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R69" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S69" t="n">
-        <v>800</v>
+        <v>944</v>
       </c>
       <c r="T69" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="70">
@@ -5927,7 +5927,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44523</v>
+        <v>44575</v>
       </c>
       <c r="E70" t="n">
         <v>13</v>
@@ -5955,7 +5955,7 @@
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
@@ -5964,20 +5964,20 @@
         </is>
       </c>
       <c r="M70" t="n">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="N70" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O70" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P70" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R70" t="inlineStr">
@@ -5986,10 +5986,10 @@
         </is>
       </c>
       <c r="S70" t="n">
-        <v>1000</v>
+        <v>833</v>
       </c>
       <c r="T70" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="71">
@@ -6007,7 +6007,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44547</v>
+        <v>44560</v>
       </c>
       <c r="E71" t="n">
         <v>13</v>
@@ -6035,7 +6035,7 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>Dina</t>
+          <t>Helena</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
@@ -6044,20 +6044,20 @@
         </is>
       </c>
       <c r="M71" t="n">
-        <v>450</v>
+        <v>410</v>
       </c>
       <c r="N71" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="O71" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="P71" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R71" t="inlineStr">
@@ -6066,10 +6066,10 @@
         </is>
       </c>
       <c r="S71" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="T71" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="72">
@@ -6087,7 +6087,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44547</v>
+        <v>44560</v>
       </c>
       <c r="E72" t="n">
         <v>13</v>
@@ -6115,7 +6115,7 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>Dina</t>
+          <t>Helena</t>
         </is>
       </c>
       <c r="L72" t="inlineStr">
@@ -6124,20 +6124,20 @@
         </is>
       </c>
       <c r="M72" t="n">
-        <v>410</v>
+        <v>330</v>
       </c>
       <c r="N72" t="n">
-        <v>10000</v>
+        <v>14400</v>
       </c>
       <c r="O72" t="n">
-        <v>10000</v>
+        <v>14400</v>
       </c>
       <c r="P72" t="n">
-        <v>10000</v>
+        <v>14400</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R72" t="inlineStr">
@@ -6146,10 +6146,10 @@
         </is>
       </c>
       <c r="S72" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T72" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="73">
@@ -6167,7 +6167,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44547</v>
+        <v>44560</v>
       </c>
       <c r="E73" t="n">
         <v>13</v>
@@ -6195,7 +6195,7 @@
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>Dina</t>
+          <t>Helena</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
@@ -6204,20 +6204,20 @@
         </is>
       </c>
       <c r="M73" t="n">
-        <v>350</v>
+        <v>380</v>
       </c>
       <c r="N73" t="n">
-        <v>8000</v>
+        <v>12600</v>
       </c>
       <c r="O73" t="n">
-        <v>8000</v>
+        <v>12600</v>
       </c>
       <c r="P73" t="n">
-        <v>8000</v>
+        <v>12600</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R73" t="inlineStr">
@@ -6226,10 +6226,10 @@
         </is>
       </c>
       <c r="S73" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="T73" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="74">
@@ -6247,7 +6247,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44162</v>
+        <v>44195</v>
       </c>
       <c r="E74" t="n">
         <v>13</v>
@@ -6275,7 +6275,7 @@
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
@@ -6284,20 +6284,20 @@
         </is>
       </c>
       <c r="M74" t="n">
-        <v>70</v>
+        <v>124</v>
       </c>
       <c r="N74" t="n">
-        <v>8500</v>
+        <v>13000</v>
       </c>
       <c r="O74" t="n">
-        <v>8500</v>
+        <v>13000</v>
       </c>
       <c r="P74" t="n">
-        <v>8500</v>
+        <v>13000</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R74" t="inlineStr">
@@ -6306,10 +6306,10 @@
         </is>
       </c>
       <c r="S74" t="n">
-        <v>850</v>
+        <v>867</v>
       </c>
       <c r="T74" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="75">
@@ -6364,20 +6364,20 @@
         </is>
       </c>
       <c r="M75" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="N75" t="n">
-        <v>14000</v>
+        <v>8500</v>
       </c>
       <c r="O75" t="n">
-        <v>15000</v>
+        <v>8500</v>
       </c>
       <c r="P75" t="n">
-        <v>14400</v>
+        <v>8500</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R75" t="inlineStr">
@@ -6386,10 +6386,10 @@
         </is>
       </c>
       <c r="S75" t="n">
-        <v>800</v>
+        <v>850</v>
       </c>
       <c r="T75" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="76">
@@ -6407,7 +6407,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44561</v>
+        <v>44162</v>
       </c>
       <c r="E76" t="n">
         <v>13</v>
@@ -6435,38 +6435,38 @@
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M76" t="n">
-        <v>330</v>
+        <v>75</v>
       </c>
       <c r="N76" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="O76" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="P76" t="n">
-        <v>18000</v>
+        <v>14400</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R76" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S76" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T76" t="n">
         <v>18</v>
@@ -6487,7 +6487,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44561</v>
+        <v>44551</v>
       </c>
       <c r="E77" t="n">
         <v>13</v>
@@ -6515,25 +6515,25 @@
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Dina</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M77" t="n">
-        <v>350</v>
+        <v>220</v>
       </c>
       <c r="N77" t="n">
-        <v>14400</v>
+        <v>18000</v>
       </c>
       <c r="O77" t="n">
-        <v>14400</v>
+        <v>18000</v>
       </c>
       <c r="P77" t="n">
-        <v>14400</v>
+        <v>18000</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
@@ -6542,11 +6542,11 @@
       </c>
       <c r="R77" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S77" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T77" t="n">
         <v>18</v>
@@ -6567,7 +6567,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44561</v>
+        <v>44551</v>
       </c>
       <c r="E78" t="n">
         <v>13</v>
@@ -6595,25 +6595,25 @@
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Dina</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M78" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="N78" t="n">
-        <v>10800</v>
+        <v>14400</v>
       </c>
       <c r="O78" t="n">
-        <v>10800</v>
+        <v>14400</v>
       </c>
       <c r="P78" t="n">
-        <v>10800</v>
+        <v>14400</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
@@ -6622,11 +6622,11 @@
       </c>
       <c r="R78" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S78" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="T78" t="n">
         <v>18</v>
@@ -6647,7 +6647,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44558</v>
+        <v>44552</v>
       </c>
       <c r="E79" t="n">
         <v>13</v>
@@ -6675,7 +6675,7 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>Helena</t>
+          <t>Dina</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
@@ -6684,32 +6684,32 @@
         </is>
       </c>
       <c r="M79" t="n">
-        <v>330</v>
+        <v>200</v>
       </c>
       <c r="N79" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="O79" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="P79" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R79" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S79" t="n">
         <v>1000</v>
       </c>
       <c r="T79" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="80">
@@ -6727,7 +6727,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44558</v>
+        <v>44552</v>
       </c>
       <c r="E80" t="n">
         <v>13</v>
@@ -6755,7 +6755,7 @@
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>Helena</t>
+          <t>Dina</t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
@@ -6764,32 +6764,32 @@
         </is>
       </c>
       <c r="M80" t="n">
-        <v>350</v>
+        <v>220</v>
       </c>
       <c r="N80" t="n">
-        <v>12800</v>
+        <v>8000</v>
       </c>
       <c r="O80" t="n">
-        <v>12800</v>
+        <v>8000</v>
       </c>
       <c r="P80" t="n">
-        <v>12800</v>
+        <v>8000</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R80" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S80" t="n">
         <v>800</v>
       </c>
       <c r="T80" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="81">
@@ -6807,7 +6807,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44558</v>
+        <v>44552</v>
       </c>
       <c r="E81" t="n">
         <v>13</v>
@@ -6835,29 +6835,29 @@
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Dina</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M81" t="n">
-        <v>410</v>
+        <v>350</v>
       </c>
       <c r="N81" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="O81" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="P81" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R81" t="inlineStr">
@@ -6866,10 +6866,10 @@
         </is>
       </c>
       <c r="S81" t="n">
-        <v>778</v>
+        <v>600</v>
       </c>
       <c r="T81" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="82">
@@ -6887,7 +6887,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44558</v>
+        <v>44552</v>
       </c>
       <c r="E82" t="n">
         <v>13</v>
@@ -6915,29 +6915,29 @@
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Modesto</t>
         </is>
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M82" t="n">
-        <v>380</v>
+        <v>280</v>
       </c>
       <c r="N82" t="n">
-        <v>12000</v>
+        <v>21600</v>
       </c>
       <c r="O82" t="n">
-        <v>12000</v>
+        <v>21600</v>
       </c>
       <c r="P82" t="n">
-        <v>12000</v>
+        <v>21600</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R82" t="inlineStr">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="S82" t="n">
-        <v>667</v>
+        <v>1200</v>
       </c>
       <c r="T82" t="n">
         <v>18</v>
@@ -6967,7 +6967,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44168</v>
+        <v>44552</v>
       </c>
       <c r="E83" t="n">
         <v>13</v>
@@ -6995,41 +6995,41 @@
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>Dina</t>
+          <t>Modesto</t>
         </is>
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M83" t="n">
-        <v>40</v>
+        <v>310</v>
       </c>
       <c r="N83" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="O83" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="P83" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R83" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S83" t="n">
-        <v>1400</v>
+        <v>1000</v>
       </c>
       <c r="T83" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="84">
@@ -7047,7 +7047,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44537</v>
+        <v>44552</v>
       </c>
       <c r="E84" t="n">
         <v>13</v>
@@ -7075,29 +7075,29 @@
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Modesto</t>
         </is>
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M84" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="N84" t="n">
-        <v>16000</v>
+        <v>14400</v>
       </c>
       <c r="O84" t="n">
-        <v>16000</v>
+        <v>14400</v>
       </c>
       <c r="P84" t="n">
-        <v>16000</v>
+        <v>14400</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R84" t="inlineStr">
@@ -7106,7 +7106,7 @@
         </is>
       </c>
       <c r="S84" t="n">
-        <v>889</v>
+        <v>800</v>
       </c>
       <c r="T84" t="n">
         <v>18</v>
@@ -7127,7 +7127,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44189</v>
+        <v>44573</v>
       </c>
       <c r="E85" t="n">
         <v>13</v>
@@ -7160,20 +7160,20 @@
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M85" t="n">
-        <v>130</v>
+        <v>380</v>
       </c>
       <c r="N85" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="O85" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="P85" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
@@ -7186,7 +7186,7 @@
         </is>
       </c>
       <c r="S85" t="n">
-        <v>667</v>
+        <v>944</v>
       </c>
       <c r="T85" t="n">
         <v>18</v>
@@ -7207,7 +7207,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44559</v>
+        <v>44573</v>
       </c>
       <c r="E86" t="n">
         <v>13</v>
@@ -7235,16 +7235,16 @@
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>Helena</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M86" t="n">
-        <v>310</v>
+        <v>410</v>
       </c>
       <c r="N86" t="n">
         <v>15000</v>
@@ -7257,19 +7257,19 @@
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R86" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S86" t="n">
-        <v>1000</v>
+        <v>833</v>
       </c>
       <c r="T86" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="87">
@@ -7287,7 +7287,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44559</v>
+        <v>44573</v>
       </c>
       <c r="E87" t="n">
         <v>13</v>
@@ -7315,41 +7315,41 @@
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>Helena</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M87" t="n">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="N87" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O87" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P87" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R87" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S87" t="n">
-        <v>800</v>
+        <v>722</v>
       </c>
       <c r="T87" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="88">
@@ -7367,7 +7367,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44559</v>
+        <v>44553</v>
       </c>
       <c r="E88" t="n">
         <v>13</v>
@@ -7395,7 +7395,7 @@
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Dina</t>
         </is>
       </c>
       <c r="L88" t="inlineStr">
@@ -7404,20 +7404,20 @@
         </is>
       </c>
       <c r="M88" t="n">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="N88" t="n">
-        <v>18000</v>
+        <v>7500</v>
       </c>
       <c r="O88" t="n">
-        <v>18000</v>
+        <v>7500</v>
       </c>
       <c r="P88" t="n">
-        <v>18000</v>
+        <v>7500</v>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 6 kilos</t>
         </is>
       </c>
       <c r="R88" t="inlineStr">
@@ -7426,10 +7426,10 @@
         </is>
       </c>
       <c r="S88" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="T88" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="89">
@@ -7447,7 +7447,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44559</v>
+        <v>44553</v>
       </c>
       <c r="E89" t="n">
         <v>13</v>
@@ -7475,7 +7475,7 @@
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Dina</t>
         </is>
       </c>
       <c r="L89" t="inlineStr">
@@ -7484,20 +7484,20 @@
         </is>
       </c>
       <c r="M89" t="n">
-        <v>380</v>
+        <v>350</v>
       </c>
       <c r="N89" t="n">
-        <v>14400</v>
+        <v>6500</v>
       </c>
       <c r="O89" t="n">
-        <v>14400</v>
+        <v>6500</v>
       </c>
       <c r="P89" t="n">
-        <v>14400</v>
+        <v>6500</v>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 6 kilos</t>
         </is>
       </c>
       <c r="R89" t="inlineStr">
@@ -7506,10 +7506,10 @@
         </is>
       </c>
       <c r="S89" t="n">
-        <v>800</v>
+        <v>1083</v>
       </c>
       <c r="T89" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="90">
@@ -7527,7 +7527,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44533</v>
+        <v>44553</v>
       </c>
       <c r="E90" t="n">
         <v>13</v>
@@ -7555,7 +7555,7 @@
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L90" t="inlineStr">
@@ -7564,20 +7564,20 @@
         </is>
       </c>
       <c r="M90" t="n">
-        <v>410</v>
+        <v>380</v>
       </c>
       <c r="N90" t="n">
-        <v>16500</v>
+        <v>14000</v>
       </c>
       <c r="O90" t="n">
-        <v>16500</v>
+        <v>14000</v>
       </c>
       <c r="P90" t="n">
-        <v>16500</v>
+        <v>14000</v>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R90" t="inlineStr">
@@ -7586,10 +7586,10 @@
         </is>
       </c>
       <c r="S90" t="n">
-        <v>1100</v>
+        <v>778</v>
       </c>
       <c r="T90" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="91">
@@ -7607,7 +7607,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44533</v>
+        <v>44553</v>
       </c>
       <c r="E91" t="n">
         <v>13</v>
@@ -7635,7 +7635,7 @@
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L91" t="inlineStr">
@@ -7644,20 +7644,20 @@
         </is>
       </c>
       <c r="M91" t="n">
-        <v>300</v>
+        <v>410</v>
       </c>
       <c r="N91" t="n">
-        <v>10500</v>
+        <v>12000</v>
       </c>
       <c r="O91" t="n">
-        <v>10500</v>
+        <v>12000</v>
       </c>
       <c r="P91" t="n">
-        <v>10500</v>
+        <v>12000</v>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R91" t="inlineStr">
@@ -7666,10 +7666,10 @@
         </is>
       </c>
       <c r="S91" t="n">
-        <v>700</v>
+        <v>667</v>
       </c>
       <c r="T91" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="92">
@@ -7687,7 +7687,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44533</v>
+        <v>44572</v>
       </c>
       <c r="E92" t="n">
         <v>13</v>
@@ -7715,29 +7715,29 @@
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M92" t="n">
-        <v>250</v>
+        <v>580</v>
       </c>
       <c r="N92" t="n">
-        <v>7500</v>
+        <v>14000</v>
       </c>
       <c r="O92" t="n">
-        <v>7500</v>
+        <v>15000</v>
       </c>
       <c r="P92" t="n">
-        <v>7500</v>
+        <v>14517</v>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R92" t="inlineStr">
@@ -7746,10 +7746,10 @@
         </is>
       </c>
       <c r="S92" t="n">
-        <v>500</v>
+        <v>806</v>
       </c>
       <c r="T92" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Damasco.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Damasco.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44194</v>
+        <v>44575</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -520,24 +520,24 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>120</v>
+        <v>480</v>
       </c>
       <c r="N2" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="O2" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="P2" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -546,10 +546,10 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>867</v>
+        <v>944</v>
       </c>
       <c r="T2" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44537</v>
+        <v>44575</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -595,7 +595,7 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>400</v>
+        <v>330</v>
       </c>
       <c r="N3" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="O3" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P3" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>889</v>
+        <v>833</v>
       </c>
       <c r="T3" t="n">
         <v>18</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44566</v>
+        <v>44544</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -675,7 +675,7 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Dina</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -684,32 +684,32 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>410</v>
+        <v>330</v>
       </c>
       <c r="N4" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="O4" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="P4" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S4" t="n">
         <v>1000</v>
       </c>
       <c r="T4" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5">
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44566</v>
+        <v>44544</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -755,7 +755,7 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Dina</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -767,29 +767,29 @@
         <v>350</v>
       </c>
       <c r="N5" t="n">
-        <v>14400</v>
+        <v>12000</v>
       </c>
       <c r="O5" t="n">
-        <v>14400</v>
+        <v>12000</v>
       </c>
       <c r="P5" t="n">
-        <v>14400</v>
+        <v>12000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S5" t="n">
         <v>800</v>
       </c>
       <c r="T5" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44167</v>
+        <v>44539</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -844,20 +844,20 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>85</v>
+        <v>290</v>
       </c>
       <c r="N6" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="O6" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="P6" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -869,7 +869,7 @@
         <v>1000</v>
       </c>
       <c r="T6" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7">
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44167</v>
+        <v>44539</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -924,20 +924,20 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="N7" t="n">
-        <v>9500</v>
+        <v>16000</v>
       </c>
       <c r="O7" t="n">
-        <v>9500</v>
+        <v>16000</v>
       </c>
       <c r="P7" t="n">
-        <v>9500</v>
+        <v>16000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -946,10 +946,10 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>950</v>
+        <v>889</v>
       </c>
       <c r="T7" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8">
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44167</v>
+        <v>44539</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -1000,24 +1000,24 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>60</v>
+        <v>300</v>
       </c>
       <c r="N8" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="O8" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P8" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>833</v>
+        <v>778</v>
       </c>
       <c r="T8" t="n">
         <v>18</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44550</v>
+        <v>44187</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1075,7 +1075,7 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
@@ -1084,32 +1084,32 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="N9" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="O9" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="P9" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S9" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T9" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10">
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44550</v>
+        <v>44187</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1155,7 +1155,7 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
@@ -1164,32 +1164,32 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="N10" t="n">
-        <v>6000</v>
+        <v>13500</v>
       </c>
       <c r="O10" t="n">
-        <v>6000</v>
+        <v>13500</v>
       </c>
       <c r="P10" t="n">
-        <v>6000</v>
+        <v>13500</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S10" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="T10" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11">
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44574</v>
+        <v>44187</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1240,24 +1240,24 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>350</v>
+        <v>120</v>
       </c>
       <c r="N11" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="O11" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="P11" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
@@ -1266,10 +1266,10 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T11" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12">
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44574</v>
+        <v>44166</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1315,7 +1315,7 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -1324,32 +1324,32 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>480</v>
+        <v>120</v>
       </c>
       <c r="N12" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O12" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P12" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S12" t="n">
-        <v>833</v>
+        <v>1000</v>
       </c>
       <c r="T12" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44174</v>
+        <v>44166</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1395,25 +1395,25 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Modesto</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M13" t="n">
         <v>120</v>
       </c>
       <c r="N13" t="n">
-        <v>8500</v>
+        <v>8000</v>
       </c>
       <c r="O13" t="n">
-        <v>8500</v>
+        <v>8000</v>
       </c>
       <c r="P13" t="n">
-        <v>8500</v>
+        <v>8000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>850</v>
+        <v>800</v>
       </c>
       <c r="T13" t="n">
         <v>10</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44174</v>
+        <v>44553</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1475,41 +1475,41 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Modesto</t>
+          <t>Dina</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>180</v>
+        <v>280</v>
       </c>
       <c r="N14" t="n">
-        <v>15000</v>
+        <v>7500</v>
       </c>
       <c r="O14" t="n">
-        <v>15000</v>
+        <v>7500</v>
       </c>
       <c r="P14" t="n">
-        <v>15000</v>
+        <v>7500</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 6 kilos</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S14" t="n">
-        <v>833</v>
+        <v>1250</v>
       </c>
       <c r="T14" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15">
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44174</v>
+        <v>44553</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1555,41 +1555,41 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Modesto</t>
+          <t>Dina</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>120</v>
+        <v>350</v>
       </c>
       <c r="N15" t="n">
-        <v>12000</v>
+        <v>6500</v>
       </c>
       <c r="O15" t="n">
-        <v>12000</v>
+        <v>6500</v>
       </c>
       <c r="P15" t="n">
-        <v>12000</v>
+        <v>6500</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 6 kilos</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S15" t="n">
-        <v>667</v>
+        <v>1083</v>
       </c>
       <c r="T15" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16">
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44168</v>
+        <v>44553</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1635,16 +1635,16 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Dina</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>40</v>
+        <v>380</v>
       </c>
       <c r="N16" t="n">
         <v>14000</v>
@@ -1657,19 +1657,19 @@
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1400</v>
+        <v>778</v>
       </c>
       <c r="T16" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17">
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44539</v>
+        <v>44553</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1715,29 +1715,29 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>290</v>
+        <v>410</v>
       </c>
       <c r="N17" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="O17" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="P17" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>1000</v>
+        <v>667</v>
       </c>
       <c r="T17" t="n">
         <v>18</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44539</v>
+        <v>44540</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1804,7 +1804,7 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>300</v>
+        <v>330</v>
       </c>
       <c r="N18" t="n">
         <v>16000</v>
@@ -1817,12 +1817,12 @@
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S18" t="n">
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44539</v>
+        <v>44540</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
@@ -1884,7 +1884,7 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="N19" t="n">
         <v>14000</v>
@@ -1897,12 +1897,12 @@
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S19" t="n">
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44545</v>
+        <v>44195</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1955,41 +1955,41 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>310</v>
+        <v>124</v>
       </c>
       <c r="N20" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="O20" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="P20" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S20" t="n">
-        <v>1000</v>
+        <v>867</v>
       </c>
       <c r="T20" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21">
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44545</v>
+        <v>44557</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -2035,29 +2035,29 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>350</v>
+        <v>380</v>
       </c>
       <c r="N21" t="n">
-        <v>14400</v>
+        <v>15000</v>
       </c>
       <c r="O21" t="n">
-        <v>14400</v>
+        <v>15000</v>
       </c>
       <c r="P21" t="n">
-        <v>14400</v>
+        <v>15000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
@@ -2066,10 +2066,10 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T21" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22">
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44540</v>
+        <v>44557</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
@@ -2115,7 +2115,7 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
@@ -2127,17 +2127,17 @@
         <v>330</v>
       </c>
       <c r="N22" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="O22" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="P22" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
@@ -2146,10 +2146,10 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>889</v>
+        <v>800</v>
       </c>
       <c r="T22" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23">
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44540</v>
+        <v>44546</v>
       </c>
       <c r="E23" t="n">
         <v>13</v>
@@ -2195,29 +2195,29 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Dina</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>280</v>
+        <v>380</v>
       </c>
       <c r="N23" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O23" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P23" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
@@ -2226,10 +2226,10 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>778</v>
+        <v>1200</v>
       </c>
       <c r="T23" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24">
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44189</v>
+        <v>44546</v>
       </c>
       <c r="E24" t="n">
         <v>13</v>
@@ -2275,7 +2275,7 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Dina</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
@@ -2284,32 +2284,32 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>130</v>
+        <v>330</v>
       </c>
       <c r="N24" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O24" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P24" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S24" t="n">
-        <v>667</v>
+        <v>1000</v>
       </c>
       <c r="T24" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25">
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44561</v>
+        <v>44546</v>
       </c>
       <c r="E25" t="n">
         <v>13</v>
@@ -2355,41 +2355,41 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Dina</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>330</v>
+        <v>300</v>
       </c>
       <c r="N25" t="n">
-        <v>18000</v>
+        <v>8000</v>
       </c>
       <c r="O25" t="n">
-        <v>18000</v>
+        <v>8000</v>
       </c>
       <c r="P25" t="n">
-        <v>18000</v>
+        <v>8000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S25" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T25" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26">
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44561</v>
+        <v>44168</v>
       </c>
       <c r="E26" t="n">
         <v>13</v>
@@ -2435,41 +2435,41 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Dina</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M26" t="n">
-        <v>350</v>
+        <v>40</v>
       </c>
       <c r="N26" t="n">
-        <v>14400</v>
+        <v>14000</v>
       </c>
       <c r="O26" t="n">
-        <v>14400</v>
+        <v>14000</v>
       </c>
       <c r="P26" t="n">
-        <v>14400</v>
+        <v>14000</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S26" t="n">
-        <v>800</v>
+        <v>1400</v>
       </c>
       <c r="T26" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27">
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44561</v>
+        <v>44552</v>
       </c>
       <c r="E27" t="n">
         <v>13</v>
@@ -2515,41 +2515,41 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Dina</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M27" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N27" t="n">
-        <v>10800</v>
+        <v>10000</v>
       </c>
       <c r="O27" t="n">
-        <v>10800</v>
+        <v>10000</v>
       </c>
       <c r="P27" t="n">
-        <v>10800</v>
+        <v>10000</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S27" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="T27" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28">
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44558</v>
+        <v>44552</v>
       </c>
       <c r="E28" t="n">
         <v>13</v>
@@ -2595,41 +2595,41 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Helena</t>
+          <t>Dina</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>330</v>
+        <v>220</v>
       </c>
       <c r="N28" t="n">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="O28" t="n">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="P28" t="n">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S28" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T28" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29">
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44558</v>
+        <v>44552</v>
       </c>
       <c r="E29" t="n">
         <v>13</v>
@@ -2675,41 +2675,41 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Helena</t>
+          <t>Dina</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M29" t="n">
         <v>350</v>
       </c>
       <c r="N29" t="n">
-        <v>12800</v>
+        <v>6000</v>
       </c>
       <c r="O29" t="n">
-        <v>12800</v>
+        <v>6000</v>
       </c>
       <c r="P29" t="n">
-        <v>12800</v>
+        <v>6000</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S29" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="T29" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30">
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44558</v>
+        <v>44552</v>
       </c>
       <c r="E30" t="n">
         <v>13</v>
@@ -2755,29 +2755,29 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Modesto</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>410</v>
+        <v>280</v>
       </c>
       <c r="N30" t="n">
-        <v>14000</v>
+        <v>21600</v>
       </c>
       <c r="O30" t="n">
-        <v>14000</v>
+        <v>21600</v>
       </c>
       <c r="P30" t="n">
-        <v>14000</v>
+        <v>21600</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
@@ -2786,7 +2786,7 @@
         </is>
       </c>
       <c r="S30" t="n">
-        <v>778</v>
+        <v>1200</v>
       </c>
       <c r="T30" t="n">
         <v>18</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44558</v>
+        <v>44552</v>
       </c>
       <c r="E31" t="n">
         <v>13</v>
@@ -2835,29 +2835,29 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Modesto</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M31" t="n">
-        <v>380</v>
+        <v>310</v>
       </c>
       <c r="N31" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="O31" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="P31" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
@@ -2866,7 +2866,7 @@
         </is>
       </c>
       <c r="S31" t="n">
-        <v>667</v>
+        <v>1000</v>
       </c>
       <c r="T31" t="n">
         <v>18</v>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44525</v>
+        <v>44552</v>
       </c>
       <c r="E32" t="n">
         <v>13</v>
@@ -2915,29 +2915,29 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Modesto</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M32" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="N32" t="n">
-        <v>25200</v>
+        <v>14400</v>
       </c>
       <c r="O32" t="n">
-        <v>25200</v>
+        <v>14400</v>
       </c>
       <c r="P32" t="n">
-        <v>25200</v>
+        <v>14400</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="S32" t="n">
-        <v>1400</v>
+        <v>800</v>
       </c>
       <c r="T32" t="n">
         <v>18</v>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44525</v>
+        <v>44561</v>
       </c>
       <c r="E33" t="n">
         <v>13</v>
@@ -2995,38 +2995,38 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M33" t="n">
-        <v>250</v>
+        <v>330</v>
       </c>
       <c r="N33" t="n">
-        <v>21600</v>
+        <v>18000</v>
       </c>
       <c r="O33" t="n">
-        <v>21600</v>
+        <v>18000</v>
       </c>
       <c r="P33" t="n">
-        <v>21600</v>
+        <v>18000</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S33" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="T33" t="n">
         <v>18</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44519</v>
+        <v>44561</v>
       </c>
       <c r="E34" t="n">
         <v>13</v>
@@ -3075,7 +3075,7 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
@@ -3084,32 +3084,32 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="N34" t="n">
-        <v>22500</v>
+        <v>14400</v>
       </c>
       <c r="O34" t="n">
-        <v>22500</v>
+        <v>14400</v>
       </c>
       <c r="P34" t="n">
-        <v>22500</v>
+        <v>14400</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S34" t="n">
-        <v>1500</v>
+        <v>800</v>
       </c>
       <c r="T34" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35">
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44536</v>
+        <v>44561</v>
       </c>
       <c r="E35" t="n">
         <v>13</v>
@@ -3155,41 +3155,41 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M35" t="n">
-        <v>220</v>
+        <v>300</v>
       </c>
       <c r="N35" t="n">
-        <v>11000</v>
+        <v>10800</v>
       </c>
       <c r="O35" t="n">
-        <v>11000</v>
+        <v>10800</v>
       </c>
       <c r="P35" t="n">
-        <v>11000</v>
+        <v>10800</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S35" t="n">
-        <v>1100</v>
+        <v>600</v>
       </c>
       <c r="T35" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36">
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44536</v>
+        <v>44573</v>
       </c>
       <c r="E36" t="n">
         <v>13</v>
@@ -3235,41 +3235,41 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M36" t="n">
-        <v>250</v>
+        <v>380</v>
       </c>
       <c r="N36" t="n">
-        <v>7000</v>
+        <v>17000</v>
       </c>
       <c r="O36" t="n">
-        <v>7000</v>
+        <v>17000</v>
       </c>
       <c r="P36" t="n">
-        <v>7000</v>
+        <v>17000</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S36" t="n">
-        <v>700</v>
+        <v>944</v>
       </c>
       <c r="T36" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37">
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44166</v>
+        <v>44573</v>
       </c>
       <c r="E37" t="n">
         <v>13</v>
@@ -3315,7 +3315,7 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
@@ -3324,32 +3324,32 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>120</v>
+        <v>410</v>
       </c>
       <c r="N37" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O37" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P37" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S37" t="n">
-        <v>1000</v>
+        <v>833</v>
       </c>
       <c r="T37" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38">
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44166</v>
+        <v>44573</v>
       </c>
       <c r="E38" t="n">
         <v>13</v>
@@ -3395,7 +3395,7 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
@@ -3404,32 +3404,32 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>120</v>
+        <v>330</v>
       </c>
       <c r="N38" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="O38" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="P38" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S38" t="n">
-        <v>800</v>
+        <v>722</v>
       </c>
       <c r="T38" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39">
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44557</v>
+        <v>44551</v>
       </c>
       <c r="E39" t="n">
         <v>13</v>
@@ -3475,7 +3475,7 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Dina</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
@@ -3484,20 +3484,20 @@
         </is>
       </c>
       <c r="M39" t="n">
-        <v>380</v>
+        <v>220</v>
       </c>
       <c r="N39" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O39" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P39" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
@@ -3509,7 +3509,7 @@
         <v>1000</v>
       </c>
       <c r="T39" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40">
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44557</v>
+        <v>44551</v>
       </c>
       <c r="E40" t="n">
         <v>13</v>
@@ -3555,7 +3555,7 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Dina</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
@@ -3564,20 +3564,20 @@
         </is>
       </c>
       <c r="M40" t="n">
-        <v>330</v>
+        <v>350</v>
       </c>
       <c r="N40" t="n">
-        <v>12000</v>
+        <v>14400</v>
       </c>
       <c r="O40" t="n">
-        <v>12000</v>
+        <v>14400</v>
       </c>
       <c r="P40" t="n">
-        <v>12000</v>
+        <v>14400</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
@@ -3589,7 +3589,7 @@
         <v>800</v>
       </c>
       <c r="T40" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41">
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44176</v>
+        <v>44159</v>
       </c>
       <c r="E41" t="n">
         <v>13</v>
@@ -3635,7 +3635,7 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Modesto</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
@@ -3644,20 +3644,20 @@
         </is>
       </c>
       <c r="M41" t="n">
-        <v>115</v>
+        <v>80</v>
       </c>
       <c r="N41" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="O41" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P41" t="n">
-        <v>11609</v>
+        <v>8000</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
@@ -3666,10 +3666,10 @@
         </is>
       </c>
       <c r="S41" t="n">
-        <v>967</v>
+        <v>800</v>
       </c>
       <c r="T41" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42">
@@ -3687,7 +3687,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44175</v>
+        <v>44159</v>
       </c>
       <c r="E42" t="n">
         <v>13</v>
@@ -3715,29 +3715,29 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Modesto</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M42" t="n">
-        <v>140</v>
+        <v>65</v>
       </c>
       <c r="N42" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="O42" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="P42" t="n">
-        <v>11571</v>
+        <v>7000</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R42" t="inlineStr">
@@ -3746,10 +3746,10 @@
         </is>
       </c>
       <c r="S42" t="n">
-        <v>964</v>
+        <v>700</v>
       </c>
       <c r="T42" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="43">
@@ -3767,7 +3767,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44169</v>
+        <v>44566</v>
       </c>
       <c r="E43" t="n">
         <v>13</v>
@@ -3795,29 +3795,29 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>Dina</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M43" t="n">
-        <v>80</v>
+        <v>410</v>
       </c>
       <c r="N43" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="O43" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="P43" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
@@ -3829,7 +3829,7 @@
         <v>1000</v>
       </c>
       <c r="T43" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44">
@@ -3847,7 +3847,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44559</v>
+        <v>44566</v>
       </c>
       <c r="E44" t="n">
         <v>13</v>
@@ -3875,29 +3875,29 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>Helena</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M44" t="n">
-        <v>310</v>
+        <v>350</v>
       </c>
       <c r="N44" t="n">
-        <v>15000</v>
+        <v>14400</v>
       </c>
       <c r="O44" t="n">
-        <v>15000</v>
+        <v>14400</v>
       </c>
       <c r="P44" t="n">
-        <v>15000</v>
+        <v>14400</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
@@ -3906,10 +3906,10 @@
         </is>
       </c>
       <c r="S44" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T44" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45">
@@ -3927,7 +3927,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44559</v>
+        <v>44536</v>
       </c>
       <c r="E45" t="n">
         <v>13</v>
@@ -3955,7 +3955,7 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>Helena</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
@@ -3964,32 +3964,32 @@
         </is>
       </c>
       <c r="M45" t="n">
-        <v>350</v>
+        <v>220</v>
       </c>
       <c r="N45" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="O45" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="P45" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S45" t="n">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="T45" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="46">
@@ -4007,7 +4007,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44559</v>
+        <v>44536</v>
       </c>
       <c r="E46" t="n">
         <v>13</v>
@@ -4035,41 +4035,41 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M46" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="N46" t="n">
-        <v>18000</v>
+        <v>7000</v>
       </c>
       <c r="O46" t="n">
-        <v>18000</v>
+        <v>7000</v>
       </c>
       <c r="P46" t="n">
-        <v>18000</v>
+        <v>7000</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S46" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="T46" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="47">
@@ -4087,7 +4087,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44559</v>
+        <v>44169</v>
       </c>
       <c r="E47" t="n">
         <v>13</v>
@@ -4115,7 +4115,7 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Dina</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
@@ -4124,32 +4124,32 @@
         </is>
       </c>
       <c r="M47" t="n">
-        <v>380</v>
+        <v>80</v>
       </c>
       <c r="N47" t="n">
-        <v>14400</v>
+        <v>10000</v>
       </c>
       <c r="O47" t="n">
-        <v>14400</v>
+        <v>10000</v>
       </c>
       <c r="P47" t="n">
-        <v>14400</v>
+        <v>10000</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S47" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T47" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="48">
@@ -4167,7 +4167,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44546</v>
+        <v>44537</v>
       </c>
       <c r="E48" t="n">
         <v>13</v>
@@ -4195,41 +4195,41 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>Dina</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M48" t="n">
-        <v>380</v>
+        <v>400</v>
       </c>
       <c r="N48" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="O48" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="P48" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S48" t="n">
-        <v>1200</v>
+        <v>889</v>
       </c>
       <c r="T48" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="49">
@@ -4247,7 +4247,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44546</v>
+        <v>44572</v>
       </c>
       <c r="E49" t="n">
         <v>13</v>
@@ -4275,7 +4275,7 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>Dina</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
@@ -4284,32 +4284,32 @@
         </is>
       </c>
       <c r="M49" t="n">
-        <v>330</v>
+        <v>580</v>
       </c>
       <c r="N49" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O49" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P49" t="n">
-        <v>10000</v>
+        <v>14517</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S49" t="n">
-        <v>1000</v>
+        <v>806</v>
       </c>
       <c r="T49" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="50">
@@ -4327,7 +4327,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44546</v>
+        <v>44558</v>
       </c>
       <c r="E50" t="n">
         <v>13</v>
@@ -4355,29 +4355,29 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Dina</t>
+          <t>Helena</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M50" t="n">
-        <v>300</v>
+        <v>330</v>
       </c>
       <c r="N50" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="O50" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="P50" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R50" t="inlineStr">
@@ -4386,10 +4386,10 @@
         </is>
       </c>
       <c r="S50" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T50" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51">
@@ -4407,7 +4407,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44547</v>
+        <v>44558</v>
       </c>
       <c r="E51" t="n">
         <v>13</v>
@@ -4435,41 +4435,41 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>Dina</t>
+          <t>Helena</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M51" t="n">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="N51" t="n">
-        <v>12000</v>
+        <v>12800</v>
       </c>
       <c r="O51" t="n">
-        <v>12000</v>
+        <v>12800</v>
       </c>
       <c r="P51" t="n">
-        <v>12000</v>
+        <v>12800</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R51" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S51" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="T51" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52">
@@ -4487,7 +4487,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44547</v>
+        <v>44558</v>
       </c>
       <c r="E52" t="n">
         <v>13</v>
@@ -4515,7 +4515,7 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Dina</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
@@ -4527,17 +4527,17 @@
         <v>410</v>
       </c>
       <c r="N52" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O52" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P52" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R52" t="inlineStr">
@@ -4546,10 +4546,10 @@
         </is>
       </c>
       <c r="S52" t="n">
-        <v>1000</v>
+        <v>778</v>
       </c>
       <c r="T52" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="53">
@@ -4567,7 +4567,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44547</v>
+        <v>44558</v>
       </c>
       <c r="E53" t="n">
         <v>13</v>
@@ -4595,7 +4595,7 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>Dina</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
@@ -4604,20 +4604,20 @@
         </is>
       </c>
       <c r="M53" t="n">
-        <v>350</v>
+        <v>380</v>
       </c>
       <c r="N53" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O53" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P53" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R53" t="inlineStr">
@@ -4626,10 +4626,10 @@
         </is>
       </c>
       <c r="S53" t="n">
-        <v>800</v>
+        <v>667</v>
       </c>
       <c r="T53" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="54">
@@ -4647,7 +4647,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44523</v>
+        <v>44174</v>
       </c>
       <c r="E54" t="n">
         <v>13</v>
@@ -4675,7 +4675,7 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Modesto</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
@@ -4684,16 +4684,16 @@
         </is>
       </c>
       <c r="M54" t="n">
-        <v>320</v>
+        <v>120</v>
       </c>
       <c r="N54" t="n">
-        <v>10000</v>
+        <v>8500</v>
       </c>
       <c r="O54" t="n">
-        <v>10000</v>
+        <v>8500</v>
       </c>
       <c r="P54" t="n">
-        <v>10000</v>
+        <v>8500</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
@@ -4702,11 +4702,11 @@
       </c>
       <c r="R54" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S54" t="n">
-        <v>1000</v>
+        <v>850</v>
       </c>
       <c r="T54" t="n">
         <v>10</v>
@@ -4727,7 +4727,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44554</v>
+        <v>44174</v>
       </c>
       <c r="E55" t="n">
         <v>13</v>
@@ -4755,7 +4755,7 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Modesto</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
@@ -4764,16 +4764,16 @@
         </is>
       </c>
       <c r="M55" t="n">
-        <v>410</v>
+        <v>180</v>
       </c>
       <c r="N55" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O55" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P55" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
@@ -4782,11 +4782,11 @@
       </c>
       <c r="R55" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S55" t="n">
-        <v>778</v>
+        <v>833</v>
       </c>
       <c r="T55" t="n">
         <v>18</v>
@@ -4807,7 +4807,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44554</v>
+        <v>44174</v>
       </c>
       <c r="E56" t="n">
         <v>13</v>
@@ -4835,7 +4835,7 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Modesto</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
@@ -4844,7 +4844,7 @@
         </is>
       </c>
       <c r="M56" t="n">
-        <v>380</v>
+        <v>120</v>
       </c>
       <c r="N56" t="n">
         <v>12000</v>
@@ -4862,7 +4862,7 @@
       </c>
       <c r="R56" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S56" t="n">
@@ -4887,7 +4887,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44533</v>
+        <v>44574</v>
       </c>
       <c r="E57" t="n">
         <v>13</v>
@@ -4915,29 +4915,29 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M57" t="n">
-        <v>410</v>
+        <v>350</v>
       </c>
       <c r="N57" t="n">
-        <v>16500</v>
+        <v>18000</v>
       </c>
       <c r="O57" t="n">
-        <v>16500</v>
+        <v>18000</v>
       </c>
       <c r="P57" t="n">
-        <v>16500</v>
+        <v>18000</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R57" t="inlineStr">
@@ -4946,10 +4946,10 @@
         </is>
       </c>
       <c r="S57" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="T57" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="58">
@@ -4967,7 +4967,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44533</v>
+        <v>44574</v>
       </c>
       <c r="E58" t="n">
         <v>13</v>
@@ -4995,29 +4995,29 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M58" t="n">
-        <v>300</v>
+        <v>480</v>
       </c>
       <c r="N58" t="n">
-        <v>10500</v>
+        <v>15000</v>
       </c>
       <c r="O58" t="n">
-        <v>10500</v>
+        <v>15000</v>
       </c>
       <c r="P58" t="n">
-        <v>10500</v>
+        <v>15000</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R58" t="inlineStr">
@@ -5026,10 +5026,10 @@
         </is>
       </c>
       <c r="S58" t="n">
-        <v>700</v>
+        <v>833</v>
       </c>
       <c r="T58" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="59">
@@ -5047,7 +5047,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44533</v>
+        <v>44175</v>
       </c>
       <c r="E59" t="n">
         <v>13</v>
@@ -5075,29 +5075,29 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Modesto</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M59" t="n">
-        <v>250</v>
+        <v>140</v>
       </c>
       <c r="N59" t="n">
-        <v>7500</v>
+        <v>11000</v>
       </c>
       <c r="O59" t="n">
-        <v>7500</v>
+        <v>12000</v>
       </c>
       <c r="P59" t="n">
-        <v>7500</v>
+        <v>11571</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="R59" t="inlineStr">
@@ -5106,10 +5106,10 @@
         </is>
       </c>
       <c r="S59" t="n">
-        <v>500</v>
+        <v>964</v>
       </c>
       <c r="T59" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60">
@@ -5127,7 +5127,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44160</v>
+        <v>44523</v>
       </c>
       <c r="E60" t="n">
         <v>13</v>
@@ -5164,16 +5164,16 @@
         </is>
       </c>
       <c r="M60" t="n">
-        <v>25</v>
+        <v>320</v>
       </c>
       <c r="N60" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O60" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P60" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
@@ -5186,7 +5186,7 @@
         </is>
       </c>
       <c r="S60" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T60" t="n">
         <v>10</v>
@@ -5207,7 +5207,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44160</v>
+        <v>44559</v>
       </c>
       <c r="E61" t="n">
         <v>13</v>
@@ -5235,41 +5235,41 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Helena</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M61" t="n">
-        <v>40</v>
+        <v>310</v>
       </c>
       <c r="N61" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="O61" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="P61" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R61" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S61" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="T61" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="62">
@@ -5287,7 +5287,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44159</v>
+        <v>44559</v>
       </c>
       <c r="E62" t="n">
         <v>13</v>
@@ -5315,7 +5315,7 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Helena</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
@@ -5324,32 +5324,32 @@
         </is>
       </c>
       <c r="M62" t="n">
-        <v>80</v>
+        <v>350</v>
       </c>
       <c r="N62" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O62" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P62" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R62" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S62" t="n">
         <v>800</v>
       </c>
       <c r="T62" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="63">
@@ -5367,7 +5367,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44159</v>
+        <v>44559</v>
       </c>
       <c r="E63" t="n">
         <v>13</v>
@@ -5395,29 +5395,29 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M63" t="n">
-        <v>65</v>
+        <v>300</v>
       </c>
       <c r="N63" t="n">
-        <v>7000</v>
+        <v>18000</v>
       </c>
       <c r="O63" t="n">
-        <v>7000</v>
+        <v>18000</v>
       </c>
       <c r="P63" t="n">
-        <v>7000</v>
+        <v>18000</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R63" t="inlineStr">
@@ -5426,10 +5426,10 @@
         </is>
       </c>
       <c r="S63" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="T63" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="64">
@@ -5447,7 +5447,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44187</v>
+        <v>44559</v>
       </c>
       <c r="E64" t="n">
         <v>13</v>
@@ -5484,20 +5484,20 @@
         </is>
       </c>
       <c r="M64" t="n">
-        <v>80</v>
+        <v>380</v>
       </c>
       <c r="N64" t="n">
-        <v>15000</v>
+        <v>14400</v>
       </c>
       <c r="O64" t="n">
-        <v>15000</v>
+        <v>14400</v>
       </c>
       <c r="P64" t="n">
-        <v>15000</v>
+        <v>14400</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R64" t="inlineStr">
@@ -5506,10 +5506,10 @@
         </is>
       </c>
       <c r="S64" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T64" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="65">
@@ -5527,7 +5527,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44187</v>
+        <v>44519</v>
       </c>
       <c r="E65" t="n">
         <v>13</v>
@@ -5555,25 +5555,25 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M65" t="n">
-        <v>95</v>
+        <v>300</v>
       </c>
       <c r="N65" t="n">
-        <v>13500</v>
+        <v>22500</v>
       </c>
       <c r="O65" t="n">
-        <v>13500</v>
+        <v>22500</v>
       </c>
       <c r="P65" t="n">
-        <v>13500</v>
+        <v>22500</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
@@ -5582,11 +5582,11 @@
       </c>
       <c r="R65" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S65" t="n">
-        <v>900</v>
+        <v>1500</v>
       </c>
       <c r="T65" t="n">
         <v>15</v>
@@ -5607,7 +5607,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44187</v>
+        <v>44554</v>
       </c>
       <c r="E66" t="n">
         <v>13</v>
@@ -5640,24 +5640,24 @@
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M66" t="n">
-        <v>120</v>
+        <v>410</v>
       </c>
       <c r="N66" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O66" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P66" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R66" t="inlineStr">
@@ -5666,10 +5666,10 @@
         </is>
       </c>
       <c r="S66" t="n">
-        <v>800</v>
+        <v>778</v>
       </c>
       <c r="T66" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="67">
@@ -5687,7 +5687,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44544</v>
+        <v>44554</v>
       </c>
       <c r="E67" t="n">
         <v>13</v>
@@ -5715,29 +5715,29 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>Dina</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M67" t="n">
-        <v>330</v>
+        <v>380</v>
       </c>
       <c r="N67" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O67" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P67" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R67" t="inlineStr">
@@ -5746,10 +5746,10 @@
         </is>
       </c>
       <c r="S67" t="n">
-        <v>1000</v>
+        <v>667</v>
       </c>
       <c r="T67" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="68">
@@ -5767,7 +5767,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44544</v>
+        <v>44525</v>
       </c>
       <c r="E68" t="n">
         <v>13</v>
@@ -5795,29 +5795,29 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>Dina</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M68" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="N68" t="n">
-        <v>12000</v>
+        <v>25200</v>
       </c>
       <c r="O68" t="n">
-        <v>12000</v>
+        <v>25200</v>
       </c>
       <c r="P68" t="n">
-        <v>12000</v>
+        <v>25200</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R68" t="inlineStr">
@@ -5826,10 +5826,10 @@
         </is>
       </c>
       <c r="S68" t="n">
-        <v>800</v>
+        <v>1400</v>
       </c>
       <c r="T68" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="69">
@@ -5847,7 +5847,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44575</v>
+        <v>44525</v>
       </c>
       <c r="E69" t="n">
         <v>13</v>
@@ -5875,25 +5875,25 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M69" t="n">
-        <v>480</v>
+        <v>250</v>
       </c>
       <c r="N69" t="n">
-        <v>17000</v>
+        <v>21600</v>
       </c>
       <c r="O69" t="n">
-        <v>17000</v>
+        <v>21600</v>
       </c>
       <c r="P69" t="n">
-        <v>17000</v>
+        <v>21600</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
@@ -5906,7 +5906,7 @@
         </is>
       </c>
       <c r="S69" t="n">
-        <v>944</v>
+        <v>1200</v>
       </c>
       <c r="T69" t="n">
         <v>18</v>
@@ -5927,7 +5927,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44575</v>
+        <v>44533</v>
       </c>
       <c r="E70" t="n">
         <v>13</v>
@@ -5955,7 +5955,7 @@
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
@@ -5964,20 +5964,20 @@
         </is>
       </c>
       <c r="M70" t="n">
-        <v>330</v>
+        <v>410</v>
       </c>
       <c r="N70" t="n">
-        <v>15000</v>
+        <v>16500</v>
       </c>
       <c r="O70" t="n">
-        <v>15000</v>
+        <v>16500</v>
       </c>
       <c r="P70" t="n">
-        <v>15000</v>
+        <v>16500</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R70" t="inlineStr">
@@ -5986,10 +5986,10 @@
         </is>
       </c>
       <c r="S70" t="n">
-        <v>833</v>
+        <v>1100</v>
       </c>
       <c r="T70" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="71">
@@ -6007,7 +6007,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44560</v>
+        <v>44533</v>
       </c>
       <c r="E71" t="n">
         <v>13</v>
@@ -6035,29 +6035,29 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>Helena</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M71" t="n">
-        <v>410</v>
+        <v>300</v>
       </c>
       <c r="N71" t="n">
-        <v>18000</v>
+        <v>10500</v>
       </c>
       <c r="O71" t="n">
-        <v>18000</v>
+        <v>10500</v>
       </c>
       <c r="P71" t="n">
-        <v>18000</v>
+        <v>10500</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R71" t="inlineStr">
@@ -6066,10 +6066,10 @@
         </is>
       </c>
       <c r="S71" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="T71" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="72">
@@ -6087,7 +6087,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44560</v>
+        <v>44533</v>
       </c>
       <c r="E72" t="n">
         <v>13</v>
@@ -6115,29 +6115,29 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>Helena</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M72" t="n">
-        <v>330</v>
+        <v>250</v>
       </c>
       <c r="N72" t="n">
-        <v>14400</v>
+        <v>7500</v>
       </c>
       <c r="O72" t="n">
-        <v>14400</v>
+        <v>7500</v>
       </c>
       <c r="P72" t="n">
-        <v>14400</v>
+        <v>7500</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R72" t="inlineStr">
@@ -6146,10 +6146,10 @@
         </is>
       </c>
       <c r="S72" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="T72" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="73">
@@ -6167,7 +6167,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44560</v>
+        <v>44194</v>
       </c>
       <c r="E73" t="n">
         <v>13</v>
@@ -6195,29 +6195,29 @@
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>Helena</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M73" t="n">
-        <v>380</v>
+        <v>120</v>
       </c>
       <c r="N73" t="n">
-        <v>12600</v>
+        <v>13000</v>
       </c>
       <c r="O73" t="n">
-        <v>12600</v>
+        <v>13000</v>
       </c>
       <c r="P73" t="n">
-        <v>12600</v>
+        <v>13000</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R73" t="inlineStr">
@@ -6226,10 +6226,10 @@
         </is>
       </c>
       <c r="S73" t="n">
-        <v>700</v>
+        <v>867</v>
       </c>
       <c r="T73" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="74">
@@ -6247,7 +6247,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44195</v>
+        <v>44550</v>
       </c>
       <c r="E74" t="n">
         <v>13</v>
@@ -6275,7 +6275,7 @@
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
@@ -6284,32 +6284,32 @@
         </is>
       </c>
       <c r="M74" t="n">
-        <v>124</v>
+        <v>150</v>
       </c>
       <c r="N74" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="O74" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="P74" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R74" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S74" t="n">
-        <v>867</v>
+        <v>800</v>
       </c>
       <c r="T74" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="75">
@@ -6327,7 +6327,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44162</v>
+        <v>44550</v>
       </c>
       <c r="E75" t="n">
         <v>13</v>
@@ -6360,20 +6360,20 @@
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M75" t="n">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="N75" t="n">
-        <v>8500</v>
+        <v>6000</v>
       </c>
       <c r="O75" t="n">
-        <v>8500</v>
+        <v>6000</v>
       </c>
       <c r="P75" t="n">
-        <v>8500</v>
+        <v>6000</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
@@ -6382,11 +6382,11 @@
       </c>
       <c r="R75" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S75" t="n">
-        <v>850</v>
+        <v>600</v>
       </c>
       <c r="T75" t="n">
         <v>10</v>
@@ -6407,7 +6407,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44162</v>
+        <v>44560</v>
       </c>
       <c r="E76" t="n">
         <v>13</v>
@@ -6435,29 +6435,29 @@
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Helena</t>
         </is>
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M76" t="n">
-        <v>75</v>
+        <v>410</v>
       </c>
       <c r="N76" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="O76" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P76" t="n">
-        <v>14400</v>
+        <v>18000</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R76" t="inlineStr">
@@ -6466,7 +6466,7 @@
         </is>
       </c>
       <c r="S76" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T76" t="n">
         <v>18</v>
@@ -6487,7 +6487,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44551</v>
+        <v>44560</v>
       </c>
       <c r="E77" t="n">
         <v>13</v>
@@ -6515,25 +6515,25 @@
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>Dina</t>
+          <t>Helena</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M77" t="n">
-        <v>220</v>
+        <v>330</v>
       </c>
       <c r="N77" t="n">
-        <v>18000</v>
+        <v>14400</v>
       </c>
       <c r="O77" t="n">
-        <v>18000</v>
+        <v>14400</v>
       </c>
       <c r="P77" t="n">
-        <v>18000</v>
+        <v>14400</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
@@ -6542,11 +6542,11 @@
       </c>
       <c r="R77" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S77" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T77" t="n">
         <v>18</v>
@@ -6567,7 +6567,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44551</v>
+        <v>44560</v>
       </c>
       <c r="E78" t="n">
         <v>13</v>
@@ -6595,25 +6595,25 @@
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>Dina</t>
+          <t>Helena</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M78" t="n">
-        <v>350</v>
+        <v>380</v>
       </c>
       <c r="N78" t="n">
-        <v>14400</v>
+        <v>12600</v>
       </c>
       <c r="O78" t="n">
-        <v>14400</v>
+        <v>12600</v>
       </c>
       <c r="P78" t="n">
-        <v>14400</v>
+        <v>12600</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
@@ -6622,11 +6622,11 @@
       </c>
       <c r="R78" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S78" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="T78" t="n">
         <v>18</v>
@@ -6647,7 +6647,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44552</v>
+        <v>44167</v>
       </c>
       <c r="E79" t="n">
         <v>13</v>
@@ -6675,7 +6675,7 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>Dina</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
@@ -6684,7 +6684,7 @@
         </is>
       </c>
       <c r="M79" t="n">
-        <v>200</v>
+        <v>85</v>
       </c>
       <c r="N79" t="n">
         <v>10000</v>
@@ -6727,7 +6727,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44552</v>
+        <v>44167</v>
       </c>
       <c r="E80" t="n">
         <v>13</v>
@@ -6755,7 +6755,7 @@
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>Dina</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
@@ -6764,16 +6764,16 @@
         </is>
       </c>
       <c r="M80" t="n">
-        <v>220</v>
+        <v>120</v>
       </c>
       <c r="N80" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="O80" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="P80" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
@@ -6786,7 +6786,7 @@
         </is>
       </c>
       <c r="S80" t="n">
-        <v>800</v>
+        <v>950</v>
       </c>
       <c r="T80" t="n">
         <v>10</v>
@@ -6807,7 +6807,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44552</v>
+        <v>44167</v>
       </c>
       <c r="E81" t="n">
         <v>13</v>
@@ -6835,29 +6835,29 @@
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>Dina</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M81" t="n">
-        <v>350</v>
+        <v>60</v>
       </c>
       <c r="N81" t="n">
-        <v>6000</v>
+        <v>15000</v>
       </c>
       <c r="O81" t="n">
-        <v>6000</v>
+        <v>15000</v>
       </c>
       <c r="P81" t="n">
-        <v>6000</v>
+        <v>15000</v>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R81" t="inlineStr">
@@ -6866,10 +6866,10 @@
         </is>
       </c>
       <c r="S81" t="n">
-        <v>600</v>
+        <v>833</v>
       </c>
       <c r="T81" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="82">
@@ -6887,7 +6887,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44552</v>
+        <v>44545</v>
       </c>
       <c r="E82" t="n">
         <v>13</v>
@@ -6915,7 +6915,7 @@
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>Modesto</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L82" t="inlineStr">
@@ -6924,29 +6924,29 @@
         </is>
       </c>
       <c r="M82" t="n">
-        <v>280</v>
+        <v>310</v>
       </c>
       <c r="N82" t="n">
-        <v>21600</v>
+        <v>18000</v>
       </c>
       <c r="O82" t="n">
-        <v>21600</v>
+        <v>18000</v>
       </c>
       <c r="P82" t="n">
-        <v>21600</v>
+        <v>18000</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R82" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S82" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="T82" t="n">
         <v>18</v>
@@ -6967,7 +6967,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44552</v>
+        <v>44545</v>
       </c>
       <c r="E83" t="n">
         <v>13</v>
@@ -6995,7 +6995,7 @@
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>Modesto</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L83" t="inlineStr">
@@ -7004,29 +7004,29 @@
         </is>
       </c>
       <c r="M83" t="n">
-        <v>310</v>
+        <v>350</v>
       </c>
       <c r="N83" t="n">
-        <v>18000</v>
+        <v>14400</v>
       </c>
       <c r="O83" t="n">
-        <v>18000</v>
+        <v>14400</v>
       </c>
       <c r="P83" t="n">
-        <v>18000</v>
+        <v>14400</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R83" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S83" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T83" t="n">
         <v>18</v>
@@ -7047,7 +7047,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44552</v>
+        <v>44547</v>
       </c>
       <c r="E84" t="n">
         <v>13</v>
@@ -7075,29 +7075,29 @@
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>Modesto</t>
+          <t>Dina</t>
         </is>
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M84" t="n">
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="N84" t="n">
-        <v>14400</v>
+        <v>12000</v>
       </c>
       <c r="O84" t="n">
-        <v>14400</v>
+        <v>12000</v>
       </c>
       <c r="P84" t="n">
-        <v>14400</v>
+        <v>12000</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R84" t="inlineStr">
@@ -7106,10 +7106,10 @@
         </is>
       </c>
       <c r="S84" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="T84" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="85">
@@ -7127,7 +7127,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44573</v>
+        <v>44547</v>
       </c>
       <c r="E85" t="n">
         <v>13</v>
@@ -7155,29 +7155,29 @@
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Dina</t>
         </is>
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M85" t="n">
-        <v>380</v>
+        <v>410</v>
       </c>
       <c r="N85" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="O85" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="P85" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R85" t="inlineStr">
@@ -7186,10 +7186,10 @@
         </is>
       </c>
       <c r="S85" t="n">
-        <v>944</v>
+        <v>1000</v>
       </c>
       <c r="T85" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="86">
@@ -7207,7 +7207,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44573</v>
+        <v>44547</v>
       </c>
       <c r="E86" t="n">
         <v>13</v>
@@ -7235,29 +7235,29 @@
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Dina</t>
         </is>
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M86" t="n">
-        <v>410</v>
+        <v>350</v>
       </c>
       <c r="N86" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="O86" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="P86" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R86" t="inlineStr">
@@ -7266,10 +7266,10 @@
         </is>
       </c>
       <c r="S86" t="n">
-        <v>833</v>
+        <v>800</v>
       </c>
       <c r="T86" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="87">
@@ -7287,7 +7287,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44573</v>
+        <v>44162</v>
       </c>
       <c r="E87" t="n">
         <v>13</v>
@@ -7315,29 +7315,29 @@
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M87" t="n">
-        <v>330</v>
+        <v>70</v>
       </c>
       <c r="N87" t="n">
-        <v>13000</v>
+        <v>8500</v>
       </c>
       <c r="O87" t="n">
-        <v>13000</v>
+        <v>8500</v>
       </c>
       <c r="P87" t="n">
-        <v>13000</v>
+        <v>8500</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R87" t="inlineStr">
@@ -7346,10 +7346,10 @@
         </is>
       </c>
       <c r="S87" t="n">
-        <v>722</v>
+        <v>850</v>
       </c>
       <c r="T87" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="88">
@@ -7367,7 +7367,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44553</v>
+        <v>44162</v>
       </c>
       <c r="E88" t="n">
         <v>13</v>
@@ -7395,29 +7395,29 @@
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>Dina</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M88" t="n">
-        <v>280</v>
+        <v>75</v>
       </c>
       <c r="N88" t="n">
-        <v>7500</v>
+        <v>14000</v>
       </c>
       <c r="O88" t="n">
-        <v>7500</v>
+        <v>15000</v>
       </c>
       <c r="P88" t="n">
-        <v>7500</v>
+        <v>14400</v>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
-          <t>$/bandeja 6 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R88" t="inlineStr">
@@ -7426,10 +7426,10 @@
         </is>
       </c>
       <c r="S88" t="n">
-        <v>1250</v>
+        <v>800</v>
       </c>
       <c r="T88" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="89">
@@ -7447,7 +7447,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44553</v>
+        <v>44176</v>
       </c>
       <c r="E89" t="n">
         <v>13</v>
@@ -7475,7 +7475,7 @@
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>Dina</t>
+          <t>Modesto</t>
         </is>
       </c>
       <c r="L89" t="inlineStr">
@@ -7484,20 +7484,20 @@
         </is>
       </c>
       <c r="M89" t="n">
-        <v>350</v>
+        <v>115</v>
       </c>
       <c r="N89" t="n">
-        <v>6500</v>
+        <v>11000</v>
       </c>
       <c r="O89" t="n">
-        <v>6500</v>
+        <v>12000</v>
       </c>
       <c r="P89" t="n">
-        <v>6500</v>
+        <v>11609</v>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
-          <t>$/bandeja 6 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="R89" t="inlineStr">
@@ -7506,10 +7506,10 @@
         </is>
       </c>
       <c r="S89" t="n">
-        <v>1083</v>
+        <v>967</v>
       </c>
       <c r="T89" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="90">
@@ -7527,7 +7527,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44553</v>
+        <v>44160</v>
       </c>
       <c r="E90" t="n">
         <v>13</v>
@@ -7555,7 +7555,7 @@
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L90" t="inlineStr">
@@ -7564,20 +7564,20 @@
         </is>
       </c>
       <c r="M90" t="n">
-        <v>380</v>
+        <v>25</v>
       </c>
       <c r="N90" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="O90" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="P90" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R90" t="inlineStr">
@@ -7586,10 +7586,10 @@
         </is>
       </c>
       <c r="S90" t="n">
-        <v>778</v>
+        <v>800</v>
       </c>
       <c r="T90" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="91">
@@ -7607,7 +7607,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44553</v>
+        <v>44160</v>
       </c>
       <c r="E91" t="n">
         <v>13</v>
@@ -7635,7 +7635,7 @@
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L91" t="inlineStr">
@@ -7644,20 +7644,20 @@
         </is>
       </c>
       <c r="M91" t="n">
-        <v>410</v>
+        <v>40</v>
       </c>
       <c r="N91" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="O91" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="P91" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R91" t="inlineStr">
@@ -7666,10 +7666,10 @@
         </is>
       </c>
       <c r="S91" t="n">
-        <v>667</v>
+        <v>700</v>
       </c>
       <c r="T91" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="92">
@@ -7687,7 +7687,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44572</v>
+        <v>44189</v>
       </c>
       <c r="E92" t="n">
         <v>13</v>
@@ -7724,16 +7724,16 @@
         </is>
       </c>
       <c r="M92" t="n">
-        <v>580</v>
+        <v>130</v>
       </c>
       <c r="N92" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O92" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P92" t="n">
-        <v>14517</v>
+        <v>12000</v>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="S92" t="n">
-        <v>806</v>
+        <v>667</v>
       </c>
       <c r="T92" t="n">
         <v>18</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Damasco.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Damasco.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44575</v>
+        <v>44519</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -515,41 +515,41 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>480</v>
+        <v>300</v>
       </c>
       <c r="N2" t="n">
-        <v>17000</v>
+        <v>22500</v>
       </c>
       <c r="O2" t="n">
-        <v>17000</v>
+        <v>22500</v>
       </c>
       <c r="P2" t="n">
-        <v>17000</v>
+        <v>22500</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S2" t="n">
-        <v>944</v>
+        <v>1500</v>
       </c>
       <c r="T2" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44575</v>
+        <v>44168</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -595,41 +595,41 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Dina</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>330</v>
+        <v>40</v>
       </c>
       <c r="N3" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="O3" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P3" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S3" t="n">
-        <v>833</v>
+        <v>1400</v>
       </c>
       <c r="T3" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44544</v>
+        <v>44574</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -675,7 +675,7 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Dina</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -684,20 +684,20 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>330</v>
+        <v>350</v>
       </c>
       <c r="N4" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O4" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P4" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -709,7 +709,7 @@
         <v>1000</v>
       </c>
       <c r="T4" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5">
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44544</v>
+        <v>44574</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -755,7 +755,7 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Dina</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -764,20 +764,20 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>350</v>
+        <v>480</v>
       </c>
       <c r="N5" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O5" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P5" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -786,10 +786,10 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>800</v>
+        <v>833</v>
       </c>
       <c r="T5" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44539</v>
+        <v>44169</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -835,41 +835,41 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Dina</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>290</v>
+        <v>80</v>
       </c>
       <c r="N6" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="O6" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="P6" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S6" t="n">
         <v>1000</v>
       </c>
       <c r="T6" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44539</v>
+        <v>44536</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -924,32 +924,32 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>300</v>
+        <v>220</v>
       </c>
       <c r="N7" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="O7" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="P7" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S7" t="n">
-        <v>889</v>
+        <v>1100</v>
       </c>
       <c r="T7" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44539</v>
+        <v>44536</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -1004,32 +1004,32 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="N8" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="O8" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="P8" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S8" t="n">
-        <v>778</v>
+        <v>700</v>
       </c>
       <c r="T8" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44187</v>
+        <v>44167</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1075,29 +1075,29 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="N9" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O9" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P9" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
@@ -1109,7 +1109,7 @@
         <v>1000</v>
       </c>
       <c r="T9" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44187</v>
+        <v>44167</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1155,29 +1155,29 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>95</v>
+        <v>120</v>
       </c>
       <c r="N10" t="n">
-        <v>13500</v>
+        <v>9500</v>
       </c>
       <c r="O10" t="n">
-        <v>13500</v>
+        <v>9500</v>
       </c>
       <c r="P10" t="n">
-        <v>13500</v>
+        <v>9500</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
@@ -1186,10 +1186,10 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>900</v>
+        <v>950</v>
       </c>
       <c r="T10" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11">
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44187</v>
+        <v>44167</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1235,29 +1235,29 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="N11" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O11" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P11" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
@@ -1266,10 +1266,10 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>800</v>
+        <v>833</v>
       </c>
       <c r="T11" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12">
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44166</v>
+        <v>44559</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1315,41 +1315,41 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Helena</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>120</v>
+        <v>310</v>
       </c>
       <c r="N12" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O12" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P12" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S12" t="n">
         <v>1000</v>
       </c>
       <c r="T12" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44166</v>
+        <v>44559</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1395,41 +1395,41 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Helena</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>120</v>
+        <v>350</v>
       </c>
       <c r="N13" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O13" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P13" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S13" t="n">
         <v>800</v>
       </c>
       <c r="T13" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14">
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44553</v>
+        <v>44559</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1475,7 +1475,7 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Dina</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
@@ -1484,20 +1484,20 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="N14" t="n">
-        <v>7500</v>
+        <v>18000</v>
       </c>
       <c r="O14" t="n">
-        <v>7500</v>
+        <v>18000</v>
       </c>
       <c r="P14" t="n">
-        <v>7500</v>
+        <v>18000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>$/bandeja 6 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
@@ -1506,10 +1506,10 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="T14" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15">
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44553</v>
+        <v>44559</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1555,7 +1555,7 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Dina</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
@@ -1564,20 +1564,20 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>350</v>
+        <v>380</v>
       </c>
       <c r="N15" t="n">
-        <v>6500</v>
+        <v>14400</v>
       </c>
       <c r="O15" t="n">
-        <v>6500</v>
+        <v>14400</v>
       </c>
       <c r="P15" t="n">
-        <v>6500</v>
+        <v>14400</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>$/bandeja 6 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
@@ -1586,10 +1586,10 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1083</v>
+        <v>800</v>
       </c>
       <c r="T15" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16">
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44553</v>
+        <v>44175</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1635,7 +1635,7 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Modesto</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
@@ -1644,20 +1644,20 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>380</v>
+        <v>140</v>
       </c>
       <c r="N16" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="O16" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P16" t="n">
-        <v>14000</v>
+        <v>11571</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
@@ -1666,10 +1666,10 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>778</v>
+        <v>964</v>
       </c>
       <c r="T16" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17">
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44553</v>
+        <v>44537</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1715,25 +1715,25 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="N17" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="O17" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="P17" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>667</v>
+        <v>889</v>
       </c>
       <c r="T17" t="n">
         <v>18</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44540</v>
+        <v>44558</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1795,12 +1795,12 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Helena</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M18" t="n">
@@ -1817,7 +1817,7 @@
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
@@ -1826,10 +1826,10 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>889</v>
+        <v>1000</v>
       </c>
       <c r="T18" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19">
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44540</v>
+        <v>44558</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
@@ -1875,29 +1875,29 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Helena</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>280</v>
+        <v>350</v>
       </c>
       <c r="N19" t="n">
-        <v>14000</v>
+        <v>12800</v>
       </c>
       <c r="O19" t="n">
-        <v>14000</v>
+        <v>12800</v>
       </c>
       <c r="P19" t="n">
-        <v>14000</v>
+        <v>12800</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
@@ -1906,10 +1906,10 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>778</v>
+        <v>800</v>
       </c>
       <c r="T19" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20">
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44195</v>
+        <v>44558</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1964,20 +1964,20 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>124</v>
+        <v>410</v>
       </c>
       <c r="N20" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O20" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P20" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
@@ -1986,10 +1986,10 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>867</v>
+        <v>778</v>
       </c>
       <c r="T20" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21">
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44557</v>
+        <v>44558</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -2040,36 +2040,36 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M21" t="n">
         <v>380</v>
       </c>
       <c r="N21" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O21" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P21" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S21" t="n">
-        <v>1000</v>
+        <v>667</v>
       </c>
       <c r="T21" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22">
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44557</v>
+        <v>44195</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
@@ -2124,29 +2124,29 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>330</v>
+        <v>124</v>
       </c>
       <c r="N22" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O22" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P22" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S22" t="n">
-        <v>800</v>
+        <v>867</v>
       </c>
       <c r="T22" t="n">
         <v>15</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44546</v>
+        <v>44159</v>
       </c>
       <c r="E23" t="n">
         <v>13</v>
@@ -2195,25 +2195,25 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Dina</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>380</v>
+        <v>80</v>
       </c>
       <c r="N23" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O23" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P23" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2222,11 +2222,11 @@
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S23" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="T23" t="n">
         <v>10</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44546</v>
+        <v>44159</v>
       </c>
       <c r="E24" t="n">
         <v>13</v>
@@ -2275,25 +2275,25 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Dina</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M24" t="n">
-        <v>330</v>
+        <v>65</v>
       </c>
       <c r="N24" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O24" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P24" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2302,11 +2302,11 @@
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S24" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="T24" t="n">
         <v>10</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44546</v>
+        <v>44523</v>
       </c>
       <c r="E25" t="n">
         <v>13</v>
@@ -2355,25 +2355,25 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Dina</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>300</v>
+        <v>320</v>
       </c>
       <c r="N25" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O25" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P25" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2382,11 +2382,11 @@
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S25" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T25" t="n">
         <v>10</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44168</v>
+        <v>44525</v>
       </c>
       <c r="E26" t="n">
         <v>13</v>
@@ -2435,7 +2435,7 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Dina</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
@@ -2444,32 +2444,32 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>40</v>
+        <v>300</v>
       </c>
       <c r="N26" t="n">
-        <v>14000</v>
+        <v>25200</v>
       </c>
       <c r="O26" t="n">
-        <v>14000</v>
+        <v>25200</v>
       </c>
       <c r="P26" t="n">
-        <v>14000</v>
+        <v>25200</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S26" t="n">
         <v>1400</v>
       </c>
       <c r="T26" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27">
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44552</v>
+        <v>44525</v>
       </c>
       <c r="E27" t="n">
         <v>13</v>
@@ -2515,29 +2515,29 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Dina</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M27" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="N27" t="n">
-        <v>10000</v>
+        <v>21600</v>
       </c>
       <c r="O27" t="n">
-        <v>10000</v>
+        <v>21600</v>
       </c>
       <c r="P27" t="n">
-        <v>10000</v>
+        <v>21600</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
@@ -2546,10 +2546,10 @@
         </is>
       </c>
       <c r="S27" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="T27" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28">
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44552</v>
+        <v>44176</v>
       </c>
       <c r="E28" t="n">
         <v>13</v>
@@ -2595,7 +2595,7 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Dina</t>
+          <t>Modesto</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
@@ -2604,20 +2604,20 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>220</v>
+        <v>115</v>
       </c>
       <c r="N28" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="O28" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P28" t="n">
-        <v>8000</v>
+        <v>11609</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
@@ -2626,10 +2626,10 @@
         </is>
       </c>
       <c r="S28" t="n">
-        <v>800</v>
+        <v>967</v>
       </c>
       <c r="T28" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29">
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44552</v>
+        <v>44545</v>
       </c>
       <c r="E29" t="n">
         <v>13</v>
@@ -2675,41 +2675,41 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Dina</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>350</v>
+        <v>310</v>
       </c>
       <c r="N29" t="n">
-        <v>6000</v>
+        <v>18000</v>
       </c>
       <c r="O29" t="n">
-        <v>6000</v>
+        <v>18000</v>
       </c>
       <c r="P29" t="n">
-        <v>6000</v>
+        <v>18000</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S29" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="T29" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30">
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44552</v>
+        <v>44545</v>
       </c>
       <c r="E30" t="n">
         <v>13</v>
@@ -2755,38 +2755,38 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Modesto</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>280</v>
+        <v>350</v>
       </c>
       <c r="N30" t="n">
-        <v>21600</v>
+        <v>14400</v>
       </c>
       <c r="O30" t="n">
-        <v>21600</v>
+        <v>14400</v>
       </c>
       <c r="P30" t="n">
-        <v>21600</v>
+        <v>14400</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S30" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="T30" t="n">
         <v>18</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44552</v>
+        <v>44566</v>
       </c>
       <c r="E31" t="n">
         <v>13</v>
@@ -2835,16 +2835,16 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Modesto</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M31" t="n">
-        <v>310</v>
+        <v>410</v>
       </c>
       <c r="N31" t="n">
         <v>18000</v>
@@ -2857,12 +2857,12 @@
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S31" t="n">
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44552</v>
+        <v>44566</v>
       </c>
       <c r="E32" t="n">
         <v>13</v>
@@ -2915,12 +2915,12 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>Modesto</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M32" t="n">
@@ -2937,12 +2937,12 @@
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S32" t="n">
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44561</v>
+        <v>44551</v>
       </c>
       <c r="E33" t="n">
         <v>13</v>
@@ -2995,7 +2995,7 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Dina</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
@@ -3004,7 +3004,7 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>330</v>
+        <v>220</v>
       </c>
       <c r="N33" t="n">
         <v>18000</v>
@@ -3022,7 +3022,7 @@
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S33" t="n">
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44561</v>
+        <v>44551</v>
       </c>
       <c r="E34" t="n">
         <v>13</v>
@@ -3075,7 +3075,7 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Dina</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
@@ -3102,7 +3102,7 @@
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S34" t="n">
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44561</v>
+        <v>44547</v>
       </c>
       <c r="E35" t="n">
         <v>13</v>
@@ -3155,41 +3155,41 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Dina</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M35" t="n">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="N35" t="n">
-        <v>10800</v>
+        <v>12000</v>
       </c>
       <c r="O35" t="n">
-        <v>10800</v>
+        <v>12000</v>
       </c>
       <c r="P35" t="n">
-        <v>10800</v>
+        <v>12000</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S35" t="n">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="T35" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36">
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44573</v>
+        <v>44547</v>
       </c>
       <c r="E36" t="n">
         <v>13</v>
@@ -3235,29 +3235,29 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Dina</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M36" t="n">
-        <v>380</v>
+        <v>410</v>
       </c>
       <c r="N36" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="O36" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="P36" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
@@ -3266,10 +3266,10 @@
         </is>
       </c>
       <c r="S36" t="n">
-        <v>944</v>
+        <v>1000</v>
       </c>
       <c r="T36" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37">
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44573</v>
+        <v>44547</v>
       </c>
       <c r="E37" t="n">
         <v>13</v>
@@ -3315,29 +3315,29 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Dina</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M37" t="n">
-        <v>410</v>
+        <v>350</v>
       </c>
       <c r="N37" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="O37" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="P37" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
@@ -3346,10 +3346,10 @@
         </is>
       </c>
       <c r="S37" t="n">
-        <v>833</v>
+        <v>800</v>
       </c>
       <c r="T37" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38">
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44573</v>
+        <v>44552</v>
       </c>
       <c r="E38" t="n">
         <v>13</v>
@@ -3395,29 +3395,29 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Dina</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M38" t="n">
-        <v>330</v>
+        <v>200</v>
       </c>
       <c r="N38" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O38" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P38" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R38" t="inlineStr">
@@ -3426,10 +3426,10 @@
         </is>
       </c>
       <c r="S38" t="n">
-        <v>722</v>
+        <v>1000</v>
       </c>
       <c r="T38" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39">
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44551</v>
+        <v>44552</v>
       </c>
       <c r="E39" t="n">
         <v>13</v>
@@ -3480,36 +3480,36 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M39" t="n">
         <v>220</v>
       </c>
       <c r="N39" t="n">
-        <v>18000</v>
+        <v>8000</v>
       </c>
       <c r="O39" t="n">
-        <v>18000</v>
+        <v>8000</v>
       </c>
       <c r="P39" t="n">
-        <v>18000</v>
+        <v>8000</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S39" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T39" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40">
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44551</v>
+        <v>44552</v>
       </c>
       <c r="E40" t="n">
         <v>13</v>
@@ -3560,36 +3560,36 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M40" t="n">
         <v>350</v>
       </c>
       <c r="N40" t="n">
-        <v>14400</v>
+        <v>6000</v>
       </c>
       <c r="O40" t="n">
-        <v>14400</v>
+        <v>6000</v>
       </c>
       <c r="P40" t="n">
-        <v>14400</v>
+        <v>6000</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S40" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="T40" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41">
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44159</v>
+        <v>44552</v>
       </c>
       <c r="E41" t="n">
         <v>13</v>
@@ -3635,29 +3635,29 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Modesto</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M41" t="n">
-        <v>80</v>
+        <v>280</v>
       </c>
       <c r="N41" t="n">
-        <v>8000</v>
+        <v>21600</v>
       </c>
       <c r="O41" t="n">
-        <v>8000</v>
+        <v>21600</v>
       </c>
       <c r="P41" t="n">
-        <v>8000</v>
+        <v>21600</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
@@ -3666,10 +3666,10 @@
         </is>
       </c>
       <c r="S41" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="T41" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42">
@@ -3687,7 +3687,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44159</v>
+        <v>44552</v>
       </c>
       <c r="E42" t="n">
         <v>13</v>
@@ -3715,29 +3715,29 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Modesto</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M42" t="n">
-        <v>65</v>
+        <v>310</v>
       </c>
       <c r="N42" t="n">
-        <v>7000</v>
+        <v>18000</v>
       </c>
       <c r="O42" t="n">
-        <v>7000</v>
+        <v>18000</v>
       </c>
       <c r="P42" t="n">
-        <v>7000</v>
+        <v>18000</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R42" t="inlineStr">
@@ -3746,10 +3746,10 @@
         </is>
       </c>
       <c r="S42" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="T42" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43">
@@ -3767,7 +3767,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44566</v>
+        <v>44552</v>
       </c>
       <c r="E43" t="n">
         <v>13</v>
@@ -3795,38 +3795,38 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Modesto</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M43" t="n">
-        <v>410</v>
+        <v>350</v>
       </c>
       <c r="N43" t="n">
-        <v>18000</v>
+        <v>14400</v>
       </c>
       <c r="O43" t="n">
-        <v>18000</v>
+        <v>14400</v>
       </c>
       <c r="P43" t="n">
-        <v>18000</v>
+        <v>14400</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S43" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T43" t="n">
         <v>18</v>
@@ -3847,7 +3847,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44566</v>
+        <v>44554</v>
       </c>
       <c r="E44" t="n">
         <v>13</v>
@@ -3884,16 +3884,16 @@
         </is>
       </c>
       <c r="M44" t="n">
-        <v>350</v>
+        <v>410</v>
       </c>
       <c r="N44" t="n">
-        <v>14400</v>
+        <v>14000</v>
       </c>
       <c r="O44" t="n">
-        <v>14400</v>
+        <v>14000</v>
       </c>
       <c r="P44" t="n">
-        <v>14400</v>
+        <v>14000</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
@@ -3902,11 +3902,11 @@
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S44" t="n">
-        <v>800</v>
+        <v>778</v>
       </c>
       <c r="T44" t="n">
         <v>18</v>
@@ -3927,7 +3927,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44536</v>
+        <v>44554</v>
       </c>
       <c r="E45" t="n">
         <v>13</v>
@@ -3955,41 +3955,41 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M45" t="n">
-        <v>220</v>
+        <v>380</v>
       </c>
       <c r="N45" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O45" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P45" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S45" t="n">
-        <v>1100</v>
+        <v>667</v>
       </c>
       <c r="T45" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46">
@@ -4007,7 +4007,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44536</v>
+        <v>44166</v>
       </c>
       <c r="E46" t="n">
         <v>13</v>
@@ -4040,20 +4040,20 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M46" t="n">
-        <v>250</v>
+        <v>120</v>
       </c>
       <c r="N46" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O46" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P46" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
@@ -4062,11 +4062,11 @@
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S46" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="T46" t="n">
         <v>10</v>
@@ -4087,7 +4087,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44169</v>
+        <v>44166</v>
       </c>
       <c r="E47" t="n">
         <v>13</v>
@@ -4115,25 +4115,25 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>Dina</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M47" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="N47" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O47" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P47" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
@@ -4142,11 +4142,11 @@
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S47" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T47" t="n">
         <v>10</v>
@@ -4167,7 +4167,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44537</v>
+        <v>44533</v>
       </c>
       <c r="E48" t="n">
         <v>13</v>
@@ -4204,20 +4204,20 @@
         </is>
       </c>
       <c r="M48" t="n">
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="N48" t="n">
-        <v>16000</v>
+        <v>16500</v>
       </c>
       <c r="O48" t="n">
-        <v>16000</v>
+        <v>16500</v>
       </c>
       <c r="P48" t="n">
-        <v>16000</v>
+        <v>16500</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R48" t="inlineStr">
@@ -4226,10 +4226,10 @@
         </is>
       </c>
       <c r="S48" t="n">
-        <v>889</v>
+        <v>1100</v>
       </c>
       <c r="T48" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="49">
@@ -4247,7 +4247,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44572</v>
+        <v>44533</v>
       </c>
       <c r="E49" t="n">
         <v>13</v>
@@ -4275,29 +4275,29 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M49" t="n">
-        <v>580</v>
+        <v>300</v>
       </c>
       <c r="N49" t="n">
-        <v>14000</v>
+        <v>10500</v>
       </c>
       <c r="O49" t="n">
-        <v>15000</v>
+        <v>10500</v>
       </c>
       <c r="P49" t="n">
-        <v>14517</v>
+        <v>10500</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R49" t="inlineStr">
@@ -4306,10 +4306,10 @@
         </is>
       </c>
       <c r="S49" t="n">
-        <v>806</v>
+        <v>700</v>
       </c>
       <c r="T49" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="50">
@@ -4327,7 +4327,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44558</v>
+        <v>44533</v>
       </c>
       <c r="E50" t="n">
         <v>13</v>
@@ -4355,41 +4355,41 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Helena</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M50" t="n">
-        <v>330</v>
+        <v>250</v>
       </c>
       <c r="N50" t="n">
-        <v>16000</v>
+        <v>7500</v>
       </c>
       <c r="O50" t="n">
-        <v>16000</v>
+        <v>7500</v>
       </c>
       <c r="P50" t="n">
-        <v>16000</v>
+        <v>7500</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R50" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S50" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="T50" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="51">
@@ -4407,7 +4407,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44558</v>
+        <v>44573</v>
       </c>
       <c r="E51" t="n">
         <v>13</v>
@@ -4435,41 +4435,41 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>Helena</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M51" t="n">
-        <v>350</v>
+        <v>380</v>
       </c>
       <c r="N51" t="n">
-        <v>12800</v>
+        <v>17000</v>
       </c>
       <c r="O51" t="n">
-        <v>12800</v>
+        <v>17000</v>
       </c>
       <c r="P51" t="n">
-        <v>12800</v>
+        <v>17000</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R51" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S51" t="n">
-        <v>800</v>
+        <v>944</v>
       </c>
       <c r="T51" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="52">
@@ -4487,7 +4487,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44558</v>
+        <v>44573</v>
       </c>
       <c r="E52" t="n">
         <v>13</v>
@@ -4527,13 +4527,13 @@
         <v>410</v>
       </c>
       <c r="N52" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O52" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P52" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="S52" t="n">
-        <v>778</v>
+        <v>833</v>
       </c>
       <c r="T52" t="n">
         <v>18</v>
@@ -4567,7 +4567,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44558</v>
+        <v>44573</v>
       </c>
       <c r="E53" t="n">
         <v>13</v>
@@ -4604,16 +4604,16 @@
         </is>
       </c>
       <c r="M53" t="n">
-        <v>380</v>
+        <v>330</v>
       </c>
       <c r="N53" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O53" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P53" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
@@ -4626,7 +4626,7 @@
         </is>
       </c>
       <c r="S53" t="n">
-        <v>667</v>
+        <v>722</v>
       </c>
       <c r="T53" t="n">
         <v>18</v>
@@ -4647,7 +4647,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44174</v>
+        <v>44544</v>
       </c>
       <c r="E54" t="n">
         <v>13</v>
@@ -4675,41 +4675,41 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>Modesto</t>
+          <t>Dina</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M54" t="n">
-        <v>120</v>
+        <v>330</v>
       </c>
       <c r="N54" t="n">
-        <v>8500</v>
+        <v>15000</v>
       </c>
       <c r="O54" t="n">
-        <v>8500</v>
+        <v>15000</v>
       </c>
       <c r="P54" t="n">
-        <v>8500</v>
+        <v>15000</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R54" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S54" t="n">
-        <v>850</v>
+        <v>1000</v>
       </c>
       <c r="T54" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="55">
@@ -4727,7 +4727,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44174</v>
+        <v>44544</v>
       </c>
       <c r="E55" t="n">
         <v>13</v>
@@ -4755,7 +4755,7 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>Modesto</t>
+          <t>Dina</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
@@ -4764,32 +4764,32 @@
         </is>
       </c>
       <c r="M55" t="n">
-        <v>180</v>
+        <v>350</v>
       </c>
       <c r="N55" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O55" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P55" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R55" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S55" t="n">
-        <v>833</v>
+        <v>800</v>
       </c>
       <c r="T55" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="56">
@@ -4807,7 +4807,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44174</v>
+        <v>44560</v>
       </c>
       <c r="E56" t="n">
         <v>13</v>
@@ -4835,38 +4835,38 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>Modesto</t>
+          <t>Helena</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M56" t="n">
-        <v>120</v>
+        <v>410</v>
       </c>
       <c r="N56" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="O56" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="P56" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R56" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S56" t="n">
-        <v>667</v>
+        <v>1000</v>
       </c>
       <c r="T56" t="n">
         <v>18</v>
@@ -4887,7 +4887,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44574</v>
+        <v>44560</v>
       </c>
       <c r="E57" t="n">
         <v>13</v>
@@ -4915,29 +4915,29 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Helena</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M57" t="n">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="N57" t="n">
-        <v>18000</v>
+        <v>14400</v>
       </c>
       <c r="O57" t="n">
-        <v>18000</v>
+        <v>14400</v>
       </c>
       <c r="P57" t="n">
-        <v>18000</v>
+        <v>14400</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R57" t="inlineStr">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="S57" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T57" t="n">
         <v>18</v>
@@ -4967,7 +4967,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44574</v>
+        <v>44560</v>
       </c>
       <c r="E58" t="n">
         <v>13</v>
@@ -4995,29 +4995,29 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Helena</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M58" t="n">
-        <v>480</v>
+        <v>380</v>
       </c>
       <c r="N58" t="n">
-        <v>15000</v>
+        <v>12600</v>
       </c>
       <c r="O58" t="n">
-        <v>15000</v>
+        <v>12600</v>
       </c>
       <c r="P58" t="n">
-        <v>15000</v>
+        <v>12600</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R58" t="inlineStr">
@@ -5026,7 +5026,7 @@
         </is>
       </c>
       <c r="S58" t="n">
-        <v>833</v>
+        <v>700</v>
       </c>
       <c r="T58" t="n">
         <v>18</v>
@@ -5047,7 +5047,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44175</v>
+        <v>44550</v>
       </c>
       <c r="E59" t="n">
         <v>13</v>
@@ -5075,7 +5075,7 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>Modesto</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
@@ -5084,32 +5084,32 @@
         </is>
       </c>
       <c r="M59" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="N59" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="O59" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P59" t="n">
-        <v>11571</v>
+        <v>8000</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R59" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S59" t="n">
-        <v>964</v>
+        <v>800</v>
       </c>
       <c r="T59" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="60">
@@ -5127,7 +5127,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44523</v>
+        <v>44550</v>
       </c>
       <c r="E60" t="n">
         <v>13</v>
@@ -5160,20 +5160,20 @@
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M60" t="n">
-        <v>320</v>
+        <v>120</v>
       </c>
       <c r="N60" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="O60" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="P60" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
@@ -5182,11 +5182,11 @@
       </c>
       <c r="R60" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S60" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="T60" t="n">
         <v>10</v>
@@ -5207,7 +5207,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44559</v>
+        <v>44575</v>
       </c>
       <c r="E61" t="n">
         <v>13</v>
@@ -5235,7 +5235,7 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>Helena</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
@@ -5244,32 +5244,32 @@
         </is>
       </c>
       <c r="M61" t="n">
-        <v>310</v>
+        <v>480</v>
       </c>
       <c r="N61" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="O61" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="P61" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R61" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S61" t="n">
-        <v>1000</v>
+        <v>944</v>
       </c>
       <c r="T61" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="62">
@@ -5287,7 +5287,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44559</v>
+        <v>44575</v>
       </c>
       <c r="E62" t="n">
         <v>13</v>
@@ -5315,7 +5315,7 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>Helena</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
@@ -5324,32 +5324,32 @@
         </is>
       </c>
       <c r="M62" t="n">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="N62" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O62" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P62" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R62" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S62" t="n">
-        <v>800</v>
+        <v>833</v>
       </c>
       <c r="T62" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="63">
@@ -5367,7 +5367,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44559</v>
+        <v>44539</v>
       </c>
       <c r="E63" t="n">
         <v>13</v>
@@ -5395,7 +5395,7 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
@@ -5404,7 +5404,7 @@
         </is>
       </c>
       <c r="M63" t="n">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="N63" t="n">
         <v>18000</v>
@@ -5417,7 +5417,7 @@
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R63" t="inlineStr">
@@ -5447,7 +5447,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44559</v>
+        <v>44539</v>
       </c>
       <c r="E64" t="n">
         <v>13</v>
@@ -5475,7 +5475,7 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
@@ -5484,20 +5484,20 @@
         </is>
       </c>
       <c r="M64" t="n">
-        <v>380</v>
+        <v>300</v>
       </c>
       <c r="N64" t="n">
-        <v>14400</v>
+        <v>16000</v>
       </c>
       <c r="O64" t="n">
-        <v>14400</v>
+        <v>16000</v>
       </c>
       <c r="P64" t="n">
-        <v>14400</v>
+        <v>16000</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R64" t="inlineStr">
@@ -5506,7 +5506,7 @@
         </is>
       </c>
       <c r="S64" t="n">
-        <v>800</v>
+        <v>889</v>
       </c>
       <c r="T64" t="n">
         <v>18</v>
@@ -5527,7 +5527,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44519</v>
+        <v>44539</v>
       </c>
       <c r="E65" t="n">
         <v>13</v>
@@ -5560,36 +5560,36 @@
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M65" t="n">
         <v>300</v>
       </c>
       <c r="N65" t="n">
-        <v>22500</v>
+        <v>14000</v>
       </c>
       <c r="O65" t="n">
-        <v>22500</v>
+        <v>14000</v>
       </c>
       <c r="P65" t="n">
-        <v>22500</v>
+        <v>14000</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R65" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S65" t="n">
-        <v>1500</v>
+        <v>778</v>
       </c>
       <c r="T65" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="66">
@@ -5607,7 +5607,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44554</v>
+        <v>44160</v>
       </c>
       <c r="E66" t="n">
         <v>13</v>
@@ -5635,7 +5635,7 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
@@ -5644,20 +5644,20 @@
         </is>
       </c>
       <c r="M66" t="n">
-        <v>410</v>
+        <v>25</v>
       </c>
       <c r="N66" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="O66" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="P66" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R66" t="inlineStr">
@@ -5666,10 +5666,10 @@
         </is>
       </c>
       <c r="S66" t="n">
-        <v>778</v>
+        <v>800</v>
       </c>
       <c r="T66" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="67">
@@ -5687,7 +5687,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44554</v>
+        <v>44160</v>
       </c>
       <c r="E67" t="n">
         <v>13</v>
@@ -5715,7 +5715,7 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
@@ -5724,20 +5724,20 @@
         </is>
       </c>
       <c r="M67" t="n">
-        <v>380</v>
+        <v>40</v>
       </c>
       <c r="N67" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="O67" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="P67" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R67" t="inlineStr">
@@ -5746,10 +5746,10 @@
         </is>
       </c>
       <c r="S67" t="n">
-        <v>667</v>
+        <v>700</v>
       </c>
       <c r="T67" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="68">
@@ -5767,7 +5767,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44525</v>
+        <v>44162</v>
       </c>
       <c r="E68" t="n">
         <v>13</v>
@@ -5800,24 +5800,24 @@
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M68" t="n">
-        <v>300</v>
+        <v>70</v>
       </c>
       <c r="N68" t="n">
-        <v>25200</v>
+        <v>8500</v>
       </c>
       <c r="O68" t="n">
-        <v>25200</v>
+        <v>8500</v>
       </c>
       <c r="P68" t="n">
-        <v>25200</v>
+        <v>8500</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R68" t="inlineStr">
@@ -5826,10 +5826,10 @@
         </is>
       </c>
       <c r="S68" t="n">
-        <v>1400</v>
+        <v>850</v>
       </c>
       <c r="T68" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="69">
@@ -5847,7 +5847,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44525</v>
+        <v>44162</v>
       </c>
       <c r="E69" t="n">
         <v>13</v>
@@ -5884,16 +5884,16 @@
         </is>
       </c>
       <c r="M69" t="n">
-        <v>250</v>
+        <v>75</v>
       </c>
       <c r="N69" t="n">
-        <v>21600</v>
+        <v>14000</v>
       </c>
       <c r="O69" t="n">
-        <v>21600</v>
+        <v>15000</v>
       </c>
       <c r="P69" t="n">
-        <v>21600</v>
+        <v>14400</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
@@ -5906,7 +5906,7 @@
         </is>
       </c>
       <c r="S69" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="T69" t="n">
         <v>18</v>
@@ -5927,7 +5927,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44533</v>
+        <v>44540</v>
       </c>
       <c r="E70" t="n">
         <v>13</v>
@@ -5964,32 +5964,32 @@
         </is>
       </c>
       <c r="M70" t="n">
-        <v>410</v>
+        <v>330</v>
       </c>
       <c r="N70" t="n">
-        <v>16500</v>
+        <v>16000</v>
       </c>
       <c r="O70" t="n">
-        <v>16500</v>
+        <v>16000</v>
       </c>
       <c r="P70" t="n">
-        <v>16500</v>
+        <v>16000</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R70" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S70" t="n">
-        <v>1100</v>
+        <v>889</v>
       </c>
       <c r="T70" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="71">
@@ -6007,7 +6007,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44533</v>
+        <v>44540</v>
       </c>
       <c r="E71" t="n">
         <v>13</v>
@@ -6044,32 +6044,32 @@
         </is>
       </c>
       <c r="M71" t="n">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="N71" t="n">
-        <v>10500</v>
+        <v>14000</v>
       </c>
       <c r="O71" t="n">
-        <v>10500</v>
+        <v>14000</v>
       </c>
       <c r="P71" t="n">
-        <v>10500</v>
+        <v>14000</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R71" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S71" t="n">
-        <v>700</v>
+        <v>778</v>
       </c>
       <c r="T71" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="72">
@@ -6087,7 +6087,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44533</v>
+        <v>44553</v>
       </c>
       <c r="E72" t="n">
         <v>13</v>
@@ -6115,16 +6115,16 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Dina</t>
         </is>
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M72" t="n">
-        <v>250</v>
+        <v>280</v>
       </c>
       <c r="N72" t="n">
         <v>7500</v>
@@ -6137,7 +6137,7 @@
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 6 kilos</t>
         </is>
       </c>
       <c r="R72" t="inlineStr">
@@ -6146,10 +6146,10 @@
         </is>
       </c>
       <c r="S72" t="n">
-        <v>500</v>
+        <v>1250</v>
       </c>
       <c r="T72" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="73">
@@ -6167,7 +6167,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44194</v>
+        <v>44553</v>
       </c>
       <c r="E73" t="n">
         <v>13</v>
@@ -6195,7 +6195,7 @@
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Dina</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
@@ -6204,20 +6204,20 @@
         </is>
       </c>
       <c r="M73" t="n">
-        <v>120</v>
+        <v>350</v>
       </c>
       <c r="N73" t="n">
-        <v>13000</v>
+        <v>6500</v>
       </c>
       <c r="O73" t="n">
-        <v>13000</v>
+        <v>6500</v>
       </c>
       <c r="P73" t="n">
-        <v>13000</v>
+        <v>6500</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 6 kilos</t>
         </is>
       </c>
       <c r="R73" t="inlineStr">
@@ -6226,10 +6226,10 @@
         </is>
       </c>
       <c r="S73" t="n">
-        <v>867</v>
+        <v>1083</v>
       </c>
       <c r="T73" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="74">
@@ -6247,7 +6247,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44550</v>
+        <v>44553</v>
       </c>
       <c r="E74" t="n">
         <v>13</v>
@@ -6275,7 +6275,7 @@
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
@@ -6284,32 +6284,32 @@
         </is>
       </c>
       <c r="M74" t="n">
-        <v>150</v>
+        <v>380</v>
       </c>
       <c r="N74" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="O74" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="P74" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R74" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S74" t="n">
-        <v>800</v>
+        <v>778</v>
       </c>
       <c r="T74" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="75">
@@ -6327,7 +6327,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44550</v>
+        <v>44553</v>
       </c>
       <c r="E75" t="n">
         <v>13</v>
@@ -6355,7 +6355,7 @@
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
@@ -6364,32 +6364,32 @@
         </is>
       </c>
       <c r="M75" t="n">
-        <v>120</v>
+        <v>410</v>
       </c>
       <c r="N75" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="O75" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="P75" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R75" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S75" t="n">
-        <v>600</v>
+        <v>667</v>
       </c>
       <c r="T75" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="76">
@@ -6407,7 +6407,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44560</v>
+        <v>44189</v>
       </c>
       <c r="E76" t="n">
         <v>13</v>
@@ -6435,29 +6435,29 @@
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>Helena</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M76" t="n">
-        <v>410</v>
+        <v>130</v>
       </c>
       <c r="N76" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="O76" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="P76" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R76" t="inlineStr">
@@ -6466,7 +6466,7 @@
         </is>
       </c>
       <c r="S76" t="n">
-        <v>1000</v>
+        <v>667</v>
       </c>
       <c r="T76" t="n">
         <v>18</v>
@@ -6487,7 +6487,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44560</v>
+        <v>44561</v>
       </c>
       <c r="E77" t="n">
         <v>13</v>
@@ -6515,25 +6515,25 @@
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>Helena</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M77" t="n">
         <v>330</v>
       </c>
       <c r="N77" t="n">
-        <v>14400</v>
+        <v>18000</v>
       </c>
       <c r="O77" t="n">
-        <v>14400</v>
+        <v>18000</v>
       </c>
       <c r="P77" t="n">
-        <v>14400</v>
+        <v>18000</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
@@ -6542,11 +6542,11 @@
       </c>
       <c r="R77" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S77" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T77" t="n">
         <v>18</v>
@@ -6567,7 +6567,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44560</v>
+        <v>44561</v>
       </c>
       <c r="E78" t="n">
         <v>13</v>
@@ -6595,25 +6595,25 @@
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>Helena</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M78" t="n">
-        <v>380</v>
+        <v>350</v>
       </c>
       <c r="N78" t="n">
-        <v>12600</v>
+        <v>14400</v>
       </c>
       <c r="O78" t="n">
-        <v>12600</v>
+        <v>14400</v>
       </c>
       <c r="P78" t="n">
-        <v>12600</v>
+        <v>14400</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
@@ -6622,11 +6622,11 @@
       </c>
       <c r="R78" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S78" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="T78" t="n">
         <v>18</v>
@@ -6647,7 +6647,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44167</v>
+        <v>44561</v>
       </c>
       <c r="E79" t="n">
         <v>13</v>
@@ -6675,41 +6675,41 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M79" t="n">
-        <v>85</v>
+        <v>300</v>
       </c>
       <c r="N79" t="n">
-        <v>10000</v>
+        <v>10800</v>
       </c>
       <c r="O79" t="n">
-        <v>10000</v>
+        <v>10800</v>
       </c>
       <c r="P79" t="n">
-        <v>10000</v>
+        <v>10800</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R79" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S79" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="T79" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="80">
@@ -6727,7 +6727,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44167</v>
+        <v>44557</v>
       </c>
       <c r="E80" t="n">
         <v>13</v>
@@ -6755,41 +6755,41 @@
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M80" t="n">
-        <v>120</v>
+        <v>380</v>
       </c>
       <c r="N80" t="n">
-        <v>9500</v>
+        <v>15000</v>
       </c>
       <c r="O80" t="n">
-        <v>9500</v>
+        <v>15000</v>
       </c>
       <c r="P80" t="n">
-        <v>9500</v>
+        <v>15000</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R80" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S80" t="n">
-        <v>950</v>
+        <v>1000</v>
       </c>
       <c r="T80" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="81">
@@ -6807,7 +6807,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44167</v>
+        <v>44557</v>
       </c>
       <c r="E81" t="n">
         <v>13</v>
@@ -6835,7 +6835,7 @@
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
@@ -6844,32 +6844,32 @@
         </is>
       </c>
       <c r="M81" t="n">
-        <v>60</v>
+        <v>330</v>
       </c>
       <c r="N81" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O81" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P81" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R81" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S81" t="n">
-        <v>833</v>
+        <v>800</v>
       </c>
       <c r="T81" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="82">
@@ -6887,7 +6887,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44545</v>
+        <v>44572</v>
       </c>
       <c r="E82" t="n">
         <v>13</v>
@@ -6915,25 +6915,25 @@
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M82" t="n">
-        <v>310</v>
+        <v>580</v>
       </c>
       <c r="N82" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="O82" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="P82" t="n">
-        <v>18000</v>
+        <v>14517</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
@@ -6942,11 +6942,11 @@
       </c>
       <c r="R82" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S82" t="n">
-        <v>1000</v>
+        <v>806</v>
       </c>
       <c r="T82" t="n">
         <v>18</v>
@@ -6967,7 +6967,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44545</v>
+        <v>44187</v>
       </c>
       <c r="E83" t="n">
         <v>13</v>
@@ -6995,7 +6995,7 @@
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L83" t="inlineStr">
@@ -7004,32 +7004,32 @@
         </is>
       </c>
       <c r="M83" t="n">
-        <v>350</v>
+        <v>80</v>
       </c>
       <c r="N83" t="n">
-        <v>14400</v>
+        <v>15000</v>
       </c>
       <c r="O83" t="n">
-        <v>14400</v>
+        <v>15000</v>
       </c>
       <c r="P83" t="n">
-        <v>14400</v>
+        <v>15000</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R83" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S83" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T83" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="84">
@@ -7047,7 +7047,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44547</v>
+        <v>44187</v>
       </c>
       <c r="E84" t="n">
         <v>13</v>
@@ -7075,29 +7075,29 @@
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>Dina</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M84" t="n">
-        <v>450</v>
+        <v>95</v>
       </c>
       <c r="N84" t="n">
-        <v>12000</v>
+        <v>13500</v>
       </c>
       <c r="O84" t="n">
-        <v>12000</v>
+        <v>13500</v>
       </c>
       <c r="P84" t="n">
-        <v>12000</v>
+        <v>13500</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R84" t="inlineStr">
@@ -7106,10 +7106,10 @@
         </is>
       </c>
       <c r="S84" t="n">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="T84" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="85">
@@ -7127,7 +7127,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44547</v>
+        <v>44187</v>
       </c>
       <c r="E85" t="n">
         <v>13</v>
@@ -7155,29 +7155,29 @@
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>Dina</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M85" t="n">
-        <v>410</v>
+        <v>120</v>
       </c>
       <c r="N85" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O85" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P85" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R85" t="inlineStr">
@@ -7186,10 +7186,10 @@
         </is>
       </c>
       <c r="S85" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T85" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="86">
@@ -7207,7 +7207,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44547</v>
+        <v>44194</v>
       </c>
       <c r="E86" t="n">
         <v>13</v>
@@ -7235,29 +7235,29 @@
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>Dina</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M86" t="n">
-        <v>350</v>
+        <v>120</v>
       </c>
       <c r="N86" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="O86" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="P86" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R86" t="inlineStr">
@@ -7266,10 +7266,10 @@
         </is>
       </c>
       <c r="S86" t="n">
-        <v>800</v>
+        <v>867</v>
       </c>
       <c r="T86" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="87">
@@ -7287,7 +7287,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44162</v>
+        <v>44546</v>
       </c>
       <c r="E87" t="n">
         <v>13</v>
@@ -7315,25 +7315,25 @@
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Dina</t>
         </is>
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M87" t="n">
-        <v>70</v>
+        <v>380</v>
       </c>
       <c r="N87" t="n">
-        <v>8500</v>
+        <v>12000</v>
       </c>
       <c r="O87" t="n">
-        <v>8500</v>
+        <v>12000</v>
       </c>
       <c r="P87" t="n">
-        <v>8500</v>
+        <v>12000</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
@@ -7342,11 +7342,11 @@
       </c>
       <c r="R87" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S87" t="n">
-        <v>850</v>
+        <v>1200</v>
       </c>
       <c r="T87" t="n">
         <v>10</v>
@@ -7367,7 +7367,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44162</v>
+        <v>44546</v>
       </c>
       <c r="E88" t="n">
         <v>13</v>
@@ -7395,7 +7395,7 @@
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Dina</t>
         </is>
       </c>
       <c r="L88" t="inlineStr">
@@ -7404,32 +7404,32 @@
         </is>
       </c>
       <c r="M88" t="n">
-        <v>75</v>
+        <v>330</v>
       </c>
       <c r="N88" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O88" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P88" t="n">
-        <v>14400</v>
+        <v>10000</v>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R88" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S88" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T88" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="89">
@@ -7447,7 +7447,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44176</v>
+        <v>44546</v>
       </c>
       <c r="E89" t="n">
         <v>13</v>
@@ -7475,41 +7475,41 @@
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>Modesto</t>
+          <t>Dina</t>
         </is>
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M89" t="n">
-        <v>115</v>
+        <v>300</v>
       </c>
       <c r="N89" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="O89" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P89" t="n">
-        <v>11609</v>
+        <v>8000</v>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R89" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S89" t="n">
-        <v>967</v>
+        <v>800</v>
       </c>
       <c r="T89" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="90">
@@ -7527,7 +7527,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44160</v>
+        <v>44174</v>
       </c>
       <c r="E90" t="n">
         <v>13</v>
@@ -7555,7 +7555,7 @@
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Modesto</t>
         </is>
       </c>
       <c r="L90" t="inlineStr">
@@ -7564,16 +7564,16 @@
         </is>
       </c>
       <c r="M90" t="n">
-        <v>25</v>
+        <v>120</v>
       </c>
       <c r="N90" t="n">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="O90" t="n">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="P90" t="n">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
@@ -7582,11 +7582,11 @@
       </c>
       <c r="R90" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S90" t="n">
-        <v>800</v>
+        <v>850</v>
       </c>
       <c r="T90" t="n">
         <v>10</v>
@@ -7607,7 +7607,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44160</v>
+        <v>44174</v>
       </c>
       <c r="E91" t="n">
         <v>13</v>
@@ -7635,41 +7635,41 @@
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Modesto</t>
         </is>
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M91" t="n">
-        <v>40</v>
+        <v>180</v>
       </c>
       <c r="N91" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="O91" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="P91" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R91" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S91" t="n">
-        <v>700</v>
+        <v>833</v>
       </c>
       <c r="T91" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="92">
@@ -7687,7 +7687,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44189</v>
+        <v>44174</v>
       </c>
       <c r="E92" t="n">
         <v>13</v>
@@ -7715,16 +7715,16 @@
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Modesto</t>
         </is>
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M92" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="N92" t="n">
         <v>12000</v>
@@ -7742,7 +7742,7 @@
       </c>
       <c r="R92" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S92" t="n">

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Damasco.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Damasco.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44519</v>
+        <v>44574</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -515,41 +515,41 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="N2" t="n">
-        <v>22500</v>
+        <v>18000</v>
       </c>
       <c r="O2" t="n">
-        <v>22500</v>
+        <v>18000</v>
       </c>
       <c r="P2" t="n">
-        <v>22500</v>
+        <v>18000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="T2" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44168</v>
+        <v>44574</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -595,41 +595,41 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Dina</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>40</v>
+        <v>480</v>
       </c>
       <c r="N3" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O3" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P3" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1400</v>
+        <v>833</v>
       </c>
       <c r="T3" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44574</v>
+        <v>44572</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -680,20 +680,20 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>350</v>
+        <v>580</v>
       </c>
       <c r="N4" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="O4" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="P4" t="n">
-        <v>18000</v>
+        <v>14517</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1000</v>
+        <v>806</v>
       </c>
       <c r="T4" t="n">
         <v>18</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44574</v>
+        <v>44174</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -755,7 +755,7 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Modesto</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -764,32 +764,32 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>480</v>
+        <v>120</v>
       </c>
       <c r="N5" t="n">
-        <v>15000</v>
+        <v>8500</v>
       </c>
       <c r="O5" t="n">
-        <v>15000</v>
+        <v>8500</v>
       </c>
       <c r="P5" t="n">
-        <v>15000</v>
+        <v>8500</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S5" t="n">
-        <v>833</v>
+        <v>850</v>
       </c>
       <c r="T5" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44169</v>
+        <v>44174</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -835,7 +835,7 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Dina</t>
+          <t>Modesto</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -844,32 +844,32 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>80</v>
+        <v>180</v>
       </c>
       <c r="N6" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O6" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P6" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1000</v>
+        <v>833</v>
       </c>
       <c r="T6" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7">
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44536</v>
+        <v>44174</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -915,41 +915,41 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Modesto</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>220</v>
+        <v>120</v>
       </c>
       <c r="N7" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O7" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P7" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1100</v>
+        <v>667</v>
       </c>
       <c r="T7" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8">
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44536</v>
+        <v>44176</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -995,41 +995,41 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Modesto</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>250</v>
+        <v>115</v>
       </c>
       <c r="N8" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="O8" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="P8" t="n">
-        <v>7000</v>
+        <v>11609</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S8" t="n">
-        <v>700</v>
+        <v>967</v>
       </c>
       <c r="T8" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9">
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44167</v>
+        <v>44537</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1080,24 +1080,24 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>85</v>
+        <v>400</v>
       </c>
       <c r="N9" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="O9" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="P9" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
@@ -1106,10 +1106,10 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1000</v>
+        <v>889</v>
       </c>
       <c r="T9" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10">
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44167</v>
+        <v>44175</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1155,7 +1155,7 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Modesto</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
@@ -1164,20 +1164,20 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="N10" t="n">
-        <v>9500</v>
+        <v>11000</v>
       </c>
       <c r="O10" t="n">
-        <v>9500</v>
+        <v>12000</v>
       </c>
       <c r="P10" t="n">
-        <v>9500</v>
+        <v>11571</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
@@ -1186,10 +1186,10 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>950</v>
+        <v>964</v>
       </c>
       <c r="T10" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11">
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44167</v>
+        <v>44168</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1235,41 +1235,41 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Dina</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="N11" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="O11" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P11" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S11" t="n">
-        <v>833</v>
+        <v>1400</v>
       </c>
       <c r="T11" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12">
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44559</v>
+        <v>44195</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1315,25 +1315,25 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Helena</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>310</v>
+        <v>124</v>
       </c>
       <c r="N12" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="O12" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P12" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1342,11 +1342,11 @@
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1000</v>
+        <v>867</v>
       </c>
       <c r="T12" t="n">
         <v>15</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44559</v>
+        <v>44194</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1395,7 +1395,7 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Helena</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -1404,16 +1404,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>350</v>
+        <v>120</v>
       </c>
       <c r="N13" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O13" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P13" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1422,11 +1422,11 @@
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S13" t="n">
-        <v>800</v>
+        <v>867</v>
       </c>
       <c r="T13" t="n">
         <v>15</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44559</v>
+        <v>44540</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1475,25 +1475,25 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>300</v>
+        <v>330</v>
       </c>
       <c r="N14" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="O14" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="P14" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1502,11 +1502,11 @@
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1000</v>
+        <v>889</v>
       </c>
       <c r="T14" t="n">
         <v>18</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44559</v>
+        <v>44540</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1555,25 +1555,25 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>380</v>
+        <v>280</v>
       </c>
       <c r="N15" t="n">
-        <v>14400</v>
+        <v>14000</v>
       </c>
       <c r="O15" t="n">
-        <v>14400</v>
+        <v>14000</v>
       </c>
       <c r="P15" t="n">
-        <v>14400</v>
+        <v>14000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1582,11 +1582,11 @@
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S15" t="n">
-        <v>800</v>
+        <v>778</v>
       </c>
       <c r="T15" t="n">
         <v>18</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44175</v>
+        <v>44559</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1635,41 +1635,41 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Modesto</t>
+          <t>Helena</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>140</v>
+        <v>310</v>
       </c>
       <c r="N16" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="O16" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P16" t="n">
-        <v>11571</v>
+        <v>15000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S16" t="n">
-        <v>964</v>
+        <v>1000</v>
       </c>
       <c r="T16" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17">
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44537</v>
+        <v>44559</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1715,7 +1715,7 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Helena</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
@@ -1724,32 +1724,32 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="N17" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="O17" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="P17" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S17" t="n">
-        <v>889</v>
+        <v>800</v>
       </c>
       <c r="T17" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18">
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44558</v>
+        <v>44559</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1795,7 +1795,7 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Helena</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
@@ -1804,32 +1804,32 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>330</v>
+        <v>300</v>
       </c>
       <c r="N18" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="O18" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="P18" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S18" t="n">
         <v>1000</v>
       </c>
       <c r="T18" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19">
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44558</v>
+        <v>44559</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
@@ -1875,7 +1875,7 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Helena</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
@@ -1884,32 +1884,32 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>350</v>
+        <v>380</v>
       </c>
       <c r="N19" t="n">
-        <v>12800</v>
+        <v>14400</v>
       </c>
       <c r="O19" t="n">
-        <v>12800</v>
+        <v>14400</v>
       </c>
       <c r="P19" t="n">
-        <v>12800</v>
+        <v>14400</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S19" t="n">
         <v>800</v>
       </c>
       <c r="T19" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20">
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44558</v>
+        <v>44557</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1960,36 +1960,36 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>410</v>
+        <v>380</v>
       </c>
       <c r="N20" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O20" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P20" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S20" t="n">
-        <v>778</v>
+        <v>1000</v>
       </c>
       <c r="T20" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21">
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44558</v>
+        <v>44557</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -2040,11 +2040,11 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>380</v>
+        <v>330</v>
       </c>
       <c r="N21" t="n">
         <v>12000</v>
@@ -2057,19 +2057,19 @@
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S21" t="n">
-        <v>667</v>
+        <v>800</v>
       </c>
       <c r="T21" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22">
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44195</v>
+        <v>44560</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
@@ -2115,29 +2115,29 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Helena</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>124</v>
+        <v>410</v>
       </c>
       <c r="N22" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="O22" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="P22" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
@@ -2146,10 +2146,10 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>867</v>
+        <v>1000</v>
       </c>
       <c r="T22" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23">
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44159</v>
+        <v>44560</v>
       </c>
       <c r="E23" t="n">
         <v>13</v>
@@ -2195,7 +2195,7 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Helena</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
@@ -2204,20 +2204,20 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>80</v>
+        <v>330</v>
       </c>
       <c r="N23" t="n">
-        <v>8000</v>
+        <v>14400</v>
       </c>
       <c r="O23" t="n">
-        <v>8000</v>
+        <v>14400</v>
       </c>
       <c r="P23" t="n">
-        <v>8000</v>
+        <v>14400</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
@@ -2229,7 +2229,7 @@
         <v>800</v>
       </c>
       <c r="T23" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24">
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44159</v>
+        <v>44560</v>
       </c>
       <c r="E24" t="n">
         <v>13</v>
@@ -2275,7 +2275,7 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Helena</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
@@ -2284,20 +2284,20 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>65</v>
+        <v>380</v>
       </c>
       <c r="N24" t="n">
-        <v>7000</v>
+        <v>12600</v>
       </c>
       <c r="O24" t="n">
-        <v>7000</v>
+        <v>12600</v>
       </c>
       <c r="P24" t="n">
-        <v>7000</v>
+        <v>12600</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
@@ -2309,7 +2309,7 @@
         <v>700</v>
       </c>
       <c r="T24" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25">
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44523</v>
+        <v>44573</v>
       </c>
       <c r="E25" t="n">
         <v>13</v>
@@ -2355,29 +2355,29 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>320</v>
+        <v>380</v>
       </c>
       <c r="N25" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="O25" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="P25" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
@@ -2386,10 +2386,10 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>1000</v>
+        <v>944</v>
       </c>
       <c r="T25" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26">
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44525</v>
+        <v>44573</v>
       </c>
       <c r="E26" t="n">
         <v>13</v>
@@ -2435,25 +2435,25 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M26" t="n">
-        <v>300</v>
+        <v>410</v>
       </c>
       <c r="N26" t="n">
-        <v>25200</v>
+        <v>15000</v>
       </c>
       <c r="O26" t="n">
-        <v>25200</v>
+        <v>15000</v>
       </c>
       <c r="P26" t="n">
-        <v>25200</v>
+        <v>15000</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>1400</v>
+        <v>833</v>
       </c>
       <c r="T26" t="n">
         <v>18</v>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44525</v>
+        <v>44573</v>
       </c>
       <c r="E27" t="n">
         <v>13</v>
@@ -2515,25 +2515,25 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M27" t="n">
-        <v>250</v>
+        <v>330</v>
       </c>
       <c r="N27" t="n">
-        <v>21600</v>
+        <v>13000</v>
       </c>
       <c r="O27" t="n">
-        <v>21600</v>
+        <v>13000</v>
       </c>
       <c r="P27" t="n">
-        <v>21600</v>
+        <v>13000</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="S27" t="n">
-        <v>1200</v>
+        <v>722</v>
       </c>
       <c r="T27" t="n">
         <v>18</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44176</v>
+        <v>44547</v>
       </c>
       <c r="E28" t="n">
         <v>13</v>
@@ -2595,29 +2595,29 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Modesto</t>
+          <t>Dina</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>115</v>
+        <v>450</v>
       </c>
       <c r="N28" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O28" t="n">
         <v>12000</v>
       </c>
       <c r="P28" t="n">
-        <v>11609</v>
+        <v>12000</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
@@ -2626,10 +2626,10 @@
         </is>
       </c>
       <c r="S28" t="n">
-        <v>967</v>
+        <v>1200</v>
       </c>
       <c r="T28" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29">
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44545</v>
+        <v>44547</v>
       </c>
       <c r="E29" t="n">
         <v>13</v>
@@ -2675,41 +2675,41 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Dina</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>310</v>
+        <v>410</v>
       </c>
       <c r="N29" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="O29" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="P29" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S29" t="n">
         <v>1000</v>
       </c>
       <c r="T29" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30">
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44545</v>
+        <v>44547</v>
       </c>
       <c r="E30" t="n">
         <v>13</v>
@@ -2755,41 +2755,41 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Castle Brite</t>
+          <t>Dina</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M30" t="n">
         <v>350</v>
       </c>
       <c r="N30" t="n">
-        <v>14400</v>
+        <v>8000</v>
       </c>
       <c r="O30" t="n">
-        <v>14400</v>
+        <v>8000</v>
       </c>
       <c r="P30" t="n">
-        <v>14400</v>
+        <v>8000</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S30" t="n">
         <v>800</v>
       </c>
       <c r="T30" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31">
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44566</v>
+        <v>44550</v>
       </c>
       <c r="E31" t="n">
         <v>13</v>
@@ -2835,29 +2835,29 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M31" t="n">
-        <v>410</v>
+        <v>150</v>
       </c>
       <c r="N31" t="n">
-        <v>18000</v>
+        <v>8000</v>
       </c>
       <c r="O31" t="n">
-        <v>18000</v>
+        <v>8000</v>
       </c>
       <c r="P31" t="n">
-        <v>18000</v>
+        <v>8000</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
@@ -2866,10 +2866,10 @@
         </is>
       </c>
       <c r="S31" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T31" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32">
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44566</v>
+        <v>44550</v>
       </c>
       <c r="E32" t="n">
         <v>13</v>
@@ -2915,29 +2915,29 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>Patterson</t>
+          <t>Castle Brite</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M32" t="n">
-        <v>350</v>
+        <v>120</v>
       </c>
       <c r="N32" t="n">
-        <v>14400</v>
+        <v>6000</v>
       </c>
       <c r="O32" t="n">
-        <v>14400</v>
+        <v>6000</v>
       </c>
       <c r="P32" t="n">
-        <v>14400</v>
+        <v>6000</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
@@ -2946,10 +2946,10 @@
         </is>
       </c>
       <c r="S32" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="T32" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33">
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44551</v>
+        <v>44546</v>
       </c>
       <c r="E33" t="n">
         <v>13</v>
@@ -3004,20 +3004,20 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>220</v>
+        <v>380</v>
       </c>
       <c r="N33" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="O33" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="P33" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
@@ -3026,10 +3026,10 @@
         </is>
       </c>
       <c r="S33" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="T33" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34">
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44551</v>
+        <v>44546</v>
       </c>
       <c r="E34" t="n">
         <v>13</v>
@@ -3084,20 +3084,20 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="N34" t="n">
-        <v>14400</v>
+        <v>10000</v>
       </c>
       <c r="O34" t="n">
-        <v>14400</v>
+        <v>10000</v>
       </c>
       <c r="P34" t="n">
-        <v>14400</v>
+        <v>10000</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
@@ -3106,10 +3106,10 @@
         </is>
       </c>
       <c r="S34" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T34" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35">
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44547</v>
+        <v>44546</v>
       </c>
       <c r="E35" t="n">
         <v>13</v>
@@ -3160,20 +3160,20 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M35" t="n">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="N35" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O35" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P35" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3182,11 +3182,11 @@
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S35" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="T35" t="n">
         <v>10</v>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44547</v>
+        <v>44169</v>
       </c>
       <c r="E36" t="n">
         <v>13</v>
@@ -3244,7 +3244,7 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>410</v>
+        <v>80</v>
       </c>
       <c r="N36" t="n">
         <v>